--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="278">
   <si>
     <t>symbol</t>
   </si>
@@ -653,9 +653,6 @@
   </si>
   <si>
     <t>RENUSDT</t>
-  </si>
-  <si>
-    <t>REQUSDT</t>
   </si>
   <si>
     <t>RLCUSDT</t>
@@ -1208,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E271"/>
+  <dimension ref="A1:E270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1236,16 +1233,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C2">
-        <v>98.333</v>
+        <v>98.361</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1253,16 +1250,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C3">
-        <v>102.413</v>
+        <v>98.01300000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1270,16 +1267,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C4">
-        <v>127.778</v>
+        <v>122.222</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1287,16 +1284,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C5">
-        <v>101.078</v>
+        <v>97.84399999999999</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1304,16 +1301,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C6">
-        <v>107.143</v>
+        <v>104.762</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1321,16 +1318,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1338,16 +1335,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C8">
         <v>118.182</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1355,16 +1352,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C9">
         <v>98.182</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1372,16 +1369,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C10">
         <v>122.222</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1389,16 +1386,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>96.875</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1406,16 +1403,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C12">
-        <v>101.463</v>
+        <v>99.024</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1423,16 +1420,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C13">
-        <v>96.97</v>
+        <v>97.059</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1440,16 +1437,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C14">
-        <v>107.018</v>
+        <v>103.468</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1457,16 +1454,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C15">
-        <v>103.448</v>
+        <v>96.55200000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1474,16 +1471,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C16">
         <v>91.667</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1491,16 +1488,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C17">
-        <v>101.13</v>
+        <v>96.866</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1508,16 +1505,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>98.81</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E18" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1525,16 +1522,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C19">
-        <v>113.54</v>
+        <v>108.745</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1542,16 +1539,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C20">
-        <v>84.65900000000001</v>
+        <v>86.705</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E20" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1559,16 +1556,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C21">
         <v>104.571</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1576,16 +1573,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C22">
         <v>108.197</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E22" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1593,16 +1590,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C23">
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E23" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1610,16 +1607,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C24">
         <v>129.787</v>
       </c>
       <c r="D24" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E24" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1627,16 +1624,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C25">
-        <v>108.578</v>
+        <v>107.328</v>
       </c>
       <c r="D25" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E25" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1644,16 +1641,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C26">
-        <v>100.811</v>
+        <v>95.95699999999999</v>
       </c>
       <c r="D26" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E26" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1661,16 +1658,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C27">
         <v>172.727</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E27" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1678,16 +1675,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C28">
         <v>93.333</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E28" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1695,16 +1692,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C29">
-        <v>97.039</v>
+        <v>96.313</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1712,16 +1709,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C30">
-        <v>118.783</v>
+        <v>105.534</v>
       </c>
       <c r="D30" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1729,16 +1726,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C31">
-        <v>101.084</v>
+        <v>95.764</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1746,16 +1743,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C32">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E32" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1763,16 +1760,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C33">
-        <v>101.351</v>
+        <v>98.667</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E33" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1780,16 +1777,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C34">
-        <v>102.918</v>
+        <v>98.521</v>
       </c>
       <c r="D34" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E34" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1797,16 +1794,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C35">
-        <v>99.434</v>
+        <v>99.92</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E35" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1814,16 +1811,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C36">
-        <v>112.045</v>
+        <v>106.094</v>
       </c>
       <c r="D36" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E36" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1831,16 +1828,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C37">
-        <v>87.5</v>
+        <v>91.667</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1848,16 +1845,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C38">
-        <v>109.827</v>
+        <v>102.703</v>
       </c>
       <c r="D38" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E38" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1865,16 +1862,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C39">
-        <v>97.5</v>
+        <v>93.443</v>
       </c>
       <c r="D39" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E39" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1882,16 +1879,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C40">
-        <v>102.131</v>
+        <v>98.04600000000001</v>
       </c>
       <c r="D40" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E40" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1899,16 +1896,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C41">
         <v>100</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1916,16 +1913,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C42">
-        <v>95.80800000000001</v>
+        <v>96.246</v>
       </c>
       <c r="D42" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E42" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1933,16 +1930,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C43">
-        <v>98.276</v>
+        <v>94.91500000000001</v>
       </c>
       <c r="D43" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E43" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1950,16 +1947,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C44">
-        <v>112.5</v>
+        <v>107.5</v>
       </c>
       <c r="D44" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1967,16 +1964,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C45">
-        <v>104.47</v>
+        <v>102.26</v>
       </c>
       <c r="D45" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E45" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1984,16 +1981,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C46">
         <v>141.304</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E46" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2001,16 +1998,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C47">
-        <v>89.687</v>
+        <v>83.57899999999999</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2018,16 +2015,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C48">
-        <v>98.372</v>
+        <v>95.723</v>
       </c>
       <c r="D48" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E48" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2035,16 +2032,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C49">
-        <v>104.651</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2052,16 +2049,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C50">
-        <v>102.633</v>
+        <v>104.059</v>
       </c>
       <c r="D50" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E50" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2069,16 +2066,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C51">
-        <v>102.519</v>
+        <v>98.83</v>
       </c>
       <c r="D51" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2086,16 +2083,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C52">
         <v>111.538</v>
       </c>
       <c r="D52" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E52" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2103,16 +2100,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C53">
-        <v>103.618</v>
+        <v>97.172</v>
       </c>
       <c r="D53" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E53" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2120,16 +2117,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C54">
-        <v>100.613</v>
+        <v>97.099</v>
       </c>
       <c r="D54" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E54" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2137,16 +2134,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C55">
-        <v>104.255</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2154,16 +2151,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C56">
         <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E56" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2171,16 +2168,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C57">
-        <v>111.429</v>
+        <v>102.778</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2188,16 +2185,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C58">
-        <v>96.239</v>
+        <v>94.956</v>
       </c>
       <c r="D58" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E58" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2205,16 +2202,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C59">
-        <v>100</v>
+        <v>96.154</v>
       </c>
       <c r="D59" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E59" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2222,16 +2219,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C60">
         <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E60" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2239,16 +2236,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C61">
-        <v>93.75</v>
+        <v>87.5</v>
       </c>
       <c r="D61" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E61" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2256,16 +2253,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C62">
-        <v>113.636</v>
+        <v>109.091</v>
       </c>
       <c r="D62" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E62" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2273,16 +2270,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C63">
-        <v>94.384</v>
+        <v>92.188</v>
       </c>
       <c r="D63" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E63" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2290,16 +2287,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C64">
         <v>184.694</v>
       </c>
       <c r="D64" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E64" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2307,16 +2304,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C65">
-        <v>88.435</v>
+        <v>92.354</v>
       </c>
       <c r="D65" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2324,16 +2321,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C66">
         <v>77.86799999999999</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E66" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2341,16 +2338,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C67">
-        <v>111.364</v>
+        <v>106.818</v>
       </c>
       <c r="D67" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E67" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2358,16 +2355,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C68">
-        <v>104.706</v>
+        <v>103.529</v>
       </c>
       <c r="D68" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E68" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2375,16 +2372,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C69">
-        <v>100</v>
+        <v>93.333</v>
       </c>
       <c r="D69" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E69" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2392,16 +2389,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C70">
         <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2409,16 +2406,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C71">
-        <v>125</v>
+        <v>157.895</v>
       </c>
       <c r="D71" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E71" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2426,16 +2423,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C72">
-        <v>109.677</v>
+        <v>119.355</v>
       </c>
       <c r="D72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2443,16 +2440,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C73">
-        <v>87.29900000000001</v>
+        <v>84.93600000000001</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E73" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2460,16 +2457,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C74">
         <v>68.869</v>
       </c>
       <c r="D74" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E74" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2477,16 +2474,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C75">
-        <v>100</v>
+        <v>95.238</v>
       </c>
       <c r="D75" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E75" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2494,16 +2491,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C76">
-        <v>96.13200000000001</v>
+        <v>94.55200000000001</v>
       </c>
       <c r="D76" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E76" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2511,16 +2508,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C77">
-        <v>96.124</v>
+        <v>91.255</v>
       </c>
       <c r="D77" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E77" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2528,16 +2525,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C78">
-        <v>89.56</v>
+        <v>91.477</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E78" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2545,16 +2542,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C79">
-        <v>100</v>
+        <v>96.358</v>
       </c>
       <c r="D79" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E79" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2562,16 +2559,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C80">
         <v>100</v>
       </c>
       <c r="D80" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E80" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2579,16 +2576,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C81">
-        <v>100</v>
+        <v>92.30800000000001</v>
       </c>
       <c r="D81" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E81" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2596,16 +2593,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C82">
-        <v>101.268</v>
+        <v>96.914</v>
       </c>
       <c r="D82" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E82" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2613,16 +2610,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C83">
-        <v>118.75</v>
+        <v>110.417</v>
       </c>
       <c r="D83" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E83" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2630,16 +2627,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C84">
-        <v>92.30800000000001</v>
+        <v>84.61499999999999</v>
       </c>
       <c r="D84" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2647,16 +2644,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C85">
-        <v>100.8</v>
+        <v>96.124</v>
       </c>
       <c r="D85" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2664,16 +2661,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C86">
         <v>110.484</v>
       </c>
       <c r="D86" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E86" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2681,16 +2678,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C87">
-        <v>88.85599999999999</v>
+        <v>84.111</v>
       </c>
       <c r="D87" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E87" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2698,16 +2695,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C88">
         <v>100</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E88" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2715,16 +2712,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C89">
         <v>106.667</v>
       </c>
       <c r="D89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E89" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2732,16 +2729,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C90">
-        <v>77.14400000000001</v>
+        <v>74.267</v>
       </c>
       <c r="D90" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E90" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2749,16 +2746,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C91">
-        <v>117.117</v>
+        <v>119.643</v>
       </c>
       <c r="D91" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E91" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2766,16 +2763,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C92">
-        <v>46.749</v>
+        <v>46.732</v>
       </c>
       <c r="D92" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2783,16 +2780,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C93">
-        <v>112.644</v>
+        <v>107.972</v>
       </c>
       <c r="D93" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E93" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2800,16 +2797,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C94">
-        <v>89.565</v>
+        <v>99.123</v>
       </c>
       <c r="D94" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E94" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2817,16 +2814,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C95">
-        <v>106.897</v>
+        <v>99.691</v>
       </c>
       <c r="D95" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E95" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2834,16 +2831,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C96">
-        <v>104.599</v>
+        <v>99.985</v>
       </c>
       <c r="D96" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2851,16 +2848,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C97">
         <v>103.093</v>
       </c>
       <c r="D97" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E97" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2868,16 +2865,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C98">
-        <v>101.028</v>
+        <v>100.261</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2885,16 +2882,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C99">
         <v>100</v>
       </c>
       <c r="D99" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2902,16 +2899,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C100">
-        <v>107.317</v>
+        <v>102.439</v>
       </c>
       <c r="D100" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2919,16 +2916,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C101">
-        <v>101.67</v>
+        <v>97.974</v>
       </c>
       <c r="D101" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2936,16 +2933,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C102">
-        <v>113.462</v>
+        <v>108.203</v>
       </c>
       <c r="D102" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2953,16 +2950,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C103">
-        <v>103.125</v>
+        <v>96.97</v>
       </c>
       <c r="D103" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2970,16 +2967,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C104">
-        <v>100.592</v>
+        <v>98.246</v>
       </c>
       <c r="D104" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E104" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2987,16 +2984,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C105">
-        <v>118.519</v>
+        <v>111.111</v>
       </c>
       <c r="D105" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E105" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3004,16 +3001,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C106">
-        <v>100.429</v>
+        <v>100.218</v>
       </c>
       <c r="D106" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E106" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3021,16 +3018,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C107">
-        <v>100</v>
+        <v>95.652</v>
       </c>
       <c r="D107" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3038,16 +3035,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C108">
         <v>104.545</v>
       </c>
       <c r="D108" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E108" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3055,16 +3052,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C109">
-        <v>112.801</v>
+        <v>119.026</v>
       </c>
       <c r="D109" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E109" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3072,16 +3069,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C110">
-        <v>104.931</v>
+        <v>93.91</v>
       </c>
       <c r="D110" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E110" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3089,16 +3086,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C111">
-        <v>96.911</v>
+        <v>93.893</v>
       </c>
       <c r="D111" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E111" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3106,16 +3103,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C112">
         <v>111.243</v>
       </c>
       <c r="D112" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E112" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3123,16 +3120,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C113">
         <v>103.448</v>
       </c>
       <c r="D113" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E113" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3140,16 +3137,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C114">
-        <v>104.31</v>
+        <v>101.709</v>
       </c>
       <c r="D114" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E114" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3157,16 +3154,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C115">
-        <v>95.91800000000001</v>
+        <v>93.878</v>
       </c>
       <c r="D115" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E115" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3174,16 +3171,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C116">
         <v>104</v>
       </c>
       <c r="D116" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E116" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3191,16 +3188,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C117">
         <v>96.875</v>
       </c>
       <c r="D117" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E117" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3208,16 +3205,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C118">
         <v>142.223</v>
       </c>
       <c r="D118" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E118" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3225,16 +3222,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C119">
-        <v>115.869</v>
+        <v>111.337</v>
       </c>
       <c r="D119" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E119" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3242,16 +3239,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C120">
         <v>148.127</v>
       </c>
       <c r="D120" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E120" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3259,16 +3256,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C121">
-        <v>104.444</v>
+        <v>100.556</v>
       </c>
       <c r="D121" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E121" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3276,16 +3273,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C122">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D122" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E122" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3293,16 +3290,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C123">
         <v>214.583</v>
       </c>
       <c r="D123" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E123" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3310,16 +3307,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C124">
         <v>104.082</v>
       </c>
       <c r="D124" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E124" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3327,16 +3324,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C125">
-        <v>84.568</v>
+        <v>85.89700000000001</v>
       </c>
       <c r="D125" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E125" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3344,16 +3341,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C126">
-        <v>98.148</v>
+        <v>98.077</v>
       </c>
       <c r="D126" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E126" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3361,16 +3358,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C127">
         <v>178.322</v>
       </c>
       <c r="D127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E127" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3378,16 +3375,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C128">
-        <v>104.131</v>
+        <v>101.026</v>
       </c>
       <c r="D128" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E128" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3395,16 +3392,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C129">
-        <v>104.167</v>
+        <v>100</v>
       </c>
       <c r="D129" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E129" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3412,16 +3409,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C130">
         <v>87.23399999999999</v>
       </c>
       <c r="D130" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E130" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3429,16 +3426,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C131">
-        <v>103.22</v>
+        <v>103.267</v>
       </c>
       <c r="D131" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3446,16 +3443,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C132">
-        <v>105.479</v>
+        <v>104.11</v>
       </c>
       <c r="D132" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E132" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3463,16 +3460,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C133">
-        <v>78.89400000000001</v>
+        <v>79.688</v>
       </c>
       <c r="D133" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E133" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3480,16 +3477,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C134">
         <v>96.29600000000001</v>
       </c>
       <c r="D134" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E134" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3497,16 +3494,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C135">
-        <v>100</v>
+        <v>95.455</v>
       </c>
       <c r="D135" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E135" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3514,16 +3511,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C136">
         <v>94.84099999999999</v>
       </c>
       <c r="D136" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E136" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3531,16 +3528,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C137">
-        <v>105.749</v>
+        <v>102.292</v>
       </c>
       <c r="D137" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E137" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3548,16 +3545,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C138">
-        <v>97.40300000000001</v>
+        <v>96.104</v>
       </c>
       <c r="D138" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E138" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3565,16 +3562,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C139">
-        <v>105.755</v>
+        <v>102.143</v>
       </c>
       <c r="D139" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E139" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3582,16 +3579,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C140">
         <v>105.263</v>
       </c>
       <c r="D140" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E140" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3599,16 +3596,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C141">
-        <v>100</v>
+        <v>96.154</v>
       </c>
       <c r="D141" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E141" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3616,16 +3613,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C142">
-        <v>125.893</v>
+        <v>115.044</v>
       </c>
       <c r="D142" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E142" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3633,16 +3630,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C143">
-        <v>94.69499999999999</v>
+        <v>94.19799999999999</v>
       </c>
       <c r="D143" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E143" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3650,16 +3647,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C144">
-        <v>93.851</v>
+        <v>91.607</v>
       </c>
       <c r="D144" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E144" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3667,16 +3664,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C145">
-        <v>98.176</v>
+        <v>98.273</v>
       </c>
       <c r="D145" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E145" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3684,16 +3681,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C146">
-        <v>123.81</v>
+        <v>122.603</v>
       </c>
       <c r="D146" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E146" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3701,16 +3698,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C147">
-        <v>97.855</v>
+        <v>90.17</v>
       </c>
       <c r="D147" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E147" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3718,16 +3715,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C148">
-        <v>76.25</v>
+        <v>75.325</v>
       </c>
       <c r="D148" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E148" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3735,16 +3732,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C149">
-        <v>100</v>
+        <v>94.545</v>
       </c>
       <c r="D149" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E149" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3752,16 +3749,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C150">
-        <v>98.482</v>
+        <v>96.05500000000001</v>
       </c>
       <c r="D150" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E150" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3769,16 +3766,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C151">
         <v>90.795</v>
       </c>
       <c r="D151" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E151" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3786,16 +3783,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C152">
-        <v>106.897</v>
+        <v>103.448</v>
       </c>
       <c r="D152" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E152" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3803,16 +3800,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C153">
-        <v>97.959</v>
+        <v>95</v>
       </c>
       <c r="D153" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E153" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3820,16 +3817,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C154">
-        <v>100.227</v>
+        <v>97.032</v>
       </c>
       <c r="D154" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E154" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3837,16 +3834,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C155">
-        <v>116.867</v>
+        <v>106.719</v>
       </c>
       <c r="D155" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E155" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3854,16 +3851,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C156">
         <v>155.102</v>
       </c>
       <c r="D156" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E156" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3871,16 +3868,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C157">
-        <v>105.797</v>
+        <v>102.899</v>
       </c>
       <c r="D157" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E157" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3888,16 +3885,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C158">
-        <v>103.478</v>
+        <v>100</v>
       </c>
       <c r="D158" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E158" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3905,16 +3902,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C159">
-        <v>95.062</v>
+        <v>87.952</v>
       </c>
       <c r="D159" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E159" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3922,16 +3919,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C160">
         <v>144.444</v>
       </c>
       <c r="D160" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E160" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3939,16 +3936,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C161">
-        <v>106.557</v>
+        <v>104.918</v>
       </c>
       <c r="D161" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E161" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3956,16 +3953,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C162">
-        <v>101.724</v>
+        <v>98.276</v>
       </c>
       <c r="D162" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E162" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3973,16 +3970,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C163">
-        <v>71.44499999999999</v>
+        <v>62.757</v>
       </c>
       <c r="D163" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E163" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3990,16 +3987,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C164">
-        <v>104.513</v>
+        <v>98.688</v>
       </c>
       <c r="D164" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E164" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4007,16 +4004,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C165">
-        <v>102.247</v>
+        <v>98.913</v>
       </c>
       <c r="D165" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E165" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4024,16 +4021,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C166">
-        <v>100.092</v>
+        <v>98.64</v>
       </c>
       <c r="D166" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E166" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4041,16 +4038,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C167">
-        <v>102.83</v>
+        <v>99.074</v>
       </c>
       <c r="D167" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E167" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4058,16 +4055,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C168">
-        <v>112.69</v>
+        <v>110.594</v>
       </c>
       <c r="D168" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E168" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4075,16 +4072,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C169">
-        <v>116.046</v>
+        <v>108.523</v>
       </c>
       <c r="D169" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E169" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4092,16 +4089,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C170">
-        <v>98.58799999999999</v>
+        <v>97.773</v>
       </c>
       <c r="D170" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E170" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4109,16 +4106,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C171">
-        <v>103.448</v>
+        <v>100</v>
       </c>
       <c r="D171" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E171" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4126,16 +4123,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C172">
-        <v>103.333</v>
+        <v>100.991</v>
       </c>
       <c r="D172" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E172" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4143,16 +4140,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C173">
         <v>122.581</v>
       </c>
       <c r="D173" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E173" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4160,16 +4157,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C174">
-        <v>105.263</v>
+        <v>95</v>
       </c>
       <c r="D174" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E174" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4177,16 +4174,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C175">
         <v>180</v>
       </c>
       <c r="D175" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E175" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4194,16 +4191,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C176">
         <v>100</v>
       </c>
       <c r="D176" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E176" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4211,16 +4208,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C177">
         <v>93.333</v>
       </c>
       <c r="D177" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E177" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4228,16 +4225,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C178">
-        <v>104.331</v>
+        <v>100</v>
       </c>
       <c r="D178" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E178" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4245,16 +4242,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C179">
-        <v>101.786</v>
+        <v>98.83</v>
       </c>
       <c r="D179" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E179" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4262,16 +4259,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C180">
         <v>100</v>
       </c>
       <c r="D180" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E180" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4279,16 +4276,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C181">
-        <v>100</v>
+        <v>95.652</v>
       </c>
       <c r="D181" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E181" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4296,16 +4293,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C182">
-        <v>113.095</v>
+        <v>109.524</v>
       </c>
       <c r="D182" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E182" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4313,16 +4310,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C183">
         <v>67.45999999999999</v>
       </c>
       <c r="D183" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E183" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4330,16 +4327,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C184">
-        <v>98.131</v>
+        <v>98.113</v>
       </c>
       <c r="D184" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E184" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4347,16 +4344,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C185">
         <v>144.737</v>
       </c>
       <c r="D185" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E185" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4364,16 +4361,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C186">
-        <v>98.697</v>
+        <v>98.105</v>
       </c>
       <c r="D186" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E186" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4381,16 +4378,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C187">
         <v>111.842</v>
       </c>
       <c r="D187" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E187" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4398,16 +4395,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C188">
         <v>98.246</v>
       </c>
       <c r="D188" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E188" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4415,16 +4412,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C189">
         <v>63.077</v>
       </c>
       <c r="D189" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E189" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4432,16 +4429,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C190">
         <v>155.556</v>
       </c>
       <c r="D190" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E190" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4449,16 +4446,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C191">
-        <v>103.125</v>
+        <v>100</v>
       </c>
       <c r="D191" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E191" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4466,16 +4463,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C192">
         <v>108.333</v>
       </c>
       <c r="D192" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E192" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4483,16 +4480,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C193">
-        <v>102.174</v>
+        <v>100</v>
       </c>
       <c r="D193" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E193" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4500,16 +4497,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C194">
         <v>194.118</v>
       </c>
       <c r="D194" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E194" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4517,16 +4514,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C195">
-        <v>105.323</v>
+        <v>102.901</v>
       </c>
       <c r="D195" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E195" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4534,16 +4531,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C196">
-        <v>100</v>
+        <v>95</v>
       </c>
       <c r="D196" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E196" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4551,16 +4548,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C197">
         <v>125.431</v>
       </c>
       <c r="D197" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E197" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4568,16 +4565,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C198">
         <v>116.667</v>
       </c>
       <c r="D198" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E198" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4585,16 +4582,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C199">
-        <v>100.251</v>
+        <v>95.88500000000001</v>
       </c>
       <c r="D199" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E199" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4602,16 +4599,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C200">
-        <v>109.804</v>
+        <v>106</v>
       </c>
       <c r="D200" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E200" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4619,16 +4616,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C201">
-        <v>77.986</v>
+        <v>78.35299999999999</v>
       </c>
       <c r="D201" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E201" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4636,16 +4633,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C202">
-        <v>72.51300000000001</v>
+        <v>64.85299999999999</v>
       </c>
       <c r="D202" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E202" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4653,16 +4650,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C203">
-        <v>103.18</v>
+        <v>100.35</v>
       </c>
       <c r="D203" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E203" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4670,16 +4667,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C204">
-        <v>95.492</v>
+        <v>98.68899999999999</v>
       </c>
       <c r="D204" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E204" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4687,16 +4684,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C205">
-        <v>102.475</v>
+        <v>95.545</v>
       </c>
       <c r="D205" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E205" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4704,16 +4701,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C206">
-        <v>112.5</v>
+        <v>106.25</v>
       </c>
       <c r="D206" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E206" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4721,16 +4718,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C207">
-        <v>103.636</v>
+        <v>100</v>
       </c>
       <c r="D207" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E207" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4738,16 +4735,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C208">
         <v>86.667</v>
       </c>
       <c r="D208" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E208" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4755,16 +4752,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C209">
         <v>91.667</v>
       </c>
       <c r="D209" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E209" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4772,16 +4769,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C210">
-        <v>110</v>
+        <v>98.361</v>
       </c>
       <c r="D210" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E210" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4789,16 +4786,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C211">
-        <v>97.521</v>
+        <v>97.872</v>
       </c>
       <c r="D211" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E211" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4806,16 +4803,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C212">
-        <v>97.82599999999999</v>
+        <v>77.575</v>
       </c>
       <c r="D212" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E212" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4826,13 +4823,13 @@
         <v>275</v>
       </c>
       <c r="C213">
-        <v>77.575</v>
+        <v>100.625</v>
       </c>
       <c r="D213" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E213" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4840,16 +4837,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C214">
-        <v>107.692</v>
+        <v>100</v>
       </c>
       <c r="D214" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E214" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4857,16 +4854,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C215">
-        <v>103.614</v>
+        <v>82.81999999999999</v>
       </c>
       <c r="D215" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E215" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4877,13 +4874,13 @@
         <v>275</v>
       </c>
       <c r="C216">
-        <v>81.262</v>
+        <v>106.522</v>
       </c>
       <c r="D216" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E216" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4891,16 +4888,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C217">
-        <v>111.828</v>
+        <v>138.462</v>
       </c>
       <c r="D217" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E217" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4908,16 +4905,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C218">
-        <v>138.462</v>
+        <v>89.474</v>
       </c>
       <c r="D218" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E218" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4928,13 +4925,13 @@
         <v>275</v>
       </c>
       <c r="C219">
-        <v>92.105</v>
+        <v>104.889</v>
       </c>
       <c r="D219" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E219" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4942,16 +4939,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C220">
-        <v>113.575</v>
+        <v>95.413</v>
       </c>
       <c r="D220" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E220" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4959,16 +4956,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C221">
-        <v>100.123</v>
+        <v>104.299</v>
       </c>
       <c r="D221" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E221" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4976,16 +4973,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C222">
-        <v>104.299</v>
+        <v>91.304</v>
       </c>
       <c r="D222" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E222" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4996,13 +4993,13 @@
         <v>275</v>
       </c>
       <c r="C223">
-        <v>95.652</v>
+        <v>100</v>
       </c>
       <c r="D223" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E223" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5010,16 +5007,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C224">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="D224" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E224" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5027,16 +5024,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C225">
-        <v>102.128</v>
+        <v>88.136</v>
       </c>
       <c r="D225" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E225" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5047,13 +5044,13 @@
         <v>275</v>
       </c>
       <c r="C226">
-        <v>77.143</v>
+        <v>100</v>
       </c>
       <c r="D226" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E226" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5061,16 +5058,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C227">
-        <v>100</v>
+        <v>133.333</v>
       </c>
       <c r="D227" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E227" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5078,16 +5075,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C228">
-        <v>133.333</v>
+        <v>92.30800000000001</v>
       </c>
       <c r="D228" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E228" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5095,16 +5092,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C229">
-        <v>100</v>
+        <v>74.101</v>
       </c>
       <c r="D229" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E229" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5112,16 +5109,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C230">
-        <v>78.102</v>
+        <v>94.286</v>
       </c>
       <c r="D230" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E230" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5132,13 +5129,13 @@
         <v>275</v>
       </c>
       <c r="C231">
-        <v>94.286</v>
+        <v>165.657</v>
       </c>
       <c r="D231" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E231" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5146,16 +5143,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C232">
-        <v>165.657</v>
+        <v>112.5</v>
       </c>
       <c r="D232" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E232" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5163,16 +5160,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C233">
-        <v>106.25</v>
+        <v>98.113</v>
       </c>
       <c r="D233" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E233" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5180,16 +5177,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C234">
-        <v>100</v>
+        <v>33.529</v>
       </c>
       <c r="D234" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E234" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5200,13 +5197,13 @@
         <v>275</v>
       </c>
       <c r="C235">
-        <v>33.529</v>
+        <v>100</v>
       </c>
       <c r="D235" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E235" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5214,16 +5211,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C236">
-        <v>104</v>
+        <v>91.13800000000001</v>
       </c>
       <c r="D236" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E236" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5234,13 +5231,13 @@
         <v>275</v>
       </c>
       <c r="C237">
-        <v>98.00700000000001</v>
+        <v>100</v>
       </c>
       <c r="D237" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E237" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5248,16 +5245,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C238">
-        <v>100</v>
+        <v>96.809</v>
       </c>
       <c r="D238" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E238" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5265,16 +5262,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C239">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D239" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E239" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5282,16 +5279,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C240">
-        <v>115</v>
+        <v>102.193</v>
       </c>
       <c r="D240" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E240" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5299,16 +5296,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C241">
-        <v>107.048</v>
+        <v>98.70999999999999</v>
       </c>
       <c r="D241" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E241" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5316,16 +5313,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C242">
-        <v>103.566</v>
+        <v>79.94</v>
       </c>
       <c r="D242" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E242" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5336,13 +5333,13 @@
         <v>275</v>
       </c>
       <c r="C243">
-        <v>84.178</v>
+        <v>100</v>
       </c>
       <c r="D243" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E243" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5350,16 +5347,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C244">
         <v>100</v>
       </c>
       <c r="D244" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E244" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5367,16 +5364,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C245">
-        <v>100</v>
+        <v>84.61499999999999</v>
       </c>
       <c r="D245" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E245" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5387,13 +5384,13 @@
         <v>275</v>
       </c>
       <c r="C246">
-        <v>91.667</v>
+        <v>136</v>
       </c>
       <c r="D246" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E246" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5401,16 +5398,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C247">
-        <v>126</v>
+        <v>133.333</v>
       </c>
       <c r="D247" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E247" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5418,16 +5415,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C248">
-        <v>133.333</v>
+        <v>131.579</v>
       </c>
       <c r="D248" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E248" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5435,16 +5432,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C249">
-        <v>131.579</v>
+        <v>107.407</v>
       </c>
       <c r="D249" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E249" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5452,16 +5449,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C250">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D250" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E250" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5469,16 +5466,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C251">
-        <v>108</v>
+        <v>100</v>
       </c>
       <c r="D251" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E251" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5486,16 +5483,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C252">
-        <v>100</v>
+        <v>104.533</v>
       </c>
       <c r="D252" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E252" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5503,16 +5500,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C253">
-        <v>107.487</v>
+        <v>103.192</v>
       </c>
       <c r="D253" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E253" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5520,16 +5517,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C254">
-        <v>103.192</v>
+        <v>107.283</v>
       </c>
       <c r="D254" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E254" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5537,16 +5534,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C255">
-        <v>107.283</v>
+        <v>99.444</v>
       </c>
       <c r="D255" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E255" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5554,16 +5551,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C256">
-        <v>105.163</v>
+        <v>122.727</v>
       </c>
       <c r="D256" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E256" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5571,16 +5568,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C257">
-        <v>122.727</v>
+        <v>91.768</v>
       </c>
       <c r="D257" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E257" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5588,16 +5585,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C258">
-        <v>97.505</v>
+        <v>86.667</v>
       </c>
       <c r="D258" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E258" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5605,16 +5602,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C259">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D259" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E259" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5622,16 +5619,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C260">
-        <v>100</v>
+        <v>92.30800000000001</v>
       </c>
       <c r="D260" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E260" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5639,16 +5636,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C261">
-        <v>84.61499999999999</v>
+        <v>97.735</v>
       </c>
       <c r="D261" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E261" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5656,16 +5653,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C262">
-        <v>95.25700000000001</v>
+        <v>97.468</v>
       </c>
       <c r="D262" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E262" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5673,16 +5670,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C263">
-        <v>101.266</v>
+        <v>77.358</v>
       </c>
       <c r="D263" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E263" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5693,13 +5690,13 @@
         <v>275</v>
       </c>
       <c r="C264">
-        <v>73.077</v>
+        <v>102.098</v>
       </c>
       <c r="D264" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E264" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5707,16 +5704,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C265">
-        <v>104.965</v>
+        <v>89.64100000000001</v>
       </c>
       <c r="D265" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E265" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5727,13 +5724,13 @@
         <v>275</v>
       </c>
       <c r="C266">
-        <v>90.17700000000001</v>
+        <v>104.538</v>
       </c>
       <c r="D266" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E266" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5741,16 +5738,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C267">
-        <v>105.459</v>
+        <v>100</v>
       </c>
       <c r="D267" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E267" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5758,16 +5755,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="C268">
-        <v>108.333</v>
+        <v>97.628</v>
       </c>
       <c r="D268" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E268" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5775,16 +5772,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C269">
-        <v>101.471</v>
+        <v>101.035</v>
       </c>
       <c r="D269" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E269" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5792,33 +5789,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C270">
-        <v>101.475</v>
+        <v>100</v>
       </c>
       <c r="D270" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="E270" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" t="s">
-        <v>274</v>
-      </c>
-      <c r="B271" t="s">
-        <v>276</v>
-      </c>
-      <c r="C271">
-        <v>100</v>
-      </c>
-      <c r="D271" t="s">
-        <v>277</v>
-      </c>
-      <c r="E271" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="275">
   <si>
     <t>symbol</t>
   </si>
@@ -73,9 +73,6 @@
     <t>ALPACAUSDT</t>
   </si>
   <si>
-    <t>ALPHAUSDT</t>
-  </si>
-  <si>
     <t>ALPINEUSDT</t>
   </si>
   <si>
@@ -652,9 +649,6 @@
     <t>RDNTUSDT</t>
   </si>
   <si>
-    <t>RENUSDT</t>
-  </si>
-  <si>
     <t>RLCUSDT</t>
   </si>
   <si>
@@ -758,9 +752,6 @@
   </si>
   <si>
     <t>USDPUSDT</t>
-  </si>
-  <si>
-    <t>UTKUSDT</t>
   </si>
   <si>
     <t>VGXUSDT</t>
@@ -1205,7 +1196,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E270"/>
+  <dimension ref="A1:E267"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,16 +1224,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C2">
-        <v>98.361</v>
+        <v>98.246</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1250,16 +1241,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C3">
-        <v>98.01300000000001</v>
+        <v>97.283</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1267,16 +1258,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C4">
-        <v>122.222</v>
+        <v>116.667</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E4" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1284,16 +1275,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C5">
-        <v>97.84399999999999</v>
+        <v>108.133</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1301,16 +1292,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C6">
-        <v>104.762</v>
+        <v>110</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1318,16 +1309,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C7">
         <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1335,16 +1326,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C8">
         <v>118.182</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1352,16 +1343,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C9">
         <v>98.182</v>
       </c>
       <c r="D9" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1369,16 +1360,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C10">
         <v>122.222</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E10" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1386,16 +1377,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C11">
-        <v>96.875</v>
+        <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1403,16 +1394,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C12">
-        <v>99.024</v>
+        <v>97.015</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1420,16 +1411,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C13">
-        <v>97.059</v>
+        <v>106.25</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1437,16 +1428,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C14">
-        <v>103.468</v>
+        <v>104.375</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1454,16 +1445,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C15">
-        <v>96.55200000000001</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1471,16 +1462,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C16">
-        <v>91.667</v>
+        <v>99.099</v>
       </c>
       <c r="D16" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1488,16 +1479,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C17">
-        <v>96.866</v>
+        <v>100</v>
       </c>
       <c r="D17" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1505,16 +1496,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C18">
-        <v>98.81</v>
+        <v>112.865</v>
       </c>
       <c r="D18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1522,16 +1513,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C19">
-        <v>108.745</v>
+        <v>91.411</v>
       </c>
       <c r="D19" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1539,16 +1530,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C20">
-        <v>86.705</v>
+        <v>104.571</v>
       </c>
       <c r="D20" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1556,16 +1547,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C21">
-        <v>104.571</v>
+        <v>108.197</v>
       </c>
       <c r="D21" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E21" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1573,16 +1564,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C22">
-        <v>108.197</v>
+        <v>150</v>
       </c>
       <c r="D22" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E22" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1590,16 +1581,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C23">
-        <v>150</v>
+        <v>129.787</v>
       </c>
       <c r="D23" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E23" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1607,16 +1598,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C24">
-        <v>129.787</v>
+        <v>105.384</v>
       </c>
       <c r="D24" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E24" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1624,16 +1615,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C25">
-        <v>107.328</v>
+        <v>105.279</v>
       </c>
       <c r="D25" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E25" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1641,16 +1632,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C26">
-        <v>95.95699999999999</v>
+        <v>172.727</v>
       </c>
       <c r="D26" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E26" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1658,16 +1649,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C27">
-        <v>172.727</v>
+        <v>92.857</v>
       </c>
       <c r="D27" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E27" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1675,16 +1666,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C28">
-        <v>93.333</v>
+        <v>107.417</v>
       </c>
       <c r="D28" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1692,16 +1683,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C29">
-        <v>96.313</v>
+        <v>107.637</v>
       </c>
       <c r="D29" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E29" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1709,16 +1700,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C30">
-        <v>105.534</v>
+        <v>100.803</v>
       </c>
       <c r="D30" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1726,16 +1717,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C31">
-        <v>95.764</v>
+        <v>115.789</v>
       </c>
       <c r="D31" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1743,16 +1734,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C32">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1760,16 +1751,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C33">
-        <v>98.667</v>
+        <v>102.097</v>
       </c>
       <c r="D33" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E33" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1777,16 +1768,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C34">
-        <v>98.521</v>
+        <v>98.74299999999999</v>
       </c>
       <c r="D34" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E34" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1794,16 +1785,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C35">
-        <v>99.92</v>
+        <v>104.928</v>
       </c>
       <c r="D35" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E35" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1811,16 +1802,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C36">
-        <v>106.094</v>
+        <v>95.652</v>
       </c>
       <c r="D36" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1828,16 +1819,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C37">
-        <v>91.667</v>
+        <v>103.407</v>
       </c>
       <c r="D37" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E37" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1845,16 +1836,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C38">
-        <v>102.703</v>
+        <v>98.214</v>
       </c>
       <c r="D38" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E38" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1862,16 +1853,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C39">
-        <v>93.443</v>
+        <v>109.037</v>
       </c>
       <c r="D39" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1879,16 +1870,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C40">
-        <v>98.04600000000001</v>
+        <v>100</v>
       </c>
       <c r="D40" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E40" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1896,16 +1887,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C41">
-        <v>100</v>
+        <v>97.581</v>
       </c>
       <c r="D41" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1913,16 +1904,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C42">
-        <v>96.246</v>
+        <v>96.429</v>
       </c>
       <c r="D42" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E42" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1930,16 +1921,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C43">
-        <v>94.91500000000001</v>
+        <v>107.692</v>
       </c>
       <c r="D43" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1947,16 +1938,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C44">
-        <v>107.5</v>
+        <v>103.91</v>
       </c>
       <c r="D44" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E44" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1964,16 +1955,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C45">
-        <v>102.26</v>
+        <v>141.304</v>
       </c>
       <c r="D45" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E45" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1981,16 +1972,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C46">
-        <v>141.304</v>
+        <v>85.196</v>
       </c>
       <c r="D46" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E46" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1998,16 +1989,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C47">
-        <v>83.57899999999999</v>
+        <v>97.238</v>
       </c>
       <c r="D47" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2015,16 +2006,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C48">
-        <v>95.723</v>
+        <v>95.455</v>
       </c>
       <c r="D48" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E48" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2032,16 +2023,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C49">
-        <v>100</v>
+        <v>93.893</v>
       </c>
       <c r="D49" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E49" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2049,16 +2040,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C50">
-        <v>104.059</v>
+        <v>98.185</v>
       </c>
       <c r="D50" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E50" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2066,16 +2057,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C51">
-        <v>98.83</v>
+        <v>112</v>
       </c>
       <c r="D51" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E51" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2083,16 +2074,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C52">
-        <v>111.538</v>
+        <v>96.55200000000001</v>
       </c>
       <c r="D52" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E52" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2100,16 +2091,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C53">
-        <v>97.172</v>
+        <v>96.495</v>
       </c>
       <c r="D53" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E53" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2117,16 +2108,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C54">
-        <v>97.099</v>
+        <v>104.444</v>
       </c>
       <c r="D54" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E54" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2134,16 +2125,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C55">
         <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E55" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2151,16 +2142,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C56">
-        <v>100</v>
+        <v>105.882</v>
       </c>
       <c r="D56" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E56" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2168,16 +2159,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C57">
-        <v>102.778</v>
+        <v>94</v>
       </c>
       <c r="D57" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E57" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2185,16 +2176,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C58">
-        <v>94.956</v>
+        <v>94.80500000000001</v>
       </c>
       <c r="D58" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E58" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2202,16 +2193,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C59">
-        <v>96.154</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E59" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2219,16 +2210,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C60">
-        <v>100</v>
+        <v>93.333</v>
       </c>
       <c r="D60" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E60" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2236,16 +2227,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C61">
-        <v>87.5</v>
+        <v>121.053</v>
       </c>
       <c r="D61" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E61" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2253,16 +2244,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C62">
-        <v>109.091</v>
+        <v>101.029</v>
       </c>
       <c r="D62" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E62" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2270,16 +2261,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C63">
-        <v>92.188</v>
+        <v>184.694</v>
       </c>
       <c r="D63" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E63" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2287,16 +2278,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C64">
-        <v>184.694</v>
+        <v>99.404</v>
       </c>
       <c r="D64" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E64" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2304,16 +2295,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C65">
-        <v>92.354</v>
+        <v>77.86799999999999</v>
       </c>
       <c r="D65" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E65" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2321,16 +2312,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C66">
-        <v>77.86799999999999</v>
+        <v>101.176</v>
       </c>
       <c r="D66" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E66" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2338,16 +2329,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C67">
-        <v>106.818</v>
+        <v>102.353</v>
       </c>
       <c r="D67" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E67" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2355,16 +2346,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C68">
-        <v>103.529</v>
+        <v>92.857</v>
       </c>
       <c r="D68" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E68" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2372,16 +2363,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C69">
-        <v>93.333</v>
+        <v>110</v>
       </c>
       <c r="D69" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E69" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2389,16 +2380,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C70">
-        <v>100</v>
+        <v>157.895</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E70" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2406,16 +2397,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C71">
-        <v>157.895</v>
+        <v>110</v>
       </c>
       <c r="D71" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E71" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2423,16 +2414,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C72">
-        <v>119.355</v>
+        <v>80.143</v>
       </c>
       <c r="D72" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E72" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2440,16 +2431,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C73">
-        <v>84.93600000000001</v>
+        <v>68.869</v>
       </c>
       <c r="D73" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E73" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2457,16 +2448,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C74">
-        <v>68.869</v>
+        <v>100</v>
       </c>
       <c r="D74" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2474,16 +2465,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C75">
-        <v>95.238</v>
+        <v>94.675</v>
       </c>
       <c r="D75" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E75" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2491,16 +2482,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C76">
-        <v>94.55200000000001</v>
+        <v>94.444</v>
       </c>
       <c r="D76" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E76" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2508,16 +2499,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C77">
-        <v>91.255</v>
+        <v>92.35299999999999</v>
       </c>
       <c r="D77" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E77" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2525,16 +2516,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C78">
-        <v>91.477</v>
+        <v>98.96899999999999</v>
       </c>
       <c r="D78" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E78" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2542,16 +2533,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C79">
-        <v>96.358</v>
+        <v>94.872</v>
       </c>
       <c r="D79" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E79" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2559,16 +2550,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C80">
         <v>100</v>
       </c>
       <c r="D80" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E80" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2576,16 +2567,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C81">
-        <v>92.30800000000001</v>
+        <v>97.92</v>
       </c>
       <c r="D81" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E81" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2593,16 +2584,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C82">
-        <v>96.914</v>
+        <v>118.182</v>
       </c>
       <c r="D82" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E82" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2610,16 +2601,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C83">
-        <v>110.417</v>
+        <v>91.667</v>
       </c>
       <c r="D83" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E83" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2627,16 +2618,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C84">
-        <v>84.61499999999999</v>
+        <v>90.76900000000001</v>
       </c>
       <c r="D84" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E84" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2644,16 +2635,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C85">
-        <v>96.124</v>
+        <v>110.484</v>
       </c>
       <c r="D85" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E85" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2661,16 +2652,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C86">
-        <v>110.484</v>
+        <v>81.184</v>
       </c>
       <c r="D86" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E86" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2678,16 +2669,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C87">
-        <v>84.111</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E87" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2695,16 +2686,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C88">
-        <v>100</v>
+        <v>104.651</v>
       </c>
       <c r="D88" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E88" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2712,16 +2703,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C89">
-        <v>106.667</v>
+        <v>83.32299999999999</v>
       </c>
       <c r="D89" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E89" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2729,16 +2720,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C90">
-        <v>74.267</v>
+        <v>114.563</v>
       </c>
       <c r="D90" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E90" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2746,16 +2737,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C91">
-        <v>119.643</v>
+        <v>47.766</v>
       </c>
       <c r="D91" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E91" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2763,16 +2754,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C92">
-        <v>46.732</v>
+        <v>114.445</v>
       </c>
       <c r="D92" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E92" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2780,16 +2771,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C93">
-        <v>107.972</v>
+        <v>105.042</v>
       </c>
       <c r="D93" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E93" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2797,16 +2788,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C94">
-        <v>99.123</v>
+        <v>93.11499999999999</v>
       </c>
       <c r="D94" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E94" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2814,16 +2805,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C95">
-        <v>99.691</v>
+        <v>96.56999999999999</v>
       </c>
       <c r="D95" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E95" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2831,16 +2822,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C96">
-        <v>99.985</v>
+        <v>101.031</v>
       </c>
       <c r="D96" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E96" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2848,16 +2839,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C97">
-        <v>103.093</v>
+        <v>102.419</v>
       </c>
       <c r="D97" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E97" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2865,16 +2856,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C98">
-        <v>100.261</v>
+        <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E98" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2882,16 +2873,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C99">
         <v>100</v>
       </c>
       <c r="D99" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E99" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2899,16 +2890,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C100">
-        <v>102.439</v>
+        <v>101.55</v>
       </c>
       <c r="D100" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E100" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2916,16 +2907,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C101">
-        <v>97.974</v>
+        <v>120.168</v>
       </c>
       <c r="D101" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E101" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2933,16 +2924,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C102">
-        <v>108.203</v>
+        <v>100</v>
       </c>
       <c r="D102" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E102" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2950,16 +2941,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C103">
-        <v>96.97</v>
+        <v>103.185</v>
       </c>
       <c r="D103" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E103" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2967,16 +2958,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C104">
-        <v>98.246</v>
+        <v>120.513</v>
       </c>
       <c r="D104" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E104" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2984,16 +2975,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C105">
-        <v>111.111</v>
+        <v>102.022</v>
       </c>
       <c r="D105" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E105" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3001,16 +2992,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C106">
-        <v>100.218</v>
+        <v>95.652</v>
       </c>
       <c r="D106" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E106" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3018,16 +3009,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C107">
-        <v>95.652</v>
+        <v>104.762</v>
       </c>
       <c r="D107" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E107" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3035,16 +3026,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C108">
-        <v>104.545</v>
+        <v>124.989</v>
       </c>
       <c r="D108" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E108" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3052,16 +3043,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C109">
-        <v>119.026</v>
+        <v>86.88800000000001</v>
       </c>
       <c r="D109" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E109" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3069,16 +3060,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C110">
-        <v>93.91</v>
+        <v>99.598</v>
       </c>
       <c r="D110" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E110" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3086,16 +3077,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C111">
-        <v>93.893</v>
+        <v>111.243</v>
       </c>
       <c r="D111" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E111" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3103,16 +3094,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C112">
-        <v>111.243</v>
+        <v>103.448</v>
       </c>
       <c r="D112" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E112" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3120,16 +3111,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C113">
-        <v>103.448</v>
+        <v>102.586</v>
       </c>
       <c r="D113" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E113" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3137,16 +3128,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C114">
-        <v>101.709</v>
+        <v>93.617</v>
       </c>
       <c r="D114" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E114" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3154,16 +3145,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C115">
-        <v>93.878</v>
+        <v>104</v>
       </c>
       <c r="D115" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3171,16 +3162,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C116">
-        <v>104</v>
+        <v>93.75</v>
       </c>
       <c r="D116" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E116" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3188,16 +3179,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C117">
-        <v>96.875</v>
+        <v>142.223</v>
       </c>
       <c r="D117" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E117" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3205,16 +3196,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C118">
-        <v>142.223</v>
+        <v>108.514</v>
       </c>
       <c r="D118" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E118" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3222,16 +3213,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C119">
-        <v>111.337</v>
+        <v>148.127</v>
       </c>
       <c r="D119" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E119" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3239,16 +3230,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C120">
-        <v>148.127</v>
+        <v>103.488</v>
       </c>
       <c r="D120" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E120" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3256,16 +3247,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C121">
-        <v>100.556</v>
+        <v>95</v>
       </c>
       <c r="D121" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E121" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3273,16 +3264,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C122">
-        <v>100</v>
+        <v>214.583</v>
       </c>
       <c r="D122" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E122" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3290,16 +3281,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C123">
-        <v>214.583</v>
+        <v>104.082</v>
       </c>
       <c r="D123" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E123" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3307,16 +3298,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C124">
-        <v>104.082</v>
+        <v>89.116</v>
       </c>
       <c r="D124" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E124" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3324,16 +3315,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C125">
-        <v>85.89700000000001</v>
+        <v>90.741</v>
       </c>
       <c r="D125" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E125" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3341,16 +3332,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C126">
-        <v>98.077</v>
+        <v>178.322</v>
       </c>
       <c r="D126" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E126" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3358,16 +3349,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C127">
-        <v>178.322</v>
+        <v>111.09</v>
       </c>
       <c r="D127" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E127" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3375,16 +3366,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C128">
-        <v>101.026</v>
+        <v>100</v>
       </c>
       <c r="D128" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E128" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3392,16 +3383,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C129">
-        <v>100</v>
+        <v>87.23399999999999</v>
       </c>
       <c r="D129" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E129" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3409,16 +3400,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C130">
-        <v>87.23399999999999</v>
+        <v>102.286</v>
       </c>
       <c r="D130" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E130" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3426,16 +3417,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C131">
-        <v>103.267</v>
+        <v>107.246</v>
       </c>
       <c r="D131" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E131" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3443,16 +3434,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C132">
-        <v>104.11</v>
+        <v>83.429</v>
       </c>
       <c r="D132" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E132" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3460,16 +3451,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C133">
-        <v>79.688</v>
+        <v>96.154</v>
       </c>
       <c r="D133" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E133" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3477,16 +3468,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C134">
-        <v>96.29600000000001</v>
+        <v>100</v>
       </c>
       <c r="D134" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E134" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3494,16 +3485,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C135">
-        <v>95.455</v>
+        <v>94.84099999999999</v>
       </c>
       <c r="D135" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E135" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3511,16 +3502,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C136">
-        <v>94.84099999999999</v>
+        <v>113.333</v>
       </c>
       <c r="D136" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E136" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3528,16 +3519,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C137">
-        <v>102.292</v>
+        <v>94.702</v>
       </c>
       <c r="D137" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E137" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3545,16 +3536,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C138">
-        <v>96.104</v>
+        <v>101.471</v>
       </c>
       <c r="D138" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E138" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3562,16 +3553,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C139">
-        <v>102.143</v>
+        <v>111.111</v>
       </c>
       <c r="D139" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3579,16 +3570,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C140">
-        <v>105.263</v>
+        <v>100</v>
       </c>
       <c r="D140" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3596,16 +3587,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C141">
-        <v>96.154</v>
+        <v>116.19</v>
       </c>
       <c r="D141" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3613,16 +3604,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C142">
-        <v>115.044</v>
+        <v>99.494</v>
       </c>
       <c r="D142" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3630,16 +3621,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C143">
-        <v>94.19799999999999</v>
+        <v>95.705</v>
       </c>
       <c r="D143" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3647,16 +3638,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C144">
-        <v>91.607</v>
+        <v>113.307</v>
       </c>
       <c r="D144" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3664,16 +3655,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C145">
-        <v>98.273</v>
+        <v>138.931</v>
       </c>
       <c r="D145" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3681,16 +3672,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C146">
-        <v>122.603</v>
+        <v>91.13200000000001</v>
       </c>
       <c r="D146" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3698,16 +3689,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C147">
-        <v>90.17</v>
+        <v>78.873</v>
       </c>
       <c r="D147" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3715,16 +3706,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C148">
-        <v>75.325</v>
+        <v>98.077</v>
       </c>
       <c r="D148" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3732,16 +3723,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C149">
-        <v>94.545</v>
+        <v>96.264</v>
       </c>
       <c r="D149" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3749,16 +3740,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C150">
-        <v>96.05500000000001</v>
+        <v>90.795</v>
       </c>
       <c r="D150" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3766,16 +3757,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C151">
-        <v>90.795</v>
+        <v>107.407</v>
       </c>
       <c r="D151" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E151" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3783,16 +3774,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C152">
-        <v>103.448</v>
+        <v>96.842</v>
       </c>
       <c r="D152" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E152" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3800,16 +3791,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C153">
-        <v>95</v>
+        <v>97.074</v>
       </c>
       <c r="D153" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E153" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3817,16 +3808,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C154">
-        <v>97.032</v>
+        <v>99.602</v>
       </c>
       <c r="D154" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E154" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3834,16 +3825,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C155">
-        <v>106.719</v>
+        <v>155.102</v>
       </c>
       <c r="D155" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E155" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3851,16 +3842,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C156">
-        <v>155.102</v>
+        <v>101.493</v>
       </c>
       <c r="D156" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E156" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3868,16 +3859,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C157">
-        <v>102.899</v>
+        <v>101.802</v>
       </c>
       <c r="D157" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E157" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3885,16 +3876,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C158">
-        <v>100</v>
+        <v>86.42</v>
       </c>
       <c r="D158" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E158" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3902,16 +3893,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C159">
-        <v>87.952</v>
+        <v>144.444</v>
       </c>
       <c r="D159" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E159" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3919,16 +3910,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C160">
-        <v>144.444</v>
+        <v>122.414</v>
       </c>
       <c r="D160" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E160" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3936,16 +3927,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C161">
-        <v>104.918</v>
+        <v>100</v>
       </c>
       <c r="D161" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E161" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3953,16 +3944,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C162">
-        <v>98.276</v>
+        <v>60.368</v>
       </c>
       <c r="D162" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E162" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3970,16 +3961,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C163">
-        <v>62.757</v>
+        <v>98.732</v>
       </c>
       <c r="D163" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E163" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3987,16 +3978,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C164">
-        <v>98.688</v>
+        <v>101.053</v>
       </c>
       <c r="D164" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E164" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4004,16 +3995,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C165">
-        <v>98.913</v>
+        <v>98.413</v>
       </c>
       <c r="D165" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E165" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4021,16 +4012,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C166">
-        <v>98.64</v>
+        <v>100</v>
       </c>
       <c r="D166" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E166" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4038,16 +4029,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C167">
-        <v>99.074</v>
+        <v>106.434</v>
       </c>
       <c r="D167" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E167" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4055,16 +4046,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C168">
-        <v>110.594</v>
+        <v>113.043</v>
       </c>
       <c r="D168" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E168" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4072,16 +4063,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C169">
-        <v>108.523</v>
+        <v>98.289</v>
       </c>
       <c r="D169" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E169" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4089,16 +4080,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C170">
-        <v>97.773</v>
+        <v>103.571</v>
       </c>
       <c r="D170" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E170" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4106,16 +4097,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C171">
-        <v>100</v>
+        <v>104.049</v>
       </c>
       <c r="D171" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E171" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4123,16 +4114,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C172">
-        <v>100.991</v>
+        <v>122.581</v>
       </c>
       <c r="D172" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E172" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4140,16 +4131,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C173">
-        <v>122.581</v>
+        <v>100</v>
       </c>
       <c r="D173" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E173" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4157,16 +4148,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C174">
-        <v>95</v>
+        <v>180</v>
       </c>
       <c r="D174" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E174" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4174,16 +4165,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C175">
-        <v>180</v>
+        <v>100</v>
       </c>
       <c r="D175" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E175" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4191,16 +4182,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C176">
-        <v>100</v>
+        <v>93.333</v>
       </c>
       <c r="D176" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E176" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4208,16 +4199,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C177">
-        <v>93.333</v>
+        <v>106.022</v>
       </c>
       <c r="D177" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E177" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4225,16 +4216,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C178">
-        <v>100</v>
+        <v>100.613</v>
       </c>
       <c r="D178" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E178" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4242,16 +4233,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C179">
-        <v>98.83</v>
+        <v>100</v>
       </c>
       <c r="D179" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E179" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4259,16 +4250,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C180">
-        <v>100</v>
+        <v>95.455</v>
       </c>
       <c r="D180" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E180" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4276,16 +4267,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C181">
-        <v>95.652</v>
+        <v>118.667</v>
       </c>
       <c r="D181" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E181" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4293,16 +4284,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C182">
-        <v>109.524</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="D182" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E182" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4310,16 +4301,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C183">
-        <v>67.45999999999999</v>
+        <v>97.143</v>
       </c>
       <c r="D183" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E183" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4327,16 +4318,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C184">
-        <v>98.113</v>
+        <v>144.737</v>
       </c>
       <c r="D184" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E184" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4344,16 +4335,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C185">
-        <v>144.737</v>
+        <v>99.88</v>
       </c>
       <c r="D185" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E185" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4361,16 +4352,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C186">
-        <v>98.105</v>
+        <v>111.842</v>
       </c>
       <c r="D186" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E186" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4378,16 +4369,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C187">
-        <v>111.842</v>
+        <v>100</v>
       </c>
       <c r="D187" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E187" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4395,16 +4386,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C188">
-        <v>98.246</v>
+        <v>63.077</v>
       </c>
       <c r="D188" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E188" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4412,16 +4403,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C189">
-        <v>63.077</v>
+        <v>155.556</v>
       </c>
       <c r="D189" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E189" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4429,16 +4420,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C190">
-        <v>155.556</v>
+        <v>100</v>
       </c>
       <c r="D190" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E190" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4446,16 +4437,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C191">
-        <v>100</v>
+        <v>109.091</v>
       </c>
       <c r="D191" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E191" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4463,16 +4454,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C192">
-        <v>108.333</v>
+        <v>100</v>
       </c>
       <c r="D192" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E192" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4480,16 +4471,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C193">
-        <v>100</v>
+        <v>194.118</v>
       </c>
       <c r="D193" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E193" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4497,16 +4488,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C194">
-        <v>194.118</v>
+        <v>116.186</v>
       </c>
       <c r="D194" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E194" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4514,16 +4505,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C195">
-        <v>102.901</v>
+        <v>100</v>
       </c>
       <c r="D195" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E195" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4531,16 +4522,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C196">
-        <v>95</v>
+        <v>125.431</v>
       </c>
       <c r="D196" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E196" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4548,16 +4539,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C197">
-        <v>125.431</v>
+        <v>116.667</v>
       </c>
       <c r="D197" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E197" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4565,16 +4556,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C198">
-        <v>116.667</v>
+        <v>107.371</v>
       </c>
       <c r="D198" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E198" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4582,16 +4573,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C199">
-        <v>95.88500000000001</v>
+        <v>102.083</v>
       </c>
       <c r="D199" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E199" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4599,16 +4590,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C200">
-        <v>106</v>
+        <v>83.024</v>
       </c>
       <c r="D200" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E200" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4616,16 +4607,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C201">
-        <v>78.35299999999999</v>
+        <v>66.645</v>
       </c>
       <c r="D201" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E201" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4633,16 +4624,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C202">
-        <v>64.85299999999999</v>
+        <v>100</v>
       </c>
       <c r="D202" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E202" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4650,16 +4641,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C203">
-        <v>100.35</v>
+        <v>107.203</v>
       </c>
       <c r="D203" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E203" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4667,16 +4658,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C204">
-        <v>98.68899999999999</v>
+        <v>96.97</v>
       </c>
       <c r="D204" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E204" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4684,16 +4675,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C205">
-        <v>95.545</v>
+        <v>113.333</v>
       </c>
       <c r="D205" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E205" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4701,16 +4692,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C206">
-        <v>106.25</v>
+        <v>101.887</v>
       </c>
       <c r="D206" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E206" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4718,16 +4709,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C207">
-        <v>100</v>
+        <v>86.667</v>
       </c>
       <c r="D207" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E207" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4735,16 +4726,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C208">
-        <v>86.667</v>
+        <v>103.419</v>
       </c>
       <c r="D208" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E208" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4752,16 +4743,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C209">
-        <v>91.667</v>
+        <v>102.222</v>
       </c>
       <c r="D209" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E209" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4769,16 +4760,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C210">
-        <v>98.361</v>
+        <v>77.575</v>
       </c>
       <c r="D210" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E210" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4786,16 +4777,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C211">
-        <v>97.872</v>
+        <v>101.974</v>
       </c>
       <c r="D211" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E211" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4803,16 +4794,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C212">
-        <v>77.575</v>
+        <v>100</v>
       </c>
       <c r="D212" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E212" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4820,16 +4811,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C213">
-        <v>100.625</v>
+        <v>87.101</v>
       </c>
       <c r="D213" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E213" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4837,16 +4828,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C214">
-        <v>100</v>
+        <v>105.556</v>
       </c>
       <c r="D214" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E214" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4854,16 +4845,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C215">
-        <v>82.81999999999999</v>
+        <v>138.462</v>
       </c>
       <c r="D215" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E215" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4871,16 +4862,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C216">
-        <v>106.522</v>
+        <v>94.286</v>
       </c>
       <c r="D216" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E216" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4888,16 +4879,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C217">
-        <v>138.462</v>
+        <v>108.019</v>
       </c>
       <c r="D217" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E217" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4905,16 +4896,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C218">
-        <v>89.474</v>
+        <v>95.901</v>
       </c>
       <c r="D218" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E218" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4922,16 +4913,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C219">
-        <v>104.889</v>
+        <v>104.299</v>
       </c>
       <c r="D219" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E219" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4939,16 +4930,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C220">
-        <v>95.413</v>
+        <v>95.455</v>
       </c>
       <c r="D220" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E220" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4956,16 +4947,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C221">
-        <v>104.299</v>
+        <v>112.766</v>
       </c>
       <c r="D221" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E221" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4973,16 +4964,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C222">
-        <v>91.304</v>
+        <v>100</v>
       </c>
       <c r="D222" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E222" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4990,16 +4981,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C223">
-        <v>100</v>
+        <v>89.474</v>
       </c>
       <c r="D223" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E223" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5007,16 +4998,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C224">
         <v>100</v>
       </c>
       <c r="D224" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E224" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5024,16 +5015,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C225">
-        <v>88.136</v>
+        <v>133.333</v>
       </c>
       <c r="D225" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E225" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5041,16 +5032,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C226">
         <v>100</v>
       </c>
       <c r="D226" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E226" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5058,16 +5049,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C227">
-        <v>133.333</v>
+        <v>80.15900000000001</v>
       </c>
       <c r="D227" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E227" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5075,16 +5066,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C228">
-        <v>92.30800000000001</v>
+        <v>94.11799999999999</v>
       </c>
       <c r="D228" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E228" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5092,16 +5083,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C229">
-        <v>74.101</v>
+        <v>165.657</v>
       </c>
       <c r="D229" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E229" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5109,16 +5100,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C230">
-        <v>94.286</v>
+        <v>113.333</v>
       </c>
       <c r="D230" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E230" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5126,16 +5117,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C231">
-        <v>165.657</v>
+        <v>100.98</v>
       </c>
       <c r="D231" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E231" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5143,16 +5134,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C232">
-        <v>112.5</v>
+        <v>33.529</v>
       </c>
       <c r="D232" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E232" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5160,16 +5151,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C233">
-        <v>98.113</v>
+        <v>104.167</v>
       </c>
       <c r="D233" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E233" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5177,16 +5168,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C234">
-        <v>33.529</v>
+        <v>88.70399999999999</v>
       </c>
       <c r="D234" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E234" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5194,16 +5185,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C235">
         <v>100</v>
       </c>
       <c r="D235" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E235" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5211,16 +5202,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C236">
-        <v>91.13800000000001</v>
+        <v>95.699</v>
       </c>
       <c r="D236" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E236" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5228,16 +5219,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C237">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D237" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E237" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5245,16 +5236,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C238">
-        <v>96.809</v>
+        <v>104.566</v>
       </c>
       <c r="D238" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E238" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5262,16 +5253,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C239">
-        <v>115</v>
+        <v>101.342</v>
       </c>
       <c r="D239" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E239" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5279,16 +5270,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C240">
-        <v>102.193</v>
+        <v>83.568</v>
       </c>
       <c r="D240" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E240" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5296,16 +5287,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C241">
-        <v>98.70999999999999</v>
+        <v>100</v>
       </c>
       <c r="D241" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E241" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5313,16 +5304,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C242">
-        <v>79.94</v>
+        <v>100</v>
       </c>
       <c r="D242" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E242" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5330,16 +5321,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C243">
-        <v>100</v>
+        <v>134.694</v>
       </c>
       <c r="D243" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E243" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5347,16 +5338,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C244">
-        <v>100</v>
+        <v>133.333</v>
       </c>
       <c r="D244" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E244" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5364,16 +5355,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C245">
-        <v>84.61499999999999</v>
+        <v>131.579</v>
       </c>
       <c r="D245" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E245" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5381,16 +5372,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C246">
-        <v>136</v>
+        <v>103.704</v>
       </c>
       <c r="D246" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E246" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5398,16 +5389,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C247">
-        <v>133.333</v>
+        <v>108.333</v>
       </c>
       <c r="D247" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E247" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5415,16 +5406,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C248">
-        <v>131.579</v>
+        <v>100</v>
       </c>
       <c r="D248" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E248" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5432,16 +5423,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C249">
-        <v>107.407</v>
+        <v>109.375</v>
       </c>
       <c r="D249" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E249" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5449,16 +5440,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C250">
-        <v>104</v>
+        <v>103.192</v>
       </c>
       <c r="D250" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E250" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5466,16 +5457,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C251">
-        <v>100</v>
+        <v>107.283</v>
       </c>
       <c r="D251" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E251" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5483,16 +5474,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C252">
-        <v>104.533</v>
+        <v>96.544</v>
       </c>
       <c r="D252" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E252" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5500,16 +5491,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C253">
-        <v>103.192</v>
+        <v>122.727</v>
       </c>
       <c r="D253" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E253" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5517,16 +5508,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="C254">
-        <v>107.283</v>
+        <v>87.515</v>
       </c>
       <c r="D254" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E254" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5534,16 +5525,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C255">
-        <v>99.444</v>
+        <v>86.667</v>
       </c>
       <c r="D255" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E255" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5551,16 +5542,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C256">
-        <v>122.727</v>
+        <v>105</v>
       </c>
       <c r="D256" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E256" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5568,16 +5559,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C257">
-        <v>91.768</v>
+        <v>91.667</v>
       </c>
       <c r="D257" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E257" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5585,16 +5576,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C258">
-        <v>86.667</v>
+        <v>94.937</v>
       </c>
       <c r="D258" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E258" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5602,16 +5593,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C259">
-        <v>110</v>
+        <v>101.299</v>
       </c>
       <c r="D259" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E259" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5619,16 +5610,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C260">
-        <v>92.30800000000001</v>
+        <v>79.592</v>
       </c>
       <c r="D260" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E260" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5636,16 +5627,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C261">
-        <v>97.735</v>
+        <v>102.92</v>
       </c>
       <c r="D261" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E261" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5653,16 +5644,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C262">
-        <v>97.468</v>
+        <v>90.164</v>
       </c>
       <c r="D262" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E262" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5670,16 +5661,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C263">
-        <v>77.358</v>
+        <v>101.617</v>
       </c>
       <c r="D263" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E263" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5687,16 +5678,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C264">
-        <v>102.098</v>
+        <v>100</v>
       </c>
       <c r="D264" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E264" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5704,16 +5695,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="C265">
-        <v>89.64100000000001</v>
+        <v>101.518</v>
       </c>
       <c r="D265" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E265" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5721,16 +5712,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C266">
-        <v>104.538</v>
+        <v>101.294</v>
       </c>
       <c r="D266" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E266" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5738,67 +5729,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C267">
         <v>100</v>
       </c>
       <c r="D267" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="E267" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" t="s">
-        <v>271</v>
-      </c>
-      <c r="B268" t="s">
-        <v>274</v>
-      </c>
-      <c r="C268">
-        <v>97.628</v>
-      </c>
-      <c r="D268" t="s">
-        <v>276</v>
-      </c>
-      <c r="E268" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" t="s">
-        <v>272</v>
-      </c>
-      <c r="B269" t="s">
-        <v>275</v>
-      </c>
-      <c r="C269">
-        <v>101.035</v>
-      </c>
-      <c r="D269" t="s">
-        <v>276</v>
-      </c>
-      <c r="E269" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" t="s">
-        <v>273</v>
-      </c>
-      <c r="B270" t="s">
-        <v>275</v>
-      </c>
-      <c r="C270">
-        <v>100</v>
-      </c>
-      <c r="D270" t="s">
-        <v>276</v>
-      </c>
-      <c r="E270" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1069" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="279">
   <si>
     <t>symbol</t>
   </si>
@@ -73,6 +73,9 @@
     <t>ALPACAUSDT</t>
   </si>
   <si>
+    <t>ALPHAUSDT</t>
+  </si>
+  <si>
     <t>ALPINEUSDT</t>
   </si>
   <si>
@@ -220,6 +223,9 @@
     <t>COMPUSDT</t>
   </si>
   <si>
+    <t>COTIUSDT</t>
+  </si>
+  <si>
     <t>CREAMUSDT</t>
   </si>
   <si>
@@ -334,6 +340,9 @@
     <t>FISUSDT</t>
   </si>
   <si>
+    <t>FLMUSDT</t>
+  </si>
+  <si>
     <t>FLOWUSDT</t>
   </si>
   <si>
@@ -649,6 +658,9 @@
     <t>RDNTUSDT</t>
   </si>
   <si>
+    <t>RENUSDT</t>
+  </si>
+  <si>
     <t>RLCUSDT</t>
   </si>
   <si>
@@ -829,10 +841,10 @@
     <t>ZRXUSDT</t>
   </si>
   <si>
+    <t>Bull</t>
+  </si>
+  <si>
     <t>Bear</t>
-  </si>
-  <si>
-    <t>Bull</t>
   </si>
   <si>
     <t>10 days</t>
@@ -1196,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E267"/>
+  <dimension ref="A1:E271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1224,16 +1236,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C2">
-        <v>98.246</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1241,16 +1253,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C3">
-        <v>97.283</v>
+        <v>97.33799999999999</v>
       </c>
       <c r="D3" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1258,16 +1270,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C4">
-        <v>116.667</v>
+        <v>111.765</v>
       </c>
       <c r="D4" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1275,16 +1287,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C5">
-        <v>108.133</v>
+        <v>121.767</v>
       </c>
       <c r="D5" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1292,16 +1304,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C6">
-        <v>110</v>
+        <v>118.919</v>
       </c>
       <c r="D6" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1309,16 +1321,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>106.25</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1326,16 +1338,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C8">
         <v>118.182</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E8" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1343,16 +1355,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C9">
         <v>98.182</v>
       </c>
       <c r="D9" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1360,16 +1372,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C10">
         <v>122.222</v>
       </c>
       <c r="D10" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E10" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1377,16 +1389,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C11">
         <v>100</v>
       </c>
       <c r="D11" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1394,16 +1406,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C12">
-        <v>97.015</v>
+        <v>101.478</v>
       </c>
       <c r="D12" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1411,16 +1423,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C13">
-        <v>106.25</v>
+        <v>106.061</v>
       </c>
       <c r="D13" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E13" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1428,16 +1440,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C14">
-        <v>104.375</v>
+        <v>105.59</v>
       </c>
       <c r="D14" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E14" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1445,16 +1457,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>103.448</v>
       </c>
       <c r="D15" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E15" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1462,16 +1474,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C16">
-        <v>99.099</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E16" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1479,16 +1491,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C17">
-        <v>100</v>
+        <v>133.555</v>
       </c>
       <c r="D17" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E17" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1496,16 +1508,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C18">
-        <v>112.865</v>
+        <v>103.681</v>
       </c>
       <c r="D18" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E18" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1513,16 +1525,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C19">
-        <v>91.411</v>
+        <v>117.982</v>
       </c>
       <c r="D19" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E19" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1530,16 +1542,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C20">
-        <v>104.571</v>
+        <v>100</v>
       </c>
       <c r="D20" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E20" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1547,16 +1559,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C21">
-        <v>108.197</v>
+        <v>104.571</v>
       </c>
       <c r="D21" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E21" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1564,16 +1576,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C22">
-        <v>150</v>
+        <v>108.197</v>
       </c>
       <c r="D22" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E22" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1581,16 +1593,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C23">
-        <v>129.787</v>
+        <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E23" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1598,16 +1610,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C24">
-        <v>105.384</v>
+        <v>129.787</v>
       </c>
       <c r="D24" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E24" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1615,16 +1627,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C25">
-        <v>105.279</v>
+        <v>93.467</v>
       </c>
       <c r="D25" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E25" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1632,16 +1644,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C26">
-        <v>172.727</v>
+        <v>122.222</v>
       </c>
       <c r="D26" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E26" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1649,16 +1661,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C27">
-        <v>92.857</v>
+        <v>172.727</v>
       </c>
       <c r="D27" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E27" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1666,16 +1678,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C28">
-        <v>107.417</v>
+        <v>93.333</v>
       </c>
       <c r="D28" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E28" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1683,16 +1695,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C29">
-        <v>107.637</v>
+        <v>137.752</v>
       </c>
       <c r="D29" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E29" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1700,16 +1712,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C30">
-        <v>100.803</v>
+        <v>104.586</v>
       </c>
       <c r="D30" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E30" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1717,16 +1729,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C31">
-        <v>115.789</v>
+        <v>110.374</v>
       </c>
       <c r="D31" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E31" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1734,16 +1746,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C32">
-        <v>100</v>
+        <v>110.526</v>
       </c>
       <c r="D32" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E32" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1751,16 +1763,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C33">
-        <v>102.097</v>
+        <v>100</v>
       </c>
       <c r="D33" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E33" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1768,16 +1780,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C34">
-        <v>98.74299999999999</v>
+        <v>106.675</v>
       </c>
       <c r="D34" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E34" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1785,16 +1797,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C35">
-        <v>104.928</v>
+        <v>111.607</v>
       </c>
       <c r="D35" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E35" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1802,16 +1814,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C36">
-        <v>95.652</v>
+        <v>100.867</v>
       </c>
       <c r="D36" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E36" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1819,16 +1831,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C37">
-        <v>103.407</v>
+        <v>104.348</v>
       </c>
       <c r="D37" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E37" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1836,16 +1848,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C38">
-        <v>98.214</v>
+        <v>101.898</v>
       </c>
       <c r="D38" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E38" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1853,16 +1865,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C39">
-        <v>109.037</v>
+        <v>109.91</v>
       </c>
       <c r="D39" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E39" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1870,16 +1882,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C40">
-        <v>100</v>
+        <v>135.135</v>
       </c>
       <c r="D40" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E40" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1887,16 +1899,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C41">
-        <v>97.581</v>
+        <v>103.448</v>
       </c>
       <c r="D41" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E41" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1904,16 +1916,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C42">
-        <v>96.429</v>
+        <v>103.165</v>
       </c>
       <c r="D42" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E42" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1921,16 +1933,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C43">
-        <v>107.692</v>
+        <v>100</v>
       </c>
       <c r="D43" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E43" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1938,16 +1950,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C44">
-        <v>103.91</v>
+        <v>107.692</v>
       </c>
       <c r="D44" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E44" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1955,16 +1967,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C45">
-        <v>141.304</v>
+        <v>103.122</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E45" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1972,16 +1984,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C46">
-        <v>85.196</v>
+        <v>141.304</v>
       </c>
       <c r="D46" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E46" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1989,16 +2001,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C47">
-        <v>97.238</v>
+        <v>97.26000000000001</v>
       </c>
       <c r="D47" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E47" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2006,16 +2018,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C48">
-        <v>95.455</v>
+        <v>102.177</v>
       </c>
       <c r="D48" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E48" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2023,16 +2035,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C49">
-        <v>93.893</v>
+        <v>104.651</v>
       </c>
       <c r="D49" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E49" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2040,16 +2052,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C50">
-        <v>98.185</v>
+        <v>101.081</v>
       </c>
       <c r="D50" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E50" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2057,16 +2069,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C51">
-        <v>112</v>
+        <v>102.174</v>
       </c>
       <c r="D51" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E51" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2074,16 +2086,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C52">
-        <v>96.55200000000001</v>
+        <v>108</v>
       </c>
       <c r="D52" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2091,16 +2103,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C53">
-        <v>96.495</v>
+        <v>100.773</v>
       </c>
       <c r="D53" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E53" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2108,16 +2120,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C54">
-        <v>104.444</v>
+        <v>99.29900000000001</v>
       </c>
       <c r="D54" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E54" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2125,16 +2137,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>104.396</v>
       </c>
       <c r="D55" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E55" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2142,16 +2154,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C56">
-        <v>105.882</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E56" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2159,16 +2171,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C57">
-        <v>94</v>
+        <v>102.941</v>
       </c>
       <c r="D57" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E57" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2176,16 +2188,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C58">
-        <v>94.80500000000001</v>
+        <v>104.968</v>
       </c>
       <c r="D58" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E58" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2193,16 +2205,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C59">
-        <v>100</v>
+        <v>103.947</v>
       </c>
       <c r="D59" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E59" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2210,16 +2222,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C60">
-        <v>93.333</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E60" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2227,16 +2239,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C61">
-        <v>121.053</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E61" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2244,16 +2256,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C62">
-        <v>101.029</v>
+        <v>126.316</v>
       </c>
       <c r="D62" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E62" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2261,16 +2273,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C63">
-        <v>184.694</v>
+        <v>112.781</v>
       </c>
       <c r="D63" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E63" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2278,16 +2290,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C64">
-        <v>99.404</v>
+        <v>184.694</v>
       </c>
       <c r="D64" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E64" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2295,16 +2307,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C65">
-        <v>77.86799999999999</v>
+        <v>112.632</v>
       </c>
       <c r="D65" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E65" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2312,16 +2324,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C66">
-        <v>101.176</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E66" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2329,16 +2341,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C67">
-        <v>102.353</v>
+        <v>77.86799999999999</v>
       </c>
       <c r="D67" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E67" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2346,16 +2358,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C68">
-        <v>92.857</v>
+        <v>105.618</v>
       </c>
       <c r="D68" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E68" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2363,16 +2375,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C69">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E69" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2380,16 +2392,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C70">
-        <v>157.895</v>
+        <v>100</v>
       </c>
       <c r="D70" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E70" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2397,16 +2409,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C71">
         <v>110</v>
       </c>
       <c r="D71" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E71" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2414,16 +2426,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C72">
-        <v>80.143</v>
+        <v>161.111</v>
       </c>
       <c r="D72" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E72" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2431,16 +2443,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C73">
-        <v>68.869</v>
+        <v>61.538</v>
       </c>
       <c r="D73" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E73" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2448,16 +2460,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C74">
-        <v>100</v>
+        <v>86.833</v>
       </c>
       <c r="D74" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E74" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2465,16 +2477,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C75">
-        <v>94.675</v>
+        <v>68.869</v>
       </c>
       <c r="D75" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E75" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2482,16 +2494,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C76">
-        <v>94.444</v>
+        <v>100</v>
       </c>
       <c r="D76" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E76" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2499,16 +2511,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C77">
-        <v>92.35299999999999</v>
+        <v>99.32599999999999</v>
       </c>
       <c r="D77" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E77" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2516,16 +2528,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C78">
-        <v>98.96899999999999</v>
+        <v>91.51300000000001</v>
       </c>
       <c r="D78" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E78" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2533,16 +2545,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C79">
-        <v>94.872</v>
+        <v>94.286</v>
       </c>
       <c r="D79" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E79" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2550,16 +2562,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C80">
-        <v>100</v>
+        <v>102.062</v>
       </c>
       <c r="D80" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E80" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2567,16 +2579,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C81">
-        <v>97.92</v>
+        <v>95</v>
       </c>
       <c r="D81" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E81" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2584,16 +2596,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C82">
-        <v>118.182</v>
+        <v>92.30800000000001</v>
       </c>
       <c r="D82" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E82" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2601,16 +2613,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C83">
-        <v>91.667</v>
+        <v>101.917</v>
       </c>
       <c r="D83" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E83" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2618,16 +2630,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C84">
-        <v>90.76900000000001</v>
+        <v>130</v>
       </c>
       <c r="D84" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E84" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2635,16 +2647,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C85">
-        <v>110.484</v>
+        <v>91.667</v>
       </c>
       <c r="D85" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E85" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2652,16 +2664,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C86">
-        <v>81.184</v>
+        <v>83.553</v>
       </c>
       <c r="D86" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E86" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2669,16 +2681,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C87">
-        <v>100</v>
+        <v>110.484</v>
       </c>
       <c r="D87" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E87" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2686,16 +2698,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C88">
-        <v>104.651</v>
+        <v>82.5</v>
       </c>
       <c r="D88" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E88" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2703,16 +2715,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C89">
-        <v>83.32299999999999</v>
+        <v>100</v>
       </c>
       <c r="D89" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E89" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2720,16 +2732,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C90">
-        <v>114.563</v>
+        <v>104.545</v>
       </c>
       <c r="D90" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E90" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2737,16 +2749,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C91">
-        <v>47.766</v>
+        <v>82.006</v>
       </c>
       <c r="D91" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E91" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2754,16 +2766,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C92">
-        <v>114.445</v>
+        <v>108.491</v>
       </c>
       <c r="D92" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E92" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2771,16 +2783,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C93">
-        <v>105.042</v>
+        <v>83.01300000000001</v>
       </c>
       <c r="D93" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E93" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2788,16 +2800,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C94">
-        <v>93.11499999999999</v>
+        <v>115.946</v>
       </c>
       <c r="D94" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E94" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2805,16 +2817,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C95">
-        <v>96.56999999999999</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E95" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2822,16 +2834,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C96">
-        <v>101.031</v>
+        <v>101.824</v>
       </c>
       <c r="D96" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E96" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2839,16 +2851,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C97">
-        <v>102.419</v>
+        <v>100.436</v>
       </c>
       <c r="D97" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E97" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2856,16 +2868,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C98">
-        <v>100</v>
+        <v>98.98</v>
       </c>
       <c r="D98" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E98" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2873,16 +2885,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C99">
-        <v>100</v>
+        <v>102.162</v>
       </c>
       <c r="D99" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E99" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2890,16 +2902,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C100">
-        <v>101.55</v>
+        <v>100</v>
       </c>
       <c r="D100" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E100" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2907,16 +2919,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C101">
-        <v>120.168</v>
+        <v>97.5</v>
       </c>
       <c r="D101" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E101" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2924,16 +2936,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C102">
-        <v>100</v>
+        <v>111.429</v>
       </c>
       <c r="D102" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E102" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2941,16 +2953,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C103">
-        <v>103.185</v>
+        <v>119.828</v>
       </c>
       <c r="D103" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E103" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2958,16 +2970,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C104">
-        <v>120.513</v>
+        <v>96.97</v>
       </c>
       <c r="D104" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E104" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2975,16 +2987,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C105">
-        <v>102.022</v>
+        <v>100</v>
       </c>
       <c r="D105" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E105" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2992,16 +3004,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C106">
-        <v>95.652</v>
+        <v>106.494</v>
       </c>
       <c r="D106" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E106" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3009,16 +3021,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C107">
-        <v>104.762</v>
+        <v>109.211</v>
       </c>
       <c r="D107" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E107" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3026,16 +3038,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C108">
-        <v>124.989</v>
+        <v>111.695</v>
       </c>
       <c r="D108" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E108" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3043,16 +3055,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C109">
-        <v>86.88800000000001</v>
+        <v>100</v>
       </c>
       <c r="D109" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E109" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3060,16 +3072,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C110">
-        <v>99.598</v>
+        <v>109.524</v>
       </c>
       <c r="D110" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E110" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3077,16 +3089,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C111">
-        <v>111.243</v>
+        <v>122.082</v>
       </c>
       <c r="D111" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E111" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3094,16 +3106,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C112">
-        <v>103.448</v>
+        <v>67.267</v>
       </c>
       <c r="D112" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E112" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3111,16 +3123,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C113">
-        <v>102.586</v>
+        <v>111.966</v>
       </c>
       <c r="D113" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E113" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3128,16 +3140,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C114">
-        <v>93.617</v>
+        <v>111.243</v>
       </c>
       <c r="D114" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E114" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3145,16 +3157,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C115">
-        <v>104</v>
+        <v>103.448</v>
       </c>
       <c r="D115" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3162,16 +3174,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C116">
-        <v>93.75</v>
+        <v>103.478</v>
       </c>
       <c r="D116" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E116" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3179,16 +3191,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C117">
-        <v>142.223</v>
+        <v>93.75</v>
       </c>
       <c r="D117" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E117" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3196,16 +3208,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C118">
-        <v>108.514</v>
+        <v>104</v>
       </c>
       <c r="D118" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E118" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3213,16 +3225,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C119">
-        <v>148.127</v>
+        <v>113.559</v>
       </c>
       <c r="D119" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E119" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3230,16 +3242,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C120">
-        <v>103.488</v>
+        <v>142.223</v>
       </c>
       <c r="D120" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E120" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3247,16 +3259,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C121">
-        <v>95</v>
+        <v>106.483</v>
       </c>
       <c r="D121" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E121" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3264,16 +3276,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C122">
-        <v>214.583</v>
+        <v>148.127</v>
       </c>
       <c r="D122" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E122" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3281,16 +3293,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C123">
-        <v>104.082</v>
+        <v>102.924</v>
       </c>
       <c r="D123" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E123" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3298,16 +3310,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C124">
-        <v>89.116</v>
+        <v>90.476</v>
       </c>
       <c r="D124" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E124" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3315,16 +3327,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C125">
-        <v>90.741</v>
+        <v>214.583</v>
       </c>
       <c r="D125" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3332,16 +3344,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C126">
-        <v>178.322</v>
+        <v>104.082</v>
       </c>
       <c r="D126" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E126" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3349,16 +3361,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C127">
-        <v>111.09</v>
+        <v>93.197</v>
       </c>
       <c r="D127" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E127" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3366,16 +3378,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C128">
         <v>100</v>
       </c>
       <c r="D128" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E128" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3383,16 +3395,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C129">
-        <v>87.23399999999999</v>
+        <v>178.322</v>
       </c>
       <c r="D129" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E129" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3400,16 +3412,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C130">
-        <v>102.286</v>
+        <v>118.898</v>
       </c>
       <c r="D130" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E130" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3417,16 +3429,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C131">
-        <v>107.246</v>
+        <v>109.091</v>
       </c>
       <c r="D131" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E131" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3434,16 +3446,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C132">
-        <v>83.429</v>
+        <v>87.23399999999999</v>
       </c>
       <c r="D132" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E132" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3451,16 +3463,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C133">
-        <v>96.154</v>
+        <v>104.909</v>
       </c>
       <c r="D133" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E133" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3468,16 +3480,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C134">
-        <v>100</v>
+        <v>113.846</v>
       </c>
       <c r="D134" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E134" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3485,16 +3497,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C135">
-        <v>94.84099999999999</v>
+        <v>81.04300000000001</v>
       </c>
       <c r="D135" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E135" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3502,16 +3514,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C136">
-        <v>113.333</v>
+        <v>120</v>
       </c>
       <c r="D136" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E136" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3519,16 +3531,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C137">
-        <v>94.702</v>
+        <v>104.762</v>
       </c>
       <c r="D137" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E137" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3536,16 +3548,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C138">
-        <v>101.471</v>
+        <v>94.84099999999999</v>
       </c>
       <c r="D138" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E138" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3553,16 +3565,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C139">
-        <v>111.111</v>
+        <v>129.188</v>
       </c>
       <c r="D139" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E139" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3570,16 +3582,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C140">
-        <v>100</v>
+        <v>111.268</v>
       </c>
       <c r="D140" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E140" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3587,16 +3599,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C141">
-        <v>116.19</v>
+        <v>103.731</v>
       </c>
       <c r="D141" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E141" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3604,16 +3616,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C142">
-        <v>99.494</v>
+        <v>142.857</v>
       </c>
       <c r="D142" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E142" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3621,16 +3633,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C143">
-        <v>95.705</v>
+        <v>100</v>
       </c>
       <c r="D143" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E143" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3638,16 +3650,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C144">
-        <v>113.307</v>
+        <v>120</v>
       </c>
       <c r="D144" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E144" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3655,16 +3667,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C145">
-        <v>138.931</v>
+        <v>102.547</v>
       </c>
       <c r="D145" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E145" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3672,16 +3684,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C146">
-        <v>91.13200000000001</v>
+        <v>115.586</v>
       </c>
       <c r="D146" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E146" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3689,16 +3701,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C147">
-        <v>78.873</v>
+        <v>151.648</v>
       </c>
       <c r="D147" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E147" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3706,16 +3718,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C148">
-        <v>98.077</v>
+        <v>105.882</v>
       </c>
       <c r="D148" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E148" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3723,16 +3735,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C149">
-        <v>96.264</v>
+        <v>106.276</v>
       </c>
       <c r="D149" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E149" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3740,16 +3752,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C150">
-        <v>90.795</v>
+        <v>76.623</v>
       </c>
       <c r="D150" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E150" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3757,16 +3769,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C151">
-        <v>107.407</v>
+        <v>104.082</v>
       </c>
       <c r="D151" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E151" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3774,16 +3786,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C152">
-        <v>96.842</v>
+        <v>99.77500000000001</v>
       </c>
       <c r="D152" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E152" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3791,16 +3803,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C153">
-        <v>97.074</v>
+        <v>90.795</v>
       </c>
       <c r="D153" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E153" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3808,16 +3820,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C154">
-        <v>99.602</v>
+        <v>115.385</v>
       </c>
       <c r="D154" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E154" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3825,16 +3837,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C155">
-        <v>155.102</v>
+        <v>100</v>
       </c>
       <c r="D155" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E155" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3842,16 +3854,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C156">
-        <v>101.493</v>
+        <v>102.837</v>
       </c>
       <c r="D156" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E156" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3859,16 +3871,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C157">
-        <v>101.802</v>
+        <v>95.057</v>
       </c>
       <c r="D157" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E157" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3876,16 +3888,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C158">
-        <v>86.42</v>
+        <v>155.102</v>
       </c>
       <c r="D158" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E158" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3893,16 +3905,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C159">
-        <v>144.444</v>
+        <v>107.692</v>
       </c>
       <c r="D159" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E159" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3910,16 +3922,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C160">
-        <v>122.414</v>
+        <v>101.786</v>
       </c>
       <c r="D160" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E160" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3927,16 +3939,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C161">
-        <v>100</v>
+        <v>88.235</v>
       </c>
       <c r="D161" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E161" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3944,16 +3956,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C162">
-        <v>60.368</v>
+        <v>144.444</v>
       </c>
       <c r="D162" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E162" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3961,16 +3973,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C163">
-        <v>98.732</v>
+        <v>105.085</v>
       </c>
       <c r="D163" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E163" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3978,16 +3990,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C164">
-        <v>101.053</v>
+        <v>103.509</v>
       </c>
       <c r="D164" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E164" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3995,16 +4007,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C165">
-        <v>98.413</v>
+        <v>67.003</v>
       </c>
       <c r="D165" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E165" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4012,16 +4024,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C166">
-        <v>100</v>
+        <v>97.40600000000001</v>
       </c>
       <c r="D166" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E166" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4029,16 +4041,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C167">
-        <v>106.434</v>
+        <v>105.952</v>
       </c>
       <c r="D167" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E167" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4046,16 +4058,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C168">
-        <v>113.043</v>
+        <v>93.77200000000001</v>
       </c>
       <c r="D168" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E168" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4063,16 +4075,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C169">
-        <v>98.289</v>
+        <v>106.061</v>
       </c>
       <c r="D169" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E169" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4080,16 +4092,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C170">
-        <v>103.571</v>
+        <v>102.558</v>
       </c>
       <c r="D170" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E170" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4097,16 +4109,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C171">
-        <v>104.049</v>
+        <v>116.993</v>
       </c>
       <c r="D171" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E171" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4114,16 +4126,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C172">
-        <v>122.581</v>
+        <v>107.214</v>
       </c>
       <c r="D172" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E172" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4131,16 +4143,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C173">
-        <v>100</v>
+        <v>104.545</v>
       </c>
       <c r="D173" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E173" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4148,16 +4160,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C174">
-        <v>180</v>
+        <v>100.473</v>
       </c>
       <c r="D174" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E174" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4165,16 +4177,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C175">
-        <v>100</v>
+        <v>122.581</v>
       </c>
       <c r="D175" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E175" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4182,16 +4194,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C176">
-        <v>93.333</v>
+        <v>95</v>
       </c>
       <c r="D176" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E176" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4199,16 +4211,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C177">
-        <v>106.022</v>
+        <v>180</v>
       </c>
       <c r="D177" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E177" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4216,16 +4228,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C178">
-        <v>100.613</v>
+        <v>106.667</v>
       </c>
       <c r="D178" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E178" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4233,16 +4245,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C179">
         <v>100</v>
       </c>
       <c r="D179" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E179" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4250,16 +4262,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C180">
-        <v>95.455</v>
+        <v>131.863</v>
       </c>
       <c r="D180" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E180" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4267,16 +4279,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C181">
-        <v>118.667</v>
+        <v>104.242</v>
       </c>
       <c r="D181" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E181" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4284,16 +4296,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C182">
-        <v>67.45999999999999</v>
+        <v>103.125</v>
       </c>
       <c r="D182" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E182" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4301,16 +4313,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C183">
-        <v>97.143</v>
+        <v>104.762</v>
       </c>
       <c r="D183" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E183" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4318,16 +4330,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C184">
-        <v>144.737</v>
+        <v>118.182</v>
       </c>
       <c r="D184" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E184" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4335,16 +4347,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C185">
-        <v>99.88</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="D185" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E185" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4352,16 +4364,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C186">
-        <v>111.842</v>
+        <v>93.96599999999999</v>
       </c>
       <c r="D186" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E186" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4369,16 +4381,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C187">
-        <v>100</v>
+        <v>144.737</v>
       </c>
       <c r="D187" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E187" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4386,16 +4398,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C188">
-        <v>63.077</v>
+        <v>100.182</v>
       </c>
       <c r="D188" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E188" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4403,16 +4415,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C189">
-        <v>155.556</v>
+        <v>111.842</v>
       </c>
       <c r="D189" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E189" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4420,16 +4432,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C190">
-        <v>100</v>
+        <v>88.70999999999999</v>
       </c>
       <c r="D190" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E190" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4437,16 +4449,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C191">
-        <v>109.091</v>
+        <v>63.077</v>
       </c>
       <c r="D191" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E191" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4454,16 +4466,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C192">
-        <v>100</v>
+        <v>155.556</v>
       </c>
       <c r="D192" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E192" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4471,16 +4483,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C193">
-        <v>194.118</v>
+        <v>106.667</v>
       </c>
       <c r="D193" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E193" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4488,16 +4500,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C194">
-        <v>116.186</v>
+        <v>108.696</v>
       </c>
       <c r="D194" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E194" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4505,16 +4517,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C195">
-        <v>100</v>
+        <v>102.174</v>
       </c>
       <c r="D195" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E195" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4522,16 +4534,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C196">
-        <v>125.431</v>
+        <v>194.118</v>
       </c>
       <c r="D196" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E196" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4539,16 +4551,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C197">
-        <v>116.667</v>
+        <v>140.291</v>
       </c>
       <c r="D197" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E197" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4556,16 +4568,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C198">
-        <v>107.371</v>
+        <v>95</v>
       </c>
       <c r="D198" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E198" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4573,16 +4585,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C199">
-        <v>102.083</v>
+        <v>125.431</v>
       </c>
       <c r="D199" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E199" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4590,16 +4602,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C200">
-        <v>83.024</v>
+        <v>116.667</v>
       </c>
       <c r="D200" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E200" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4607,16 +4619,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C201">
-        <v>66.645</v>
+        <v>123.021</v>
       </c>
       <c r="D201" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E201" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4624,16 +4636,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C202">
         <v>100</v>
       </c>
       <c r="D202" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E202" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4641,16 +4653,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C203">
-        <v>107.203</v>
+        <v>73.922</v>
       </c>
       <c r="D203" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E203" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4658,16 +4670,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C204">
-        <v>96.97</v>
+        <v>64.79300000000001</v>
       </c>
       <c r="D204" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E204" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4675,16 +4687,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C205">
-        <v>113.333</v>
+        <v>104.396</v>
       </c>
       <c r="D205" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E205" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4692,16 +4704,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C206">
-        <v>101.887</v>
+        <v>95.869</v>
       </c>
       <c r="D206" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E206" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4709,16 +4721,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C207">
-        <v>86.667</v>
+        <v>100</v>
       </c>
       <c r="D207" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E207" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4726,16 +4738,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C208">
-        <v>103.419</v>
+        <v>106.667</v>
       </c>
       <c r="D208" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E208" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4743,16 +4755,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C209">
-        <v>102.222</v>
+        <v>116.327</v>
       </c>
       <c r="D209" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E209" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4760,16 +4772,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C210">
-        <v>77.575</v>
+        <v>86.667</v>
       </c>
       <c r="D210" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E210" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4777,16 +4789,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C211">
-        <v>101.974</v>
+        <v>100</v>
       </c>
       <c r="D211" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E211" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4794,16 +4806,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C212">
-        <v>100</v>
+        <v>104.386</v>
       </c>
       <c r="D212" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E212" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4811,16 +4823,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C213">
-        <v>87.101</v>
+        <v>109.302</v>
       </c>
       <c r="D213" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E213" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4828,16 +4840,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C214">
-        <v>105.556</v>
+        <v>77.575</v>
       </c>
       <c r="D214" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E214" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4845,16 +4857,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C215">
-        <v>138.462</v>
+        <v>100.645</v>
       </c>
       <c r="D215" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E215" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4862,16 +4874,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C216">
-        <v>94.286</v>
+        <v>107.595</v>
       </c>
       <c r="D216" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E216" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4879,16 +4891,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C217">
-        <v>108.019</v>
+        <v>138.842</v>
       </c>
       <c r="D217" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E217" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4896,16 +4908,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C218">
-        <v>95.901</v>
+        <v>102.151</v>
       </c>
       <c r="D218" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E218" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4913,16 +4925,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C219">
-        <v>104.299</v>
+        <v>138.462</v>
       </c>
       <c r="D219" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E219" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4930,16 +4942,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C220">
-        <v>95.455</v>
+        <v>92.105</v>
       </c>
       <c r="D220" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E220" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4947,16 +4959,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C221">
-        <v>112.766</v>
+        <v>105.15</v>
       </c>
       <c r="D221" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E221" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4964,16 +4976,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C222">
-        <v>100</v>
+        <v>106.44</v>
       </c>
       <c r="D222" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E222" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4981,16 +4993,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C223">
-        <v>89.474</v>
+        <v>104.299</v>
       </c>
       <c r="D223" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E223" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4998,16 +5010,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C224">
-        <v>100</v>
+        <v>95.652</v>
       </c>
       <c r="D224" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E224" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5015,16 +5027,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C225">
-        <v>133.333</v>
+        <v>112.766</v>
       </c>
       <c r="D225" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E225" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5032,16 +5044,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C226">
-        <v>100</v>
+        <v>109.524</v>
       </c>
       <c r="D226" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E226" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5049,16 +5061,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C227">
-        <v>80.15900000000001</v>
+        <v>94.444</v>
       </c>
       <c r="D227" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E227" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5066,16 +5078,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C228">
-        <v>94.11799999999999</v>
+        <v>106.452</v>
       </c>
       <c r="D228" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E228" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5083,16 +5095,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C229">
-        <v>165.657</v>
+        <v>133.333</v>
       </c>
       <c r="D229" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E229" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5100,16 +5112,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C230">
-        <v>113.333</v>
+        <v>100</v>
       </c>
       <c r="D230" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E230" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5117,16 +5129,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C231">
-        <v>100.98</v>
+        <v>75.352</v>
       </c>
       <c r="D231" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E231" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5134,16 +5146,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C232">
-        <v>33.529</v>
+        <v>109.375</v>
       </c>
       <c r="D232" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E232" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5151,16 +5163,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C233">
-        <v>104.167</v>
+        <v>165.657</v>
       </c>
       <c r="D233" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E233" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5168,16 +5180,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C234">
-        <v>88.70399999999999</v>
+        <v>121.429</v>
       </c>
       <c r="D234" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E234" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5185,16 +5197,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C235">
-        <v>100</v>
+        <v>106.863</v>
       </c>
       <c r="D235" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E235" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5202,16 +5214,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C236">
-        <v>95.699</v>
+        <v>33.529</v>
       </c>
       <c r="D236" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E236" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5219,16 +5231,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C237">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D237" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E237" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5236,16 +5248,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C238">
-        <v>104.566</v>
+        <v>104.554</v>
       </c>
       <c r="D238" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E238" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5253,16 +5265,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C239">
-        <v>101.342</v>
+        <v>100</v>
       </c>
       <c r="D239" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E239" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5270,16 +5282,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C240">
-        <v>83.568</v>
+        <v>82.727</v>
       </c>
       <c r="D240" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E240" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5287,16 +5299,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C241">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D241" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E241" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5304,16 +5316,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C242">
-        <v>100</v>
+        <v>104.018</v>
       </c>
       <c r="D242" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E242" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5321,16 +5333,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C243">
-        <v>134.694</v>
+        <v>108.808</v>
       </c>
       <c r="D243" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E243" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5338,16 +5350,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C244">
-        <v>133.333</v>
+        <v>102.66</v>
       </c>
       <c r="D244" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E244" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5355,16 +5367,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C245">
-        <v>131.579</v>
+        <v>100</v>
       </c>
       <c r="D245" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E245" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5372,16 +5384,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C246">
-        <v>103.704</v>
+        <v>100</v>
       </c>
       <c r="D246" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E246" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5389,16 +5401,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C247">
-        <v>108.333</v>
+        <v>160</v>
       </c>
       <c r="D247" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E247" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5406,16 +5418,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C248">
-        <v>100</v>
+        <v>133.333</v>
       </c>
       <c r="D248" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E248" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5423,16 +5435,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C249">
-        <v>109.375</v>
+        <v>131.579</v>
       </c>
       <c r="D249" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E249" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5440,16 +5452,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C250">
-        <v>103.192</v>
+        <v>96.29600000000001</v>
       </c>
       <c r="D250" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E250" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5457,16 +5469,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C251">
-        <v>107.283</v>
+        <v>108.696</v>
       </c>
       <c r="D251" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E251" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5474,16 +5486,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C252">
-        <v>96.544</v>
+        <v>100</v>
       </c>
       <c r="D252" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E252" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5491,16 +5503,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C253">
-        <v>122.727</v>
+        <v>109.065</v>
       </c>
       <c r="D253" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E253" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5508,16 +5520,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C254">
-        <v>87.515</v>
+        <v>103.192</v>
       </c>
       <c r="D254" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E254" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5525,16 +5537,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C255">
-        <v>86.667</v>
+        <v>107.283</v>
       </c>
       <c r="D255" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E255" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5542,16 +5554,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C256">
-        <v>105</v>
+        <v>108.374</v>
       </c>
       <c r="D256" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E256" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5559,16 +5571,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C257">
-        <v>91.667</v>
+        <v>122.727</v>
       </c>
       <c r="D257" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E257" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5576,16 +5588,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="C258">
-        <v>94.937</v>
+        <v>88.53700000000001</v>
       </c>
       <c r="D258" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E258" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5593,16 +5605,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C259">
-        <v>101.299</v>
+        <v>87.5</v>
       </c>
       <c r="D259" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E259" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5610,16 +5622,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C260">
-        <v>79.592</v>
+        <v>105</v>
       </c>
       <c r="D260" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E260" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5627,16 +5639,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C261">
-        <v>102.92</v>
+        <v>100</v>
       </c>
       <c r="D261" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E261" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5644,16 +5656,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C262">
-        <v>90.164</v>
+        <v>102.366</v>
       </c>
       <c r="D262" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E262" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5661,16 +5673,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C263">
-        <v>101.617</v>
+        <v>101.333</v>
       </c>
       <c r="D263" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E263" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5678,16 +5690,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="C264">
-        <v>100</v>
+        <v>93.75</v>
       </c>
       <c r="D264" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E264" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5695,16 +5707,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C265">
-        <v>101.518</v>
+        <v>103.597</v>
       </c>
       <c r="D265" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E265" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5712,16 +5724,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="C266">
-        <v>101.294</v>
+        <v>104.069</v>
       </c>
       <c r="D266" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="E266" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5729,16 +5741,84 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
+        <v>275</v>
+      </c>
+      <c r="C267">
+        <v>103.844</v>
+      </c>
+      <c r="D267" t="s">
+        <v>277</v>
+      </c>
+      <c r="E267" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5">
+      <c r="A268" t="s">
+        <v>271</v>
+      </c>
+      <c r="B268" t="s">
+        <v>275</v>
+      </c>
+      <c r="C268">
+        <v>112.5</v>
+      </c>
+      <c r="D268" t="s">
+        <v>277</v>
+      </c>
+      <c r="E268" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5">
+      <c r="A269" t="s">
         <v>272</v>
       </c>
-      <c r="C267">
-        <v>100</v>
-      </c>
-      <c r="D267" t="s">
+      <c r="B269" t="s">
+        <v>275</v>
+      </c>
+      <c r="C269">
+        <v>104.924</v>
+      </c>
+      <c r="D269" t="s">
+        <v>277</v>
+      </c>
+      <c r="E269" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5">
+      <c r="A270" t="s">
         <v>273</v>
       </c>
-      <c r="E267" t="s">
+      <c r="B270" t="s">
+        <v>275</v>
+      </c>
+      <c r="C270">
+        <v>107.039</v>
+      </c>
+      <c r="D270" t="s">
+        <v>277</v>
+      </c>
+      <c r="E270" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
         <v>274</v>
+      </c>
+      <c r="B271" t="s">
+        <v>275</v>
+      </c>
+      <c r="C271">
+        <v>103.846</v>
+      </c>
+      <c r="D271" t="s">
+        <v>277</v>
+      </c>
+      <c r="E271" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="282">
   <si>
     <t>symbol</t>
   </si>
@@ -157,6 +157,9 @@
     <t>BELUSDT</t>
   </si>
   <si>
+    <t>BETAUSDT</t>
+  </si>
+  <si>
     <t>BICOUSDT</t>
   </si>
   <si>
@@ -661,6 +664,9 @@
     <t>RENUSDT</t>
   </si>
   <si>
+    <t>REQUSDT</t>
+  </si>
+  <si>
     <t>RLCUSDT</t>
   </si>
   <si>
@@ -764,6 +770,9 @@
   </si>
   <si>
     <t>USDPUSDT</t>
+  </si>
+  <si>
+    <t>UTKUSDT</t>
   </si>
   <si>
     <t>VGXUSDT</t>
@@ -1208,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E271"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1236,16 +1245,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>101.754</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1253,16 +1262,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C3">
-        <v>97.33799999999999</v>
+        <v>93.212</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1270,16 +1279,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C4">
-        <v>111.765</v>
+        <v>105.882</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1287,16 +1296,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C5">
-        <v>121.767</v>
+        <v>123.344</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1304,16 +1313,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C6">
-        <v>118.919</v>
+        <v>122.222</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1321,16 +1330,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C7">
         <v>106.25</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1338,16 +1347,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C8">
         <v>118.182</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1355,16 +1364,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C9">
         <v>98.182</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1372,16 +1381,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C10">
         <v>122.222</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1389,16 +1398,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C11">
-        <v>100</v>
+        <v>103.226</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1406,16 +1415,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C12">
-        <v>101.478</v>
+        <v>107.538</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1423,16 +1432,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C13">
-        <v>106.061</v>
+        <v>109.375</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1440,16 +1449,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C14">
-        <v>105.59</v>
+        <v>108.917</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1457,16 +1466,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C15">
-        <v>103.448</v>
+        <v>96.667</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1474,16 +1483,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>109.091</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E16" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1491,16 +1500,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C17">
-        <v>133.555</v>
+        <v>138.567</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1508,16 +1517,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C18">
-        <v>103.681</v>
+        <v>103.727</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E18" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1525,16 +1534,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C19">
-        <v>117.982</v>
+        <v>123.077</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1542,16 +1551,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C20">
-        <v>100</v>
+        <v>103.086</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1559,16 +1568,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C21">
         <v>104.571</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1576,16 +1585,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C22">
         <v>108.197</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E22" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1593,16 +1602,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C23">
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E23" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1610,16 +1619,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C24">
         <v>129.787</v>
       </c>
       <c r="D24" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E24" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1627,16 +1636,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C25">
-        <v>93.467</v>
+        <v>89.03</v>
       </c>
       <c r="D25" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E25" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1644,16 +1653,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C26">
-        <v>122.222</v>
+        <v>126.299</v>
       </c>
       <c r="D26" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E26" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1661,16 +1670,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C27">
         <v>172.727</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E27" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1678,16 +1687,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C28">
-        <v>93.333</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1695,16 +1704,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C29">
-        <v>137.752</v>
+        <v>143.195</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1712,16 +1721,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C30">
-        <v>104.586</v>
+        <v>101.997</v>
       </c>
       <c r="D30" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1729,16 +1738,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C31">
-        <v>110.374</v>
+        <v>113.158</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1746,16 +1755,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C32">
         <v>110.526</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E32" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1763,16 +1772,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C33">
-        <v>100</v>
+        <v>104.225</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E33" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1780,16 +1789,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C34">
-        <v>106.675</v>
+        <v>109.257</v>
       </c>
       <c r="D34" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E34" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1797,16 +1806,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C35">
-        <v>111.607</v>
+        <v>116.362</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E35" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1814,16 +1823,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C36">
-        <v>100.867</v>
+        <v>113.947</v>
       </c>
       <c r="D36" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E36" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1831,16 +1840,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C37">
         <v>104.348</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1848,16 +1857,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C38">
-        <v>101.898</v>
+        <v>97.623</v>
       </c>
       <c r="D38" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E38" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1865,16 +1874,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C39">
-        <v>109.91</v>
+        <v>111.818</v>
       </c>
       <c r="D39" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E39" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1882,16 +1891,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C40">
-        <v>135.135</v>
+        <v>137.868</v>
       </c>
       <c r="D40" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E40" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1899,16 +1908,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C41">
-        <v>103.448</v>
+        <v>106.897</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E41" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1916,16 +1925,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C42">
-        <v>103.165</v>
+        <v>107.544</v>
       </c>
       <c r="D42" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E42" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1933,16 +1942,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C43">
-        <v>100</v>
+        <v>101.818</v>
       </c>
       <c r="D43" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E43" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1950,16 +1959,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C44">
-        <v>107.692</v>
+        <v>155.556</v>
       </c>
       <c r="D44" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E44" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1967,16 +1976,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C45">
-        <v>103.122</v>
+        <v>110.256</v>
       </c>
       <c r="D45" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E45" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1984,16 +1993,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C46">
-        <v>141.304</v>
+        <v>107.276</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E46" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2001,16 +2010,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C47">
-        <v>97.26000000000001</v>
+        <v>141.304</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E47" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2018,16 +2027,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C48">
-        <v>102.177</v>
+        <v>101.916</v>
       </c>
       <c r="D48" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E48" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2035,16 +2044,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C49">
-        <v>104.651</v>
+        <v>104.028</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E49" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2052,16 +2061,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C50">
-        <v>101.081</v>
+        <v>102.326</v>
       </c>
       <c r="D50" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E50" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2069,16 +2078,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C51">
-        <v>102.174</v>
+        <v>98.337</v>
       </c>
       <c r="D51" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E51" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2086,16 +2095,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C52">
-        <v>108</v>
+        <v>103.018</v>
       </c>
       <c r="D52" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E52" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2103,16 +2112,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C53">
-        <v>100.773</v>
+        <v>108.333</v>
       </c>
       <c r="D53" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E53" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2120,16 +2129,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C54">
-        <v>99.29900000000001</v>
+        <v>104.462</v>
       </c>
       <c r="D54" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E54" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2137,16 +2146,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C55">
-        <v>104.396</v>
+        <v>101.366</v>
       </c>
       <c r="D55" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2154,16 +2163,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C56">
-        <v>100</v>
+        <v>108.989</v>
       </c>
       <c r="D56" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E56" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2171,16 +2180,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C57">
-        <v>102.941</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2188,16 +2197,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C58">
-        <v>104.968</v>
+        <v>109.091</v>
       </c>
       <c r="D58" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E58" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2205,16 +2214,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C59">
-        <v>103.947</v>
+        <v>110.811</v>
       </c>
       <c r="D59" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E59" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2222,16 +2231,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C60">
-        <v>104</v>
+        <v>109.459</v>
       </c>
       <c r="D60" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E60" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2239,16 +2248,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C61">
-        <v>100</v>
+        <v>116</v>
       </c>
       <c r="D61" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E61" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2256,16 +2265,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C62">
-        <v>126.316</v>
+        <v>107.143</v>
       </c>
       <c r="D62" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E62" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2273,16 +2282,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C63">
-        <v>112.781</v>
+        <v>133.333</v>
       </c>
       <c r="D63" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E63" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2290,16 +2299,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C64">
-        <v>184.694</v>
+        <v>113.746</v>
       </c>
       <c r="D64" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E64" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2307,16 +2316,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C65">
-        <v>112.632</v>
+        <v>184.694</v>
       </c>
       <c r="D65" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2324,16 +2333,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C66">
-        <v>110</v>
+        <v>117.615</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E66" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2341,16 +2350,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C67">
-        <v>77.86799999999999</v>
+        <v>110</v>
       </c>
       <c r="D67" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E67" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2358,16 +2367,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C68">
-        <v>105.618</v>
+        <v>77.86799999999999</v>
       </c>
       <c r="D68" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E68" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2375,16 +2384,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C69">
-        <v>100</v>
+        <v>102.198</v>
       </c>
       <c r="D69" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E69" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2392,16 +2401,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C70">
-        <v>100</v>
+        <v>104.819</v>
       </c>
       <c r="D70" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2409,16 +2418,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C71">
-        <v>110</v>
+        <v>107.692</v>
       </c>
       <c r="D71" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E71" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2426,16 +2435,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C72">
-        <v>161.111</v>
+        <v>110</v>
       </c>
       <c r="D72" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E72" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2443,16 +2452,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C73">
-        <v>61.538</v>
+        <v>164.706</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E73" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2460,16 +2469,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C74">
-        <v>86.833</v>
+        <v>67.34699999999999</v>
       </c>
       <c r="D74" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E74" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2477,16 +2486,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C75">
-        <v>68.869</v>
+        <v>94.07299999999999</v>
       </c>
       <c r="D75" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E75" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2494,16 +2503,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C76">
-        <v>100</v>
+        <v>68.869</v>
       </c>
       <c r="D76" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2511,16 +2520,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C77">
-        <v>99.32599999999999</v>
+        <v>105</v>
       </c>
       <c r="D77" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E77" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2528,16 +2537,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C78">
-        <v>91.51300000000001</v>
+        <v>103.831</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E78" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2545,16 +2554,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C79">
-        <v>94.286</v>
+        <v>98.467</v>
       </c>
       <c r="D79" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E79" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2562,16 +2571,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C80">
-        <v>102.062</v>
+        <v>99.425</v>
       </c>
       <c r="D80" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E80" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2579,16 +2588,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C81">
-        <v>95</v>
+        <v>107.666</v>
       </c>
       <c r="D81" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E81" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2596,16 +2605,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C82">
-        <v>92.30800000000001</v>
+        <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E82" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2613,16 +2622,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C83">
-        <v>101.917</v>
+        <v>108.333</v>
       </c>
       <c r="D83" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E83" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2630,16 +2639,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C84">
-        <v>130</v>
+        <v>104.383</v>
       </c>
       <c r="D84" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E84" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2647,16 +2656,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C85">
-        <v>91.667</v>
+        <v>136.842</v>
       </c>
       <c r="D85" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E85" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2664,16 +2673,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C86">
-        <v>83.553</v>
+        <v>100</v>
       </c>
       <c r="D86" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E86" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2681,16 +2690,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C87">
-        <v>110.484</v>
+        <v>80.892</v>
       </c>
       <c r="D87" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E87" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2698,16 +2707,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C88">
-        <v>82.5</v>
+        <v>110.484</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E88" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2715,16 +2724,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C89">
-        <v>100</v>
+        <v>84.89400000000001</v>
       </c>
       <c r="D89" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E89" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2732,16 +2741,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C90">
-        <v>104.545</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E90" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2749,16 +2758,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C91">
-        <v>82.006</v>
+        <v>106.977</v>
       </c>
       <c r="D91" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E91" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2766,16 +2775,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C92">
-        <v>108.491</v>
+        <v>82.34699999999999</v>
       </c>
       <c r="D92" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E92" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2783,16 +2792,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C93">
-        <v>83.01300000000001</v>
+        <v>115.238</v>
       </c>
       <c r="D93" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E93" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2800,16 +2809,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C94">
-        <v>115.946</v>
+        <v>103.667</v>
       </c>
       <c r="D94" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E94" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2817,16 +2826,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C95">
-        <v>100</v>
+        <v>118.803</v>
       </c>
       <c r="D95" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E95" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2834,16 +2843,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C96">
-        <v>101.824</v>
+        <v>97.39100000000001</v>
       </c>
       <c r="D96" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E96" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2851,16 +2860,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C97">
-        <v>100.436</v>
+        <v>105.696</v>
       </c>
       <c r="D97" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E97" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2868,16 +2877,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C98">
-        <v>98.98</v>
+        <v>101.907</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E98" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2885,16 +2894,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C99">
-        <v>102.162</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="D99" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E99" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2902,16 +2911,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C100">
-        <v>100</v>
+        <v>106.389</v>
       </c>
       <c r="D100" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E100" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2919,16 +2928,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C101">
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="D101" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E101" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2936,16 +2945,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C102">
-        <v>111.429</v>
+        <v>102.564</v>
       </c>
       <c r="D102" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E102" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2953,16 +2962,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C103">
-        <v>119.828</v>
+        <v>112.865</v>
       </c>
       <c r="D103" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E103" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2970,16 +2979,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C104">
-        <v>96.97</v>
+        <v>122.422</v>
       </c>
       <c r="D104" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E104" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2987,16 +2996,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C105">
-        <v>100</v>
+        <v>97.059</v>
       </c>
       <c r="D105" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E105" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3004,16 +3013,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C106">
-        <v>106.494</v>
+        <v>100</v>
       </c>
       <c r="D106" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E106" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3021,16 +3030,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C107">
-        <v>109.211</v>
+        <v>110.458</v>
       </c>
       <c r="D107" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E107" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3038,16 +3047,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C108">
-        <v>111.695</v>
+        <v>109.333</v>
       </c>
       <c r="D108" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E108" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3055,16 +3064,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C109">
-        <v>100</v>
+        <v>113.317</v>
       </c>
       <c r="D109" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E109" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3072,16 +3081,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C110">
-        <v>109.524</v>
+        <v>100</v>
       </c>
       <c r="D110" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E110" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3089,16 +3098,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C111">
-        <v>122.082</v>
+        <v>109.524</v>
       </c>
       <c r="D111" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E111" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3106,16 +3115,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C112">
-        <v>67.267</v>
+        <v>122.443</v>
       </c>
       <c r="D112" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E112" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3123,16 +3132,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C113">
-        <v>111.966</v>
+        <v>61.343</v>
       </c>
       <c r="D113" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E113" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3140,16 +3149,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C114">
-        <v>111.243</v>
+        <v>119.005</v>
       </c>
       <c r="D114" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E114" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3157,16 +3166,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C115">
-        <v>103.448</v>
+        <v>111.243</v>
       </c>
       <c r="D115" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E115" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3174,16 +3183,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C116">
-        <v>103.478</v>
+        <v>103.448</v>
       </c>
       <c r="D116" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E116" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3191,16 +3200,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C117">
-        <v>93.75</v>
+        <v>102.609</v>
       </c>
       <c r="D117" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E117" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3208,16 +3217,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C118">
-        <v>104</v>
+        <v>95.833</v>
       </c>
       <c r="D118" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E118" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3225,16 +3234,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C119">
-        <v>113.559</v>
+        <v>104</v>
       </c>
       <c r="D119" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E119" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3242,16 +3251,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C120">
-        <v>142.223</v>
+        <v>114.035</v>
       </c>
       <c r="D120" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E120" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3259,16 +3268,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C121">
-        <v>106.483</v>
+        <v>142.223</v>
       </c>
       <c r="D121" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E121" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3276,16 +3285,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C122">
-        <v>148.127</v>
+        <v>108.613</v>
       </c>
       <c r="D122" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E122" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3293,16 +3302,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C123">
-        <v>102.924</v>
+        <v>148.127</v>
       </c>
       <c r="D123" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E123" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3310,16 +3319,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C124">
-        <v>90.476</v>
+        <v>107.879</v>
       </c>
       <c r="D124" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E124" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3327,16 +3336,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C125">
-        <v>214.583</v>
+        <v>95.238</v>
       </c>
       <c r="D125" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E125" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3344,16 +3353,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C126">
-        <v>104.082</v>
+        <v>214.583</v>
       </c>
       <c r="D126" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E126" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3361,16 +3370,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C127">
-        <v>93.197</v>
+        <v>104.082</v>
       </c>
       <c r="D127" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E127" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3378,16 +3387,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C128">
         <v>100</v>
       </c>
       <c r="D128" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E128" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3395,16 +3404,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C129">
-        <v>178.322</v>
+        <v>102.083</v>
       </c>
       <c r="D129" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E129" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3412,16 +3421,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C130">
-        <v>118.898</v>
+        <v>178.322</v>
       </c>
       <c r="D130" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E130" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3429,16 +3438,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C131">
-        <v>109.091</v>
+        <v>124.04</v>
       </c>
       <c r="D131" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E131" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3446,16 +3455,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C132">
-        <v>87.23399999999999</v>
+        <v>109.091</v>
       </c>
       <c r="D132" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E132" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3463,16 +3472,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C133">
-        <v>104.909</v>
+        <v>87.23399999999999</v>
       </c>
       <c r="D133" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E133" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3480,16 +3489,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C134">
-        <v>113.846</v>
+        <v>106.89</v>
       </c>
       <c r="D134" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E134" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3497,16 +3506,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C135">
-        <v>81.04300000000001</v>
+        <v>124.59</v>
       </c>
       <c r="D135" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E135" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3514,16 +3523,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C136">
-        <v>120</v>
+        <v>80.383</v>
       </c>
       <c r="D136" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E136" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3531,16 +3540,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C137">
-        <v>104.762</v>
+        <v>116</v>
       </c>
       <c r="D137" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E137" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3548,16 +3557,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C138">
-        <v>94.84099999999999</v>
+        <v>110</v>
       </c>
       <c r="D138" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E138" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3565,16 +3574,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C139">
-        <v>129.188</v>
+        <v>94.84099999999999</v>
       </c>
       <c r="D139" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E139" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3582,16 +3591,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C140">
-        <v>111.268</v>
+        <v>131.783</v>
       </c>
       <c r="D140" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E140" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3599,16 +3608,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C141">
-        <v>103.731</v>
+        <v>108.511</v>
       </c>
       <c r="D141" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E141" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3616,16 +3625,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C142">
-        <v>142.857</v>
+        <v>107.692</v>
       </c>
       <c r="D142" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E142" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3633,16 +3642,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C143">
-        <v>100</v>
+        <v>142.857</v>
       </c>
       <c r="D143" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E143" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3650,16 +3659,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C144">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="D144" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E144" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3667,16 +3676,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C145">
-        <v>102.547</v>
+        <v>123.656</v>
       </c>
       <c r="D145" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E145" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3684,16 +3693,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C146">
-        <v>115.586</v>
+        <v>105.584</v>
       </c>
       <c r="D146" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E146" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3701,16 +3710,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C147">
-        <v>151.648</v>
+        <v>114.578</v>
       </c>
       <c r="D147" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E147" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3718,16 +3727,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C148">
-        <v>105.882</v>
+        <v>157.339</v>
       </c>
       <c r="D148" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E148" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3735,16 +3744,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C149">
-        <v>106.276</v>
+        <v>109.589</v>
       </c>
       <c r="D149" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E149" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3752,16 +3761,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C150">
-        <v>76.623</v>
+        <v>110.799</v>
       </c>
       <c r="D150" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E150" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3769,16 +3778,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C151">
-        <v>104.082</v>
+        <v>82.432</v>
       </c>
       <c r="D151" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E151" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3786,16 +3795,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C152">
-        <v>99.77500000000001</v>
+        <v>112.766</v>
       </c>
       <c r="D152" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E152" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3803,16 +3812,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C153">
-        <v>90.795</v>
+        <v>103.793</v>
       </c>
       <c r="D153" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E153" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3820,16 +3829,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C154">
-        <v>115.385</v>
+        <v>90.795</v>
       </c>
       <c r="D154" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E154" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3837,16 +3846,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C155">
-        <v>100</v>
+        <v>115.385</v>
       </c>
       <c r="D155" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E155" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3854,16 +3863,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C156">
-        <v>102.837</v>
+        <v>102.128</v>
       </c>
       <c r="D156" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E156" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3871,16 +3880,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C157">
-        <v>95.057</v>
+        <v>104.049</v>
       </c>
       <c r="D157" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E157" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3888,16 +3897,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C158">
-        <v>155.102</v>
+        <v>97.619</v>
       </c>
       <c r="D158" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E158" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3905,16 +3914,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C159">
-        <v>107.692</v>
+        <v>155.102</v>
       </c>
       <c r="D159" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E159" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3922,16 +3931,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C160">
-        <v>101.786</v>
+        <v>112.698</v>
       </c>
       <c r="D160" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E160" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3939,16 +3948,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C161">
-        <v>88.235</v>
+        <v>106.422</v>
       </c>
       <c r="D161" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E161" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3956,16 +3965,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C162">
-        <v>144.444</v>
+        <v>88.372</v>
       </c>
       <c r="D162" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E162" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3973,16 +3982,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C163">
-        <v>105.085</v>
+        <v>144.444</v>
       </c>
       <c r="D163" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E163" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3990,16 +3999,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C164">
-        <v>103.509</v>
+        <v>108.621</v>
       </c>
       <c r="D164" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E164" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4007,16 +4016,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C165">
-        <v>67.003</v>
+        <v>109.091</v>
       </c>
       <c r="D165" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E165" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4024,16 +4033,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C166">
-        <v>97.40600000000001</v>
+        <v>67.06</v>
       </c>
       <c r="D166" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E166" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4041,16 +4050,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C167">
-        <v>105.952</v>
+        <v>99.949</v>
       </c>
       <c r="D167" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E167" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4058,16 +4067,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C168">
-        <v>93.77200000000001</v>
+        <v>107.229</v>
       </c>
       <c r="D168" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E168" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4075,16 +4084,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C169">
-        <v>106.061</v>
+        <v>98.14</v>
       </c>
       <c r="D169" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E169" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4092,16 +4101,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C170">
-        <v>102.558</v>
+        <v>108.163</v>
       </c>
       <c r="D170" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E170" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4109,16 +4118,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C171">
-        <v>116.993</v>
+        <v>109.814</v>
       </c>
       <c r="D171" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E171" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4126,16 +4135,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C172">
-        <v>107.214</v>
+        <v>120.875</v>
       </c>
       <c r="D172" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E172" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4143,16 +4152,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C173">
-        <v>104.545</v>
+        <v>111.139</v>
       </c>
       <c r="D173" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E173" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4160,16 +4169,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C174">
-        <v>100.473</v>
+        <v>104.494</v>
       </c>
       <c r="D174" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E174" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4177,16 +4186,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C175">
-        <v>122.581</v>
+        <v>102.469</v>
       </c>
       <c r="D175" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E175" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4194,16 +4203,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C176">
-        <v>95</v>
+        <v>122.581</v>
       </c>
       <c r="D176" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E176" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4211,16 +4220,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C177">
-        <v>180</v>
+        <v>105.263</v>
       </c>
       <c r="D177" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E177" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4228,16 +4237,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C178">
-        <v>106.667</v>
+        <v>180</v>
       </c>
       <c r="D178" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E178" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4245,16 +4254,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C179">
-        <v>100</v>
+        <v>94.11799999999999</v>
       </c>
       <c r="D179" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E179" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4262,16 +4271,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C180">
-        <v>131.863</v>
+        <v>107.143</v>
       </c>
       <c r="D180" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E180" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4279,16 +4288,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C181">
-        <v>104.242</v>
+        <v>134.913</v>
       </c>
       <c r="D181" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E181" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4296,16 +4305,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C182">
-        <v>103.125</v>
+        <v>108.125</v>
       </c>
       <c r="D182" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E182" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4313,16 +4322,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C183">
-        <v>104.762</v>
+        <v>103.125</v>
       </c>
       <c r="D183" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E183" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4330,16 +4339,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C184">
-        <v>118.182</v>
+        <v>109.524</v>
       </c>
       <c r="D184" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E184" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4347,16 +4356,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C185">
-        <v>67.45999999999999</v>
+        <v>122.973</v>
       </c>
       <c r="D185" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E185" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4364,16 +4373,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C186">
-        <v>93.96599999999999</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="D186" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E186" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4381,16 +4390,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C187">
-        <v>144.737</v>
+        <v>103.67</v>
       </c>
       <c r="D187" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E187" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4398,16 +4407,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C188">
-        <v>100.182</v>
+        <v>144.737</v>
       </c>
       <c r="D188" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E188" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4415,16 +4424,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C189">
-        <v>111.842</v>
+        <v>100.608</v>
       </c>
       <c r="D189" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E189" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4432,16 +4441,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C190">
-        <v>88.70999999999999</v>
+        <v>111.842</v>
       </c>
       <c r="D190" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E190" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4449,16 +4458,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C191">
-        <v>63.077</v>
+        <v>93.333</v>
       </c>
       <c r="D191" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E191" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4466,16 +4475,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C192">
-        <v>155.556</v>
+        <v>63.077</v>
       </c>
       <c r="D192" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E192" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4483,16 +4492,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C193">
-        <v>106.667</v>
+        <v>155.556</v>
       </c>
       <c r="D193" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E193" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4500,16 +4509,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C194">
-        <v>108.696</v>
+        <v>110.345</v>
       </c>
       <c r="D194" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E194" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4517,16 +4526,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C195">
-        <v>102.174</v>
+        <v>109.091</v>
       </c>
       <c r="D195" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E195" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4534,16 +4543,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C196">
-        <v>194.118</v>
+        <v>106.667</v>
       </c>
       <c r="D196" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E196" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4551,16 +4560,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C197">
-        <v>140.291</v>
+        <v>194.118</v>
       </c>
       <c r="D197" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E197" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4568,16 +4577,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C198">
-        <v>95</v>
+        <v>144.975</v>
       </c>
       <c r="D198" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E198" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4585,16 +4594,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C199">
-        <v>125.431</v>
+        <v>100</v>
       </c>
       <c r="D199" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E199" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4602,16 +4611,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C200">
-        <v>116.667</v>
+        <v>125.431</v>
       </c>
       <c r="D200" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E200" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4619,16 +4628,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C201">
-        <v>123.021</v>
+        <v>116.667</v>
       </c>
       <c r="D201" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E201" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4636,16 +4645,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C202">
-        <v>100</v>
+        <v>125.333</v>
       </c>
       <c r="D202" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E202" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4653,16 +4662,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C203">
-        <v>73.922</v>
+        <v>97.959</v>
       </c>
       <c r="D203" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E203" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4670,16 +4679,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C204">
-        <v>64.79300000000001</v>
+        <v>82.477</v>
       </c>
       <c r="D204" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E204" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4687,16 +4696,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C205">
-        <v>104.396</v>
+        <v>72.84099999999999</v>
       </c>
       <c r="D205" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E205" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4704,16 +4713,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C206">
-        <v>95.869</v>
+        <v>106.691</v>
       </c>
       <c r="D206" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E206" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4721,16 +4730,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C207">
-        <v>100</v>
+        <v>95.904</v>
       </c>
       <c r="D207" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E207" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4738,16 +4747,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C208">
-        <v>106.667</v>
+        <v>101.5</v>
       </c>
       <c r="D208" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E208" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4755,16 +4764,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C209">
-        <v>116.327</v>
+        <v>113.333</v>
       </c>
       <c r="D209" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E209" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4772,16 +4781,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C210">
-        <v>86.667</v>
+        <v>116</v>
       </c>
       <c r="D210" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E210" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4789,16 +4798,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C211">
-        <v>100</v>
+        <v>86.667</v>
       </c>
       <c r="D211" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E211" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4806,16 +4815,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C212">
-        <v>104.386</v>
+        <v>91.667</v>
       </c>
       <c r="D212" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E212" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4823,16 +4832,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C213">
-        <v>109.302</v>
+        <v>100</v>
       </c>
       <c r="D213" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E213" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4840,16 +4849,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C214">
-        <v>77.575</v>
+        <v>110</v>
       </c>
       <c r="D214" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E214" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4857,16 +4866,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C215">
-        <v>100.645</v>
+        <v>111.905</v>
       </c>
       <c r="D215" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E215" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4874,16 +4883,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C216">
-        <v>107.595</v>
+        <v>77.575</v>
       </c>
       <c r="D216" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E216" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4891,16 +4900,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C217">
-        <v>138.842</v>
+        <v>105.333</v>
       </c>
       <c r="D217" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E217" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4908,16 +4917,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C218">
-        <v>102.151</v>
+        <v>110.39</v>
       </c>
       <c r="D218" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E218" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4925,16 +4934,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C219">
-        <v>138.462</v>
+        <v>138.92</v>
       </c>
       <c r="D219" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E219" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4942,16 +4951,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C220">
-        <v>92.105</v>
+        <v>106.667</v>
       </c>
       <c r="D220" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E220" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4959,16 +4968,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C221">
-        <v>105.15</v>
+        <v>138.462</v>
       </c>
       <c r="D221" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E221" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4976,16 +4985,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C222">
-        <v>106.44</v>
+        <v>94.73699999999999</v>
       </c>
       <c r="D222" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E222" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4993,16 +5002,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C223">
-        <v>104.299</v>
+        <v>102.11</v>
       </c>
       <c r="D223" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E223" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5010,16 +5019,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C224">
-        <v>95.652</v>
+        <v>112.537</v>
       </c>
       <c r="D224" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E224" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5027,16 +5036,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C225">
-        <v>112.766</v>
+        <v>104.299</v>
       </c>
       <c r="D225" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E225" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5044,16 +5053,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C226">
-        <v>109.524</v>
+        <v>100</v>
       </c>
       <c r="D226" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E226" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5061,16 +5070,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C227">
-        <v>94.444</v>
+        <v>115.556</v>
       </c>
       <c r="D227" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E227" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5078,16 +5087,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C228">
-        <v>106.452</v>
+        <v>104.651</v>
       </c>
       <c r="D228" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E228" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5095,16 +5104,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C229">
-        <v>133.333</v>
+        <v>98.113</v>
       </c>
       <c r="D229" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E229" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5112,16 +5121,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C230">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D230" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E230" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5129,16 +5138,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C231">
-        <v>75.352</v>
+        <v>133.333</v>
       </c>
       <c r="D231" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E231" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5146,16 +5155,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C232">
-        <v>109.375</v>
+        <v>108.333</v>
       </c>
       <c r="D232" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E232" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5163,16 +5172,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C233">
-        <v>165.657</v>
+        <v>74</v>
       </c>
       <c r="D233" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E233" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5180,16 +5189,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C234">
-        <v>121.429</v>
+        <v>112.5</v>
       </c>
       <c r="D234" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E234" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5197,16 +5206,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C235">
-        <v>106.863</v>
+        <v>165.657</v>
       </c>
       <c r="D235" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E235" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5214,16 +5223,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C236">
-        <v>33.529</v>
+        <v>121.429</v>
       </c>
       <c r="D236" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E236" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5231,16 +5240,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C237">
-        <v>100</v>
+        <v>107.921</v>
       </c>
       <c r="D237" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E237" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5248,16 +5257,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C238">
-        <v>104.554</v>
+        <v>33.529</v>
       </c>
       <c r="D238" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E238" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5265,16 +5274,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C239">
-        <v>100</v>
+        <v>108.333</v>
       </c>
       <c r="D239" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E239" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5282,16 +5291,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C240">
-        <v>82.727</v>
+        <v>106.316</v>
       </c>
       <c r="D240" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E240" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5299,16 +5308,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C241">
-        <v>115</v>
+        <v>100</v>
       </c>
       <c r="D241" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E241" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5316,16 +5325,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C242">
-        <v>104.018</v>
+        <v>84.11199999999999</v>
       </c>
       <c r="D242" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E242" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5333,16 +5342,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C243">
-        <v>108.808</v>
+        <v>115</v>
       </c>
       <c r="D243" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E243" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5350,16 +5359,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C244">
-        <v>102.66</v>
+        <v>105.882</v>
       </c>
       <c r="D244" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E244" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5367,16 +5376,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C245">
-        <v>100</v>
+        <v>112.1</v>
       </c>
       <c r="D245" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E245" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5384,16 +5393,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C246">
-        <v>100</v>
+        <v>97.703</v>
       </c>
       <c r="D246" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E246" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5401,16 +5410,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C247">
-        <v>160</v>
+        <v>100</v>
       </c>
       <c r="D247" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E247" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5418,16 +5427,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C248">
-        <v>133.333</v>
+        <v>100</v>
       </c>
       <c r="D248" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E248" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5435,16 +5444,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C249">
-        <v>131.579</v>
+        <v>91.667</v>
       </c>
       <c r="D249" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E249" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5452,16 +5461,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C250">
-        <v>96.29600000000001</v>
+        <v>148.78</v>
       </c>
       <c r="D250" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E250" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5469,16 +5478,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C251">
-        <v>108.696</v>
+        <v>133.333</v>
       </c>
       <c r="D251" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E251" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5486,16 +5495,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C252">
-        <v>100</v>
+        <v>131.579</v>
       </c>
       <c r="D252" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E252" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5503,16 +5512,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C253">
-        <v>109.065</v>
+        <v>100</v>
       </c>
       <c r="D253" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E253" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5520,16 +5529,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C254">
-        <v>103.192</v>
+        <v>122.727</v>
       </c>
       <c r="D254" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E254" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5537,16 +5546,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C255">
-        <v>107.283</v>
+        <v>105.556</v>
       </c>
       <c r="D255" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E255" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5554,16 +5563,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C256">
-        <v>108.374</v>
+        <v>113.529</v>
       </c>
       <c r="D256" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E256" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5571,16 +5580,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C257">
-        <v>122.727</v>
+        <v>103.192</v>
       </c>
       <c r="D257" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E257" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5588,16 +5597,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C258">
-        <v>88.53700000000001</v>
+        <v>107.283</v>
       </c>
       <c r="D258" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E258" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5605,16 +5614,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C259">
-        <v>87.5</v>
+        <v>110.401</v>
       </c>
       <c r="D259" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E259" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5622,16 +5631,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C260">
-        <v>105</v>
+        <v>122.727</v>
       </c>
       <c r="D260" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E260" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5639,16 +5648,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C261">
-        <v>100</v>
+        <v>93.408</v>
       </c>
       <c r="D261" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E261" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5656,16 +5665,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C262">
-        <v>102.366</v>
+        <v>82.35299999999999</v>
       </c>
       <c r="D262" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E262" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5673,16 +5682,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C263">
-        <v>101.333</v>
+        <v>100</v>
       </c>
       <c r="D263" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E263" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5690,16 +5699,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C264">
-        <v>93.75</v>
+        <v>109.091</v>
       </c>
       <c r="D264" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E264" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5707,16 +5716,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C265">
-        <v>103.597</v>
+        <v>101.643</v>
       </c>
       <c r="D265" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E265" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5724,16 +5733,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C266">
-        <v>104.069</v>
+        <v>106.849</v>
       </c>
       <c r="D266" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E266" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5741,16 +5750,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C267">
-        <v>103.844</v>
+        <v>104.255</v>
       </c>
       <c r="D267" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E267" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5758,16 +5767,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C268">
-        <v>112.5</v>
+        <v>104.348</v>
       </c>
       <c r="D268" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E268" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5775,16 +5784,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C269">
-        <v>104.924</v>
+        <v>106.14</v>
       </c>
       <c r="D269" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E269" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5792,16 +5801,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C270">
-        <v>107.039</v>
+        <v>105.252</v>
       </c>
       <c r="D270" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="E270" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5809,16 +5818,67 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
+        <v>278</v>
+      </c>
+      <c r="C271">
+        <v>116.667</v>
+      </c>
+      <c r="D271" t="s">
+        <v>280</v>
+      </c>
+      <c r="E271" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
         <v>275</v>
       </c>
-      <c r="C271">
-        <v>103.846</v>
-      </c>
-      <c r="D271" t="s">
+      <c r="B272" t="s">
+        <v>278</v>
+      </c>
+      <c r="C272">
+        <v>108.206</v>
+      </c>
+      <c r="D272" t="s">
+        <v>280</v>
+      </c>
+      <c r="E272" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
+        <v>276</v>
+      </c>
+      <c r="B273" t="s">
+        <v>278</v>
+      </c>
+      <c r="C273">
+        <v>109.275</v>
+      </c>
+      <c r="D273" t="s">
+        <v>280</v>
+      </c>
+      <c r="E273" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
         <v>277</v>
       </c>
-      <c r="E271" t="s">
-        <v>278</v>
+      <c r="B274" t="s">
+        <v>278</v>
+      </c>
+      <c r="C274">
+        <v>108</v>
+      </c>
+      <c r="D274" t="s">
+        <v>280</v>
+      </c>
+      <c r="E274" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="279">
   <si>
     <t>symbol</t>
   </si>
@@ -157,9 +157,6 @@
     <t>BELUSDT</t>
   </si>
   <si>
-    <t>BETAUSDT</t>
-  </si>
-  <si>
     <t>BICOUSDT</t>
   </si>
   <si>
@@ -664,9 +661,6 @@
     <t>RENUSDT</t>
   </si>
   <si>
-    <t>REQUSDT</t>
-  </si>
-  <si>
     <t>RLCUSDT</t>
   </si>
   <si>
@@ -772,9 +766,6 @@
     <t>USDPUSDT</t>
   </si>
   <si>
-    <t>UTKUSDT</t>
-  </si>
-  <si>
     <t>VGXUSDT</t>
   </si>
   <si>
@@ -850,10 +841,10 @@
     <t>ZRXUSDT</t>
   </si>
   <si>
+    <t>Bear</t>
+  </si>
+  <si>
     <t>Bull</t>
-  </si>
-  <si>
-    <t>Bear</t>
   </si>
   <si>
     <t>10 days</t>
@@ -1217,7 +1208,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E271"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1245,16 +1236,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C2">
-        <v>101.754</v>
+        <v>96.491</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1262,16 +1253,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C3">
-        <v>93.212</v>
+        <v>88.429</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1279,16 +1270,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4">
-        <v>105.882</v>
+        <v>112.5</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1296,16 +1287,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5">
-        <v>123.344</v>
+        <v>119.737</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1313,16 +1304,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C6">
-        <v>122.222</v>
+        <v>120</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1330,16 +1321,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C7">
         <v>106.25</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1347,16 +1338,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C8">
         <v>118.182</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1364,16 +1355,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C9">
         <v>98.182</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1381,16 +1372,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C10">
         <v>122.222</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1398,16 +1389,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11">
         <v>103.226</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1415,16 +1406,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C12">
-        <v>107.538</v>
+        <v>103.608</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1432,16 +1423,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C13">
-        <v>109.375</v>
+        <v>112.903</v>
       </c>
       <c r="D13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E13" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1449,16 +1440,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C14">
-        <v>108.917</v>
+        <v>110.667</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E14" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1466,16 +1457,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C15">
-        <v>96.667</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E15" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1483,16 +1474,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C16">
-        <v>109.091</v>
+        <v>100</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1500,16 +1491,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C17">
-        <v>138.567</v>
+        <v>120.819</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E17" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1517,16 +1508,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C18">
-        <v>103.727</v>
+        <v>103.205</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1534,16 +1525,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C19">
-        <v>123.077</v>
+        <v>112.332</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E19" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1551,16 +1542,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C20">
-        <v>103.086</v>
+        <v>98.788</v>
       </c>
       <c r="D20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E20" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1568,16 +1559,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C21">
         <v>104.571</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E21" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1585,16 +1576,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C22">
         <v>108.197</v>
       </c>
       <c r="D22" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E22" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1602,16 +1593,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C23">
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E23" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1619,16 +1610,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C24">
         <v>129.787</v>
       </c>
       <c r="D24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E24" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1636,16 +1627,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C25">
-        <v>89.03</v>
+        <v>86.355</v>
       </c>
       <c r="D25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E25" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1653,16 +1644,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C26">
-        <v>126.299</v>
+        <v>125.085</v>
       </c>
       <c r="D26" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E26" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1670,16 +1661,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C27">
         <v>172.727</v>
       </c>
       <c r="D27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E27" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1687,16 +1678,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C28">
-        <v>100</v>
+        <v>106.667</v>
       </c>
       <c r="D28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E28" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1704,16 +1695,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C29">
-        <v>143.195</v>
+        <v>143.131</v>
       </c>
       <c r="D29" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E29" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1721,16 +1712,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C30">
-        <v>101.997</v>
+        <v>102.129</v>
       </c>
       <c r="D30" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E30" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1738,16 +1729,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C31">
-        <v>113.158</v>
+        <v>115.608</v>
       </c>
       <c r="D31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E31" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1755,16 +1746,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C32">
-        <v>110.526</v>
+        <v>116.667</v>
       </c>
       <c r="D32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E32" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1772,16 +1763,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C33">
-        <v>104.225</v>
+        <v>104.286</v>
       </c>
       <c r="D33" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E33" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1789,16 +1780,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C34">
-        <v>109.257</v>
+        <v>105.354</v>
       </c>
       <c r="D34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E34" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1806,16 +1797,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C35">
-        <v>116.362</v>
+        <v>134.254</v>
       </c>
       <c r="D35" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E35" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1823,16 +1814,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C36">
-        <v>113.947</v>
+        <v>105.488</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E36" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1840,16 +1831,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C37">
-        <v>104.348</v>
+        <v>113.636</v>
       </c>
       <c r="D37" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E37" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1857,16 +1848,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C38">
-        <v>97.623</v>
+        <v>84.087</v>
       </c>
       <c r="D38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E38" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1874,16 +1865,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C39">
-        <v>111.818</v>
+        <v>113.462</v>
       </c>
       <c r="D39" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E39" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1891,16 +1882,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C40">
-        <v>137.868</v>
+        <v>138.333</v>
       </c>
       <c r="D40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E40" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1908,16 +1899,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C41">
-        <v>106.897</v>
+        <v>103.571</v>
       </c>
       <c r="D41" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E41" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1925,16 +1916,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C42">
-        <v>107.544</v>
+        <v>106.723</v>
       </c>
       <c r="D42" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E42" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1942,16 +1933,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C43">
-        <v>101.818</v>
+        <v>113.208</v>
       </c>
       <c r="D43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E43" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1959,16 +1950,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C44">
-        <v>155.556</v>
+        <v>93.023</v>
       </c>
       <c r="D44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E44" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1976,16 +1967,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C45">
-        <v>110.256</v>
+        <v>105.374</v>
       </c>
       <c r="D45" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E45" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1993,16 +1984,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C46">
-        <v>107.276</v>
+        <v>141.304</v>
       </c>
       <c r="D46" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E46" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2010,16 +2001,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C47">
-        <v>141.304</v>
+        <v>107.237</v>
       </c>
       <c r="D47" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E47" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2027,16 +2018,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C48">
-        <v>101.916</v>
+        <v>105.405</v>
       </c>
       <c r="D48" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E48" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2044,16 +2035,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C49">
-        <v>104.028</v>
+        <v>100</v>
       </c>
       <c r="D49" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E49" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2061,16 +2052,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C50">
-        <v>102.326</v>
+        <v>101.546</v>
       </c>
       <c r="D50" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E50" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2078,16 +2069,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C51">
-        <v>98.337</v>
+        <v>102.84</v>
       </c>
       <c r="D51" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E51" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2095,16 +2086,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C52">
-        <v>103.018</v>
+        <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E52" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2112,16 +2103,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C53">
-        <v>108.333</v>
+        <v>101.34</v>
       </c>
       <c r="D53" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E53" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2129,16 +2120,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C54">
-        <v>104.462</v>
+        <v>99.43899999999999</v>
       </c>
       <c r="D54" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E54" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2146,16 +2137,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C55">
-        <v>101.366</v>
+        <v>106.897</v>
       </c>
       <c r="D55" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E55" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2163,16 +2154,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C56">
-        <v>108.989</v>
+        <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E56" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2180,16 +2171,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C57">
-        <v>100</v>
+        <v>112.903</v>
       </c>
       <c r="D57" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E57" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2197,16 +2188,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C58">
-        <v>109.091</v>
+        <v>104.805</v>
       </c>
       <c r="D58" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E58" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2214,16 +2205,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C59">
-        <v>110.811</v>
+        <v>105.556</v>
       </c>
       <c r="D59" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E59" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2231,16 +2222,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C60">
-        <v>109.459</v>
+        <v>100</v>
       </c>
       <c r="D60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E60" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2248,16 +2239,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C61">
-        <v>116</v>
+        <v>107.143</v>
       </c>
       <c r="D61" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E61" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2265,16 +2256,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C62">
-        <v>107.143</v>
+        <v>122.222</v>
       </c>
       <c r="D62" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E62" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2282,16 +2273,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C63">
-        <v>133.333</v>
+        <v>114.13</v>
       </c>
       <c r="D63" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E63" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2299,16 +2290,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C64">
-        <v>113.746</v>
+        <v>184.694</v>
       </c>
       <c r="D64" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E64" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2316,16 +2307,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C65">
-        <v>184.694</v>
+        <v>116.421</v>
       </c>
       <c r="D65" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E65" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2333,16 +2324,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C66">
-        <v>117.615</v>
+        <v>110</v>
       </c>
       <c r="D66" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E66" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2350,16 +2341,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C67">
-        <v>110</v>
+        <v>77.86799999999999</v>
       </c>
       <c r="D67" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E67" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2367,16 +2358,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C68">
-        <v>77.86799999999999</v>
+        <v>96.629</v>
       </c>
       <c r="D68" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E68" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2384,16 +2375,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C69">
-        <v>102.198</v>
+        <v>106.173</v>
       </c>
       <c r="D69" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E69" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2401,16 +2392,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C70">
-        <v>104.819</v>
+        <v>107.692</v>
       </c>
       <c r="D70" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E70" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2418,16 +2409,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C71">
-        <v>107.692</v>
+        <v>110</v>
       </c>
       <c r="D71" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E71" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2435,16 +2426,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C72">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="D72" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E72" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2452,16 +2443,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C73">
-        <v>164.706</v>
+        <v>76.19</v>
       </c>
       <c r="D73" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E73" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2469,16 +2460,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C74">
-        <v>67.34699999999999</v>
+        <v>91.033</v>
       </c>
       <c r="D74" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E74" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2486,16 +2477,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C75">
-        <v>94.07299999999999</v>
+        <v>68.869</v>
       </c>
       <c r="D75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E75" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2503,16 +2494,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C76">
-        <v>68.869</v>
+        <v>110.526</v>
       </c>
       <c r="D76" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E76" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2520,16 +2511,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C77">
-        <v>105</v>
+        <v>98.104</v>
       </c>
       <c r="D77" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E77" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2537,16 +2528,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C78">
-        <v>103.831</v>
+        <v>96.629</v>
       </c>
       <c r="D78" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E78" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2554,16 +2545,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C79">
-        <v>98.467</v>
+        <v>94.857</v>
       </c>
       <c r="D79" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E79" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2571,16 +2562,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C80">
-        <v>99.425</v>
+        <v>105.319</v>
       </c>
       <c r="D80" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E80" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2588,16 +2579,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C81">
-        <v>107.666</v>
+        <v>97.43600000000001</v>
       </c>
       <c r="D81" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E81" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2605,16 +2596,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C82">
-        <v>100</v>
+        <v>116.667</v>
       </c>
       <c r="D82" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E82" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2622,16 +2613,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C83">
-        <v>108.333</v>
+        <v>105.308</v>
       </c>
       <c r="D83" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E83" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2639,16 +2630,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C84">
-        <v>104.383</v>
+        <v>130.556</v>
       </c>
       <c r="D84" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E84" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2656,16 +2647,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C85">
-        <v>136.842</v>
+        <v>100</v>
       </c>
       <c r="D85" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E85" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2673,16 +2664,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C86">
-        <v>100</v>
+        <v>83.333</v>
       </c>
       <c r="D86" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E86" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2690,16 +2681,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C87">
-        <v>80.892</v>
+        <v>110.484</v>
       </c>
       <c r="D87" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E87" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2707,16 +2698,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C88">
-        <v>110.484</v>
+        <v>86.324</v>
       </c>
       <c r="D88" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E88" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2724,16 +2715,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C89">
-        <v>84.89400000000001</v>
+        <v>108.333</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E89" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2741,16 +2732,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C90">
-        <v>100</v>
+        <v>107.317</v>
       </c>
       <c r="D90" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E90" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2758,16 +2749,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C91">
-        <v>106.977</v>
+        <v>83.687</v>
       </c>
       <c r="D91" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E91" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2775,16 +2766,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C92">
-        <v>82.34699999999999</v>
+        <v>108.411</v>
       </c>
       <c r="D92" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E92" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2792,16 +2783,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C93">
-        <v>115.238</v>
+        <v>131.541</v>
       </c>
       <c r="D93" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E93" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2809,16 +2800,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C94">
-        <v>103.667</v>
+        <v>122.288</v>
       </c>
       <c r="D94" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E94" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2826,16 +2817,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C95">
-        <v>118.803</v>
+        <v>104.274</v>
       </c>
       <c r="D95" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E95" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2843,16 +2834,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C96">
-        <v>97.39100000000001</v>
+        <v>97.09699999999999</v>
       </c>
       <c r="D96" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E96" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2860,16 +2851,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C97">
-        <v>105.696</v>
+        <v>98.22799999999999</v>
       </c>
       <c r="D97" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E97" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2877,16 +2868,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C98">
-        <v>101.907</v>
+        <v>98.98999999999999</v>
       </c>
       <c r="D98" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E98" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2894,16 +2885,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C99">
-        <v>98.98999999999999</v>
+        <v>103.621</v>
       </c>
       <c r="D99" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E99" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2911,16 +2902,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C100">
-        <v>106.389</v>
+        <v>100</v>
       </c>
       <c r="D100" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E100" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2928,16 +2919,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C101">
-        <v>100</v>
+        <v>110.256</v>
       </c>
       <c r="D101" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E101" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2945,16 +2936,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C102">
-        <v>102.564</v>
+        <v>108.485</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E102" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2962,16 +2953,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C103">
-        <v>112.865</v>
+        <v>124.545</v>
       </c>
       <c r="D103" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E103" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2979,16 +2970,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C104">
-        <v>122.422</v>
+        <v>91.429</v>
       </c>
       <c r="D104" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E104" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2996,16 +2987,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C105">
-        <v>97.059</v>
+        <v>120</v>
       </c>
       <c r="D105" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E105" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3013,16 +3004,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C106">
-        <v>100</v>
+        <v>111.724</v>
       </c>
       <c r="D106" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E106" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3030,16 +3021,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C107">
-        <v>110.458</v>
+        <v>118.841</v>
       </c>
       <c r="D107" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E107" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3047,16 +3038,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C108">
-        <v>109.333</v>
+        <v>113.93</v>
       </c>
       <c r="D108" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E108" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3064,16 +3055,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C109">
-        <v>113.317</v>
+        <v>100</v>
       </c>
       <c r="D109" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E109" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3081,16 +3072,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C110">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D110" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E110" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3098,16 +3089,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C111">
-        <v>109.524</v>
+        <v>121.367</v>
       </c>
       <c r="D111" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E111" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3115,16 +3106,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C112">
-        <v>122.443</v>
+        <v>67.79900000000001</v>
       </c>
       <c r="D112" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E112" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3132,16 +3123,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C113">
-        <v>61.343</v>
+        <v>123.383</v>
       </c>
       <c r="D113" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E113" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3149,16 +3140,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C114">
-        <v>119.005</v>
+        <v>111.243</v>
       </c>
       <c r="D114" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E114" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3166,16 +3157,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C115">
-        <v>111.243</v>
+        <v>103.448</v>
       </c>
       <c r="D115" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E115" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3183,16 +3174,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C116">
-        <v>103.448</v>
+        <v>102.632</v>
       </c>
       <c r="D116" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E116" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3200,16 +3191,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C117">
-        <v>102.609</v>
+        <v>97.82599999999999</v>
       </c>
       <c r="D117" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E117" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3217,16 +3208,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C118">
-        <v>95.833</v>
+        <v>104</v>
       </c>
       <c r="D118" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E118" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3234,16 +3225,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C119">
-        <v>104</v>
+        <v>127.083</v>
       </c>
       <c r="D119" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E119" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3251,16 +3242,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C120">
-        <v>114.035</v>
+        <v>142.223</v>
       </c>
       <c r="D120" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E120" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3268,16 +3259,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C121">
-        <v>142.223</v>
+        <v>105.014</v>
       </c>
       <c r="D121" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E121" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3285,16 +3276,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C122">
-        <v>108.613</v>
+        <v>148.127</v>
       </c>
       <c r="D122" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E122" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3302,16 +3293,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C123">
-        <v>148.127</v>
+        <v>110.759</v>
       </c>
       <c r="D123" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E123" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3319,16 +3310,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C124">
-        <v>107.879</v>
+        <v>90.476</v>
       </c>
       <c r="D124" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E124" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3336,16 +3327,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C125">
-        <v>95.238</v>
+        <v>214.583</v>
       </c>
       <c r="D125" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E125" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3353,16 +3344,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C126">
-        <v>214.583</v>
+        <v>104.082</v>
       </c>
       <c r="D126" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E126" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3370,16 +3361,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C127">
-        <v>104.082</v>
+        <v>97.22199999999999</v>
       </c>
       <c r="D127" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E127" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3387,16 +3378,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C128">
-        <v>100</v>
+        <v>104.348</v>
       </c>
       <c r="D128" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E128" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3404,16 +3395,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C129">
-        <v>102.083</v>
+        <v>178.322</v>
       </c>
       <c r="D129" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E129" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3421,16 +3412,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C130">
-        <v>178.322</v>
+        <v>120.859</v>
       </c>
       <c r="D130" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E130" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3438,16 +3429,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C131">
-        <v>124.04</v>
+        <v>109.524</v>
       </c>
       <c r="D131" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E131" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3455,16 +3446,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C132">
-        <v>109.091</v>
+        <v>87.23399999999999</v>
       </c>
       <c r="D132" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E132" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3472,16 +3463,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C133">
-        <v>87.23399999999999</v>
+        <v>104.798</v>
       </c>
       <c r="D133" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E133" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3489,16 +3480,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C134">
-        <v>106.89</v>
+        <v>132.143</v>
       </c>
       <c r="D134" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E134" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3506,16 +3497,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C135">
-        <v>124.59</v>
+        <v>83.871</v>
       </c>
       <c r="D135" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E135" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3523,16 +3514,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C136">
-        <v>80.383</v>
+        <v>108</v>
       </c>
       <c r="D136" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E136" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3540,16 +3531,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C137">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="D137" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E137" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3557,16 +3548,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C138">
-        <v>110</v>
+        <v>94.84099999999999</v>
       </c>
       <c r="D138" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E138" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3574,16 +3565,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C139">
-        <v>94.84099999999999</v>
+        <v>133.88</v>
       </c>
       <c r="D139" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E139" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3591,16 +3582,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C140">
-        <v>131.783</v>
+        <v>102.837</v>
       </c>
       <c r="D140" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E140" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3608,16 +3599,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C141">
-        <v>108.511</v>
+        <v>107.937</v>
       </c>
       <c r="D141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3625,16 +3616,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C142">
-        <v>107.692</v>
+        <v>126.667</v>
       </c>
       <c r="D142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3642,16 +3633,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C143">
-        <v>142.857</v>
+        <v>100</v>
       </c>
       <c r="D143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3659,16 +3650,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C144">
-        <v>100</v>
+        <v>131.765</v>
       </c>
       <c r="D144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3676,16 +3667,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C145">
-        <v>123.656</v>
+        <v>103.248</v>
       </c>
       <c r="D145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3693,16 +3684,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C146">
-        <v>105.584</v>
+        <v>115.892</v>
       </c>
       <c r="D146" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3710,16 +3701,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C147">
-        <v>114.578</v>
+        <v>140.528</v>
       </c>
       <c r="D147" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3727,16 +3718,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C148">
-        <v>157.339</v>
+        <v>94.11799999999999</v>
       </c>
       <c r="D148" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3744,16 +3735,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C149">
-        <v>109.589</v>
+        <v>104.405</v>
       </c>
       <c r="D149" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3761,16 +3752,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C150">
-        <v>110.799</v>
+        <v>102.857</v>
       </c>
       <c r="D150" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3778,16 +3769,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C151">
-        <v>82.432</v>
+        <v>113.333</v>
       </c>
       <c r="D151" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3795,16 +3786,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C152">
-        <v>112.766</v>
+        <v>99.658</v>
       </c>
       <c r="D152" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E152" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3812,16 +3803,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C153">
-        <v>103.793</v>
+        <v>90.795</v>
       </c>
       <c r="D153" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E153" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3829,16 +3820,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C154">
-        <v>90.795</v>
+        <v>116</v>
       </c>
       <c r="D154" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3846,16 +3837,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C155">
-        <v>115.385</v>
+        <v>103.297</v>
       </c>
       <c r="D155" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E155" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3863,16 +3854,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C156">
-        <v>102.128</v>
+        <v>100.368</v>
       </c>
       <c r="D156" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E156" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3880,16 +3871,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C157">
-        <v>104.049</v>
+        <v>105.106</v>
       </c>
       <c r="D157" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E157" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3897,16 +3888,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C158">
-        <v>97.619</v>
+        <v>155.102</v>
       </c>
       <c r="D158" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E158" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3914,16 +3905,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C159">
-        <v>155.102</v>
+        <v>111.475</v>
       </c>
       <c r="D159" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E159" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3931,16 +3922,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C160">
-        <v>112.698</v>
+        <v>108.738</v>
       </c>
       <c r="D160" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E160" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3948,16 +3939,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C161">
-        <v>106.422</v>
+        <v>91.566</v>
       </c>
       <c r="D161" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E161" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3965,16 +3956,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C162">
-        <v>88.372</v>
+        <v>144.444</v>
       </c>
       <c r="D162" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E162" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3982,16 +3973,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C163">
-        <v>144.444</v>
+        <v>108.772</v>
       </c>
       <c r="D163" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E163" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3999,16 +3990,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C164">
-        <v>108.621</v>
+        <v>105.556</v>
       </c>
       <c r="D164" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E164" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4016,16 +4007,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C165">
-        <v>109.091</v>
+        <v>74.384</v>
       </c>
       <c r="D165" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E165" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4033,16 +4024,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C166">
-        <v>67.06</v>
+        <v>77.646</v>
       </c>
       <c r="D166" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E166" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4050,16 +4041,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C167">
-        <v>99.949</v>
+        <v>107.407</v>
       </c>
       <c r="D167" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E167" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4067,16 +4058,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C168">
-        <v>107.229</v>
+        <v>99.90300000000001</v>
       </c>
       <c r="D168" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E168" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4084,16 +4075,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C169">
-        <v>98.14</v>
+        <v>106.25</v>
       </c>
       <c r="D169" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E169" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4101,16 +4092,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C170">
-        <v>108.163</v>
+        <v>95.431</v>
       </c>
       <c r="D170" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E170" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4118,16 +4109,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C171">
-        <v>109.814</v>
+        <v>120.415</v>
       </c>
       <c r="D171" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E171" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4135,16 +4126,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C172">
-        <v>120.875</v>
+        <v>108.408</v>
       </c>
       <c r="D172" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E172" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4152,16 +4143,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C173">
-        <v>111.139</v>
+        <v>95.556</v>
       </c>
       <c r="D173" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E173" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4169,16 +4160,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C174">
-        <v>104.494</v>
+        <v>97.93000000000001</v>
       </c>
       <c r="D174" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E174" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4186,16 +4177,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C175">
-        <v>102.469</v>
+        <v>122.581</v>
       </c>
       <c r="D175" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E175" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4203,16 +4194,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C176">
-        <v>122.581</v>
+        <v>100</v>
       </c>
       <c r="D176" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E176" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4220,16 +4211,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C177">
-        <v>105.263</v>
+        <v>180</v>
       </c>
       <c r="D177" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E177" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4237,16 +4228,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C178">
-        <v>180</v>
+        <v>93.75</v>
       </c>
       <c r="D178" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E178" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4254,16 +4245,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C179">
-        <v>94.11799999999999</v>
+        <v>100</v>
       </c>
       <c r="D179" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E179" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4271,16 +4262,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C180">
-        <v>107.143</v>
+        <v>131.701</v>
       </c>
       <c r="D180" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E180" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4288,16 +4279,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C181">
-        <v>134.913</v>
+        <v>103.797</v>
       </c>
       <c r="D181" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E181" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4305,16 +4296,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C182">
-        <v>108.125</v>
+        <v>103.226</v>
       </c>
       <c r="D182" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E182" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4322,16 +4313,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C183">
-        <v>103.125</v>
+        <v>104.762</v>
       </c>
       <c r="D183" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E183" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4339,16 +4330,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C184">
-        <v>109.524</v>
+        <v>115.068</v>
       </c>
       <c r="D184" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E184" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4356,16 +4347,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C185">
-        <v>122.973</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="D185" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E185" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4373,16 +4364,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C186">
-        <v>67.45999999999999</v>
+        <v>102.913</v>
       </c>
       <c r="D186" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E186" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4390,16 +4381,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C187">
-        <v>103.67</v>
+        <v>144.737</v>
       </c>
       <c r="D187" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E187" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4407,16 +4398,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C188">
-        <v>144.737</v>
+        <v>100.424</v>
       </c>
       <c r="D188" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E188" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4424,16 +4415,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C189">
-        <v>100.608</v>
+        <v>111.842</v>
       </c>
       <c r="D189" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E189" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4441,16 +4432,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C190">
-        <v>111.842</v>
+        <v>101.852</v>
       </c>
       <c r="D190" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E190" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4458,16 +4449,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C191">
-        <v>93.333</v>
+        <v>63.077</v>
       </c>
       <c r="D191" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E191" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4475,16 +4466,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C192">
-        <v>63.077</v>
+        <v>155.556</v>
       </c>
       <c r="D192" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E192" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4492,16 +4483,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C193">
-        <v>155.556</v>
+        <v>110.714</v>
       </c>
       <c r="D193" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E193" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4509,16 +4500,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C194">
-        <v>110.345</v>
+        <v>104.545</v>
       </c>
       <c r="D194" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E194" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4526,16 +4517,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C195">
-        <v>109.091</v>
+        <v>104.651</v>
       </c>
       <c r="D195" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E195" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4543,16 +4534,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C196">
-        <v>106.667</v>
+        <v>194.118</v>
       </c>
       <c r="D196" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E196" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4560,16 +4551,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C197">
-        <v>194.118</v>
+        <v>140.591</v>
       </c>
       <c r="D197" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E197" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4577,16 +4568,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C198">
-        <v>144.975</v>
+        <v>100</v>
       </c>
       <c r="D198" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E198" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4594,16 +4585,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C199">
-        <v>100</v>
+        <v>125.431</v>
       </c>
       <c r="D199" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E199" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4611,16 +4602,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C200">
-        <v>125.431</v>
+        <v>116.667</v>
       </c>
       <c r="D200" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E200" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4628,16 +4619,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C201">
-        <v>116.667</v>
+        <v>125.581</v>
       </c>
       <c r="D201" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E201" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4645,16 +4636,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C202">
-        <v>125.333</v>
+        <v>100</v>
       </c>
       <c r="D202" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E202" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4662,16 +4653,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C203">
-        <v>97.959</v>
+        <v>84.634</v>
       </c>
       <c r="D203" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E203" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4679,16 +4670,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C204">
-        <v>82.477</v>
+        <v>68.479</v>
       </c>
       <c r="D204" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E204" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4696,16 +4687,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C205">
-        <v>72.84099999999999</v>
+        <v>105.725</v>
       </c>
       <c r="D205" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E205" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4713,16 +4704,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C206">
-        <v>106.691</v>
+        <v>92.11</v>
       </c>
       <c r="D206" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E206" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4730,16 +4721,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C207">
-        <v>95.904</v>
+        <v>103.109</v>
       </c>
       <c r="D207" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E207" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4747,16 +4738,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C208">
-        <v>101.5</v>
+        <v>106.667</v>
       </c>
       <c r="D208" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E208" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4764,16 +4755,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C209">
-        <v>113.333</v>
+        <v>114.583</v>
       </c>
       <c r="D209" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E209" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4781,16 +4772,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C210">
-        <v>116</v>
+        <v>86.667</v>
       </c>
       <c r="D210" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E210" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4798,16 +4789,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C211">
-        <v>86.667</v>
+        <v>91.667</v>
       </c>
       <c r="D211" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E211" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4815,16 +4806,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C212">
-        <v>91.667</v>
+        <v>112.264</v>
       </c>
       <c r="D212" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E212" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4832,16 +4823,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C213">
-        <v>100</v>
+        <v>104.651</v>
       </c>
       <c r="D213" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E213" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4849,16 +4840,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C214">
-        <v>110</v>
+        <v>77.575</v>
       </c>
       <c r="D214" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E214" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4866,16 +4857,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C215">
-        <v>111.905</v>
+        <v>104.895</v>
       </c>
       <c r="D215" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E215" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4883,16 +4874,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C216">
-        <v>77.575</v>
+        <v>109.459</v>
       </c>
       <c r="D216" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E216" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4900,16 +4891,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C217">
-        <v>105.333</v>
+        <v>122.148</v>
       </c>
       <c r="D217" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E217" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4917,16 +4908,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C218">
-        <v>110.39</v>
+        <v>104.598</v>
       </c>
       <c r="D218" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E218" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4934,16 +4925,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C219">
-        <v>138.92</v>
+        <v>138.462</v>
       </c>
       <c r="D219" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E219" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4951,16 +4942,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C220">
-        <v>106.667</v>
+        <v>94.872</v>
       </c>
       <c r="D220" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E220" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4968,16 +4959,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C221">
-        <v>138.462</v>
+        <v>100.909</v>
       </c>
       <c r="D221" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E221" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4985,16 +4976,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C222">
-        <v>94.73699999999999</v>
+        <v>114.093</v>
       </c>
       <c r="D222" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E222" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5002,16 +4993,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C223">
-        <v>102.11</v>
+        <v>104.299</v>
       </c>
       <c r="D223" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E223" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5019,16 +5010,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C224">
-        <v>112.537</v>
+        <v>95.455</v>
       </c>
       <c r="D224" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E224" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5036,16 +5027,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C225">
-        <v>104.299</v>
+        <v>115.909</v>
       </c>
       <c r="D225" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E225" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5053,16 +5044,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C226">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D226" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E226" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5070,16 +5061,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C227">
-        <v>115.556</v>
+        <v>96.154</v>
       </c>
       <c r="D227" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E227" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5087,16 +5078,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C228">
-        <v>104.651</v>
+        <v>106.667</v>
       </c>
       <c r="D228" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E228" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5104,16 +5095,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C229">
-        <v>98.113</v>
+        <v>133.333</v>
       </c>
       <c r="D229" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E229" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5121,16 +5112,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C230">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="D230" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E230" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5138,16 +5129,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C231">
-        <v>133.333</v>
+        <v>76.29600000000001</v>
       </c>
       <c r="D231" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E231" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5155,16 +5146,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C232">
-        <v>108.333</v>
+        <v>109.677</v>
       </c>
       <c r="D232" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E232" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5172,16 +5163,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C233">
-        <v>74</v>
+        <v>165.657</v>
       </c>
       <c r="D233" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E233" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5189,16 +5180,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C234">
-        <v>112.5</v>
+        <v>114.286</v>
       </c>
       <c r="D234" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E234" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5206,16 +5197,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C235">
-        <v>165.657</v>
+        <v>103</v>
       </c>
       <c r="D235" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E235" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5223,16 +5214,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C236">
-        <v>121.429</v>
+        <v>33.529</v>
       </c>
       <c r="D236" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E236" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5240,16 +5231,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C237">
-        <v>107.921</v>
+        <v>108.696</v>
       </c>
       <c r="D237" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E237" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5257,16 +5248,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C238">
-        <v>33.529</v>
+        <v>107.277</v>
       </c>
       <c r="D238" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E238" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5274,16 +5265,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C239">
-        <v>108.333</v>
+        <v>100</v>
       </c>
       <c r="D239" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E239" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5291,16 +5282,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C240">
-        <v>106.316</v>
+        <v>78.761</v>
       </c>
       <c r="D240" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E240" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5308,16 +5299,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C241">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D241" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E241" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5325,16 +5316,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C242">
-        <v>84.11199999999999</v>
+        <v>104.147</v>
       </c>
       <c r="D242" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E242" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5342,16 +5333,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C243">
-        <v>115</v>
+        <v>113.696</v>
       </c>
       <c r="D243" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E243" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5359,16 +5350,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C244">
-        <v>105.882</v>
+        <v>103.814</v>
       </c>
       <c r="D244" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E244" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5376,16 +5367,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C245">
-        <v>112.1</v>
+        <v>100</v>
       </c>
       <c r="D245" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E245" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5393,16 +5384,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C246">
-        <v>97.703</v>
+        <v>100</v>
       </c>
       <c r="D246" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E246" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5410,16 +5401,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C247">
-        <v>100</v>
+        <v>131.707</v>
       </c>
       <c r="D247" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E247" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5427,16 +5418,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C248">
-        <v>100</v>
+        <v>133.333</v>
       </c>
       <c r="D248" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E248" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5444,16 +5435,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C249">
-        <v>91.667</v>
+        <v>131.579</v>
       </c>
       <c r="D249" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E249" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5461,16 +5452,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C250">
-        <v>148.78</v>
+        <v>117.391</v>
       </c>
       <c r="D250" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E250" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5478,16 +5469,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C251">
-        <v>133.333</v>
+        <v>118.182</v>
       </c>
       <c r="D251" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E251" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5495,16 +5486,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C252">
-        <v>131.579</v>
+        <v>105.882</v>
       </c>
       <c r="D252" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E252" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5512,16 +5503,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C253">
-        <v>100</v>
+        <v>115.625</v>
       </c>
       <c r="D253" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E253" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5529,16 +5520,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C254">
-        <v>122.727</v>
+        <v>103.192</v>
       </c>
       <c r="D254" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E254" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5546,16 +5537,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C255">
-        <v>105.556</v>
+        <v>107.283</v>
       </c>
       <c r="D255" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E255" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5563,16 +5554,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C256">
-        <v>113.529</v>
+        <v>110.943</v>
       </c>
       <c r="D256" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E256" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5580,16 +5571,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C257">
-        <v>103.192</v>
+        <v>122.727</v>
       </c>
       <c r="D257" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E257" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5597,16 +5588,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C258">
-        <v>107.283</v>
+        <v>98.711</v>
       </c>
       <c r="D258" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E258" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5614,16 +5605,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C259">
-        <v>110.401</v>
+        <v>81.25</v>
       </c>
       <c r="D259" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E259" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5631,16 +5622,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C260">
-        <v>122.727</v>
+        <v>100</v>
       </c>
       <c r="D260" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E260" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5648,16 +5639,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C261">
-        <v>93.408</v>
+        <v>109.091</v>
       </c>
       <c r="D261" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E261" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5665,16 +5656,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="C262">
-        <v>82.35299999999999</v>
+        <v>97.29900000000001</v>
       </c>
       <c r="D262" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E262" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5682,16 +5673,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C263">
-        <v>100</v>
+        <v>117.143</v>
       </c>
       <c r="D263" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E263" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5699,16 +5690,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C264">
-        <v>109.091</v>
+        <v>97.82599999999999</v>
       </c>
       <c r="D264" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E264" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5716,16 +5707,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C265">
-        <v>101.643</v>
+        <v>102.239</v>
       </c>
       <c r="D265" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E265" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5733,16 +5724,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C266">
-        <v>106.849</v>
+        <v>112.5</v>
       </c>
       <c r="D266" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E266" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5750,16 +5741,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C267">
-        <v>104.255</v>
+        <v>103.292</v>
       </c>
       <c r="D267" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E267" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5767,16 +5758,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C268">
-        <v>104.348</v>
+        <v>128.571</v>
       </c>
       <c r="D268" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E268" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5784,16 +5775,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C269">
-        <v>106.14</v>
+        <v>102.879</v>
       </c>
       <c r="D269" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E269" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5801,16 +5792,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C270">
-        <v>105.252</v>
+        <v>105.651</v>
       </c>
       <c r="D270" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E270" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5818,67 +5809,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C271">
-        <v>116.667</v>
+        <v>108.333</v>
       </c>
       <c r="D271" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="E271" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" t="s">
-        <v>275</v>
-      </c>
-      <c r="B272" t="s">
-        <v>278</v>
-      </c>
-      <c r="C272">
-        <v>108.206</v>
-      </c>
-      <c r="D272" t="s">
-        <v>280</v>
-      </c>
-      <c r="E272" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" t="s">
-        <v>276</v>
-      </c>
-      <c r="B273" t="s">
-        <v>278</v>
-      </c>
-      <c r="C273">
-        <v>109.275</v>
-      </c>
-      <c r="D273" t="s">
-        <v>280</v>
-      </c>
-      <c r="E273" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" t="s">
-        <v>277</v>
-      </c>
-      <c r="B274" t="s">
-        <v>278</v>
-      </c>
-      <c r="C274">
-        <v>108</v>
-      </c>
-      <c r="D274" t="s">
-        <v>280</v>
-      </c>
-      <c r="E274" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1085" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="281">
   <si>
     <t>symbol</t>
   </si>
@@ -661,6 +661,9 @@
     <t>RENUSDT</t>
   </si>
   <si>
+    <t>REQUSDT</t>
+  </si>
+  <si>
     <t>RLCUSDT</t>
   </si>
   <si>
@@ -766,6 +769,9 @@
     <t>USDPUSDT</t>
   </si>
   <si>
+    <t>UTKUSDT</t>
+  </si>
+  <si>
     <t>VGXUSDT</t>
   </si>
   <si>
@@ -841,10 +847,10 @@
     <t>ZRXUSDT</t>
   </si>
   <si>
+    <t>Bull</t>
+  </si>
+  <si>
     <t>Bear</t>
-  </si>
-  <si>
-    <t>Bull</t>
   </si>
   <si>
     <t>10 days</t>
@@ -1208,7 +1214,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E271"/>
+  <dimension ref="A1:E273"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1236,16 +1242,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C2">
-        <v>96.491</v>
+        <v>100</v>
       </c>
       <c r="D2" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1253,16 +1259,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C3">
-        <v>88.429</v>
+        <v>88.851</v>
       </c>
       <c r="D3" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1270,16 +1276,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C4">
-        <v>112.5</v>
+        <v>118.75</v>
       </c>
       <c r="D4" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1287,16 +1293,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C5">
-        <v>119.737</v>
+        <v>123.607</v>
       </c>
       <c r="D5" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1304,16 +1310,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C6">
-        <v>120</v>
+        <v>122.222</v>
       </c>
       <c r="D6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1321,16 +1327,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C7">
-        <v>106.25</v>
+        <v>100</v>
       </c>
       <c r="D7" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1338,16 +1344,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C8">
         <v>118.182</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1355,16 +1361,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C9">
         <v>98.182</v>
       </c>
       <c r="D9" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1372,16 +1378,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C10">
         <v>122.222</v>
       </c>
       <c r="D10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1389,16 +1395,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C11">
-        <v>103.226</v>
+        <v>106.452</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1406,16 +1412,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C12">
-        <v>103.608</v>
+        <v>99.057</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1423,16 +1429,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C13">
-        <v>112.903</v>
+        <v>112.5</v>
       </c>
       <c r="D13" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1440,16 +1446,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C14">
-        <v>110.667</v>
+        <v>116.34</v>
       </c>
       <c r="D14" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1457,16 +1463,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>103.448</v>
       </c>
       <c r="D15" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1474,16 +1480,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C16">
-        <v>100</v>
+        <v>109.091</v>
       </c>
       <c r="D16" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E16" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1491,16 +1497,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C17">
-        <v>120.819</v>
+        <v>125.172</v>
       </c>
       <c r="D17" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1508,16 +1514,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C18">
-        <v>103.205</v>
+        <v>108.176</v>
       </c>
       <c r="D18" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E18" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1525,16 +1531,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C19">
-        <v>112.332</v>
+        <v>113.362</v>
       </c>
       <c r="D19" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E19" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1542,16 +1548,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C20">
-        <v>98.788</v>
+        <v>104.192</v>
       </c>
       <c r="D20" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E20" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1559,16 +1565,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C21">
         <v>104.571</v>
       </c>
       <c r="D21" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E21" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1576,16 +1582,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C22">
         <v>108.197</v>
       </c>
       <c r="D22" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1593,16 +1599,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C23">
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1610,16 +1616,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C24">
         <v>129.787</v>
       </c>
       <c r="D24" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E24" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1627,16 +1633,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C25">
-        <v>86.355</v>
+        <v>91.218</v>
       </c>
       <c r="D25" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E25" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1644,16 +1650,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C26">
-        <v>125.085</v>
+        <v>127.891</v>
       </c>
       <c r="D26" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E26" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1661,16 +1667,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C27">
         <v>172.727</v>
       </c>
       <c r="D27" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E27" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1678,16 +1684,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C28">
-        <v>106.667</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E28" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1695,16 +1701,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C29">
-        <v>143.131</v>
+        <v>141.64</v>
       </c>
       <c r="D29" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E29" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1712,16 +1718,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C30">
-        <v>102.129</v>
+        <v>107.514</v>
       </c>
       <c r="D30" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1729,16 +1735,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C31">
-        <v>115.608</v>
+        <v>117.073</v>
       </c>
       <c r="D31" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E31" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1746,16 +1752,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C32">
-        <v>116.667</v>
+        <v>122.222</v>
       </c>
       <c r="D32" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E32" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1763,16 +1769,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C33">
-        <v>104.286</v>
+        <v>108.571</v>
       </c>
       <c r="D33" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E33" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1780,16 +1786,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C34">
-        <v>105.354</v>
+        <v>106.928</v>
       </c>
       <c r="D34" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E34" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1797,16 +1803,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C35">
-        <v>134.254</v>
+        <v>143.902</v>
       </c>
       <c r="D35" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E35" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1814,16 +1820,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C36">
-        <v>105.488</v>
+        <v>110.059</v>
       </c>
       <c r="D36" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E36" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1831,16 +1837,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C37">
-        <v>113.636</v>
+        <v>108.696</v>
       </c>
       <c r="D37" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E37" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1848,16 +1854,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C38">
-        <v>84.087</v>
+        <v>83.04300000000001</v>
       </c>
       <c r="D38" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E38" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1865,16 +1871,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C39">
-        <v>113.462</v>
+        <v>117.925</v>
       </c>
       <c r="D39" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E39" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1882,16 +1888,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C40">
-        <v>138.333</v>
+        <v>135.664</v>
       </c>
       <c r="D40" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E40" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1899,16 +1905,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C41">
-        <v>103.571</v>
+        <v>110.714</v>
       </c>
       <c r="D41" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E41" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1916,16 +1922,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C42">
-        <v>106.723</v>
+        <v>109.296</v>
       </c>
       <c r="D42" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E42" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1933,16 +1939,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C43">
         <v>113.208</v>
       </c>
       <c r="D43" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E43" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1950,16 +1956,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C44">
-        <v>93.023</v>
+        <v>100</v>
       </c>
       <c r="D44" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E44" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1967,16 +1973,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C45">
-        <v>105.374</v>
+        <v>94.883</v>
       </c>
       <c r="D45" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E45" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1984,16 +1990,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C46">
         <v>141.304</v>
       </c>
       <c r="D46" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E46" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2001,16 +2007,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C47">
-        <v>107.237</v>
+        <v>114.815</v>
       </c>
       <c r="D47" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E47" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2018,16 +2024,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C48">
-        <v>105.405</v>
+        <v>107.319</v>
       </c>
       <c r="D48" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E48" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2035,16 +2041,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C49">
-        <v>100</v>
+        <v>102.326</v>
       </c>
       <c r="D49" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E49" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2052,16 +2058,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C50">
-        <v>101.546</v>
+        <v>105.6</v>
       </c>
       <c r="D50" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E50" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2069,16 +2075,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C51">
-        <v>102.84</v>
+        <v>107.46</v>
       </c>
       <c r="D51" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E51" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2086,16 +2092,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C52">
         <v>104</v>
       </c>
       <c r="D52" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E52" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2103,16 +2109,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C53">
-        <v>101.34</v>
+        <v>109.302</v>
       </c>
       <c r="D53" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E53" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2120,16 +2126,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C54">
-        <v>99.43899999999999</v>
+        <v>103.921</v>
       </c>
       <c r="D54" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E54" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2137,16 +2143,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C55">
-        <v>106.897</v>
+        <v>115.476</v>
       </c>
       <c r="D55" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E55" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2154,16 +2160,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C56">
         <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E56" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2171,16 +2177,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C57">
-        <v>112.903</v>
+        <v>119.355</v>
       </c>
       <c r="D57" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E57" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2188,16 +2194,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C58">
-        <v>104.805</v>
+        <v>107.159</v>
       </c>
       <c r="D58" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E58" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2205,16 +2211,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C59">
-        <v>105.556</v>
+        <v>111.111</v>
       </c>
       <c r="D59" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E59" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2222,16 +2228,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C60">
-        <v>100</v>
+        <v>103.846</v>
       </c>
       <c r="D60" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E60" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2239,16 +2245,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C61">
-        <v>107.143</v>
+        <v>114.286</v>
       </c>
       <c r="D61" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E61" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2256,16 +2262,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C62">
-        <v>122.222</v>
+        <v>115.789</v>
       </c>
       <c r="D62" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E62" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2273,16 +2279,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C63">
-        <v>114.13</v>
+        <v>115.808</v>
       </c>
       <c r="D63" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E63" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2290,16 +2296,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C64">
         <v>184.694</v>
       </c>
       <c r="D64" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E64" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2307,16 +2313,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C65">
-        <v>116.421</v>
+        <v>117.256</v>
       </c>
       <c r="D65" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E65" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2324,16 +2330,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C66">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D66" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E66" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2341,16 +2347,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C67">
         <v>77.86799999999999</v>
       </c>
       <c r="D67" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E67" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2358,16 +2364,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C68">
-        <v>96.629</v>
+        <v>98.913</v>
       </c>
       <c r="D68" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E68" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2375,16 +2381,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C69">
-        <v>106.173</v>
+        <v>108.537</v>
       </c>
       <c r="D69" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E69" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2392,16 +2398,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C70">
-        <v>107.692</v>
+        <v>115.385</v>
       </c>
       <c r="D70" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E70" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2409,16 +2415,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C71">
         <v>110</v>
       </c>
       <c r="D71" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E71" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2426,16 +2432,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C72">
-        <v>150</v>
+        <v>155.556</v>
       </c>
       <c r="D72" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E72" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2443,16 +2449,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C73">
-        <v>76.19</v>
+        <v>80</v>
       </c>
       <c r="D73" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E73" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2460,16 +2466,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C74">
-        <v>91.033</v>
+        <v>102.286</v>
       </c>
       <c r="D74" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E74" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2477,16 +2483,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C75">
         <v>68.869</v>
       </c>
       <c r="D75" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E75" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2494,16 +2500,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C76">
         <v>110.526</v>
       </c>
       <c r="D76" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E76" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2511,16 +2517,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C77">
-        <v>98.104</v>
+        <v>101.439</v>
       </c>
       <c r="D77" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E77" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2528,16 +2534,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C78">
-        <v>96.629</v>
+        <v>99.624</v>
       </c>
       <c r="D78" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E78" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2545,16 +2551,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C79">
-        <v>94.857</v>
+        <v>96.721</v>
       </c>
       <c r="D79" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E79" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2562,16 +2568,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C80">
-        <v>105.319</v>
+        <v>104.392</v>
       </c>
       <c r="D80" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E80" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2579,16 +2585,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C81">
-        <v>97.43600000000001</v>
+        <v>102.564</v>
       </c>
       <c r="D81" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E81" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2596,16 +2602,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C82">
-        <v>116.667</v>
+        <v>107.692</v>
       </c>
       <c r="D82" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E82" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2613,16 +2619,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C83">
-        <v>105.308</v>
+        <v>108.878</v>
       </c>
       <c r="D83" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E83" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2630,16 +2636,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C84">
-        <v>130.556</v>
+        <v>129.73</v>
       </c>
       <c r="D84" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E84" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2647,16 +2653,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C85">
-        <v>100</v>
+        <v>108.333</v>
       </c>
       <c r="D85" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E85" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2664,16 +2670,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C86">
-        <v>83.333</v>
+        <v>83.76600000000001</v>
       </c>
       <c r="D86" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E86" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2681,16 +2687,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C87">
         <v>110.484</v>
       </c>
       <c r="D87" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E87" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2698,16 +2704,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C88">
-        <v>86.324</v>
+        <v>97.511</v>
       </c>
       <c r="D88" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E88" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2715,16 +2721,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C89">
-        <v>108.333</v>
+        <v>100</v>
       </c>
       <c r="D89" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E89" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2732,16 +2738,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C90">
-        <v>107.317</v>
+        <v>109.524</v>
       </c>
       <c r="D90" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E90" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2749,16 +2755,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C91">
-        <v>83.687</v>
+        <v>94.104</v>
       </c>
       <c r="D91" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E91" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2766,16 +2772,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C92">
-        <v>108.411</v>
+        <v>110.092</v>
       </c>
       <c r="D92" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E92" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2783,16 +2789,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C93">
-        <v>131.541</v>
+        <v>121.429</v>
       </c>
       <c r="D93" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E93" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2800,16 +2806,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C94">
-        <v>122.288</v>
+        <v>119.027</v>
       </c>
       <c r="D94" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E94" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2817,16 +2823,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C95">
-        <v>104.274</v>
+        <v>101.887</v>
       </c>
       <c r="D95" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E95" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2834,16 +2840,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C96">
-        <v>97.09699999999999</v>
+        <v>100.29</v>
       </c>
       <c r="D96" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E96" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2851,16 +2857,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C97">
-        <v>98.22799999999999</v>
+        <v>99.801</v>
       </c>
       <c r="D97" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E97" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2868,16 +2874,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C98">
-        <v>98.98999999999999</v>
+        <v>101.01</v>
       </c>
       <c r="D98" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E98" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2885,16 +2891,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C99">
-        <v>103.621</v>
+        <v>107.923</v>
       </c>
       <c r="D99" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E99" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2902,16 +2908,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C100">
         <v>100</v>
       </c>
       <c r="D100" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E100" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2919,16 +2925,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C101">
-        <v>110.256</v>
+        <v>105</v>
       </c>
       <c r="D101" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E101" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2936,16 +2942,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C102">
-        <v>108.485</v>
+        <v>109.589</v>
       </c>
       <c r="D102" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E102" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2953,16 +2959,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C103">
-        <v>124.545</v>
+        <v>120.705</v>
       </c>
       <c r="D103" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E103" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2970,16 +2976,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C104">
-        <v>91.429</v>
+        <v>89.18899999999999</v>
       </c>
       <c r="D104" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E104" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2987,16 +2993,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C105">
-        <v>120</v>
+        <v>109.091</v>
       </c>
       <c r="D105" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E105" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3004,16 +3010,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C106">
-        <v>111.724</v>
+        <v>112.5</v>
       </c>
       <c r="D106" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E106" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3021,16 +3027,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C107">
-        <v>118.841</v>
+        <v>119.718</v>
       </c>
       <c r="D107" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E107" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3038,16 +3044,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C108">
-        <v>113.93</v>
+        <v>115.291</v>
       </c>
       <c r="D108" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E108" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3055,16 +3061,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C109">
-        <v>100</v>
+        <v>108.696</v>
       </c>
       <c r="D109" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E109" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3072,16 +3078,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C110">
-        <v>110</v>
+        <v>109.524</v>
       </c>
       <c r="D110" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E110" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3089,16 +3095,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C111">
-        <v>121.367</v>
+        <v>135.545</v>
       </c>
       <c r="D111" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E111" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3106,16 +3112,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C112">
-        <v>67.79900000000001</v>
+        <v>76.998</v>
       </c>
       <c r="D112" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E112" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3123,16 +3129,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C113">
-        <v>123.383</v>
+        <v>130.049</v>
       </c>
       <c r="D113" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E113" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3140,16 +3146,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C114">
         <v>111.243</v>
       </c>
       <c r="D114" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E114" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3157,16 +3163,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C115">
         <v>103.448</v>
       </c>
       <c r="D115" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E115" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3174,16 +3180,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C116">
-        <v>102.632</v>
+        <v>100.862</v>
       </c>
       <c r="D116" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E116" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3191,16 +3197,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C117">
-        <v>97.82599999999999</v>
+        <v>102.174</v>
       </c>
       <c r="D117" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E117" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3208,16 +3214,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C118">
         <v>104</v>
       </c>
       <c r="D118" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E118" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3225,16 +3231,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C119">
-        <v>127.083</v>
+        <v>131.25</v>
       </c>
       <c r="D119" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E119" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3242,16 +3248,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C120">
         <v>142.223</v>
       </c>
       <c r="D120" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E120" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3259,16 +3265,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C121">
-        <v>105.014</v>
+        <v>107.326</v>
       </c>
       <c r="D121" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E121" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3276,16 +3282,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C122">
         <v>148.127</v>
       </c>
       <c r="D122" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E122" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3293,16 +3299,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C123">
-        <v>110.759</v>
+        <v>114.11</v>
       </c>
       <c r="D123" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E123" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3310,16 +3316,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C124">
-        <v>90.476</v>
+        <v>95.238</v>
       </c>
       <c r="D124" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E124" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3327,16 +3333,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C125">
         <v>214.583</v>
       </c>
       <c r="D125" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E125" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3344,16 +3350,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C126">
         <v>104.082</v>
       </c>
       <c r="D126" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E126" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3361,16 +3367,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C127">
-        <v>97.22199999999999</v>
+        <v>100.68</v>
       </c>
       <c r="D127" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E127" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3378,16 +3384,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C128">
-        <v>104.348</v>
+        <v>106.383</v>
       </c>
       <c r="D128" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E128" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3395,16 +3401,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C129">
         <v>178.322</v>
       </c>
       <c r="D129" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E129" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3412,16 +3418,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C130">
-        <v>120.859</v>
+        <v>122.664</v>
       </c>
       <c r="D130" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E130" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3429,16 +3435,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C131">
-        <v>109.524</v>
+        <v>109.091</v>
       </c>
       <c r="D131" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E131" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3446,16 +3452,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C132">
         <v>87.23399999999999</v>
       </c>
       <c r="D132" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E132" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3463,16 +3469,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C133">
-        <v>104.798</v>
+        <v>99.828</v>
       </c>
       <c r="D133" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E133" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3480,16 +3486,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C134">
-        <v>132.143</v>
+        <v>138.596</v>
       </c>
       <c r="D134" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E134" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3497,16 +3503,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C135">
-        <v>83.871</v>
+        <v>92.78400000000001</v>
       </c>
       <c r="D135" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E135" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3514,16 +3520,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C136">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="D136" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E136" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3531,16 +3537,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C137">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="D137" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E137" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3548,16 +3554,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C138">
         <v>94.84099999999999</v>
       </c>
       <c r="D138" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E138" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3565,16 +3571,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C139">
-        <v>133.88</v>
+        <v>136.339</v>
       </c>
       <c r="D139" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E139" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3582,16 +3588,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C140">
-        <v>102.837</v>
+        <v>106.711</v>
       </c>
       <c r="D140" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E140" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3599,16 +3605,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C141">
-        <v>107.937</v>
+        <v>109.302</v>
       </c>
       <c r="D141" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E141" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3616,16 +3622,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C142">
-        <v>126.667</v>
+        <v>105.556</v>
       </c>
       <c r="D142" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E142" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3633,16 +3639,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C143">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="D143" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E143" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3650,16 +3656,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C144">
-        <v>131.765</v>
+        <v>134.884</v>
       </c>
       <c r="D144" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E144" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3667,16 +3673,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C145">
-        <v>103.248</v>
+        <v>107.298</v>
       </c>
       <c r="D145" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3684,16 +3690,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C146">
-        <v>115.892</v>
+        <v>126.477</v>
       </c>
       <c r="D146" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E146" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3701,16 +3707,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C147">
-        <v>140.528</v>
+        <v>147.433</v>
       </c>
       <c r="D147" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E147" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3718,16 +3724,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C148">
-        <v>94.11799999999999</v>
+        <v>102.597</v>
       </c>
       <c r="D148" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E148" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3735,16 +3741,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C149">
-        <v>104.405</v>
+        <v>109.194</v>
       </c>
       <c r="D149" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E149" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3752,16 +3758,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C150">
-        <v>102.857</v>
+        <v>122.857</v>
       </c>
       <c r="D150" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E150" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3769,16 +3775,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C151">
-        <v>113.333</v>
+        <v>119.565</v>
       </c>
       <c r="D151" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E151" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3786,16 +3792,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C152">
-        <v>99.658</v>
+        <v>103.683</v>
       </c>
       <c r="D152" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E152" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3803,16 +3809,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C153">
         <v>90.795</v>
       </c>
       <c r="D153" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E153" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3820,16 +3826,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C154">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D154" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E154" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3837,16 +3843,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C155">
-        <v>103.297</v>
+        <v>104.255</v>
       </c>
       <c r="D155" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E155" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3854,16 +3860,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C156">
-        <v>100.368</v>
+        <v>102.314</v>
       </c>
       <c r="D156" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E156" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3871,16 +3877,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C157">
-        <v>105.106</v>
+        <v>104.49</v>
       </c>
       <c r="D157" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E157" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3888,16 +3894,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C158">
         <v>155.102</v>
       </c>
       <c r="D158" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E158" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3905,16 +3911,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C159">
-        <v>111.475</v>
+        <v>112.903</v>
       </c>
       <c r="D159" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E159" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3922,16 +3928,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C160">
-        <v>108.738</v>
+        <v>113.208</v>
       </c>
       <c r="D160" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E160" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3939,16 +3945,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C161">
-        <v>91.566</v>
+        <v>93.333</v>
       </c>
       <c r="D161" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E161" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3956,16 +3962,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C162">
         <v>144.444</v>
       </c>
       <c r="D162" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E162" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3973,16 +3979,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C163">
-        <v>108.772</v>
+        <v>112.069</v>
       </c>
       <c r="D163" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E163" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3990,16 +3996,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C164">
-        <v>105.556</v>
+        <v>111.111</v>
       </c>
       <c r="D164" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E164" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4007,16 +4013,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C165">
-        <v>74.384</v>
+        <v>86.313</v>
       </c>
       <c r="D165" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E165" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4024,16 +4030,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C166">
-        <v>77.646</v>
+        <v>60.895</v>
       </c>
       <c r="D166" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E166" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4041,16 +4047,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C167">
-        <v>107.407</v>
+        <v>107.229</v>
       </c>
       <c r="D167" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E167" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4058,16 +4064,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C168">
-        <v>99.90300000000001</v>
+        <v>111.477</v>
       </c>
       <c r="D168" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E168" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4075,16 +4081,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C169">
-        <v>106.25</v>
+        <v>109.184</v>
       </c>
       <c r="D169" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E169" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4092,16 +4098,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C170">
-        <v>95.431</v>
+        <v>90.187</v>
       </c>
       <c r="D170" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E170" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4109,16 +4115,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C171">
-        <v>120.415</v>
+        <v>121.477</v>
       </c>
       <c r="D171" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E171" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4126,16 +4132,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C172">
-        <v>108.408</v>
+        <v>104.45</v>
       </c>
       <c r="D172" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E172" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4143,16 +4149,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C173">
-        <v>95.556</v>
+        <v>96.774</v>
       </c>
       <c r="D173" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E173" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4160,16 +4166,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C174">
-        <v>97.93000000000001</v>
+        <v>99.18899999999999</v>
       </c>
       <c r="D174" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E174" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4177,16 +4183,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C175">
         <v>122.581</v>
       </c>
       <c r="D175" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E175" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4194,16 +4200,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C176">
-        <v>100</v>
+        <v>86.95699999999999</v>
       </c>
       <c r="D176" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E176" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4211,16 +4217,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C177">
         <v>180</v>
       </c>
       <c r="D177" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E177" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4228,16 +4234,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C178">
-        <v>93.75</v>
+        <v>100</v>
       </c>
       <c r="D178" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E178" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4245,16 +4251,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C179">
-        <v>100</v>
+        <v>107.143</v>
       </c>
       <c r="D179" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E179" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4262,16 +4268,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C180">
-        <v>131.701</v>
+        <v>135.789</v>
       </c>
       <c r="D180" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E180" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4279,16 +4285,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C181">
-        <v>103.797</v>
+        <v>108.075</v>
       </c>
       <c r="D181" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E181" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4296,16 +4302,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C182">
-        <v>103.226</v>
+        <v>103.125</v>
       </c>
       <c r="D182" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E182" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4313,16 +4319,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C183">
-        <v>104.762</v>
+        <v>109.524</v>
       </c>
       <c r="D183" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E183" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4330,16 +4336,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C184">
-        <v>115.068</v>
+        <v>104.819</v>
       </c>
       <c r="D184" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E184" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4347,16 +4353,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C185">
         <v>67.45999999999999</v>
       </c>
       <c r="D185" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E185" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4364,16 +4370,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C186">
-        <v>102.913</v>
+        <v>107.619</v>
       </c>
       <c r="D186" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E186" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4381,16 +4387,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C187">
         <v>144.737</v>
       </c>
       <c r="D187" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E187" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4398,16 +4404,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C188">
-        <v>100.424</v>
+        <v>103.802</v>
       </c>
       <c r="D188" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E188" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4415,16 +4421,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C189">
         <v>111.842</v>
       </c>
       <c r="D189" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E189" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4432,16 +4438,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C190">
-        <v>101.852</v>
+        <v>105.455</v>
       </c>
       <c r="D190" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E190" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4449,16 +4455,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C191">
         <v>63.077</v>
       </c>
       <c r="D191" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E191" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4466,16 +4472,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C192">
         <v>155.556</v>
       </c>
       <c r="D192" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E192" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4483,16 +4489,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C193">
-        <v>110.714</v>
+        <v>110.345</v>
       </c>
       <c r="D193" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E193" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4500,16 +4506,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C194">
-        <v>104.545</v>
+        <v>104.167</v>
       </c>
       <c r="D194" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E194" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4517,16 +4523,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C195">
-        <v>104.651</v>
+        <v>109.091</v>
       </c>
       <c r="D195" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E195" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4534,16 +4540,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C196">
         <v>194.118</v>
       </c>
       <c r="D196" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E196" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4551,16 +4557,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C197">
-        <v>140.591</v>
+        <v>145.879</v>
       </c>
       <c r="D197" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E197" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4568,16 +4574,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C198">
-        <v>100</v>
+        <v>105.263</v>
       </c>
       <c r="D198" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E198" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4585,16 +4591,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C199">
         <v>125.431</v>
       </c>
       <c r="D199" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E199" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4602,16 +4608,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C200">
         <v>116.667</v>
       </c>
       <c r="D200" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E200" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4619,16 +4625,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C201">
-        <v>125.581</v>
+        <v>125.836</v>
       </c>
       <c r="D201" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E201" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4636,16 +4642,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C202">
-        <v>100</v>
+        <v>102.128</v>
       </c>
       <c r="D202" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E202" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4653,16 +4659,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C203">
-        <v>84.634</v>
+        <v>96.181</v>
       </c>
       <c r="D203" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E203" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4670,16 +4676,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C204">
-        <v>68.479</v>
+        <v>80.776</v>
       </c>
       <c r="D204" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E204" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4687,16 +4693,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C205">
-        <v>105.725</v>
+        <v>105.839</v>
       </c>
       <c r="D205" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E205" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4704,16 +4710,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C206">
-        <v>92.11</v>
+        <v>96.575</v>
       </c>
       <c r="D206" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E206" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4721,16 +4727,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C207">
-        <v>103.109</v>
+        <v>101</v>
       </c>
       <c r="D207" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E207" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4738,16 +4744,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C208">
         <v>106.667</v>
       </c>
       <c r="D208" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E208" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4755,16 +4761,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C209">
-        <v>114.583</v>
+        <v>118</v>
       </c>
       <c r="D209" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E209" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4772,16 +4778,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C210">
         <v>86.667</v>
       </c>
       <c r="D210" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E210" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4789,16 +4795,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C211">
-        <v>91.667</v>
+        <v>108.333</v>
       </c>
       <c r="D211" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E211" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4806,16 +4812,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C212">
-        <v>112.264</v>
+        <v>100</v>
       </c>
       <c r="D212" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E212" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4823,16 +4829,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C213">
-        <v>104.651</v>
+        <v>117.593</v>
       </c>
       <c r="D213" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E213" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4840,16 +4846,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C214">
-        <v>77.575</v>
+        <v>110.638</v>
       </c>
       <c r="D214" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E214" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4857,16 +4863,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C215">
-        <v>104.895</v>
+        <v>77.575</v>
       </c>
       <c r="D215" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E215" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4874,16 +4880,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C216">
-        <v>109.459</v>
+        <v>111.486</v>
       </c>
       <c r="D216" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E216" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4891,16 +4897,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C217">
-        <v>122.148</v>
+        <v>111.842</v>
       </c>
       <c r="D217" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E217" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4908,16 +4914,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C218">
-        <v>104.598</v>
+        <v>134.821</v>
       </c>
       <c r="D218" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E218" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4925,16 +4931,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C219">
-        <v>138.462</v>
+        <v>109.091</v>
       </c>
       <c r="D219" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E219" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4942,16 +4948,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C220">
-        <v>94.872</v>
+        <v>138.462</v>
       </c>
       <c r="D220" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E220" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4959,16 +4965,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C221">
-        <v>100.909</v>
+        <v>97.43600000000001</v>
       </c>
       <c r="D221" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E221" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4976,16 +4982,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C222">
-        <v>114.093</v>
+        <v>103.084</v>
       </c>
       <c r="D222" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E222" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4993,16 +4999,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C223">
-        <v>104.299</v>
+        <v>116.428</v>
       </c>
       <c r="D223" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E223" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5010,16 +5016,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C224">
-        <v>95.455</v>
+        <v>104.299</v>
       </c>
       <c r="D224" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E224" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5027,16 +5033,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C225">
-        <v>115.909</v>
+        <v>95.652</v>
       </c>
       <c r="D225" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E225" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5044,16 +5050,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C226">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="D226" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E226" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5061,16 +5067,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C227">
-        <v>96.154</v>
+        <v>112.195</v>
       </c>
       <c r="D227" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E227" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5078,16 +5084,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C228">
-        <v>106.667</v>
+        <v>98.113</v>
       </c>
       <c r="D228" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E228" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5095,16 +5101,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C229">
-        <v>133.333</v>
+        <v>110</v>
       </c>
       <c r="D229" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E229" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5112,16 +5118,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C230">
-        <v>100</v>
+        <v>133.333</v>
       </c>
       <c r="D230" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E230" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5129,16 +5135,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C231">
-        <v>76.29600000000001</v>
+        <v>108.333</v>
       </c>
       <c r="D231" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E231" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5146,16 +5152,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C232">
-        <v>109.677</v>
+        <v>80.556</v>
       </c>
       <c r="D232" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E232" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5163,16 +5169,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C233">
-        <v>165.657</v>
+        <v>112.5</v>
       </c>
       <c r="D233" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E233" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5180,16 +5186,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C234">
-        <v>114.286</v>
+        <v>165.657</v>
       </c>
       <c r="D234" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E234" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5197,16 +5203,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C235">
-        <v>103</v>
+        <v>121.429</v>
       </c>
       <c r="D235" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E235" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5214,16 +5220,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C236">
-        <v>33.529</v>
+        <v>105.882</v>
       </c>
       <c r="D236" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E236" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5231,16 +5237,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C237">
-        <v>108.696</v>
+        <v>33.529</v>
       </c>
       <c r="D237" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E237" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5248,16 +5254,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C238">
-        <v>107.277</v>
+        <v>113.043</v>
       </c>
       <c r="D238" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E238" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5265,16 +5271,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C239">
-        <v>100</v>
+        <v>107.049</v>
       </c>
       <c r="D239" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E239" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5282,16 +5288,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C240">
-        <v>78.761</v>
+        <v>100</v>
       </c>
       <c r="D240" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E240" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5299,16 +5305,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C241">
-        <v>115</v>
+        <v>82.143</v>
       </c>
       <c r="D241" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E241" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5316,16 +5322,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C242">
-        <v>104.147</v>
+        <v>115</v>
       </c>
       <c r="D242" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E242" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5333,16 +5339,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C243">
-        <v>113.696</v>
+        <v>105.963</v>
       </c>
       <c r="D243" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E243" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5350,16 +5356,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C244">
-        <v>103.814</v>
+        <v>111.765</v>
       </c>
       <c r="D244" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E244" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5367,16 +5373,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C245">
-        <v>100</v>
+        <v>105.723</v>
       </c>
       <c r="D245" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E245" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5384,16 +5390,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C246">
-        <v>100</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="D246" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E246" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5401,16 +5407,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C247">
-        <v>131.707</v>
+        <v>100</v>
       </c>
       <c r="D247" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E247" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5418,16 +5424,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C248">
-        <v>133.333</v>
+        <v>100</v>
       </c>
       <c r="D248" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E248" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5435,16 +5441,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C249">
-        <v>131.579</v>
+        <v>143.59</v>
       </c>
       <c r="D249" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E249" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5452,16 +5458,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C250">
-        <v>117.391</v>
+        <v>133.333</v>
       </c>
       <c r="D250" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E250" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5469,16 +5475,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C251">
-        <v>118.182</v>
+        <v>131.579</v>
       </c>
       <c r="D251" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E251" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5486,16 +5492,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C252">
-        <v>105.882</v>
+        <v>108</v>
       </c>
       <c r="D252" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E252" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5503,16 +5509,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C253">
-        <v>115.625</v>
+        <v>122.727</v>
       </c>
       <c r="D253" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E253" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5520,16 +5526,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C254">
-        <v>103.192</v>
+        <v>105.556</v>
       </c>
       <c r="D254" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E254" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5537,16 +5543,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C255">
-        <v>107.283</v>
+        <v>119.195</v>
       </c>
       <c r="D255" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E255" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5554,16 +5560,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C256">
-        <v>110.943</v>
+        <v>103.192</v>
       </c>
       <c r="D256" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E256" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5571,16 +5577,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C257">
-        <v>122.727</v>
+        <v>107.283</v>
       </c>
       <c r="D257" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E257" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5588,16 +5594,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C258">
-        <v>98.711</v>
+        <v>114.409</v>
       </c>
       <c r="D258" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E258" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5605,16 +5611,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C259">
-        <v>81.25</v>
+        <v>122.727</v>
       </c>
       <c r="D259" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E259" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5622,16 +5628,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C260">
-        <v>100</v>
+        <v>96.786</v>
       </c>
       <c r="D260" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E260" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5639,16 +5645,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C261">
-        <v>109.091</v>
+        <v>82.35299999999999</v>
       </c>
       <c r="D261" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E261" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5656,16 +5662,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C262">
-        <v>97.29900000000001</v>
+        <v>105</v>
       </c>
       <c r="D262" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E262" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5673,16 +5679,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C263">
-        <v>117.143</v>
+        <v>109.091</v>
       </c>
       <c r="D263" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E263" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5690,16 +5696,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C264">
-        <v>97.82599999999999</v>
+        <v>101.521</v>
       </c>
       <c r="D264" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E264" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5707,16 +5713,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C265">
-        <v>102.239</v>
+        <v>111.111</v>
       </c>
       <c r="D265" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E265" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5724,16 +5730,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C266">
-        <v>112.5</v>
+        <v>102.128</v>
       </c>
       <c r="D266" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E266" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5741,16 +5747,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C267">
-        <v>103.292</v>
+        <v>106.569</v>
       </c>
       <c r="D267" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E267" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5758,16 +5764,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C268">
-        <v>128.571</v>
+        <v>116.304</v>
       </c>
       <c r="D268" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E268" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5775,16 +5781,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C269">
-        <v>102.879</v>
+        <v>107.058</v>
       </c>
       <c r="D269" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E269" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5792,16 +5798,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C270">
-        <v>105.651</v>
+        <v>132.143</v>
       </c>
       <c r="D270" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="E270" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5809,16 +5815,50 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
+        <v>277</v>
+      </c>
+      <c r="C271">
+        <v>106.968</v>
+      </c>
+      <c r="D271" t="s">
+        <v>279</v>
+      </c>
+      <c r="E271" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
+        <v>275</v>
+      </c>
+      <c r="B272" t="s">
+        <v>277</v>
+      </c>
+      <c r="C272">
+        <v>109.495</v>
+      </c>
+      <c r="D272" t="s">
+        <v>279</v>
+      </c>
+      <c r="E272" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
         <v>276</v>
       </c>
-      <c r="C271">
-        <v>108.333</v>
-      </c>
-      <c r="D271" t="s">
-        <v>277</v>
-      </c>
-      <c r="E271" t="s">
-        <v>278</v>
+      <c r="B273" t="s">
+        <v>277</v>
+      </c>
+      <c r="C273">
+        <v>108</v>
+      </c>
+      <c r="D273" t="s">
+        <v>279</v>
+      </c>
+      <c r="E273" t="s">
+        <v>280</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1093" uniqueCount="281">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="278">
   <si>
     <t>symbol</t>
   </si>
@@ -223,9 +223,6 @@
     <t>COMPUSDT</t>
   </si>
   <si>
-    <t>COTIUSDT</t>
-  </si>
-  <si>
     <t>CREAMUSDT</t>
   </si>
   <si>
@@ -238,9 +235,6 @@
     <t>CTSIUSDT</t>
   </si>
   <si>
-    <t>CTXCUSDT</t>
-  </si>
-  <si>
     <t>CVCUSDT</t>
   </si>
   <si>
@@ -661,9 +655,6 @@
     <t>RENUSDT</t>
   </si>
   <si>
-    <t>REQUSDT</t>
-  </si>
-  <si>
     <t>RLCUSDT</t>
   </si>
   <si>
@@ -847,10 +838,10 @@
     <t>ZRXUSDT</t>
   </si>
   <si>
+    <t>Bear</t>
+  </si>
+  <si>
     <t>Bull</t>
-  </si>
-  <si>
-    <t>Bear</t>
   </si>
   <si>
     <t>10 days</t>
@@ -1214,7 +1205,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E273"/>
+  <dimension ref="A1:E270"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1242,16 +1233,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>91.803</v>
       </c>
       <c r="D2" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E2" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1259,16 +1250,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C3">
-        <v>88.851</v>
+        <v>85.101</v>
       </c>
       <c r="D3" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E3" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1276,16 +1267,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C4">
-        <v>118.75</v>
+        <v>106.25</v>
       </c>
       <c r="D4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1293,16 +1284,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C5">
-        <v>123.607</v>
+        <v>98.187</v>
       </c>
       <c r="D5" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E5" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1310,16 +1301,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C6">
-        <v>122.222</v>
+        <v>95.122</v>
       </c>
       <c r="D6" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1327,16 +1318,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C7">
-        <v>100</v>
+        <v>88.235</v>
       </c>
       <c r="D7" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E7" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1344,16 +1335,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C8">
         <v>118.182</v>
       </c>
       <c r="D8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1361,16 +1352,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C9">
         <v>98.182</v>
       </c>
       <c r="D9" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1378,16 +1369,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C10">
         <v>122.222</v>
       </c>
       <c r="D10" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1395,16 +1386,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C11">
-        <v>106.452</v>
+        <v>91.176</v>
       </c>
       <c r="D11" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E11" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1412,16 +1403,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C12">
-        <v>99.057</v>
+        <v>91.628</v>
       </c>
       <c r="D12" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E12" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1429,16 +1420,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C13">
-        <v>112.5</v>
+        <v>88.889</v>
       </c>
       <c r="D13" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E13" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1446,16 +1437,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C14">
-        <v>116.34</v>
+        <v>92.398</v>
       </c>
       <c r="D14" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E14" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1463,16 +1454,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C15">
-        <v>103.448</v>
+        <v>96.55200000000001</v>
       </c>
       <c r="D15" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E15" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1480,16 +1471,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C16">
-        <v>109.091</v>
+        <v>91.667</v>
       </c>
       <c r="D16" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E16" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1497,16 +1488,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C17">
-        <v>125.172</v>
+        <v>98.119</v>
       </c>
       <c r="D17" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1514,16 +1505,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C18">
-        <v>108.176</v>
+        <v>92.818</v>
       </c>
       <c r="D18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1531,16 +1522,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C19">
-        <v>113.362</v>
+        <v>97.91200000000001</v>
       </c>
       <c r="D19" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E19" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1548,16 +1539,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C20">
-        <v>104.192</v>
+        <v>91.908</v>
       </c>
       <c r="D20" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E20" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1565,16 +1556,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C21">
         <v>104.571</v>
       </c>
       <c r="D21" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E21" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1582,16 +1573,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C22">
         <v>108.197</v>
       </c>
       <c r="D22" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E22" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1599,16 +1590,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C23">
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E23" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1616,16 +1607,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C24">
         <v>129.787</v>
       </c>
       <c r="D24" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E24" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1633,16 +1624,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C25">
-        <v>91.218</v>
+        <v>83.333</v>
       </c>
       <c r="D25" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E25" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1650,16 +1641,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C26">
-        <v>127.891</v>
+        <v>106.369</v>
       </c>
       <c r="D26" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E26" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1667,16 +1658,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C27">
         <v>172.727</v>
       </c>
       <c r="D27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E27" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1684,16 +1675,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C28">
-        <v>100</v>
+        <v>87.5</v>
       </c>
       <c r="D28" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E28" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1701,16 +1692,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C29">
-        <v>141.64</v>
+        <v>108.798</v>
       </c>
       <c r="D29" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E29" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1718,16 +1709,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C30">
-        <v>107.514</v>
+        <v>87.428</v>
       </c>
       <c r="D30" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E30" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1735,16 +1726,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C31">
-        <v>117.073</v>
+        <v>95.73099999999999</v>
       </c>
       <c r="D31" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E31" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1752,16 +1743,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C32">
-        <v>122.222</v>
+        <v>90</v>
       </c>
       <c r="D32" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E32" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1769,16 +1760,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C33">
-        <v>108.571</v>
+        <v>101.389</v>
       </c>
       <c r="D33" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E33" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1786,16 +1777,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C34">
-        <v>106.928</v>
+        <v>87.349</v>
       </c>
       <c r="D34" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E34" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1803,16 +1794,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C35">
-        <v>143.902</v>
+        <v>124.757</v>
       </c>
       <c r="D35" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E35" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1820,16 +1811,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C36">
-        <v>110.059</v>
+        <v>97.67400000000001</v>
       </c>
       <c r="D36" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E36" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1837,16 +1828,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C37">
-        <v>108.696</v>
+        <v>92</v>
       </c>
       <c r="D37" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E37" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1854,16 +1845,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C38">
-        <v>83.04300000000001</v>
+        <v>72.997</v>
       </c>
       <c r="D38" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E38" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1871,16 +1862,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C39">
-        <v>117.925</v>
+        <v>94.91500000000001</v>
       </c>
       <c r="D39" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E39" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1888,16 +1879,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C40">
-        <v>135.664</v>
+        <v>110.562</v>
       </c>
       <c r="D40" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E40" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1905,16 +1896,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C41">
-        <v>110.714</v>
+        <v>93.333</v>
       </c>
       <c r="D41" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E41" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1922,16 +1913,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C42">
-        <v>109.296</v>
+        <v>95.693</v>
       </c>
       <c r="D42" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E42" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1939,16 +1930,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C43">
-        <v>113.208</v>
+        <v>96.491</v>
       </c>
       <c r="D43" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E43" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1956,16 +1947,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C44">
-        <v>100</v>
+        <v>92.5</v>
       </c>
       <c r="D44" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E44" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1973,16 +1964,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C45">
-        <v>94.883</v>
+        <v>86.551</v>
       </c>
       <c r="D45" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E45" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1990,16 +1981,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C46">
         <v>141.304</v>
       </c>
       <c r="D46" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E46" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2007,16 +1998,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C47">
-        <v>114.815</v>
+        <v>76.794</v>
       </c>
       <c r="D47" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E47" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2024,16 +2015,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C48">
-        <v>107.319</v>
+        <v>86.571</v>
       </c>
       <c r="D48" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E48" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2041,16 +2032,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C49">
-        <v>102.326</v>
+        <v>89.583</v>
       </c>
       <c r="D49" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E49" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2058,16 +2049,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C50">
-        <v>105.6</v>
+        <v>106.436</v>
       </c>
       <c r="D50" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E50" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2075,16 +2066,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C51">
-        <v>107.46</v>
+        <v>99.795</v>
       </c>
       <c r="D51" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E51" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2092,16 +2083,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C52">
-        <v>104</v>
+        <v>92.30800000000001</v>
       </c>
       <c r="D52" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E52" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2109,16 +2100,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C53">
-        <v>109.302</v>
+        <v>87.383</v>
       </c>
       <c r="D53" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E53" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2126,16 +2117,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C54">
-        <v>103.921</v>
+        <v>92.401</v>
       </c>
       <c r="D54" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E54" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2143,16 +2134,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C55">
-        <v>115.476</v>
+        <v>98.824</v>
       </c>
       <c r="D55" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E55" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2160,16 +2151,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C56">
         <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E56" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2177,16 +2168,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C57">
-        <v>119.355</v>
+        <v>109.091</v>
       </c>
       <c r="D57" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E57" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2194,16 +2185,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C58">
-        <v>107.159</v>
+        <v>95.551</v>
       </c>
       <c r="D58" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E58" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2211,16 +2202,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C59">
-        <v>111.111</v>
+        <v>104.225</v>
       </c>
       <c r="D59" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E59" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2228,16 +2219,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C60">
-        <v>103.846</v>
+        <v>96.154</v>
       </c>
       <c r="D60" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E60" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2245,16 +2236,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C61">
-        <v>114.286</v>
+        <v>100</v>
       </c>
       <c r="D61" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E61" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2262,16 +2253,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C62">
-        <v>115.789</v>
+        <v>82.60899999999999</v>
       </c>
       <c r="D62" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E62" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2279,16 +2270,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C63">
-        <v>115.808</v>
+        <v>97.63500000000001</v>
       </c>
       <c r="D63" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E63" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2296,16 +2287,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C64">
         <v>184.694</v>
       </c>
       <c r="D64" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E64" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2313,16 +2304,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C65">
-        <v>117.256</v>
+        <v>109.744</v>
       </c>
       <c r="D65" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E65" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2330,16 +2321,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C66">
-        <v>120</v>
+        <v>77.86799999999999</v>
       </c>
       <c r="D66" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E66" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2347,16 +2338,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C67">
-        <v>77.86799999999999</v>
+        <v>90.11</v>
       </c>
       <c r="D67" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E67" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2364,16 +2355,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C68">
-        <v>98.913</v>
+        <v>103.659</v>
       </c>
       <c r="D68" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E68" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2381,16 +2372,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C69">
-        <v>108.537</v>
+        <v>100</v>
       </c>
       <c r="D69" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E69" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2398,16 +2389,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C70">
-        <v>115.385</v>
+        <v>77.77800000000001</v>
       </c>
       <c r="D70" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E70" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2415,16 +2406,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C71">
-        <v>110</v>
+        <v>64.444</v>
       </c>
       <c r="D71" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E71" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2432,16 +2423,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C72">
-        <v>155.556</v>
+        <v>105.195</v>
       </c>
       <c r="D72" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E72" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2449,16 +2440,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C73">
-        <v>80</v>
+        <v>68.869</v>
       </c>
       <c r="D73" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E73" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2466,16 +2457,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C74">
-        <v>102.286</v>
+        <v>90.476</v>
       </c>
       <c r="D74" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E74" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2483,16 +2474,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C75">
-        <v>68.869</v>
+        <v>98.402</v>
       </c>
       <c r="D75" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E75" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2500,16 +2491,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C76">
-        <v>110.526</v>
+        <v>89.13</v>
       </c>
       <c r="D76" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E76" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2517,16 +2508,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C77">
-        <v>101.439</v>
+        <v>90.05200000000001</v>
       </c>
       <c r="D77" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E77" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2534,16 +2525,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C78">
-        <v>99.624</v>
+        <v>96.29600000000001</v>
       </c>
       <c r="D78" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E78" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2551,16 +2542,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C79">
-        <v>96.721</v>
+        <v>97.43600000000001</v>
       </c>
       <c r="D79" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E79" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2568,16 +2559,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C80">
-        <v>104.392</v>
+        <v>92.30800000000001</v>
       </c>
       <c r="D80" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E80" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2585,16 +2576,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C81">
-        <v>102.564</v>
+        <v>92.643</v>
       </c>
       <c r="D81" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E81" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2602,16 +2593,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C82">
-        <v>107.692</v>
+        <v>107.895</v>
       </c>
       <c r="D82" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E82" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2619,16 +2610,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C83">
-        <v>108.878</v>
+        <v>92.30800000000001</v>
       </c>
       <c r="D83" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E83" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2636,16 +2627,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C84">
-        <v>129.73</v>
+        <v>84.61499999999999</v>
       </c>
       <c r="D84" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E84" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2653,16 +2644,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C85">
-        <v>108.333</v>
+        <v>110.484</v>
       </c>
       <c r="D85" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E85" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2670,16 +2661,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C86">
-        <v>83.76600000000001</v>
+        <v>93.867</v>
       </c>
       <c r="D86" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E86" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2687,16 +2678,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C87">
-        <v>110.484</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E87" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2704,16 +2695,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C88">
-        <v>97.511</v>
+        <v>93.47799999999999</v>
       </c>
       <c r="D88" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E88" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2721,16 +2712,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C89">
-        <v>100</v>
+        <v>96.298</v>
       </c>
       <c r="D89" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E89" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2738,16 +2729,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C90">
-        <v>109.524</v>
+        <v>93.694</v>
       </c>
       <c r="D90" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E90" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2755,16 +2746,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C91">
-        <v>94.104</v>
+        <v>112.121</v>
       </c>
       <c r="D91" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E91" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2772,16 +2763,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C92">
-        <v>110.092</v>
+        <v>96.899</v>
       </c>
       <c r="D92" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E92" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2789,16 +2780,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C93">
-        <v>121.429</v>
+        <v>172.857</v>
       </c>
       <c r="D93" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E93" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2806,16 +2797,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C94">
-        <v>119.027</v>
+        <v>63.617</v>
       </c>
       <c r="D94" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E94" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2823,16 +2814,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C95">
-        <v>101.887</v>
+        <v>80.488</v>
       </c>
       <c r="D95" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E95" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2840,16 +2831,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C96">
-        <v>100.29</v>
+        <v>97</v>
       </c>
       <c r="D96" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E96" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2857,16 +2848,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C97">
-        <v>99.801</v>
+        <v>92.746</v>
       </c>
       <c r="D97" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E97" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2874,16 +2865,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C98">
-        <v>101.01</v>
+        <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E98" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2891,16 +2882,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C99">
-        <v>107.923</v>
+        <v>92.68300000000001</v>
       </c>
       <c r="D99" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E99" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2908,16 +2899,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C100">
-        <v>100</v>
+        <v>95.539</v>
       </c>
       <c r="D100" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E100" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2925,16 +2916,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C101">
-        <v>105</v>
+        <v>99.13</v>
       </c>
       <c r="D101" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E101" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2942,16 +2933,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C102">
-        <v>109.589</v>
+        <v>86.111</v>
       </c>
       <c r="D102" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E102" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2959,16 +2950,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C103">
-        <v>120.705</v>
+        <v>100</v>
       </c>
       <c r="D103" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E103" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2976,16 +2967,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C104">
-        <v>89.18899999999999</v>
+        <v>91.86</v>
       </c>
       <c r="D104" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E104" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2993,16 +2984,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C105">
-        <v>109.091</v>
+        <v>93.506</v>
       </c>
       <c r="D105" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E105" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3010,16 +3001,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C106">
-        <v>112.5</v>
+        <v>104.358</v>
       </c>
       <c r="D106" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E106" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3027,16 +3018,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C107">
-        <v>119.718</v>
+        <v>95.652</v>
       </c>
       <c r="D107" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E107" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3044,16 +3035,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C108">
-        <v>115.291</v>
+        <v>87.5</v>
       </c>
       <c r="D108" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E108" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3061,16 +3052,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C109">
-        <v>108.696</v>
+        <v>102.718</v>
       </c>
       <c r="D109" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E109" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3078,16 +3069,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C110">
-        <v>109.524</v>
+        <v>73.45399999999999</v>
       </c>
       <c r="D110" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E110" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3095,16 +3086,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C111">
-        <v>135.545</v>
+        <v>110.046</v>
       </c>
       <c r="D111" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E111" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3112,16 +3103,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C112">
-        <v>76.998</v>
+        <v>111.243</v>
       </c>
       <c r="D112" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E112" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3129,16 +3120,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C113">
-        <v>130.049</v>
+        <v>103.448</v>
       </c>
       <c r="D113" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E113" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3146,16 +3137,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C114">
-        <v>111.243</v>
+        <v>103.571</v>
       </c>
       <c r="D114" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E114" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3163,16 +3154,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C115">
-        <v>103.448</v>
+        <v>93.75</v>
       </c>
       <c r="D115" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E115" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3180,16 +3171,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C116">
-        <v>100.862</v>
+        <v>104</v>
       </c>
       <c r="D116" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E116" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3197,16 +3188,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C117">
-        <v>102.174</v>
+        <v>120.755</v>
       </c>
       <c r="D117" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E117" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3214,16 +3205,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C118">
-        <v>104</v>
+        <v>92.404</v>
       </c>
       <c r="D118" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E118" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3231,16 +3222,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C119">
-        <v>131.25</v>
+        <v>84.37</v>
       </c>
       <c r="D119" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E119" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3248,16 +3239,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C120">
-        <v>142.223</v>
+        <v>148.127</v>
       </c>
       <c r="D120" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E120" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3265,16 +3256,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C121">
-        <v>107.326</v>
+        <v>86.598</v>
       </c>
       <c r="D121" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E121" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3282,16 +3273,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C122">
-        <v>148.127</v>
+        <v>90.476</v>
       </c>
       <c r="D122" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E122" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3299,16 +3290,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C123">
-        <v>114.11</v>
+        <v>214.583</v>
       </c>
       <c r="D123" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E123" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3316,16 +3307,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C124">
-        <v>95.238</v>
+        <v>104.082</v>
       </c>
       <c r="D124" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E124" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3333,16 +3324,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C125">
-        <v>214.583</v>
+        <v>94.73699999999999</v>
       </c>
       <c r="D125" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E125" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3350,16 +3341,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C126">
-        <v>104.082</v>
+        <v>110.417</v>
       </c>
       <c r="D126" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E126" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3367,16 +3358,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C127">
-        <v>100.68</v>
+        <v>178.322</v>
       </c>
       <c r="D127" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E127" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3384,16 +3375,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C128">
-        <v>106.383</v>
+        <v>98.30800000000001</v>
       </c>
       <c r="D128" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E128" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3401,16 +3392,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C129">
-        <v>178.322</v>
+        <v>91.667</v>
       </c>
       <c r="D129" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E129" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3418,16 +3409,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C130">
-        <v>122.664</v>
+        <v>87.23399999999999</v>
       </c>
       <c r="D130" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E130" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3435,16 +3426,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C131">
-        <v>109.091</v>
+        <v>78.027</v>
       </c>
       <c r="D131" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E131" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3452,16 +3443,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C132">
-        <v>87.23399999999999</v>
+        <v>113.115</v>
       </c>
       <c r="D132" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E132" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3469,16 +3460,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C133">
-        <v>99.828</v>
+        <v>83.562</v>
       </c>
       <c r="D133" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E133" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3486,16 +3477,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C134">
-        <v>138.596</v>
+        <v>100</v>
       </c>
       <c r="D134" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E134" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3503,16 +3494,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C135">
-        <v>92.78400000000001</v>
+        <v>90.90900000000001</v>
       </c>
       <c r="D135" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E135" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3520,16 +3511,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C136">
-        <v>112</v>
+        <v>94.84099999999999</v>
       </c>
       <c r="D136" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E136" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3537,16 +3528,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C137">
-        <v>115</v>
+        <v>106.905</v>
       </c>
       <c r="D137" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E137" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3554,16 +3545,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C138">
-        <v>94.84099999999999</v>
+        <v>100</v>
       </c>
       <c r="D138" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E138" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3571,16 +3562,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C139">
-        <v>136.339</v>
+        <v>103.876</v>
       </c>
       <c r="D139" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E139" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3588,16 +3579,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C140">
-        <v>106.711</v>
+        <v>62.963</v>
       </c>
       <c r="D140" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E140" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3605,16 +3596,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C141">
-        <v>109.302</v>
+        <v>96</v>
       </c>
       <c r="D141" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E141" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3622,16 +3613,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C142">
-        <v>105.556</v>
+        <v>109.677</v>
       </c>
       <c r="D142" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E142" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3639,16 +3630,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C143">
-        <v>104</v>
+        <v>97.886</v>
       </c>
       <c r="D143" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E143" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3656,16 +3647,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C144">
-        <v>134.884</v>
+        <v>112.209</v>
       </c>
       <c r="D144" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E144" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3673,16 +3664,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C145">
-        <v>107.298</v>
+        <v>97.13200000000001</v>
       </c>
       <c r="D145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E145" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3690,16 +3681,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C146">
-        <v>126.477</v>
+        <v>84.61499999999999</v>
       </c>
       <c r="D146" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E146" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3707,16 +3698,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C147">
-        <v>147.433</v>
+        <v>91.645</v>
       </c>
       <c r="D147" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E147" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3724,16 +3715,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C148">
-        <v>102.597</v>
+        <v>91.667</v>
       </c>
       <c r="D148" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E148" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3741,16 +3732,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C149">
-        <v>109.194</v>
+        <v>108.511</v>
       </c>
       <c r="D149" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E149" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3758,16 +3749,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C150">
-        <v>122.857</v>
+        <v>94.64100000000001</v>
       </c>
       <c r="D150" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E150" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3775,16 +3766,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C151">
-        <v>119.565</v>
+        <v>90.795</v>
       </c>
       <c r="D151" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E151" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3792,16 +3783,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C152">
-        <v>103.683</v>
+        <v>96.429</v>
       </c>
       <c r="D152" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E152" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3809,16 +3800,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C153">
-        <v>90.795</v>
+        <v>93.878</v>
       </c>
       <c r="D153" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E153" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3826,16 +3817,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C154">
-        <v>120</v>
+        <v>94.002</v>
       </c>
       <c r="D154" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E154" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3843,16 +3834,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C155">
-        <v>104.255</v>
+        <v>96.8</v>
       </c>
       <c r="D155" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E155" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3860,16 +3851,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C156">
-        <v>102.314</v>
+        <v>155.102</v>
       </c>
       <c r="D156" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E156" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3877,16 +3868,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C157">
-        <v>104.49</v>
+        <v>97.015</v>
       </c>
       <c r="D157" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E157" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3894,16 +3885,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C158">
-        <v>155.102</v>
+        <v>49.099</v>
       </c>
       <c r="D158" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E158" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3911,16 +3902,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C159">
-        <v>112.903</v>
+        <v>86.813</v>
       </c>
       <c r="D159" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E159" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3928,16 +3919,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C160">
-        <v>113.208</v>
+        <v>144.444</v>
       </c>
       <c r="D160" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E160" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3945,16 +3936,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C161">
-        <v>93.333</v>
+        <v>92.063</v>
       </c>
       <c r="D161" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E161" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3962,16 +3953,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C162">
-        <v>144.444</v>
+        <v>81.15900000000001</v>
       </c>
       <c r="D162" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E162" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3979,16 +3970,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C163">
-        <v>112.069</v>
+        <v>107.033</v>
       </c>
       <c r="D163" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E163" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3996,16 +3987,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C164">
-        <v>111.111</v>
+        <v>79.163</v>
       </c>
       <c r="D164" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E164" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4013,16 +4004,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C165">
-        <v>86.313</v>
+        <v>104.819</v>
       </c>
       <c r="D165" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E165" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4030,16 +4021,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C166">
-        <v>60.895</v>
+        <v>95.45</v>
       </c>
       <c r="D166" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E166" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4047,16 +4038,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C167">
-        <v>107.229</v>
+        <v>100.99</v>
       </c>
       <c r="D167" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E167" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4064,16 +4055,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C168">
-        <v>111.477</v>
+        <v>85.242</v>
       </c>
       <c r="D168" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E168" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4081,16 +4072,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C169">
-        <v>109.184</v>
+        <v>102.258</v>
       </c>
       <c r="D169" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E169" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4098,16 +4089,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C170">
-        <v>90.187</v>
+        <v>93.48099999999999</v>
       </c>
       <c r="D170" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E170" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4115,16 +4106,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C171">
-        <v>121.477</v>
+        <v>82.178</v>
       </c>
       <c r="D171" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E171" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4132,16 +4123,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C172">
-        <v>104.45</v>
+        <v>93.97199999999999</v>
       </c>
       <c r="D172" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E172" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4149,16 +4140,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C173">
-        <v>96.774</v>
+        <v>122.581</v>
       </c>
       <c r="D173" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E173" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4166,16 +4157,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C174">
-        <v>99.18899999999999</v>
+        <v>82.60899999999999</v>
       </c>
       <c r="D174" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E174" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4183,16 +4174,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C175">
-        <v>122.581</v>
+        <v>180</v>
       </c>
       <c r="D175" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E175" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4200,16 +4191,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C176">
-        <v>86.95699999999999</v>
+        <v>83.333</v>
       </c>
       <c r="D176" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E176" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4217,16 +4208,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C177">
-        <v>180</v>
+        <v>93.333</v>
       </c>
       <c r="D177" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E177" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4234,16 +4225,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C178">
-        <v>100</v>
+        <v>109.694</v>
       </c>
       <c r="D178" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E178" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4251,16 +4242,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C179">
-        <v>107.143</v>
+        <v>96.386</v>
       </c>
       <c r="D179" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E179" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4268,16 +4259,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C180">
-        <v>135.789</v>
+        <v>96.97</v>
       </c>
       <c r="D180" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E180" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4285,16 +4276,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C181">
-        <v>108.075</v>
+        <v>91.304</v>
       </c>
       <c r="D181" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E181" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4302,16 +4293,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C182">
-        <v>103.125</v>
+        <v>71.154</v>
       </c>
       <c r="D182" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E182" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4319,16 +4310,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C183">
-        <v>109.524</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="D183" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E183" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4336,16 +4327,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C184">
-        <v>104.819</v>
+        <v>92.661</v>
       </c>
       <c r="D184" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E184" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4353,16 +4344,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C185">
-        <v>67.45999999999999</v>
+        <v>144.737</v>
       </c>
       <c r="D185" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E185" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4370,16 +4361,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C186">
-        <v>107.619</v>
+        <v>101.343</v>
       </c>
       <c r="D186" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E186" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4387,16 +4378,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C187">
-        <v>144.737</v>
+        <v>111.842</v>
       </c>
       <c r="D187" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E187" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4404,16 +4395,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C188">
-        <v>103.802</v>
+        <v>100</v>
       </c>
       <c r="D188" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E188" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4421,16 +4412,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C189">
-        <v>111.842</v>
+        <v>63.077</v>
       </c>
       <c r="D189" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E189" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4438,16 +4429,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C190">
-        <v>105.455</v>
+        <v>155.556</v>
       </c>
       <c r="D190" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E190" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4455,16 +4446,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C191">
-        <v>63.077</v>
+        <v>100</v>
       </c>
       <c r="D191" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E191" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4472,16 +4463,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C192">
-        <v>155.556</v>
+        <v>91.667</v>
       </c>
       <c r="D192" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E192" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4489,16 +4480,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C193">
-        <v>110.345</v>
+        <v>97.77800000000001</v>
       </c>
       <c r="D193" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E193" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4506,16 +4497,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C194">
-        <v>104.167</v>
+        <v>194.118</v>
       </c>
       <c r="D194" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E194" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4523,16 +4514,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C195">
-        <v>109.091</v>
+        <v>94.84999999999999</v>
       </c>
       <c r="D195" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E195" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4540,16 +4531,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C196">
-        <v>194.118</v>
+        <v>90.476</v>
       </c>
       <c r="D196" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E196" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4557,16 +4548,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C197">
-        <v>145.879</v>
+        <v>125.431</v>
       </c>
       <c r="D197" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E197" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4574,16 +4565,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C198">
-        <v>105.263</v>
+        <v>116.667</v>
       </c>
       <c r="D198" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E198" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4591,16 +4582,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C199">
-        <v>125.431</v>
+        <v>101.153</v>
       </c>
       <c r="D199" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E199" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4608,16 +4599,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C200">
-        <v>116.667</v>
+        <v>100</v>
       </c>
       <c r="D200" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E200" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4625,16 +4616,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C201">
-        <v>125.836</v>
+        <v>79.592</v>
       </c>
       <c r="D201" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E201" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4642,16 +4633,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C202">
-        <v>102.128</v>
+        <v>91.607</v>
       </c>
       <c r="D202" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E202" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4659,16 +4650,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C203">
-        <v>96.181</v>
+        <v>94.056</v>
       </c>
       <c r="D203" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E203" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4676,16 +4667,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C204">
-        <v>80.776</v>
+        <v>93.22</v>
       </c>
       <c r="D204" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E204" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4693,16 +4684,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C205">
-        <v>105.839</v>
+        <v>95.098</v>
       </c>
       <c r="D205" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E205" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4710,16 +4701,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C206">
-        <v>96.575</v>
+        <v>100</v>
       </c>
       <c r="D206" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E206" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4727,16 +4718,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C207">
-        <v>101</v>
+        <v>98.077</v>
       </c>
       <c r="D207" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E207" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4744,16 +4735,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C208">
-        <v>106.667</v>
+        <v>86.667</v>
       </c>
       <c r="D208" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E208" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4761,16 +4752,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C209">
-        <v>118</v>
+        <v>91.667</v>
       </c>
       <c r="D209" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E209" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4778,16 +4769,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C210">
-        <v>86.667</v>
+        <v>103.774</v>
       </c>
       <c r="D210" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E210" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4795,16 +4786,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C211">
-        <v>108.333</v>
+        <v>73.684</v>
       </c>
       <c r="D211" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E211" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4812,16 +4803,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C212">
-        <v>100</v>
+        <v>77.575</v>
       </c>
       <c r="D212" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E212" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4829,16 +4820,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C213">
-        <v>117.593</v>
+        <v>97.419</v>
       </c>
       <c r="D213" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E213" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4846,16 +4837,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C214">
-        <v>110.638</v>
+        <v>90.69799999999999</v>
       </c>
       <c r="D214" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E214" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4863,16 +4854,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C215">
-        <v>77.575</v>
+        <v>114.286</v>
       </c>
       <c r="D215" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E215" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4880,16 +4871,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C216">
-        <v>111.486</v>
+        <v>94.565</v>
       </c>
       <c r="D216" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E216" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4897,16 +4888,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C217">
-        <v>111.842</v>
+        <v>138.462</v>
       </c>
       <c r="D217" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E217" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4914,16 +4905,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C218">
-        <v>134.821</v>
+        <v>90</v>
       </c>
       <c r="D218" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E218" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4931,16 +4922,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C219">
-        <v>109.091</v>
+        <v>84.426</v>
       </c>
       <c r="D219" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E219" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4948,16 +4939,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C220">
-        <v>138.462</v>
+        <v>93.503</v>
       </c>
       <c r="D220" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E220" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4965,16 +4956,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C221">
-        <v>97.43600000000001</v>
+        <v>104.299</v>
       </c>
       <c r="D221" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E221" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4982,16 +4973,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C222">
-        <v>103.084</v>
+        <v>100</v>
       </c>
       <c r="D222" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E222" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4999,16 +4990,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C223">
-        <v>116.428</v>
+        <v>90</v>
       </c>
       <c r="D223" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E223" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5016,16 +5007,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C224">
-        <v>104.299</v>
+        <v>97.67400000000001</v>
       </c>
       <c r="D224" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E224" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5033,16 +5024,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C225">
-        <v>95.652</v>
+        <v>105.66</v>
       </c>
       <c r="D225" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E225" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5050,16 +5041,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C226">
-        <v>106</v>
+        <v>96.875</v>
       </c>
       <c r="D226" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E226" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5067,16 +5058,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C227">
-        <v>112.195</v>
+        <v>133.333</v>
       </c>
       <c r="D227" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E227" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5084,16 +5075,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C228">
-        <v>98.113</v>
+        <v>92.30800000000001</v>
       </c>
       <c r="D228" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E228" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5101,16 +5092,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C229">
-        <v>110</v>
+        <v>74.11799999999999</v>
       </c>
       <c r="D229" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E229" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5118,16 +5109,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C230">
-        <v>133.333</v>
+        <v>96.97</v>
       </c>
       <c r="D230" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E230" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5135,16 +5126,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C231">
-        <v>108.333</v>
+        <v>165.657</v>
       </c>
       <c r="D231" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E231" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5152,16 +5143,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C232">
-        <v>80.556</v>
+        <v>93.333</v>
       </c>
       <c r="D232" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E232" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5169,16 +5160,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C233">
-        <v>112.5</v>
+        <v>87.179</v>
       </c>
       <c r="D233" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E233" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5186,16 +5177,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C234">
-        <v>165.657</v>
+        <v>33.529</v>
       </c>
       <c r="D234" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E234" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5203,16 +5194,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C235">
-        <v>121.429</v>
+        <v>95.833</v>
       </c>
       <c r="D235" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E235" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5220,16 +5211,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C236">
-        <v>105.882</v>
+        <v>92.084</v>
       </c>
       <c r="D236" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E236" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5237,16 +5228,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C237">
-        <v>33.529</v>
+        <v>100</v>
       </c>
       <c r="D237" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E237" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5254,16 +5245,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C238">
-        <v>113.043</v>
+        <v>79.83199999999999</v>
       </c>
       <c r="D238" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E238" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5271,16 +5262,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C239">
-        <v>107.049</v>
+        <v>115</v>
       </c>
       <c r="D239" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E239" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5288,16 +5279,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C240">
-        <v>100</v>
+        <v>95.536</v>
       </c>
       <c r="D240" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E240" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5305,16 +5296,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C241">
-        <v>82.143</v>
+        <v>94.825</v>
       </c>
       <c r="D241" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E241" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5322,16 +5313,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C242">
-        <v>115</v>
+        <v>87.083</v>
       </c>
       <c r="D242" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E242" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5339,16 +5330,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C243">
-        <v>105.963</v>
+        <v>100</v>
       </c>
       <c r="D243" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E243" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5356,16 +5347,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C244">
-        <v>111.765</v>
+        <v>100</v>
       </c>
       <c r="D244" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E244" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5373,16 +5364,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C245">
-        <v>105.723</v>
+        <v>85.714</v>
       </c>
       <c r="D245" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E245" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5390,16 +5381,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C246">
-        <v>99.01000000000001</v>
+        <v>115.789</v>
       </c>
       <c r="D246" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E246" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5407,16 +5398,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C247">
-        <v>100</v>
+        <v>133.333</v>
       </c>
       <c r="D247" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E247" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5424,16 +5415,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C248">
-        <v>100</v>
+        <v>131.579</v>
       </c>
       <c r="D248" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E248" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5441,16 +5432,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C249">
-        <v>143.59</v>
+        <v>77.143</v>
       </c>
       <c r="D249" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E249" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5458,16 +5449,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C250">
-        <v>133.333</v>
+        <v>95.833</v>
       </c>
       <c r="D250" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E250" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5475,16 +5466,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C251">
-        <v>131.579</v>
+        <v>100</v>
       </c>
       <c r="D251" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E251" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5492,16 +5483,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C252">
-        <v>108</v>
+        <v>99.715</v>
       </c>
       <c r="D252" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E252" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5509,16 +5500,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C253">
-        <v>122.727</v>
+        <v>103.192</v>
       </c>
       <c r="D253" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E253" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5526,16 +5517,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C254">
-        <v>105.556</v>
+        <v>107.283</v>
       </c>
       <c r="D254" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E254" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5543,16 +5534,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C255">
-        <v>119.195</v>
+        <v>102.326</v>
       </c>
       <c r="D255" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E255" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5560,16 +5551,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C256">
-        <v>103.192</v>
+        <v>122.727</v>
       </c>
       <c r="D256" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E256" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5577,16 +5568,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C257">
-        <v>107.283</v>
+        <v>97.354</v>
       </c>
       <c r="D257" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E257" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5594,16 +5585,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C258">
-        <v>114.409</v>
+        <v>83.333</v>
       </c>
       <c r="D258" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E258" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5611,16 +5602,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C259">
-        <v>122.727</v>
+        <v>90.476</v>
       </c>
       <c r="D259" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E259" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5628,16 +5619,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="C260">
-        <v>96.786</v>
+        <v>109.091</v>
       </c>
       <c r="D260" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E260" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5645,16 +5636,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="C261">
-        <v>82.35299999999999</v>
+        <v>99.251</v>
       </c>
       <c r="D261" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E261" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5662,16 +5653,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C262">
-        <v>105</v>
+        <v>104.054</v>
       </c>
       <c r="D262" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E262" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5679,16 +5670,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C263">
-        <v>109.091</v>
+        <v>106.522</v>
       </c>
       <c r="D263" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E263" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5696,16 +5687,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C264">
-        <v>101.521</v>
+        <v>94.366</v>
       </c>
       <c r="D264" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E264" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5713,16 +5704,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C265">
-        <v>111.111</v>
+        <v>96.40000000000001</v>
       </c>
       <c r="D265" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E265" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5730,16 +5721,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C266">
-        <v>102.128</v>
+        <v>95.626</v>
       </c>
       <c r="D266" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E266" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5747,16 +5738,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C267">
-        <v>106.569</v>
+        <v>113.333</v>
       </c>
       <c r="D267" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E267" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5764,16 +5755,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C268">
-        <v>116.304</v>
+        <v>95.90300000000001</v>
       </c>
       <c r="D268" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E268" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5781,16 +5772,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="C269">
-        <v>107.058</v>
+        <v>92.127</v>
       </c>
       <c r="D269" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E269" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5798,67 +5789,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="C270">
-        <v>132.143</v>
+        <v>100</v>
       </c>
       <c r="D270" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="E270" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" t="s">
-        <v>274</v>
-      </c>
-      <c r="B271" t="s">
-        <v>277</v>
-      </c>
-      <c r="C271">
-        <v>106.968</v>
-      </c>
-      <c r="D271" t="s">
-        <v>279</v>
-      </c>
-      <c r="E271" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" t="s">
-        <v>275</v>
-      </c>
-      <c r="B272" t="s">
-        <v>277</v>
-      </c>
-      <c r="C272">
-        <v>109.495</v>
-      </c>
-      <c r="D272" t="s">
-        <v>279</v>
-      </c>
-      <c r="E272" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" t="s">
-        <v>276</v>
-      </c>
-      <c r="B273" t="s">
-        <v>277</v>
-      </c>
-      <c r="C273">
-        <v>108</v>
-      </c>
-      <c r="D273" t="s">
-        <v>279</v>
-      </c>
-      <c r="E273" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -1236,7 +1236,7 @@
         <v>274</v>
       </c>
       <c r="C2">
-        <v>91.803</v>
+        <v>93.443</v>
       </c>
       <c r="D2" t="s">
         <v>276</v>
@@ -1253,7 +1253,7 @@
         <v>274</v>
       </c>
       <c r="C3">
-        <v>85.101</v>
+        <v>85.34</v>
       </c>
       <c r="D3" t="s">
         <v>276</v>
@@ -1270,7 +1270,7 @@
         <v>275</v>
       </c>
       <c r="C4">
-        <v>106.25</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>276</v>
@@ -1287,7 +1287,7 @@
         <v>274</v>
       </c>
       <c r="C5">
-        <v>98.187</v>
+        <v>95.152</v>
       </c>
       <c r="D5" t="s">
         <v>276</v>
@@ -1304,7 +1304,7 @@
         <v>274</v>
       </c>
       <c r="C6">
-        <v>95.122</v>
+        <v>92.68300000000001</v>
       </c>
       <c r="D6" t="s">
         <v>276</v>
@@ -1321,7 +1321,7 @@
         <v>274</v>
       </c>
       <c r="C7">
-        <v>88.235</v>
+        <v>94.11799999999999</v>
       </c>
       <c r="D7" t="s">
         <v>276</v>
@@ -1389,7 +1389,7 @@
         <v>274</v>
       </c>
       <c r="C11">
-        <v>91.176</v>
+        <v>94.11799999999999</v>
       </c>
       <c r="D11" t="s">
         <v>276</v>
@@ -1406,7 +1406,7 @@
         <v>274</v>
       </c>
       <c r="C12">
-        <v>91.628</v>
+        <v>79.032</v>
       </c>
       <c r="D12" t="s">
         <v>276</v>
@@ -1423,7 +1423,7 @@
         <v>274</v>
       </c>
       <c r="C13">
-        <v>88.889</v>
+        <v>86.111</v>
       </c>
       <c r="D13" t="s">
         <v>276</v>
@@ -1440,7 +1440,7 @@
         <v>274</v>
       </c>
       <c r="C14">
-        <v>92.398</v>
+        <v>92.35299999999999</v>
       </c>
       <c r="D14" t="s">
         <v>276</v>
@@ -1488,10 +1488,10 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C17">
-        <v>98.119</v>
+        <v>100.654</v>
       </c>
       <c r="D17" t="s">
         <v>276</v>
@@ -1525,7 +1525,7 @@
         <v>274</v>
       </c>
       <c r="C19">
-        <v>97.91200000000001</v>
+        <v>99.577</v>
       </c>
       <c r="D19" t="s">
         <v>276</v>
@@ -1542,7 +1542,7 @@
         <v>274</v>
       </c>
       <c r="C20">
-        <v>91.908</v>
+        <v>90.857</v>
       </c>
       <c r="D20" t="s">
         <v>276</v>
@@ -1627,7 +1627,7 @@
         <v>274</v>
       </c>
       <c r="C25">
-        <v>83.333</v>
+        <v>85.76900000000001</v>
       </c>
       <c r="D25" t="s">
         <v>276</v>
@@ -1644,7 +1644,7 @@
         <v>275</v>
       </c>
       <c r="C26">
-        <v>106.369</v>
+        <v>105.079</v>
       </c>
       <c r="D26" t="s">
         <v>276</v>
@@ -1695,7 +1695,7 @@
         <v>275</v>
       </c>
       <c r="C29">
-        <v>108.798</v>
+        <v>104.202</v>
       </c>
       <c r="D29" t="s">
         <v>276</v>
@@ -1712,7 +1712,7 @@
         <v>274</v>
       </c>
       <c r="C30">
-        <v>87.428</v>
+        <v>81.983</v>
       </c>
       <c r="D30" t="s">
         <v>276</v>
@@ -1729,7 +1729,7 @@
         <v>274</v>
       </c>
       <c r="C31">
-        <v>95.73099999999999</v>
+        <v>94.04000000000001</v>
       </c>
       <c r="D31" t="s">
         <v>276</v>
@@ -1746,7 +1746,7 @@
         <v>274</v>
       </c>
       <c r="C32">
-        <v>90</v>
+        <v>95</v>
       </c>
       <c r="D32" t="s">
         <v>276</v>
@@ -1760,10 +1760,10 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C33">
-        <v>101.389</v>
+        <v>96</v>
       </c>
       <c r="D33" t="s">
         <v>276</v>
@@ -1780,7 +1780,7 @@
         <v>274</v>
       </c>
       <c r="C34">
-        <v>87.349</v>
+        <v>82.78</v>
       </c>
       <c r="D34" t="s">
         <v>276</v>
@@ -1797,7 +1797,7 @@
         <v>275</v>
       </c>
       <c r="C35">
-        <v>124.757</v>
+        <v>125.163</v>
       </c>
       <c r="D35" t="s">
         <v>276</v>
@@ -1814,7 +1814,7 @@
         <v>274</v>
       </c>
       <c r="C36">
-        <v>97.67400000000001</v>
+        <v>99.417</v>
       </c>
       <c r="D36" t="s">
         <v>276</v>
@@ -1831,7 +1831,7 @@
         <v>274</v>
       </c>
       <c r="C37">
-        <v>92</v>
+        <v>84.61499999999999</v>
       </c>
       <c r="D37" t="s">
         <v>276</v>
@@ -1848,7 +1848,7 @@
         <v>274</v>
       </c>
       <c r="C38">
-        <v>72.997</v>
+        <v>72.40900000000001</v>
       </c>
       <c r="D38" t="s">
         <v>276</v>
@@ -1865,7 +1865,7 @@
         <v>274</v>
       </c>
       <c r="C39">
-        <v>94.91500000000001</v>
+        <v>93.22</v>
       </c>
       <c r="D39" t="s">
         <v>276</v>
@@ -1882,7 +1882,7 @@
         <v>275</v>
       </c>
       <c r="C40">
-        <v>110.562</v>
+        <v>103.778</v>
       </c>
       <c r="D40" t="s">
         <v>276</v>
@@ -1916,7 +1916,7 @@
         <v>274</v>
       </c>
       <c r="C42">
-        <v>95.693</v>
+        <v>97.13</v>
       </c>
       <c r="D42" t="s">
         <v>276</v>
@@ -1933,7 +1933,7 @@
         <v>274</v>
       </c>
       <c r="C43">
-        <v>96.491</v>
+        <v>94.828</v>
       </c>
       <c r="D43" t="s">
         <v>276</v>
@@ -1967,7 +1967,7 @@
         <v>274</v>
       </c>
       <c r="C45">
-        <v>86.551</v>
+        <v>84.42700000000001</v>
       </c>
       <c r="D45" t="s">
         <v>276</v>
@@ -2001,7 +2001,7 @@
         <v>274</v>
       </c>
       <c r="C47">
-        <v>76.794</v>
+        <v>71.629</v>
       </c>
       <c r="D47" t="s">
         <v>276</v>
@@ -2018,7 +2018,7 @@
         <v>274</v>
       </c>
       <c r="C48">
-        <v>86.571</v>
+        <v>83.175</v>
       </c>
       <c r="D48" t="s">
         <v>276</v>
@@ -2035,7 +2035,7 @@
         <v>274</v>
       </c>
       <c r="C49">
-        <v>89.583</v>
+        <v>89.36199999999999</v>
       </c>
       <c r="D49" t="s">
         <v>276</v>
@@ -2052,7 +2052,7 @@
         <v>275</v>
       </c>
       <c r="C50">
-        <v>106.436</v>
+        <v>107.65</v>
       </c>
       <c r="D50" t="s">
         <v>276</v>
@@ -2066,10 +2066,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C51">
-        <v>99.795</v>
+        <v>100.205</v>
       </c>
       <c r="D51" t="s">
         <v>276</v>
@@ -2103,7 +2103,7 @@
         <v>274</v>
       </c>
       <c r="C53">
-        <v>87.383</v>
+        <v>89.31100000000001</v>
       </c>
       <c r="D53" t="s">
         <v>276</v>
@@ -2120,7 +2120,7 @@
         <v>274</v>
       </c>
       <c r="C54">
-        <v>92.401</v>
+        <v>93.48399999999999</v>
       </c>
       <c r="D54" t="s">
         <v>276</v>
@@ -2137,7 +2137,7 @@
         <v>274</v>
       </c>
       <c r="C55">
-        <v>98.824</v>
+        <v>96.471</v>
       </c>
       <c r="D55" t="s">
         <v>276</v>
@@ -2171,7 +2171,7 @@
         <v>275</v>
       </c>
       <c r="C57">
-        <v>109.091</v>
+        <v>106.25</v>
       </c>
       <c r="D57" t="s">
         <v>276</v>
@@ -2188,7 +2188,7 @@
         <v>274</v>
       </c>
       <c r="C58">
-        <v>95.551</v>
+        <v>94.08</v>
       </c>
       <c r="D58" t="s">
         <v>276</v>
@@ -2205,7 +2205,7 @@
         <v>275</v>
       </c>
       <c r="C59">
-        <v>104.225</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
         <v>276</v>
@@ -2256,7 +2256,7 @@
         <v>274</v>
       </c>
       <c r="C62">
-        <v>82.60899999999999</v>
+        <v>86.364</v>
       </c>
       <c r="D62" t="s">
         <v>276</v>
@@ -2273,7 +2273,7 @@
         <v>274</v>
       </c>
       <c r="C63">
-        <v>97.63500000000001</v>
+        <v>95.777</v>
       </c>
       <c r="D63" t="s">
         <v>276</v>
@@ -2307,7 +2307,7 @@
         <v>275</v>
       </c>
       <c r="C65">
-        <v>109.744</v>
+        <v>110.5</v>
       </c>
       <c r="D65" t="s">
         <v>276</v>
@@ -2341,7 +2341,7 @@
         <v>274</v>
       </c>
       <c r="C67">
-        <v>90.11</v>
+        <v>92.13500000000001</v>
       </c>
       <c r="D67" t="s">
         <v>276</v>
@@ -2358,7 +2358,7 @@
         <v>275</v>
       </c>
       <c r="C68">
-        <v>103.659</v>
+        <v>104.819</v>
       </c>
       <c r="D68" t="s">
         <v>276</v>
@@ -2372,10 +2372,10 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C69">
-        <v>100</v>
+        <v>92.857</v>
       </c>
       <c r="D69" t="s">
         <v>276</v>
@@ -2392,7 +2392,7 @@
         <v>274</v>
       </c>
       <c r="C70">
-        <v>77.77800000000001</v>
+        <v>72.22199999999999</v>
       </c>
       <c r="D70" t="s">
         <v>276</v>
@@ -2409,7 +2409,7 @@
         <v>274</v>
       </c>
       <c r="C71">
-        <v>64.444</v>
+        <v>71.429</v>
       </c>
       <c r="D71" t="s">
         <v>276</v>
@@ -2426,7 +2426,7 @@
         <v>275</v>
       </c>
       <c r="C72">
-        <v>105.195</v>
+        <v>110.882</v>
       </c>
       <c r="D72" t="s">
         <v>276</v>
@@ -2460,7 +2460,7 @@
         <v>274</v>
       </c>
       <c r="C74">
-        <v>90.476</v>
+        <v>95.238</v>
       </c>
       <c r="D74" t="s">
         <v>276</v>
@@ -2477,7 +2477,7 @@
         <v>274</v>
       </c>
       <c r="C75">
-        <v>98.402</v>
+        <v>99.71299999999999</v>
       </c>
       <c r="D75" t="s">
         <v>276</v>
@@ -2494,7 +2494,7 @@
         <v>274</v>
       </c>
       <c r="C76">
-        <v>89.13</v>
+        <v>90.809</v>
       </c>
       <c r="D76" t="s">
         <v>276</v>
@@ -2511,7 +2511,7 @@
         <v>274</v>
       </c>
       <c r="C77">
-        <v>90.05200000000001</v>
+        <v>91.398</v>
       </c>
       <c r="D77" t="s">
         <v>276</v>
@@ -2528,7 +2528,7 @@
         <v>274</v>
       </c>
       <c r="C78">
-        <v>96.29600000000001</v>
+        <v>94.702</v>
       </c>
       <c r="D78" t="s">
         <v>276</v>
@@ -2542,10 +2542,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C79">
-        <v>97.43600000000001</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
         <v>276</v>
@@ -2579,7 +2579,7 @@
         <v>274</v>
       </c>
       <c r="C81">
-        <v>92.643</v>
+        <v>93.35299999999999</v>
       </c>
       <c r="D81" t="s">
         <v>276</v>
@@ -2596,7 +2596,7 @@
         <v>275</v>
       </c>
       <c r="C82">
-        <v>107.895</v>
+        <v>105.263</v>
       </c>
       <c r="D82" t="s">
         <v>276</v>
@@ -2630,7 +2630,7 @@
         <v>274</v>
       </c>
       <c r="C84">
-        <v>84.61499999999999</v>
+        <v>88.41500000000001</v>
       </c>
       <c r="D84" t="s">
         <v>276</v>
@@ -2664,7 +2664,7 @@
         <v>274</v>
       </c>
       <c r="C86">
-        <v>93.867</v>
+        <v>95.27800000000001</v>
       </c>
       <c r="D86" t="s">
         <v>276</v>
@@ -2698,7 +2698,7 @@
         <v>274</v>
       </c>
       <c r="C88">
-        <v>93.47799999999999</v>
+        <v>95.556</v>
       </c>
       <c r="D88" t="s">
         <v>276</v>
@@ -2712,10 +2712,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C89">
-        <v>96.298</v>
+        <v>101.002</v>
       </c>
       <c r="D89" t="s">
         <v>276</v>
@@ -2732,7 +2732,7 @@
         <v>274</v>
       </c>
       <c r="C90">
-        <v>93.694</v>
+        <v>90.435</v>
       </c>
       <c r="D90" t="s">
         <v>276</v>
@@ -2749,7 +2749,7 @@
         <v>275</v>
       </c>
       <c r="C91">
-        <v>112.121</v>
+        <v>122.925</v>
       </c>
       <c r="D91" t="s">
         <v>276</v>
@@ -2766,7 +2766,7 @@
         <v>274</v>
       </c>
       <c r="C92">
-        <v>96.899</v>
+        <v>98.14400000000001</v>
       </c>
       <c r="D92" t="s">
         <v>276</v>
@@ -2783,7 +2783,7 @@
         <v>275</v>
       </c>
       <c r="C93">
-        <v>172.857</v>
+        <v>163.889</v>
       </c>
       <c r="D93" t="s">
         <v>276</v>
@@ -2800,7 +2800,7 @@
         <v>274</v>
       </c>
       <c r="C94">
-        <v>63.617</v>
+        <v>67.462</v>
       </c>
       <c r="D94" t="s">
         <v>276</v>
@@ -2817,7 +2817,7 @@
         <v>274</v>
       </c>
       <c r="C95">
-        <v>80.488</v>
+        <v>82.307</v>
       </c>
       <c r="D95" t="s">
         <v>276</v>
@@ -2834,7 +2834,7 @@
         <v>274</v>
       </c>
       <c r="C96">
-        <v>97</v>
+        <v>97.98</v>
       </c>
       <c r="D96" t="s">
         <v>276</v>
@@ -2851,7 +2851,7 @@
         <v>274</v>
       </c>
       <c r="C97">
-        <v>92.746</v>
+        <v>91.45099999999999</v>
       </c>
       <c r="D97" t="s">
         <v>276</v>
@@ -2885,7 +2885,7 @@
         <v>274</v>
       </c>
       <c r="C99">
-        <v>92.68300000000001</v>
+        <v>92.5</v>
       </c>
       <c r="D99" t="s">
         <v>276</v>
@@ -2902,7 +2902,7 @@
         <v>274</v>
       </c>
       <c r="C100">
-        <v>95.539</v>
+        <v>94.834</v>
       </c>
       <c r="D100" t="s">
         <v>276</v>
@@ -2916,10 +2916,10 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C101">
-        <v>99.13</v>
+        <v>102.212</v>
       </c>
       <c r="D101" t="s">
         <v>276</v>
@@ -2936,7 +2936,7 @@
         <v>274</v>
       </c>
       <c r="C102">
-        <v>86.111</v>
+        <v>86.486</v>
       </c>
       <c r="D102" t="s">
         <v>276</v>
@@ -2950,10 +2950,10 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C103">
-        <v>100</v>
+        <v>91.667</v>
       </c>
       <c r="D103" t="s">
         <v>276</v>
@@ -2970,7 +2970,7 @@
         <v>274</v>
       </c>
       <c r="C104">
-        <v>91.86</v>
+        <v>93.413</v>
       </c>
       <c r="D104" t="s">
         <v>276</v>
@@ -2987,7 +2987,7 @@
         <v>274</v>
       </c>
       <c r="C105">
-        <v>93.506</v>
+        <v>95.946</v>
       </c>
       <c r="D105" t="s">
         <v>276</v>
@@ -3004,7 +3004,7 @@
         <v>275</v>
       </c>
       <c r="C106">
-        <v>104.358</v>
+        <v>102.138</v>
       </c>
       <c r="D106" t="s">
         <v>276</v>
@@ -3021,7 +3021,7 @@
         <v>274</v>
       </c>
       <c r="C107">
-        <v>95.652</v>
+        <v>95.833</v>
       </c>
       <c r="D107" t="s">
         <v>276</v>
@@ -3055,7 +3055,7 @@
         <v>275</v>
       </c>
       <c r="C109">
-        <v>102.718</v>
+        <v>102.808</v>
       </c>
       <c r="D109" t="s">
         <v>276</v>
@@ -3072,7 +3072,7 @@
         <v>274</v>
       </c>
       <c r="C110">
-        <v>73.45399999999999</v>
+        <v>70.262</v>
       </c>
       <c r="D110" t="s">
         <v>276</v>
@@ -3089,7 +3089,7 @@
         <v>275</v>
       </c>
       <c r="C111">
-        <v>110.046</v>
+        <v>111.682</v>
       </c>
       <c r="D111" t="s">
         <v>276</v>
@@ -3140,7 +3140,7 @@
         <v>275</v>
       </c>
       <c r="C114">
-        <v>103.571</v>
+        <v>101.77</v>
       </c>
       <c r="D114" t="s">
         <v>276</v>
@@ -3157,7 +3157,7 @@
         <v>274</v>
       </c>
       <c r="C115">
-        <v>93.75</v>
+        <v>95.833</v>
       </c>
       <c r="D115" t="s">
         <v>276</v>
@@ -3191,7 +3191,7 @@
         <v>275</v>
       </c>
       <c r="C117">
-        <v>120.755</v>
+        <v>116.667</v>
       </c>
       <c r="D117" t="s">
         <v>276</v>
@@ -3208,7 +3208,7 @@
         <v>274</v>
       </c>
       <c r="C118">
-        <v>92.404</v>
+        <v>90.539</v>
       </c>
       <c r="D118" t="s">
         <v>276</v>
@@ -3225,7 +3225,7 @@
         <v>274</v>
       </c>
       <c r="C119">
-        <v>84.37</v>
+        <v>86.47799999999999</v>
       </c>
       <c r="D119" t="s">
         <v>276</v>
@@ -3259,7 +3259,7 @@
         <v>274</v>
       </c>
       <c r="C121">
-        <v>86.598</v>
+        <v>92.265</v>
       </c>
       <c r="D121" t="s">
         <v>276</v>
@@ -3327,7 +3327,7 @@
         <v>274</v>
       </c>
       <c r="C125">
-        <v>94.73699999999999</v>
+        <v>93.919</v>
       </c>
       <c r="D125" t="s">
         <v>276</v>
@@ -3344,7 +3344,7 @@
         <v>275</v>
       </c>
       <c r="C126">
-        <v>110.417</v>
+        <v>104.082</v>
       </c>
       <c r="D126" t="s">
         <v>276</v>
@@ -3378,7 +3378,7 @@
         <v>274</v>
       </c>
       <c r="C128">
-        <v>98.30800000000001</v>
+        <v>95.652</v>
       </c>
       <c r="D128" t="s">
         <v>276</v>
@@ -3395,7 +3395,7 @@
         <v>274</v>
       </c>
       <c r="C129">
-        <v>91.667</v>
+        <v>95.652</v>
       </c>
       <c r="D129" t="s">
         <v>276</v>
@@ -3429,7 +3429,7 @@
         <v>274</v>
       </c>
       <c r="C131">
-        <v>78.027</v>
+        <v>82.556</v>
       </c>
       <c r="D131" t="s">
         <v>276</v>
@@ -3446,7 +3446,7 @@
         <v>275</v>
       </c>
       <c r="C132">
-        <v>113.115</v>
+        <v>111.667</v>
       </c>
       <c r="D132" t="s">
         <v>276</v>
@@ -3463,7 +3463,7 @@
         <v>274</v>
       </c>
       <c r="C133">
-        <v>83.562</v>
+        <v>73.663</v>
       </c>
       <c r="D133" t="s">
         <v>276</v>
@@ -3497,7 +3497,7 @@
         <v>274</v>
       </c>
       <c r="C135">
-        <v>90.90900000000001</v>
+        <v>86.95699999999999</v>
       </c>
       <c r="D135" t="s">
         <v>276</v>
@@ -3531,7 +3531,7 @@
         <v>275</v>
       </c>
       <c r="C137">
-        <v>106.905</v>
+        <v>103.571</v>
       </c>
       <c r="D137" t="s">
         <v>276</v>
@@ -3562,10 +3562,10 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C139">
-        <v>103.876</v>
+        <v>96.40300000000001</v>
       </c>
       <c r="D139" t="s">
         <v>276</v>
@@ -3582,7 +3582,7 @@
         <v>274</v>
       </c>
       <c r="C140">
-        <v>62.963</v>
+        <v>65.38500000000001</v>
       </c>
       <c r="D140" t="s">
         <v>276</v>
@@ -3616,7 +3616,7 @@
         <v>275</v>
       </c>
       <c r="C142">
-        <v>109.677</v>
+        <v>112.088</v>
       </c>
       <c r="D142" t="s">
         <v>276</v>
@@ -3633,7 +3633,7 @@
         <v>274</v>
       </c>
       <c r="C143">
-        <v>97.886</v>
+        <v>96.746</v>
       </c>
       <c r="D143" t="s">
         <v>276</v>
@@ -3650,7 +3650,7 @@
         <v>275</v>
       </c>
       <c r="C144">
-        <v>112.209</v>
+        <v>114.834</v>
       </c>
       <c r="D144" t="s">
         <v>276</v>
@@ -3664,10 +3664,10 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C145">
-        <v>97.13200000000001</v>
+        <v>102.306</v>
       </c>
       <c r="D145" t="s">
         <v>276</v>
@@ -3684,7 +3684,7 @@
         <v>274</v>
       </c>
       <c r="C146">
-        <v>84.61499999999999</v>
+        <v>83.00700000000001</v>
       </c>
       <c r="D146" t="s">
         <v>276</v>
@@ -3701,7 +3701,7 @@
         <v>274</v>
       </c>
       <c r="C147">
-        <v>91.645</v>
+        <v>90.84</v>
       </c>
       <c r="D147" t="s">
         <v>276</v>
@@ -3718,7 +3718,7 @@
         <v>274</v>
       </c>
       <c r="C148">
-        <v>91.667</v>
+        <v>73.684</v>
       </c>
       <c r="D148" t="s">
         <v>276</v>
@@ -3735,7 +3735,7 @@
         <v>275</v>
       </c>
       <c r="C149">
-        <v>108.511</v>
+        <v>110.87</v>
       </c>
       <c r="D149" t="s">
         <v>276</v>
@@ -3752,7 +3752,7 @@
         <v>274</v>
       </c>
       <c r="C150">
-        <v>94.64100000000001</v>
+        <v>94.551</v>
       </c>
       <c r="D150" t="s">
         <v>276</v>
@@ -3783,10 +3783,10 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C152">
-        <v>96.429</v>
+        <v>100</v>
       </c>
       <c r="D152" t="s">
         <v>276</v>
@@ -3803,7 +3803,7 @@
         <v>274</v>
       </c>
       <c r="C153">
-        <v>93.878</v>
+        <v>92.929</v>
       </c>
       <c r="D153" t="s">
         <v>276</v>
@@ -3820,7 +3820,7 @@
         <v>274</v>
       </c>
       <c r="C154">
-        <v>94.002</v>
+        <v>94.946</v>
       </c>
       <c r="D154" t="s">
         <v>276</v>
@@ -3834,10 +3834,10 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C155">
-        <v>96.8</v>
+        <v>116.393</v>
       </c>
       <c r="D155" t="s">
         <v>276</v>
@@ -3888,7 +3888,7 @@
         <v>274</v>
       </c>
       <c r="C158">
-        <v>49.099</v>
+        <v>48.458</v>
       </c>
       <c r="D158" t="s">
         <v>276</v>
@@ -3905,7 +3905,7 @@
         <v>274</v>
       </c>
       <c r="C159">
-        <v>86.813</v>
+        <v>86.667</v>
       </c>
       <c r="D159" t="s">
         <v>276</v>
@@ -3939,7 +3939,7 @@
         <v>274</v>
       </c>
       <c r="C161">
-        <v>92.063</v>
+        <v>90.625</v>
       </c>
       <c r="D161" t="s">
         <v>276</v>
@@ -3973,7 +3973,7 @@
         <v>275</v>
       </c>
       <c r="C163">
-        <v>107.033</v>
+        <v>101.891</v>
       </c>
       <c r="D163" t="s">
         <v>276</v>
@@ -3990,7 +3990,7 @@
         <v>274</v>
       </c>
       <c r="C164">
-        <v>79.163</v>
+        <v>78.39700000000001</v>
       </c>
       <c r="D164" t="s">
         <v>276</v>
@@ -4007,7 +4007,7 @@
         <v>275</v>
       </c>
       <c r="C165">
-        <v>104.819</v>
+        <v>102.381</v>
       </c>
       <c r="D165" t="s">
         <v>276</v>
@@ -4024,7 +4024,7 @@
         <v>274</v>
       </c>
       <c r="C166">
-        <v>95.45</v>
+        <v>95.417</v>
       </c>
       <c r="D166" t="s">
         <v>276</v>
@@ -4075,7 +4075,7 @@
         <v>275</v>
       </c>
       <c r="C169">
-        <v>102.258</v>
+        <v>101.286</v>
       </c>
       <c r="D169" t="s">
         <v>276</v>
@@ -4092,7 +4092,7 @@
         <v>274</v>
       </c>
       <c r="C170">
-        <v>93.48099999999999</v>
+        <v>94.242</v>
       </c>
       <c r="D170" t="s">
         <v>276</v>
@@ -4109,7 +4109,7 @@
         <v>274</v>
       </c>
       <c r="C171">
-        <v>82.178</v>
+        <v>83</v>
       </c>
       <c r="D171" t="s">
         <v>276</v>
@@ -4123,10 +4123,10 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C172">
-        <v>93.97199999999999</v>
+        <v>100.604</v>
       </c>
       <c r="D172" t="s">
         <v>276</v>
@@ -4160,7 +4160,7 @@
         <v>274</v>
       </c>
       <c r="C174">
-        <v>82.60899999999999</v>
+        <v>86.364</v>
       </c>
       <c r="D174" t="s">
         <v>276</v>
@@ -4194,7 +4194,7 @@
         <v>274</v>
       </c>
       <c r="C176">
-        <v>83.333</v>
+        <v>88.235</v>
       </c>
       <c r="D176" t="s">
         <v>276</v>
@@ -4228,7 +4228,7 @@
         <v>275</v>
       </c>
       <c r="C178">
-        <v>109.694</v>
+        <v>105.44</v>
       </c>
       <c r="D178" t="s">
         <v>276</v>
@@ -4245,7 +4245,7 @@
         <v>274</v>
       </c>
       <c r="C179">
-        <v>96.386</v>
+        <v>95.783</v>
       </c>
       <c r="D179" t="s">
         <v>276</v>
@@ -4279,7 +4279,7 @@
         <v>274</v>
       </c>
       <c r="C181">
-        <v>91.304</v>
+        <v>95.455</v>
       </c>
       <c r="D181" t="s">
         <v>276</v>
@@ -4296,7 +4296,7 @@
         <v>274</v>
       </c>
       <c r="C182">
-        <v>71.154</v>
+        <v>72.816</v>
       </c>
       <c r="D182" t="s">
         <v>276</v>
@@ -4330,7 +4330,7 @@
         <v>274</v>
       </c>
       <c r="C184">
-        <v>92.661</v>
+        <v>92.79300000000001</v>
       </c>
       <c r="D184" t="s">
         <v>276</v>
@@ -4364,7 +4364,7 @@
         <v>275</v>
       </c>
       <c r="C186">
-        <v>101.343</v>
+        <v>102.336</v>
       </c>
       <c r="D186" t="s">
         <v>276</v>
@@ -4395,10 +4395,10 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C188">
-        <v>100</v>
+        <v>98.148</v>
       </c>
       <c r="D188" t="s">
         <v>276</v>
@@ -4517,7 +4517,7 @@
         <v>274</v>
       </c>
       <c r="C195">
-        <v>94.84999999999999</v>
+        <v>99.532</v>
       </c>
       <c r="D195" t="s">
         <v>276</v>
@@ -4534,7 +4534,7 @@
         <v>274</v>
       </c>
       <c r="C196">
-        <v>90.476</v>
+        <v>95</v>
       </c>
       <c r="D196" t="s">
         <v>276</v>
@@ -4582,10 +4582,10 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C199">
-        <v>101.153</v>
+        <v>96.996</v>
       </c>
       <c r="D199" t="s">
         <v>276</v>
@@ -4599,10 +4599,10 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C200">
-        <v>100</v>
+        <v>94.11799999999999</v>
       </c>
       <c r="D200" t="s">
         <v>276</v>
@@ -4619,7 +4619,7 @@
         <v>274</v>
       </c>
       <c r="C201">
-        <v>79.592</v>
+        <v>85.839</v>
       </c>
       <c r="D201" t="s">
         <v>276</v>
@@ -4636,7 +4636,7 @@
         <v>274</v>
       </c>
       <c r="C202">
-        <v>91.607</v>
+        <v>92.026</v>
       </c>
       <c r="D202" t="s">
         <v>276</v>
@@ -4653,7 +4653,7 @@
         <v>274</v>
       </c>
       <c r="C203">
-        <v>94.056</v>
+        <v>94.425</v>
       </c>
       <c r="D203" t="s">
         <v>276</v>
@@ -4670,7 +4670,7 @@
         <v>274</v>
       </c>
       <c r="C204">
-        <v>93.22</v>
+        <v>94.66500000000001</v>
       </c>
       <c r="D204" t="s">
         <v>276</v>
@@ -4687,7 +4687,7 @@
         <v>274</v>
       </c>
       <c r="C205">
-        <v>95.098</v>
+        <v>94.11799999999999</v>
       </c>
       <c r="D205" t="s">
         <v>276</v>
@@ -4755,7 +4755,7 @@
         <v>274</v>
       </c>
       <c r="C209">
-        <v>91.667</v>
+        <v>84.61499999999999</v>
       </c>
       <c r="D209" t="s">
         <v>276</v>
@@ -4772,7 +4772,7 @@
         <v>275</v>
       </c>
       <c r="C210">
-        <v>103.774</v>
+        <v>102.83</v>
       </c>
       <c r="D210" t="s">
         <v>276</v>
@@ -4789,7 +4789,7 @@
         <v>274</v>
       </c>
       <c r="C211">
-        <v>73.684</v>
+        <v>67.21299999999999</v>
       </c>
       <c r="D211" t="s">
         <v>276</v>
@@ -4823,7 +4823,7 @@
         <v>274</v>
       </c>
       <c r="C213">
-        <v>97.419</v>
+        <v>95.56999999999999</v>
       </c>
       <c r="D213" t="s">
         <v>276</v>
@@ -4840,7 +4840,7 @@
         <v>274</v>
       </c>
       <c r="C214">
-        <v>90.69799999999999</v>
+        <v>89.655</v>
       </c>
       <c r="D214" t="s">
         <v>276</v>
@@ -4857,7 +4857,7 @@
         <v>275</v>
       </c>
       <c r="C215">
-        <v>114.286</v>
+        <v>115.118</v>
       </c>
       <c r="D215" t="s">
         <v>276</v>
@@ -4874,7 +4874,7 @@
         <v>274</v>
       </c>
       <c r="C216">
-        <v>94.565</v>
+        <v>96.703</v>
       </c>
       <c r="D216" t="s">
         <v>276</v>
@@ -4925,7 +4925,7 @@
         <v>274</v>
       </c>
       <c r="C219">
-        <v>84.426</v>
+        <v>82.40000000000001</v>
       </c>
       <c r="D219" t="s">
         <v>276</v>
@@ -4942,7 +4942,7 @@
         <v>274</v>
       </c>
       <c r="C220">
-        <v>93.503</v>
+        <v>95.7</v>
       </c>
       <c r="D220" t="s">
         <v>276</v>
@@ -4973,10 +4973,10 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C222">
-        <v>100</v>
+        <v>95.833</v>
       </c>
       <c r="D222" t="s">
         <v>276</v>
@@ -5010,7 +5010,7 @@
         <v>274</v>
       </c>
       <c r="C224">
-        <v>97.67400000000001</v>
+        <v>95.455</v>
       </c>
       <c r="D224" t="s">
         <v>276</v>
@@ -5024,10 +5024,10 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C225">
-        <v>105.66</v>
+        <v>98.182</v>
       </c>
       <c r="D225" t="s">
         <v>276</v>
@@ -5095,7 +5095,7 @@
         <v>274</v>
       </c>
       <c r="C229">
-        <v>74.11799999999999</v>
+        <v>73.125</v>
       </c>
       <c r="D229" t="s">
         <v>276</v>
@@ -5163,7 +5163,7 @@
         <v>274</v>
       </c>
       <c r="C233">
-        <v>87.179</v>
+        <v>86.325</v>
       </c>
       <c r="D233" t="s">
         <v>276</v>
@@ -5214,7 +5214,7 @@
         <v>274</v>
       </c>
       <c r="C236">
-        <v>92.084</v>
+        <v>91.878</v>
       </c>
       <c r="D236" t="s">
         <v>276</v>
@@ -5248,7 +5248,7 @@
         <v>274</v>
       </c>
       <c r="C238">
-        <v>79.83199999999999</v>
+        <v>78.04900000000001</v>
       </c>
       <c r="D238" t="s">
         <v>276</v>
@@ -5279,10 +5279,10 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C240">
-        <v>95.536</v>
+        <v>100.448</v>
       </c>
       <c r="D240" t="s">
         <v>276</v>
@@ -5299,7 +5299,7 @@
         <v>274</v>
       </c>
       <c r="C241">
-        <v>94.825</v>
+        <v>94.45399999999999</v>
       </c>
       <c r="D241" t="s">
         <v>276</v>
@@ -5316,7 +5316,7 @@
         <v>274</v>
       </c>
       <c r="C242">
-        <v>87.083</v>
+        <v>87.069</v>
       </c>
       <c r="D242" t="s">
         <v>276</v>
@@ -5367,7 +5367,7 @@
         <v>274</v>
       </c>
       <c r="C245">
-        <v>85.714</v>
+        <v>92.30800000000001</v>
       </c>
       <c r="D245" t="s">
         <v>276</v>
@@ -5384,7 +5384,7 @@
         <v>275</v>
       </c>
       <c r="C246">
-        <v>115.789</v>
+        <v>107.895</v>
       </c>
       <c r="D246" t="s">
         <v>276</v>
@@ -5435,7 +5435,7 @@
         <v>274</v>
       </c>
       <c r="C249">
-        <v>77.143</v>
+        <v>75.676</v>
       </c>
       <c r="D249" t="s">
         <v>276</v>
@@ -5449,10 +5449,10 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C250">
-        <v>95.833</v>
+        <v>100</v>
       </c>
       <c r="D250" t="s">
         <v>276</v>
@@ -5483,10 +5483,10 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C252">
-        <v>99.715</v>
+        <v>102.041</v>
       </c>
       <c r="D252" t="s">
         <v>276</v>
@@ -5537,7 +5537,7 @@
         <v>275</v>
       </c>
       <c r="C255">
-        <v>102.326</v>
+        <v>101.472</v>
       </c>
       <c r="D255" t="s">
         <v>276</v>
@@ -5571,7 +5571,7 @@
         <v>274</v>
       </c>
       <c r="C257">
-        <v>97.354</v>
+        <v>93.703</v>
       </c>
       <c r="D257" t="s">
         <v>276</v>
@@ -5588,7 +5588,7 @@
         <v>274</v>
       </c>
       <c r="C258">
-        <v>83.333</v>
+        <v>88.235</v>
       </c>
       <c r="D258" t="s">
         <v>276</v>
@@ -5656,7 +5656,7 @@
         <v>275</v>
       </c>
       <c r="C262">
-        <v>104.054</v>
+        <v>100</v>
       </c>
       <c r="D262" t="s">
         <v>276</v>
@@ -5690,7 +5690,7 @@
         <v>274</v>
       </c>
       <c r="C264">
-        <v>94.366</v>
+        <v>94.40600000000001</v>
       </c>
       <c r="D264" t="s">
         <v>276</v>
@@ -5707,7 +5707,7 @@
         <v>274</v>
       </c>
       <c r="C265">
-        <v>96.40000000000001</v>
+        <v>91.977</v>
       </c>
       <c r="D265" t="s">
         <v>276</v>
@@ -5724,7 +5724,7 @@
         <v>274</v>
       </c>
       <c r="C266">
-        <v>95.626</v>
+        <v>96.98399999999999</v>
       </c>
       <c r="D266" t="s">
         <v>276</v>
@@ -5741,7 +5741,7 @@
         <v>275</v>
       </c>
       <c r="C267">
-        <v>113.333</v>
+        <v>113.793</v>
       </c>
       <c r="D267" t="s">
         <v>276</v>
@@ -5758,7 +5758,7 @@
         <v>274</v>
       </c>
       <c r="C268">
-        <v>95.90300000000001</v>
+        <v>98.479</v>
       </c>
       <c r="D268" t="s">
         <v>276</v>
@@ -5775,7 +5775,7 @@
         <v>274</v>
       </c>
       <c r="C269">
-        <v>92.127</v>
+        <v>92.65000000000001</v>
       </c>
       <c r="D269" t="s">
         <v>276</v>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="278">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="282">
   <si>
     <t>symbol</t>
   </si>
@@ -490,6 +490,9 @@
     <t>LTCUSDT</t>
   </si>
   <si>
+    <t>LTOUSDT</t>
+  </si>
+  <si>
     <t>LUNAUSDT</t>
   </si>
   <si>
@@ -511,6 +514,9 @@
     <t>MBOXUSDT</t>
   </si>
   <si>
+    <t>MDXUSDT</t>
+  </si>
+  <si>
     <t>MINAUSDT</t>
   </si>
   <si>
@@ -592,6 +598,9 @@
     <t>PERPUSDT</t>
   </si>
   <si>
+    <t>PHAUSDT</t>
+  </si>
+  <si>
     <t>PHBUSDT</t>
   </si>
   <si>
@@ -653,6 +662,9 @@
   </si>
   <si>
     <t>RENUSDT</t>
+  </si>
+  <si>
+    <t>REQUSDT</t>
   </si>
   <si>
     <t>RLCUSDT</t>
@@ -1205,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E270"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1233,16 +1245,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C2">
-        <v>93.443</v>
+        <v>87.69199999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1250,16 +1262,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C3">
-        <v>85.34</v>
+        <v>80.127</v>
       </c>
       <c r="D3" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1267,16 +1279,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>105.882</v>
       </c>
       <c r="D4" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1284,16 +1296,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C5">
-        <v>95.152</v>
+        <v>96.06100000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E5" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1301,16 +1313,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C6">
-        <v>92.68300000000001</v>
+        <v>88.095</v>
       </c>
       <c r="D6" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1318,16 +1330,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C7">
         <v>94.11799999999999</v>
       </c>
       <c r="D7" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1335,16 +1347,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C8">
         <v>118.182</v>
       </c>
       <c r="D8" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E8" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1352,16 +1364,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C9">
         <v>98.182</v>
       </c>
       <c r="D9" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E9" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1369,16 +1381,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C10">
         <v>122.222</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E10" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1386,16 +1398,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C11">
-        <v>94.11799999999999</v>
+        <v>89.18899999999999</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E11" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1403,16 +1415,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C12">
-        <v>79.032</v>
+        <v>80.97199999999999</v>
       </c>
       <c r="D12" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E12" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1420,16 +1432,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C13">
-        <v>86.111</v>
+        <v>76.19</v>
       </c>
       <c r="D13" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E13" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1437,16 +1449,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C14">
-        <v>92.35299999999999</v>
+        <v>86.188</v>
       </c>
       <c r="D14" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E14" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1454,16 +1466,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C15">
-        <v>96.55200000000001</v>
+        <v>100</v>
       </c>
       <c r="D15" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E15" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1471,16 +1483,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C16">
-        <v>91.667</v>
+        <v>78.571</v>
       </c>
       <c r="D16" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E16" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1488,16 +1500,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C17">
-        <v>100.654</v>
+        <v>97.11499999999999</v>
       </c>
       <c r="D17" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1505,16 +1517,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C18">
         <v>92.818</v>
       </c>
       <c r="D18" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E18" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1522,16 +1534,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C19">
-        <v>99.577</v>
+        <v>95.349</v>
       </c>
       <c r="D19" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1539,16 +1551,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C20">
-        <v>90.857</v>
+        <v>74.52800000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1556,16 +1568,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C21">
         <v>104.571</v>
       </c>
       <c r="D21" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E21" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1573,16 +1585,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C22">
         <v>108.197</v>
       </c>
       <c r="D22" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E22" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1590,16 +1602,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C23">
         <v>150</v>
       </c>
       <c r="D23" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E23" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1607,16 +1619,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C24">
         <v>129.787</v>
       </c>
       <c r="D24" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E24" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1624,16 +1636,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C25">
-        <v>85.76900000000001</v>
+        <v>66.38</v>
       </c>
       <c r="D25" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E25" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1641,16 +1653,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C26">
-        <v>105.079</v>
+        <v>96.562</v>
       </c>
       <c r="D26" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E26" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1658,16 +1670,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C27">
         <v>172.727</v>
       </c>
       <c r="D27" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E27" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1675,16 +1687,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C28">
-        <v>87.5</v>
+        <v>83.333</v>
       </c>
       <c r="D28" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1692,16 +1704,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C29">
-        <v>104.202</v>
+        <v>96.62</v>
       </c>
       <c r="D29" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1709,16 +1721,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C30">
-        <v>81.983</v>
+        <v>77.79300000000001</v>
       </c>
       <c r="D30" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E30" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1726,16 +1738,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C31">
-        <v>94.04000000000001</v>
+        <v>87.61199999999999</v>
       </c>
       <c r="D31" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E31" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1743,16 +1755,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C32">
-        <v>95</v>
+        <v>82.60899999999999</v>
       </c>
       <c r="D32" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E32" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1760,16 +1772,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C33">
-        <v>96</v>
+        <v>92.30800000000001</v>
       </c>
       <c r="D33" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E33" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1777,16 +1789,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C34">
-        <v>82.78</v>
+        <v>81.26900000000001</v>
       </c>
       <c r="D34" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E34" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1794,16 +1806,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C35">
-        <v>125.163</v>
+        <v>114.153</v>
       </c>
       <c r="D35" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E35" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1811,16 +1823,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C36">
-        <v>99.417</v>
+        <v>92.371</v>
       </c>
       <c r="D36" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E36" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1828,16 +1840,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C37">
-        <v>84.61499999999999</v>
+        <v>85.185</v>
       </c>
       <c r="D37" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E37" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1845,16 +1857,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C38">
-        <v>72.40900000000001</v>
+        <v>72.63800000000001</v>
       </c>
       <c r="D38" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E38" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1862,16 +1874,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C39">
-        <v>93.22</v>
+        <v>39.416</v>
       </c>
       <c r="D39" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E39" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1879,16 +1891,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C40">
-        <v>103.778</v>
+        <v>98.214</v>
       </c>
       <c r="D40" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E40" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1896,16 +1908,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C41">
-        <v>93.333</v>
+        <v>85.294</v>
       </c>
       <c r="D41" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E41" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1913,16 +1925,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C42">
-        <v>97.13</v>
+        <v>88.59399999999999</v>
       </c>
       <c r="D42" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E42" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1930,16 +1942,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C43">
-        <v>94.828</v>
+        <v>90.32299999999999</v>
       </c>
       <c r="D43" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E43" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1947,16 +1959,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C44">
-        <v>92.5</v>
+        <v>88.889</v>
       </c>
       <c r="D44" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E44" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1964,16 +1976,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C45">
-        <v>84.42700000000001</v>
+        <v>81.28700000000001</v>
       </c>
       <c r="D45" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E45" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1981,16 +1993,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C46">
         <v>141.304</v>
       </c>
       <c r="D46" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E46" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1998,16 +2010,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C47">
-        <v>71.629</v>
+        <v>62.454</v>
       </c>
       <c r="D47" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E47" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2015,16 +2027,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C48">
-        <v>83.175</v>
+        <v>76.84699999999999</v>
       </c>
       <c r="D48" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E48" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2032,16 +2044,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C49">
-        <v>89.36199999999999</v>
+        <v>82.35299999999999</v>
       </c>
       <c r="D49" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E49" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2049,16 +2061,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C50">
-        <v>107.65</v>
+        <v>108.252</v>
       </c>
       <c r="D50" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E50" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2066,16 +2078,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C51">
-        <v>100.205</v>
+        <v>101.984</v>
       </c>
       <c r="D51" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E51" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2083,16 +2095,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C52">
-        <v>92.30800000000001</v>
+        <v>88.889</v>
       </c>
       <c r="D52" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E52" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2100,16 +2112,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C53">
-        <v>89.31100000000001</v>
+        <v>84.78700000000001</v>
       </c>
       <c r="D53" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E53" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2117,16 +2129,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C54">
-        <v>93.48399999999999</v>
+        <v>91.084</v>
       </c>
       <c r="D54" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E54" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2134,16 +2146,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C55">
-        <v>96.471</v>
+        <v>114.773</v>
       </c>
       <c r="D55" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E55" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2151,16 +2163,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C56">
         <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E56" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2168,16 +2180,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C57">
-        <v>106.25</v>
+        <v>94.286</v>
       </c>
       <c r="D57" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E57" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2185,16 +2197,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C58">
-        <v>94.08</v>
+        <v>93.10299999999999</v>
       </c>
       <c r="D58" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E58" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2202,16 +2214,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C59">
-        <v>100</v>
+        <v>98.684</v>
       </c>
       <c r="D59" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E59" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2219,16 +2231,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C60">
-        <v>96.154</v>
+        <v>92.593</v>
       </c>
       <c r="D60" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E60" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2236,16 +2248,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C61">
-        <v>100</v>
+        <v>82.35299999999999</v>
       </c>
       <c r="D61" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E61" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2253,16 +2265,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C62">
-        <v>86.364</v>
+        <v>69.23099999999999</v>
       </c>
       <c r="D62" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E62" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2270,16 +2282,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C63">
-        <v>95.777</v>
+        <v>97.265</v>
       </c>
       <c r="D63" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E63" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2287,16 +2299,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C64">
         <v>184.694</v>
       </c>
       <c r="D64" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E64" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2304,16 +2316,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C65">
-        <v>110.5</v>
+        <v>106.325</v>
       </c>
       <c r="D65" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E65" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2321,16 +2333,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C66">
         <v>77.86799999999999</v>
       </c>
       <c r="D66" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E66" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2338,16 +2350,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C67">
-        <v>92.13500000000001</v>
+        <v>80.392</v>
       </c>
       <c r="D67" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E67" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2355,16 +2367,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C68">
-        <v>104.819</v>
+        <v>95.506</v>
       </c>
       <c r="D68" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E68" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2372,16 +2384,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C69">
-        <v>92.857</v>
+        <v>93.333</v>
       </c>
       <c r="D69" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E69" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2389,16 +2401,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C70">
-        <v>72.22199999999999</v>
+        <v>94.444</v>
       </c>
       <c r="D70" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E70" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2406,16 +2418,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C71">
-        <v>71.429</v>
+        <v>148.837</v>
       </c>
       <c r="D71" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E71" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2423,16 +2435,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C72">
-        <v>110.882</v>
+        <v>98.905</v>
       </c>
       <c r="D72" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E72" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2440,16 +2452,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C73">
         <v>68.869</v>
       </c>
       <c r="D73" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E73" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2457,16 +2469,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C74">
-        <v>95.238</v>
+        <v>86.95699999999999</v>
       </c>
       <c r="D74" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E74" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2474,16 +2486,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C75">
-        <v>99.71299999999999</v>
+        <v>93.76300000000001</v>
       </c>
       <c r="D75" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E75" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2491,16 +2503,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C76">
-        <v>90.809</v>
+        <v>92.58</v>
       </c>
       <c r="D76" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2508,16 +2520,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C77">
-        <v>91.398</v>
+        <v>92.063</v>
       </c>
       <c r="D77" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E77" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2525,16 +2537,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C78">
-        <v>94.702</v>
+        <v>92.13800000000001</v>
       </c>
       <c r="D78" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E78" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2542,16 +2554,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C79">
-        <v>100</v>
+        <v>95.349</v>
       </c>
       <c r="D79" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E79" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2559,16 +2571,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C80">
-        <v>92.30800000000001</v>
+        <v>86.667</v>
       </c>
       <c r="D80" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E80" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2576,16 +2588,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C81">
-        <v>93.35299999999999</v>
+        <v>87.66</v>
       </c>
       <c r="D81" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E81" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2593,16 +2605,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C82">
-        <v>105.263</v>
+        <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E82" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2610,16 +2622,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C83">
-        <v>92.30800000000001</v>
+        <v>80</v>
       </c>
       <c r="D83" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E83" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2627,16 +2639,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C84">
-        <v>88.41500000000001</v>
+        <v>76.596</v>
       </c>
       <c r="D84" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E84" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2644,16 +2656,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C85">
         <v>110.484</v>
       </c>
       <c r="D85" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E85" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2661,16 +2673,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C86">
-        <v>95.27800000000001</v>
+        <v>92.309</v>
       </c>
       <c r="D86" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E86" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2678,16 +2690,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C87">
-        <v>100</v>
+        <v>92.857</v>
       </c>
       <c r="D87" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E87" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2695,16 +2707,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C88">
-        <v>95.556</v>
+        <v>89.583</v>
       </c>
       <c r="D88" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E88" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2712,16 +2724,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C89">
-        <v>101.002</v>
+        <v>110.615</v>
       </c>
       <c r="D89" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E89" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2729,16 +2741,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C90">
-        <v>90.435</v>
+        <v>87.5</v>
       </c>
       <c r="D90" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E90" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2746,16 +2758,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C91">
-        <v>122.925</v>
+        <v>115.476</v>
       </c>
       <c r="D91" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E91" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2763,16 +2775,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C92">
-        <v>98.14400000000001</v>
+        <v>89.643</v>
       </c>
       <c r="D92" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E92" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2780,16 +2792,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C93">
-        <v>163.889</v>
+        <v>187.097</v>
       </c>
       <c r="D93" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E93" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2797,16 +2809,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C94">
-        <v>67.462</v>
+        <v>63.508</v>
       </c>
       <c r="D94" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E94" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2814,16 +2826,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C95">
-        <v>82.307</v>
+        <v>79.40000000000001</v>
       </c>
       <c r="D95" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E95" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2831,16 +2843,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C96">
         <v>97.98</v>
       </c>
       <c r="D96" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E96" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2848,16 +2860,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C97">
-        <v>91.45099999999999</v>
+        <v>89.926</v>
       </c>
       <c r="D97" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E97" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2865,16 +2877,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C98">
         <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E98" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2882,16 +2894,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C99">
-        <v>92.5</v>
+        <v>95.238</v>
       </c>
       <c r="D99" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E99" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2899,16 +2911,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C100">
-        <v>94.834</v>
+        <v>83.73999999999999</v>
       </c>
       <c r="D100" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E100" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2916,16 +2928,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C101">
-        <v>102.212</v>
+        <v>102.146</v>
       </c>
       <c r="D101" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E101" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2933,16 +2945,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C102">
-        <v>86.486</v>
+        <v>89.474</v>
       </c>
       <c r="D102" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E102" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2950,16 +2962,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C103">
         <v>91.667</v>
       </c>
       <c r="D103" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E103" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2967,16 +2979,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C104">
-        <v>93.413</v>
+        <v>81.081</v>
       </c>
       <c r="D104" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E104" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2984,16 +2996,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C105">
-        <v>95.946</v>
+        <v>100</v>
       </c>
       <c r="D105" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E105" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3001,16 +3013,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C106">
-        <v>102.138</v>
+        <v>100.709</v>
       </c>
       <c r="D106" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E106" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3018,16 +3030,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C107">
-        <v>95.833</v>
+        <v>96</v>
       </c>
       <c r="D107" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E107" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3035,16 +3047,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C108">
-        <v>87.5</v>
+        <v>75</v>
       </c>
       <c r="D108" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E108" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3052,16 +3064,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C109">
-        <v>102.808</v>
+        <v>100.285</v>
       </c>
       <c r="D109" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E109" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3069,16 +3081,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C110">
-        <v>70.262</v>
+        <v>87.12</v>
       </c>
       <c r="D110" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E110" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3086,16 +3098,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C111">
-        <v>111.682</v>
+        <v>93.117</v>
       </c>
       <c r="D111" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E111" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3103,16 +3115,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C112">
         <v>111.243</v>
       </c>
       <c r="D112" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E112" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3120,16 +3132,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C113">
         <v>103.448</v>
       </c>
       <c r="D113" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E113" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3137,16 +3149,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C114">
-        <v>101.77</v>
+        <v>101.786</v>
       </c>
       <c r="D114" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E114" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3154,16 +3166,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C115">
-        <v>95.833</v>
+        <v>88.679</v>
       </c>
       <c r="D115" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E115" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3171,16 +3183,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C116">
         <v>104</v>
       </c>
       <c r="D116" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E116" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3188,16 +3200,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C117">
-        <v>116.667</v>
+        <v>107.407</v>
       </c>
       <c r="D117" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E117" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3205,16 +3217,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C118">
-        <v>90.539</v>
+        <v>88.14</v>
       </c>
       <c r="D118" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E118" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3222,16 +3234,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C119">
-        <v>86.47799999999999</v>
+        <v>88.925</v>
       </c>
       <c r="D119" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E119" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3239,16 +3251,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C120">
         <v>148.127</v>
       </c>
       <c r="D120" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E120" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3256,16 +3268,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C121">
-        <v>92.265</v>
+        <v>65.76900000000001</v>
       </c>
       <c r="D121" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E121" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3273,16 +3285,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C122">
-        <v>90.476</v>
+        <v>90.90900000000001</v>
       </c>
       <c r="D122" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E122" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3290,16 +3302,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C123">
         <v>214.583</v>
       </c>
       <c r="D123" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E123" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3307,16 +3319,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C124">
         <v>104.082</v>
       </c>
       <c r="D124" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E124" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3324,16 +3336,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C125">
-        <v>93.919</v>
+        <v>91.139</v>
       </c>
       <c r="D125" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E125" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3341,16 +3353,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C126">
-        <v>104.082</v>
+        <v>94.11799999999999</v>
       </c>
       <c r="D126" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E126" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3358,16 +3370,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C127">
         <v>178.322</v>
       </c>
       <c r="D127" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E127" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3375,16 +3387,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C128">
-        <v>95.652</v>
+        <v>88.79000000000001</v>
       </c>
       <c r="D128" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E128" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3392,16 +3404,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C129">
-        <v>95.652</v>
+        <v>91.667</v>
       </c>
       <c r="D129" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E129" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3409,16 +3421,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C130">
         <v>87.23399999999999</v>
       </c>
       <c r="D130" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E130" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3426,16 +3438,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C131">
-        <v>82.556</v>
+        <v>82.246</v>
       </c>
       <c r="D131" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E131" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3443,16 +3455,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C132">
-        <v>111.667</v>
+        <v>95.455</v>
       </c>
       <c r="D132" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E132" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3460,16 +3472,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C133">
-        <v>73.663</v>
+        <v>70.111</v>
       </c>
       <c r="D133" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E133" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3477,16 +3489,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C134">
-        <v>100</v>
+        <v>92.593</v>
       </c>
       <c r="D134" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E134" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3494,16 +3506,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C135">
-        <v>86.95699999999999</v>
+        <v>91.304</v>
       </c>
       <c r="D135" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E135" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3511,16 +3523,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C136">
         <v>94.84099999999999</v>
       </c>
       <c r="D136" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E136" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3528,16 +3540,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C137">
-        <v>103.571</v>
+        <v>92.89100000000001</v>
       </c>
       <c r="D137" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E137" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3545,16 +3557,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C138">
-        <v>100</v>
+        <v>96.575</v>
       </c>
       <c r="D138" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E138" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3562,16 +3574,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C139">
-        <v>96.40300000000001</v>
+        <v>94.366</v>
       </c>
       <c r="D139" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3579,16 +3591,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C140">
-        <v>65.38500000000001</v>
+        <v>58.333</v>
       </c>
       <c r="D140" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E140" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3596,16 +3608,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C141">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="D141" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E141" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3613,16 +3625,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C142">
-        <v>112.088</v>
+        <v>97.895</v>
       </c>
       <c r="D142" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E142" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3630,16 +3642,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C143">
-        <v>96.746</v>
+        <v>92.44499999999999</v>
       </c>
       <c r="D143" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E143" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3647,16 +3659,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C144">
-        <v>114.834</v>
+        <v>106.298</v>
       </c>
       <c r="D144" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E144" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3664,16 +3676,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C145">
-        <v>102.306</v>
+        <v>80.89100000000001</v>
       </c>
       <c r="D145" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E145" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3681,16 +3693,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C146">
-        <v>83.00700000000001</v>
+        <v>77.143</v>
       </c>
       <c r="D146" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E146" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3698,16 +3710,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C147">
-        <v>90.84</v>
+        <v>82.319</v>
       </c>
       <c r="D147" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E147" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3715,16 +3727,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C148">
-        <v>73.684</v>
+        <v>62.4</v>
       </c>
       <c r="D148" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E148" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3732,16 +3744,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C149">
-        <v>110.87</v>
+        <v>96</v>
       </c>
       <c r="D149" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E149" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3749,16 +3761,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C150">
-        <v>94.551</v>
+        <v>81.767</v>
       </c>
       <c r="D150" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E150" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3766,16 +3778,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C151">
         <v>90.795</v>
       </c>
       <c r="D151" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E151" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3783,16 +3795,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C152">
-        <v>100</v>
+        <v>70.27</v>
       </c>
       <c r="D152" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E152" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3800,16 +3812,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C153">
-        <v>92.929</v>
+        <v>90.291</v>
       </c>
       <c r="D153" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E153" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3817,16 +3829,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C154">
-        <v>94.946</v>
+        <v>76.102</v>
       </c>
       <c r="D154" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E154" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3834,16 +3846,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C155">
-        <v>116.393</v>
+        <v>133.333</v>
       </c>
       <c r="D155" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E155" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3851,16 +3863,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C156">
-        <v>155.102</v>
+        <v>101.158</v>
       </c>
       <c r="D156" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E156" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3868,16 +3880,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C157">
-        <v>97.015</v>
+        <v>155.102</v>
       </c>
       <c r="D157" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E157" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3885,16 +3897,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C158">
-        <v>48.458</v>
+        <v>91.429</v>
       </c>
       <c r="D158" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E158" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3902,16 +3914,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C159">
-        <v>86.667</v>
+        <v>23.529</v>
       </c>
       <c r="D159" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E159" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3919,16 +3931,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C160">
-        <v>144.444</v>
+        <v>68.376</v>
       </c>
       <c r="D160" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E160" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3936,16 +3948,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C161">
-        <v>90.625</v>
+        <v>144.444</v>
       </c>
       <c r="D161" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E161" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3953,16 +3965,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C162">
-        <v>81.15900000000001</v>
+        <v>87.879</v>
       </c>
       <c r="D162" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E162" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3970,16 +3982,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C163">
-        <v>101.891</v>
+        <v>116.667</v>
       </c>
       <c r="D163" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E163" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3987,16 +3999,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C164">
-        <v>78.39700000000001</v>
+        <v>70.51300000000001</v>
       </c>
       <c r="D164" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E164" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4004,16 +4016,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C165">
-        <v>102.381</v>
+        <v>109.519</v>
       </c>
       <c r="D165" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E165" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4021,16 +4033,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C166">
-        <v>95.417</v>
+        <v>83.85599999999999</v>
       </c>
       <c r="D166" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E166" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4038,16 +4050,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C167">
-        <v>100.99</v>
+        <v>98.837</v>
       </c>
       <c r="D167" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E167" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4055,16 +4067,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C168">
-        <v>85.242</v>
+        <v>92.428</v>
       </c>
       <c r="D168" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E168" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4072,16 +4084,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C169">
-        <v>101.286</v>
+        <v>88.991</v>
       </c>
       <c r="D169" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E169" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4089,16 +4101,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C170">
-        <v>94.242</v>
+        <v>85.242</v>
       </c>
       <c r="D170" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E170" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4106,16 +4118,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C171">
-        <v>83</v>
+        <v>90.634</v>
       </c>
       <c r="D171" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E171" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4123,16 +4135,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C172">
-        <v>100.604</v>
+        <v>87.751</v>
       </c>
       <c r="D172" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E172" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4140,16 +4152,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C173">
-        <v>122.581</v>
+        <v>85.437</v>
       </c>
       <c r="D173" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E173" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4157,16 +4169,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C174">
-        <v>86.364</v>
+        <v>91.425</v>
       </c>
       <c r="D174" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E174" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4174,16 +4186,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C175">
-        <v>180</v>
+        <v>122.581</v>
       </c>
       <c r="D175" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E175" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4191,16 +4203,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C176">
-        <v>88.235</v>
+        <v>83.333</v>
       </c>
       <c r="D176" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E176" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4208,16 +4220,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C177">
-        <v>93.333</v>
+        <v>180</v>
       </c>
       <c r="D177" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E177" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4225,16 +4237,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C178">
-        <v>105.44</v>
+        <v>65.217</v>
       </c>
       <c r="D178" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E178" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4242,16 +4254,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C179">
-        <v>95.783</v>
+        <v>87.5</v>
       </c>
       <c r="D179" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E179" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4259,16 +4271,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C180">
-        <v>96.97</v>
+        <v>101.799</v>
       </c>
       <c r="D180" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E180" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4276,16 +4288,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C181">
-        <v>95.455</v>
+        <v>89.38500000000001</v>
       </c>
       <c r="D181" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E181" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4293,16 +4305,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C182">
-        <v>72.816</v>
+        <v>94.11799999999999</v>
       </c>
       <c r="D182" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E182" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4310,16 +4322,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C183">
-        <v>67.45999999999999</v>
+        <v>87.5</v>
       </c>
       <c r="D183" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E183" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4327,16 +4339,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C184">
-        <v>92.79300000000001</v>
+        <v>51.471</v>
       </c>
       <c r="D184" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E184" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4344,16 +4356,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C185">
-        <v>144.737</v>
+        <v>67.45999999999999</v>
       </c>
       <c r="D185" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E185" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4361,16 +4373,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C186">
-        <v>102.336</v>
+        <v>89.84399999999999</v>
       </c>
       <c r="D186" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E186" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4378,16 +4390,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C187">
-        <v>111.842</v>
+        <v>144.737</v>
       </c>
       <c r="D187" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E187" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4395,16 +4407,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C188">
-        <v>98.148</v>
+        <v>98.205</v>
       </c>
       <c r="D188" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E188" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4412,16 +4424,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C189">
-        <v>63.077</v>
+        <v>111.842</v>
       </c>
       <c r="D189" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E189" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4429,16 +4441,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C190">
-        <v>155.556</v>
+        <v>108.333</v>
       </c>
       <c r="D190" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E190" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4446,16 +4458,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C191">
-        <v>100</v>
+        <v>137.5</v>
       </c>
       <c r="D191" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E191" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4463,16 +4475,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C192">
-        <v>91.667</v>
+        <v>63.077</v>
       </c>
       <c r="D192" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E192" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4480,16 +4492,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C193">
-        <v>97.77800000000001</v>
+        <v>155.556</v>
       </c>
       <c r="D193" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E193" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4497,16 +4509,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C194">
-        <v>194.118</v>
+        <v>103.448</v>
       </c>
       <c r="D194" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E194" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4514,16 +4526,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C195">
-        <v>99.532</v>
+        <v>100</v>
       </c>
       <c r="D195" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E195" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4531,16 +4543,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C196">
-        <v>95</v>
+        <v>95.833</v>
       </c>
       <c r="D196" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E196" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4548,16 +4560,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C197">
-        <v>125.431</v>
+        <v>194.118</v>
       </c>
       <c r="D197" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E197" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4565,16 +4577,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C198">
-        <v>116.667</v>
+        <v>90.271</v>
       </c>
       <c r="D198" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E198" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4582,16 +4594,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C199">
-        <v>96.996</v>
+        <v>86.364</v>
       </c>
       <c r="D199" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E199" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4599,16 +4611,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C200">
-        <v>94.11799999999999</v>
+        <v>125.431</v>
       </c>
       <c r="D200" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E200" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4616,16 +4628,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C201">
-        <v>85.839</v>
+        <v>116.667</v>
       </c>
       <c r="D201" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E201" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4633,16 +4645,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C202">
-        <v>92.026</v>
+        <v>92.34999999999999</v>
       </c>
       <c r="D202" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E202" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4650,16 +4662,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C203">
-        <v>94.425</v>
+        <v>90.38500000000001</v>
       </c>
       <c r="D203" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E203" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4667,16 +4679,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C204">
-        <v>94.66500000000001</v>
+        <v>90.776</v>
       </c>
       <c r="D204" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E204" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4684,16 +4696,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C205">
-        <v>94.11799999999999</v>
+        <v>117.872</v>
       </c>
       <c r="D205" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E205" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4701,16 +4713,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C206">
-        <v>100</v>
+        <v>89</v>
       </c>
       <c r="D206" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E206" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4718,16 +4730,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C207">
-        <v>98.077</v>
+        <v>93.78100000000001</v>
       </c>
       <c r="D207" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E207" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4735,16 +4747,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C208">
-        <v>86.667</v>
+        <v>93.274</v>
       </c>
       <c r="D208" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E208" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4752,16 +4764,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C209">
-        <v>84.61499999999999</v>
+        <v>93.75</v>
       </c>
       <c r="D209" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E209" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4769,16 +4781,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C210">
-        <v>102.83</v>
+        <v>90.741</v>
       </c>
       <c r="D210" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E210" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4786,16 +4798,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C211">
-        <v>67.21299999999999</v>
+        <v>86.667</v>
       </c>
       <c r="D211" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E211" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4803,16 +4815,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C212">
-        <v>77.575</v>
+        <v>85.714</v>
       </c>
       <c r="D212" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E212" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4820,16 +4832,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C213">
-        <v>95.56999999999999</v>
+        <v>100</v>
       </c>
       <c r="D213" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E213" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4837,16 +4849,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C214">
-        <v>89.655</v>
+        <v>86.614</v>
       </c>
       <c r="D214" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E214" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4854,16 +4866,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C215">
-        <v>115.118</v>
+        <v>58.108</v>
       </c>
       <c r="D215" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E215" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4871,16 +4883,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C216">
-        <v>96.703</v>
+        <v>77.575</v>
       </c>
       <c r="D216" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E216" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4888,16 +4900,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C217">
-        <v>138.462</v>
+        <v>89.157</v>
       </c>
       <c r="D217" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E217" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4905,16 +4917,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C218">
-        <v>90</v>
+        <v>87.64</v>
       </c>
       <c r="D218" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E218" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4922,16 +4934,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C219">
-        <v>82.40000000000001</v>
+        <v>103.907</v>
       </c>
       <c r="D219" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E219" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4939,16 +4951,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C220">
-        <v>95.7</v>
+        <v>95.91800000000001</v>
       </c>
       <c r="D220" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E220" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4956,16 +4968,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C221">
-        <v>104.299</v>
+        <v>138.462</v>
       </c>
       <c r="D221" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E221" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4973,16 +4985,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C222">
-        <v>95.833</v>
+        <v>84.444</v>
       </c>
       <c r="D222" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E222" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4990,16 +5002,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C223">
-        <v>90</v>
+        <v>83.824</v>
       </c>
       <c r="D223" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E223" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5007,16 +5019,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C224">
-        <v>95.455</v>
+        <v>89.419</v>
       </c>
       <c r="D224" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E224" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5024,16 +5036,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C225">
-        <v>98.182</v>
+        <v>104.299</v>
       </c>
       <c r="D225" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E225" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5041,16 +5053,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C226">
-        <v>96.875</v>
+        <v>95.833</v>
       </c>
       <c r="D226" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E226" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5058,16 +5070,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C227">
-        <v>133.333</v>
+        <v>88.462</v>
       </c>
       <c r="D227" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E227" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5075,16 +5087,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C228">
-        <v>92.30800000000001</v>
+        <v>84</v>
       </c>
       <c r="D228" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E228" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5092,16 +5104,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C229">
-        <v>73.125</v>
+        <v>91.379</v>
       </c>
       <c r="D229" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E229" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5109,16 +5121,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C230">
-        <v>96.97</v>
+        <v>88.235</v>
       </c>
       <c r="D230" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E230" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5126,16 +5138,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C231">
-        <v>165.657</v>
+        <v>133.333</v>
       </c>
       <c r="D231" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E231" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5143,16 +5155,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C232">
-        <v>93.333</v>
+        <v>85.714</v>
       </c>
       <c r="D232" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E232" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5160,16 +5172,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C233">
-        <v>86.325</v>
+        <v>73.73699999999999</v>
       </c>
       <c r="D233" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E233" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5177,16 +5189,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C234">
-        <v>33.529</v>
+        <v>94.11799999999999</v>
       </c>
       <c r="D234" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E234" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5194,16 +5206,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C235">
-        <v>95.833</v>
+        <v>165.657</v>
       </c>
       <c r="D235" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E235" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5211,16 +5223,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C236">
-        <v>91.878</v>
+        <v>87.5</v>
       </c>
       <c r="D236" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E236" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5228,16 +5240,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C237">
-        <v>100</v>
+        <v>78.295</v>
       </c>
       <c r="D237" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E237" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5245,16 +5257,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C238">
-        <v>78.04900000000001</v>
+        <v>33.529</v>
       </c>
       <c r="D238" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E238" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5262,16 +5274,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C239">
-        <v>115</v>
+        <v>96.154</v>
       </c>
       <c r="D239" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E239" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5279,16 +5291,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C240">
-        <v>100.448</v>
+        <v>86.55200000000001</v>
       </c>
       <c r="D240" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E240" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5296,16 +5308,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C241">
-        <v>94.45399999999999</v>
+        <v>100</v>
       </c>
       <c r="D241" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E241" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5313,16 +5325,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C242">
-        <v>87.069</v>
+        <v>84.426</v>
       </c>
       <c r="D242" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E242" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5330,16 +5342,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C243">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="D243" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E243" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5347,16 +5359,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C244">
-        <v>100</v>
+        <v>95.339</v>
       </c>
       <c r="D244" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E244" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5364,16 +5376,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C245">
-        <v>92.30800000000001</v>
+        <v>84.108</v>
       </c>
       <c r="D245" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E245" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5381,16 +5393,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C246">
-        <v>107.895</v>
+        <v>80.795</v>
       </c>
       <c r="D246" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E246" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5398,16 +5410,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C247">
-        <v>133.333</v>
+        <v>100</v>
       </c>
       <c r="D247" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E247" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5415,16 +5427,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C248">
-        <v>131.579</v>
+        <v>100</v>
       </c>
       <c r="D248" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E248" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5432,16 +5444,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C249">
-        <v>75.676</v>
+        <v>80</v>
       </c>
       <c r="D249" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E249" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5449,16 +5461,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C250">
-        <v>100</v>
+        <v>102.564</v>
       </c>
       <c r="D250" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E250" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5466,16 +5478,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C251">
-        <v>100</v>
+        <v>133.333</v>
       </c>
       <c r="D251" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E251" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5483,16 +5495,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C252">
-        <v>102.041</v>
+        <v>131.579</v>
       </c>
       <c r="D252" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E252" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5500,16 +5512,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C253">
-        <v>103.192</v>
+        <v>72.973</v>
       </c>
       <c r="D253" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E253" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5517,16 +5529,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C254">
-        <v>107.283</v>
+        <v>92</v>
       </c>
       <c r="D254" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E254" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5534,16 +5546,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C255">
-        <v>101.472</v>
+        <v>94.73699999999999</v>
       </c>
       <c r="D255" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E255" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5551,16 +5563,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C256">
-        <v>122.727</v>
+        <v>100.282</v>
       </c>
       <c r="D256" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E256" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5568,16 +5580,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C257">
-        <v>93.703</v>
+        <v>103.192</v>
       </c>
       <c r="D257" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E257" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5585,16 +5597,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="C258">
-        <v>88.235</v>
+        <v>107.283</v>
       </c>
       <c r="D258" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E258" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5602,16 +5614,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C259">
-        <v>90.476</v>
+        <v>95.76000000000001</v>
       </c>
       <c r="D259" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E259" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5619,16 +5631,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C260">
-        <v>109.091</v>
+        <v>122.727</v>
       </c>
       <c r="D260" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E260" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5636,16 +5648,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C261">
-        <v>99.251</v>
+        <v>91.268</v>
       </c>
       <c r="D261" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E261" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5653,16 +5665,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C262">
-        <v>100</v>
+        <v>84.211</v>
       </c>
       <c r="D262" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E262" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5670,16 +5682,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C263">
-        <v>106.522</v>
+        <v>95.238</v>
       </c>
       <c r="D263" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E263" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5687,16 +5699,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C264">
-        <v>94.40600000000001</v>
+        <v>91.667</v>
       </c>
       <c r="D264" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E264" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5704,16 +5716,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C265">
-        <v>91.977</v>
+        <v>99.251</v>
       </c>
       <c r="D265" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E265" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5721,16 +5733,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C266">
-        <v>96.98399999999999</v>
+        <v>94.937</v>
       </c>
       <c r="D266" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E266" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5738,16 +5750,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="C267">
-        <v>113.793</v>
+        <v>94.11799999999999</v>
       </c>
       <c r="D267" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E267" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5755,16 +5767,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C268">
-        <v>98.479</v>
+        <v>93.10299999999999</v>
       </c>
       <c r="D268" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E268" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5772,16 +5784,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="C269">
-        <v>92.65000000000001</v>
+        <v>85.294</v>
       </c>
       <c r="D269" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="E269" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5789,16 +5801,84 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
+        <v>278</v>
+      </c>
+      <c r="C270">
+        <v>92.217</v>
+      </c>
+      <c r="D270" t="s">
+        <v>280</v>
+      </c>
+      <c r="E270" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5">
+      <c r="A271" t="s">
+        <v>274</v>
+      </c>
+      <c r="B271" t="s">
+        <v>278</v>
+      </c>
+      <c r="C271">
+        <v>84.211</v>
+      </c>
+      <c r="D271" t="s">
+        <v>280</v>
+      </c>
+      <c r="E271" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5">
+      <c r="A272" t="s">
         <v>275</v>
       </c>
-      <c r="C270">
-        <v>100</v>
-      </c>
-      <c r="D270" t="s">
+      <c r="B272" t="s">
+        <v>278</v>
+      </c>
+      <c r="C272">
+        <v>96.283</v>
+      </c>
+      <c r="D272" t="s">
+        <v>280</v>
+      </c>
+      <c r="E272" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
         <v>276</v>
       </c>
-      <c r="E270" t="s">
+      <c r="B273" t="s">
+        <v>278</v>
+      </c>
+      <c r="C273">
+        <v>88.518</v>
+      </c>
+      <c r="D273" t="s">
+        <v>280</v>
+      </c>
+      <c r="E273" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
         <v>277</v>
+      </c>
+      <c r="B274" t="s">
+        <v>278</v>
+      </c>
+      <c r="C274">
+        <v>89.286</v>
+      </c>
+      <c r="D274" t="s">
+        <v>280</v>
+      </c>
+      <c r="E274" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -850,10 +850,10 @@
     <t>ZRXUSDT</t>
   </si>
   <si>
-    <t>Bear</t>
-  </si>
-  <si>
-    <t>Bull</t>
+    <t>Up</t>
+  </si>
+  <si>
+    <t>Down</t>
   </si>
   <si>
     <t>10 days</t>
@@ -1248,7 +1248,7 @@
         <v>278</v>
       </c>
       <c r="C2">
-        <v>87.69199999999999</v>
+        <v>106.667</v>
       </c>
       <c r="D2" t="s">
         <v>280</v>
@@ -1265,7 +1265,7 @@
         <v>278</v>
       </c>
       <c r="C3">
-        <v>80.127</v>
+        <v>107.491</v>
       </c>
       <c r="D3" t="s">
         <v>280</v>
@@ -1279,10 +1279,10 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C4">
-        <v>105.882</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>280</v>
@@ -1299,7 +1299,7 @@
         <v>278</v>
       </c>
       <c r="C5">
-        <v>96.06100000000001</v>
+        <v>104.587</v>
       </c>
       <c r="D5" t="s">
         <v>280</v>
@@ -1313,10 +1313,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C6">
-        <v>88.095</v>
+        <v>98.387</v>
       </c>
       <c r="D6" t="s">
         <v>280</v>
@@ -1333,7 +1333,7 @@
         <v>278</v>
       </c>
       <c r="C7">
-        <v>94.11799999999999</v>
+        <v>105</v>
       </c>
       <c r="D7" t="s">
         <v>280</v>
@@ -1347,10 +1347,10 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C8">
-        <v>118.182</v>
+        <v>107.143</v>
       </c>
       <c r="D8" t="s">
         <v>280</v>
@@ -1367,7 +1367,7 @@
         <v>278</v>
       </c>
       <c r="C9">
-        <v>98.182</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
         <v>280</v>
@@ -1381,10 +1381,10 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C10">
-        <v>122.222</v>
+        <v>147.826</v>
       </c>
       <c r="D10" t="s">
         <v>280</v>
@@ -1401,7 +1401,7 @@
         <v>278</v>
       </c>
       <c r="C11">
-        <v>89.18899999999999</v>
+        <v>102.857</v>
       </c>
       <c r="D11" t="s">
         <v>280</v>
@@ -1418,7 +1418,7 @@
         <v>278</v>
       </c>
       <c r="C12">
-        <v>80.97199999999999</v>
+        <v>105.366</v>
       </c>
       <c r="D12" t="s">
         <v>280</v>
@@ -1435,7 +1435,7 @@
         <v>278</v>
       </c>
       <c r="C13">
-        <v>76.19</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
         <v>280</v>
@@ -1452,7 +1452,7 @@
         <v>278</v>
       </c>
       <c r="C14">
-        <v>86.188</v>
+        <v>132.353</v>
       </c>
       <c r="D14" t="s">
         <v>280</v>
@@ -1466,10 +1466,10 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C15">
-        <v>100</v>
+        <v>105.263</v>
       </c>
       <c r="D15" t="s">
         <v>280</v>
@@ -1486,7 +1486,7 @@
         <v>278</v>
       </c>
       <c r="C16">
-        <v>78.571</v>
+        <v>107.692</v>
       </c>
       <c r="D16" t="s">
         <v>280</v>
@@ -1503,7 +1503,7 @@
         <v>278</v>
       </c>
       <c r="C17">
-        <v>97.11499999999999</v>
+        <v>103.636</v>
       </c>
       <c r="D17" t="s">
         <v>280</v>
@@ -1520,7 +1520,7 @@
         <v>278</v>
       </c>
       <c r="C18">
-        <v>92.818</v>
+        <v>116.509</v>
       </c>
       <c r="D18" t="s">
         <v>280</v>
@@ -1537,7 +1537,7 @@
         <v>278</v>
       </c>
       <c r="C19">
-        <v>95.349</v>
+        <v>110.405</v>
       </c>
       <c r="D19" t="s">
         <v>280</v>
@@ -1551,10 +1551,10 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C20">
-        <v>74.52800000000001</v>
+        <v>93.75</v>
       </c>
       <c r="D20" t="s">
         <v>280</v>
@@ -1568,10 +1568,10 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C21">
-        <v>104.571</v>
+        <v>101.032</v>
       </c>
       <c r="D21" t="s">
         <v>280</v>
@@ -1588,7 +1588,7 @@
         <v>279</v>
       </c>
       <c r="C22">
-        <v>108.197</v>
+        <v>92.157</v>
       </c>
       <c r="D22" t="s">
         <v>280</v>
@@ -1602,10 +1602,10 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C23">
-        <v>150</v>
+        <v>151.923</v>
       </c>
       <c r="D23" t="s">
         <v>280</v>
@@ -1622,7 +1622,7 @@
         <v>279</v>
       </c>
       <c r="C24">
-        <v>129.787</v>
+        <v>88.42100000000001</v>
       </c>
       <c r="D24" t="s">
         <v>280</v>
@@ -1639,7 +1639,7 @@
         <v>278</v>
       </c>
       <c r="C25">
-        <v>66.38</v>
+        <v>133.779</v>
       </c>
       <c r="D25" t="s">
         <v>280</v>
@@ -1656,7 +1656,7 @@
         <v>278</v>
       </c>
       <c r="C26">
-        <v>96.562</v>
+        <v>101.6</v>
       </c>
       <c r="D26" t="s">
         <v>280</v>
@@ -1673,7 +1673,7 @@
         <v>279</v>
       </c>
       <c r="C27">
-        <v>172.727</v>
+        <v>91.667</v>
       </c>
       <c r="D27" t="s">
         <v>280</v>
@@ -1690,7 +1690,7 @@
         <v>278</v>
       </c>
       <c r="C28">
-        <v>83.333</v>
+        <v>136.364</v>
       </c>
       <c r="D28" t="s">
         <v>280</v>
@@ -1707,7 +1707,7 @@
         <v>278</v>
       </c>
       <c r="C29">
-        <v>96.62</v>
+        <v>101.471</v>
       </c>
       <c r="D29" t="s">
         <v>280</v>
@@ -1724,7 +1724,7 @@
         <v>278</v>
       </c>
       <c r="C30">
-        <v>77.79300000000001</v>
+        <v>102.55</v>
       </c>
       <c r="D30" t="s">
         <v>280</v>
@@ -1738,10 +1738,10 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C31">
-        <v>87.61199999999999</v>
+        <v>87.79900000000001</v>
       </c>
       <c r="D31" t="s">
         <v>280</v>
@@ -1758,7 +1758,7 @@
         <v>278</v>
       </c>
       <c r="C32">
-        <v>82.60899999999999</v>
+        <v>112.5</v>
       </c>
       <c r="D32" t="s">
         <v>280</v>
@@ -1775,7 +1775,7 @@
         <v>278</v>
       </c>
       <c r="C33">
-        <v>92.30800000000001</v>
+        <v>101.667</v>
       </c>
       <c r="D33" t="s">
         <v>280</v>
@@ -1789,10 +1789,10 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C34">
-        <v>81.26900000000001</v>
+        <v>95.607</v>
       </c>
       <c r="D34" t="s">
         <v>280</v>
@@ -1806,10 +1806,10 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C35">
-        <v>114.153</v>
+        <v>104.024</v>
       </c>
       <c r="D35" t="s">
         <v>280</v>
@@ -1826,7 +1826,7 @@
         <v>278</v>
       </c>
       <c r="C36">
-        <v>92.371</v>
+        <v>104.225</v>
       </c>
       <c r="D36" t="s">
         <v>280</v>
@@ -1840,10 +1840,10 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C37">
-        <v>85.185</v>
+        <v>97.619</v>
       </c>
       <c r="D37" t="s">
         <v>280</v>
@@ -1860,7 +1860,7 @@
         <v>278</v>
       </c>
       <c r="C38">
-        <v>72.63800000000001</v>
+        <v>115.311</v>
       </c>
       <c r="D38" t="s">
         <v>280</v>
@@ -1877,7 +1877,7 @@
         <v>278</v>
       </c>
       <c r="C39">
-        <v>39.416</v>
+        <v>103.846</v>
       </c>
       <c r="D39" t="s">
         <v>280</v>
@@ -1894,7 +1894,7 @@
         <v>278</v>
       </c>
       <c r="C40">
-        <v>98.214</v>
+        <v>100.76</v>
       </c>
       <c r="D40" t="s">
         <v>280</v>
@@ -1911,7 +1911,7 @@
         <v>278</v>
       </c>
       <c r="C41">
-        <v>85.294</v>
+        <v>100</v>
       </c>
       <c r="D41" t="s">
         <v>280</v>
@@ -1928,7 +1928,7 @@
         <v>278</v>
       </c>
       <c r="C42">
-        <v>88.59399999999999</v>
+        <v>109.017</v>
       </c>
       <c r="D42" t="s">
         <v>280</v>
@@ -1945,7 +1945,7 @@
         <v>278</v>
       </c>
       <c r="C43">
-        <v>90.32299999999999</v>
+        <v>108.571</v>
       </c>
       <c r="D43" t="s">
         <v>280</v>
@@ -1959,10 +1959,10 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C44">
-        <v>88.889</v>
+        <v>88.636</v>
       </c>
       <c r="D44" t="s">
         <v>280</v>
@@ -1976,10 +1976,10 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C45">
-        <v>81.28700000000001</v>
+        <v>95.16</v>
       </c>
       <c r="D45" t="s">
         <v>280</v>
@@ -1996,7 +1996,7 @@
         <v>279</v>
       </c>
       <c r="C46">
-        <v>141.304</v>
+        <v>91.139</v>
       </c>
       <c r="D46" t="s">
         <v>280</v>
@@ -2013,7 +2013,7 @@
         <v>278</v>
       </c>
       <c r="C47">
-        <v>62.454</v>
+        <v>117.833</v>
       </c>
       <c r="D47" t="s">
         <v>280</v>
@@ -2030,7 +2030,7 @@
         <v>278</v>
       </c>
       <c r="C48">
-        <v>76.84699999999999</v>
+        <v>112.121</v>
       </c>
       <c r="D48" t="s">
         <v>280</v>
@@ -2047,7 +2047,7 @@
         <v>278</v>
       </c>
       <c r="C49">
-        <v>82.35299999999999</v>
+        <v>107.5</v>
       </c>
       <c r="D49" t="s">
         <v>280</v>
@@ -2061,10 +2061,10 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C50">
-        <v>108.252</v>
+        <v>106.897</v>
       </c>
       <c r="D50" t="s">
         <v>280</v>
@@ -2081,7 +2081,7 @@
         <v>279</v>
       </c>
       <c r="C51">
-        <v>101.984</v>
+        <v>97.59399999999999</v>
       </c>
       <c r="D51" t="s">
         <v>280</v>
@@ -2098,7 +2098,7 @@
         <v>278</v>
       </c>
       <c r="C52">
-        <v>88.889</v>
+        <v>108.333</v>
       </c>
       <c r="D52" t="s">
         <v>280</v>
@@ -2115,7 +2115,7 @@
         <v>278</v>
       </c>
       <c r="C53">
-        <v>84.78700000000001</v>
+        <v>115.156</v>
       </c>
       <c r="D53" t="s">
         <v>280</v>
@@ -2132,7 +2132,7 @@
         <v>278</v>
       </c>
       <c r="C54">
-        <v>91.084</v>
+        <v>108.638</v>
       </c>
       <c r="D54" t="s">
         <v>280</v>
@@ -2146,10 +2146,10 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C55">
-        <v>114.773</v>
+        <v>108.333</v>
       </c>
       <c r="D55" t="s">
         <v>280</v>
@@ -2163,7 +2163,7 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C56">
         <v>100</v>
@@ -2183,7 +2183,7 @@
         <v>278</v>
       </c>
       <c r="C57">
-        <v>94.286</v>
+        <v>114.706</v>
       </c>
       <c r="D57" t="s">
         <v>280</v>
@@ -2200,7 +2200,7 @@
         <v>278</v>
       </c>
       <c r="C58">
-        <v>93.10299999999999</v>
+        <v>111.913</v>
       </c>
       <c r="D58" t="s">
         <v>280</v>
@@ -2217,7 +2217,7 @@
         <v>278</v>
       </c>
       <c r="C59">
-        <v>98.684</v>
+        <v>121.053</v>
       </c>
       <c r="D59" t="s">
         <v>280</v>
@@ -2234,7 +2234,7 @@
         <v>278</v>
       </c>
       <c r="C60">
-        <v>92.593</v>
+        <v>104.545</v>
       </c>
       <c r="D60" t="s">
         <v>280</v>
@@ -2248,10 +2248,10 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C61">
-        <v>82.35299999999999</v>
+        <v>89.583</v>
       </c>
       <c r="D61" t="s">
         <v>280</v>
@@ -2268,7 +2268,7 @@
         <v>278</v>
       </c>
       <c r="C62">
-        <v>69.23099999999999</v>
+        <v>127.273</v>
       </c>
       <c r="D62" t="s">
         <v>280</v>
@@ -2285,7 +2285,7 @@
         <v>278</v>
       </c>
       <c r="C63">
-        <v>97.265</v>
+        <v>101.258</v>
       </c>
       <c r="D63" t="s">
         <v>280</v>
@@ -2299,10 +2299,10 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C64">
-        <v>184.694</v>
+        <v>106.098</v>
       </c>
       <c r="D64" t="s">
         <v>280</v>
@@ -2316,10 +2316,10 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C65">
-        <v>106.325</v>
+        <v>131.57</v>
       </c>
       <c r="D65" t="s">
         <v>280</v>
@@ -2333,10 +2333,10 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C66">
-        <v>77.86799999999999</v>
+        <v>99.879</v>
       </c>
       <c r="D66" t="s">
         <v>280</v>
@@ -2353,7 +2353,7 @@
         <v>278</v>
       </c>
       <c r="C67">
-        <v>80.392</v>
+        <v>107.407</v>
       </c>
       <c r="D67" t="s">
         <v>280</v>
@@ -2370,7 +2370,7 @@
         <v>278</v>
       </c>
       <c r="C68">
-        <v>95.506</v>
+        <v>106.944</v>
       </c>
       <c r="D68" t="s">
         <v>280</v>
@@ -2387,7 +2387,7 @@
         <v>278</v>
       </c>
       <c r="C69">
-        <v>93.333</v>
+        <v>116.667</v>
       </c>
       <c r="D69" t="s">
         <v>280</v>
@@ -2404,7 +2404,7 @@
         <v>278</v>
       </c>
       <c r="C70">
-        <v>94.444</v>
+        <v>109.091</v>
       </c>
       <c r="D70" t="s">
         <v>280</v>
@@ -2418,10 +2418,10 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C71">
-        <v>148.837</v>
+        <v>100</v>
       </c>
       <c r="D71" t="s">
         <v>280</v>
@@ -2438,7 +2438,7 @@
         <v>278</v>
       </c>
       <c r="C72">
-        <v>98.905</v>
+        <v>119.866</v>
       </c>
       <c r="D72" t="s">
         <v>280</v>
@@ -2452,10 +2452,10 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C73">
-        <v>68.869</v>
+        <v>98.092</v>
       </c>
       <c r="D73" t="s">
         <v>280</v>
@@ -2472,7 +2472,7 @@
         <v>278</v>
       </c>
       <c r="C74">
-        <v>86.95699999999999</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s">
         <v>280</v>
@@ -2489,7 +2489,7 @@
         <v>278</v>
       </c>
       <c r="C75">
-        <v>93.76300000000001</v>
+        <v>106.593</v>
       </c>
       <c r="D75" t="s">
         <v>280</v>
@@ -2506,7 +2506,7 @@
         <v>278</v>
       </c>
       <c r="C76">
-        <v>92.58</v>
+        <v>120.623</v>
       </c>
       <c r="D76" t="s">
         <v>280</v>
@@ -2523,7 +2523,7 @@
         <v>278</v>
       </c>
       <c r="C77">
-        <v>92.063</v>
+        <v>103.734</v>
       </c>
       <c r="D77" t="s">
         <v>280</v>
@@ -2540,7 +2540,7 @@
         <v>278</v>
       </c>
       <c r="C78">
-        <v>92.13800000000001</v>
+        <v>128.834</v>
       </c>
       <c r="D78" t="s">
         <v>280</v>
@@ -2554,10 +2554,10 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C79">
-        <v>95.349</v>
+        <v>91.52500000000001</v>
       </c>
       <c r="D79" t="s">
         <v>280</v>
@@ -2574,7 +2574,7 @@
         <v>278</v>
       </c>
       <c r="C80">
-        <v>86.667</v>
+        <v>110.526</v>
       </c>
       <c r="D80" t="s">
         <v>280</v>
@@ -2591,7 +2591,7 @@
         <v>278</v>
       </c>
       <c r="C81">
-        <v>87.66</v>
+        <v>102.036</v>
       </c>
       <c r="D81" t="s">
         <v>280</v>
@@ -2605,10 +2605,10 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C82">
-        <v>100</v>
+        <v>107.692</v>
       </c>
       <c r="D82" t="s">
         <v>280</v>
@@ -2625,7 +2625,7 @@
         <v>278</v>
       </c>
       <c r="C83">
-        <v>80</v>
+        <v>103.333</v>
       </c>
       <c r="D83" t="s">
         <v>280</v>
@@ -2642,7 +2642,7 @@
         <v>278</v>
       </c>
       <c r="C84">
-        <v>76.596</v>
+        <v>107.595</v>
       </c>
       <c r="D84" t="s">
         <v>280</v>
@@ -2659,7 +2659,7 @@
         <v>279</v>
       </c>
       <c r="C85">
-        <v>110.484</v>
+        <v>97.619</v>
       </c>
       <c r="D85" t="s">
         <v>280</v>
@@ -2673,10 +2673,10 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C86">
-        <v>92.309</v>
+        <v>98.907</v>
       </c>
       <c r="D86" t="s">
         <v>280</v>
@@ -2693,7 +2693,7 @@
         <v>278</v>
       </c>
       <c r="C87">
-        <v>92.857</v>
+        <v>101.587</v>
       </c>
       <c r="D87" t="s">
         <v>280</v>
@@ -2710,7 +2710,7 @@
         <v>278</v>
       </c>
       <c r="C88">
-        <v>89.583</v>
+        <v>121.212</v>
       </c>
       <c r="D88" t="s">
         <v>280</v>
@@ -2727,7 +2727,7 @@
         <v>279</v>
       </c>
       <c r="C89">
-        <v>110.615</v>
+        <v>96.395</v>
       </c>
       <c r="D89" t="s">
         <v>280</v>
@@ -2744,7 +2744,7 @@
         <v>278</v>
       </c>
       <c r="C90">
-        <v>87.5</v>
+        <v>103.846</v>
       </c>
       <c r="D90" t="s">
         <v>280</v>
@@ -2758,10 +2758,10 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C91">
-        <v>115.476</v>
+        <v>105.785</v>
       </c>
       <c r="D91" t="s">
         <v>280</v>
@@ -2778,7 +2778,7 @@
         <v>278</v>
       </c>
       <c r="C92">
-        <v>89.643</v>
+        <v>103.919</v>
       </c>
       <c r="D92" t="s">
         <v>280</v>
@@ -2795,7 +2795,7 @@
         <v>279</v>
       </c>
       <c r="C93">
-        <v>187.097</v>
+        <v>83.333</v>
       </c>
       <c r="D93" t="s">
         <v>280</v>
@@ -2812,7 +2812,7 @@
         <v>278</v>
       </c>
       <c r="C94">
-        <v>63.508</v>
+        <v>131.954</v>
       </c>
       <c r="D94" t="s">
         <v>280</v>
@@ -2829,7 +2829,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>79.40000000000001</v>
+        <v>111.843</v>
       </c>
       <c r="D95" t="s">
         <v>280</v>
@@ -2846,7 +2846,7 @@
         <v>278</v>
       </c>
       <c r="C96">
-        <v>97.98</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
         <v>280</v>
@@ -2860,10 +2860,10 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C97">
-        <v>89.926</v>
+        <v>94.617</v>
       </c>
       <c r="D97" t="s">
         <v>280</v>
@@ -2877,7 +2877,7 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C98">
         <v>100</v>
@@ -2897,7 +2897,7 @@
         <v>278</v>
       </c>
       <c r="C99">
-        <v>95.238</v>
+        <v>111.765</v>
       </c>
       <c r="D99" t="s">
         <v>280</v>
@@ -2914,7 +2914,7 @@
         <v>278</v>
       </c>
       <c r="C100">
-        <v>83.73999999999999</v>
+        <v>121.815</v>
       </c>
       <c r="D100" t="s">
         <v>280</v>
@@ -2928,10 +2928,10 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C101">
-        <v>102.146</v>
+        <v>101.111</v>
       </c>
       <c r="D101" t="s">
         <v>280</v>
@@ -2945,10 +2945,10 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C102">
-        <v>89.474</v>
+        <v>97.82599999999999</v>
       </c>
       <c r="D102" t="s">
         <v>280</v>
@@ -2965,7 +2965,7 @@
         <v>278</v>
       </c>
       <c r="C103">
-        <v>91.667</v>
+        <v>111.111</v>
       </c>
       <c r="D103" t="s">
         <v>280</v>
@@ -2982,7 +2982,7 @@
         <v>278</v>
       </c>
       <c r="C104">
-        <v>81.081</v>
+        <v>107.292</v>
       </c>
       <c r="D104" t="s">
         <v>280</v>
@@ -2996,10 +2996,10 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C105">
-        <v>100</v>
+        <v>131.707</v>
       </c>
       <c r="D105" t="s">
         <v>280</v>
@@ -3013,10 +3013,10 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C106">
-        <v>100.709</v>
+        <v>110.053</v>
       </c>
       <c r="D106" t="s">
         <v>280</v>
@@ -3033,7 +3033,7 @@
         <v>278</v>
       </c>
       <c r="C107">
-        <v>96</v>
+        <v>111.765</v>
       </c>
       <c r="D107" t="s">
         <v>280</v>
@@ -3050,7 +3050,7 @@
         <v>278</v>
       </c>
       <c r="C108">
-        <v>75</v>
+        <v>104.762</v>
       </c>
       <c r="D108" t="s">
         <v>280</v>
@@ -3067,7 +3067,7 @@
         <v>279</v>
       </c>
       <c r="C109">
-        <v>100.285</v>
+        <v>94.565</v>
       </c>
       <c r="D109" t="s">
         <v>280</v>
@@ -3084,7 +3084,7 @@
         <v>278</v>
       </c>
       <c r="C110">
-        <v>87.12</v>
+        <v>104.571</v>
       </c>
       <c r="D110" t="s">
         <v>280</v>
@@ -3098,10 +3098,10 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C111">
-        <v>93.117</v>
+        <v>92.857</v>
       </c>
       <c r="D111" t="s">
         <v>280</v>
@@ -3118,7 +3118,7 @@
         <v>279</v>
       </c>
       <c r="C112">
-        <v>111.243</v>
+        <v>97.072</v>
       </c>
       <c r="D112" t="s">
         <v>280</v>
@@ -3135,7 +3135,7 @@
         <v>279</v>
       </c>
       <c r="C113">
-        <v>103.448</v>
+        <v>95.161</v>
       </c>
       <c r="D113" t="s">
         <v>280</v>
@@ -3149,10 +3149,10 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C114">
-        <v>101.786</v>
+        <v>100.98</v>
       </c>
       <c r="D114" t="s">
         <v>280</v>
@@ -3169,7 +3169,7 @@
         <v>278</v>
       </c>
       <c r="C115">
-        <v>88.679</v>
+        <v>100</v>
       </c>
       <c r="D115" t="s">
         <v>280</v>
@@ -3183,10 +3183,10 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C116">
-        <v>104</v>
+        <v>158.333</v>
       </c>
       <c r="D116" t="s">
         <v>280</v>
@@ -3200,10 +3200,10 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C117">
-        <v>107.407</v>
+        <v>100</v>
       </c>
       <c r="D117" t="s">
         <v>280</v>
@@ -3220,7 +3220,7 @@
         <v>278</v>
       </c>
       <c r="C118">
-        <v>88.14</v>
+        <v>107.261</v>
       </c>
       <c r="D118" t="s">
         <v>280</v>
@@ -3237,7 +3237,7 @@
         <v>278</v>
       </c>
       <c r="C119">
-        <v>88.925</v>
+        <v>118.598</v>
       </c>
       <c r="D119" t="s">
         <v>280</v>
@@ -3254,7 +3254,7 @@
         <v>279</v>
       </c>
       <c r="C120">
-        <v>148.127</v>
+        <v>97.099</v>
       </c>
       <c r="D120" t="s">
         <v>280</v>
@@ -3268,10 +3268,10 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C121">
-        <v>65.76900000000001</v>
+        <v>96.226</v>
       </c>
       <c r="D121" t="s">
         <v>280</v>
@@ -3288,7 +3288,7 @@
         <v>278</v>
       </c>
       <c r="C122">
-        <v>90.90900000000001</v>
+        <v>105.263</v>
       </c>
       <c r="D122" t="s">
         <v>280</v>
@@ -3302,10 +3302,10 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C123">
-        <v>214.583</v>
+        <v>107.895</v>
       </c>
       <c r="D123" t="s">
         <v>280</v>
@@ -3319,10 +3319,10 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C124">
-        <v>104.082</v>
+        <v>103.125</v>
       </c>
       <c r="D124" t="s">
         <v>280</v>
@@ -3339,7 +3339,7 @@
         <v>278</v>
       </c>
       <c r="C125">
-        <v>91.139</v>
+        <v>104.046</v>
       </c>
       <c r="D125" t="s">
         <v>280</v>
@@ -3356,7 +3356,7 @@
         <v>278</v>
       </c>
       <c r="C126">
-        <v>94.11799999999999</v>
+        <v>100</v>
       </c>
       <c r="D126" t="s">
         <v>280</v>
@@ -3370,10 +3370,10 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C127">
-        <v>178.322</v>
+        <v>103.67</v>
       </c>
       <c r="D127" t="s">
         <v>280</v>
@@ -3387,10 +3387,10 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C128">
-        <v>88.79000000000001</v>
+        <v>94.06999999999999</v>
       </c>
       <c r="D128" t="s">
         <v>280</v>
@@ -3407,7 +3407,7 @@
         <v>278</v>
       </c>
       <c r="C129">
-        <v>91.667</v>
+        <v>108</v>
       </c>
       <c r="D129" t="s">
         <v>280</v>
@@ -3421,10 +3421,10 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C130">
-        <v>87.23399999999999</v>
+        <v>92.063</v>
       </c>
       <c r="D130" t="s">
         <v>280</v>
@@ -3441,7 +3441,7 @@
         <v>278</v>
       </c>
       <c r="C131">
-        <v>82.246</v>
+        <v>115.657</v>
       </c>
       <c r="D131" t="s">
         <v>280</v>
@@ -3455,10 +3455,10 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C132">
-        <v>95.455</v>
+        <v>97.91</v>
       </c>
       <c r="D132" t="s">
         <v>280</v>
@@ -3472,10 +3472,10 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C133">
-        <v>70.111</v>
+        <v>96.142</v>
       </c>
       <c r="D133" t="s">
         <v>280</v>
@@ -3492,7 +3492,7 @@
         <v>278</v>
       </c>
       <c r="C134">
-        <v>92.593</v>
+        <v>107.407</v>
       </c>
       <c r="D134" t="s">
         <v>280</v>
@@ -3509,7 +3509,7 @@
         <v>278</v>
       </c>
       <c r="C135">
-        <v>91.304</v>
+        <v>101.818</v>
       </c>
       <c r="D135" t="s">
         <v>280</v>
@@ -3523,10 +3523,10 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C136">
-        <v>94.84099999999999</v>
+        <v>99.57599999999999</v>
       </c>
       <c r="D136" t="s">
         <v>280</v>
@@ -3543,7 +3543,7 @@
         <v>278</v>
       </c>
       <c r="C137">
-        <v>92.89100000000001</v>
+        <v>100.415</v>
       </c>
       <c r="D137" t="s">
         <v>280</v>
@@ -3560,7 +3560,7 @@
         <v>278</v>
       </c>
       <c r="C138">
-        <v>96.575</v>
+        <v>106.579</v>
       </c>
       <c r="D138" t="s">
         <v>280</v>
@@ -3577,7 +3577,7 @@
         <v>278</v>
       </c>
       <c r="C139">
-        <v>94.366</v>
+        <v>111.304</v>
       </c>
       <c r="D139" t="s">
         <v>280</v>
@@ -3594,7 +3594,7 @@
         <v>278</v>
       </c>
       <c r="C140">
-        <v>58.333</v>
+        <v>100</v>
       </c>
       <c r="D140" t="s">
         <v>280</v>
@@ -3608,10 +3608,10 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C141">
-        <v>100</v>
+        <v>113.793</v>
       </c>
       <c r="D141" t="s">
         <v>280</v>
@@ -3628,7 +3628,7 @@
         <v>278</v>
       </c>
       <c r="C142">
-        <v>97.895</v>
+        <v>104.545</v>
       </c>
       <c r="D142" t="s">
         <v>280</v>
@@ -3642,10 +3642,10 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C143">
-        <v>92.44499999999999</v>
+        <v>99.423</v>
       </c>
       <c r="D143" t="s">
         <v>280</v>
@@ -3659,10 +3659,10 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C144">
-        <v>106.298</v>
+        <v>106.489</v>
       </c>
       <c r="D144" t="s">
         <v>280</v>
@@ -3679,7 +3679,7 @@
         <v>278</v>
       </c>
       <c r="C145">
-        <v>80.89100000000001</v>
+        <v>102.583</v>
       </c>
       <c r="D145" t="s">
         <v>280</v>
@@ -3696,7 +3696,7 @@
         <v>278</v>
       </c>
       <c r="C146">
-        <v>77.143</v>
+        <v>104.204</v>
       </c>
       <c r="D146" t="s">
         <v>280</v>
@@ -3710,10 +3710,10 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C147">
-        <v>82.319</v>
+        <v>93.63800000000001</v>
       </c>
       <c r="D147" t="s">
         <v>280</v>
@@ -3730,7 +3730,7 @@
         <v>278</v>
       </c>
       <c r="C148">
-        <v>62.4</v>
+        <v>111.712</v>
       </c>
       <c r="D148" t="s">
         <v>280</v>
@@ -3747,7 +3747,7 @@
         <v>278</v>
       </c>
       <c r="C149">
-        <v>96</v>
+        <v>103.571</v>
       </c>
       <c r="D149" t="s">
         <v>280</v>
@@ -3761,10 +3761,10 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C150">
-        <v>81.767</v>
+        <v>79.798</v>
       </c>
       <c r="D150" t="s">
         <v>280</v>
@@ -3781,7 +3781,7 @@
         <v>278</v>
       </c>
       <c r="C151">
-        <v>90.795</v>
+        <v>108.667</v>
       </c>
       <c r="D151" t="s">
         <v>280</v>
@@ -3798,7 +3798,7 @@
         <v>278</v>
       </c>
       <c r="C152">
-        <v>70.27</v>
+        <v>107.692</v>
       </c>
       <c r="D152" t="s">
         <v>280</v>
@@ -3815,7 +3815,7 @@
         <v>278</v>
       </c>
       <c r="C153">
-        <v>90.291</v>
+        <v>104.478</v>
       </c>
       <c r="D153" t="s">
         <v>280</v>
@@ -3832,7 +3832,7 @@
         <v>278</v>
       </c>
       <c r="C154">
-        <v>76.102</v>
+        <v>103.503</v>
       </c>
       <c r="D154" t="s">
         <v>280</v>
@@ -3846,10 +3846,10 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C155">
-        <v>133.333</v>
+        <v>111.111</v>
       </c>
       <c r="D155" t="s">
         <v>280</v>
@@ -3866,7 +3866,7 @@
         <v>279</v>
       </c>
       <c r="C156">
-        <v>101.158</v>
+        <v>97.18300000000001</v>
       </c>
       <c r="D156" t="s">
         <v>280</v>
@@ -3883,7 +3883,7 @@
         <v>279</v>
       </c>
       <c r="C157">
-        <v>155.102</v>
+        <v>93.985</v>
       </c>
       <c r="D157" t="s">
         <v>280</v>
@@ -3900,7 +3900,7 @@
         <v>278</v>
       </c>
       <c r="C158">
-        <v>91.429</v>
+        <v>108</v>
       </c>
       <c r="D158" t="s">
         <v>280</v>
@@ -3917,7 +3917,7 @@
         <v>278</v>
       </c>
       <c r="C159">
-        <v>23.529</v>
+        <v>113.316</v>
       </c>
       <c r="D159" t="s">
         <v>280</v>
@@ -3934,7 +3934,7 @@
         <v>278</v>
       </c>
       <c r="C160">
-        <v>68.376</v>
+        <v>102</v>
       </c>
       <c r="D160" t="s">
         <v>280</v>
@@ -3948,10 +3948,10 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C161">
-        <v>144.444</v>
+        <v>106.154</v>
       </c>
       <c r="D161" t="s">
         <v>280</v>
@@ -3968,7 +3968,7 @@
         <v>278</v>
       </c>
       <c r="C162">
-        <v>87.879</v>
+        <v>105.882</v>
       </c>
       <c r="D162" t="s">
         <v>280</v>
@@ -3982,10 +3982,10 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C163">
-        <v>116.667</v>
+        <v>100</v>
       </c>
       <c r="D163" t="s">
         <v>280</v>
@@ -3999,10 +3999,10 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C164">
-        <v>70.51300000000001</v>
+        <v>91.54900000000001</v>
       </c>
       <c r="D164" t="s">
         <v>280</v>
@@ -4019,7 +4019,7 @@
         <v>279</v>
       </c>
       <c r="C165">
-        <v>109.519</v>
+        <v>97.745</v>
       </c>
       <c r="D165" t="s">
         <v>280</v>
@@ -4036,7 +4036,7 @@
         <v>278</v>
       </c>
       <c r="C166">
-        <v>83.85599999999999</v>
+        <v>104.965</v>
       </c>
       <c r="D166" t="s">
         <v>280</v>
@@ -4053,7 +4053,7 @@
         <v>278</v>
       </c>
       <c r="C167">
-        <v>98.837</v>
+        <v>105.714</v>
       </c>
       <c r="D167" t="s">
         <v>280</v>
@@ -4067,10 +4067,10 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C168">
-        <v>92.428</v>
+        <v>94.70099999999999</v>
       </c>
       <c r="D168" t="s">
         <v>280</v>
@@ -4087,7 +4087,7 @@
         <v>278</v>
       </c>
       <c r="C169">
-        <v>88.991</v>
+        <v>101.242</v>
       </c>
       <c r="D169" t="s">
         <v>280</v>
@@ -4101,10 +4101,10 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C170">
-        <v>85.242</v>
+        <v>64.34099999999999</v>
       </c>
       <c r="D170" t="s">
         <v>280</v>
@@ -4121,7 +4121,7 @@
         <v>278</v>
       </c>
       <c r="C171">
-        <v>90.634</v>
+        <v>111.364</v>
       </c>
       <c r="D171" t="s">
         <v>280</v>
@@ -4138,7 +4138,7 @@
         <v>278</v>
       </c>
       <c r="C172">
-        <v>87.751</v>
+        <v>100.93</v>
       </c>
       <c r="D172" t="s">
         <v>280</v>
@@ -4155,7 +4155,7 @@
         <v>278</v>
       </c>
       <c r="C173">
-        <v>85.437</v>
+        <v>102.564</v>
       </c>
       <c r="D173" t="s">
         <v>280</v>
@@ -4169,10 +4169,10 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C174">
-        <v>91.425</v>
+        <v>91.938</v>
       </c>
       <c r="D174" t="s">
         <v>280</v>
@@ -4186,10 +4186,10 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C175">
-        <v>122.581</v>
+        <v>100</v>
       </c>
       <c r="D175" t="s">
         <v>280</v>
@@ -4206,7 +4206,7 @@
         <v>278</v>
       </c>
       <c r="C176">
-        <v>83.333</v>
+        <v>103.704</v>
       </c>
       <c r="D176" t="s">
         <v>280</v>
@@ -4223,7 +4223,7 @@
         <v>279</v>
       </c>
       <c r="C177">
-        <v>180</v>
+        <v>94.444</v>
       </c>
       <c r="D177" t="s">
         <v>280</v>
@@ -4240,7 +4240,7 @@
         <v>278</v>
       </c>
       <c r="C178">
-        <v>65.217</v>
+        <v>104.412</v>
       </c>
       <c r="D178" t="s">
         <v>280</v>
@@ -4257,7 +4257,7 @@
         <v>278</v>
       </c>
       <c r="C179">
-        <v>87.5</v>
+        <v>105.882</v>
       </c>
       <c r="D179" t="s">
         <v>280</v>
@@ -4271,10 +4271,10 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C180">
-        <v>101.799</v>
+        <v>100.194</v>
       </c>
       <c r="D180" t="s">
         <v>280</v>
@@ -4291,7 +4291,7 @@
         <v>278</v>
       </c>
       <c r="C181">
-        <v>89.38500000000001</v>
+        <v>111.268</v>
       </c>
       <c r="D181" t="s">
         <v>280</v>
@@ -4308,7 +4308,7 @@
         <v>278</v>
       </c>
       <c r="C182">
-        <v>94.11799999999999</v>
+        <v>102.941</v>
       </c>
       <c r="D182" t="s">
         <v>280</v>
@@ -4325,7 +4325,7 @@
         <v>278</v>
       </c>
       <c r="C183">
-        <v>87.5</v>
+        <v>103.846</v>
       </c>
       <c r="D183" t="s">
         <v>280</v>
@@ -4339,10 +4339,10 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C184">
-        <v>51.471</v>
+        <v>97.889</v>
       </c>
       <c r="D184" t="s">
         <v>280</v>
@@ -4356,10 +4356,10 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C185">
-        <v>67.45999999999999</v>
+        <v>96.414</v>
       </c>
       <c r="D185" t="s">
         <v>280</v>
@@ -4376,7 +4376,7 @@
         <v>278</v>
       </c>
       <c r="C186">
-        <v>89.84399999999999</v>
+        <v>103.175</v>
       </c>
       <c r="D186" t="s">
         <v>280</v>
@@ -4393,7 +4393,7 @@
         <v>279</v>
       </c>
       <c r="C187">
-        <v>144.737</v>
+        <v>98.773</v>
       </c>
       <c r="D187" t="s">
         <v>280</v>
@@ -4410,7 +4410,7 @@
         <v>278</v>
       </c>
       <c r="C188">
-        <v>98.205</v>
+        <v>100.703</v>
       </c>
       <c r="D188" t="s">
         <v>280</v>
@@ -4427,7 +4427,7 @@
         <v>279</v>
       </c>
       <c r="C189">
-        <v>111.842</v>
+        <v>95.904</v>
       </c>
       <c r="D189" t="s">
         <v>280</v>
@@ -4441,10 +4441,10 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C190">
-        <v>108.333</v>
+        <v>113.71</v>
       </c>
       <c r="D190" t="s">
         <v>280</v>
@@ -4458,10 +4458,10 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C191">
-        <v>137.5</v>
+        <v>115.385</v>
       </c>
       <c r="D191" t="s">
         <v>280</v>
@@ -4478,7 +4478,7 @@
         <v>278</v>
       </c>
       <c r="C192">
-        <v>63.077</v>
+        <v>134.307</v>
       </c>
       <c r="D192" t="s">
         <v>280</v>
@@ -4492,10 +4492,10 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C193">
-        <v>155.556</v>
+        <v>102.857</v>
       </c>
       <c r="D193" t="s">
         <v>280</v>
@@ -4509,10 +4509,10 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C194">
-        <v>103.448</v>
+        <v>153.333</v>
       </c>
       <c r="D194" t="s">
         <v>280</v>
@@ -4526,10 +4526,10 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C195">
-        <v>100</v>
+        <v>105.556</v>
       </c>
       <c r="D195" t="s">
         <v>280</v>
@@ -4546,7 +4546,7 @@
         <v>278</v>
       </c>
       <c r="C196">
-        <v>95.833</v>
+        <v>109.89</v>
       </c>
       <c r="D196" t="s">
         <v>280</v>
@@ -4560,10 +4560,10 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C197">
-        <v>194.118</v>
+        <v>100</v>
       </c>
       <c r="D197" t="s">
         <v>280</v>
@@ -4580,7 +4580,7 @@
         <v>278</v>
       </c>
       <c r="C198">
-        <v>90.271</v>
+        <v>108.727</v>
       </c>
       <c r="D198" t="s">
         <v>280</v>
@@ -4597,7 +4597,7 @@
         <v>278</v>
       </c>
       <c r="C199">
-        <v>86.364</v>
+        <v>100</v>
       </c>
       <c r="D199" t="s">
         <v>280</v>
@@ -4611,10 +4611,10 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C200">
-        <v>125.431</v>
+        <v>111.26</v>
       </c>
       <c r="D200" t="s">
         <v>280</v>
@@ -4631,7 +4631,7 @@
         <v>279</v>
       </c>
       <c r="C201">
-        <v>116.667</v>
+        <v>93.443</v>
       </c>
       <c r="D201" t="s">
         <v>280</v>
@@ -4648,7 +4648,7 @@
         <v>278</v>
       </c>
       <c r="C202">
-        <v>92.34999999999999</v>
+        <v>105.714</v>
       </c>
       <c r="D202" t="s">
         <v>280</v>
@@ -4665,7 +4665,7 @@
         <v>278</v>
       </c>
       <c r="C203">
-        <v>90.38500000000001</v>
+        <v>102.222</v>
       </c>
       <c r="D203" t="s">
         <v>280</v>
@@ -4682,7 +4682,7 @@
         <v>278</v>
       </c>
       <c r="C204">
-        <v>90.776</v>
+        <v>102.104</v>
       </c>
       <c r="D204" t="s">
         <v>280</v>
@@ -4699,7 +4699,7 @@
         <v>279</v>
       </c>
       <c r="C205">
-        <v>117.872</v>
+        <v>98.818</v>
       </c>
       <c r="D205" t="s">
         <v>280</v>
@@ -4716,7 +4716,7 @@
         <v>278</v>
       </c>
       <c r="C206">
-        <v>89</v>
+        <v>102.719</v>
       </c>
       <c r="D206" t="s">
         <v>280</v>
@@ -4733,7 +4733,7 @@
         <v>278</v>
       </c>
       <c r="C207">
-        <v>93.78100000000001</v>
+        <v>100</v>
       </c>
       <c r="D207" t="s">
         <v>280</v>
@@ -4747,10 +4747,10 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C208">
-        <v>93.274</v>
+        <v>96.69799999999999</v>
       </c>
       <c r="D208" t="s">
         <v>280</v>
@@ -4767,7 +4767,7 @@
         <v>278</v>
       </c>
       <c r="C209">
-        <v>93.75</v>
+        <v>116.667</v>
       </c>
       <c r="D209" t="s">
         <v>280</v>
@@ -4781,10 +4781,10 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C210">
-        <v>90.741</v>
+        <v>88.07299999999999</v>
       </c>
       <c r="D210" t="s">
         <v>280</v>
@@ -4801,7 +4801,7 @@
         <v>278</v>
       </c>
       <c r="C211">
-        <v>86.667</v>
+        <v>112.5</v>
       </c>
       <c r="D211" t="s">
         <v>280</v>
@@ -4818,7 +4818,7 @@
         <v>278</v>
       </c>
       <c r="C212">
-        <v>85.714</v>
+        <v>100</v>
       </c>
       <c r="D212" t="s">
         <v>280</v>
@@ -4832,7 +4832,7 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C213">
         <v>100</v>
@@ -4852,7 +4852,7 @@
         <v>278</v>
       </c>
       <c r="C214">
-        <v>86.614</v>
+        <v>114.414</v>
       </c>
       <c r="D214" t="s">
         <v>280</v>
@@ -4869,7 +4869,7 @@
         <v>278</v>
       </c>
       <c r="C215">
-        <v>58.108</v>
+        <v>121.976</v>
       </c>
       <c r="D215" t="s">
         <v>280</v>
@@ -4886,7 +4886,7 @@
         <v>278</v>
       </c>
       <c r="C216">
-        <v>77.575</v>
+        <v>102.416</v>
       </c>
       <c r="D216" t="s">
         <v>280</v>
@@ -4903,7 +4903,7 @@
         <v>278</v>
       </c>
       <c r="C217">
-        <v>89.157</v>
+        <v>105.978</v>
       </c>
       <c r="D217" t="s">
         <v>280</v>
@@ -4920,7 +4920,7 @@
         <v>278</v>
       </c>
       <c r="C218">
-        <v>87.64</v>
+        <v>105.882</v>
       </c>
       <c r="D218" t="s">
         <v>280</v>
@@ -4934,10 +4934,10 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C219">
-        <v>103.907</v>
+        <v>104.833</v>
       </c>
       <c r="D219" t="s">
         <v>280</v>
@@ -4954,7 +4954,7 @@
         <v>278</v>
       </c>
       <c r="C220">
-        <v>95.91800000000001</v>
+        <v>130.233</v>
       </c>
       <c r="D220" t="s">
         <v>280</v>
@@ -4971,7 +4971,7 @@
         <v>279</v>
       </c>
       <c r="C221">
-        <v>138.462</v>
+        <v>91.667</v>
       </c>
       <c r="D221" t="s">
         <v>280</v>
@@ -4988,7 +4988,7 @@
         <v>278</v>
       </c>
       <c r="C222">
-        <v>84.444</v>
+        <v>103.896</v>
       </c>
       <c r="D222" t="s">
         <v>280</v>
@@ -5005,7 +5005,7 @@
         <v>278</v>
       </c>
       <c r="C223">
-        <v>83.824</v>
+        <v>104.509</v>
       </c>
       <c r="D223" t="s">
         <v>280</v>
@@ -5019,10 +5019,10 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C224">
-        <v>89.419</v>
+        <v>95.28700000000001</v>
       </c>
       <c r="D224" t="s">
         <v>280</v>
@@ -5036,10 +5036,10 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C225">
-        <v>104.299</v>
+        <v>103.237</v>
       </c>
       <c r="D225" t="s">
         <v>280</v>
@@ -5056,7 +5056,7 @@
         <v>278</v>
       </c>
       <c r="C226">
-        <v>95.833</v>
+        <v>104.167</v>
       </c>
       <c r="D226" t="s">
         <v>280</v>
@@ -5070,10 +5070,10 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C227">
-        <v>88.462</v>
+        <v>97.101</v>
       </c>
       <c r="D227" t="s">
         <v>280</v>
@@ -5090,7 +5090,7 @@
         <v>278</v>
       </c>
       <c r="C228">
-        <v>84</v>
+        <v>100</v>
       </c>
       <c r="D228" t="s">
         <v>280</v>
@@ -5107,7 +5107,7 @@
         <v>278</v>
       </c>
       <c r="C229">
-        <v>91.379</v>
+        <v>107.767</v>
       </c>
       <c r="D229" t="s">
         <v>280</v>
@@ -5124,7 +5124,7 @@
         <v>278</v>
       </c>
       <c r="C230">
-        <v>88.235</v>
+        <v>115.472</v>
       </c>
       <c r="D230" t="s">
         <v>280</v>
@@ -5141,7 +5141,7 @@
         <v>279</v>
       </c>
       <c r="C231">
-        <v>133.333</v>
+        <v>89.444</v>
       </c>
       <c r="D231" t="s">
         <v>280</v>
@@ -5155,10 +5155,10 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C232">
-        <v>85.714</v>
+        <v>89.655</v>
       </c>
       <c r="D232" t="s">
         <v>280</v>
@@ -5175,7 +5175,7 @@
         <v>278</v>
       </c>
       <c r="C233">
-        <v>73.73699999999999</v>
+        <v>119.841</v>
       </c>
       <c r="D233" t="s">
         <v>280</v>
@@ -5192,7 +5192,7 @@
         <v>278</v>
       </c>
       <c r="C234">
-        <v>94.11799999999999</v>
+        <v>105.714</v>
       </c>
       <c r="D234" t="s">
         <v>280</v>
@@ -5206,10 +5206,10 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C235">
-        <v>165.657</v>
+        <v>137.179</v>
       </c>
       <c r="D235" t="s">
         <v>280</v>
@@ -5226,7 +5226,7 @@
         <v>278</v>
       </c>
       <c r="C236">
-        <v>87.5</v>
+        <v>114.286</v>
       </c>
       <c r="D236" t="s">
         <v>280</v>
@@ -5243,7 +5243,7 @@
         <v>278</v>
       </c>
       <c r="C237">
-        <v>78.295</v>
+        <v>172.414</v>
       </c>
       <c r="D237" t="s">
         <v>280</v>
@@ -5257,10 +5257,10 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C238">
-        <v>33.529</v>
+        <v>90.78700000000001</v>
       </c>
       <c r="D238" t="s">
         <v>280</v>
@@ -5277,7 +5277,7 @@
         <v>278</v>
       </c>
       <c r="C239">
-        <v>96.154</v>
+        <v>112.195</v>
       </c>
       <c r="D239" t="s">
         <v>280</v>
@@ -5291,10 +5291,10 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C240">
-        <v>86.55200000000001</v>
+        <v>92.209</v>
       </c>
       <c r="D240" t="s">
         <v>280</v>
@@ -5311,7 +5311,7 @@
         <v>279</v>
       </c>
       <c r="C241">
-        <v>100</v>
+        <v>98.98</v>
       </c>
       <c r="D241" t="s">
         <v>280</v>
@@ -5325,10 +5325,10 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C242">
-        <v>84.426</v>
+        <v>98.51900000000001</v>
       </c>
       <c r="D242" t="s">
         <v>280</v>
@@ -5342,10 +5342,10 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C243">
-        <v>115</v>
+        <v>102.439</v>
       </c>
       <c r="D243" t="s">
         <v>280</v>
@@ -5359,10 +5359,10 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C244">
-        <v>95.339</v>
+        <v>98.09999999999999</v>
       </c>
       <c r="D244" t="s">
         <v>280</v>
@@ -5379,7 +5379,7 @@
         <v>278</v>
       </c>
       <c r="C245">
-        <v>84.108</v>
+        <v>104.29</v>
       </c>
       <c r="D245" t="s">
         <v>280</v>
@@ -5396,7 +5396,7 @@
         <v>278</v>
       </c>
       <c r="C246">
-        <v>80.795</v>
+        <v>138.512</v>
       </c>
       <c r="D246" t="s">
         <v>280</v>
@@ -5410,7 +5410,7 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C247">
         <v>100</v>
@@ -5427,7 +5427,7 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C248">
         <v>100</v>
@@ -5444,10 +5444,10 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C249">
-        <v>80</v>
+        <v>88.889</v>
       </c>
       <c r="D249" t="s">
         <v>280</v>
@@ -5461,10 +5461,10 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C250">
-        <v>102.564</v>
+        <v>100</v>
       </c>
       <c r="D250" t="s">
         <v>280</v>
@@ -5478,10 +5478,10 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C251">
-        <v>133.333</v>
+        <v>114.286</v>
       </c>
       <c r="D251" t="s">
         <v>280</v>
@@ -5498,7 +5498,7 @@
         <v>279</v>
       </c>
       <c r="C252">
-        <v>131.579</v>
+        <v>96.29600000000001</v>
       </c>
       <c r="D252" t="s">
         <v>280</v>
@@ -5515,7 +5515,7 @@
         <v>278</v>
       </c>
       <c r="C253">
-        <v>72.973</v>
+        <v>100</v>
       </c>
       <c r="D253" t="s">
         <v>280</v>
@@ -5532,7 +5532,7 @@
         <v>278</v>
       </c>
       <c r="C254">
-        <v>92</v>
+        <v>116.667</v>
       </c>
       <c r="D254" t="s">
         <v>280</v>
@@ -5549,7 +5549,7 @@
         <v>278</v>
       </c>
       <c r="C255">
-        <v>94.73699999999999</v>
+        <v>108.696</v>
       </c>
       <c r="D255" t="s">
         <v>280</v>
@@ -5563,10 +5563,10 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C256">
-        <v>100.282</v>
+        <v>113.305</v>
       </c>
       <c r="D256" t="s">
         <v>280</v>
@@ -5580,10 +5580,10 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C257">
-        <v>103.192</v>
+        <v>112.138</v>
       </c>
       <c r="D257" t="s">
         <v>280</v>
@@ -5597,10 +5597,10 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C258">
-        <v>107.283</v>
+        <v>108.572</v>
       </c>
       <c r="D258" t="s">
         <v>280</v>
@@ -5614,10 +5614,10 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C259">
-        <v>95.76000000000001</v>
+        <v>96.429</v>
       </c>
       <c r="D259" t="s">
         <v>280</v>
@@ -5631,10 +5631,10 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C260">
-        <v>122.727</v>
+        <v>125.297</v>
       </c>
       <c r="D260" t="s">
         <v>280</v>
@@ -5651,7 +5651,7 @@
         <v>278</v>
       </c>
       <c r="C261">
-        <v>91.268</v>
+        <v>112.131</v>
       </c>
       <c r="D261" t="s">
         <v>280</v>
@@ -5668,7 +5668,7 @@
         <v>278</v>
       </c>
       <c r="C262">
-        <v>84.211</v>
+        <v>118.605</v>
       </c>
       <c r="D262" t="s">
         <v>280</v>
@@ -5685,7 +5685,7 @@
         <v>278</v>
       </c>
       <c r="C263">
-        <v>95.238</v>
+        <v>104</v>
       </c>
       <c r="D263" t="s">
         <v>280</v>
@@ -5702,7 +5702,7 @@
         <v>278</v>
       </c>
       <c r="C264">
-        <v>91.667</v>
+        <v>100</v>
       </c>
       <c r="D264" t="s">
         <v>280</v>
@@ -5716,10 +5716,10 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C265">
-        <v>99.251</v>
+        <v>98.343</v>
       </c>
       <c r="D265" t="s">
         <v>280</v>
@@ -5733,10 +5733,10 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C266">
-        <v>94.937</v>
+        <v>89.55200000000001</v>
       </c>
       <c r="D266" t="s">
         <v>280</v>
@@ -5753,7 +5753,7 @@
         <v>278</v>
       </c>
       <c r="C267">
-        <v>94.11799999999999</v>
+        <v>100</v>
       </c>
       <c r="D267" t="s">
         <v>280</v>
@@ -5770,7 +5770,7 @@
         <v>278</v>
       </c>
       <c r="C268">
-        <v>93.10299999999999</v>
+        <v>104.673</v>
       </c>
       <c r="D268" t="s">
         <v>280</v>
@@ -5787,7 +5787,7 @@
         <v>278</v>
       </c>
       <c r="C269">
-        <v>85.294</v>
+        <v>101.16</v>
       </c>
       <c r="D269" t="s">
         <v>280</v>
@@ -5804,7 +5804,7 @@
         <v>278</v>
       </c>
       <c r="C270">
-        <v>92.217</v>
+        <v>107.96</v>
       </c>
       <c r="D270" t="s">
         <v>280</v>
@@ -5821,7 +5821,7 @@
         <v>278</v>
       </c>
       <c r="C271">
-        <v>84.211</v>
+        <v>113.462</v>
       </c>
       <c r="D271" t="s">
         <v>280</v>
@@ -5838,7 +5838,7 @@
         <v>278</v>
       </c>
       <c r="C272">
-        <v>96.283</v>
+        <v>111.388</v>
       </c>
       <c r="D272" t="s">
         <v>280</v>
@@ -5852,10 +5852,10 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C273">
-        <v>88.518</v>
+        <v>94.727</v>
       </c>
       <c r="D273" t="s">
         <v>280</v>
@@ -5872,7 +5872,7 @@
         <v>278</v>
       </c>
       <c r="C274">
-        <v>89.286</v>
+        <v>105.714</v>
       </c>
       <c r="D274" t="s">
         <v>280</v>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -1248,7 +1248,7 @@
         <v>278</v>
       </c>
       <c r="C2">
-        <v>106.667</v>
+        <v>108.696</v>
       </c>
       <c r="D2" t="s">
         <v>280</v>
@@ -1265,7 +1265,7 @@
         <v>278</v>
       </c>
       <c r="C3">
-        <v>107.491</v>
+        <v>109.011</v>
       </c>
       <c r="D3" t="s">
         <v>280</v>
@@ -1299,7 +1299,7 @@
         <v>278</v>
       </c>
       <c r="C5">
-        <v>104.587</v>
+        <v>103.111</v>
       </c>
       <c r="D5" t="s">
         <v>280</v>
@@ -1313,10 +1313,10 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C6">
-        <v>98.387</v>
+        <v>100</v>
       </c>
       <c r="D6" t="s">
         <v>280</v>
@@ -1367,7 +1367,7 @@
         <v>278</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>100.926</v>
       </c>
       <c r="D9" t="s">
         <v>280</v>
@@ -1384,7 +1384,7 @@
         <v>278</v>
       </c>
       <c r="C10">
-        <v>147.826</v>
+        <v>135.185</v>
       </c>
       <c r="D10" t="s">
         <v>280</v>
@@ -1401,7 +1401,7 @@
         <v>278</v>
       </c>
       <c r="C11">
-        <v>102.857</v>
+        <v>107.194</v>
       </c>
       <c r="D11" t="s">
         <v>280</v>
@@ -1418,7 +1418,7 @@
         <v>278</v>
       </c>
       <c r="C12">
-        <v>105.366</v>
+        <v>103.55</v>
       </c>
       <c r="D12" t="s">
         <v>280</v>
@@ -1435,7 +1435,7 @@
         <v>278</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>105</v>
       </c>
       <c r="D13" t="s">
         <v>280</v>
@@ -1452,7 +1452,7 @@
         <v>278</v>
       </c>
       <c r="C14">
-        <v>132.353</v>
+        <v>130.216</v>
       </c>
       <c r="D14" t="s">
         <v>280</v>
@@ -1469,7 +1469,7 @@
         <v>278</v>
       </c>
       <c r="C15">
-        <v>105.263</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
         <v>280</v>
@@ -1486,7 +1486,7 @@
         <v>278</v>
       </c>
       <c r="C16">
-        <v>107.692</v>
+        <v>115.385</v>
       </c>
       <c r="D16" t="s">
         <v>280</v>
@@ -1503,7 +1503,7 @@
         <v>278</v>
       </c>
       <c r="C17">
-        <v>103.636</v>
+        <v>104.545</v>
       </c>
       <c r="D17" t="s">
         <v>280</v>
@@ -1537,7 +1537,7 @@
         <v>278</v>
       </c>
       <c r="C19">
-        <v>110.405</v>
+        <v>108.721</v>
       </c>
       <c r="D19" t="s">
         <v>280</v>
@@ -1554,7 +1554,7 @@
         <v>279</v>
       </c>
       <c r="C20">
-        <v>93.75</v>
+        <v>92.788</v>
       </c>
       <c r="D20" t="s">
         <v>280</v>
@@ -1571,7 +1571,7 @@
         <v>278</v>
       </c>
       <c r="C21">
-        <v>101.032</v>
+        <v>121.937</v>
       </c>
       <c r="D21" t="s">
         <v>280</v>
@@ -1588,7 +1588,7 @@
         <v>279</v>
       </c>
       <c r="C22">
-        <v>92.157</v>
+        <v>92.68300000000001</v>
       </c>
       <c r="D22" t="s">
         <v>280</v>
@@ -1605,7 +1605,7 @@
         <v>278</v>
       </c>
       <c r="C23">
-        <v>151.923</v>
+        <v>187.156</v>
       </c>
       <c r="D23" t="s">
         <v>280</v>
@@ -1622,7 +1622,7 @@
         <v>279</v>
       </c>
       <c r="C24">
-        <v>88.42100000000001</v>
+        <v>88.542</v>
       </c>
       <c r="D24" t="s">
         <v>280</v>
@@ -1639,7 +1639,7 @@
         <v>278</v>
       </c>
       <c r="C25">
-        <v>133.779</v>
+        <v>164.137</v>
       </c>
       <c r="D25" t="s">
         <v>280</v>
@@ -1656,7 +1656,7 @@
         <v>278</v>
       </c>
       <c r="C26">
-        <v>101.6</v>
+        <v>100.395</v>
       </c>
       <c r="D26" t="s">
         <v>280</v>
@@ -1690,7 +1690,7 @@
         <v>278</v>
       </c>
       <c r="C28">
-        <v>136.364</v>
+        <v>133.333</v>
       </c>
       <c r="D28" t="s">
         <v>280</v>
@@ -1707,7 +1707,7 @@
         <v>278</v>
       </c>
       <c r="C29">
-        <v>101.471</v>
+        <v>100</v>
       </c>
       <c r="D29" t="s">
         <v>280</v>
@@ -1724,7 +1724,7 @@
         <v>278</v>
       </c>
       <c r="C30">
-        <v>102.55</v>
+        <v>105.219</v>
       </c>
       <c r="D30" t="s">
         <v>280</v>
@@ -1741,7 +1741,7 @@
         <v>279</v>
       </c>
       <c r="C31">
-        <v>87.79900000000001</v>
+        <v>82.679</v>
       </c>
       <c r="D31" t="s">
         <v>280</v>
@@ -1758,7 +1758,7 @@
         <v>278</v>
       </c>
       <c r="C32">
-        <v>112.5</v>
+        <v>112</v>
       </c>
       <c r="D32" t="s">
         <v>280</v>
@@ -1775,7 +1775,7 @@
         <v>278</v>
       </c>
       <c r="C33">
-        <v>101.667</v>
+        <v>105</v>
       </c>
       <c r="D33" t="s">
         <v>280</v>
@@ -1789,10 +1789,10 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C34">
-        <v>95.607</v>
+        <v>102.303</v>
       </c>
       <c r="D34" t="s">
         <v>280</v>
@@ -1809,7 +1809,7 @@
         <v>278</v>
       </c>
       <c r="C35">
-        <v>104.024</v>
+        <v>108.929</v>
       </c>
       <c r="D35" t="s">
         <v>280</v>
@@ -1826,7 +1826,7 @@
         <v>278</v>
       </c>
       <c r="C36">
-        <v>104.225</v>
+        <v>104.662</v>
       </c>
       <c r="D36" t="s">
         <v>280</v>
@@ -1860,7 +1860,7 @@
         <v>278</v>
       </c>
       <c r="C38">
-        <v>115.311</v>
+        <v>115.888</v>
       </c>
       <c r="D38" t="s">
         <v>280</v>
@@ -1874,10 +1874,10 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C39">
-        <v>103.846</v>
+        <v>98.605</v>
       </c>
       <c r="D39" t="s">
         <v>280</v>
@@ -1891,10 +1891,10 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C40">
-        <v>100.76</v>
+        <v>99.251</v>
       </c>
       <c r="D40" t="s">
         <v>280</v>
@@ -1911,7 +1911,7 @@
         <v>278</v>
       </c>
       <c r="C41">
-        <v>100</v>
+        <v>103.846</v>
       </c>
       <c r="D41" t="s">
         <v>280</v>
@@ -1928,7 +1928,7 @@
         <v>278</v>
       </c>
       <c r="C42">
-        <v>109.017</v>
+        <v>108.678</v>
       </c>
       <c r="D42" t="s">
         <v>280</v>
@@ -1945,7 +1945,7 @@
         <v>278</v>
       </c>
       <c r="C43">
-        <v>108.571</v>
+        <v>108.451</v>
       </c>
       <c r="D43" t="s">
         <v>280</v>
@@ -1962,7 +1962,7 @@
         <v>279</v>
       </c>
       <c r="C44">
-        <v>88.636</v>
+        <v>86.667</v>
       </c>
       <c r="D44" t="s">
         <v>280</v>
@@ -1979,7 +1979,7 @@
         <v>279</v>
       </c>
       <c r="C45">
-        <v>95.16</v>
+        <v>94.96299999999999</v>
       </c>
       <c r="D45" t="s">
         <v>280</v>
@@ -1996,7 +1996,7 @@
         <v>279</v>
       </c>
       <c r="C46">
-        <v>91.139</v>
+        <v>98.718</v>
       </c>
       <c r="D46" t="s">
         <v>280</v>
@@ -2013,7 +2013,7 @@
         <v>278</v>
       </c>
       <c r="C47">
-        <v>117.833</v>
+        <v>121.295</v>
       </c>
       <c r="D47" t="s">
         <v>280</v>
@@ -2030,7 +2030,7 @@
         <v>278</v>
       </c>
       <c r="C48">
-        <v>112.121</v>
+        <v>116.695</v>
       </c>
       <c r="D48" t="s">
         <v>280</v>
@@ -2047,7 +2047,7 @@
         <v>278</v>
       </c>
       <c r="C49">
-        <v>107.5</v>
+        <v>106.173</v>
       </c>
       <c r="D49" t="s">
         <v>280</v>
@@ -2078,10 +2078,10 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C51">
-        <v>97.59399999999999</v>
+        <v>100.532</v>
       </c>
       <c r="D51" t="s">
         <v>280</v>
@@ -2115,7 +2115,7 @@
         <v>278</v>
       </c>
       <c r="C53">
-        <v>115.156</v>
+        <v>120.552</v>
       </c>
       <c r="D53" t="s">
         <v>280</v>
@@ -2132,7 +2132,7 @@
         <v>278</v>
       </c>
       <c r="C54">
-        <v>108.638</v>
+        <v>117.509</v>
       </c>
       <c r="D54" t="s">
         <v>280</v>
@@ -2149,7 +2149,7 @@
         <v>278</v>
       </c>
       <c r="C55">
-        <v>108.333</v>
+        <v>109.836</v>
       </c>
       <c r="D55" t="s">
         <v>280</v>
@@ -2183,7 +2183,7 @@
         <v>278</v>
       </c>
       <c r="C57">
-        <v>114.706</v>
+        <v>108.571</v>
       </c>
       <c r="D57" t="s">
         <v>280</v>
@@ -2200,7 +2200,7 @@
         <v>278</v>
       </c>
       <c r="C58">
-        <v>111.913</v>
+        <v>111.828</v>
       </c>
       <c r="D58" t="s">
         <v>280</v>
@@ -2217,7 +2217,7 @@
         <v>278</v>
       </c>
       <c r="C59">
-        <v>121.053</v>
+        <v>121.795</v>
       </c>
       <c r="D59" t="s">
         <v>280</v>
@@ -2251,7 +2251,7 @@
         <v>279</v>
       </c>
       <c r="C61">
-        <v>89.583</v>
+        <v>93.182</v>
       </c>
       <c r="D61" t="s">
         <v>280</v>
@@ -2268,7 +2268,7 @@
         <v>278</v>
       </c>
       <c r="C62">
-        <v>127.273</v>
+        <v>116.667</v>
       </c>
       <c r="D62" t="s">
         <v>280</v>
@@ -2282,10 +2282,10 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C63">
-        <v>101.258</v>
+        <v>98.154</v>
       </c>
       <c r="D63" t="s">
         <v>280</v>
@@ -2302,7 +2302,7 @@
         <v>278</v>
       </c>
       <c r="C64">
-        <v>106.098</v>
+        <v>102.353</v>
       </c>
       <c r="D64" t="s">
         <v>280</v>
@@ -2319,7 +2319,7 @@
         <v>278</v>
       </c>
       <c r="C65">
-        <v>131.57</v>
+        <v>151.275</v>
       </c>
       <c r="D65" t="s">
         <v>280</v>
@@ -2333,10 +2333,10 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C66">
-        <v>99.879</v>
+        <v>100.239</v>
       </c>
       <c r="D66" t="s">
         <v>280</v>
@@ -2353,7 +2353,7 @@
         <v>278</v>
       </c>
       <c r="C67">
-        <v>107.407</v>
+        <v>105.357</v>
       </c>
       <c r="D67" t="s">
         <v>280</v>
@@ -2370,7 +2370,7 @@
         <v>278</v>
       </c>
       <c r="C68">
-        <v>106.944</v>
+        <v>111.268</v>
       </c>
       <c r="D68" t="s">
         <v>280</v>
@@ -2387,7 +2387,7 @@
         <v>278</v>
       </c>
       <c r="C69">
-        <v>116.667</v>
+        <v>135.484</v>
       </c>
       <c r="D69" t="s">
         <v>280</v>
@@ -2421,7 +2421,7 @@
         <v>278</v>
       </c>
       <c r="C71">
-        <v>100</v>
+        <v>102.174</v>
       </c>
       <c r="D71" t="s">
         <v>280</v>
@@ -2438,7 +2438,7 @@
         <v>278</v>
       </c>
       <c r="C72">
-        <v>119.866</v>
+        <v>119.477</v>
       </c>
       <c r="D72" t="s">
         <v>280</v>
@@ -2455,7 +2455,7 @@
         <v>279</v>
       </c>
       <c r="C73">
-        <v>98.092</v>
+        <v>90.879</v>
       </c>
       <c r="D73" t="s">
         <v>280</v>
@@ -2472,7 +2472,7 @@
         <v>278</v>
       </c>
       <c r="C74">
-        <v>140</v>
+        <v>133.333</v>
       </c>
       <c r="D74" t="s">
         <v>280</v>
@@ -2489,7 +2489,7 @@
         <v>278</v>
       </c>
       <c r="C75">
-        <v>106.593</v>
+        <v>102.889</v>
       </c>
       <c r="D75" t="s">
         <v>280</v>
@@ -2506,7 +2506,7 @@
         <v>278</v>
       </c>
       <c r="C76">
-        <v>120.623</v>
+        <v>115.815</v>
       </c>
       <c r="D76" t="s">
         <v>280</v>
@@ -2523,7 +2523,7 @@
         <v>278</v>
       </c>
       <c r="C77">
-        <v>103.734</v>
+        <v>104.184</v>
       </c>
       <c r="D77" t="s">
         <v>280</v>
@@ -2540,7 +2540,7 @@
         <v>278</v>
       </c>
       <c r="C78">
-        <v>128.834</v>
+        <v>168.563</v>
       </c>
       <c r="D78" t="s">
         <v>280</v>
@@ -2557,7 +2557,7 @@
         <v>279</v>
       </c>
       <c r="C79">
-        <v>91.52500000000001</v>
+        <v>96.429</v>
       </c>
       <c r="D79" t="s">
         <v>280</v>
@@ -2574,7 +2574,7 @@
         <v>278</v>
       </c>
       <c r="C80">
-        <v>110.526</v>
+        <v>115.789</v>
       </c>
       <c r="D80" t="s">
         <v>280</v>
@@ -2591,7 +2591,7 @@
         <v>278</v>
       </c>
       <c r="C81">
-        <v>102.036</v>
+        <v>102.74</v>
       </c>
       <c r="D81" t="s">
         <v>280</v>
@@ -2625,7 +2625,7 @@
         <v>278</v>
       </c>
       <c r="C83">
-        <v>103.333</v>
+        <v>100</v>
       </c>
       <c r="D83" t="s">
         <v>280</v>
@@ -2642,7 +2642,7 @@
         <v>278</v>
       </c>
       <c r="C84">
-        <v>107.595</v>
+        <v>109.236</v>
       </c>
       <c r="D84" t="s">
         <v>280</v>
@@ -2656,10 +2656,10 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C85">
-        <v>97.619</v>
+        <v>103.614</v>
       </c>
       <c r="D85" t="s">
         <v>280</v>
@@ -2676,7 +2676,7 @@
         <v>279</v>
       </c>
       <c r="C86">
-        <v>98.907</v>
+        <v>98.43899999999999</v>
       </c>
       <c r="D86" t="s">
         <v>280</v>
@@ -2693,7 +2693,7 @@
         <v>278</v>
       </c>
       <c r="C87">
-        <v>101.587</v>
+        <v>100</v>
       </c>
       <c r="D87" t="s">
         <v>280</v>
@@ -2710,7 +2710,7 @@
         <v>278</v>
       </c>
       <c r="C88">
-        <v>121.212</v>
+        <v>113.889</v>
       </c>
       <c r="D88" t="s">
         <v>280</v>
@@ -2727,7 +2727,7 @@
         <v>279</v>
       </c>
       <c r="C89">
-        <v>96.395</v>
+        <v>89.179</v>
       </c>
       <c r="D89" t="s">
         <v>280</v>
@@ -2744,7 +2744,7 @@
         <v>278</v>
       </c>
       <c r="C90">
-        <v>103.846</v>
+        <v>105.063</v>
       </c>
       <c r="D90" t="s">
         <v>280</v>
@@ -2761,7 +2761,7 @@
         <v>278</v>
       </c>
       <c r="C91">
-        <v>105.785</v>
+        <v>108.065</v>
       </c>
       <c r="D91" t="s">
         <v>280</v>
@@ -2778,7 +2778,7 @@
         <v>278</v>
       </c>
       <c r="C92">
-        <v>103.919</v>
+        <v>106.204</v>
       </c>
       <c r="D92" t="s">
         <v>280</v>
@@ -2812,7 +2812,7 @@
         <v>278</v>
       </c>
       <c r="C94">
-        <v>131.954</v>
+        <v>130.459</v>
       </c>
       <c r="D94" t="s">
         <v>280</v>
@@ -2829,7 +2829,7 @@
         <v>278</v>
       </c>
       <c r="C95">
-        <v>111.843</v>
+        <v>113.101</v>
       </c>
       <c r="D95" t="s">
         <v>280</v>
@@ -2863,7 +2863,7 @@
         <v>279</v>
       </c>
       <c r="C97">
-        <v>94.617</v>
+        <v>98.63200000000001</v>
       </c>
       <c r="D97" t="s">
         <v>280</v>
@@ -2897,7 +2897,7 @@
         <v>278</v>
       </c>
       <c r="C99">
-        <v>111.765</v>
+        <v>112.121</v>
       </c>
       <c r="D99" t="s">
         <v>280</v>
@@ -2914,7 +2914,7 @@
         <v>278</v>
       </c>
       <c r="C100">
-        <v>121.815</v>
+        <v>101.216</v>
       </c>
       <c r="D100" t="s">
         <v>280</v>
@@ -2931,7 +2931,7 @@
         <v>278</v>
       </c>
       <c r="C101">
-        <v>101.111</v>
+        <v>101.667</v>
       </c>
       <c r="D101" t="s">
         <v>280</v>
@@ -2945,10 +2945,10 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C102">
-        <v>97.82599999999999</v>
+        <v>102.222</v>
       </c>
       <c r="D102" t="s">
         <v>280</v>
@@ -2982,7 +2982,7 @@
         <v>278</v>
       </c>
       <c r="C104">
-        <v>107.292</v>
+        <v>108.333</v>
       </c>
       <c r="D104" t="s">
         <v>280</v>
@@ -2999,7 +2999,7 @@
         <v>278</v>
       </c>
       <c r="C105">
-        <v>131.707</v>
+        <v>118.391</v>
       </c>
       <c r="D105" t="s">
         <v>280</v>
@@ -3016,7 +3016,7 @@
         <v>278</v>
       </c>
       <c r="C106">
-        <v>110.053</v>
+        <v>110.667</v>
       </c>
       <c r="D106" t="s">
         <v>280</v>
@@ -3033,7 +3033,7 @@
         <v>278</v>
       </c>
       <c r="C107">
-        <v>111.765</v>
+        <v>103.704</v>
       </c>
       <c r="D107" t="s">
         <v>280</v>
@@ -3050,7 +3050,7 @@
         <v>278</v>
       </c>
       <c r="C108">
-        <v>104.762</v>
+        <v>109.302</v>
       </c>
       <c r="D108" t="s">
         <v>280</v>
@@ -3067,7 +3067,7 @@
         <v>279</v>
       </c>
       <c r="C109">
-        <v>94.565</v>
+        <v>93.407</v>
       </c>
       <c r="D109" t="s">
         <v>280</v>
@@ -3081,10 +3081,10 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C110">
-        <v>104.571</v>
+        <v>97.059</v>
       </c>
       <c r="D110" t="s">
         <v>280</v>
@@ -3101,7 +3101,7 @@
         <v>279</v>
       </c>
       <c r="C111">
-        <v>92.857</v>
+        <v>97.538</v>
       </c>
       <c r="D111" t="s">
         <v>280</v>
@@ -3118,7 +3118,7 @@
         <v>279</v>
       </c>
       <c r="C112">
-        <v>97.072</v>
+        <v>96.94199999999999</v>
       </c>
       <c r="D112" t="s">
         <v>280</v>
@@ -3152,7 +3152,7 @@
         <v>278</v>
       </c>
       <c r="C114">
-        <v>100.98</v>
+        <v>102.913</v>
       </c>
       <c r="D114" t="s">
         <v>280</v>
@@ -3166,10 +3166,10 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C115">
-        <v>100</v>
+        <v>95.745</v>
       </c>
       <c r="D115" t="s">
         <v>280</v>
@@ -3186,7 +3186,7 @@
         <v>278</v>
       </c>
       <c r="C116">
-        <v>158.333</v>
+        <v>156</v>
       </c>
       <c r="D116" t="s">
         <v>280</v>
@@ -3200,10 +3200,10 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C117">
-        <v>100</v>
+        <v>96.55200000000001</v>
       </c>
       <c r="D117" t="s">
         <v>280</v>
@@ -3220,7 +3220,7 @@
         <v>278</v>
       </c>
       <c r="C118">
-        <v>107.261</v>
+        <v>102.959</v>
       </c>
       <c r="D118" t="s">
         <v>280</v>
@@ -3237,7 +3237,7 @@
         <v>278</v>
       </c>
       <c r="C119">
-        <v>118.598</v>
+        <v>125.495</v>
       </c>
       <c r="D119" t="s">
         <v>280</v>
@@ -3254,7 +3254,7 @@
         <v>279</v>
       </c>
       <c r="C120">
-        <v>97.099</v>
+        <v>97.47799999999999</v>
       </c>
       <c r="D120" t="s">
         <v>280</v>
@@ -3268,10 +3268,10 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C121">
-        <v>96.226</v>
+        <v>100</v>
       </c>
       <c r="D121" t="s">
         <v>280</v>
@@ -3288,7 +3288,7 @@
         <v>278</v>
       </c>
       <c r="C122">
-        <v>105.263</v>
+        <v>100</v>
       </c>
       <c r="D122" t="s">
         <v>280</v>
@@ -3305,7 +3305,7 @@
         <v>278</v>
       </c>
       <c r="C123">
-        <v>107.895</v>
+        <v>105.263</v>
       </c>
       <c r="D123" t="s">
         <v>280</v>
@@ -3319,10 +3319,10 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C124">
-        <v>103.125</v>
+        <v>98.485</v>
       </c>
       <c r="D124" t="s">
         <v>280</v>
@@ -3339,7 +3339,7 @@
         <v>278</v>
       </c>
       <c r="C125">
-        <v>104.046</v>
+        <v>110.92</v>
       </c>
       <c r="D125" t="s">
         <v>280</v>
@@ -3356,7 +3356,7 @@
         <v>278</v>
       </c>
       <c r="C126">
-        <v>100</v>
+        <v>106.061</v>
       </c>
       <c r="D126" t="s">
         <v>280</v>
@@ -3373,7 +3373,7 @@
         <v>278</v>
       </c>
       <c r="C127">
-        <v>103.67</v>
+        <v>104.587</v>
       </c>
       <c r="D127" t="s">
         <v>280</v>
@@ -3390,7 +3390,7 @@
         <v>279</v>
       </c>
       <c r="C128">
-        <v>94.06999999999999</v>
+        <v>85.01000000000001</v>
       </c>
       <c r="D128" t="s">
         <v>280</v>
@@ -3441,7 +3441,7 @@
         <v>278</v>
       </c>
       <c r="C131">
-        <v>115.657</v>
+        <v>111.366</v>
       </c>
       <c r="D131" t="s">
         <v>280</v>
@@ -3455,10 +3455,10 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C132">
-        <v>97.91</v>
+        <v>103.67</v>
       </c>
       <c r="D132" t="s">
         <v>280</v>
@@ -3472,10 +3472,10 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C133">
-        <v>96.142</v>
+        <v>113.248</v>
       </c>
       <c r="D133" t="s">
         <v>280</v>
@@ -3492,7 +3492,7 @@
         <v>278</v>
       </c>
       <c r="C134">
-        <v>107.407</v>
+        <v>103.571</v>
       </c>
       <c r="D134" t="s">
         <v>280</v>
@@ -3526,7 +3526,7 @@
         <v>279</v>
       </c>
       <c r="C136">
-        <v>99.57599999999999</v>
+        <v>93.697</v>
       </c>
       <c r="D136" t="s">
         <v>280</v>
@@ -3543,7 +3543,7 @@
         <v>278</v>
       </c>
       <c r="C137">
-        <v>100.415</v>
+        <v>100</v>
       </c>
       <c r="D137" t="s">
         <v>280</v>
@@ -3560,7 +3560,7 @@
         <v>278</v>
       </c>
       <c r="C138">
-        <v>106.579</v>
+        <v>102.532</v>
       </c>
       <c r="D138" t="s">
         <v>280</v>
@@ -3577,7 +3577,7 @@
         <v>278</v>
       </c>
       <c r="C139">
-        <v>111.304</v>
+        <v>113.913</v>
       </c>
       <c r="D139" t="s">
         <v>280</v>
@@ -3611,7 +3611,7 @@
         <v>278</v>
       </c>
       <c r="C141">
-        <v>113.793</v>
+        <v>106.452</v>
       </c>
       <c r="D141" t="s">
         <v>280</v>
@@ -3628,7 +3628,7 @@
         <v>278</v>
       </c>
       <c r="C142">
-        <v>104.545</v>
+        <v>100</v>
       </c>
       <c r="D142" t="s">
         <v>280</v>
@@ -3642,10 +3642,10 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C143">
-        <v>99.423</v>
+        <v>101.529</v>
       </c>
       <c r="D143" t="s">
         <v>280</v>
@@ -3662,7 +3662,7 @@
         <v>278</v>
       </c>
       <c r="C144">
-        <v>106.489</v>
+        <v>101.994</v>
       </c>
       <c r="D144" t="s">
         <v>280</v>
@@ -3676,10 +3676,10 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C145">
-        <v>102.583</v>
+        <v>99.27</v>
       </c>
       <c r="D145" t="s">
         <v>280</v>
@@ -3696,7 +3696,7 @@
         <v>278</v>
       </c>
       <c r="C146">
-        <v>104.204</v>
+        <v>100</v>
       </c>
       <c r="D146" t="s">
         <v>280</v>
@@ -3713,7 +3713,7 @@
         <v>279</v>
       </c>
       <c r="C147">
-        <v>93.63800000000001</v>
+        <v>96.621</v>
       </c>
       <c r="D147" t="s">
         <v>280</v>
@@ -3730,7 +3730,7 @@
         <v>278</v>
       </c>
       <c r="C148">
-        <v>111.712</v>
+        <v>103.509</v>
       </c>
       <c r="D148" t="s">
         <v>280</v>
@@ -3747,7 +3747,7 @@
         <v>278</v>
       </c>
       <c r="C149">
-        <v>103.571</v>
+        <v>107.143</v>
       </c>
       <c r="D149" t="s">
         <v>280</v>
@@ -3764,7 +3764,7 @@
         <v>279</v>
       </c>
       <c r="C150">
-        <v>79.798</v>
+        <v>80.233</v>
       </c>
       <c r="D150" t="s">
         <v>280</v>
@@ -3781,7 +3781,7 @@
         <v>278</v>
       </c>
       <c r="C151">
-        <v>108.667</v>
+        <v>113.072</v>
       </c>
       <c r="D151" t="s">
         <v>280</v>
@@ -3798,7 +3798,7 @@
         <v>278</v>
       </c>
       <c r="C152">
-        <v>107.692</v>
+        <v>103.704</v>
       </c>
       <c r="D152" t="s">
         <v>280</v>
@@ -3815,7 +3815,7 @@
         <v>278</v>
       </c>
       <c r="C153">
-        <v>104.478</v>
+        <v>100.73</v>
       </c>
       <c r="D153" t="s">
         <v>280</v>
@@ -3832,7 +3832,7 @@
         <v>278</v>
       </c>
       <c r="C154">
-        <v>103.503</v>
+        <v>103.927</v>
       </c>
       <c r="D154" t="s">
         <v>280</v>
@@ -3883,7 +3883,7 @@
         <v>279</v>
       </c>
       <c r="C157">
-        <v>93.985</v>
+        <v>84.02800000000001</v>
       </c>
       <c r="D157" t="s">
         <v>280</v>
@@ -3900,7 +3900,7 @@
         <v>278</v>
       </c>
       <c r="C158">
-        <v>108</v>
+        <v>111.538</v>
       </c>
       <c r="D158" t="s">
         <v>280</v>
@@ -3917,7 +3917,7 @@
         <v>278</v>
       </c>
       <c r="C159">
-        <v>113.316</v>
+        <v>111.491</v>
       </c>
       <c r="D159" t="s">
         <v>280</v>
@@ -3934,7 +3934,7 @@
         <v>278</v>
       </c>
       <c r="C160">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="D160" t="s">
         <v>280</v>
@@ -3948,10 +3948,10 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C161">
-        <v>106.154</v>
+        <v>98.50700000000001</v>
       </c>
       <c r="D161" t="s">
         <v>280</v>
@@ -3968,7 +3968,7 @@
         <v>278</v>
       </c>
       <c r="C162">
-        <v>105.882</v>
+        <v>108.571</v>
       </c>
       <c r="D162" t="s">
         <v>280</v>
@@ -4002,7 +4002,7 @@
         <v>279</v>
       </c>
       <c r="C164">
-        <v>91.54900000000001</v>
+        <v>93.47799999999999</v>
       </c>
       <c r="D164" t="s">
         <v>280</v>
@@ -4019,7 +4019,7 @@
         <v>279</v>
       </c>
       <c r="C165">
-        <v>97.745</v>
+        <v>99.48999999999999</v>
       </c>
       <c r="D165" t="s">
         <v>280</v>
@@ -4036,7 +4036,7 @@
         <v>278</v>
       </c>
       <c r="C166">
-        <v>104.965</v>
+        <v>104.394</v>
       </c>
       <c r="D166" t="s">
         <v>280</v>
@@ -4053,7 +4053,7 @@
         <v>278</v>
       </c>
       <c r="C167">
-        <v>105.714</v>
+        <v>108.571</v>
       </c>
       <c r="D167" t="s">
         <v>280</v>
@@ -4070,7 +4070,7 @@
         <v>279</v>
       </c>
       <c r="C168">
-        <v>94.70099999999999</v>
+        <v>96.723</v>
       </c>
       <c r="D168" t="s">
         <v>280</v>
@@ -4087,7 +4087,7 @@
         <v>278</v>
       </c>
       <c r="C169">
-        <v>101.242</v>
+        <v>101.818</v>
       </c>
       <c r="D169" t="s">
         <v>280</v>
@@ -4121,7 +4121,7 @@
         <v>278</v>
       </c>
       <c r="C171">
-        <v>111.364</v>
+        <v>111.331</v>
       </c>
       <c r="D171" t="s">
         <v>280</v>
@@ -4138,7 +4138,7 @@
         <v>278</v>
       </c>
       <c r="C172">
-        <v>100.93</v>
+        <v>102.855</v>
       </c>
       <c r="D172" t="s">
         <v>280</v>
@@ -4155,7 +4155,7 @@
         <v>278</v>
       </c>
       <c r="C173">
-        <v>102.564</v>
+        <v>111.207</v>
       </c>
       <c r="D173" t="s">
         <v>280</v>
@@ -4172,7 +4172,7 @@
         <v>279</v>
       </c>
       <c r="C174">
-        <v>91.938</v>
+        <v>92.265</v>
       </c>
       <c r="D174" t="s">
         <v>280</v>
@@ -4186,10 +4186,10 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C175">
-        <v>100</v>
+        <v>95.429</v>
       </c>
       <c r="D175" t="s">
         <v>280</v>
@@ -4220,10 +4220,10 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C177">
-        <v>94.444</v>
+        <v>100</v>
       </c>
       <c r="D177" t="s">
         <v>280</v>
@@ -4240,7 +4240,7 @@
         <v>278</v>
       </c>
       <c r="C178">
-        <v>104.412</v>
+        <v>116.667</v>
       </c>
       <c r="D178" t="s">
         <v>280</v>
@@ -4257,7 +4257,7 @@
         <v>278</v>
       </c>
       <c r="C179">
-        <v>105.882</v>
+        <v>105.556</v>
       </c>
       <c r="D179" t="s">
         <v>280</v>
@@ -4271,10 +4271,10 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C180">
-        <v>100.194</v>
+        <v>96.75</v>
       </c>
       <c r="D180" t="s">
         <v>280</v>
@@ -4291,7 +4291,7 @@
         <v>278</v>
       </c>
       <c r="C181">
-        <v>111.268</v>
+        <v>126.389</v>
       </c>
       <c r="D181" t="s">
         <v>280</v>
@@ -4308,7 +4308,7 @@
         <v>278</v>
       </c>
       <c r="C182">
-        <v>102.941</v>
+        <v>105.714</v>
       </c>
       <c r="D182" t="s">
         <v>280</v>
@@ -4325,7 +4325,7 @@
         <v>278</v>
       </c>
       <c r="C183">
-        <v>103.846</v>
+        <v>100</v>
       </c>
       <c r="D183" t="s">
         <v>280</v>
@@ -4342,7 +4342,7 @@
         <v>279</v>
       </c>
       <c r="C184">
-        <v>97.889</v>
+        <v>93.93899999999999</v>
       </c>
       <c r="D184" t="s">
         <v>280</v>
@@ -4356,10 +4356,10 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C185">
-        <v>96.414</v>
+        <v>106.696</v>
       </c>
       <c r="D185" t="s">
         <v>280</v>
@@ -4376,7 +4376,7 @@
         <v>278</v>
       </c>
       <c r="C186">
-        <v>103.175</v>
+        <v>106.977</v>
       </c>
       <c r="D186" t="s">
         <v>280</v>
@@ -4393,7 +4393,7 @@
         <v>279</v>
       </c>
       <c r="C187">
-        <v>98.773</v>
+        <v>96.95099999999999</v>
       </c>
       <c r="D187" t="s">
         <v>280</v>
@@ -4410,7 +4410,7 @@
         <v>278</v>
       </c>
       <c r="C188">
-        <v>100.703</v>
+        <v>101.458</v>
       </c>
       <c r="D188" t="s">
         <v>280</v>
@@ -4424,10 +4424,10 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C189">
-        <v>95.904</v>
+        <v>102.105</v>
       </c>
       <c r="D189" t="s">
         <v>280</v>
@@ -4441,10 +4441,10 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C190">
-        <v>113.71</v>
+        <v>88.667</v>
       </c>
       <c r="D190" t="s">
         <v>280</v>
@@ -4478,7 +4478,7 @@
         <v>278</v>
       </c>
       <c r="C192">
-        <v>134.307</v>
+        <v>120</v>
       </c>
       <c r="D192" t="s">
         <v>280</v>
@@ -4546,7 +4546,7 @@
         <v>278</v>
       </c>
       <c r="C196">
-        <v>109.89</v>
+        <v>113.043</v>
       </c>
       <c r="D196" t="s">
         <v>280</v>
@@ -4580,7 +4580,7 @@
         <v>278</v>
       </c>
       <c r="C198">
-        <v>108.727</v>
+        <v>101.779</v>
       </c>
       <c r="D198" t="s">
         <v>280</v>
@@ -4614,7 +4614,7 @@
         <v>278</v>
       </c>
       <c r="C200">
-        <v>111.26</v>
+        <v>106.758</v>
       </c>
       <c r="D200" t="s">
         <v>280</v>
@@ -4631,7 +4631,7 @@
         <v>279</v>
       </c>
       <c r="C201">
-        <v>93.443</v>
+        <v>93.548</v>
       </c>
       <c r="D201" t="s">
         <v>280</v>
@@ -4648,7 +4648,7 @@
         <v>278</v>
       </c>
       <c r="C202">
-        <v>105.714</v>
+        <v>102.241</v>
       </c>
       <c r="D202" t="s">
         <v>280</v>
@@ -4665,7 +4665,7 @@
         <v>278</v>
       </c>
       <c r="C203">
-        <v>102.222</v>
+        <v>102.174</v>
       </c>
       <c r="D203" t="s">
         <v>280</v>
@@ -4682,7 +4682,7 @@
         <v>278</v>
       </c>
       <c r="C204">
-        <v>102.104</v>
+        <v>105.405</v>
       </c>
       <c r="D204" t="s">
         <v>280</v>
@@ -4699,7 +4699,7 @@
         <v>279</v>
       </c>
       <c r="C205">
-        <v>98.818</v>
+        <v>98.30200000000001</v>
       </c>
       <c r="D205" t="s">
         <v>280</v>
@@ -4716,7 +4716,7 @@
         <v>278</v>
       </c>
       <c r="C206">
-        <v>102.719</v>
+        <v>105.045</v>
       </c>
       <c r="D206" t="s">
         <v>280</v>
@@ -4750,7 +4750,7 @@
         <v>279</v>
       </c>
       <c r="C208">
-        <v>96.69799999999999</v>
+        <v>96.19</v>
       </c>
       <c r="D208" t="s">
         <v>280</v>
@@ -4767,7 +4767,7 @@
         <v>278</v>
       </c>
       <c r="C209">
-        <v>116.667</v>
+        <v>107.692</v>
       </c>
       <c r="D209" t="s">
         <v>280</v>
@@ -4784,7 +4784,7 @@
         <v>279</v>
       </c>
       <c r="C210">
-        <v>88.07299999999999</v>
+        <v>99.083</v>
       </c>
       <c r="D210" t="s">
         <v>280</v>
@@ -4801,7 +4801,7 @@
         <v>278</v>
       </c>
       <c r="C211">
-        <v>112.5</v>
+        <v>105.882</v>
       </c>
       <c r="D211" t="s">
         <v>280</v>
@@ -4818,7 +4818,7 @@
         <v>278</v>
       </c>
       <c r="C212">
-        <v>100</v>
+        <v>114.286</v>
       </c>
       <c r="D212" t="s">
         <v>280</v>
@@ -4852,7 +4852,7 @@
         <v>278</v>
       </c>
       <c r="C214">
-        <v>114.414</v>
+        <v>117.009</v>
       </c>
       <c r="D214" t="s">
         <v>280</v>
@@ -4869,7 +4869,7 @@
         <v>278</v>
       </c>
       <c r="C215">
-        <v>121.976</v>
+        <v>124.209</v>
       </c>
       <c r="D215" t="s">
         <v>280</v>
@@ -4886,7 +4886,7 @@
         <v>278</v>
       </c>
       <c r="C216">
-        <v>102.416</v>
+        <v>103.207</v>
       </c>
       <c r="D216" t="s">
         <v>280</v>
@@ -4903,7 +4903,7 @@
         <v>278</v>
       </c>
       <c r="C217">
-        <v>105.978</v>
+        <v>108.974</v>
       </c>
       <c r="D217" t="s">
         <v>280</v>
@@ -4920,7 +4920,7 @@
         <v>278</v>
       </c>
       <c r="C218">
-        <v>105.882</v>
+        <v>105.66</v>
       </c>
       <c r="D218" t="s">
         <v>280</v>
@@ -4937,7 +4937,7 @@
         <v>278</v>
       </c>
       <c r="C219">
-        <v>104.833</v>
+        <v>105.614</v>
       </c>
       <c r="D219" t="s">
         <v>280</v>
@@ -4954,7 +4954,7 @@
         <v>278</v>
       </c>
       <c r="C220">
-        <v>130.233</v>
+        <v>118.75</v>
       </c>
       <c r="D220" t="s">
         <v>280</v>
@@ -4971,7 +4971,7 @@
         <v>279</v>
       </c>
       <c r="C221">
-        <v>91.667</v>
+        <v>92.473</v>
       </c>
       <c r="D221" t="s">
         <v>280</v>
@@ -4988,7 +4988,7 @@
         <v>278</v>
       </c>
       <c r="C222">
-        <v>103.896</v>
+        <v>101.316</v>
       </c>
       <c r="D222" t="s">
         <v>280</v>
@@ -5005,7 +5005,7 @@
         <v>278</v>
       </c>
       <c r="C223">
-        <v>104.509</v>
+        <v>105.759</v>
       </c>
       <c r="D223" t="s">
         <v>280</v>
@@ -5019,10 +5019,10 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C224">
-        <v>95.28700000000001</v>
+        <v>105.577</v>
       </c>
       <c r="D224" t="s">
         <v>280</v>
@@ -5036,10 +5036,10 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C225">
-        <v>103.237</v>
+        <v>93.04900000000001</v>
       </c>
       <c r="D225" t="s">
         <v>280</v>
@@ -5056,7 +5056,7 @@
         <v>278</v>
       </c>
       <c r="C226">
-        <v>104.167</v>
+        <v>108.333</v>
       </c>
       <c r="D226" t="s">
         <v>280</v>
@@ -5073,7 +5073,7 @@
         <v>279</v>
       </c>
       <c r="C227">
-        <v>97.101</v>
+        <v>91.54900000000001</v>
       </c>
       <c r="D227" t="s">
         <v>280</v>
@@ -5087,10 +5087,10 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C228">
-        <v>100</v>
+        <v>96.104</v>
       </c>
       <c r="D228" t="s">
         <v>280</v>
@@ -5107,7 +5107,7 @@
         <v>278</v>
       </c>
       <c r="C229">
-        <v>107.767</v>
+        <v>104.808</v>
       </c>
       <c r="D229" t="s">
         <v>280</v>
@@ -5124,7 +5124,7 @@
         <v>278</v>
       </c>
       <c r="C230">
-        <v>115.472</v>
+        <v>116.667</v>
       </c>
       <c r="D230" t="s">
         <v>280</v>
@@ -5141,7 +5141,7 @@
         <v>279</v>
       </c>
       <c r="C231">
-        <v>89.444</v>
+        <v>88.70099999999999</v>
       </c>
       <c r="D231" t="s">
         <v>280</v>
@@ -5155,10 +5155,10 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C232">
-        <v>89.655</v>
+        <v>104.202</v>
       </c>
       <c r="D232" t="s">
         <v>280</v>
@@ -5175,7 +5175,7 @@
         <v>278</v>
       </c>
       <c r="C233">
-        <v>119.841</v>
+        <v>115.385</v>
       </c>
       <c r="D233" t="s">
         <v>280</v>
@@ -5192,7 +5192,7 @@
         <v>278</v>
       </c>
       <c r="C234">
-        <v>105.714</v>
+        <v>108.333</v>
       </c>
       <c r="D234" t="s">
         <v>280</v>
@@ -5209,7 +5209,7 @@
         <v>278</v>
       </c>
       <c r="C235">
-        <v>137.179</v>
+        <v>148.78</v>
       </c>
       <c r="D235" t="s">
         <v>280</v>
@@ -5226,7 +5226,7 @@
         <v>278</v>
       </c>
       <c r="C236">
-        <v>114.286</v>
+        <v>135.714</v>
       </c>
       <c r="D236" t="s">
         <v>280</v>
@@ -5243,7 +5243,7 @@
         <v>278</v>
       </c>
       <c r="C237">
-        <v>172.414</v>
+        <v>151.181</v>
       </c>
       <c r="D237" t="s">
         <v>280</v>
@@ -5260,7 +5260,7 @@
         <v>279</v>
       </c>
       <c r="C238">
-        <v>90.78700000000001</v>
+        <v>87.18600000000001</v>
       </c>
       <c r="D238" t="s">
         <v>280</v>
@@ -5277,7 +5277,7 @@
         <v>278</v>
       </c>
       <c r="C239">
-        <v>112.195</v>
+        <v>109.524</v>
       </c>
       <c r="D239" t="s">
         <v>280</v>
@@ -5294,7 +5294,7 @@
         <v>279</v>
       </c>
       <c r="C240">
-        <v>92.209</v>
+        <v>86.071</v>
       </c>
       <c r="D240" t="s">
         <v>280</v>
@@ -5311,7 +5311,7 @@
         <v>279</v>
       </c>
       <c r="C241">
-        <v>98.98</v>
+        <v>97.959</v>
       </c>
       <c r="D241" t="s">
         <v>280</v>
@@ -5325,10 +5325,10 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C242">
-        <v>98.51900000000001</v>
+        <v>100.73</v>
       </c>
       <c r="D242" t="s">
         <v>280</v>
@@ -5345,7 +5345,7 @@
         <v>278</v>
       </c>
       <c r="C243">
-        <v>102.439</v>
+        <v>100</v>
       </c>
       <c r="D243" t="s">
         <v>280</v>
@@ -5362,7 +5362,7 @@
         <v>279</v>
       </c>
       <c r="C244">
-        <v>98.09999999999999</v>
+        <v>98.361</v>
       </c>
       <c r="D244" t="s">
         <v>280</v>
@@ -5379,7 +5379,7 @@
         <v>278</v>
       </c>
       <c r="C245">
-        <v>104.29</v>
+        <v>101.133</v>
       </c>
       <c r="D245" t="s">
         <v>280</v>
@@ -5396,7 +5396,7 @@
         <v>278</v>
       </c>
       <c r="C246">
-        <v>138.512</v>
+        <v>141.299</v>
       </c>
       <c r="D246" t="s">
         <v>280</v>
@@ -5444,10 +5444,10 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C249">
-        <v>88.889</v>
+        <v>112.5</v>
       </c>
       <c r="D249" t="s">
         <v>280</v>
@@ -5512,10 +5512,10 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C253">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D253" t="s">
         <v>280</v>
@@ -5532,7 +5532,7 @@
         <v>278</v>
       </c>
       <c r="C254">
-        <v>116.667</v>
+        <v>112</v>
       </c>
       <c r="D254" t="s">
         <v>280</v>
@@ -5566,7 +5566,7 @@
         <v>278</v>
       </c>
       <c r="C256">
-        <v>113.305</v>
+        <v>107.95</v>
       </c>
       <c r="D256" t="s">
         <v>280</v>
@@ -5583,7 +5583,7 @@
         <v>278</v>
       </c>
       <c r="C257">
-        <v>112.138</v>
+        <v>113.196</v>
       </c>
       <c r="D257" t="s">
         <v>280</v>
@@ -5600,7 +5600,7 @@
         <v>278</v>
       </c>
       <c r="C258">
-        <v>108.572</v>
+        <v>117.307</v>
       </c>
       <c r="D258" t="s">
         <v>280</v>
@@ -5614,10 +5614,10 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C259">
-        <v>96.429</v>
+        <v>110.901</v>
       </c>
       <c r="D259" t="s">
         <v>280</v>
@@ -5634,7 +5634,7 @@
         <v>278</v>
       </c>
       <c r="C260">
-        <v>125.297</v>
+        <v>100.524</v>
       </c>
       <c r="D260" t="s">
         <v>280</v>
@@ -5651,7 +5651,7 @@
         <v>278</v>
       </c>
       <c r="C261">
-        <v>112.131</v>
+        <v>112.767</v>
       </c>
       <c r="D261" t="s">
         <v>280</v>
@@ -5668,7 +5668,7 @@
         <v>278</v>
       </c>
       <c r="C262">
-        <v>118.605</v>
+        <v>115.556</v>
       </c>
       <c r="D262" t="s">
         <v>280</v>
@@ -5685,7 +5685,7 @@
         <v>278</v>
       </c>
       <c r="C263">
-        <v>104</v>
+        <v>104.167</v>
       </c>
       <c r="D263" t="s">
         <v>280</v>
@@ -5736,7 +5736,7 @@
         <v>279</v>
       </c>
       <c r="C266">
-        <v>89.55200000000001</v>
+        <v>97.015</v>
       </c>
       <c r="D266" t="s">
         <v>280</v>
@@ -5753,7 +5753,7 @@
         <v>278</v>
       </c>
       <c r="C267">
-        <v>100</v>
+        <v>101.786</v>
       </c>
       <c r="D267" t="s">
         <v>280</v>
@@ -5770,7 +5770,7 @@
         <v>278</v>
       </c>
       <c r="C268">
-        <v>104.673</v>
+        <v>108.257</v>
       </c>
       <c r="D268" t="s">
         <v>280</v>
@@ -5787,7 +5787,7 @@
         <v>278</v>
       </c>
       <c r="C269">
-        <v>101.16</v>
+        <v>102.049</v>
       </c>
       <c r="D269" t="s">
         <v>280</v>
@@ -5804,7 +5804,7 @@
         <v>278</v>
       </c>
       <c r="C270">
-        <v>107.96</v>
+        <v>108.861</v>
       </c>
       <c r="D270" t="s">
         <v>280</v>
@@ -5821,7 +5821,7 @@
         <v>278</v>
       </c>
       <c r="C271">
-        <v>113.462</v>
+        <v>105.357</v>
       </c>
       <c r="D271" t="s">
         <v>280</v>
@@ -5838,7 +5838,7 @@
         <v>278</v>
       </c>
       <c r="C272">
-        <v>111.388</v>
+        <v>104.057</v>
       </c>
       <c r="D272" t="s">
         <v>280</v>
@@ -5852,10 +5852,10 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C273">
-        <v>94.727</v>
+        <v>100.922</v>
       </c>
       <c r="D273" t="s">
         <v>280</v>
@@ -5869,10 +5869,10 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C274">
-        <v>105.714</v>
+        <v>97.297</v>
       </c>
       <c r="D274" t="s">
         <v>280</v>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="280">
   <si>
     <t>symbol</t>
   </si>
@@ -334,9 +334,6 @@
     <t>FISUSDT</t>
   </si>
   <si>
-    <t>FLMUSDT</t>
-  </si>
-  <si>
     <t>FLOWUSDT</t>
   </si>
   <si>
@@ -488,9 +485,6 @@
   </si>
   <si>
     <t>LTCUSDT</t>
-  </si>
-  <si>
-    <t>LTOUSDT</t>
   </si>
   <si>
     <t>LUNAUSDT</t>
@@ -1217,7 +1211,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E272"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1245,16 +1239,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C2">
-        <v>108.696</v>
+        <v>120.455</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1262,16 +1256,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C3">
-        <v>109.011</v>
+        <v>118.655</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1279,16 +1273,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1296,16 +1290,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C5">
-        <v>103.111</v>
+        <v>111.364</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1313,16 +1307,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>111.667</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1330,16 +1324,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C7">
-        <v>105</v>
+        <v>115.789</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1347,16 +1341,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C8">
-        <v>107.143</v>
+        <v>106.667</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1364,16 +1358,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C9">
-        <v>100.926</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1381,16 +1375,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C10">
-        <v>135.185</v>
+        <v>123.188</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1398,16 +1392,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C11">
-        <v>107.194</v>
+        <v>112.782</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1415,16 +1409,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C12">
-        <v>103.55</v>
+        <v>115.2</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1432,16 +1426,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C13">
-        <v>105</v>
+        <v>115.789</v>
       </c>
       <c r="D13" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E13" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1449,16 +1443,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C14">
-        <v>130.216</v>
+        <v>140.769</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1466,16 +1460,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C15">
-        <v>105</v>
+        <v>116.667</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E15" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1483,16 +1477,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C16">
-        <v>115.385</v>
+        <v>133.333</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1500,16 +1494,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C17">
-        <v>104.545</v>
+        <v>109.502</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E17" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1517,16 +1511,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C18">
         <v>116.509</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1534,16 +1528,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C19">
-        <v>108.721</v>
+        <v>112.791</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E19" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1551,16 +1545,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C20">
-        <v>92.788</v>
+        <v>98.73399999999999</v>
       </c>
       <c r="D20" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E20" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1568,16 +1562,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C21">
-        <v>121.937</v>
+        <v>126.082</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E21" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1585,16 +1579,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C22">
-        <v>92.68300000000001</v>
+        <v>104.787</v>
       </c>
       <c r="D22" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E22" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1602,16 +1596,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C23">
-        <v>187.156</v>
+        <v>219.328</v>
       </c>
       <c r="D23" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E23" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1619,16 +1613,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C24">
-        <v>88.542</v>
+        <v>105.682</v>
       </c>
       <c r="D24" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E24" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1636,16 +1630,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C25">
-        <v>164.137</v>
+        <v>206.021</v>
       </c>
       <c r="D25" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E25" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1653,16 +1647,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C26">
-        <v>100.395</v>
+        <v>106.531</v>
       </c>
       <c r="D26" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E26" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1670,16 +1664,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C27">
-        <v>91.667</v>
+        <v>109.091</v>
       </c>
       <c r="D27" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E27" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1687,16 +1681,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C28">
-        <v>133.333</v>
+        <v>123.077</v>
       </c>
       <c r="D28" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E28" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1704,16 +1698,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C29">
-        <v>100</v>
+        <v>109.057</v>
       </c>
       <c r="D29" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E29" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1721,16 +1715,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C30">
-        <v>105.219</v>
+        <v>113.427</v>
       </c>
       <c r="D30" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E30" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1738,16 +1732,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C31">
-        <v>82.679</v>
+        <v>92.22</v>
       </c>
       <c r="D31" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E31" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1755,16 +1749,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C32">
-        <v>112</v>
+        <v>126.087</v>
       </c>
       <c r="D32" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E32" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1772,16 +1766,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C33">
-        <v>105</v>
+        <v>112.281</v>
       </c>
       <c r="D33" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E33" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1789,16 +1783,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C34">
-        <v>102.303</v>
+        <v>112.178</v>
       </c>
       <c r="D34" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E34" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1806,16 +1800,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C35">
-        <v>108.929</v>
+        <v>119.845</v>
       </c>
       <c r="D35" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E35" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1823,16 +1817,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C36">
-        <v>104.662</v>
+        <v>117.794</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E36" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1840,16 +1834,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C37">
-        <v>97.619</v>
+        <v>113.158</v>
       </c>
       <c r="D37" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E37" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1857,16 +1851,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C38">
-        <v>115.888</v>
+        <v>119.57</v>
       </c>
       <c r="D38" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E38" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1874,16 +1868,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C39">
-        <v>98.605</v>
+        <v>109.406</v>
       </c>
       <c r="D39" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E39" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1891,16 +1885,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C40">
-        <v>99.251</v>
+        <v>105.792</v>
       </c>
       <c r="D40" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E40" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1908,16 +1902,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C41">
-        <v>103.846</v>
+        <v>112</v>
       </c>
       <c r="D41" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E41" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1925,16 +1919,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C42">
-        <v>108.678</v>
+        <v>120.182</v>
       </c>
       <c r="D42" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E42" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1942,16 +1936,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C43">
-        <v>108.451</v>
+        <v>120.588</v>
       </c>
       <c r="D43" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E43" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1959,16 +1953,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C44">
-        <v>86.667</v>
+        <v>105</v>
       </c>
       <c r="D44" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E44" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1976,16 +1970,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C45">
-        <v>94.96299999999999</v>
+        <v>101.365</v>
       </c>
       <c r="D45" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E45" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1993,16 +1987,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C46">
-        <v>98.718</v>
+        <v>102.817</v>
       </c>
       <c r="D46" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E46" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2010,16 +2004,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C47">
         <v>121.295</v>
       </c>
       <c r="D47" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E47" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2027,16 +2021,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C48">
-        <v>116.695</v>
+        <v>106.382</v>
       </c>
       <c r="D48" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E48" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2044,16 +2038,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C49">
-        <v>106.173</v>
+        <v>115.789</v>
       </c>
       <c r="D49" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E49" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2061,16 +2055,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C50">
-        <v>106.897</v>
+        <v>110.345</v>
       </c>
       <c r="D50" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E50" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2078,16 +2072,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C51">
-        <v>100.532</v>
+        <v>111.782</v>
       </c>
       <c r="D51" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E51" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2095,16 +2089,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C52">
         <v>108.333</v>
       </c>
       <c r="D52" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E52" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2112,16 +2106,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C53">
         <v>120.552</v>
       </c>
       <c r="D53" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E53" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2129,16 +2123,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C54">
-        <v>117.509</v>
+        <v>118.994</v>
       </c>
       <c r="D54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E54" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2146,16 +2140,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C55">
-        <v>109.836</v>
+        <v>114.754</v>
       </c>
       <c r="D55" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2163,16 +2157,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C56">
         <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E56" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2180,16 +2174,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C57">
-        <v>108.571</v>
+        <v>118.75</v>
       </c>
       <c r="D57" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E57" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2197,16 +2191,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C58">
-        <v>111.828</v>
+        <v>113.139</v>
       </c>
       <c r="D58" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E58" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2214,16 +2208,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C59">
-        <v>121.795</v>
+        <v>153.425</v>
       </c>
       <c r="D59" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E59" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2231,16 +2225,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C60">
-        <v>104.545</v>
+        <v>109.524</v>
       </c>
       <c r="D60" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E60" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2248,16 +2242,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C61">
-        <v>93.182</v>
+        <v>95.238</v>
       </c>
       <c r="D61" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E61" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2265,16 +2259,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C62">
-        <v>116.667</v>
+        <v>133.333</v>
       </c>
       <c r="D62" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E62" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2282,16 +2276,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C63">
-        <v>98.154</v>
+        <v>104.101</v>
       </c>
       <c r="D63" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E63" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2299,16 +2293,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C64">
-        <v>102.353</v>
+        <v>118.987</v>
       </c>
       <c r="D64" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E64" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2316,16 +2310,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C65">
-        <v>151.275</v>
+        <v>157.536</v>
       </c>
       <c r="D65" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E65" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2333,16 +2327,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C66">
-        <v>100.239</v>
+        <v>105.594</v>
       </c>
       <c r="D66" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E66" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2350,16 +2344,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C67">
-        <v>105.357</v>
+        <v>110.909</v>
       </c>
       <c r="D67" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E67" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2367,16 +2361,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C68">
-        <v>111.268</v>
+        <v>122.059</v>
       </c>
       <c r="D68" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E68" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2384,16 +2378,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C69">
-        <v>135.484</v>
+        <v>133.333</v>
       </c>
       <c r="D69" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E69" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2401,16 +2395,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C70">
         <v>109.091</v>
       </c>
       <c r="D70" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E70" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2418,16 +2412,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C71">
-        <v>102.174</v>
+        <v>109.091</v>
       </c>
       <c r="D71" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E71" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2435,16 +2429,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C72">
-        <v>119.477</v>
+        <v>99.79900000000001</v>
       </c>
       <c r="D72" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E72" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2452,16 +2446,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C73">
-        <v>90.879</v>
+        <v>124.798</v>
       </c>
       <c r="D73" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E73" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2469,16 +2463,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C74">
-        <v>133.333</v>
+        <v>142.857</v>
       </c>
       <c r="D74" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E74" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2486,16 +2480,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C75">
-        <v>102.889</v>
+        <v>112.071</v>
       </c>
       <c r="D75" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E75" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2503,16 +2497,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C76">
-        <v>115.815</v>
+        <v>119.099</v>
       </c>
       <c r="D76" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E76" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2520,16 +2514,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C77">
-        <v>104.184</v>
+        <v>115.351</v>
       </c>
       <c r="D77" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E77" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2537,16 +2531,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C78">
-        <v>168.563</v>
+        <v>171.875</v>
       </c>
       <c r="D78" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E78" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2554,16 +2548,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C79">
-        <v>96.429</v>
+        <v>100</v>
       </c>
       <c r="D79" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E79" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2571,16 +2565,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C80">
-        <v>115.789</v>
+        <v>122.222</v>
       </c>
       <c r="D80" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E80" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2588,16 +2582,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C81">
-        <v>102.74</v>
+        <v>112.048</v>
       </c>
       <c r="D81" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E81" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2605,16 +2599,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C82">
         <v>107.692</v>
       </c>
       <c r="D82" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E82" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2622,16 +2616,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C83">
-        <v>100</v>
+        <v>114.286</v>
       </c>
       <c r="D83" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E83" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2639,16 +2633,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C84">
-        <v>109.236</v>
+        <v>112.333</v>
       </c>
       <c r="D84" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E84" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2656,16 +2650,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C85">
-        <v>103.614</v>
+        <v>116.667</v>
       </c>
       <c r="D85" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E85" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2673,16 +2667,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C86">
-        <v>98.43899999999999</v>
+        <v>106.549</v>
       </c>
       <c r="D86" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E86" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2690,16 +2684,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C87">
-        <v>100</v>
+        <v>103.125</v>
       </c>
       <c r="D87" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E87" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2707,16 +2701,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C88">
-        <v>113.889</v>
+        <v>130.303</v>
       </c>
       <c r="D88" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E88" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2724,16 +2718,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C89">
-        <v>89.179</v>
+        <v>95.127</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E89" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2741,16 +2735,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C90">
-        <v>105.063</v>
+        <v>112.987</v>
       </c>
       <c r="D90" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E90" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2758,16 +2752,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C91">
-        <v>108.065</v>
+        <v>122.034</v>
       </c>
       <c r="D91" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E91" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2775,16 +2769,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C92">
-        <v>106.204</v>
+        <v>113.003</v>
       </c>
       <c r="D92" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E92" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2792,16 +2786,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C93">
         <v>83.333</v>
       </c>
       <c r="D93" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E93" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2809,16 +2803,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C94">
         <v>130.459</v>
       </c>
       <c r="D94" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E94" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2826,16 +2820,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C95">
-        <v>113.101</v>
+        <v>113.717</v>
       </c>
       <c r="D95" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E95" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2843,16 +2837,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C96">
         <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E96" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2860,16 +2854,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C97">
-        <v>98.63200000000001</v>
+        <v>101.871</v>
       </c>
       <c r="D97" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E97" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2877,16 +2871,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C98">
         <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E98" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2894,16 +2888,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C99">
-        <v>112.121</v>
+        <v>122.581</v>
       </c>
       <c r="D99" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E99" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2911,16 +2905,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C100">
-        <v>101.216</v>
+        <v>113.122</v>
       </c>
       <c r="D100" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E100" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2928,16 +2922,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C101">
-        <v>101.667</v>
+        <v>110.286</v>
       </c>
       <c r="D101" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E101" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2945,16 +2939,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C102">
-        <v>102.222</v>
+        <v>108.889</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E102" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2962,16 +2956,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C103">
-        <v>111.111</v>
+        <v>120.225</v>
       </c>
       <c r="D103" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E103" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2979,16 +2973,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C104">
-        <v>108.333</v>
+        <v>130.864</v>
       </c>
       <c r="D104" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E104" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2996,16 +2990,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C105">
-        <v>118.391</v>
+        <v>116.667</v>
       </c>
       <c r="D105" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E105" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3013,16 +3007,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C106">
-        <v>110.667</v>
+        <v>117.308</v>
       </c>
       <c r="D106" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E106" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3030,16 +3024,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C107">
-        <v>103.704</v>
+        <v>117.073</v>
       </c>
       <c r="D107" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E107" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3047,16 +3041,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C108">
-        <v>109.302</v>
+        <v>104.651</v>
       </c>
       <c r="D108" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E108" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3064,16 +3058,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C109">
-        <v>93.407</v>
+        <v>106.698</v>
       </c>
       <c r="D109" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E109" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3081,16 +3075,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C110">
-        <v>97.059</v>
+        <v>106.02</v>
       </c>
       <c r="D110" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E110" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3098,16 +3092,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C111">
-        <v>97.538</v>
+        <v>107.212</v>
       </c>
       <c r="D111" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E111" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3115,16 +3109,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C112">
-        <v>96.94199999999999</v>
+        <v>95.161</v>
       </c>
       <c r="D112" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E112" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3132,16 +3126,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C113">
-        <v>95.161</v>
+        <v>101.961</v>
       </c>
       <c r="D113" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E113" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3149,16 +3143,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C114">
-        <v>102.913</v>
+        <v>109.302</v>
       </c>
       <c r="D114" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E114" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3166,16 +3160,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C115">
-        <v>95.745</v>
+        <v>102.778</v>
       </c>
       <c r="D115" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E115" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3183,16 +3177,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C116">
-        <v>156</v>
+        <v>114.815</v>
       </c>
       <c r="D116" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E116" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3200,16 +3194,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C117">
-        <v>96.55200000000001</v>
+        <v>114.115</v>
       </c>
       <c r="D117" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E117" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3217,16 +3211,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C118">
-        <v>102.959</v>
+        <v>126.485</v>
       </c>
       <c r="D118" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E118" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3234,16 +3228,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C119">
-        <v>125.495</v>
+        <v>97.309</v>
       </c>
       <c r="D119" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E119" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3251,16 +3245,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C120">
-        <v>97.47799999999999</v>
+        <v>121.088</v>
       </c>
       <c r="D120" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E120" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3268,16 +3262,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C121">
-        <v>100</v>
+        <v>110.526</v>
       </c>
       <c r="D121" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E121" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3285,16 +3279,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C122">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="D122" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E122" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3302,16 +3296,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C123">
-        <v>105.263</v>
+        <v>112.5</v>
       </c>
       <c r="D123" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E123" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3319,16 +3313,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C124">
-        <v>98.485</v>
+        <v>125</v>
       </c>
       <c r="D124" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E124" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3336,16 +3330,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C125">
-        <v>110.92</v>
+        <v>108.824</v>
       </c>
       <c r="D125" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E125" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3353,16 +3347,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C126">
-        <v>106.061</v>
+        <v>136.634</v>
       </c>
       <c r="D126" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E126" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3370,16 +3364,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C127">
-        <v>104.587</v>
+        <v>96.51000000000001</v>
       </c>
       <c r="D127" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E127" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3387,16 +3381,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C128">
-        <v>85.01000000000001</v>
+        <v>120.833</v>
       </c>
       <c r="D128" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E128" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3404,16 +3398,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C129">
-        <v>108</v>
+        <v>98.413</v>
       </c>
       <c r="D129" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E129" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3421,16 +3415,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C130">
-        <v>92.063</v>
+        <v>119.936</v>
       </c>
       <c r="D130" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E130" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3438,16 +3432,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C131">
-        <v>111.366</v>
+        <v>95.52200000000001</v>
       </c>
       <c r="D131" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E131" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3455,16 +3449,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C132">
-        <v>103.67</v>
+        <v>118.843</v>
       </c>
       <c r="D132" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E132" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3472,16 +3466,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C133">
-        <v>113.248</v>
+        <v>107.143</v>
       </c>
       <c r="D133" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E133" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3489,16 +3483,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C134">
-        <v>103.571</v>
+        <v>120</v>
       </c>
       <c r="D134" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E134" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3506,16 +3500,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C135">
-        <v>101.818</v>
+        <v>125</v>
       </c>
       <c r="D135" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E135" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3523,16 +3517,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C136">
-        <v>93.697</v>
+        <v>106.809</v>
       </c>
       <c r="D136" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E136" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3540,16 +3534,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C137">
-        <v>100</v>
+        <v>110.256</v>
       </c>
       <c r="D137" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E137" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3557,16 +3551,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C138">
-        <v>102.532</v>
+        <v>123.364</v>
       </c>
       <c r="D138" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E138" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3574,16 +3568,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C139">
-        <v>113.913</v>
+        <v>113.636</v>
       </c>
       <c r="D139" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E139" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3591,16 +3585,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C140">
-        <v>100</v>
+        <v>113.333</v>
       </c>
       <c r="D140" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E140" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3608,16 +3602,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C141">
-        <v>106.452</v>
+        <v>112.5</v>
       </c>
       <c r="D141" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3625,16 +3619,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C142">
-        <v>100</v>
+        <v>107.569</v>
       </c>
       <c r="D142" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3642,16 +3636,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C143">
-        <v>101.529</v>
+        <v>107.973</v>
       </c>
       <c r="D143" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3659,16 +3653,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C144">
-        <v>101.994</v>
+        <v>104.727</v>
       </c>
       <c r="D144" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3676,16 +3670,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C145">
-        <v>99.27</v>
+        <v>111.401</v>
       </c>
       <c r="D145" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3693,16 +3687,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C146">
-        <v>100</v>
+        <v>106.401</v>
       </c>
       <c r="D146" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3710,16 +3704,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C147">
-        <v>96.621</v>
+        <v>119.417</v>
       </c>
       <c r="D147" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3727,16 +3721,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C148">
-        <v>103.509</v>
+        <v>118.519</v>
       </c>
       <c r="D148" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3744,16 +3738,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C149">
-        <v>107.143</v>
+        <v>91.137</v>
       </c>
       <c r="D149" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3761,16 +3755,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C150">
-        <v>80.233</v>
+        <v>111.258</v>
       </c>
       <c r="D150" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3778,16 +3772,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C151">
-        <v>113.072</v>
+        <v>116</v>
       </c>
       <c r="D151" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3795,16 +3789,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C152">
-        <v>103.704</v>
+        <v>100</v>
       </c>
       <c r="D152" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E152" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3812,16 +3806,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C153">
-        <v>100.73</v>
+        <v>122.714</v>
       </c>
       <c r="D153" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E153" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3829,16 +3823,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C154">
-        <v>103.927</v>
+        <v>107.463</v>
       </c>
       <c r="D154" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3846,16 +3840,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C155">
-        <v>111.111</v>
+        <v>93.893</v>
       </c>
       <c r="D155" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E155" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3863,16 +3857,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C156">
-        <v>97.18300000000001</v>
+        <v>133.333</v>
       </c>
       <c r="D156" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E156" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3880,16 +3874,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C157">
-        <v>84.02800000000001</v>
+        <v>113.203</v>
       </c>
       <c r="D157" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E157" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3897,16 +3891,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C158">
-        <v>111.538</v>
+        <v>107.368</v>
       </c>
       <c r="D158" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E158" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3914,16 +3908,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C159">
-        <v>111.491</v>
+        <v>101.515</v>
       </c>
       <c r="D159" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E159" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3931,16 +3925,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C160">
-        <v>100</v>
+        <v>118.182</v>
       </c>
       <c r="D160" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E160" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3948,16 +3942,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C161">
-        <v>98.50700000000001</v>
+        <v>100</v>
       </c>
       <c r="D161" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E161" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3965,16 +3959,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C162">
-        <v>108.571</v>
+        <v>101.55</v>
       </c>
       <c r="D162" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E162" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3982,16 +3976,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C163">
-        <v>100</v>
+        <v>103.463</v>
       </c>
       <c r="D163" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E163" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3999,16 +3993,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C164">
-        <v>93.47799999999999</v>
+        <v>111.84</v>
       </c>
       <c r="D164" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E164" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4016,16 +4010,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C165">
-        <v>99.48999999999999</v>
+        <v>111.765</v>
       </c>
       <c r="D165" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E165" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4033,16 +4027,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C166">
-        <v>104.394</v>
+        <v>105.842</v>
       </c>
       <c r="D166" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E166" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4050,16 +4044,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C167">
-        <v>108.571</v>
+        <v>109.146</v>
       </c>
       <c r="D167" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E167" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4067,16 +4061,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C168">
-        <v>96.723</v>
+        <v>64.34099999999999</v>
       </c>
       <c r="D168" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E168" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4084,16 +4078,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C169">
-        <v>101.818</v>
+        <v>122.222</v>
       </c>
       <c r="D169" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E169" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4101,16 +4095,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C170">
-        <v>64.34099999999999</v>
+        <v>120.162</v>
       </c>
       <c r="D170" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E170" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4118,16 +4112,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C171">
-        <v>111.331</v>
+        <v>120.354</v>
       </c>
       <c r="D171" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E171" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4135,16 +4129,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C172">
-        <v>102.855</v>
+        <v>91.44</v>
       </c>
       <c r="D172" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E172" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4152,16 +4146,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C173">
-        <v>111.207</v>
+        <v>93.08199999999999</v>
       </c>
       <c r="D173" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E173" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4169,16 +4163,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C174">
-        <v>92.265</v>
+        <v>107.407</v>
       </c>
       <c r="D174" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E174" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4186,16 +4180,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C175">
-        <v>95.429</v>
+        <v>112.5</v>
       </c>
       <c r="D175" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E175" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4203,16 +4197,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C176">
-        <v>103.704</v>
+        <v>122.078</v>
       </c>
       <c r="D176" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E176" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4220,16 +4214,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C177">
-        <v>100</v>
+        <v>117.647</v>
       </c>
       <c r="D177" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E177" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4237,16 +4231,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C178">
-        <v>116.667</v>
+        <v>102.682</v>
       </c>
       <c r="D178" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E178" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4254,16 +4248,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C179">
-        <v>105.556</v>
+        <v>128.986</v>
       </c>
       <c r="D179" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E179" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4271,16 +4265,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C180">
-        <v>96.75</v>
+        <v>111.429</v>
       </c>
       <c r="D180" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E180" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4288,16 +4282,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C181">
-        <v>126.389</v>
+        <v>111.538</v>
       </c>
       <c r="D181" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E181" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4305,16 +4299,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C182">
-        <v>105.714</v>
+        <v>100.532</v>
       </c>
       <c r="D182" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E182" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4322,16 +4316,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C183">
-        <v>100</v>
+        <v>111.226</v>
       </c>
       <c r="D183" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E183" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4339,16 +4333,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C184">
-        <v>93.93899999999999</v>
+        <v>117.089</v>
       </c>
       <c r="D184" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E184" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4356,16 +4350,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C185">
-        <v>106.696</v>
+        <v>101.923</v>
       </c>
       <c r="D185" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E185" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4373,16 +4367,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C186">
-        <v>106.977</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="D186" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E186" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4390,16 +4384,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C187">
-        <v>96.95099999999999</v>
+        <v>122.179</v>
       </c>
       <c r="D187" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E187" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4407,16 +4401,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C188">
-        <v>101.458</v>
+        <v>100.758</v>
       </c>
       <c r="D188" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E188" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4424,16 +4418,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C189">
-        <v>102.105</v>
+        <v>130.769</v>
       </c>
       <c r="D189" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E189" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4441,16 +4435,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C190">
-        <v>88.667</v>
+        <v>127.389</v>
       </c>
       <c r="D190" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E190" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4458,16 +4452,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C191">
-        <v>115.385</v>
+        <v>112.121</v>
       </c>
       <c r="D191" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E191" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4475,16 +4469,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C192">
-        <v>120</v>
+        <v>153.333</v>
       </c>
       <c r="D192" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E192" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4492,16 +4486,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C193">
-        <v>102.857</v>
+        <v>105.556</v>
       </c>
       <c r="D193" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E193" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4509,16 +4503,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C194">
-        <v>153.333</v>
+        <v>120.225</v>
       </c>
       <c r="D194" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E194" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4526,16 +4520,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C195">
-        <v>105.556</v>
+        <v>116.667</v>
       </c>
       <c r="D195" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E195" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4543,16 +4537,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C196">
-        <v>113.043</v>
+        <v>101.338</v>
       </c>
       <c r="D196" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E196" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4560,16 +4554,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C197">
-        <v>100</v>
+        <v>102.857</v>
       </c>
       <c r="D197" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E197" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4577,16 +4571,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C198">
-        <v>101.779</v>
+        <v>83.565</v>
       </c>
       <c r="D198" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E198" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4594,16 +4588,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C199">
-        <v>100</v>
+        <v>94.91500000000001</v>
       </c>
       <c r="D199" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E199" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4611,16 +4605,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C200">
-        <v>106.758</v>
+        <v>111.143</v>
       </c>
       <c r="D200" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E200" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4628,16 +4622,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C201">
-        <v>93.548</v>
+        <v>110.87</v>
       </c>
       <c r="D201" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E201" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4645,16 +4639,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C202">
-        <v>102.241</v>
+        <v>113.872</v>
       </c>
       <c r="D202" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E202" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4662,16 +4656,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C203">
-        <v>102.174</v>
+        <v>109.221</v>
       </c>
       <c r="D203" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E203" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4679,16 +4673,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C204">
-        <v>105.405</v>
+        <v>112.766</v>
       </c>
       <c r="D204" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E204" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4696,16 +4690,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C205">
-        <v>98.30200000000001</v>
+        <v>120</v>
       </c>
       <c r="D205" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E205" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4713,16 +4707,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C206">
-        <v>105.045</v>
+        <v>108.718</v>
       </c>
       <c r="D206" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E206" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4730,16 +4724,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C207">
         <v>100</v>
       </c>
       <c r="D207" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E207" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4747,16 +4741,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C208">
-        <v>96.19</v>
+        <v>127.551</v>
       </c>
       <c r="D208" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E208" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4764,16 +4758,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C209">
-        <v>107.692</v>
+        <v>112.5</v>
       </c>
       <c r="D209" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E209" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4781,16 +4775,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C210">
-        <v>99.083</v>
+        <v>114.286</v>
       </c>
       <c r="D210" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E210" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4798,16 +4792,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C211">
-        <v>105.882</v>
+        <v>100</v>
       </c>
       <c r="D211" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E211" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4815,16 +4809,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C212">
-        <v>114.286</v>
+        <v>102.261</v>
       </c>
       <c r="D212" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E212" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4832,16 +4826,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C213">
-        <v>100</v>
+        <v>111.85</v>
       </c>
       <c r="D213" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E213" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4849,16 +4843,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C214">
-        <v>117.009</v>
+        <v>110.86</v>
       </c>
       <c r="D214" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E214" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4866,16 +4860,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C215">
-        <v>124.209</v>
+        <v>111.628</v>
       </c>
       <c r="D215" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E215" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4883,16 +4877,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C216">
-        <v>103.207</v>
+        <v>124.49</v>
       </c>
       <c r="D216" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E216" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4900,16 +4894,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C217">
-        <v>108.974</v>
+        <v>112.825</v>
       </c>
       <c r="D217" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E217" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4917,16 +4911,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C218">
-        <v>105.66</v>
+        <v>127.083</v>
       </c>
       <c r="D218" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E218" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4934,16 +4928,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C219">
-        <v>105.614</v>
+        <v>96.59099999999999</v>
       </c>
       <c r="D219" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E219" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4951,16 +4945,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C220">
-        <v>118.75</v>
+        <v>106.494</v>
       </c>
       <c r="D220" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E220" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4968,16 +4962,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C221">
-        <v>92.473</v>
+        <v>123.796</v>
       </c>
       <c r="D221" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E221" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4985,16 +4979,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C222">
-        <v>101.316</v>
+        <v>126.078</v>
       </c>
       <c r="D222" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E222" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5002,16 +4996,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C223">
-        <v>105.759</v>
+        <v>103.669</v>
       </c>
       <c r="D223" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E223" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5019,16 +5013,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C224">
-        <v>105.577</v>
+        <v>112</v>
       </c>
       <c r="D224" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E224" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5036,16 +5030,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C225">
-        <v>93.04900000000001</v>
+        <v>103.03</v>
       </c>
       <c r="D225" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E225" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5053,16 +5047,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C226">
-        <v>108.333</v>
+        <v>109.859</v>
       </c>
       <c r="D226" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E226" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5070,16 +5064,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C227">
-        <v>91.54900000000001</v>
+        <v>130.392</v>
       </c>
       <c r="D227" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E227" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5087,16 +5081,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C228">
-        <v>96.104</v>
+        <v>110.902</v>
       </c>
       <c r="D228" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E228" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5104,16 +5098,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C229">
-        <v>104.808</v>
+        <v>100</v>
       </c>
       <c r="D229" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E229" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5121,16 +5115,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C230">
-        <v>116.667</v>
+        <v>120.37</v>
       </c>
       <c r="D230" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E230" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5138,16 +5132,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C231">
-        <v>88.70099999999999</v>
+        <v>119.841</v>
       </c>
       <c r="D231" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E231" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5155,16 +5149,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C232">
-        <v>104.202</v>
+        <v>117.143</v>
       </c>
       <c r="D232" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E232" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5172,16 +5166,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C233">
-        <v>115.385</v>
+        <v>154.93</v>
       </c>
       <c r="D233" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E233" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5189,16 +5183,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C234">
-        <v>108.333</v>
+        <v>128.571</v>
       </c>
       <c r="D234" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E234" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5206,16 +5200,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C235">
-        <v>148.78</v>
+        <v>158.974</v>
       </c>
       <c r="D235" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E235" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5223,16 +5217,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C236">
-        <v>135.714</v>
+        <v>96.429</v>
       </c>
       <c r="D236" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E236" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5240,16 +5234,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C237">
-        <v>151.181</v>
+        <v>118.605</v>
       </c>
       <c r="D237" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E237" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5257,16 +5251,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="C238">
-        <v>87.18600000000001</v>
+        <v>96.03</v>
       </c>
       <c r="D238" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E238" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5274,16 +5268,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C239">
-        <v>109.524</v>
+        <v>102.041</v>
       </c>
       <c r="D239" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E239" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5291,16 +5285,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C240">
-        <v>86.071</v>
+        <v>107.812</v>
       </c>
       <c r="D240" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E240" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5308,16 +5302,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C241">
-        <v>97.959</v>
+        <v>102.5</v>
       </c>
       <c r="D241" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E241" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5325,16 +5319,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C242">
-        <v>100.73</v>
+        <v>106.582</v>
       </c>
       <c r="D242" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E242" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5342,16 +5336,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C243">
-        <v>100</v>
+        <v>111.544</v>
       </c>
       <c r="D243" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E243" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5359,16 +5353,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C244">
-        <v>98.361</v>
+        <v>147.767</v>
       </c>
       <c r="D244" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E244" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5376,16 +5370,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C245">
-        <v>101.133</v>
+        <v>100</v>
       </c>
       <c r="D245" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E245" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5393,16 +5387,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C246">
-        <v>141.299</v>
+        <v>100</v>
       </c>
       <c r="D246" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E246" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5410,16 +5404,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C247">
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="D247" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E247" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5427,16 +5421,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C248">
-        <v>100</v>
+        <v>109.091</v>
       </c>
       <c r="D248" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E248" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5444,16 +5438,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C249">
-        <v>112.5</v>
+        <v>114.286</v>
       </c>
       <c r="D249" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E249" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5461,16 +5455,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C250">
-        <v>100</v>
+        <v>103.947</v>
       </c>
       <c r="D250" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E250" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5478,16 +5472,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C251">
-        <v>114.286</v>
+        <v>133.333</v>
       </c>
       <c r="D251" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E251" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5495,16 +5489,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C252">
-        <v>96.29600000000001</v>
+        <v>121.739</v>
       </c>
       <c r="D252" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E252" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5512,16 +5506,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C253">
-        <v>75</v>
+        <v>118.182</v>
       </c>
       <c r="D253" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E253" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5529,16 +5523,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C254">
-        <v>112</v>
+        <v>120.354</v>
       </c>
       <c r="D254" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E254" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5546,16 +5540,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C255">
-        <v>108.696</v>
+        <v>113.732</v>
       </c>
       <c r="D255" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E255" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5563,16 +5557,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C256">
-        <v>107.95</v>
+        <v>119.115</v>
       </c>
       <c r="D256" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E256" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5580,16 +5574,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C257">
-        <v>113.196</v>
+        <v>113.616</v>
       </c>
       <c r="D257" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E257" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5597,16 +5591,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C258">
-        <v>117.307</v>
+        <v>109.677</v>
       </c>
       <c r="D258" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E258" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5614,16 +5608,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C259">
-        <v>110.901</v>
+        <v>115.431</v>
       </c>
       <c r="D259" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E259" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5631,16 +5625,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C260">
-        <v>100.524</v>
+        <v>120.93</v>
       </c>
       <c r="D260" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E260" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5648,16 +5642,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C261">
-        <v>112.767</v>
+        <v>108.333</v>
       </c>
       <c r="D261" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E261" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5665,16 +5659,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C262">
-        <v>115.556</v>
+        <v>109.091</v>
       </c>
       <c r="D262" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E262" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5682,16 +5676,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C263">
-        <v>104.167</v>
+        <v>98.343</v>
       </c>
       <c r="D263" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E263" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5699,16 +5693,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C264">
-        <v>100</v>
+        <v>110.4</v>
       </c>
       <c r="D264" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E264" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5716,16 +5710,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C265">
-        <v>98.343</v>
+        <v>107.273</v>
       </c>
       <c r="D265" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E265" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5733,16 +5727,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="C266">
-        <v>97.015</v>
+        <v>114.679</v>
       </c>
       <c r="D266" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E266" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5750,16 +5744,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C267">
-        <v>101.786</v>
+        <v>106.134</v>
       </c>
       <c r="D267" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E267" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5767,16 +5761,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C268">
-        <v>108.257</v>
+        <v>117.792</v>
       </c>
       <c r="D268" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E268" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5784,16 +5778,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C269">
-        <v>102.049</v>
+        <v>141.176</v>
       </c>
       <c r="D269" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E269" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5801,16 +5795,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C270">
-        <v>108.861</v>
+        <v>117.974</v>
       </c>
       <c r="D270" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E270" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5818,16 +5812,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C271">
-        <v>105.357</v>
+        <v>116.135</v>
       </c>
       <c r="D271" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E271" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5835,50 +5829,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="C272">
-        <v>104.057</v>
+        <v>111.429</v>
       </c>
       <c r="D272" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E272" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" t="s">
-        <v>276</v>
-      </c>
-      <c r="B273" t="s">
-        <v>278</v>
-      </c>
-      <c r="C273">
-        <v>100.922</v>
-      </c>
-      <c r="D273" t="s">
-        <v>280</v>
-      </c>
-      <c r="E273" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" t="s">
-        <v>277</v>
-      </c>
-      <c r="B274" t="s">
-        <v>279</v>
-      </c>
-      <c r="C274">
-        <v>97.297</v>
-      </c>
-      <c r="D274" t="s">
-        <v>280</v>
-      </c>
-      <c r="E274" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -1242,7 +1242,7 @@
         <v>276</v>
       </c>
       <c r="C2">
-        <v>120.455</v>
+        <v>129.545</v>
       </c>
       <c r="D2" t="s">
         <v>278</v>
@@ -1259,7 +1259,7 @@
         <v>276</v>
       </c>
       <c r="C3">
-        <v>118.655</v>
+        <v>122.947</v>
       </c>
       <c r="D3" t="s">
         <v>278</v>
@@ -1276,7 +1276,7 @@
         <v>276</v>
       </c>
       <c r="C4">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="D4" t="s">
         <v>278</v>
@@ -1293,7 +1293,7 @@
         <v>276</v>
       </c>
       <c r="C5">
-        <v>111.364</v>
+        <v>114.027</v>
       </c>
       <c r="D5" t="s">
         <v>278</v>
@@ -1310,7 +1310,7 @@
         <v>276</v>
       </c>
       <c r="C6">
-        <v>111.667</v>
+        <v>123.729</v>
       </c>
       <c r="D6" t="s">
         <v>278</v>
@@ -1327,7 +1327,7 @@
         <v>276</v>
       </c>
       <c r="C7">
-        <v>115.789</v>
+        <v>110</v>
       </c>
       <c r="D7" t="s">
         <v>278</v>
@@ -1344,7 +1344,7 @@
         <v>276</v>
       </c>
       <c r="C8">
-        <v>106.667</v>
+        <v>113.333</v>
       </c>
       <c r="D8" t="s">
         <v>278</v>
@@ -1395,7 +1395,7 @@
         <v>276</v>
       </c>
       <c r="C11">
-        <v>112.782</v>
+        <v>114.388</v>
       </c>
       <c r="D11" t="s">
         <v>278</v>
@@ -1412,7 +1412,7 @@
         <v>276</v>
       </c>
       <c r="C12">
-        <v>115.2</v>
+        <v>103.555</v>
       </c>
       <c r="D12" t="s">
         <v>278</v>
@@ -1429,7 +1429,7 @@
         <v>276</v>
       </c>
       <c r="C13">
-        <v>115.789</v>
+        <v>126.316</v>
       </c>
       <c r="D13" t="s">
         <v>278</v>
@@ -1446,7 +1446,7 @@
         <v>276</v>
       </c>
       <c r="C14">
-        <v>140.769</v>
+        <v>135.461</v>
       </c>
       <c r="D14" t="s">
         <v>278</v>
@@ -1463,7 +1463,7 @@
         <v>276</v>
       </c>
       <c r="C15">
-        <v>116.667</v>
+        <v>115.789</v>
       </c>
       <c r="D15" t="s">
         <v>278</v>
@@ -1480,7 +1480,7 @@
         <v>276</v>
       </c>
       <c r="C16">
-        <v>133.333</v>
+        <v>123.077</v>
       </c>
       <c r="D16" t="s">
         <v>278</v>
@@ -1497,7 +1497,7 @@
         <v>276</v>
       </c>
       <c r="C17">
-        <v>109.502</v>
+        <v>114.155</v>
       </c>
       <c r="D17" t="s">
         <v>278</v>
@@ -1531,7 +1531,7 @@
         <v>276</v>
       </c>
       <c r="C19">
-        <v>112.791</v>
+        <v>135.503</v>
       </c>
       <c r="D19" t="s">
         <v>278</v>
@@ -1548,7 +1548,7 @@
         <v>277</v>
       </c>
       <c r="C20">
-        <v>98.73399999999999</v>
+        <v>95.238</v>
       </c>
       <c r="D20" t="s">
         <v>278</v>
@@ -1565,7 +1565,7 @@
         <v>276</v>
       </c>
       <c r="C21">
-        <v>126.082</v>
+        <v>129.361</v>
       </c>
       <c r="D21" t="s">
         <v>278</v>
@@ -1582,7 +1582,7 @@
         <v>276</v>
       </c>
       <c r="C22">
-        <v>104.787</v>
+        <v>108.287</v>
       </c>
       <c r="D22" t="s">
         <v>278</v>
@@ -1599,7 +1599,7 @@
         <v>276</v>
       </c>
       <c r="C23">
-        <v>219.328</v>
+        <v>179.286</v>
       </c>
       <c r="D23" t="s">
         <v>278</v>
@@ -1616,7 +1616,7 @@
         <v>276</v>
       </c>
       <c r="C24">
-        <v>105.682</v>
+        <v>112.941</v>
       </c>
       <c r="D24" t="s">
         <v>278</v>
@@ -1633,7 +1633,7 @@
         <v>276</v>
       </c>
       <c r="C25">
-        <v>206.021</v>
+        <v>192.847</v>
       </c>
       <c r="D25" t="s">
         <v>278</v>
@@ -1650,7 +1650,7 @@
         <v>276</v>
       </c>
       <c r="C26">
-        <v>106.531</v>
+        <v>110.612</v>
       </c>
       <c r="D26" t="s">
         <v>278</v>
@@ -1667,7 +1667,7 @@
         <v>276</v>
       </c>
       <c r="C27">
-        <v>109.091</v>
+        <v>118.182</v>
       </c>
       <c r="D27" t="s">
         <v>278</v>
@@ -1684,7 +1684,7 @@
         <v>276</v>
       </c>
       <c r="C28">
-        <v>123.077</v>
+        <v>115.385</v>
       </c>
       <c r="D28" t="s">
         <v>278</v>
@@ -1701,7 +1701,7 @@
         <v>276</v>
       </c>
       <c r="C29">
-        <v>109.057</v>
+        <v>110.861</v>
       </c>
       <c r="D29" t="s">
         <v>278</v>
@@ -1718,7 +1718,7 @@
         <v>276</v>
       </c>
       <c r="C30">
-        <v>113.427</v>
+        <v>121.655</v>
       </c>
       <c r="D30" t="s">
         <v>278</v>
@@ -1735,7 +1735,7 @@
         <v>277</v>
       </c>
       <c r="C31">
-        <v>92.22</v>
+        <v>98.63</v>
       </c>
       <c r="D31" t="s">
         <v>278</v>
@@ -1752,7 +1752,7 @@
         <v>276</v>
       </c>
       <c r="C32">
-        <v>126.087</v>
+        <v>130.435</v>
       </c>
       <c r="D32" t="s">
         <v>278</v>
@@ -1769,7 +1769,7 @@
         <v>276</v>
       </c>
       <c r="C33">
-        <v>112.281</v>
+        <v>115.254</v>
       </c>
       <c r="D33" t="s">
         <v>278</v>
@@ -1786,7 +1786,7 @@
         <v>276</v>
       </c>
       <c r="C34">
-        <v>112.178</v>
+        <v>115.117</v>
       </c>
       <c r="D34" t="s">
         <v>278</v>
@@ -1803,7 +1803,7 @@
         <v>276</v>
       </c>
       <c r="C35">
-        <v>119.845</v>
+        <v>129.049</v>
       </c>
       <c r="D35" t="s">
         <v>278</v>
@@ -1820,7 +1820,7 @@
         <v>276</v>
       </c>
       <c r="C36">
-        <v>117.794</v>
+        <v>145.547</v>
       </c>
       <c r="D36" t="s">
         <v>278</v>
@@ -1837,7 +1837,7 @@
         <v>276</v>
       </c>
       <c r="C37">
-        <v>113.158</v>
+        <v>117.949</v>
       </c>
       <c r="D37" t="s">
         <v>278</v>
@@ -1854,7 +1854,7 @@
         <v>276</v>
       </c>
       <c r="C38">
-        <v>119.57</v>
+        <v>121.127</v>
       </c>
       <c r="D38" t="s">
         <v>278</v>
@@ -1871,7 +1871,7 @@
         <v>276</v>
       </c>
       <c r="C39">
-        <v>109.406</v>
+        <v>121.106</v>
       </c>
       <c r="D39" t="s">
         <v>278</v>
@@ -1888,7 +1888,7 @@
         <v>276</v>
       </c>
       <c r="C40">
-        <v>105.792</v>
+        <v>105.769</v>
       </c>
       <c r="D40" t="s">
         <v>278</v>
@@ -1905,7 +1905,7 @@
         <v>276</v>
       </c>
       <c r="C41">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="D41" t="s">
         <v>278</v>
@@ -1922,7 +1922,7 @@
         <v>276</v>
       </c>
       <c r="C42">
-        <v>120.182</v>
+        <v>165.63</v>
       </c>
       <c r="D42" t="s">
         <v>278</v>
@@ -1939,7 +1939,7 @@
         <v>276</v>
       </c>
       <c r="C43">
-        <v>120.588</v>
+        <v>118.31</v>
       </c>
       <c r="D43" t="s">
         <v>278</v>
@@ -1956,7 +1956,7 @@
         <v>276</v>
       </c>
       <c r="C44">
-        <v>105</v>
+        <v>128.205</v>
       </c>
       <c r="D44" t="s">
         <v>278</v>
@@ -1973,7 +1973,7 @@
         <v>276</v>
       </c>
       <c r="C45">
-        <v>101.365</v>
+        <v>105.624</v>
       </c>
       <c r="D45" t="s">
         <v>278</v>
@@ -1990,7 +1990,7 @@
         <v>276</v>
       </c>
       <c r="C46">
-        <v>102.817</v>
+        <v>104.348</v>
       </c>
       <c r="D46" t="s">
         <v>278</v>
@@ -2024,7 +2024,7 @@
         <v>276</v>
       </c>
       <c r="C48">
-        <v>106.382</v>
+        <v>106.613</v>
       </c>
       <c r="D48" t="s">
         <v>278</v>
@@ -2041,7 +2041,7 @@
         <v>276</v>
       </c>
       <c r="C49">
-        <v>115.789</v>
+        <v>114.286</v>
       </c>
       <c r="D49" t="s">
         <v>278</v>
@@ -2058,7 +2058,7 @@
         <v>276</v>
       </c>
       <c r="C50">
-        <v>110.345</v>
+        <v>116.667</v>
       </c>
       <c r="D50" t="s">
         <v>278</v>
@@ -2075,7 +2075,7 @@
         <v>276</v>
       </c>
       <c r="C51">
-        <v>111.782</v>
+        <v>119.308</v>
       </c>
       <c r="D51" t="s">
         <v>278</v>
@@ -2092,7 +2092,7 @@
         <v>276</v>
       </c>
       <c r="C52">
-        <v>108.333</v>
+        <v>107.692</v>
       </c>
       <c r="D52" t="s">
         <v>278</v>
@@ -2126,7 +2126,7 @@
         <v>276</v>
       </c>
       <c r="C54">
-        <v>118.994</v>
+        <v>120.65</v>
       </c>
       <c r="D54" t="s">
         <v>278</v>
@@ -2143,7 +2143,7 @@
         <v>276</v>
       </c>
       <c r="C55">
-        <v>114.754</v>
+        <v>121.667</v>
       </c>
       <c r="D55" t="s">
         <v>278</v>
@@ -2177,7 +2177,7 @@
         <v>276</v>
       </c>
       <c r="C57">
-        <v>118.75</v>
+        <v>121.212</v>
       </c>
       <c r="D57" t="s">
         <v>278</v>
@@ -2194,7 +2194,7 @@
         <v>276</v>
       </c>
       <c r="C58">
-        <v>113.139</v>
+        <v>111.379</v>
       </c>
       <c r="D58" t="s">
         <v>278</v>
@@ -2211,7 +2211,7 @@
         <v>276</v>
       </c>
       <c r="C59">
-        <v>153.425</v>
+        <v>137.037</v>
       </c>
       <c r="D59" t="s">
         <v>278</v>
@@ -2228,7 +2228,7 @@
         <v>276</v>
       </c>
       <c r="C60">
-        <v>109.524</v>
+        <v>114.286</v>
       </c>
       <c r="D60" t="s">
         <v>278</v>
@@ -2245,7 +2245,7 @@
         <v>277</v>
       </c>
       <c r="C61">
-        <v>95.238</v>
+        <v>97.56100000000001</v>
       </c>
       <c r="D61" t="s">
         <v>278</v>
@@ -2262,7 +2262,7 @@
         <v>276</v>
       </c>
       <c r="C62">
-        <v>133.333</v>
+        <v>123.077</v>
       </c>
       <c r="D62" t="s">
         <v>278</v>
@@ -2296,7 +2296,7 @@
         <v>276</v>
       </c>
       <c r="C64">
-        <v>118.987</v>
+        <v>122.222</v>
       </c>
       <c r="D64" t="s">
         <v>278</v>
@@ -2313,7 +2313,7 @@
         <v>276</v>
       </c>
       <c r="C65">
-        <v>157.536</v>
+        <v>152.301</v>
       </c>
       <c r="D65" t="s">
         <v>278</v>
@@ -2330,7 +2330,7 @@
         <v>276</v>
       </c>
       <c r="C66">
-        <v>105.594</v>
+        <v>109.521</v>
       </c>
       <c r="D66" t="s">
         <v>278</v>
@@ -2347,7 +2347,7 @@
         <v>276</v>
       </c>
       <c r="C67">
-        <v>110.909</v>
+        <v>120</v>
       </c>
       <c r="D67" t="s">
         <v>278</v>
@@ -2364,7 +2364,7 @@
         <v>276</v>
       </c>
       <c r="C68">
-        <v>122.059</v>
+        <v>116.438</v>
       </c>
       <c r="D68" t="s">
         <v>278</v>
@@ -2381,7 +2381,7 @@
         <v>276</v>
       </c>
       <c r="C69">
-        <v>133.333</v>
+        <v>128.125</v>
       </c>
       <c r="D69" t="s">
         <v>278</v>
@@ -2398,7 +2398,7 @@
         <v>276</v>
       </c>
       <c r="C70">
-        <v>109.091</v>
+        <v>118.182</v>
       </c>
       <c r="D70" t="s">
         <v>278</v>
@@ -2415,7 +2415,7 @@
         <v>276</v>
       </c>
       <c r="C71">
-        <v>109.091</v>
+        <v>113.333</v>
       </c>
       <c r="D71" t="s">
         <v>278</v>
@@ -2429,10 +2429,10 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C72">
-        <v>99.79900000000001</v>
+        <v>104.43</v>
       </c>
       <c r="D72" t="s">
         <v>278</v>
@@ -2449,7 +2449,7 @@
         <v>276</v>
       </c>
       <c r="C73">
-        <v>124.798</v>
+        <v>119.672</v>
       </c>
       <c r="D73" t="s">
         <v>278</v>
@@ -2466,7 +2466,7 @@
         <v>276</v>
       </c>
       <c r="C74">
-        <v>142.857</v>
+        <v>140</v>
       </c>
       <c r="D74" t="s">
         <v>278</v>
@@ -2483,7 +2483,7 @@
         <v>276</v>
       </c>
       <c r="C75">
-        <v>112.071</v>
+        <v>118.78</v>
       </c>
       <c r="D75" t="s">
         <v>278</v>
@@ -2500,7 +2500,7 @@
         <v>276</v>
       </c>
       <c r="C76">
-        <v>119.099</v>
+        <v>120.608</v>
       </c>
       <c r="D76" t="s">
         <v>278</v>
@@ -2517,7 +2517,7 @@
         <v>276</v>
       </c>
       <c r="C77">
-        <v>115.351</v>
+        <v>121.397</v>
       </c>
       <c r="D77" t="s">
         <v>278</v>
@@ -2534,7 +2534,7 @@
         <v>276</v>
       </c>
       <c r="C78">
-        <v>171.875</v>
+        <v>170.106</v>
       </c>
       <c r="D78" t="s">
         <v>278</v>
@@ -2551,7 +2551,7 @@
         <v>276</v>
       </c>
       <c r="C79">
-        <v>100</v>
+        <v>109.615</v>
       </c>
       <c r="D79" t="s">
         <v>278</v>
@@ -2568,7 +2568,7 @@
         <v>276</v>
       </c>
       <c r="C80">
-        <v>122.222</v>
+        <v>133.333</v>
       </c>
       <c r="D80" t="s">
         <v>278</v>
@@ -2585,7 +2585,7 @@
         <v>276</v>
       </c>
       <c r="C81">
-        <v>112.048</v>
+        <v>119.519</v>
       </c>
       <c r="D81" t="s">
         <v>278</v>
@@ -2602,7 +2602,7 @@
         <v>276</v>
       </c>
       <c r="C82">
-        <v>107.692</v>
+        <v>115.385</v>
       </c>
       <c r="D82" t="s">
         <v>278</v>
@@ -2619,7 +2619,7 @@
         <v>276</v>
       </c>
       <c r="C83">
-        <v>114.286</v>
+        <v>113.793</v>
       </c>
       <c r="D83" t="s">
         <v>278</v>
@@ -2636,7 +2636,7 @@
         <v>276</v>
       </c>
       <c r="C84">
-        <v>112.333</v>
+        <v>122.68</v>
       </c>
       <c r="D84" t="s">
         <v>278</v>
@@ -2653,7 +2653,7 @@
         <v>276</v>
       </c>
       <c r="C85">
-        <v>116.667</v>
+        <v>104.706</v>
       </c>
       <c r="D85" t="s">
         <v>278</v>
@@ -2670,7 +2670,7 @@
         <v>276</v>
       </c>
       <c r="C86">
-        <v>106.549</v>
+        <v>110.221</v>
       </c>
       <c r="D86" t="s">
         <v>278</v>
@@ -2687,7 +2687,7 @@
         <v>276</v>
       </c>
       <c r="C87">
-        <v>103.125</v>
+        <v>104.688</v>
       </c>
       <c r="D87" t="s">
         <v>278</v>
@@ -2704,7 +2704,7 @@
         <v>276</v>
       </c>
       <c r="C88">
-        <v>130.303</v>
+        <v>145.455</v>
       </c>
       <c r="D88" t="s">
         <v>278</v>
@@ -2718,10 +2718,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C89">
-        <v>95.127</v>
+        <v>102.243</v>
       </c>
       <c r="D89" t="s">
         <v>278</v>
@@ -2738,7 +2738,7 @@
         <v>276</v>
       </c>
       <c r="C90">
-        <v>112.987</v>
+        <v>128.205</v>
       </c>
       <c r="D90" t="s">
         <v>278</v>
@@ -2755,7 +2755,7 @@
         <v>276</v>
       </c>
       <c r="C91">
-        <v>122.034</v>
+        <v>128.39</v>
       </c>
       <c r="D91" t="s">
         <v>278</v>
@@ -2772,7 +2772,7 @@
         <v>276</v>
       </c>
       <c r="C92">
-        <v>113.003</v>
+        <v>130.105</v>
       </c>
       <c r="D92" t="s">
         <v>278</v>
@@ -2823,7 +2823,7 @@
         <v>276</v>
       </c>
       <c r="C95">
-        <v>113.717</v>
+        <v>114.561</v>
       </c>
       <c r="D95" t="s">
         <v>278</v>
@@ -2857,7 +2857,7 @@
         <v>276</v>
       </c>
       <c r="C97">
-        <v>101.871</v>
+        <v>102.862</v>
       </c>
       <c r="D97" t="s">
         <v>278</v>
@@ -2891,7 +2891,7 @@
         <v>276</v>
       </c>
       <c r="C99">
-        <v>122.581</v>
+        <v>121.875</v>
       </c>
       <c r="D99" t="s">
         <v>278</v>
@@ -2908,7 +2908,7 @@
         <v>276</v>
       </c>
       <c r="C100">
-        <v>113.122</v>
+        <v>108.922</v>
       </c>
       <c r="D100" t="s">
         <v>278</v>
@@ -2925,7 +2925,7 @@
         <v>276</v>
       </c>
       <c r="C101">
-        <v>110.286</v>
+        <v>111.299</v>
       </c>
       <c r="D101" t="s">
         <v>278</v>
@@ -2942,7 +2942,7 @@
         <v>276</v>
       </c>
       <c r="C102">
-        <v>108.889</v>
+        <v>111.364</v>
       </c>
       <c r="D102" t="s">
         <v>278</v>
@@ -2959,7 +2959,7 @@
         <v>276</v>
       </c>
       <c r="C103">
-        <v>120.225</v>
+        <v>121.875</v>
       </c>
       <c r="D103" t="s">
         <v>278</v>
@@ -2976,7 +2976,7 @@
         <v>276</v>
       </c>
       <c r="C104">
-        <v>130.864</v>
+        <v>110.112</v>
       </c>
       <c r="D104" t="s">
         <v>278</v>
@@ -2993,7 +2993,7 @@
         <v>276</v>
       </c>
       <c r="C105">
-        <v>116.667</v>
+        <v>118.617</v>
       </c>
       <c r="D105" t="s">
         <v>278</v>
@@ -3010,7 +3010,7 @@
         <v>276</v>
       </c>
       <c r="C106">
-        <v>117.308</v>
+        <v>120</v>
       </c>
       <c r="D106" t="s">
         <v>278</v>
@@ -3027,7 +3027,7 @@
         <v>276</v>
       </c>
       <c r="C107">
-        <v>117.073</v>
+        <v>127.5</v>
       </c>
       <c r="D107" t="s">
         <v>278</v>
@@ -3044,7 +3044,7 @@
         <v>276</v>
       </c>
       <c r="C108">
-        <v>104.651</v>
+        <v>123.563</v>
       </c>
       <c r="D108" t="s">
         <v>278</v>
@@ -3061,7 +3061,7 @@
         <v>276</v>
       </c>
       <c r="C109">
-        <v>106.698</v>
+        <v>112.285</v>
       </c>
       <c r="D109" t="s">
         <v>278</v>
@@ -3078,7 +3078,7 @@
         <v>276</v>
       </c>
       <c r="C110">
-        <v>106.02</v>
+        <v>112.418</v>
       </c>
       <c r="D110" t="s">
         <v>278</v>
@@ -3095,7 +3095,7 @@
         <v>276</v>
       </c>
       <c r="C111">
-        <v>107.212</v>
+        <v>117.703</v>
       </c>
       <c r="D111" t="s">
         <v>278</v>
@@ -3129,7 +3129,7 @@
         <v>276</v>
       </c>
       <c r="C113">
-        <v>101.961</v>
+        <v>100.962</v>
       </c>
       <c r="D113" t="s">
         <v>278</v>
@@ -3146,7 +3146,7 @@
         <v>276</v>
       </c>
       <c r="C114">
-        <v>109.302</v>
+        <v>113.953</v>
       </c>
       <c r="D114" t="s">
         <v>278</v>
@@ -3163,7 +3163,7 @@
         <v>276</v>
       </c>
       <c r="C115">
-        <v>102.778</v>
+        <v>105.405</v>
       </c>
       <c r="D115" t="s">
         <v>278</v>
@@ -3180,7 +3180,7 @@
         <v>276</v>
       </c>
       <c r="C116">
-        <v>114.815</v>
+        <v>126.923</v>
       </c>
       <c r="D116" t="s">
         <v>278</v>
@@ -3197,7 +3197,7 @@
         <v>276</v>
       </c>
       <c r="C117">
-        <v>114.115</v>
+        <v>121.055</v>
       </c>
       <c r="D117" t="s">
         <v>278</v>
@@ -3214,7 +3214,7 @@
         <v>276</v>
       </c>
       <c r="C118">
-        <v>126.485</v>
+        <v>126.569</v>
       </c>
       <c r="D118" t="s">
         <v>278</v>
@@ -3231,7 +3231,7 @@
         <v>277</v>
       </c>
       <c r="C119">
-        <v>97.309</v>
+        <v>97.898</v>
       </c>
       <c r="D119" t="s">
         <v>278</v>
@@ -3248,7 +3248,7 @@
         <v>276</v>
       </c>
       <c r="C120">
-        <v>121.088</v>
+        <v>131.973</v>
       </c>
       <c r="D120" t="s">
         <v>278</v>
@@ -3282,7 +3282,7 @@
         <v>276</v>
       </c>
       <c r="C122">
-        <v>120</v>
+        <v>127.027</v>
       </c>
       <c r="D122" t="s">
         <v>278</v>
@@ -3299,7 +3299,7 @@
         <v>276</v>
       </c>
       <c r="C123">
-        <v>112.5</v>
+        <v>115.625</v>
       </c>
       <c r="D123" t="s">
         <v>278</v>
@@ -3316,7 +3316,7 @@
         <v>276</v>
       </c>
       <c r="C124">
-        <v>125</v>
+        <v>122.754</v>
       </c>
       <c r="D124" t="s">
         <v>278</v>
@@ -3333,7 +3333,7 @@
         <v>276</v>
       </c>
       <c r="C125">
-        <v>108.824</v>
+        <v>114.706</v>
       </c>
       <c r="D125" t="s">
         <v>278</v>
@@ -3350,7 +3350,7 @@
         <v>276</v>
       </c>
       <c r="C126">
-        <v>136.634</v>
+        <v>128.431</v>
       </c>
       <c r="D126" t="s">
         <v>278</v>
@@ -3364,10 +3364,10 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C127">
-        <v>96.51000000000001</v>
+        <v>102.041</v>
       </c>
       <c r="D127" t="s">
         <v>278</v>
@@ -3384,7 +3384,7 @@
         <v>276</v>
       </c>
       <c r="C128">
-        <v>120.833</v>
+        <v>125</v>
       </c>
       <c r="D128" t="s">
         <v>278</v>
@@ -3398,10 +3398,10 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C129">
-        <v>98.413</v>
+        <v>108.197</v>
       </c>
       <c r="D129" t="s">
         <v>278</v>
@@ -3418,7 +3418,7 @@
         <v>276</v>
       </c>
       <c r="C130">
-        <v>119.936</v>
+        <v>124.23</v>
       </c>
       <c r="D130" t="s">
         <v>278</v>
@@ -3435,7 +3435,7 @@
         <v>277</v>
       </c>
       <c r="C131">
-        <v>95.52200000000001</v>
+        <v>97.53100000000001</v>
       </c>
       <c r="D131" t="s">
         <v>278</v>
@@ -3452,7 +3452,7 @@
         <v>276</v>
       </c>
       <c r="C132">
-        <v>118.843</v>
+        <v>123.924</v>
       </c>
       <c r="D132" t="s">
         <v>278</v>
@@ -3469,7 +3469,7 @@
         <v>276</v>
       </c>
       <c r="C133">
-        <v>107.143</v>
+        <v>118.519</v>
       </c>
       <c r="D133" t="s">
         <v>278</v>
@@ -3486,7 +3486,7 @@
         <v>276</v>
       </c>
       <c r="C134">
-        <v>120</v>
+        <v>120.408</v>
       </c>
       <c r="D134" t="s">
         <v>278</v>
@@ -3503,7 +3503,7 @@
         <v>276</v>
       </c>
       <c r="C135">
-        <v>125</v>
+        <v>118.269</v>
       </c>
       <c r="D135" t="s">
         <v>278</v>
@@ -3520,7 +3520,7 @@
         <v>276</v>
       </c>
       <c r="C136">
-        <v>106.809</v>
+        <v>108.051</v>
       </c>
       <c r="D136" t="s">
         <v>278</v>
@@ -3537,7 +3537,7 @@
         <v>276</v>
       </c>
       <c r="C137">
-        <v>110.256</v>
+        <v>117.949</v>
       </c>
       <c r="D137" t="s">
         <v>278</v>
@@ -3554,7 +3554,7 @@
         <v>276</v>
       </c>
       <c r="C138">
-        <v>123.364</v>
+        <v>131.818</v>
       </c>
       <c r="D138" t="s">
         <v>278</v>
@@ -3571,7 +3571,7 @@
         <v>276</v>
       </c>
       <c r="C139">
-        <v>113.636</v>
+        <v>136.364</v>
       </c>
       <c r="D139" t="s">
         <v>278</v>
@@ -3588,7 +3588,7 @@
         <v>276</v>
       </c>
       <c r="C140">
-        <v>113.333</v>
+        <v>120</v>
       </c>
       <c r="D140" t="s">
         <v>278</v>
@@ -3605,7 +3605,7 @@
         <v>276</v>
       </c>
       <c r="C141">
-        <v>112.5</v>
+        <v>116.923</v>
       </c>
       <c r="D141" t="s">
         <v>278</v>
@@ -3622,7 +3622,7 @@
         <v>276</v>
       </c>
       <c r="C142">
-        <v>107.569</v>
+        <v>112.297</v>
       </c>
       <c r="D142" t="s">
         <v>278</v>
@@ -3639,7 +3639,7 @@
         <v>276</v>
       </c>
       <c r="C143">
-        <v>107.973</v>
+        <v>112.974</v>
       </c>
       <c r="D143" t="s">
         <v>278</v>
@@ -3656,7 +3656,7 @@
         <v>276</v>
       </c>
       <c r="C144">
-        <v>104.727</v>
+        <v>105.091</v>
       </c>
       <c r="D144" t="s">
         <v>278</v>
@@ -3673,7 +3673,7 @@
         <v>276</v>
       </c>
       <c r="C145">
-        <v>111.401</v>
+        <v>112.838</v>
       </c>
       <c r="D145" t="s">
         <v>278</v>
@@ -3690,7 +3690,7 @@
         <v>276</v>
       </c>
       <c r="C146">
-        <v>106.401</v>
+        <v>114.514</v>
       </c>
       <c r="D146" t="s">
         <v>278</v>
@@ -3707,7 +3707,7 @@
         <v>276</v>
       </c>
       <c r="C147">
-        <v>119.417</v>
+        <v>111.667</v>
       </c>
       <c r="D147" t="s">
         <v>278</v>
@@ -3724,7 +3724,7 @@
         <v>276</v>
       </c>
       <c r="C148">
-        <v>118.519</v>
+        <v>122.222</v>
       </c>
       <c r="D148" t="s">
         <v>278</v>
@@ -3741,7 +3741,7 @@
         <v>277</v>
       </c>
       <c r="C149">
-        <v>91.137</v>
+        <v>95.084</v>
       </c>
       <c r="D149" t="s">
         <v>278</v>
@@ -3758,7 +3758,7 @@
         <v>276</v>
       </c>
       <c r="C150">
-        <v>111.258</v>
+        <v>114.189</v>
       </c>
       <c r="D150" t="s">
         <v>278</v>
@@ -3775,7 +3775,7 @@
         <v>276</v>
       </c>
       <c r="C151">
-        <v>116</v>
+        <v>119.231</v>
       </c>
       <c r="D151" t="s">
         <v>278</v>
@@ -3792,7 +3792,7 @@
         <v>276</v>
       </c>
       <c r="C152">
-        <v>100</v>
+        <v>108.511</v>
       </c>
       <c r="D152" t="s">
         <v>278</v>
@@ -3809,7 +3809,7 @@
         <v>276</v>
       </c>
       <c r="C153">
-        <v>122.714</v>
+        <v>130.509</v>
       </c>
       <c r="D153" t="s">
         <v>278</v>
@@ -3826,7 +3826,7 @@
         <v>276</v>
       </c>
       <c r="C154">
-        <v>107.463</v>
+        <v>119.697</v>
       </c>
       <c r="D154" t="s">
         <v>278</v>
@@ -3843,7 +3843,7 @@
         <v>277</v>
       </c>
       <c r="C155">
-        <v>93.893</v>
+        <v>99.22499999999999</v>
       </c>
       <c r="D155" t="s">
         <v>278</v>
@@ -3860,7 +3860,7 @@
         <v>276</v>
       </c>
       <c r="C156">
-        <v>133.333</v>
+        <v>138.776</v>
       </c>
       <c r="D156" t="s">
         <v>278</v>
@@ -3877,7 +3877,7 @@
         <v>276</v>
       </c>
       <c r="C157">
-        <v>113.203</v>
+        <v>109.7</v>
       </c>
       <c r="D157" t="s">
         <v>278</v>
@@ -3894,7 +3894,7 @@
         <v>276</v>
       </c>
       <c r="C158">
-        <v>107.368</v>
+        <v>107.071</v>
       </c>
       <c r="D158" t="s">
         <v>278</v>
@@ -3911,7 +3911,7 @@
         <v>276</v>
       </c>
       <c r="C159">
-        <v>101.515</v>
+        <v>112.308</v>
       </c>
       <c r="D159" t="s">
         <v>278</v>
@@ -3928,7 +3928,7 @@
         <v>276</v>
       </c>
       <c r="C160">
-        <v>118.182</v>
+        <v>124.242</v>
       </c>
       <c r="D160" t="s">
         <v>278</v>
@@ -3945,7 +3945,7 @@
         <v>276</v>
       </c>
       <c r="C161">
-        <v>100</v>
+        <v>114.286</v>
       </c>
       <c r="D161" t="s">
         <v>278</v>
@@ -3962,7 +3962,7 @@
         <v>276</v>
       </c>
       <c r="C162">
-        <v>101.55</v>
+        <v>108.661</v>
       </c>
       <c r="D162" t="s">
         <v>278</v>
@@ -3979,7 +3979,7 @@
         <v>276</v>
       </c>
       <c r="C163">
-        <v>103.463</v>
+        <v>104.101</v>
       </c>
       <c r="D163" t="s">
         <v>278</v>
@@ -3996,7 +3996,7 @@
         <v>276</v>
       </c>
       <c r="C164">
-        <v>111.84</v>
+        <v>113.971</v>
       </c>
       <c r="D164" t="s">
         <v>278</v>
@@ -4013,7 +4013,7 @@
         <v>276</v>
       </c>
       <c r="C165">
-        <v>111.765</v>
+        <v>117.647</v>
       </c>
       <c r="D165" t="s">
         <v>278</v>
@@ -4030,7 +4030,7 @@
         <v>276</v>
       </c>
       <c r="C166">
-        <v>105.842</v>
+        <v>109.929</v>
       </c>
       <c r="D166" t="s">
         <v>278</v>
@@ -4047,7 +4047,7 @@
         <v>276</v>
       </c>
       <c r="C167">
-        <v>109.146</v>
+        <v>114.724</v>
       </c>
       <c r="D167" t="s">
         <v>278</v>
@@ -4081,7 +4081,7 @@
         <v>276</v>
       </c>
       <c r="C169">
-        <v>122.222</v>
+        <v>125.846</v>
       </c>
       <c r="D169" t="s">
         <v>278</v>
@@ -4098,7 +4098,7 @@
         <v>276</v>
       </c>
       <c r="C170">
-        <v>120.162</v>
+        <v>128.72</v>
       </c>
       <c r="D170" t="s">
         <v>278</v>
@@ -4115,7 +4115,7 @@
         <v>276</v>
       </c>
       <c r="C171">
-        <v>120.354</v>
+        <v>120</v>
       </c>
       <c r="D171" t="s">
         <v>278</v>
@@ -4132,7 +4132,7 @@
         <v>277</v>
       </c>
       <c r="C172">
-        <v>91.44</v>
+        <v>99.762</v>
       </c>
       <c r="D172" t="s">
         <v>278</v>
@@ -4149,7 +4149,7 @@
         <v>277</v>
       </c>
       <c r="C173">
-        <v>93.08199999999999</v>
+        <v>88.27200000000001</v>
       </c>
       <c r="D173" t="s">
         <v>278</v>
@@ -4166,7 +4166,7 @@
         <v>276</v>
       </c>
       <c r="C174">
-        <v>107.407</v>
+        <v>111.111</v>
       </c>
       <c r="D174" t="s">
         <v>278</v>
@@ -4183,7 +4183,7 @@
         <v>276</v>
       </c>
       <c r="C175">
-        <v>112.5</v>
+        <v>118.75</v>
       </c>
       <c r="D175" t="s">
         <v>278</v>
@@ -4200,7 +4200,7 @@
         <v>276</v>
       </c>
       <c r="C176">
-        <v>122.078</v>
+        <v>132.911</v>
       </c>
       <c r="D176" t="s">
         <v>278</v>
@@ -4217,7 +4217,7 @@
         <v>276</v>
       </c>
       <c r="C177">
-        <v>117.647</v>
+        <v>123.529</v>
       </c>
       <c r="D177" t="s">
         <v>278</v>
@@ -4234,7 +4234,7 @@
         <v>276</v>
       </c>
       <c r="C178">
-        <v>102.682</v>
+        <v>107.356</v>
       </c>
       <c r="D178" t="s">
         <v>278</v>
@@ -4251,7 +4251,7 @@
         <v>276</v>
       </c>
       <c r="C179">
-        <v>128.986</v>
+        <v>140</v>
       </c>
       <c r="D179" t="s">
         <v>278</v>
@@ -4268,7 +4268,7 @@
         <v>276</v>
       </c>
       <c r="C180">
-        <v>111.429</v>
+        <v>114.286</v>
       </c>
       <c r="D180" t="s">
         <v>278</v>
@@ -4285,7 +4285,7 @@
         <v>276</v>
       </c>
       <c r="C181">
-        <v>111.538</v>
+        <v>115.385</v>
       </c>
       <c r="D181" t="s">
         <v>278</v>
@@ -4302,7 +4302,7 @@
         <v>276</v>
       </c>
       <c r="C182">
-        <v>100.532</v>
+        <v>105.495</v>
       </c>
       <c r="D182" t="s">
         <v>278</v>
@@ -4319,7 +4319,7 @@
         <v>276</v>
       </c>
       <c r="C183">
-        <v>111.226</v>
+        <v>128.194</v>
       </c>
       <c r="D183" t="s">
         <v>278</v>
@@ -4336,7 +4336,7 @@
         <v>276</v>
       </c>
       <c r="C184">
-        <v>117.089</v>
+        <v>113.462</v>
       </c>
       <c r="D184" t="s">
         <v>278</v>
@@ -4353,7 +4353,7 @@
         <v>276</v>
       </c>
       <c r="C185">
-        <v>101.923</v>
+        <v>103.896</v>
       </c>
       <c r="D185" t="s">
         <v>278</v>
@@ -4367,10 +4367,10 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C186">
-        <v>99.90000000000001</v>
+        <v>101.399</v>
       </c>
       <c r="D186" t="s">
         <v>278</v>
@@ -4387,7 +4387,7 @@
         <v>276</v>
       </c>
       <c r="C187">
-        <v>122.179</v>
+        <v>125.373</v>
       </c>
       <c r="D187" t="s">
         <v>278</v>
@@ -4404,7 +4404,7 @@
         <v>276</v>
       </c>
       <c r="C188">
-        <v>100.758</v>
+        <v>107.634</v>
       </c>
       <c r="D188" t="s">
         <v>278</v>
@@ -4438,7 +4438,7 @@
         <v>276</v>
       </c>
       <c r="C190">
-        <v>127.389</v>
+        <v>122.078</v>
       </c>
       <c r="D190" t="s">
         <v>278</v>
@@ -4455,7 +4455,7 @@
         <v>276</v>
       </c>
       <c r="C191">
-        <v>112.121</v>
+        <v>108.824</v>
       </c>
       <c r="D191" t="s">
         <v>278</v>
@@ -4489,7 +4489,7 @@
         <v>276</v>
       </c>
       <c r="C193">
-        <v>105.556</v>
+        <v>111.111</v>
       </c>
       <c r="D193" t="s">
         <v>278</v>
@@ -4506,7 +4506,7 @@
         <v>276</v>
       </c>
       <c r="C194">
-        <v>120.225</v>
+        <v>117.778</v>
       </c>
       <c r="D194" t="s">
         <v>278</v>
@@ -4523,7 +4523,7 @@
         <v>276</v>
       </c>
       <c r="C195">
-        <v>116.667</v>
+        <v>110.526</v>
       </c>
       <c r="D195" t="s">
         <v>278</v>
@@ -4540,7 +4540,7 @@
         <v>276</v>
       </c>
       <c r="C196">
-        <v>101.338</v>
+        <v>102.721</v>
       </c>
       <c r="D196" t="s">
         <v>278</v>
@@ -4557,7 +4557,7 @@
         <v>276</v>
       </c>
       <c r="C197">
-        <v>102.857</v>
+        <v>108.571</v>
       </c>
       <c r="D197" t="s">
         <v>278</v>
@@ -4574,7 +4574,7 @@
         <v>277</v>
       </c>
       <c r="C198">
-        <v>83.565</v>
+        <v>92.839</v>
       </c>
       <c r="D198" t="s">
         <v>278</v>
@@ -4591,7 +4591,7 @@
         <v>277</v>
       </c>
       <c r="C199">
-        <v>94.91500000000001</v>
+        <v>96.55200000000001</v>
       </c>
       <c r="D199" t="s">
         <v>278</v>
@@ -4608,7 +4608,7 @@
         <v>276</v>
       </c>
       <c r="C200">
-        <v>111.143</v>
+        <v>110.084</v>
       </c>
       <c r="D200" t="s">
         <v>278</v>
@@ -4625,7 +4625,7 @@
         <v>276</v>
       </c>
       <c r="C201">
-        <v>110.87</v>
+        <v>115.556</v>
       </c>
       <c r="D201" t="s">
         <v>278</v>
@@ -4642,7 +4642,7 @@
         <v>276</v>
       </c>
       <c r="C202">
-        <v>113.872</v>
+        <v>115.083</v>
       </c>
       <c r="D202" t="s">
         <v>278</v>
@@ -4659,7 +4659,7 @@
         <v>276</v>
       </c>
       <c r="C203">
-        <v>109.221</v>
+        <v>117.636</v>
       </c>
       <c r="D203" t="s">
         <v>278</v>
@@ -4676,7 +4676,7 @@
         <v>276</v>
       </c>
       <c r="C204">
-        <v>112.766</v>
+        <v>126.38</v>
       </c>
       <c r="D204" t="s">
         <v>278</v>
@@ -4693,7 +4693,7 @@
         <v>276</v>
       </c>
       <c r="C205">
-        <v>120</v>
+        <v>116.667</v>
       </c>
       <c r="D205" t="s">
         <v>278</v>
@@ -4710,7 +4710,7 @@
         <v>276</v>
       </c>
       <c r="C206">
-        <v>108.718</v>
+        <v>113.846</v>
       </c>
       <c r="D206" t="s">
         <v>278</v>
@@ -4727,7 +4727,7 @@
         <v>276</v>
       </c>
       <c r="C207">
-        <v>100</v>
+        <v>107.143</v>
       </c>
       <c r="D207" t="s">
         <v>278</v>
@@ -4744,7 +4744,7 @@
         <v>276</v>
       </c>
       <c r="C208">
-        <v>127.551</v>
+        <v>129.67</v>
       </c>
       <c r="D208" t="s">
         <v>278</v>
@@ -4761,7 +4761,7 @@
         <v>276</v>
       </c>
       <c r="C209">
-        <v>112.5</v>
+        <v>105.714</v>
       </c>
       <c r="D209" t="s">
         <v>278</v>
@@ -4778,7 +4778,7 @@
         <v>276</v>
       </c>
       <c r="C210">
-        <v>114.286</v>
+        <v>128.571</v>
       </c>
       <c r="D210" t="s">
         <v>278</v>
@@ -4795,7 +4795,7 @@
         <v>276</v>
       </c>
       <c r="C211">
-        <v>100</v>
+        <v>109.091</v>
       </c>
       <c r="D211" t="s">
         <v>278</v>
@@ -4809,10 +4809,10 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C212">
-        <v>102.261</v>
+        <v>94.89100000000001</v>
       </c>
       <c r="D212" t="s">
         <v>278</v>
@@ -4829,7 +4829,7 @@
         <v>276</v>
       </c>
       <c r="C213">
-        <v>111.85</v>
+        <v>102.3</v>
       </c>
       <c r="D213" t="s">
         <v>278</v>
@@ -4846,7 +4846,7 @@
         <v>276</v>
       </c>
       <c r="C214">
-        <v>110.86</v>
+        <v>108.495</v>
       </c>
       <c r="D214" t="s">
         <v>278</v>
@@ -4863,7 +4863,7 @@
         <v>276</v>
       </c>
       <c r="C215">
-        <v>111.628</v>
+        <v>112.402</v>
       </c>
       <c r="D215" t="s">
         <v>278</v>
@@ -4880,7 +4880,7 @@
         <v>276</v>
       </c>
       <c r="C216">
-        <v>124.49</v>
+        <v>134</v>
       </c>
       <c r="D216" t="s">
         <v>278</v>
@@ -4897,7 +4897,7 @@
         <v>276</v>
       </c>
       <c r="C217">
-        <v>112.825</v>
+        <v>118.576</v>
       </c>
       <c r="D217" t="s">
         <v>278</v>
@@ -4914,7 +4914,7 @@
         <v>276</v>
       </c>
       <c r="C218">
-        <v>127.083</v>
+        <v>131.25</v>
       </c>
       <c r="D218" t="s">
         <v>278</v>
@@ -4928,10 +4928,10 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C219">
-        <v>96.59099999999999</v>
+        <v>100</v>
       </c>
       <c r="D219" t="s">
         <v>278</v>
@@ -4948,7 +4948,7 @@
         <v>276</v>
       </c>
       <c r="C220">
-        <v>106.494</v>
+        <v>105.263</v>
       </c>
       <c r="D220" t="s">
         <v>278</v>
@@ -4965,7 +4965,7 @@
         <v>276</v>
       </c>
       <c r="C221">
-        <v>123.796</v>
+        <v>130.769</v>
       </c>
       <c r="D221" t="s">
         <v>278</v>
@@ -4982,7 +4982,7 @@
         <v>276</v>
       </c>
       <c r="C222">
-        <v>126.078</v>
+        <v>126.386</v>
       </c>
       <c r="D222" t="s">
         <v>278</v>
@@ -4999,7 +4999,7 @@
         <v>276</v>
       </c>
       <c r="C223">
-        <v>103.669</v>
+        <v>105.082</v>
       </c>
       <c r="D223" t="s">
         <v>278</v>
@@ -5033,7 +5033,7 @@
         <v>276</v>
       </c>
       <c r="C225">
-        <v>103.03</v>
+        <v>109.231</v>
       </c>
       <c r="D225" t="s">
         <v>278</v>
@@ -5050,7 +5050,7 @@
         <v>276</v>
       </c>
       <c r="C226">
-        <v>109.859</v>
+        <v>111.111</v>
       </c>
       <c r="D226" t="s">
         <v>278</v>
@@ -5067,7 +5067,7 @@
         <v>276</v>
       </c>
       <c r="C227">
-        <v>130.392</v>
+        <v>133</v>
       </c>
       <c r="D227" t="s">
         <v>278</v>
@@ -5084,7 +5084,7 @@
         <v>276</v>
       </c>
       <c r="C228">
-        <v>110.902</v>
+        <v>114.173</v>
       </c>
       <c r="D228" t="s">
         <v>278</v>
@@ -5098,10 +5098,10 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C229">
-        <v>100</v>
+        <v>94.18600000000001</v>
       </c>
       <c r="D229" t="s">
         <v>278</v>
@@ -5118,7 +5118,7 @@
         <v>276</v>
       </c>
       <c r="C230">
-        <v>120.37</v>
+        <v>135.922</v>
       </c>
       <c r="D230" t="s">
         <v>278</v>
@@ -5135,7 +5135,7 @@
         <v>276</v>
       </c>
       <c r="C231">
-        <v>119.841</v>
+        <v>123.077</v>
       </c>
       <c r="D231" t="s">
         <v>278</v>
@@ -5152,7 +5152,7 @@
         <v>276</v>
       </c>
       <c r="C232">
-        <v>117.143</v>
+        <v>122.857</v>
       </c>
       <c r="D232" t="s">
         <v>278</v>
@@ -5169,7 +5169,7 @@
         <v>276</v>
       </c>
       <c r="C233">
-        <v>154.93</v>
+        <v>152.778</v>
       </c>
       <c r="D233" t="s">
         <v>278</v>
@@ -5186,7 +5186,7 @@
         <v>276</v>
       </c>
       <c r="C234">
-        <v>128.571</v>
+        <v>135.714</v>
       </c>
       <c r="D234" t="s">
         <v>278</v>
@@ -5203,7 +5203,7 @@
         <v>276</v>
       </c>
       <c r="C235">
-        <v>158.974</v>
+        <v>163.115</v>
       </c>
       <c r="D235" t="s">
         <v>278</v>
@@ -5220,7 +5220,7 @@
         <v>277</v>
       </c>
       <c r="C236">
-        <v>96.429</v>
+        <v>97.699</v>
       </c>
       <c r="D236" t="s">
         <v>278</v>
@@ -5237,7 +5237,7 @@
         <v>276</v>
       </c>
       <c r="C237">
-        <v>118.605</v>
+        <v>113.043</v>
       </c>
       <c r="D237" t="s">
         <v>278</v>
@@ -5251,10 +5251,10 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C238">
-        <v>96.03</v>
+        <v>105.651</v>
       </c>
       <c r="D238" t="s">
         <v>278</v>
@@ -5271,7 +5271,7 @@
         <v>276</v>
       </c>
       <c r="C239">
-        <v>102.041</v>
+        <v>103.093</v>
       </c>
       <c r="D239" t="s">
         <v>278</v>
@@ -5288,7 +5288,7 @@
         <v>276</v>
       </c>
       <c r="C240">
-        <v>107.812</v>
+        <v>112.698</v>
       </c>
       <c r="D240" t="s">
         <v>278</v>
@@ -5305,7 +5305,7 @@
         <v>276</v>
       </c>
       <c r="C241">
-        <v>102.5</v>
+        <v>105</v>
       </c>
       <c r="D241" t="s">
         <v>278</v>
@@ -5322,7 +5322,7 @@
         <v>276</v>
       </c>
       <c r="C242">
-        <v>106.582</v>
+        <v>115.584</v>
       </c>
       <c r="D242" t="s">
         <v>278</v>
@@ -5339,7 +5339,7 @@
         <v>276</v>
       </c>
       <c r="C243">
-        <v>111.544</v>
+        <v>116.667</v>
       </c>
       <c r="D243" t="s">
         <v>278</v>
@@ -5356,7 +5356,7 @@
         <v>276</v>
       </c>
       <c r="C244">
-        <v>147.767</v>
+        <v>165.489</v>
       </c>
       <c r="D244" t="s">
         <v>278</v>
@@ -5424,7 +5424,7 @@
         <v>276</v>
       </c>
       <c r="C248">
-        <v>109.091</v>
+        <v>118.182</v>
       </c>
       <c r="D248" t="s">
         <v>278</v>
@@ -5458,7 +5458,7 @@
         <v>276</v>
       </c>
       <c r="C250">
-        <v>103.947</v>
+        <v>107.792</v>
       </c>
       <c r="D250" t="s">
         <v>278</v>
@@ -5475,7 +5475,7 @@
         <v>276</v>
       </c>
       <c r="C251">
-        <v>133.333</v>
+        <v>100</v>
       </c>
       <c r="D251" t="s">
         <v>278</v>
@@ -5492,7 +5492,7 @@
         <v>276</v>
       </c>
       <c r="C252">
-        <v>121.739</v>
+        <v>120</v>
       </c>
       <c r="D252" t="s">
         <v>278</v>
@@ -5509,7 +5509,7 @@
         <v>276</v>
       </c>
       <c r="C253">
-        <v>118.182</v>
+        <v>113.043</v>
       </c>
       <c r="D253" t="s">
         <v>278</v>
@@ -5526,7 +5526,7 @@
         <v>276</v>
       </c>
       <c r="C254">
-        <v>120.354</v>
+        <v>124.034</v>
       </c>
       <c r="D254" t="s">
         <v>278</v>
@@ -5543,7 +5543,7 @@
         <v>276</v>
       </c>
       <c r="C255">
-        <v>113.732</v>
+        <v>114.395</v>
       </c>
       <c r="D255" t="s">
         <v>278</v>
@@ -5560,7 +5560,7 @@
         <v>276</v>
       </c>
       <c r="C256">
-        <v>119.115</v>
+        <v>120.544</v>
       </c>
       <c r="D256" t="s">
         <v>278</v>
@@ -5577,7 +5577,7 @@
         <v>276</v>
       </c>
       <c r="C257">
-        <v>113.616</v>
+        <v>116.333</v>
       </c>
       <c r="D257" t="s">
         <v>278</v>
@@ -5591,10 +5591,10 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C258">
-        <v>109.677</v>
+        <v>95.098</v>
       </c>
       <c r="D258" t="s">
         <v>278</v>
@@ -5611,7 +5611,7 @@
         <v>276</v>
       </c>
       <c r="C259">
-        <v>115.431</v>
+        <v>115.007</v>
       </c>
       <c r="D259" t="s">
         <v>278</v>
@@ -5628,7 +5628,7 @@
         <v>276</v>
       </c>
       <c r="C260">
-        <v>120.93</v>
+        <v>110.638</v>
       </c>
       <c r="D260" t="s">
         <v>278</v>
@@ -5645,7 +5645,7 @@
         <v>276</v>
       </c>
       <c r="C261">
-        <v>108.333</v>
+        <v>112</v>
       </c>
       <c r="D261" t="s">
         <v>278</v>
@@ -5662,7 +5662,7 @@
         <v>276</v>
       </c>
       <c r="C262">
-        <v>109.091</v>
+        <v>108.333</v>
       </c>
       <c r="D262" t="s">
         <v>278</v>
@@ -5696,7 +5696,7 @@
         <v>276</v>
       </c>
       <c r="C264">
-        <v>110.4</v>
+        <v>125</v>
       </c>
       <c r="D264" t="s">
         <v>278</v>
@@ -5713,7 +5713,7 @@
         <v>276</v>
       </c>
       <c r="C265">
-        <v>107.273</v>
+        <v>118.519</v>
       </c>
       <c r="D265" t="s">
         <v>278</v>
@@ -5730,7 +5730,7 @@
         <v>276</v>
       </c>
       <c r="C266">
-        <v>114.679</v>
+        <v>120.721</v>
       </c>
       <c r="D266" t="s">
         <v>278</v>
@@ -5747,7 +5747,7 @@
         <v>276</v>
       </c>
       <c r="C267">
-        <v>106.134</v>
+        <v>108.04</v>
       </c>
       <c r="D267" t="s">
         <v>278</v>
@@ -5764,7 +5764,7 @@
         <v>276</v>
       </c>
       <c r="C268">
-        <v>117.792</v>
+        <v>122.618</v>
       </c>
       <c r="D268" t="s">
         <v>278</v>
@@ -5781,7 +5781,7 @@
         <v>276</v>
       </c>
       <c r="C269">
-        <v>141.176</v>
+        <v>135.294</v>
       </c>
       <c r="D269" t="s">
         <v>278</v>
@@ -5798,7 +5798,7 @@
         <v>276</v>
       </c>
       <c r="C270">
-        <v>117.974</v>
+        <v>114.398</v>
       </c>
       <c r="D270" t="s">
         <v>278</v>
@@ -5815,7 +5815,7 @@
         <v>276</v>
       </c>
       <c r="C271">
-        <v>116.135</v>
+        <v>116.047</v>
       </c>
       <c r="D271" t="s">
         <v>278</v>
@@ -5832,7 +5832,7 @@
         <v>276</v>
       </c>
       <c r="C272">
-        <v>111.429</v>
+        <v>120</v>
       </c>
       <c r="D272" t="s">
         <v>278</v>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1089" uniqueCount="280">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="282">
   <si>
     <t>symbol</t>
   </si>
@@ -235,6 +235,9 @@
     <t>CTSIUSDT</t>
   </si>
   <si>
+    <t>CTXCUSDT</t>
+  </si>
+  <si>
     <t>CVCUSDT</t>
   </si>
   <si>
@@ -332,6 +335,9 @@
   </si>
   <si>
     <t>FISUSDT</t>
+  </si>
+  <si>
+    <t>FLMUSDT</t>
   </si>
   <si>
     <t>FLOWUSDT</t>
@@ -1211,7 +1217,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E272"/>
+  <dimension ref="A1:E274"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1239,16 +1245,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C2">
-        <v>129.545</v>
+        <v>120.408</v>
       </c>
       <c r="D2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E2" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1256,16 +1262,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C3">
-        <v>122.947</v>
+        <v>109.485</v>
       </c>
       <c r="D3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E3" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1273,16 +1279,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C4">
-        <v>120</v>
+        <v>109.091</v>
       </c>
       <c r="D4" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1290,16 +1296,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C5">
-        <v>114.027</v>
+        <v>109.251</v>
       </c>
       <c r="D5" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E5" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1307,16 +1313,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C6">
-        <v>123.729</v>
+        <v>120.968</v>
       </c>
       <c r="D6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1324,16 +1330,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C7">
-        <v>110</v>
+        <v>109.524</v>
       </c>
       <c r="D7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1341,16 +1347,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C8">
-        <v>113.333</v>
+        <v>106.667</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1358,16 +1364,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>100.926</v>
       </c>
       <c r="D9" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E9" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1375,16 +1381,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C10">
-        <v>123.188</v>
+        <v>124.658</v>
       </c>
       <c r="D10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E10" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1392,16 +1398,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C11">
-        <v>114.388</v>
+        <v>106.164</v>
       </c>
       <c r="D11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E11" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1409,16 +1415,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C12">
-        <v>103.555</v>
+        <v>107.034</v>
       </c>
       <c r="D12" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E12" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1426,16 +1432,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C13">
-        <v>126.316</v>
+        <v>114.286</v>
       </c>
       <c r="D13" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E13" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1443,16 +1449,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C14">
-        <v>135.461</v>
+        <v>105.495</v>
       </c>
       <c r="D14" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E14" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1460,16 +1466,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C15">
-        <v>115.789</v>
+        <v>105</v>
       </c>
       <c r="D15" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E15" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1477,16 +1483,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C16">
-        <v>123.077</v>
+        <v>114.286</v>
       </c>
       <c r="D16" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E16" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1494,16 +1500,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C17">
-        <v>114.155</v>
+        <v>107.489</v>
       </c>
       <c r="D17" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E17" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1511,16 +1517,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C18">
         <v>116.509</v>
       </c>
       <c r="D18" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E18" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1528,16 +1534,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C19">
-        <v>135.503</v>
+        <v>108.04</v>
       </c>
       <c r="D19" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E19" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1545,16 +1551,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C20">
-        <v>95.238</v>
+        <v>85.64400000000001</v>
       </c>
       <c r="D20" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E20" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1562,16 +1568,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C21">
-        <v>129.361</v>
+        <v>139.212</v>
       </c>
       <c r="D21" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E21" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1579,16 +1585,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C22">
-        <v>108.287</v>
+        <v>109.326</v>
       </c>
       <c r="D22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E22" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1596,16 +1602,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C23">
-        <v>179.286</v>
+        <v>143.902</v>
       </c>
       <c r="D23" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E23" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1613,16 +1619,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C24">
-        <v>112.941</v>
+        <v>112.791</v>
       </c>
       <c r="D24" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E24" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1630,16 +1636,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C25">
-        <v>192.847</v>
+        <v>198.649</v>
       </c>
       <c r="D25" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E25" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1647,16 +1653,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C26">
-        <v>110.612</v>
+        <v>113.6</v>
       </c>
       <c r="D26" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E26" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1664,16 +1670,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C27">
-        <v>118.182</v>
+        <v>109.091</v>
       </c>
       <c r="D27" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E27" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1681,16 +1687,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C28">
-        <v>115.385</v>
+        <v>100</v>
       </c>
       <c r="D28" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E28" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1698,16 +1704,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C29">
-        <v>110.861</v>
+        <v>112.044</v>
       </c>
       <c r="D29" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E29" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1715,16 +1721,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C30">
-        <v>121.655</v>
+        <v>112.478</v>
       </c>
       <c r="D30" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E30" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1732,16 +1738,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C31">
-        <v>98.63</v>
+        <v>88.976</v>
       </c>
       <c r="D31" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E31" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1749,16 +1755,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C32">
-        <v>130.435</v>
+        <v>110.714</v>
       </c>
       <c r="D32" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E32" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1766,16 +1772,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C33">
-        <v>115.254</v>
+        <v>132.787</v>
       </c>
       <c r="D33" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E33" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1783,16 +1789,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C34">
-        <v>115.117</v>
+        <v>105.09</v>
       </c>
       <c r="D34" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E34" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1800,16 +1806,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C35">
-        <v>129.049</v>
+        <v>117.803</v>
       </c>
       <c r="D35" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E35" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1817,16 +1823,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C36">
-        <v>145.547</v>
+        <v>125.874</v>
       </c>
       <c r="D36" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E36" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1834,16 +1840,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C37">
-        <v>117.949</v>
+        <v>95.238</v>
       </c>
       <c r="D37" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E37" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1851,16 +1857,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C38">
-        <v>121.127</v>
+        <v>113.278</v>
       </c>
       <c r="D38" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E38" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1868,16 +1874,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C39">
-        <v>121.106</v>
+        <v>107.907</v>
       </c>
       <c r="D39" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E39" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1885,16 +1891,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C40">
-        <v>105.769</v>
+        <v>106.767</v>
       </c>
       <c r="D40" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E40" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1902,16 +1908,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C41">
-        <v>132</v>
+        <v>118.519</v>
       </c>
       <c r="D41" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E41" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1919,16 +1925,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C42">
-        <v>165.63</v>
+        <v>152.166</v>
       </c>
       <c r="D42" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E42" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1936,16 +1942,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C43">
-        <v>118.31</v>
+        <v>110.526</v>
       </c>
       <c r="D43" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E43" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1953,16 +1959,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C44">
-        <v>128.205</v>
+        <v>139.474</v>
       </c>
       <c r="D44" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E44" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1970,16 +1976,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C45">
-        <v>105.624</v>
+        <v>105.992</v>
       </c>
       <c r="D45" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E45" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1987,16 +1993,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C46">
-        <v>104.348</v>
+        <v>86.842</v>
       </c>
       <c r="D46" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E46" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2004,16 +2010,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C47">
         <v>121.295</v>
       </c>
       <c r="D47" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E47" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2021,16 +2027,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C48">
-        <v>106.613</v>
+        <v>102.938</v>
       </c>
       <c r="D48" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E48" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2038,16 +2044,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C49">
-        <v>114.286</v>
+        <v>110.843</v>
       </c>
       <c r="D49" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E49" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2055,16 +2061,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C50">
-        <v>116.667</v>
+        <v>112.903</v>
       </c>
       <c r="D50" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E50" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2072,16 +2078,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C51">
-        <v>119.308</v>
+        <v>103.252</v>
       </c>
       <c r="D51" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E51" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2089,16 +2095,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C52">
-        <v>107.692</v>
+        <v>100</v>
       </c>
       <c r="D52" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E52" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2106,16 +2112,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C53">
         <v>120.552</v>
       </c>
       <c r="D53" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E53" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2123,16 +2129,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C54">
-        <v>120.65</v>
+        <v>122.971</v>
       </c>
       <c r="D54" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E54" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2140,16 +2146,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C55">
-        <v>121.667</v>
+        <v>107.692</v>
       </c>
       <c r="D55" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E55" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2157,16 +2163,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C56">
         <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E56" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2174,16 +2180,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C57">
-        <v>121.212</v>
+        <v>92.5</v>
       </c>
       <c r="D57" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E57" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2191,16 +2197,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C58">
-        <v>111.379</v>
+        <v>96.636</v>
       </c>
       <c r="D58" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E58" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2208,16 +2214,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C59">
-        <v>137.037</v>
+        <v>113.542</v>
       </c>
       <c r="D59" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E59" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2225,16 +2231,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C60">
-        <v>114.286</v>
+        <v>104.545</v>
       </c>
       <c r="D60" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E60" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2242,16 +2248,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C61">
-        <v>97.56100000000001</v>
+        <v>83.721</v>
       </c>
       <c r="D61" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E61" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2259,16 +2265,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C62">
-        <v>123.077</v>
+        <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E62" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2276,16 +2282,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C63">
-        <v>104.101</v>
+        <v>104.644</v>
       </c>
       <c r="D63" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E63" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2293,16 +2299,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C64">
-        <v>122.222</v>
+        <v>107.692</v>
       </c>
       <c r="D64" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E64" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2310,16 +2316,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C65">
-        <v>152.301</v>
+        <v>118.041</v>
       </c>
       <c r="D65" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E65" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2327,16 +2333,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C66">
-        <v>109.521</v>
+        <v>108.918</v>
       </c>
       <c r="D66" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E66" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2344,16 +2350,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C67">
-        <v>120</v>
+        <v>121.667</v>
       </c>
       <c r="D67" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E67" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2361,16 +2367,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C68">
-        <v>116.438</v>
+        <v>117.722</v>
       </c>
       <c r="D68" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E68" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2378,16 +2384,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C69">
-        <v>128.125</v>
+        <v>105.714</v>
       </c>
       <c r="D69" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E69" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2395,16 +2401,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C70">
-        <v>118.182</v>
+        <v>93.333</v>
       </c>
       <c r="D70" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E70" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2412,16 +2418,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C71">
-        <v>113.333</v>
+        <v>118.182</v>
       </c>
       <c r="D71" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E71" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2429,16 +2435,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C72">
-        <v>104.43</v>
+        <v>108.696</v>
       </c>
       <c r="D72" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E72" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2446,16 +2452,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C73">
-        <v>119.672</v>
+        <v>106.897</v>
       </c>
       <c r="D73" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E73" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2463,16 +2469,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C74">
-        <v>140</v>
+        <v>110.222</v>
       </c>
       <c r="D74" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E74" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2480,16 +2486,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C75">
-        <v>118.78</v>
+        <v>87.5</v>
       </c>
       <c r="D75" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E75" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2497,16 +2503,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C76">
-        <v>120.608</v>
+        <v>120.309</v>
       </c>
       <c r="D76" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E76" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2514,16 +2520,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C77">
-        <v>121.397</v>
+        <v>112.825</v>
       </c>
       <c r="D77" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E77" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2531,16 +2537,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C78">
-        <v>170.106</v>
+        <v>106.426</v>
       </c>
       <c r="D78" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E78" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2548,16 +2554,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C79">
-        <v>109.615</v>
+        <v>179.699</v>
       </c>
       <c r="D79" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E79" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2565,16 +2571,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C80">
-        <v>133.333</v>
+        <v>101.852</v>
       </c>
       <c r="D80" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E80" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2582,16 +2588,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C81">
-        <v>119.519</v>
+        <v>114.286</v>
       </c>
       <c r="D81" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E81" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2599,16 +2605,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C82">
-        <v>115.385</v>
+        <v>124.291</v>
       </c>
       <c r="D82" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E82" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2616,16 +2622,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C83">
-        <v>113.793</v>
+        <v>107.407</v>
       </c>
       <c r="D83" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E83" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2633,16 +2639,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C84">
-        <v>122.68</v>
+        <v>100</v>
       </c>
       <c r="D84" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E84" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2650,16 +2656,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C85">
-        <v>104.706</v>
+        <v>117.836</v>
       </c>
       <c r="D85" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E85" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2667,16 +2673,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C86">
-        <v>110.221</v>
+        <v>105.882</v>
       </c>
       <c r="D86" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E86" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2684,16 +2690,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C87">
-        <v>104.688</v>
+        <v>105.557</v>
       </c>
       <c r="D87" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E87" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2701,16 +2707,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C88">
-        <v>145.455</v>
+        <v>98.485</v>
       </c>
       <c r="D88" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E88" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2718,16 +2724,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C89">
-        <v>102.243</v>
+        <v>145.946</v>
       </c>
       <c r="D89" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E89" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2735,16 +2741,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C90">
-        <v>128.205</v>
+        <v>124.334</v>
       </c>
       <c r="D90" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E90" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2752,16 +2758,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C91">
-        <v>128.39</v>
+        <v>130.864</v>
       </c>
       <c r="D91" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E91" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2769,16 +2775,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C92">
-        <v>130.105</v>
+        <v>161.538</v>
       </c>
       <c r="D92" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E92" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2786,16 +2792,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C93">
-        <v>83.333</v>
+        <v>132.301</v>
       </c>
       <c r="D93" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E93" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2803,16 +2809,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C94">
-        <v>130.459</v>
+        <v>83.333</v>
       </c>
       <c r="D94" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E94" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2820,16 +2826,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C95">
-        <v>114.561</v>
+        <v>130.459</v>
       </c>
       <c r="D95" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E95" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2837,16 +2843,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C96">
-        <v>100</v>
+        <v>120.726</v>
       </c>
       <c r="D96" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E96" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2854,16 +2860,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C97">
-        <v>102.862</v>
+        <v>100</v>
       </c>
       <c r="D97" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E97" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2871,16 +2877,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C98">
-        <v>100</v>
+        <v>108.513</v>
       </c>
       <c r="D98" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E98" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2888,16 +2894,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C99">
-        <v>121.875</v>
+        <v>100</v>
       </c>
       <c r="D99" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E99" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2905,16 +2911,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C100">
-        <v>108.922</v>
+        <v>111.111</v>
       </c>
       <c r="D100" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E100" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2922,16 +2928,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C101">
-        <v>111.299</v>
+        <v>118.182</v>
       </c>
       <c r="D101" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E101" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2939,16 +2945,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C102">
-        <v>111.364</v>
+        <v>109.89</v>
       </c>
       <c r="D102" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E102" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2956,16 +2962,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C103">
-        <v>121.875</v>
+        <v>140</v>
       </c>
       <c r="D103" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E103" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2973,16 +2979,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C104">
-        <v>110.112</v>
+        <v>120</v>
       </c>
       <c r="D104" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E104" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2990,16 +2996,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C105">
-        <v>118.617</v>
+        <v>112.381</v>
       </c>
       <c r="D105" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E105" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3007,16 +3013,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C106">
-        <v>120</v>
+        <v>101.031</v>
       </c>
       <c r="D106" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E106" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3024,16 +3030,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C107">
-        <v>127.5</v>
+        <v>104.019</v>
       </c>
       <c r="D107" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E107" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3041,16 +3047,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C108">
-        <v>123.563</v>
+        <v>113.333</v>
       </c>
       <c r="D108" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E108" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3058,16 +3064,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C109">
-        <v>112.285</v>
+        <v>155.814</v>
       </c>
       <c r="D109" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E109" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3075,16 +3081,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C110">
-        <v>112.418</v>
+        <v>141.573</v>
       </c>
       <c r="D110" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E110" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3092,16 +3098,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C111">
-        <v>117.703</v>
+        <v>90.19799999999999</v>
       </c>
       <c r="D111" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E111" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3109,16 +3115,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C112">
-        <v>95.161</v>
+        <v>95.441</v>
       </c>
       <c r="D112" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E112" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3126,16 +3132,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C113">
-        <v>100.962</v>
+        <v>108.906</v>
       </c>
       <c r="D113" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E113" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3143,16 +3149,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C114">
-        <v>113.953</v>
+        <v>95.161</v>
       </c>
       <c r="D114" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E114" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3160,16 +3166,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C115">
-        <v>105.405</v>
+        <v>98.095</v>
       </c>
       <c r="D115" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E115" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3177,16 +3183,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C116">
-        <v>126.923</v>
+        <v>106.667</v>
       </c>
       <c r="D116" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E116" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3194,16 +3200,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C117">
-        <v>121.055</v>
+        <v>135.714</v>
       </c>
       <c r="D117" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E117" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3211,16 +3217,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C118">
-        <v>126.569</v>
+        <v>110.714</v>
       </c>
       <c r="D118" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E118" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3228,16 +3234,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C119">
-        <v>97.898</v>
+        <v>104.39</v>
       </c>
       <c r="D119" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E119" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3245,16 +3251,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C120">
-        <v>131.973</v>
+        <v>111.164</v>
       </c>
       <c r="D120" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E120" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3262,16 +3268,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C121">
-        <v>110.526</v>
+        <v>95.84699999999999</v>
       </c>
       <c r="D121" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E121" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3279,16 +3285,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C122">
-        <v>127.027</v>
+        <v>131.013</v>
       </c>
       <c r="D122" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E122" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3296,16 +3302,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C123">
-        <v>115.625</v>
+        <v>105</v>
       </c>
       <c r="D123" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E123" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3313,16 +3319,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C124">
-        <v>122.754</v>
+        <v>104.651</v>
       </c>
       <c r="D124" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E124" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3330,16 +3336,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C125">
-        <v>114.706</v>
+        <v>105.882</v>
       </c>
       <c r="D125" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E125" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3347,16 +3353,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C126">
-        <v>128.431</v>
+        <v>107.182</v>
       </c>
       <c r="D126" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E126" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3364,16 +3370,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C127">
-        <v>102.041</v>
+        <v>117.647</v>
       </c>
       <c r="D127" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E127" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3381,16 +3387,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C128">
-        <v>125</v>
+        <v>109.402</v>
       </c>
       <c r="D128" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E128" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3398,16 +3404,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C129">
-        <v>108.197</v>
+        <v>116.074</v>
       </c>
       <c r="D129" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E129" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3415,16 +3421,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C130">
-        <v>124.23</v>
+        <v>119.231</v>
       </c>
       <c r="D130" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E130" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3432,16 +3438,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C131">
-        <v>97.53100000000001</v>
+        <v>100</v>
       </c>
       <c r="D131" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E131" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3449,16 +3455,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C132">
-        <v>123.924</v>
+        <v>104.706</v>
       </c>
       <c r="D132" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E132" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3466,16 +3472,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C133">
-        <v>118.519</v>
+        <v>93.65600000000001</v>
       </c>
       <c r="D133" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E133" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3483,16 +3489,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C134">
-        <v>120.408</v>
+        <v>107.31</v>
       </c>
       <c r="D134" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E134" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3500,16 +3506,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C135">
-        <v>118.269</v>
+        <v>125</v>
       </c>
       <c r="D135" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E135" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3517,16 +3523,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C136">
-        <v>108.051</v>
+        <v>96.429</v>
       </c>
       <c r="D136" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E136" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3534,16 +3540,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C137">
-        <v>117.949</v>
+        <v>121.525</v>
       </c>
       <c r="D137" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E137" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3551,16 +3557,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C138">
-        <v>131.818</v>
+        <v>109.877</v>
       </c>
       <c r="D138" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E138" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3568,16 +3574,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C139">
-        <v>136.364</v>
+        <v>116.049</v>
       </c>
       <c r="D139" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E139" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3585,16 +3591,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C140">
-        <v>120</v>
+        <v>137.5</v>
       </c>
       <c r="D140" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3602,16 +3608,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C141">
-        <v>116.923</v>
+        <v>121.739</v>
       </c>
       <c r="D141" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E141" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3619,16 +3625,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C142">
-        <v>112.297</v>
+        <v>103.125</v>
       </c>
       <c r="D142" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E142" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3636,16 +3642,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C143">
-        <v>112.974</v>
+        <v>115.942</v>
       </c>
       <c r="D143" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E143" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3653,16 +3659,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C144">
-        <v>105.091</v>
+        <v>112.358</v>
       </c>
       <c r="D144" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E144" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3670,16 +3676,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C145">
-        <v>112.838</v>
+        <v>106.57</v>
       </c>
       <c r="D145" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E145" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3687,16 +3693,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C146">
-        <v>114.514</v>
+        <v>100.709</v>
       </c>
       <c r="D146" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E146" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3704,16 +3710,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C147">
-        <v>111.667</v>
+        <v>91.989</v>
       </c>
       <c r="D147" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E147" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3721,16 +3727,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C148">
-        <v>122.222</v>
+        <v>102.673</v>
       </c>
       <c r="D148" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E148" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3738,16 +3744,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C149">
-        <v>95.084</v>
+        <v>112.097</v>
       </c>
       <c r="D149" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E149" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3755,16 +3761,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C150">
-        <v>114.189</v>
+        <v>110</v>
       </c>
       <c r="D150" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E150" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3772,16 +3778,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C151">
-        <v>119.231</v>
+        <v>94.441</v>
       </c>
       <c r="D151" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E151" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3789,16 +3795,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C152">
-        <v>108.511</v>
+        <v>108.861</v>
       </c>
       <c r="D152" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E152" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3806,16 +3812,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C153">
-        <v>130.509</v>
+        <v>125</v>
       </c>
       <c r="D153" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E153" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3823,16 +3829,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C154">
-        <v>119.697</v>
+        <v>181.884</v>
       </c>
       <c r="D154" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E154" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3840,16 +3846,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C155">
-        <v>99.22499999999999</v>
+        <v>120.339</v>
       </c>
       <c r="D155" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E155" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3857,16 +3863,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C156">
-        <v>138.776</v>
+        <v>182.609</v>
       </c>
       <c r="D156" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E156" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3874,16 +3880,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C157">
-        <v>109.7</v>
+        <v>98.45</v>
       </c>
       <c r="D157" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E157" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3891,16 +3897,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C158">
-        <v>107.071</v>
+        <v>120.37</v>
       </c>
       <c r="D158" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E158" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3908,16 +3914,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C159">
-        <v>112.308</v>
+        <v>104.751</v>
       </c>
       <c r="D159" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E159" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3925,16 +3931,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C160">
-        <v>124.242</v>
+        <v>102.83</v>
       </c>
       <c r="D160" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E160" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3942,16 +3948,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C161">
-        <v>114.286</v>
+        <v>86.111</v>
       </c>
       <c r="D161" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E161" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3959,16 +3965,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C162">
-        <v>108.661</v>
+        <v>115.789</v>
       </c>
       <c r="D162" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E162" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3976,16 +3982,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C163">
-        <v>104.101</v>
+        <v>100</v>
       </c>
       <c r="D163" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E163" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3993,16 +3999,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C164">
-        <v>113.971</v>
+        <v>96.992</v>
       </c>
       <c r="D164" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E164" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4010,16 +4016,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C165">
-        <v>117.647</v>
+        <v>100.238</v>
       </c>
       <c r="D165" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E165" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4027,16 +4033,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C166">
-        <v>109.929</v>
+        <v>119.595</v>
       </c>
       <c r="D166" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E166" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4044,16 +4050,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C167">
-        <v>114.724</v>
+        <v>100</v>
       </c>
       <c r="D167" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E167" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4061,16 +4067,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C168">
-        <v>64.34099999999999</v>
+        <v>100.393</v>
       </c>
       <c r="D168" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E168" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4078,16 +4084,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C169">
-        <v>125.846</v>
+        <v>181.098</v>
       </c>
       <c r="D169" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E169" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4095,16 +4101,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C170">
-        <v>128.72</v>
+        <v>64.34099999999999</v>
       </c>
       <c r="D170" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E170" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4112,16 +4118,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C171">
-        <v>120</v>
+        <v>108.537</v>
       </c>
       <c r="D171" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E171" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4129,16 +4135,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C172">
-        <v>99.762</v>
+        <v>129.551</v>
       </c>
       <c r="D172" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E172" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4146,16 +4152,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C173">
-        <v>88.27200000000001</v>
+        <v>120.833</v>
       </c>
       <c r="D173" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E173" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4163,16 +4169,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C174">
-        <v>111.111</v>
+        <v>107.723</v>
       </c>
       <c r="D174" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E174" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4180,16 +4186,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C175">
-        <v>118.75</v>
+        <v>75.956</v>
       </c>
       <c r="D175" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E175" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4197,16 +4203,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C176">
-        <v>132.911</v>
+        <v>110.714</v>
       </c>
       <c r="D176" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E176" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4214,16 +4220,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C177">
-        <v>123.529</v>
+        <v>117.647</v>
       </c>
       <c r="D177" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E177" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4231,16 +4237,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C178">
-        <v>107.356</v>
+        <v>139.726</v>
       </c>
       <c r="D178" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E178" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4248,16 +4254,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C179">
-        <v>140</v>
+        <v>116.667</v>
       </c>
       <c r="D179" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E179" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4265,16 +4271,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C180">
-        <v>114.286</v>
+        <v>104.501</v>
       </c>
       <c r="D180" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E180" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4282,16 +4288,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C181">
-        <v>115.385</v>
+        <v>148.052</v>
       </c>
       <c r="D181" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E181" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4299,16 +4305,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C182">
-        <v>105.495</v>
+        <v>117.143</v>
       </c>
       <c r="D182" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E182" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4316,16 +4322,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C183">
-        <v>128.194</v>
+        <v>118.519</v>
       </c>
       <c r="D183" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E183" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4333,16 +4339,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C184">
-        <v>113.462</v>
+        <v>124.869</v>
       </c>
       <c r="D184" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E184" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4350,16 +4356,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C185">
-        <v>103.896</v>
+        <v>119.707</v>
       </c>
       <c r="D185" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E185" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4367,16 +4373,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C186">
-        <v>101.399</v>
+        <v>83.251</v>
       </c>
       <c r="D186" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E186" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4384,16 +4390,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C187">
-        <v>125.373</v>
+        <v>98.148</v>
       </c>
       <c r="D187" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E187" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4401,16 +4407,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C188">
-        <v>107.634</v>
+        <v>104.339</v>
       </c>
       <c r="D188" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E188" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4418,16 +4424,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C189">
-        <v>130.769</v>
+        <v>108.421</v>
       </c>
       <c r="D189" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E189" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4435,16 +4441,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C190">
-        <v>122.078</v>
+        <v>102.041</v>
       </c>
       <c r="D190" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E190" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4452,16 +4458,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C191">
-        <v>108.824</v>
+        <v>114.286</v>
       </c>
       <c r="D191" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E191" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4469,16 +4475,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C192">
-        <v>153.333</v>
+        <v>101.622</v>
       </c>
       <c r="D192" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E192" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4486,16 +4492,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C193">
-        <v>111.111</v>
+        <v>105.556</v>
       </c>
       <c r="D193" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E193" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4503,16 +4509,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C194">
-        <v>117.778</v>
+        <v>153.333</v>
       </c>
       <c r="D194" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E194" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4520,16 +4526,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C195">
-        <v>110.526</v>
+        <v>105.556</v>
       </c>
       <c r="D195" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E195" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4537,16 +4543,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C196">
-        <v>102.721</v>
+        <v>111.224</v>
       </c>
       <c r="D196" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E196" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4554,16 +4560,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C197">
-        <v>108.571</v>
+        <v>115.789</v>
       </c>
       <c r="D197" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E197" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4571,16 +4577,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C198">
-        <v>92.839</v>
+        <v>98.65300000000001</v>
       </c>
       <c r="D198" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E198" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4588,16 +4594,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C199">
-        <v>96.55200000000001</v>
+        <v>100</v>
       </c>
       <c r="D199" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E199" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4605,16 +4611,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C200">
-        <v>110.084</v>
+        <v>84.498</v>
       </c>
       <c r="D200" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E200" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4622,16 +4628,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C201">
-        <v>115.556</v>
+        <v>85.965</v>
       </c>
       <c r="D201" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E201" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4639,16 +4645,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C202">
-        <v>115.083</v>
+        <v>114.745</v>
       </c>
       <c r="D202" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E202" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4656,16 +4662,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C203">
-        <v>117.636</v>
+        <v>150</v>
       </c>
       <c r="D203" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E203" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4673,16 +4679,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C204">
-        <v>126.38</v>
+        <v>104.704</v>
       </c>
       <c r="D204" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E204" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4690,16 +4696,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C205">
-        <v>116.667</v>
+        <v>116.206</v>
       </c>
       <c r="D205" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E205" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4707,16 +4713,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C206">
-        <v>113.846</v>
+        <v>145.19</v>
       </c>
       <c r="D206" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E206" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4724,16 +4730,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C207">
-        <v>107.143</v>
+        <v>133.333</v>
       </c>
       <c r="D207" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E207" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4741,16 +4747,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C208">
-        <v>129.67</v>
+        <v>112.871</v>
       </c>
       <c r="D208" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E208" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4758,16 +4764,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C209">
-        <v>105.714</v>
+        <v>100</v>
       </c>
       <c r="D209" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E209" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4775,16 +4781,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C210">
-        <v>128.571</v>
+        <v>124.49</v>
       </c>
       <c r="D210" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E210" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4792,16 +4798,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C211">
-        <v>109.091</v>
+        <v>102.632</v>
       </c>
       <c r="D211" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E211" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4809,16 +4815,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C212">
-        <v>94.89100000000001</v>
+        <v>112.5</v>
       </c>
       <c r="D212" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E212" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4826,16 +4832,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C213">
-        <v>102.3</v>
+        <v>109.091</v>
       </c>
       <c r="D213" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E213" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4843,16 +4849,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C214">
-        <v>108.495</v>
+        <v>89.974</v>
       </c>
       <c r="D214" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E214" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4860,16 +4866,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C215">
-        <v>112.402</v>
+        <v>95.916</v>
       </c>
       <c r="D215" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E215" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4877,16 +4883,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C216">
-        <v>134</v>
+        <v>110.901</v>
       </c>
       <c r="D216" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E216" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4894,16 +4900,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C217">
-        <v>118.576</v>
+        <v>92.56100000000001</v>
       </c>
       <c r="D217" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E217" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4911,16 +4917,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C218">
-        <v>131.25</v>
+        <v>124.074</v>
       </c>
       <c r="D218" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E218" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4928,16 +4934,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C219">
-        <v>100</v>
+        <v>108.388</v>
       </c>
       <c r="D219" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E219" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4945,16 +4951,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C220">
-        <v>105.263</v>
+        <v>108.475</v>
       </c>
       <c r="D220" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E220" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4962,16 +4968,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C221">
-        <v>130.769</v>
+        <v>83.146</v>
       </c>
       <c r="D221" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E221" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4979,16 +4985,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C222">
-        <v>126.386</v>
+        <v>93.827</v>
       </c>
       <c r="D222" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E222" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4996,16 +5002,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C223">
-        <v>105.082</v>
+        <v>104.156</v>
       </c>
       <c r="D223" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E223" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5013,16 +5019,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C224">
-        <v>112</v>
+        <v>120.755</v>
       </c>
       <c r="D224" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E224" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5030,16 +5036,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C225">
-        <v>109.231</v>
+        <v>103.832</v>
       </c>
       <c r="D225" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E225" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5047,16 +5053,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C226">
-        <v>111.111</v>
+        <v>115.385</v>
       </c>
       <c r="D226" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E226" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5064,16 +5070,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C227">
-        <v>133</v>
+        <v>100</v>
       </c>
       <c r="D227" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E227" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5081,16 +5087,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C228">
-        <v>114.173</v>
+        <v>102.703</v>
       </c>
       <c r="D228" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E228" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5098,16 +5104,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C229">
-        <v>94.18600000000001</v>
+        <v>142.609</v>
       </c>
       <c r="D229" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E229" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5115,16 +5121,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C230">
-        <v>135.922</v>
+        <v>98.282</v>
       </c>
       <c r="D230" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E230" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5132,16 +5138,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C231">
-        <v>123.077</v>
+        <v>88.623</v>
       </c>
       <c r="D231" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E231" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5149,16 +5155,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C232">
-        <v>122.857</v>
+        <v>130.556</v>
       </c>
       <c r="D232" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E232" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5166,16 +5172,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C233">
-        <v>152.778</v>
+        <v>118.471</v>
       </c>
       <c r="D233" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E233" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5183,16 +5189,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C234">
-        <v>135.714</v>
+        <v>121.053</v>
       </c>
       <c r="D234" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E234" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5200,16 +5206,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C235">
-        <v>163.115</v>
+        <v>211.392</v>
       </c>
       <c r="D235" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E235" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5217,16 +5223,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C236">
-        <v>97.699</v>
+        <v>152.941</v>
       </c>
       <c r="D236" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E236" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5234,16 +5240,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C237">
-        <v>113.043</v>
+        <v>170.166</v>
       </c>
       <c r="D237" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E237" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5251,16 +5257,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C238">
-        <v>105.651</v>
+        <v>92.503</v>
       </c>
       <c r="D238" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E238" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5268,16 +5274,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C239">
-        <v>103.093</v>
+        <v>115.217</v>
       </c>
       <c r="D239" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E239" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5285,16 +5291,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C240">
-        <v>112.698</v>
+        <v>90.301</v>
       </c>
       <c r="D240" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E240" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5302,16 +5308,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C241">
-        <v>105</v>
+        <v>102.041</v>
       </c>
       <c r="D241" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E241" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5319,16 +5325,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C242">
-        <v>115.584</v>
+        <v>106.061</v>
       </c>
       <c r="D242" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E242" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5336,16 +5342,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C243">
-        <v>116.667</v>
+        <v>100</v>
       </c>
       <c r="D243" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E243" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5353,16 +5359,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C244">
-        <v>165.489</v>
+        <v>97.36799999999999</v>
       </c>
       <c r="D244" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E244" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5370,16 +5376,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C245">
-        <v>100</v>
+        <v>102.65</v>
       </c>
       <c r="D245" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E245" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5387,16 +5393,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C246">
-        <v>100</v>
+        <v>140.434</v>
       </c>
       <c r="D246" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E246" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5404,16 +5410,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C247">
-        <v>112.5</v>
+        <v>100</v>
       </c>
       <c r="D247" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E247" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5421,16 +5427,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C248">
-        <v>118.182</v>
+        <v>100</v>
       </c>
       <c r="D248" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E248" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5438,16 +5444,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C249">
-        <v>114.286</v>
+        <v>111.111</v>
       </c>
       <c r="D249" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E249" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5455,16 +5461,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C250">
-        <v>107.792</v>
+        <v>118.182</v>
       </c>
       <c r="D250" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E250" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5472,16 +5478,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C251">
-        <v>100</v>
+        <v>114.286</v>
       </c>
       <c r="D251" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E251" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5489,16 +5495,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C252">
-        <v>120</v>
+        <v>101.266</v>
       </c>
       <c r="D252" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E252" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5506,16 +5512,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C253">
-        <v>113.043</v>
+        <v>100</v>
       </c>
       <c r="D253" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E253" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5523,16 +5529,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C254">
-        <v>124.034</v>
+        <v>100</v>
       </c>
       <c r="D254" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E254" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5540,16 +5546,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C255">
-        <v>114.395</v>
+        <v>104</v>
       </c>
       <c r="D255" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E255" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5557,16 +5563,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C256">
-        <v>120.544</v>
+        <v>126.378</v>
       </c>
       <c r="D256" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E256" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5574,16 +5580,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C257">
-        <v>116.333</v>
+        <v>120.738</v>
       </c>
       <c r="D257" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E257" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5591,16 +5597,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C258">
-        <v>95.098</v>
+        <v>123.563</v>
       </c>
       <c r="D258" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E258" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5608,16 +5614,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C259">
-        <v>115.007</v>
+        <v>106.781</v>
       </c>
       <c r="D259" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E259" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5625,16 +5631,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C260">
-        <v>110.638</v>
+        <v>86</v>
       </c>
       <c r="D260" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E260" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5642,16 +5648,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C261">
-        <v>112</v>
+        <v>119.436</v>
       </c>
       <c r="D261" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E261" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5659,16 +5665,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C262">
-        <v>108.333</v>
+        <v>101.923</v>
       </c>
       <c r="D262" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E262" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5676,16 +5682,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="C263">
-        <v>98.343</v>
+        <v>124</v>
       </c>
       <c r="D263" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E263" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5693,16 +5699,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C264">
-        <v>125</v>
+        <v>116.667</v>
       </c>
       <c r="D264" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E264" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5710,16 +5716,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C265">
-        <v>118.519</v>
+        <v>98.343</v>
       </c>
       <c r="D265" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E265" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5727,16 +5733,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C266">
-        <v>120.721</v>
+        <v>118.966</v>
       </c>
       <c r="D266" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E266" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5744,16 +5750,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C267">
-        <v>108.04</v>
+        <v>112.727</v>
       </c>
       <c r="D267" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E267" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5761,16 +5767,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C268">
-        <v>122.618</v>
+        <v>120.175</v>
       </c>
       <c r="D268" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E268" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5778,16 +5784,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="C269">
-        <v>135.294</v>
+        <v>94.58</v>
       </c>
       <c r="D269" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E269" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5795,16 +5801,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C270">
-        <v>114.398</v>
+        <v>115.264</v>
       </c>
       <c r="D270" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E270" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5812,16 +5818,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="C271">
-        <v>116.047</v>
+        <v>107.018</v>
       </c>
       <c r="D271" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E271" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5829,16 +5835,50 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
+        <v>278</v>
+      </c>
+      <c r="C272">
+        <v>112.473</v>
+      </c>
+      <c r="D272" t="s">
+        <v>280</v>
+      </c>
+      <c r="E272" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5">
+      <c r="A273" t="s">
         <v>276</v>
       </c>
-      <c r="C272">
-        <v>120</v>
-      </c>
-      <c r="D272" t="s">
-        <v>278</v>
-      </c>
-      <c r="E272" t="s">
-        <v>279</v>
+      <c r="B273" t="s">
+        <v>278</v>
+      </c>
+      <c r="C273">
+        <v>109.167</v>
+      </c>
+      <c r="D273" t="s">
+        <v>280</v>
+      </c>
+      <c r="E273" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5">
+      <c r="A274" t="s">
+        <v>277</v>
+      </c>
+      <c r="B274" t="s">
+        <v>278</v>
+      </c>
+      <c r="C274">
+        <v>113.514</v>
+      </c>
+      <c r="D274" t="s">
+        <v>280</v>
+      </c>
+      <c r="E274" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1097" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="284">
   <si>
     <t>symbol</t>
   </si>
@@ -271,6 +271,9 @@
     <t>DODOUSDT</t>
   </si>
   <si>
+    <t>DOGEUSDT</t>
+  </si>
+  <si>
     <t>DOTUSDT</t>
   </si>
   <si>
@@ -547,6 +550,9 @@
     <t>NEXOUSDT</t>
   </si>
   <si>
+    <t>NKNUSDT</t>
+  </si>
+  <si>
     <t>NMRUSDT</t>
   </si>
   <si>
@@ -850,10 +856,10 @@
     <t>ZRXUSDT</t>
   </si>
   <si>
+    <t>Down</t>
+  </si>
+  <si>
     <t>Up</t>
-  </si>
-  <si>
-    <t>Down</t>
   </si>
   <si>
     <t>10 days</t>
@@ -1217,7 +1223,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E274"/>
+  <dimension ref="A1:E276"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1245,16 +1251,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C2">
-        <v>120.408</v>
+        <v>96.825</v>
       </c>
       <c r="D2" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E2" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1262,16 +1268,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C3">
-        <v>109.485</v>
+        <v>95.497</v>
       </c>
       <c r="D3" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E3" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1279,16 +1285,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C4">
-        <v>109.091</v>
+        <v>146.154</v>
       </c>
       <c r="D4" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E4" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1296,16 +1302,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C5">
-        <v>109.251</v>
+        <v>107.752</v>
       </c>
       <c r="D5" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1313,16 +1319,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C6">
-        <v>120.968</v>
+        <v>97.297</v>
       </c>
       <c r="D6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1330,16 +1336,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C7">
-        <v>109.524</v>
+        <v>112.5</v>
       </c>
       <c r="D7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1347,16 +1353,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C8">
-        <v>106.667</v>
+        <v>100</v>
       </c>
       <c r="D8" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1364,16 +1370,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C9">
-        <v>100.926</v>
+        <v>100</v>
       </c>
       <c r="D9" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E9" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1381,16 +1387,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C10">
-        <v>124.658</v>
+        <v>95.76300000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E10" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1398,16 +1404,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C11">
-        <v>106.164</v>
+        <v>95</v>
       </c>
       <c r="D11" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1415,16 +1421,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C12">
-        <v>107.034</v>
+        <v>115.761</v>
       </c>
       <c r="D12" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E12" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1432,16 +1438,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C13">
-        <v>114.286</v>
+        <v>107.143</v>
       </c>
       <c r="D13" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E13" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1449,16 +1455,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C14">
-        <v>105.495</v>
+        <v>106.863</v>
       </c>
       <c r="D14" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E14" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1466,16 +1472,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C15">
-        <v>105</v>
+        <v>113.043</v>
       </c>
       <c r="D15" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E15" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1483,16 +1489,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C16">
-        <v>114.286</v>
+        <v>105.882</v>
       </c>
       <c r="D16" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E16" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1500,16 +1506,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C17">
-        <v>107.489</v>
+        <v>105.534</v>
       </c>
       <c r="D17" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E17" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1517,16 +1523,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C18">
         <v>116.509</v>
       </c>
       <c r="D18" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E18" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1534,16 +1540,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C19">
-        <v>108.04</v>
+        <v>100.452</v>
       </c>
       <c r="D19" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E19" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1551,16 +1557,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C20">
-        <v>85.64400000000001</v>
+        <v>94.324</v>
       </c>
       <c r="D20" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E20" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1568,16 +1574,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C21">
-        <v>139.212</v>
+        <v>116.465</v>
       </c>
       <c r="D21" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E21" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1585,16 +1591,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C22">
-        <v>109.326</v>
+        <v>88.426</v>
       </c>
       <c r="D22" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E22" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1602,16 +1608,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C23">
-        <v>143.902</v>
+        <v>104.965</v>
       </c>
       <c r="D23" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E23" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1619,16 +1625,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C24">
-        <v>112.791</v>
+        <v>104.717</v>
       </c>
       <c r="D24" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E24" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1636,16 +1642,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C25">
-        <v>198.649</v>
+        <v>94.496</v>
       </c>
       <c r="D25" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E25" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1653,16 +1659,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C26">
-        <v>113.6</v>
+        <v>104.714</v>
       </c>
       <c r="D26" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E26" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1670,16 +1676,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C27">
-        <v>109.091</v>
+        <v>128.571</v>
       </c>
       <c r="D27" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E27" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1687,16 +1693,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C28">
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="D28" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E28" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1704,16 +1710,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C29">
-        <v>112.044</v>
+        <v>103.774</v>
       </c>
       <c r="D29" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E29" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1721,16 +1727,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C30">
-        <v>112.478</v>
+        <v>91.79300000000001</v>
       </c>
       <c r="D30" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E30" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1738,16 +1744,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C31">
-        <v>88.976</v>
+        <v>85.506</v>
       </c>
       <c r="D31" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E31" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1755,16 +1761,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C32">
-        <v>110.714</v>
+        <v>103.226</v>
       </c>
       <c r="D32" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E32" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1772,16 +1778,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C33">
-        <v>132.787</v>
+        <v>108.333</v>
       </c>
       <c r="D33" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E33" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1789,16 +1795,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C34">
-        <v>105.09</v>
+        <v>138.75</v>
       </c>
       <c r="D34" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E34" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1806,16 +1812,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C35">
-        <v>117.803</v>
+        <v>107.85</v>
       </c>
       <c r="D35" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E35" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1823,16 +1829,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C36">
-        <v>125.874</v>
+        <v>96.607</v>
       </c>
       <c r="D36" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E36" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1840,16 +1846,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C37">
-        <v>95.238</v>
+        <v>109.524</v>
       </c>
       <c r="D37" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E37" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1857,16 +1863,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C38">
-        <v>113.278</v>
+        <v>92.637</v>
       </c>
       <c r="D38" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E38" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1874,16 +1880,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C39">
-        <v>107.907</v>
+        <v>94.53100000000001</v>
       </c>
       <c r="D39" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E39" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1891,16 +1897,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C40">
-        <v>106.767</v>
+        <v>127.241</v>
       </c>
       <c r="D40" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E40" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1908,16 +1914,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C41">
-        <v>118.519</v>
+        <v>97.143</v>
       </c>
       <c r="D41" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E41" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1925,16 +1931,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C42">
-        <v>152.166</v>
+        <v>95.279</v>
       </c>
       <c r="D42" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E42" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1942,16 +1948,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C43">
-        <v>110.526</v>
+        <v>116.667</v>
       </c>
       <c r="D43" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E43" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1959,16 +1965,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C44">
-        <v>139.474</v>
+        <v>112.281</v>
       </c>
       <c r="D44" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E44" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1976,16 +1982,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C45">
-        <v>105.992</v>
+        <v>105.665</v>
       </c>
       <c r="D45" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E45" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1993,16 +1999,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C46">
-        <v>86.842</v>
+        <v>95.714</v>
       </c>
       <c r="D46" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E46" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2010,16 +2016,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C47">
         <v>121.295</v>
       </c>
       <c r="D47" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E47" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2027,16 +2033,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C48">
-        <v>102.938</v>
+        <v>129.456</v>
       </c>
       <c r="D48" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E48" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2044,16 +2050,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C49">
-        <v>110.843</v>
+        <v>96.842</v>
       </c>
       <c r="D49" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E49" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2061,16 +2067,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C50">
-        <v>112.903</v>
+        <v>148.718</v>
       </c>
       <c r="D50" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E50" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2078,16 +2084,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C51">
-        <v>103.252</v>
+        <v>129.208</v>
       </c>
       <c r="D51" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E51" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2095,16 +2101,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C52">
-        <v>100</v>
+        <v>106.667</v>
       </c>
       <c r="D52" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E52" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2112,16 +2118,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C53">
         <v>120.552</v>
       </c>
       <c r="D53" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E53" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2129,16 +2135,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C54">
-        <v>122.971</v>
+        <v>103.126</v>
       </c>
       <c r="D54" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E54" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2146,16 +2152,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C55">
-        <v>107.692</v>
+        <v>132</v>
       </c>
       <c r="D55" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E55" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2163,16 +2169,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C56">
         <v>100</v>
       </c>
       <c r="D56" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E56" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2180,16 +2186,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C57">
-        <v>92.5</v>
+        <v>100</v>
       </c>
       <c r="D57" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E57" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2197,16 +2203,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C58">
-        <v>96.636</v>
+        <v>127.855</v>
       </c>
       <c r="D58" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E58" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2214,16 +2220,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C59">
-        <v>113.542</v>
+        <v>110.833</v>
       </c>
       <c r="D59" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E59" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2231,16 +2237,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C60">
-        <v>104.545</v>
+        <v>121.429</v>
       </c>
       <c r="D60" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E60" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2248,16 +2254,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C61">
-        <v>83.721</v>
+        <v>110.811</v>
       </c>
       <c r="D61" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E61" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2265,16 +2271,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C62">
         <v>100</v>
       </c>
       <c r="D62" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E62" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2282,16 +2288,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C63">
-        <v>104.644</v>
+        <v>114.613</v>
       </c>
       <c r="D63" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E63" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2299,16 +2305,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C64">
-        <v>107.692</v>
+        <v>103.774</v>
       </c>
       <c r="D64" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E64" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2316,16 +2322,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C65">
-        <v>118.041</v>
+        <v>91.95699999999999</v>
       </c>
       <c r="D65" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E65" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2333,16 +2339,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C66">
-        <v>108.918</v>
+        <v>110.86</v>
       </c>
       <c r="D66" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E66" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2350,16 +2356,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C67">
-        <v>121.667</v>
+        <v>96.203</v>
       </c>
       <c r="D67" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E67" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2367,16 +2373,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C68">
-        <v>117.722</v>
+        <v>102.105</v>
       </c>
       <c r="D68" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E68" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2384,16 +2390,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C69">
-        <v>105.714</v>
+        <v>94.595</v>
       </c>
       <c r="D69" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E69" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2401,16 +2407,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C70">
-        <v>93.333</v>
+        <v>80.645</v>
       </c>
       <c r="D70" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E70" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2418,16 +2424,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C71">
-        <v>118.182</v>
+        <v>107.143</v>
       </c>
       <c r="D71" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E71" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2435,16 +2441,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C72">
-        <v>108.696</v>
+        <v>110.909</v>
       </c>
       <c r="D72" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E72" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2452,16 +2458,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C73">
-        <v>106.897</v>
+        <v>88.077</v>
       </c>
       <c r="D73" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E73" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2469,16 +2475,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C74">
-        <v>110.222</v>
+        <v>100.087</v>
       </c>
       <c r="D74" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E74" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2486,16 +2492,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C75">
-        <v>87.5</v>
+        <v>113.043</v>
       </c>
       <c r="D75" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E75" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2503,16 +2509,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C76">
-        <v>120.309</v>
+        <v>99.949</v>
       </c>
       <c r="D76" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E76" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2520,16 +2526,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C77">
-        <v>112.825</v>
+        <v>111.211</v>
       </c>
       <c r="D77" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E77" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2537,16 +2543,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C78">
-        <v>106.426</v>
+        <v>137.818</v>
       </c>
       <c r="D78" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E78" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2554,16 +2560,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C79">
-        <v>179.699</v>
+        <v>102.115</v>
       </c>
       <c r="D79" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E79" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2571,16 +2577,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C80">
-        <v>101.852</v>
+        <v>116.667</v>
       </c>
       <c r="D80" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E80" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2588,16 +2594,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C81">
-        <v>114.286</v>
+        <v>111.538</v>
       </c>
       <c r="D81" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E81" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2605,16 +2611,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C82">
-        <v>124.291</v>
+        <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E82" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2622,16 +2628,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C83">
-        <v>107.407</v>
+        <v>100.288</v>
       </c>
       <c r="D83" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E83" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2639,16 +2645,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C84">
-        <v>100</v>
+        <v>136.667</v>
       </c>
       <c r="D84" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E84" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2656,16 +2662,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C85">
-        <v>117.836</v>
+        <v>115.152</v>
       </c>
       <c r="D85" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E85" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2673,16 +2679,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C86">
-        <v>105.882</v>
+        <v>86.27</v>
       </c>
       <c r="D86" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E86" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2690,16 +2696,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C87">
-        <v>105.557</v>
+        <v>112.5</v>
       </c>
       <c r="D87" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E87" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2707,16 +2713,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C88">
-        <v>98.485</v>
+        <v>103.475</v>
       </c>
       <c r="D88" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E88" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2724,16 +2730,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C89">
-        <v>145.946</v>
+        <v>95.52200000000001</v>
       </c>
       <c r="D89" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E89" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2741,16 +2747,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C90">
-        <v>124.334</v>
+        <v>100</v>
       </c>
       <c r="D90" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E90" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2758,16 +2764,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C91">
-        <v>130.864</v>
+        <v>92.15000000000001</v>
       </c>
       <c r="D91" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E91" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2775,16 +2781,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C92">
-        <v>161.538</v>
+        <v>85.59999999999999</v>
       </c>
       <c r="D92" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E92" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2792,16 +2798,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C93">
-        <v>132.301</v>
+        <v>128.409</v>
       </c>
       <c r="D93" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E93" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2809,16 +2815,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C94">
-        <v>83.333</v>
+        <v>86.596</v>
       </c>
       <c r="D94" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E94" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2826,16 +2832,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C95">
-        <v>130.459</v>
+        <v>83.333</v>
       </c>
       <c r="D95" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E95" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2843,16 +2849,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C96">
-        <v>120.726</v>
+        <v>130.459</v>
       </c>
       <c r="D96" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E96" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2860,16 +2866,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C97">
-        <v>100</v>
+        <v>95.989</v>
       </c>
       <c r="D97" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E97" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2877,16 +2883,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C98">
-        <v>108.513</v>
+        <v>100</v>
       </c>
       <c r="D98" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E98" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2894,16 +2900,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C99">
-        <v>100</v>
+        <v>107.335</v>
       </c>
       <c r="D99" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E99" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2911,16 +2917,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C100">
-        <v>111.111</v>
+        <v>100</v>
       </c>
       <c r="D100" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E100" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2928,16 +2934,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C101">
-        <v>118.182</v>
+        <v>132.653</v>
       </c>
       <c r="D101" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E101" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2945,16 +2951,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C102">
-        <v>109.89</v>
+        <v>97.681</v>
       </c>
       <c r="D102" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E102" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2962,16 +2968,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C103">
-        <v>140</v>
+        <v>104.831</v>
       </c>
       <c r="D103" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E103" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2979,16 +2985,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C104">
-        <v>120</v>
+        <v>96.053</v>
       </c>
       <c r="D104" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E104" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2996,16 +3002,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C105">
-        <v>112.381</v>
+        <v>108.333</v>
       </c>
       <c r="D105" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E105" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3013,16 +3019,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C106">
-        <v>101.031</v>
+        <v>105.97</v>
       </c>
       <c r="D106" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E106" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3030,16 +3036,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C107">
-        <v>104.019</v>
+        <v>124.038</v>
       </c>
       <c r="D107" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E107" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3047,16 +3053,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C108">
-        <v>113.333</v>
+        <v>129.892</v>
       </c>
       <c r="D108" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E108" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3064,16 +3070,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C109">
-        <v>155.814</v>
+        <v>230</v>
       </c>
       <c r="D109" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E109" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3081,16 +3087,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C110">
-        <v>141.573</v>
+        <v>112.941</v>
       </c>
       <c r="D110" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E110" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3098,16 +3104,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C111">
-        <v>90.19799999999999</v>
+        <v>93.651</v>
       </c>
       <c r="D111" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E111" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3115,16 +3121,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C112">
-        <v>95.441</v>
+        <v>99.054</v>
       </c>
       <c r="D112" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E112" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3132,16 +3138,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C113">
-        <v>108.906</v>
+        <v>125.419</v>
       </c>
       <c r="D113" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E113" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3149,16 +3155,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C114">
-        <v>95.161</v>
+        <v>99.032</v>
       </c>
       <c r="D114" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E114" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3166,16 +3172,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C115">
-        <v>98.095</v>
+        <v>95.161</v>
       </c>
       <c r="D115" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E115" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3183,16 +3189,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C116">
-        <v>106.667</v>
+        <v>111.111</v>
       </c>
       <c r="D116" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E116" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3200,16 +3206,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C117">
-        <v>135.714</v>
+        <v>119.608</v>
       </c>
       <c r="D117" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E117" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3217,16 +3223,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C118">
-        <v>110.714</v>
+        <v>90.164</v>
       </c>
       <c r="D118" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E118" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3234,16 +3240,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C119">
-        <v>104.39</v>
+        <v>106.25</v>
       </c>
       <c r="D119" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E119" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3251,16 +3257,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C120">
-        <v>111.164</v>
+        <v>93.48699999999999</v>
       </c>
       <c r="D120" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E120" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3268,16 +3274,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C121">
-        <v>95.84699999999999</v>
+        <v>97.17400000000001</v>
       </c>
       <c r="D121" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E121" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3285,16 +3291,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C122">
-        <v>131.013</v>
+        <v>93.81399999999999</v>
       </c>
       <c r="D122" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E122" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3302,16 +3308,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C123">
-        <v>105</v>
+        <v>87.607</v>
       </c>
       <c r="D123" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E123" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3319,16 +3325,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C124">
-        <v>104.651</v>
+        <v>121.739</v>
       </c>
       <c r="D124" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E124" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3336,16 +3342,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C125">
-        <v>105.882</v>
+        <v>97.959</v>
       </c>
       <c r="D125" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E125" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3353,16 +3359,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C126">
-        <v>107.182</v>
+        <v>125.641</v>
       </c>
       <c r="D126" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E126" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3370,16 +3376,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C127">
-        <v>117.647</v>
+        <v>103.302</v>
       </c>
       <c r="D127" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E127" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3387,16 +3393,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C128">
-        <v>109.402</v>
+        <v>102.326</v>
       </c>
       <c r="D128" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E128" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3404,16 +3410,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C129">
-        <v>116.074</v>
+        <v>120.149</v>
       </c>
       <c r="D129" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E129" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3421,16 +3427,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C130">
-        <v>119.231</v>
+        <v>88.33</v>
       </c>
       <c r="D130" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E130" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3438,16 +3444,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C131">
-        <v>100</v>
+        <v>103.03</v>
       </c>
       <c r="D131" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E131" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3455,16 +3461,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C132">
-        <v>104.706</v>
+        <v>213.514</v>
       </c>
       <c r="D132" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E132" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3472,16 +3478,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C133">
-        <v>93.65600000000001</v>
+        <v>128.742</v>
       </c>
       <c r="D133" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E133" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3489,16 +3495,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C134">
-        <v>107.31</v>
+        <v>92.81399999999999</v>
       </c>
       <c r="D134" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E134" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3506,16 +3512,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C135">
-        <v>125</v>
+        <v>109.008</v>
       </c>
       <c r="D135" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E135" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3523,16 +3529,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C136">
-        <v>96.429</v>
+        <v>102.857</v>
       </c>
       <c r="D136" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E136" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3540,16 +3546,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C137">
-        <v>121.525</v>
+        <v>163.158</v>
       </c>
       <c r="D137" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E137" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3557,16 +3563,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C138">
-        <v>109.877</v>
+        <v>127.74</v>
       </c>
       <c r="D138" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E138" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3574,16 +3580,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C139">
-        <v>116.049</v>
+        <v>108.364</v>
       </c>
       <c r="D139" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E139" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3591,16 +3597,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C140">
-        <v>137.5</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="D140" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E140" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3608,16 +3614,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C141">
-        <v>121.739</v>
+        <v>103.488</v>
       </c>
       <c r="D141" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3625,16 +3631,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C142">
-        <v>103.125</v>
+        <v>96.667</v>
       </c>
       <c r="D142" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E142" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3642,16 +3648,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C143">
-        <v>115.942</v>
+        <v>105.714</v>
       </c>
       <c r="D143" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E143" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3659,16 +3665,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C144">
-        <v>112.358</v>
+        <v>112.644</v>
       </c>
       <c r="D144" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E144" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3676,16 +3682,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C145">
-        <v>106.57</v>
+        <v>101.626</v>
       </c>
       <c r="D145" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E145" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3693,16 +3699,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C146">
-        <v>100.709</v>
+        <v>97.324</v>
       </c>
       <c r="D146" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E146" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3710,16 +3716,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C147">
-        <v>91.989</v>
+        <v>113.699</v>
       </c>
       <c r="D147" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E147" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3727,16 +3733,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C148">
-        <v>102.673</v>
+        <v>84.393</v>
       </c>
       <c r="D148" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E148" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3744,16 +3750,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C149">
-        <v>112.097</v>
+        <v>96.765</v>
       </c>
       <c r="D149" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E149" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3761,16 +3767,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C150">
-        <v>110</v>
+        <v>105.195</v>
       </c>
       <c r="D150" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E150" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3778,16 +3784,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C151">
-        <v>94.441</v>
+        <v>114.286</v>
       </c>
       <c r="D151" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E151" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3795,16 +3801,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C152">
-        <v>108.861</v>
+        <v>142.432</v>
       </c>
       <c r="D152" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E152" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3812,16 +3818,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C153">
-        <v>125</v>
+        <v>93.258</v>
       </c>
       <c r="D153" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E153" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3829,16 +3835,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C154">
-        <v>181.884</v>
+        <v>133.333</v>
       </c>
       <c r="D154" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E154" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3846,16 +3852,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C155">
-        <v>120.339</v>
+        <v>88.479</v>
       </c>
       <c r="D155" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E155" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3863,16 +3869,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C156">
-        <v>182.609</v>
+        <v>102.227</v>
       </c>
       <c r="D156" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E156" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3880,16 +3886,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C157">
-        <v>98.45</v>
+        <v>83.621</v>
       </c>
       <c r="D157" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E157" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3897,16 +3903,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C158">
-        <v>120.37</v>
+        <v>94.65600000000001</v>
       </c>
       <c r="D158" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E158" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3914,16 +3920,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C159">
-        <v>104.751</v>
+        <v>101.449</v>
       </c>
       <c r="D159" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E159" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3931,16 +3937,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C160">
-        <v>102.83</v>
+        <v>94.523</v>
       </c>
       <c r="D160" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E160" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3948,16 +3954,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C161">
-        <v>86.111</v>
+        <v>99.13800000000001</v>
       </c>
       <c r="D161" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E161" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3965,16 +3971,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C162">
-        <v>115.789</v>
+        <v>98.438</v>
       </c>
       <c r="D162" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E162" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3982,16 +3988,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C163">
         <v>100</v>
       </c>
       <c r="D163" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E163" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3999,16 +4005,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C164">
-        <v>96.992</v>
+        <v>112.5</v>
       </c>
       <c r="D164" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E164" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4016,16 +4022,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C165">
-        <v>100.238</v>
+        <v>103.704</v>
       </c>
       <c r="D165" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E165" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4033,16 +4039,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C166">
-        <v>119.595</v>
+        <v>138.63</v>
       </c>
       <c r="D166" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E166" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4050,16 +4056,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C167">
-        <v>100</v>
+        <v>100.166</v>
       </c>
       <c r="D167" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E167" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4067,16 +4073,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C168">
-        <v>100.393</v>
+        <v>102.5</v>
       </c>
       <c r="D168" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E168" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4084,16 +4090,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C169">
-        <v>181.098</v>
+        <v>107.61</v>
       </c>
       <c r="D169" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E169" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4101,16 +4107,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C170">
-        <v>64.34099999999999</v>
+        <v>84.151</v>
       </c>
       <c r="D170" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E170" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4118,16 +4124,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C171">
-        <v>108.537</v>
+        <v>64.34099999999999</v>
       </c>
       <c r="D171" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E171" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4135,16 +4141,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C172">
-        <v>129.551</v>
+        <v>139.855</v>
       </c>
       <c r="D172" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E172" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4152,16 +4158,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C173">
-        <v>120.833</v>
+        <v>91.096</v>
       </c>
       <c r="D173" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E173" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4169,16 +4175,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C174">
-        <v>107.723</v>
+        <v>102.817</v>
       </c>
       <c r="D174" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E174" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4186,16 +4192,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C175">
-        <v>75.956</v>
+        <v>106.667</v>
       </c>
       <c r="D175" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E175" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4203,16 +4209,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C176">
-        <v>110.714</v>
+        <v>98.04000000000001</v>
       </c>
       <c r="D176" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E176" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4220,16 +4226,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C177">
-        <v>117.647</v>
+        <v>91.55800000000001</v>
       </c>
       <c r="D177" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E177" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4237,16 +4243,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C178">
-        <v>139.726</v>
+        <v>115.152</v>
       </c>
       <c r="D178" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E178" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4254,16 +4260,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C179">
-        <v>116.667</v>
+        <v>104.762</v>
       </c>
       <c r="D179" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E179" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4271,16 +4277,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C180">
-        <v>104.501</v>
+        <v>95.76300000000001</v>
       </c>
       <c r="D180" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E180" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4288,16 +4294,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C181">
-        <v>148.052</v>
+        <v>100</v>
       </c>
       <c r="D181" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E181" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4305,16 +4311,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C182">
-        <v>117.143</v>
+        <v>114.909</v>
       </c>
       <c r="D182" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E182" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4322,16 +4328,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C183">
-        <v>118.519</v>
+        <v>101.695</v>
       </c>
       <c r="D183" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E183" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4339,16 +4345,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C184">
-        <v>124.869</v>
+        <v>95.455</v>
       </c>
       <c r="D184" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E184" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4356,16 +4362,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C185">
-        <v>119.707</v>
+        <v>94.73699999999999</v>
       </c>
       <c r="D185" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E185" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4373,16 +4379,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C186">
-        <v>83.251</v>
+        <v>81.33</v>
       </c>
       <c r="D186" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E186" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4390,16 +4396,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C187">
-        <v>98.148</v>
+        <v>91.572</v>
       </c>
       <c r="D187" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E187" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4407,16 +4413,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C188">
-        <v>104.339</v>
+        <v>124.365</v>
       </c>
       <c r="D188" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E188" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4424,16 +4430,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C189">
-        <v>108.421</v>
+        <v>86.20699999999999</v>
       </c>
       <c r="D189" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E189" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4441,16 +4447,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C190">
-        <v>102.041</v>
+        <v>99.765</v>
       </c>
       <c r="D190" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E190" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4458,16 +4464,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C191">
-        <v>114.286</v>
+        <v>86.111</v>
       </c>
       <c r="D191" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E191" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4475,16 +4481,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C192">
-        <v>101.622</v>
+        <v>118.71</v>
       </c>
       <c r="D192" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E192" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4492,16 +4498,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C193">
-        <v>105.556</v>
+        <v>115.789</v>
       </c>
       <c r="D193" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E193" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4509,16 +4515,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C194">
-        <v>153.333</v>
+        <v>85.54900000000001</v>
       </c>
       <c r="D194" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E194" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4526,16 +4532,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C195">
-        <v>105.556</v>
+        <v>107.143</v>
       </c>
       <c r="D195" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E195" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4543,16 +4549,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C196">
-        <v>111.224</v>
+        <v>153.333</v>
       </c>
       <c r="D196" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E196" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4560,16 +4566,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C197">
-        <v>115.789</v>
+        <v>105</v>
       </c>
       <c r="D197" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E197" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4577,16 +4583,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C198">
-        <v>98.65300000000001</v>
+        <v>97.059</v>
       </c>
       <c r="D198" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E198" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4594,16 +4600,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C199">
-        <v>100</v>
+        <v>104.167</v>
       </c>
       <c r="D199" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E199" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4611,16 +4617,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C200">
-        <v>84.498</v>
+        <v>99.673</v>
       </c>
       <c r="D200" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E200" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4628,16 +4634,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C201">
-        <v>85.965</v>
+        <v>110.256</v>
       </c>
       <c r="D201" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E201" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4645,16 +4651,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C202">
-        <v>114.745</v>
+        <v>108.653</v>
       </c>
       <c r="D202" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E202" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4662,16 +4668,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C203">
-        <v>150</v>
+        <v>116.327</v>
       </c>
       <c r="D203" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E203" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4679,16 +4685,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C204">
-        <v>104.704</v>
+        <v>113.675</v>
       </c>
       <c r="D204" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E204" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4696,16 +4702,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C205">
-        <v>116.206</v>
+        <v>104.615</v>
       </c>
       <c r="D205" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E205" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4713,16 +4719,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C206">
-        <v>145.19</v>
+        <v>88.742</v>
       </c>
       <c r="D206" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E206" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4730,16 +4736,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C207">
-        <v>133.333</v>
+        <v>106.319</v>
       </c>
       <c r="D207" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E207" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4747,16 +4753,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C208">
-        <v>112.871</v>
+        <v>96.01600000000001</v>
       </c>
       <c r="D208" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E208" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4764,16 +4770,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C209">
-        <v>100</v>
+        <v>112.5</v>
       </c>
       <c r="D209" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E209" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4781,16 +4787,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C210">
-        <v>124.49</v>
+        <v>108.333</v>
       </c>
       <c r="D210" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E210" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4798,16 +4804,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C211">
-        <v>102.632</v>
+        <v>126.667</v>
       </c>
       <c r="D211" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E211" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4815,16 +4821,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C212">
-        <v>112.5</v>
+        <v>171.918</v>
       </c>
       <c r="D212" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E212" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4832,16 +4838,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C213">
-        <v>109.091</v>
+        <v>94.872</v>
       </c>
       <c r="D213" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E213" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4849,16 +4855,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C214">
-        <v>89.974</v>
+        <v>111.111</v>
       </c>
       <c r="D214" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E214" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4866,16 +4872,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C215">
-        <v>95.916</v>
+        <v>107.692</v>
       </c>
       <c r="D215" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E215" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4883,16 +4889,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C216">
-        <v>110.901</v>
+        <v>101.034</v>
       </c>
       <c r="D216" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E216" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4900,16 +4906,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C217">
-        <v>92.56100000000001</v>
+        <v>114.243</v>
       </c>
       <c r="D217" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E217" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4917,16 +4923,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C218">
-        <v>124.074</v>
+        <v>91.429</v>
       </c>
       <c r="D218" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E218" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4934,16 +4940,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C219">
-        <v>108.388</v>
+        <v>134.72</v>
       </c>
       <c r="D219" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E219" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4951,16 +4957,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C220">
-        <v>108.475</v>
+        <v>98.571</v>
       </c>
       <c r="D220" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E220" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4968,16 +4974,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C221">
-        <v>83.146</v>
+        <v>129.778</v>
       </c>
       <c r="D221" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E221" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4985,16 +4991,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C222">
-        <v>93.827</v>
+        <v>106.061</v>
       </c>
       <c r="D222" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E222" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5002,16 +5008,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C223">
-        <v>104.156</v>
+        <v>116.129</v>
       </c>
       <c r="D223" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E223" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5019,16 +5025,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C224">
-        <v>120.755</v>
+        <v>96.25</v>
       </c>
       <c r="D224" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E224" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5036,16 +5042,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C225">
-        <v>103.832</v>
+        <v>96.667</v>
       </c>
       <c r="D225" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E225" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5053,16 +5059,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C226">
-        <v>115.385</v>
+        <v>135.092</v>
       </c>
       <c r="D226" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E226" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5070,16 +5076,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C227">
-        <v>100</v>
+        <v>132.636</v>
       </c>
       <c r="D227" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E227" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5087,16 +5093,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C228">
-        <v>102.703</v>
+        <v>100</v>
       </c>
       <c r="D228" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E228" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5104,16 +5110,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C229">
-        <v>142.609</v>
+        <v>113.699</v>
       </c>
       <c r="D229" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E229" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5121,16 +5127,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C230">
-        <v>98.282</v>
+        <v>96.29600000000001</v>
       </c>
       <c r="D230" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E230" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5138,16 +5144,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C231">
-        <v>88.623</v>
+        <v>93.59</v>
       </c>
       <c r="D231" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E231" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5155,16 +5161,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C232">
-        <v>130.556</v>
+        <v>95.533</v>
       </c>
       <c r="D232" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E232" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5172,16 +5178,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C233">
-        <v>118.471</v>
+        <v>105.696</v>
       </c>
       <c r="D233" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E233" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5189,16 +5195,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C234">
-        <v>121.053</v>
+        <v>88.158</v>
       </c>
       <c r="D234" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E234" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5206,16 +5212,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C235">
-        <v>211.392</v>
+        <v>97.5</v>
       </c>
       <c r="D235" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E235" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5223,16 +5229,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C236">
-        <v>152.941</v>
+        <v>97.959</v>
       </c>
       <c r="D236" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E236" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5240,16 +5246,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C237">
-        <v>170.166</v>
+        <v>87.5</v>
       </c>
       <c r="D237" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E237" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5257,16 +5263,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C238">
-        <v>92.503</v>
+        <v>120</v>
       </c>
       <c r="D238" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E238" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5274,16 +5280,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C239">
-        <v>115.217</v>
+        <v>103.39</v>
       </c>
       <c r="D239" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E239" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5291,16 +5297,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C240">
-        <v>90.301</v>
+        <v>94.30800000000001</v>
       </c>
       <c r="D240" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E240" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5308,16 +5314,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C241">
-        <v>102.041</v>
+        <v>123.077</v>
       </c>
       <c r="D241" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E241" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5325,16 +5331,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C242">
-        <v>106.061</v>
+        <v>92.45399999999999</v>
       </c>
       <c r="D242" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E242" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5342,16 +5348,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C243">
         <v>100</v>
       </c>
       <c r="D243" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E243" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5359,16 +5365,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C244">
-        <v>97.36799999999999</v>
+        <v>100</v>
       </c>
       <c r="D244" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E244" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5376,16 +5382,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C245">
-        <v>102.65</v>
+        <v>136.364</v>
       </c>
       <c r="D245" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E245" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5393,16 +5399,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C246">
-        <v>140.434</v>
+        <v>106.25</v>
       </c>
       <c r="D246" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E246" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5410,16 +5416,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C247">
-        <v>100</v>
+        <v>104.39</v>
       </c>
       <c r="D247" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E247" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5427,16 +5433,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C248">
-        <v>100</v>
+        <v>87.09699999999999</v>
       </c>
       <c r="D248" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E248" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5444,16 +5450,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C249">
-        <v>111.111</v>
+        <v>100</v>
       </c>
       <c r="D249" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E249" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5461,16 +5467,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C250">
-        <v>118.182</v>
+        <v>100</v>
       </c>
       <c r="D250" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E250" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5478,16 +5484,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C251">
-        <v>114.286</v>
+        <v>109.091</v>
       </c>
       <c r="D251" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E251" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5495,16 +5501,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C252">
-        <v>101.266</v>
+        <v>107.692</v>
       </c>
       <c r="D252" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E252" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5512,16 +5518,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C253">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="D253" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E253" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5529,16 +5535,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C254">
-        <v>100</v>
+        <v>122.619</v>
       </c>
       <c r="D254" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E254" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5546,16 +5552,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C255">
-        <v>104</v>
+        <v>125</v>
       </c>
       <c r="D255" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E255" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5563,16 +5569,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C256">
-        <v>126.378</v>
+        <v>119.355</v>
       </c>
       <c r="D256" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E256" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5580,16 +5586,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C257">
-        <v>120.738</v>
+        <v>107.143</v>
       </c>
       <c r="D257" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E257" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5597,16 +5603,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C258">
-        <v>123.563</v>
+        <v>123.145</v>
       </c>
       <c r="D258" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E258" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5614,16 +5620,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C259">
-        <v>106.781</v>
+        <v>96.041</v>
       </c>
       <c r="D259" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E259" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5631,16 +5637,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C260">
-        <v>86</v>
+        <v>102.415</v>
       </c>
       <c r="D260" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E260" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5648,16 +5654,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C261">
-        <v>119.436</v>
+        <v>102.927</v>
       </c>
       <c r="D261" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E261" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="262" spans="1:5">
@@ -5665,16 +5671,16 @@
         <v>265</v>
       </c>
       <c r="B262" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C262">
-        <v>101.923</v>
+        <v>129.526</v>
       </c>
       <c r="D262" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E262" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="263" spans="1:5">
@@ -5682,16 +5688,16 @@
         <v>266</v>
       </c>
       <c r="B263" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C263">
-        <v>124</v>
+        <v>94.17</v>
       </c>
       <c r="D263" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E263" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="264" spans="1:5">
@@ -5699,16 +5705,16 @@
         <v>267</v>
       </c>
       <c r="B264" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C264">
-        <v>116.667</v>
+        <v>83.607</v>
       </c>
       <c r="D264" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E264" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="265" spans="1:5">
@@ -5716,16 +5722,16 @@
         <v>268</v>
       </c>
       <c r="B265" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C265">
-        <v>98.343</v>
+        <v>100</v>
       </c>
       <c r="D265" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E265" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="266" spans="1:5">
@@ -5733,16 +5739,16 @@
         <v>269</v>
       </c>
       <c r="B266" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C266">
-        <v>118.966</v>
+        <v>100</v>
       </c>
       <c r="D266" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E266" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="267" spans="1:5">
@@ -5750,16 +5756,16 @@
         <v>270</v>
       </c>
       <c r="B267" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C267">
-        <v>112.727</v>
+        <v>98.343</v>
       </c>
       <c r="D267" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E267" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="268" spans="1:5">
@@ -5767,16 +5773,16 @@
         <v>271</v>
       </c>
       <c r="B268" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C268">
-        <v>120.175</v>
+        <v>116.216</v>
       </c>
       <c r="D268" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E268" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="269" spans="1:5">
@@ -5784,16 +5790,16 @@
         <v>272</v>
       </c>
       <c r="B269" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C269">
-        <v>94.58</v>
+        <v>101.587</v>
       </c>
       <c r="D269" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E269" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="270" spans="1:5">
@@ -5801,16 +5807,16 @@
         <v>273</v>
       </c>
       <c r="B270" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C270">
-        <v>115.264</v>
+        <v>95.27</v>
       </c>
       <c r="D270" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E270" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="271" spans="1:5">
@@ -5818,16 +5824,16 @@
         <v>274</v>
       </c>
       <c r="B271" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C271">
-        <v>107.018</v>
+        <v>116.092</v>
       </c>
       <c r="D271" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E271" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="272" spans="1:5">
@@ -5835,16 +5841,16 @@
         <v>275</v>
       </c>
       <c r="B272" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="C272">
-        <v>112.473</v>
+        <v>92.81699999999999</v>
       </c>
       <c r="D272" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E272" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="273" spans="1:5">
@@ -5852,16 +5858,16 @@
         <v>276</v>
       </c>
       <c r="B273" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="C273">
-        <v>109.167</v>
+        <v>140.909</v>
       </c>
       <c r="D273" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E273" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="274" spans="1:5">
@@ -5869,16 +5875,50 @@
         <v>277</v>
       </c>
       <c r="B274" t="s">
+        <v>280</v>
+      </c>
+      <c r="C274">
+        <v>92.861</v>
+      </c>
+      <c r="D274" t="s">
+        <v>282</v>
+      </c>
+      <c r="E274" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5">
+      <c r="A275" t="s">
         <v>278</v>
       </c>
-      <c r="C274">
-        <v>113.514</v>
-      </c>
-      <c r="D274" t="s">
-        <v>280</v>
-      </c>
-      <c r="E274" t="s">
-        <v>281</v>
+      <c r="B275" t="s">
+        <v>281</v>
+      </c>
+      <c r="C275">
+        <v>128.79</v>
+      </c>
+      <c r="D275" t="s">
+        <v>282</v>
+      </c>
+      <c r="E275" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5">
+      <c r="A276" t="s">
+        <v>279</v>
+      </c>
+      <c r="B276" t="s">
+        <v>281</v>
+      </c>
+      <c r="C276">
+        <v>250</v>
+      </c>
+      <c r="D276" t="s">
+        <v>282</v>
+      </c>
+      <c r="E276" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1105" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="266">
   <si>
     <t>symbol</t>
   </si>
@@ -73,9 +73,6 @@
     <t>ALPACAUSDT</t>
   </si>
   <si>
-    <t>ALPHAUSDT</t>
-  </si>
-  <si>
     <t>ALPINEUSDT</t>
   </si>
   <si>
@@ -109,9 +106,6 @@
     <t>ASTUSDT</t>
   </si>
   <si>
-    <t>ATAUSDT</t>
-  </si>
-  <si>
     <t>ATMUSDT</t>
   </si>
   <si>
@@ -232,12 +226,6 @@
     <t>CTKUSDT</t>
   </si>
   <si>
-    <t>CTSIUSDT</t>
-  </si>
-  <si>
-    <t>CTXCUSDT</t>
-  </si>
-  <si>
     <t>CVCUSDT</t>
   </si>
   <si>
@@ -268,21 +256,12 @@
     <t>DIAUSDT</t>
   </si>
   <si>
-    <t>DODOUSDT</t>
-  </si>
-  <si>
-    <t>DOGEUSDT</t>
-  </si>
-  <si>
     <t>DOTUSDT</t>
   </si>
   <si>
     <t>DREPUSDT</t>
   </si>
   <si>
-    <t>DUSKUSDT</t>
-  </si>
-  <si>
     <t>DYDXUSDT</t>
   </si>
   <si>
@@ -340,9 +319,6 @@
     <t>FISUSDT</t>
   </si>
   <si>
-    <t>FLMUSDT</t>
-  </si>
-  <si>
     <t>FLOWUSDT</t>
   </si>
   <si>
@@ -517,9 +493,6 @@
     <t>MBOXUSDT</t>
   </si>
   <si>
-    <t>MDXUSDT</t>
-  </si>
-  <si>
     <t>MINAUSDT</t>
   </si>
   <si>
@@ -550,9 +523,6 @@
     <t>NEXOUSDT</t>
   </si>
   <si>
-    <t>NKNUSDT</t>
-  </si>
-  <si>
     <t>NMRUSDT</t>
   </si>
   <si>
@@ -568,9 +538,6 @@
     <t>OCEANUSDT</t>
   </si>
   <si>
-    <t>OGNUSDT</t>
-  </si>
-  <si>
     <t>OGUSDT</t>
   </si>
   <si>
@@ -658,21 +625,12 @@
     <t>RADUSDT</t>
   </si>
   <si>
-    <t>RAREUSDT</t>
-  </si>
-  <si>
     <t>RAYUSDT</t>
   </si>
   <si>
     <t>RDNTUSDT</t>
   </si>
   <si>
-    <t>RENUSDT</t>
-  </si>
-  <si>
-    <t>REQUSDT</t>
-  </si>
-  <si>
     <t>RLCUSDT</t>
   </si>
   <si>
@@ -727,9 +685,6 @@
     <t>SUIUSDT</t>
   </si>
   <si>
-    <t>SUPERUSDT</t>
-  </si>
-  <si>
     <t>SUSHIUSDT</t>
   </si>
   <si>
@@ -778,9 +733,6 @@
     <t>USDPUSDT</t>
   </si>
   <si>
-    <t>UTKUSDT</t>
-  </si>
-  <si>
     <t>VGXUSDT</t>
   </si>
   <si>
@@ -790,9 +742,6 @@
     <t>VICUSDT</t>
   </si>
   <si>
-    <t>VIDTUSDT</t>
-  </si>
-  <si>
     <t>VOXELUSDT</t>
   </si>
   <si>
@@ -821,9 +770,6 @@
   </si>
   <si>
     <t>WRXUSDT</t>
-  </si>
-  <si>
-    <t>XLMUSDT</t>
   </si>
   <si>
     <t>XMRUSDT</t>
@@ -1223,7 +1169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E276"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1251,16 +1197,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C2">
-        <v>96.825</v>
+        <v>82.35299999999999</v>
       </c>
       <c r="D2" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1268,16 +1214,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C3">
-        <v>95.497</v>
+        <v>86.25700000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E3" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1285,16 +1231,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C4">
-        <v>146.154</v>
+        <v>90</v>
       </c>
       <c r="D4" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1302,16 +1248,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C5">
-        <v>107.752</v>
+        <v>91.398</v>
       </c>
       <c r="D5" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1319,16 +1265,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C6">
-        <v>97.297</v>
+        <v>84.211</v>
       </c>
       <c r="D6" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1336,16 +1282,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C7">
-        <v>112.5</v>
+        <v>92.593</v>
       </c>
       <c r="D7" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1353,16 +1299,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>84.211</v>
       </c>
       <c r="D8" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E8" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1370,16 +1316,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C9">
-        <v>100</v>
+        <v>99.083</v>
       </c>
       <c r="D9" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1387,16 +1333,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C10">
-        <v>95.76300000000001</v>
+        <v>88.43000000000001</v>
       </c>
       <c r="D10" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1404,16 +1350,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C11">
-        <v>95</v>
+        <v>77.717</v>
       </c>
       <c r="D11" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1421,16 +1367,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C12">
-        <v>115.761</v>
+        <v>79.154</v>
       </c>
       <c r="D12" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E12" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1438,16 +1384,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C13">
-        <v>107.143</v>
+        <v>78.125</v>
       </c>
       <c r="D13" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E13" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1455,16 +1401,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C14">
-        <v>106.863</v>
+        <v>83.26000000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E14" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1472,16 +1418,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C15">
-        <v>113.043</v>
+        <v>82.143</v>
       </c>
       <c r="D15" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E15" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1489,16 +1435,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C16">
-        <v>105.882</v>
+        <v>86.496</v>
       </c>
       <c r="D16" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1506,16 +1452,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C17">
-        <v>105.534</v>
+        <v>116.509</v>
       </c>
       <c r="D17" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E17" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1523,16 +1469,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C18">
-        <v>116.509</v>
+        <v>79.752</v>
       </c>
       <c r="D18" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E18" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1540,16 +1486,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C19">
-        <v>100.452</v>
+        <v>103.093</v>
       </c>
       <c r="D19" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E19" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1557,16 +1503,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C20">
-        <v>94.324</v>
+        <v>120.989</v>
       </c>
       <c r="D20" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E20" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1574,16 +1520,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C21">
-        <v>116.465</v>
+        <v>78.774</v>
       </c>
       <c r="D21" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E21" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1591,16 +1537,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C22">
-        <v>88.426</v>
+        <v>89.369</v>
       </c>
       <c r="D22" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1608,16 +1554,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C23">
-        <v>104.965</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="D23" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E23" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1625,16 +1571,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C24">
-        <v>104.717</v>
+        <v>97.056</v>
       </c>
       <c r="D24" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E24" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1642,16 +1588,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C25">
-        <v>94.496</v>
+        <v>91.925</v>
       </c>
       <c r="D25" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1659,16 +1605,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C26">
-        <v>104.714</v>
+        <v>89.474</v>
       </c>
       <c r="D26" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E26" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1676,16 +1622,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C27">
-        <v>128.571</v>
+        <v>88.92100000000001</v>
       </c>
       <c r="D27" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E27" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1693,16 +1639,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C28">
-        <v>112.5</v>
+        <v>83.203</v>
       </c>
       <c r="D28" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E28" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1710,16 +1656,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C29">
-        <v>103.774</v>
+        <v>86.316</v>
       </c>
       <c r="D29" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E29" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1727,16 +1673,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C30">
-        <v>91.79300000000001</v>
+        <v>80</v>
       </c>
       <c r="D30" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1744,16 +1690,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C31">
-        <v>85.506</v>
+        <v>84</v>
       </c>
       <c r="D31" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E31" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1761,16 +1707,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C32">
-        <v>103.226</v>
+        <v>102.19</v>
       </c>
       <c r="D32" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E32" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1778,16 +1724,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C33">
-        <v>108.333</v>
+        <v>82.005</v>
       </c>
       <c r="D33" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E33" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1795,16 +1741,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C34">
-        <v>138.75</v>
+        <v>83.495</v>
       </c>
       <c r="D34" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E34" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1812,16 +1758,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C35">
-        <v>107.85</v>
+        <v>85.185</v>
       </c>
       <c r="D35" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E35" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1829,16 +1775,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C36">
-        <v>96.607</v>
+        <v>82.285</v>
       </c>
       <c r="D36" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E36" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1846,16 +1792,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C37">
-        <v>109.524</v>
+        <v>79.77500000000001</v>
       </c>
       <c r="D37" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E37" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1863,16 +1809,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C38">
-        <v>92.637</v>
+        <v>96.667</v>
       </c>
       <c r="D38" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E38" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1880,16 +1826,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C39">
-        <v>94.53100000000001</v>
+        <v>78.947</v>
       </c>
       <c r="D39" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E39" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1897,16 +1843,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C40">
-        <v>127.241</v>
+        <v>92.949</v>
       </c>
       <c r="D40" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E40" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1914,16 +1860,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C41">
-        <v>97.143</v>
+        <v>80.374</v>
       </c>
       <c r="D41" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E41" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1931,16 +1877,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C42">
-        <v>95.279</v>
+        <v>74.648</v>
       </c>
       <c r="D42" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E42" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1948,16 +1894,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C43">
-        <v>116.667</v>
+        <v>85.68600000000001</v>
       </c>
       <c r="D43" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E43" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1965,16 +1911,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C44">
-        <v>112.281</v>
+        <v>82.857</v>
       </c>
       <c r="D44" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E44" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1982,16 +1928,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C45">
-        <v>105.665</v>
+        <v>121.295</v>
       </c>
       <c r="D45" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E45" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1999,16 +1945,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C46">
-        <v>95.714</v>
+        <v>92.498</v>
       </c>
       <c r="D46" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -2016,16 +1962,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C47">
-        <v>121.295</v>
+        <v>82.178</v>
       </c>
       <c r="D47" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E47" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -2033,16 +1979,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C48">
-        <v>129.456</v>
+        <v>80</v>
       </c>
       <c r="D48" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E48" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2050,16 +1996,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C49">
-        <v>96.842</v>
+        <v>87.66</v>
       </c>
       <c r="D49" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E49" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2067,16 +2013,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C50">
-        <v>148.718</v>
+        <v>77.77800000000001</v>
       </c>
       <c r="D50" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E50" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2084,16 +2030,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C51">
-        <v>129.208</v>
+        <v>120.552</v>
       </c>
       <c r="D51" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E51" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2101,16 +2047,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C52">
-        <v>106.667</v>
+        <v>90.33499999999999</v>
       </c>
       <c r="D52" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E52" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2118,16 +2064,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C53">
-        <v>120.552</v>
+        <v>93.407</v>
       </c>
       <c r="D53" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E53" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2135,16 +2081,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C54">
-        <v>103.126</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E54" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2152,16 +2098,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C55">
-        <v>132</v>
+        <v>86.364</v>
       </c>
       <c r="D55" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E55" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2169,16 +2115,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C56">
-        <v>100</v>
+        <v>83.366</v>
       </c>
       <c r="D56" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E56" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2186,16 +2132,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C57">
-        <v>100</v>
+        <v>76.871</v>
       </c>
       <c r="D57" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E57" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2203,16 +2149,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C58">
-        <v>127.855</v>
+        <v>93.548</v>
       </c>
       <c r="D58" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E58" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2220,16 +2166,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C59">
-        <v>110.833</v>
+        <v>93.333</v>
       </c>
       <c r="D59" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E59" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2237,16 +2183,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C60">
-        <v>121.429</v>
+        <v>82.35299999999999</v>
       </c>
       <c r="D60" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E60" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2254,16 +2200,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C61">
-        <v>110.811</v>
+        <v>89.08199999999999</v>
       </c>
       <c r="D61" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E61" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2271,16 +2217,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C62">
-        <v>100</v>
+        <v>75</v>
       </c>
       <c r="D62" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E62" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2288,16 +2234,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C63">
-        <v>114.613</v>
+        <v>79.881</v>
       </c>
       <c r="D63" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E63" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2305,16 +2251,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C64">
-        <v>103.774</v>
+        <v>107.583</v>
       </c>
       <c r="D64" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E64" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2322,16 +2268,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C65">
-        <v>91.95699999999999</v>
+        <v>79.06999999999999</v>
       </c>
       <c r="D65" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E65" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2339,16 +2285,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C66">
-        <v>110.86</v>
+        <v>105</v>
       </c>
       <c r="D66" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E66" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2356,16 +2302,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C67">
-        <v>96.203</v>
+        <v>100</v>
       </c>
       <c r="D67" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E67" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2373,16 +2319,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C68">
-        <v>102.105</v>
+        <v>86.154</v>
       </c>
       <c r="D68" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E68" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2390,16 +2336,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C69">
-        <v>94.595</v>
+        <v>78.416</v>
       </c>
       <c r="D69" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E69" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2407,16 +2353,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C70">
-        <v>80.645</v>
+        <v>107.875</v>
       </c>
       <c r="D70" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E70" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2424,16 +2370,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C71">
-        <v>107.143</v>
+        <v>82.143</v>
       </c>
       <c r="D71" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E71" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2441,16 +2387,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C72">
-        <v>110.909</v>
+        <v>84.69199999999999</v>
       </c>
       <c r="D72" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E72" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2458,16 +2404,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C73">
-        <v>88.077</v>
+        <v>84.014</v>
       </c>
       <c r="D73" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E73" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2475,16 +2421,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C74">
-        <v>100.087</v>
+        <v>90.67400000000001</v>
       </c>
       <c r="D74" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E74" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2492,16 +2438,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C75">
-        <v>113.043</v>
+        <v>128.585</v>
       </c>
       <c r="D75" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E75" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2509,16 +2455,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C76">
-        <v>99.949</v>
+        <v>101.429</v>
       </c>
       <c r="D76" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E76" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2526,16 +2472,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C77">
-        <v>111.211</v>
+        <v>81.44199999999999</v>
       </c>
       <c r="D77" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E77" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2543,16 +2489,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C78">
-        <v>137.818</v>
+        <v>27.907</v>
       </c>
       <c r="D78" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E78" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2560,16 +2506,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C79">
-        <v>102.115</v>
+        <v>83.95999999999999</v>
       </c>
       <c r="D79" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E79" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2577,16 +2523,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C80">
-        <v>116.667</v>
+        <v>100.893</v>
       </c>
       <c r="D80" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E80" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2594,16 +2540,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C81">
-        <v>111.538</v>
+        <v>82.76900000000001</v>
       </c>
       <c r="D81" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E81" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2611,16 +2557,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C82">
-        <v>100</v>
+        <v>88.732</v>
       </c>
       <c r="D82" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E82" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2628,16 +2574,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C83">
-        <v>100.288</v>
+        <v>81.25</v>
       </c>
       <c r="D83" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E83" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2645,16 +2591,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C84">
-        <v>136.667</v>
+        <v>83.14700000000001</v>
       </c>
       <c r="D84" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E84" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2662,16 +2608,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C85">
-        <v>115.152</v>
+        <v>84.746</v>
       </c>
       <c r="D85" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E85" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2679,16 +2625,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C86">
-        <v>86.27</v>
+        <v>115.696</v>
       </c>
       <c r="D86" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E86" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2696,16 +2642,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C87">
-        <v>112.5</v>
+        <v>82.72199999999999</v>
       </c>
       <c r="D87" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E87" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2713,16 +2659,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C88">
-        <v>103.475</v>
+        <v>83.333</v>
       </c>
       <c r="D88" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E88" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2730,16 +2676,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C89">
-        <v>95.52200000000001</v>
+        <v>130.459</v>
       </c>
       <c r="D89" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E89" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2747,16 +2693,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C90">
-        <v>100</v>
+        <v>87.05500000000001</v>
       </c>
       <c r="D90" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E90" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2764,16 +2710,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C91">
-        <v>92.15000000000001</v>
+        <v>99.083</v>
       </c>
       <c r="D91" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E91" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2781,16 +2727,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C92">
-        <v>85.59999999999999</v>
+        <v>83.214</v>
       </c>
       <c r="D92" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E92" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2798,16 +2744,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C93">
-        <v>128.409</v>
+        <v>100</v>
       </c>
       <c r="D93" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E93" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2815,16 +2761,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C94">
-        <v>86.596</v>
+        <v>98.113</v>
       </c>
       <c r="D94" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E94" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2832,16 +2778,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C95">
-        <v>83.333</v>
+        <v>86.535</v>
       </c>
       <c r="D95" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E95" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2849,16 +2795,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C96">
-        <v>130.459</v>
+        <v>79.253</v>
       </c>
       <c r="D96" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E96" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2866,16 +2812,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C97">
-        <v>95.989</v>
+        <v>97.143</v>
       </c>
       <c r="D97" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E97" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2883,16 +2829,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C98">
-        <v>100</v>
+        <v>81.875</v>
       </c>
       <c r="D98" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E98" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2900,16 +2846,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C99">
-        <v>107.335</v>
+        <v>102.256</v>
       </c>
       <c r="D99" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E99" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2917,16 +2863,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C100">
-        <v>100</v>
+        <v>122.435</v>
       </c>
       <c r="D100" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E100" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2934,16 +2880,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C101">
-        <v>132.653</v>
+        <v>120</v>
       </c>
       <c r="D101" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E101" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2951,16 +2897,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C102">
-        <v>97.681</v>
+        <v>131.461</v>
       </c>
       <c r="D102" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E102" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2968,16 +2914,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C103">
-        <v>104.831</v>
+        <v>80.913</v>
       </c>
       <c r="D103" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E103" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2985,16 +2931,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C104">
-        <v>96.053</v>
+        <v>76.883</v>
       </c>
       <c r="D104" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E104" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -3002,16 +2948,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C105">
-        <v>108.333</v>
+        <v>113.478</v>
       </c>
       <c r="D105" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E105" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -3019,16 +2965,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C106">
-        <v>105.97</v>
+        <v>80.657</v>
       </c>
       <c r="D106" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E106" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3036,16 +2982,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C107">
-        <v>124.038</v>
+        <v>95.161</v>
       </c>
       <c r="D107" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E107" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3053,16 +2999,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C108">
-        <v>129.892</v>
+        <v>87.30200000000001</v>
       </c>
       <c r="D108" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E108" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3070,16 +3016,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C109">
-        <v>230</v>
+        <v>77.61199999999999</v>
       </c>
       <c r="D109" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E109" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3087,16 +3033,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C110">
-        <v>112.941</v>
+        <v>76.19</v>
       </c>
       <c r="D110" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E110" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3104,16 +3050,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C111">
-        <v>93.651</v>
+        <v>78.378</v>
       </c>
       <c r="D111" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3121,16 +3067,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C112">
-        <v>99.054</v>
+        <v>75.90900000000001</v>
       </c>
       <c r="D112" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3138,16 +3084,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C113">
-        <v>125.419</v>
+        <v>82.075</v>
       </c>
       <c r="D113" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3155,16 +3101,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C114">
-        <v>99.032</v>
+        <v>81.524</v>
       </c>
       <c r="D114" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E114" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3172,16 +3118,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C115">
-        <v>95.161</v>
+        <v>80.76900000000001</v>
       </c>
       <c r="D115" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E115" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3189,16 +3135,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C116">
-        <v>111.111</v>
+        <v>83.333</v>
       </c>
       <c r="D116" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E116" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3206,16 +3152,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C117">
-        <v>119.608</v>
+        <v>84.61499999999999</v>
       </c>
       <c r="D117" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E117" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3223,16 +3169,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C118">
-        <v>90.164</v>
+        <v>80.315</v>
       </c>
       <c r="D118" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E118" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3240,16 +3186,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C119">
-        <v>106.25</v>
+        <v>79.435</v>
       </c>
       <c r="D119" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E119" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3257,16 +3203,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C120">
-        <v>93.48699999999999</v>
+        <v>82.979</v>
       </c>
       <c r="D120" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E120" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3274,16 +3220,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C121">
-        <v>97.17400000000001</v>
+        <v>91.875</v>
       </c>
       <c r="D121" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E121" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3291,16 +3237,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C122">
-        <v>93.81399999999999</v>
+        <v>92.55200000000001</v>
       </c>
       <c r="D122" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E122" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3308,16 +3254,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C123">
-        <v>87.607</v>
+        <v>81.57899999999999</v>
       </c>
       <c r="D123" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E123" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3325,16 +3271,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C124">
-        <v>121.739</v>
+        <v>82.60899999999999</v>
       </c>
       <c r="D124" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E124" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3342,16 +3288,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C125">
-        <v>97.959</v>
+        <v>90.247</v>
       </c>
       <c r="D125" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E125" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3359,16 +3305,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C126">
-        <v>125.641</v>
+        <v>82.42100000000001</v>
       </c>
       <c r="D126" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E126" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3376,16 +3322,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C127">
-        <v>103.302</v>
+        <v>76.298</v>
       </c>
       <c r="D127" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E127" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3393,16 +3339,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C128">
-        <v>102.326</v>
+        <v>76.19</v>
       </c>
       <c r="D128" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E128" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3410,16 +3356,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C129">
-        <v>120.149</v>
+        <v>107.407</v>
       </c>
       <c r="D129" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E129" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3427,16 +3373,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C130">
-        <v>88.33</v>
+        <v>103.114</v>
       </c>
       <c r="D130" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E130" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3444,16 +3390,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C131">
-        <v>103.03</v>
+        <v>89.542</v>
       </c>
       <c r="D131" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E131" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3461,16 +3407,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C132">
-        <v>213.514</v>
+        <v>86.486</v>
       </c>
       <c r="D132" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E132" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3478,16 +3424,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C133">
-        <v>128.742</v>
+        <v>78.61</v>
       </c>
       <c r="D133" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E133" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3495,16 +3441,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C134">
-        <v>92.81399999999999</v>
+        <v>81.25</v>
       </c>
       <c r="D134" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E134" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3512,16 +3458,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C135">
-        <v>109.008</v>
+        <v>89.744</v>
       </c>
       <c r="D135" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E135" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3529,16 +3475,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C136">
-        <v>102.857</v>
+        <v>80</v>
       </c>
       <c r="D136" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E136" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3546,16 +3492,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C137">
-        <v>163.158</v>
+        <v>79.871</v>
       </c>
       <c r="D137" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E137" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3563,16 +3509,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C138">
-        <v>127.74</v>
+        <v>76.083</v>
       </c>
       <c r="D138" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E138" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3580,16 +3526,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C139">
-        <v>108.364</v>
+        <v>93.976</v>
       </c>
       <c r="D139" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E139" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3597,16 +3543,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C140">
-        <v>99.01000000000001</v>
+        <v>81.34099999999999</v>
       </c>
       <c r="D140" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E140" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3614,16 +3560,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C141">
-        <v>103.488</v>
+        <v>88.096</v>
       </c>
       <c r="D141" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E141" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3631,16 +3577,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C142">
-        <v>96.667</v>
+        <v>81.006</v>
       </c>
       <c r="D142" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3648,16 +3594,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C143">
-        <v>105.714</v>
+        <v>86.364</v>
       </c>
       <c r="D143" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E143" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3665,16 +3611,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C144">
-        <v>112.644</v>
+        <v>93.366</v>
       </c>
       <c r="D144" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E144" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3682,16 +3628,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C145">
-        <v>101.626</v>
+        <v>81.18300000000001</v>
       </c>
       <c r="D145" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E145" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3699,16 +3645,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C146">
-        <v>97.324</v>
+        <v>90.69799999999999</v>
       </c>
       <c r="D146" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E146" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3716,16 +3662,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C147">
-        <v>113.699</v>
+        <v>84.90600000000001</v>
       </c>
       <c r="D147" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E147" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3733,16 +3679,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C148">
-        <v>84.393</v>
+        <v>87.20699999999999</v>
       </c>
       <c r="D148" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E148" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3750,16 +3696,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C149">
-        <v>96.765</v>
+        <v>87.84999999999999</v>
       </c>
       <c r="D149" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E149" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3767,16 +3713,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C150">
-        <v>105.195</v>
+        <v>78.723</v>
       </c>
       <c r="D150" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E150" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3784,16 +3730,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C151">
-        <v>114.286</v>
+        <v>84.211</v>
       </c>
       <c r="D151" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E151" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3801,16 +3747,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C152">
-        <v>142.432</v>
+        <v>90.944</v>
       </c>
       <c r="D152" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E152" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3818,16 +3764,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C153">
-        <v>93.258</v>
+        <v>79.52800000000001</v>
       </c>
       <c r="D153" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E153" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3835,16 +3781,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C154">
-        <v>133.333</v>
+        <v>85.50700000000001</v>
       </c>
       <c r="D154" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E154" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3852,16 +3798,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C155">
-        <v>88.479</v>
+        <v>72.881</v>
       </c>
       <c r="D155" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E155" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3869,16 +3815,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C156">
-        <v>102.227</v>
+        <v>81.57899999999999</v>
       </c>
       <c r="D156" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E156" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3886,16 +3832,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C157">
-        <v>83.621</v>
+        <v>111.476</v>
       </c>
       <c r="D157" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E157" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3903,16 +3849,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C158">
-        <v>94.65600000000001</v>
+        <v>89.378</v>
       </c>
       <c r="D158" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E158" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3920,16 +3866,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C159">
-        <v>101.449</v>
+        <v>23.81</v>
       </c>
       <c r="D159" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E159" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3937,16 +3883,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C160">
-        <v>94.523</v>
+        <v>79.40300000000001</v>
       </c>
       <c r="D160" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E160" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3954,16 +3900,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C161">
-        <v>99.13800000000001</v>
+        <v>83.81699999999999</v>
       </c>
       <c r="D161" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E161" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3971,16 +3917,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C162">
-        <v>98.438</v>
+        <v>64.34099999999999</v>
       </c>
       <c r="D162" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E162" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3988,16 +3934,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C163">
-        <v>100</v>
+        <v>85.825</v>
       </c>
       <c r="D163" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E163" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -4005,16 +3951,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C164">
-        <v>112.5</v>
+        <v>82.184</v>
       </c>
       <c r="D164" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E164" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -4022,16 +3968,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C165">
-        <v>103.704</v>
+        <v>87.742</v>
       </c>
       <c r="D165" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E165" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4039,16 +3985,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C166">
-        <v>138.63</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="D166" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E166" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4056,16 +4002,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C167">
-        <v>100.166</v>
+        <v>81.75700000000001</v>
       </c>
       <c r="D167" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E167" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4073,16 +4019,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C168">
-        <v>102.5</v>
+        <v>110</v>
       </c>
       <c r="D168" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E168" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4090,16 +4036,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C169">
-        <v>107.61</v>
+        <v>72</v>
       </c>
       <c r="D169" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E169" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4107,16 +4053,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C170">
-        <v>84.151</v>
+        <v>96.667</v>
       </c>
       <c r="D170" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E170" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4124,16 +4070,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C171">
-        <v>64.34099999999999</v>
+        <v>90.01600000000001</v>
       </c>
       <c r="D171" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E171" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4141,16 +4087,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C172">
-        <v>139.855</v>
+        <v>78.788</v>
       </c>
       <c r="D172" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E172" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4158,16 +4104,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C173">
-        <v>91.096</v>
+        <v>77.083</v>
       </c>
       <c r="D173" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E173" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4175,16 +4121,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C174">
-        <v>102.817</v>
+        <v>85</v>
       </c>
       <c r="D174" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E174" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4192,16 +4138,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C175">
-        <v>106.667</v>
+        <v>79.864</v>
       </c>
       <c r="D175" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E175" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4209,16 +4155,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C176">
-        <v>98.04000000000001</v>
+        <v>80</v>
       </c>
       <c r="D176" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E176" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4226,16 +4172,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C177">
-        <v>91.55800000000001</v>
+        <v>89.34399999999999</v>
       </c>
       <c r="D177" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E177" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4243,16 +4189,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C178">
-        <v>115.152</v>
+        <v>81.212</v>
       </c>
       <c r="D178" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E178" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4260,16 +4206,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C179">
-        <v>104.762</v>
+        <v>100.093</v>
       </c>
       <c r="D179" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E179" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4277,16 +4223,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C180">
-        <v>95.76300000000001</v>
+        <v>104.667</v>
       </c>
       <c r="D180" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E180" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4294,16 +4240,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C181">
-        <v>100</v>
+        <v>85.714</v>
       </c>
       <c r="D181" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E181" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4311,16 +4257,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C182">
-        <v>114.909</v>
+        <v>140.909</v>
       </c>
       <c r="D182" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E182" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4328,16 +4274,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C183">
-        <v>101.695</v>
+        <v>88.411</v>
       </c>
       <c r="D183" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E183" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4345,16 +4291,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C184">
-        <v>95.455</v>
+        <v>85.10599999999999</v>
       </c>
       <c r="D184" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E184" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4362,16 +4308,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C185">
-        <v>94.73699999999999</v>
+        <v>153.333</v>
       </c>
       <c r="D185" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E185" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4379,16 +4325,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C186">
-        <v>81.33</v>
+        <v>34.783</v>
       </c>
       <c r="D186" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E186" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4396,16 +4342,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C187">
-        <v>91.572</v>
+        <v>93.636</v>
       </c>
       <c r="D187" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E187" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4413,16 +4359,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C188">
-        <v>124.365</v>
+        <v>142.857</v>
       </c>
       <c r="D188" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E188" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4430,16 +4376,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C189">
-        <v>86.20699999999999</v>
+        <v>89.274</v>
       </c>
       <c r="D189" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E189" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4447,16 +4393,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C190">
-        <v>99.765</v>
+        <v>81.25</v>
       </c>
       <c r="D190" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E190" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4464,16 +4410,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C191">
-        <v>86.111</v>
+        <v>85.099</v>
       </c>
       <c r="D191" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E191" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4481,16 +4427,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C192">
-        <v>118.71</v>
+        <v>91.379</v>
       </c>
       <c r="D192" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E192" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4498,16 +4444,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C193">
-        <v>115.789</v>
+        <v>93.407</v>
       </c>
       <c r="D193" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E193" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4515,16 +4461,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C194">
-        <v>85.54900000000001</v>
+        <v>83.562</v>
       </c>
       <c r="D194" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E194" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4532,16 +4478,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C195">
-        <v>107.143</v>
+        <v>84.07599999999999</v>
       </c>
       <c r="D195" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E195" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4549,16 +4495,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C196">
-        <v>153.333</v>
+        <v>92.029</v>
       </c>
       <c r="D196" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E196" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4566,16 +4512,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C197">
-        <v>105</v>
+        <v>78.428</v>
       </c>
       <c r="D197" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E197" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4583,16 +4529,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C198">
-        <v>97.059</v>
+        <v>90</v>
       </c>
       <c r="D198" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E198" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4600,16 +4546,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C199">
-        <v>104.167</v>
+        <v>93.19</v>
       </c>
       <c r="D199" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E199" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4617,16 +4563,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C200">
-        <v>99.673</v>
+        <v>142.657</v>
       </c>
       <c r="D200" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E200" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4634,16 +4580,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C201">
-        <v>110.256</v>
+        <v>80.488</v>
       </c>
       <c r="D201" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E201" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4651,16 +4597,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C202">
-        <v>108.653</v>
+        <v>89.616</v>
       </c>
       <c r="D202" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E202" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4668,16 +4614,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C203">
-        <v>116.327</v>
+        <v>97.443</v>
       </c>
       <c r="D203" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E203" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4685,16 +4631,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C204">
-        <v>113.675</v>
+        <v>84.828</v>
       </c>
       <c r="D204" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E204" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4702,16 +4648,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C205">
-        <v>104.615</v>
+        <v>81.226</v>
       </c>
       <c r="D205" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E205" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4719,16 +4665,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C206">
-        <v>88.742</v>
+        <v>86.842</v>
       </c>
       <c r="D206" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E206" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4736,16 +4682,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C207">
-        <v>106.319</v>
+        <v>90.595</v>
       </c>
       <c r="D207" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E207" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4753,16 +4699,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C208">
-        <v>96.01600000000001</v>
+        <v>82.051</v>
       </c>
       <c r="D208" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E208" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4770,16 +4716,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C209">
-        <v>112.5</v>
+        <v>92.22199999999999</v>
       </c>
       <c r="D209" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E209" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4787,16 +4733,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C210">
-        <v>108.333</v>
+        <v>89.157</v>
       </c>
       <c r="D210" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E210" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4804,16 +4750,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C211">
-        <v>126.667</v>
+        <v>89.29300000000001</v>
       </c>
       <c r="D211" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E211" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4821,16 +4767,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C212">
-        <v>171.918</v>
+        <v>108.554</v>
       </c>
       <c r="D212" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E212" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4838,16 +4784,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C213">
-        <v>94.872</v>
+        <v>117.017</v>
       </c>
       <c r="D213" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E213" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4855,16 +4801,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C214">
-        <v>111.111</v>
+        <v>86.111</v>
       </c>
       <c r="D214" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E214" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4872,16 +4818,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C215">
-        <v>107.692</v>
+        <v>89.286</v>
       </c>
       <c r="D215" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E215" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4889,16 +4835,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C216">
-        <v>101.034</v>
+        <v>80.899</v>
       </c>
       <c r="D216" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E216" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4906,16 +4852,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C217">
-        <v>114.243</v>
+        <v>88.199</v>
       </c>
       <c r="D217" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E217" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4923,16 +4869,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C218">
-        <v>91.429</v>
+        <v>116.181</v>
       </c>
       <c r="D218" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E218" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4940,16 +4886,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C219">
-        <v>134.72</v>
+        <v>109.877</v>
       </c>
       <c r="D219" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E219" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4957,16 +4903,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C220">
-        <v>98.571</v>
+        <v>84.46599999999999</v>
       </c>
       <c r="D220" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E220" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4974,16 +4920,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C221">
-        <v>129.778</v>
+        <v>76.364</v>
       </c>
       <c r="D221" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E221" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4991,16 +4937,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C222">
-        <v>106.061</v>
+        <v>83.43899999999999</v>
       </c>
       <c r="D222" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E222" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -5008,16 +4954,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C223">
-        <v>116.129</v>
+        <v>76.471</v>
       </c>
       <c r="D223" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E223" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -5025,16 +4971,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C224">
-        <v>96.25</v>
+        <v>87.834</v>
       </c>
       <c r="D224" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E224" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5042,16 +4988,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C225">
-        <v>96.667</v>
+        <v>84.745</v>
       </c>
       <c r="D225" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E225" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5059,16 +5005,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C226">
-        <v>135.092</v>
+        <v>90.411</v>
       </c>
       <c r="D226" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E226" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5076,16 +5022,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C227">
-        <v>132.636</v>
+        <v>86.41200000000001</v>
       </c>
       <c r="D227" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E227" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5093,16 +5039,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>281</v>
+        <v>263</v>
       </c>
       <c r="C228">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D228" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E228" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5110,16 +5056,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C229">
-        <v>113.699</v>
+        <v>82.92700000000001</v>
       </c>
       <c r="D229" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E229" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5127,16 +5073,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C230">
-        <v>96.29600000000001</v>
+        <v>117.308</v>
       </c>
       <c r="D230" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E230" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5144,16 +5090,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C231">
-        <v>93.59</v>
+        <v>80.738</v>
       </c>
       <c r="D231" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E231" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5161,16 +5107,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C232">
-        <v>95.533</v>
+        <v>71.622</v>
       </c>
       <c r="D232" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E232" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5178,16 +5124,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C233">
-        <v>105.696</v>
+        <v>84.751</v>
       </c>
       <c r="D233" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E233" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5195,16 +5141,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C234">
-        <v>88.158</v>
+        <v>100</v>
       </c>
       <c r="D234" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E234" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5212,16 +5158,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>280</v>
+        <v>263</v>
       </c>
       <c r="C235">
-        <v>97.5</v>
+        <v>100</v>
       </c>
       <c r="D235" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E235" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5229,16 +5175,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C236">
-        <v>97.959</v>
+        <v>80</v>
       </c>
       <c r="D236" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E236" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5246,16 +5192,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C237">
-        <v>87.5</v>
+        <v>81.818</v>
       </c>
       <c r="D237" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E237" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5263,16 +5209,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C238">
-        <v>120</v>
+        <v>88.571</v>
       </c>
       <c r="D238" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E238" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5280,16 +5226,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C239">
-        <v>103.39</v>
+        <v>86.842</v>
       </c>
       <c r="D239" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E239" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5297,16 +5243,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C240">
-        <v>94.30800000000001</v>
+        <v>93.548</v>
       </c>
       <c r="D240" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E240" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5314,16 +5260,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C241">
-        <v>123.077</v>
+        <v>81.718</v>
       </c>
       <c r="D241" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E241" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5331,16 +5277,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C242">
-        <v>92.45399999999999</v>
+        <v>87.07899999999999</v>
       </c>
       <c r="D242" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E242" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5348,16 +5294,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C243">
-        <v>100</v>
+        <v>90.511</v>
       </c>
       <c r="D243" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E243" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5365,16 +5311,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C244">
-        <v>100</v>
+        <v>83.675</v>
       </c>
       <c r="D244" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E244" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5382,16 +5328,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C245">
-        <v>136.364</v>
+        <v>83.56</v>
       </c>
       <c r="D245" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E245" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5399,16 +5345,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C246">
-        <v>106.25</v>
+        <v>87.238</v>
       </c>
       <c r="D246" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E246" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5416,16 +5362,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C247">
-        <v>104.39</v>
+        <v>80.702</v>
       </c>
       <c r="D247" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E247" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5433,16 +5379,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>280</v>
+        <v>262</v>
       </c>
       <c r="C248">
-        <v>87.09699999999999</v>
+        <v>75.676</v>
       </c>
       <c r="D248" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E248" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5450,16 +5396,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C249">
-        <v>100</v>
+        <v>98.343</v>
       </c>
       <c r="D249" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E249" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5467,16 +5413,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C250">
-        <v>100</v>
+        <v>84.324</v>
       </c>
       <c r="D250" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E250" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5484,16 +5430,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C251">
-        <v>109.091</v>
+        <v>91.304</v>
       </c>
       <c r="D251" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E251" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5501,16 +5447,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C252">
-        <v>107.692</v>
+        <v>81.169</v>
       </c>
       <c r="D252" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E252" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5518,16 +5464,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C253">
-        <v>125</v>
+        <v>96.27</v>
       </c>
       <c r="D253" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E253" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5535,16 +5481,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C254">
-        <v>122.619</v>
+        <v>87.218</v>
       </c>
       <c r="D254" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E254" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5552,16 +5498,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C255">
-        <v>125</v>
+        <v>88.42100000000001</v>
       </c>
       <c r="D255" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E255" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5569,16 +5515,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C256">
-        <v>119.355</v>
+        <v>84.62</v>
       </c>
       <c r="D256" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E256" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5586,16 +5532,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C257">
-        <v>107.143</v>
+        <v>81.39100000000001</v>
       </c>
       <c r="D257" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E257" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5603,322 +5549,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>281</v>
+        <v>262</v>
       </c>
       <c r="C258">
-        <v>123.145</v>
+        <v>82.727</v>
       </c>
       <c r="D258" t="s">
-        <v>282</v>
+        <v>264</v>
       </c>
       <c r="E258" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5">
-      <c r="A259" t="s">
-        <v>262</v>
-      </c>
-      <c r="B259" t="s">
-        <v>280</v>
-      </c>
-      <c r="C259">
-        <v>96.041</v>
-      </c>
-      <c r="D259" t="s">
-        <v>282</v>
-      </c>
-      <c r="E259" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="260" spans="1:5">
-      <c r="A260" t="s">
-        <v>263</v>
-      </c>
-      <c r="B260" t="s">
-        <v>281</v>
-      </c>
-      <c r="C260">
-        <v>102.415</v>
-      </c>
-      <c r="D260" t="s">
-        <v>282</v>
-      </c>
-      <c r="E260" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="261" spans="1:5">
-      <c r="A261" t="s">
-        <v>264</v>
-      </c>
-      <c r="B261" t="s">
-        <v>281</v>
-      </c>
-      <c r="C261">
-        <v>102.927</v>
-      </c>
-      <c r="D261" t="s">
-        <v>282</v>
-      </c>
-      <c r="E261" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" t="s">
-        <v>265</v>
-      </c>
-      <c r="B262" t="s">
-        <v>281</v>
-      </c>
-      <c r="C262">
-        <v>129.526</v>
-      </c>
-      <c r="D262" t="s">
-        <v>282</v>
-      </c>
-      <c r="E262" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" t="s">
-        <v>266</v>
-      </c>
-      <c r="B263" t="s">
-        <v>280</v>
-      </c>
-      <c r="C263">
-        <v>94.17</v>
-      </c>
-      <c r="D263" t="s">
-        <v>282</v>
-      </c>
-      <c r="E263" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" t="s">
-        <v>267</v>
-      </c>
-      <c r="B264" t="s">
-        <v>280</v>
-      </c>
-      <c r="C264">
-        <v>83.607</v>
-      </c>
-      <c r="D264" t="s">
-        <v>282</v>
-      </c>
-      <c r="E264" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="265" spans="1:5">
-      <c r="A265" t="s">
-        <v>268</v>
-      </c>
-      <c r="B265" t="s">
-        <v>281</v>
-      </c>
-      <c r="C265">
-        <v>100</v>
-      </c>
-      <c r="D265" t="s">
-        <v>282</v>
-      </c>
-      <c r="E265" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5">
-      <c r="A266" t="s">
-        <v>269</v>
-      </c>
-      <c r="B266" t="s">
-        <v>281</v>
-      </c>
-      <c r="C266">
-        <v>100</v>
-      </c>
-      <c r="D266" t="s">
-        <v>282</v>
-      </c>
-      <c r="E266" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="267" spans="1:5">
-      <c r="A267" t="s">
-        <v>270</v>
-      </c>
-      <c r="B267" t="s">
-        <v>280</v>
-      </c>
-      <c r="C267">
-        <v>98.343</v>
-      </c>
-      <c r="D267" t="s">
-        <v>282</v>
-      </c>
-      <c r="E267" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="268" spans="1:5">
-      <c r="A268" t="s">
-        <v>271</v>
-      </c>
-      <c r="B268" t="s">
-        <v>281</v>
-      </c>
-      <c r="C268">
-        <v>116.216</v>
-      </c>
-      <c r="D268" t="s">
-        <v>282</v>
-      </c>
-      <c r="E268" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="269" spans="1:5">
-      <c r="A269" t="s">
-        <v>272</v>
-      </c>
-      <c r="B269" t="s">
-        <v>281</v>
-      </c>
-      <c r="C269">
-        <v>101.587</v>
-      </c>
-      <c r="D269" t="s">
-        <v>282</v>
-      </c>
-      <c r="E269" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="270" spans="1:5">
-      <c r="A270" t="s">
-        <v>273</v>
-      </c>
-      <c r="B270" t="s">
-        <v>280</v>
-      </c>
-      <c r="C270">
-        <v>95.27</v>
-      </c>
-      <c r="D270" t="s">
-        <v>282</v>
-      </c>
-      <c r="E270" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="271" spans="1:5">
-      <c r="A271" t="s">
-        <v>274</v>
-      </c>
-      <c r="B271" t="s">
-        <v>281</v>
-      </c>
-      <c r="C271">
-        <v>116.092</v>
-      </c>
-      <c r="D271" t="s">
-        <v>282</v>
-      </c>
-      <c r="E271" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="272" spans="1:5">
-      <c r="A272" t="s">
-        <v>275</v>
-      </c>
-      <c r="B272" t="s">
-        <v>280</v>
-      </c>
-      <c r="C272">
-        <v>92.81699999999999</v>
-      </c>
-      <c r="D272" t="s">
-        <v>282</v>
-      </c>
-      <c r="E272" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="273" spans="1:5">
-      <c r="A273" t="s">
-        <v>276</v>
-      </c>
-      <c r="B273" t="s">
-        <v>281</v>
-      </c>
-      <c r="C273">
-        <v>140.909</v>
-      </c>
-      <c r="D273" t="s">
-        <v>282</v>
-      </c>
-      <c r="E273" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="274" spans="1:5">
-      <c r="A274" t="s">
-        <v>277</v>
-      </c>
-      <c r="B274" t="s">
-        <v>280</v>
-      </c>
-      <c r="C274">
-        <v>92.861</v>
-      </c>
-      <c r="D274" t="s">
-        <v>282</v>
-      </c>
-      <c r="E274" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="275" spans="1:5">
-      <c r="A275" t="s">
-        <v>278</v>
-      </c>
-      <c r="B275" t="s">
-        <v>281</v>
-      </c>
-      <c r="C275">
-        <v>128.79</v>
-      </c>
-      <c r="D275" t="s">
-        <v>282</v>
-      </c>
-      <c r="E275" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5">
-      <c r="A276" t="s">
-        <v>279</v>
-      </c>
-      <c r="B276" t="s">
-        <v>281</v>
-      </c>
-      <c r="C276">
-        <v>250</v>
-      </c>
-      <c r="D276" t="s">
-        <v>282</v>
-      </c>
-      <c r="E276" t="s">
-        <v>283</v>
+        <v>265</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="266">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="272">
   <si>
     <t>symbol</t>
   </si>
@@ -106,6 +106,9 @@
     <t>ASTUSDT</t>
   </si>
   <si>
+    <t>ATAUSDT</t>
+  </si>
+  <si>
     <t>ATMUSDT</t>
   </si>
   <si>
@@ -226,6 +229,9 @@
     <t>CTKUSDT</t>
   </si>
   <si>
+    <t>CTSIUSDT</t>
+  </si>
+  <si>
     <t>CVCUSDT</t>
   </si>
   <si>
@@ -256,6 +262,9 @@
     <t>DIAUSDT</t>
   </si>
   <si>
+    <t>DODOUSDT</t>
+  </si>
+  <si>
     <t>DOTUSDT</t>
   </si>
   <si>
@@ -538,6 +547,9 @@
     <t>OCEANUSDT</t>
   </si>
   <si>
+    <t>OGNUSDT</t>
+  </si>
+  <si>
     <t>OGUSDT</t>
   </si>
   <si>
@@ -625,6 +637,9 @@
     <t>RADUSDT</t>
   </si>
   <si>
+    <t>RAREUSDT</t>
+  </si>
+  <si>
     <t>RAYUSDT</t>
   </si>
   <si>
@@ -683,6 +698,9 @@
   </si>
   <si>
     <t>SUIUSDT</t>
+  </si>
+  <si>
+    <t>SUPERUSDT</t>
   </si>
   <si>
     <t>SUSHIUSDT</t>
@@ -1169,7 +1187,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E258"/>
+  <dimension ref="A1:E264"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1197,16 +1215,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C2">
-        <v>82.35299999999999</v>
+        <v>83.333</v>
       </c>
       <c r="D2" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E2" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1214,16 +1232,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C3">
-        <v>86.25700000000001</v>
+        <v>87.93600000000001</v>
       </c>
       <c r="D3" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E3" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1231,16 +1249,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C4">
-        <v>90</v>
+        <v>94.444</v>
       </c>
       <c r="D4" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1248,16 +1266,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C5">
-        <v>91.398</v>
+        <v>91.901</v>
       </c>
       <c r="D5" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1265,16 +1283,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C6">
-        <v>84.211</v>
+        <v>84</v>
       </c>
       <c r="D6" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1282,16 +1300,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C7">
-        <v>92.593</v>
+        <v>96.29600000000001</v>
       </c>
       <c r="D7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1299,16 +1317,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C8">
         <v>84.211</v>
       </c>
       <c r="D8" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E8" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1316,16 +1334,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C9">
         <v>99.083</v>
       </c>
       <c r="D9" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E9" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1333,16 +1351,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C10">
-        <v>88.43000000000001</v>
+        <v>81.89</v>
       </c>
       <c r="D10" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E10" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1350,16 +1368,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C11">
-        <v>77.717</v>
+        <v>76.923</v>
       </c>
       <c r="D11" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E11" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1367,16 +1385,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C12">
-        <v>79.154</v>
+        <v>86.477</v>
       </c>
       <c r="D12" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1384,16 +1402,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C13">
-        <v>78.125</v>
+        <v>80.645</v>
       </c>
       <c r="D13" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1401,16 +1419,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C14">
-        <v>83.26000000000001</v>
+        <v>84.018</v>
       </c>
       <c r="D14" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E14" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1418,16 +1436,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C15">
-        <v>82.143</v>
+        <v>85.185</v>
       </c>
       <c r="D15" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E15" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1435,16 +1453,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C16">
-        <v>86.496</v>
+        <v>88.44799999999999</v>
       </c>
       <c r="D16" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E16" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1452,16 +1470,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C17">
         <v>116.509</v>
       </c>
       <c r="D17" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E17" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1469,16 +1487,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C18">
-        <v>79.752</v>
+        <v>82.328</v>
       </c>
       <c r="D18" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E18" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1486,16 +1504,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C19">
-        <v>103.093</v>
+        <v>93.651</v>
       </c>
       <c r="D19" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E19" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1503,16 +1521,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C20">
-        <v>120.989</v>
+        <v>111.469</v>
       </c>
       <c r="D20" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E20" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1520,16 +1538,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C21">
-        <v>78.774</v>
+        <v>79.703</v>
       </c>
       <c r="D21" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E21" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1537,16 +1555,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C22">
-        <v>89.369</v>
+        <v>82.60899999999999</v>
       </c>
       <c r="D22" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E22" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1554,16 +1572,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C23">
-        <v>82.54000000000001</v>
+        <v>82.114</v>
       </c>
       <c r="D23" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E23" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1571,16 +1589,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C24">
-        <v>97.056</v>
+        <v>100.388</v>
       </c>
       <c r="D24" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E24" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1588,16 +1606,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C25">
-        <v>91.925</v>
+        <v>91.69199999999999</v>
       </c>
       <c r="D25" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E25" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1605,16 +1623,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C26">
-        <v>89.474</v>
+        <v>94.444</v>
       </c>
       <c r="D26" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E26" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1622,16 +1640,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C27">
-        <v>88.92100000000001</v>
+        <v>89.474</v>
       </c>
       <c r="D27" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E27" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1639,16 +1657,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C28">
-        <v>83.203</v>
+        <v>91.22799999999999</v>
       </c>
       <c r="D28" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E28" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1656,16 +1674,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C29">
-        <v>86.316</v>
+        <v>84.06399999999999</v>
       </c>
       <c r="D29" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E29" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1673,16 +1691,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C30">
-        <v>80</v>
+        <v>82.223</v>
       </c>
       <c r="D30" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E30" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1690,16 +1708,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C31">
-        <v>84</v>
+        <v>79.41200000000001</v>
       </c>
       <c r="D31" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E31" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1707,16 +1725,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C32">
-        <v>102.19</v>
+        <v>89.691</v>
       </c>
       <c r="D32" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E32" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1724,16 +1742,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C33">
-        <v>82.005</v>
+        <v>100.871</v>
       </c>
       <c r="D33" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E33" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1741,16 +1759,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C34">
-        <v>83.495</v>
+        <v>84.029</v>
       </c>
       <c r="D34" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E34" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1758,16 +1776,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C35">
-        <v>85.185</v>
+        <v>103.787</v>
       </c>
       <c r="D35" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E35" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1775,16 +1793,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C36">
-        <v>82.285</v>
+        <v>82.35299999999999</v>
       </c>
       <c r="D36" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E36" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1792,16 +1810,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C37">
-        <v>79.77500000000001</v>
+        <v>82.95699999999999</v>
       </c>
       <c r="D37" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E37" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1809,16 +1827,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C38">
-        <v>96.667</v>
+        <v>78.491</v>
       </c>
       <c r="D38" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E38" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1826,16 +1844,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C39">
-        <v>78.947</v>
+        <v>95.965</v>
       </c>
       <c r="D39" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E39" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1843,16 +1861,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C40">
-        <v>92.949</v>
+        <v>83.333</v>
       </c>
       <c r="D40" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E40" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1860,16 +1878,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C41">
-        <v>80.374</v>
+        <v>103.655</v>
       </c>
       <c r="D41" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E41" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1877,16 +1895,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C42">
-        <v>74.648</v>
+        <v>77.77800000000001</v>
       </c>
       <c r="D42" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E42" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1894,16 +1912,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C43">
-        <v>85.68600000000001</v>
+        <v>74.286</v>
       </c>
       <c r="D43" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E43" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1911,16 +1929,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C44">
-        <v>82.857</v>
+        <v>89.929</v>
       </c>
       <c r="D44" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E44" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1928,16 +1946,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C45">
-        <v>121.295</v>
+        <v>83.58199999999999</v>
       </c>
       <c r="D45" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E45" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1945,16 +1963,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C46">
-        <v>92.498</v>
+        <v>121.295</v>
       </c>
       <c r="D46" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E46" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1962,16 +1980,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C47">
-        <v>82.178</v>
+        <v>91.926</v>
       </c>
       <c r="D47" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E47" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1979,16 +1997,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C48">
-        <v>80</v>
+        <v>81.818</v>
       </c>
       <c r="D48" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E48" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -1996,16 +2014,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C49">
-        <v>87.66</v>
+        <v>78.333</v>
       </c>
       <c r="D49" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E49" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2013,16 +2031,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C50">
-        <v>77.77800000000001</v>
+        <v>87.473</v>
       </c>
       <c r="D50" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E50" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2030,16 +2048,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C51">
-        <v>120.552</v>
+        <v>82.35299999999999</v>
       </c>
       <c r="D51" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E51" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2047,16 +2065,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C52">
-        <v>90.33499999999999</v>
+        <v>120.552</v>
       </c>
       <c r="D52" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E52" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2064,16 +2082,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C53">
-        <v>93.407</v>
+        <v>90.288</v>
       </c>
       <c r="D53" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E53" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2081,16 +2099,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C54">
-        <v>100</v>
+        <v>80.19799999999999</v>
       </c>
       <c r="D54" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E54" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2098,16 +2116,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C55">
-        <v>86.364</v>
+        <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E55" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2115,16 +2133,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C56">
-        <v>83.366</v>
+        <v>88.095</v>
       </c>
       <c r="D56" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E56" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2132,16 +2150,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C57">
-        <v>76.871</v>
+        <v>85.714</v>
       </c>
       <c r="D57" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E57" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2149,16 +2167,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C58">
-        <v>93.548</v>
+        <v>75.524</v>
       </c>
       <c r="D58" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E58" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2166,16 +2184,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C59">
-        <v>93.333</v>
+        <v>96.774</v>
       </c>
       <c r="D59" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E59" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2183,16 +2201,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C60">
-        <v>82.35299999999999</v>
+        <v>102.381</v>
       </c>
       <c r="D60" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E60" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2200,16 +2218,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C61">
-        <v>89.08199999999999</v>
+        <v>81.25</v>
       </c>
       <c r="D61" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E61" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2217,16 +2235,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C62">
-        <v>75</v>
+        <v>90.268</v>
       </c>
       <c r="D62" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E62" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2234,16 +2252,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C63">
-        <v>79.881</v>
+        <v>79.31</v>
       </c>
       <c r="D63" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E63" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2251,16 +2269,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C64">
-        <v>107.583</v>
+        <v>79.762</v>
       </c>
       <c r="D64" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E64" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2268,16 +2286,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C65">
-        <v>79.06999999999999</v>
+        <v>122.978</v>
       </c>
       <c r="D65" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E65" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2285,16 +2303,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C66">
-        <v>105</v>
+        <v>80.723</v>
       </c>
       <c r="D66" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E66" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2302,16 +2320,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C67">
-        <v>100</v>
+        <v>102.041</v>
       </c>
       <c r="D67" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E67" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2319,16 +2337,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C68">
-        <v>86.154</v>
+        <v>78.947</v>
       </c>
       <c r="D68" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E68" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2336,16 +2354,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C69">
-        <v>78.416</v>
+        <v>82.35299999999999</v>
       </c>
       <c r="D69" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E69" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2353,16 +2371,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C70">
-        <v>107.875</v>
+        <v>92.063</v>
       </c>
       <c r="D70" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E70" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2370,16 +2388,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C71">
-        <v>82.143</v>
+        <v>80.57899999999999</v>
       </c>
       <c r="D71" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E71" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2387,16 +2405,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C72">
-        <v>84.69199999999999</v>
+        <v>106.016</v>
       </c>
       <c r="D72" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E72" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2404,16 +2422,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C73">
-        <v>84.014</v>
+        <v>81.48099999999999</v>
       </c>
       <c r="D73" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E73" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2421,16 +2439,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C74">
-        <v>90.67400000000001</v>
+        <v>87.53700000000001</v>
       </c>
       <c r="D74" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E74" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2438,16 +2456,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C75">
-        <v>128.585</v>
+        <v>86.32899999999999</v>
       </c>
       <c r="D75" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E75" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2455,16 +2473,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C76">
-        <v>101.429</v>
+        <v>93.92400000000001</v>
       </c>
       <c r="D76" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E76" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2472,16 +2490,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C77">
-        <v>81.44199999999999</v>
+        <v>133.105</v>
       </c>
       <c r="D77" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E77" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2489,16 +2507,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C78">
-        <v>27.907</v>
+        <v>97.101</v>
       </c>
       <c r="D78" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E78" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2506,16 +2524,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C79">
-        <v>83.95999999999999</v>
+        <v>83.333</v>
       </c>
       <c r="D79" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E79" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2523,16 +2541,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C80">
-        <v>100.893</v>
+        <v>78.28700000000001</v>
       </c>
       <c r="D80" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E80" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2540,16 +2558,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C81">
-        <v>82.76900000000001</v>
+        <v>25</v>
       </c>
       <c r="D81" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E81" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2557,16 +2575,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C82">
-        <v>88.732</v>
+        <v>83.96899999999999</v>
       </c>
       <c r="D82" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E82" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2574,16 +2592,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C83">
-        <v>81.25</v>
+        <v>98.182</v>
       </c>
       <c r="D83" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E83" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2591,16 +2609,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C84">
-        <v>83.14700000000001</v>
+        <v>79.93899999999999</v>
       </c>
       <c r="D84" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E84" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2608,16 +2626,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C85">
-        <v>84.746</v>
+        <v>92.64700000000001</v>
       </c>
       <c r="D85" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E85" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2625,16 +2643,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C86">
-        <v>115.696</v>
+        <v>81.967</v>
       </c>
       <c r="D86" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E86" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2642,16 +2660,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C87">
-        <v>82.72199999999999</v>
+        <v>85.807</v>
       </c>
       <c r="D87" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E87" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2659,16 +2677,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C88">
-        <v>83.333</v>
+        <v>87.71899999999999</v>
       </c>
       <c r="D88" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E88" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2676,16 +2694,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C89">
-        <v>130.459</v>
+        <v>115.667</v>
       </c>
       <c r="D89" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E89" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2693,16 +2711,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C90">
-        <v>87.05500000000001</v>
+        <v>85.205</v>
       </c>
       <c r="D90" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E90" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2710,16 +2728,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C91">
-        <v>99.083</v>
+        <v>83.333</v>
       </c>
       <c r="D91" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E91" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2727,16 +2745,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C92">
-        <v>83.214</v>
+        <v>130.459</v>
       </c>
       <c r="D92" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E92" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2744,16 +2762,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C93">
-        <v>100</v>
+        <v>86.426</v>
       </c>
       <c r="D93" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E93" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2761,16 +2779,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C94">
-        <v>98.113</v>
+        <v>99.083</v>
       </c>
       <c r="D94" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E94" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2778,16 +2796,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C95">
-        <v>86.535</v>
+        <v>88.179</v>
       </c>
       <c r="D95" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E95" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2795,16 +2813,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C96">
-        <v>79.253</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E96" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2812,16 +2830,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C97">
-        <v>97.143</v>
+        <v>92.453</v>
       </c>
       <c r="D97" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E97" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2829,16 +2847,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C98">
-        <v>81.875</v>
+        <v>83.429</v>
       </c>
       <c r="D98" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E98" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2846,16 +2864,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C99">
-        <v>102.256</v>
+        <v>95.197</v>
       </c>
       <c r="D99" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E99" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2863,16 +2881,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C100">
-        <v>122.435</v>
+        <v>92.208</v>
       </c>
       <c r="D100" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E100" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2880,16 +2898,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C101">
-        <v>120</v>
+        <v>83.66</v>
       </c>
       <c r="D101" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E101" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2897,16 +2915,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C102">
-        <v>131.461</v>
+        <v>97.82599999999999</v>
       </c>
       <c r="D102" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E102" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2914,16 +2932,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C103">
-        <v>80.913</v>
+        <v>130.796</v>
       </c>
       <c r="D103" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E103" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2931,16 +2949,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C104">
-        <v>76.883</v>
+        <v>76.97</v>
       </c>
       <c r="D104" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E104" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2948,16 +2966,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C105">
-        <v>113.478</v>
+        <v>133.735</v>
       </c>
       <c r="D105" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E105" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2965,16 +2983,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C106">
-        <v>80.657</v>
+        <v>78.431</v>
       </c>
       <c r="D106" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E106" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2982,16 +3000,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C107">
-        <v>95.161</v>
+        <v>80.50700000000001</v>
       </c>
       <c r="D107" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E107" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -2999,16 +3017,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C108">
-        <v>87.30200000000001</v>
+        <v>116.93</v>
       </c>
       <c r="D108" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E108" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3016,16 +3034,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C109">
-        <v>77.61199999999999</v>
+        <v>82.813</v>
       </c>
       <c r="D109" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E109" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3033,16 +3051,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C110">
-        <v>76.19</v>
+        <v>95.161</v>
       </c>
       <c r="D110" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E110" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3050,16 +3068,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C111">
-        <v>78.378</v>
+        <v>93.333</v>
       </c>
       <c r="D111" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E111" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3067,16 +3085,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C112">
-        <v>75.90900000000001</v>
+        <v>78.125</v>
       </c>
       <c r="D112" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E112" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3084,16 +3102,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C113">
-        <v>82.075</v>
+        <v>78.68899999999999</v>
       </c>
       <c r="D113" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E113" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3101,16 +3119,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C114">
-        <v>81.524</v>
+        <v>82.857</v>
       </c>
       <c r="D114" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E114" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3118,16 +3136,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C115">
-        <v>80.76900000000001</v>
+        <v>79.51900000000001</v>
       </c>
       <c r="D115" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E115" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3135,16 +3153,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C116">
-        <v>83.333</v>
+        <v>84.669</v>
       </c>
       <c r="D116" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E116" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3152,16 +3170,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C117">
-        <v>84.61499999999999</v>
+        <v>83.16200000000001</v>
       </c>
       <c r="D117" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E117" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3169,16 +3187,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C118">
-        <v>80.315</v>
+        <v>82.80500000000001</v>
       </c>
       <c r="D118" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E118" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3186,16 +3204,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C119">
-        <v>79.435</v>
+        <v>89.655</v>
       </c>
       <c r="D119" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E119" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3203,16 +3221,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C120">
-        <v>82.979</v>
+        <v>86</v>
       </c>
       <c r="D120" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E120" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3220,16 +3238,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C121">
-        <v>91.875</v>
+        <v>96.52200000000001</v>
       </c>
       <c r="D121" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E121" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3237,16 +3255,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C122">
-        <v>92.55200000000001</v>
+        <v>81.78</v>
       </c>
       <c r="D122" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E122" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3254,16 +3272,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C123">
-        <v>81.57899999999999</v>
+        <v>81.25</v>
       </c>
       <c r="D123" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E123" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3271,16 +3289,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C124">
-        <v>82.60899999999999</v>
+        <v>91.667</v>
       </c>
       <c r="D124" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E124" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3288,16 +3306,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C125">
-        <v>90.247</v>
+        <v>96.05200000000001</v>
       </c>
       <c r="D125" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E125" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3305,16 +3323,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C126">
-        <v>82.42100000000001</v>
+        <v>81.081</v>
       </c>
       <c r="D126" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E126" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3322,16 +3340,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C127">
-        <v>76.298</v>
+        <v>68.75</v>
       </c>
       <c r="D127" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E127" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3339,16 +3357,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C128">
-        <v>76.19</v>
+        <v>91.849</v>
       </c>
       <c r="D128" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E128" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3356,16 +3374,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C129">
-        <v>107.407</v>
+        <v>85.542</v>
       </c>
       <c r="D129" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E129" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3373,16 +3391,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C130">
-        <v>103.114</v>
+        <v>74.593</v>
       </c>
       <c r="D130" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E130" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3390,16 +3408,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C131">
-        <v>89.542</v>
+        <v>79.48699999999999</v>
       </c>
       <c r="D131" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E131" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3407,16 +3425,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C132">
-        <v>86.486</v>
+        <v>111.842</v>
       </c>
       <c r="D132" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E132" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3424,16 +3442,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C133">
-        <v>78.61</v>
+        <v>94.96599999999999</v>
       </c>
       <c r="D133" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3441,16 +3459,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C134">
-        <v>81.25</v>
+        <v>91.447</v>
       </c>
       <c r="D134" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E134" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3458,16 +3476,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C135">
-        <v>89.744</v>
+        <v>86.916</v>
       </c>
       <c r="D135" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E135" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3475,16 +3493,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C136">
-        <v>80</v>
+        <v>78.333</v>
       </c>
       <c r="D136" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E136" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3492,16 +3510,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C137">
-        <v>79.871</v>
+        <v>83.333</v>
       </c>
       <c r="D137" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E137" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3509,16 +3527,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C138">
-        <v>76.083</v>
+        <v>97.36799999999999</v>
       </c>
       <c r="D138" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E138" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3526,16 +3544,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C139">
-        <v>93.976</v>
+        <v>72.321</v>
       </c>
       <c r="D139" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E139" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3543,16 +3561,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C140">
-        <v>81.34099999999999</v>
+        <v>92.209</v>
       </c>
       <c r="D140" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E140" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3560,16 +3578,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C141">
-        <v>88.096</v>
+        <v>78.264</v>
       </c>
       <c r="D141" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E141" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3577,16 +3595,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C142">
-        <v>81.006</v>
+        <v>98.806</v>
       </c>
       <c r="D142" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E142" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3594,16 +3612,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C143">
-        <v>86.364</v>
+        <v>87.461</v>
       </c>
       <c r="D143" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E143" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3611,16 +3629,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C144">
-        <v>93.366</v>
+        <v>87.931</v>
       </c>
       <c r="D144" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E144" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3628,16 +3646,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C145">
-        <v>81.18300000000001</v>
+        <v>81.03400000000001</v>
       </c>
       <c r="D145" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E145" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3645,16 +3663,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C146">
-        <v>90.69799999999999</v>
+        <v>88.095</v>
       </c>
       <c r="D146" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E146" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3662,16 +3680,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C147">
-        <v>84.90600000000001</v>
+        <v>70.699</v>
       </c>
       <c r="D147" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E147" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3679,16 +3697,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C148">
-        <v>87.20699999999999</v>
+        <v>80.791</v>
       </c>
       <c r="D148" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E148" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3696,16 +3714,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C149">
-        <v>87.84999999999999</v>
+        <v>70.37</v>
       </c>
       <c r="D149" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E149" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3713,16 +3731,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C150">
-        <v>78.723</v>
+        <v>85.024</v>
       </c>
       <c r="D150" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E150" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3730,16 +3748,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C151">
-        <v>84.211</v>
+        <v>90.753</v>
       </c>
       <c r="D151" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E151" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3747,16 +3765,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C152">
-        <v>90.944</v>
+        <v>106.667</v>
       </c>
       <c r="D152" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E152" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3764,16 +3782,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C153">
-        <v>79.52800000000001</v>
+        <v>81.48099999999999</v>
       </c>
       <c r="D153" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E153" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3781,16 +3799,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C154">
-        <v>85.50700000000001</v>
+        <v>86.486</v>
       </c>
       <c r="D154" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E154" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3798,16 +3816,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C155">
-        <v>72.881</v>
+        <v>91.935</v>
       </c>
       <c r="D155" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E155" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3815,16 +3833,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C156">
-        <v>81.57899999999999</v>
+        <v>80.328</v>
       </c>
       <c r="D156" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E156" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3832,16 +3850,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C157">
-        <v>111.476</v>
+        <v>84.848</v>
       </c>
       <c r="D157" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E157" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3849,16 +3867,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C158">
-        <v>89.378</v>
+        <v>76.786</v>
       </c>
       <c r="D158" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E158" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3866,16 +3884,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C159">
-        <v>23.81</v>
+        <v>84.02800000000001</v>
       </c>
       <c r="D159" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E159" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3883,16 +3901,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C160">
-        <v>79.40300000000001</v>
+        <v>106.83</v>
       </c>
       <c r="D160" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E160" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3900,16 +3918,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C161">
-        <v>83.81699999999999</v>
+        <v>105.172</v>
       </c>
       <c r="D161" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E161" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3917,16 +3935,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C162">
-        <v>64.34099999999999</v>
+        <v>23.256</v>
       </c>
       <c r="D162" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E162" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3934,16 +3952,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C163">
-        <v>85.825</v>
+        <v>82.355</v>
       </c>
       <c r="D163" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E163" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3951,16 +3969,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C164">
-        <v>82.184</v>
+        <v>85.532</v>
       </c>
       <c r="D164" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E164" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3968,16 +3986,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C165">
-        <v>87.742</v>
+        <v>64.34099999999999</v>
       </c>
       <c r="D165" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E165" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3985,16 +4003,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C166">
-        <v>82.09999999999999</v>
+        <v>74.492</v>
       </c>
       <c r="D166" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E166" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4002,16 +4020,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C167">
-        <v>81.75700000000001</v>
+        <v>84.81999999999999</v>
       </c>
       <c r="D167" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E167" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4019,16 +4037,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C168">
-        <v>110</v>
+        <v>89.79600000000001</v>
       </c>
       <c r="D168" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E168" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4036,16 +4054,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C169">
-        <v>72</v>
+        <v>79.96299999999999</v>
       </c>
       <c r="D169" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E169" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4053,16 +4071,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C170">
-        <v>96.667</v>
+        <v>82.27</v>
       </c>
       <c r="D170" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E170" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4070,16 +4088,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C171">
-        <v>90.01600000000001</v>
+        <v>151.282</v>
       </c>
       <c r="D171" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E171" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4087,16 +4105,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C172">
-        <v>78.788</v>
+        <v>95.833</v>
       </c>
       <c r="D172" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E172" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4104,16 +4122,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C173">
-        <v>77.083</v>
+        <v>90.756</v>
       </c>
       <c r="D173" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E173" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4121,16 +4139,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C174">
-        <v>85</v>
+        <v>83.333</v>
       </c>
       <c r="D174" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E174" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4138,16 +4156,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C175">
-        <v>79.864</v>
+        <v>84.384</v>
       </c>
       <c r="D175" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E175" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4155,16 +4173,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C176">
-        <v>80</v>
+        <v>77.863</v>
       </c>
       <c r="D176" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E176" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4172,16 +4190,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C177">
-        <v>89.34399999999999</v>
+        <v>82.60899999999999</v>
       </c>
       <c r="D177" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E177" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4189,16 +4207,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C178">
-        <v>81.212</v>
+        <v>92.30800000000001</v>
       </c>
       <c r="D178" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E178" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4206,16 +4224,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C179">
-        <v>100.093</v>
+        <v>80.714</v>
       </c>
       <c r="D179" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E179" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4223,16 +4241,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C180">
-        <v>104.667</v>
+        <v>80.76000000000001</v>
       </c>
       <c r="D180" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E180" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4240,16 +4258,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C181">
-        <v>85.714</v>
+        <v>98.684</v>
       </c>
       <c r="D181" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E181" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4257,16 +4275,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C182">
-        <v>140.909</v>
+        <v>81.761</v>
       </c>
       <c r="D182" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E182" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4274,16 +4292,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C183">
-        <v>88.411</v>
+        <v>100.466</v>
       </c>
       <c r="D183" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E183" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4291,16 +4309,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C184">
-        <v>85.10599999999999</v>
+        <v>122.648</v>
       </c>
       <c r="D184" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E184" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4308,16 +4326,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C185">
-        <v>153.333</v>
+        <v>85.79900000000001</v>
       </c>
       <c r="D185" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E185" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4325,16 +4343,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C186">
-        <v>34.783</v>
+        <v>147.619</v>
       </c>
       <c r="D186" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E186" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4342,16 +4360,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C187">
-        <v>93.636</v>
+        <v>82.54000000000001</v>
       </c>
       <c r="D187" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E187" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4359,16 +4377,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C188">
-        <v>142.857</v>
+        <v>93.333</v>
       </c>
       <c r="D188" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E188" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4376,16 +4394,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C189">
-        <v>89.274</v>
+        <v>153.333</v>
       </c>
       <c r="D189" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E189" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4393,16 +4411,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C190">
-        <v>81.25</v>
+        <v>31.818</v>
       </c>
       <c r="D190" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E190" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4410,16 +4428,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C191">
-        <v>85.099</v>
+        <v>99.038</v>
       </c>
       <c r="D191" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E191" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4427,16 +4445,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C192">
-        <v>91.379</v>
+        <v>162.963</v>
       </c>
       <c r="D192" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E192" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4444,16 +4462,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C193">
-        <v>93.407</v>
+        <v>94.60299999999999</v>
       </c>
       <c r="D193" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E193" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4461,16 +4479,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C194">
-        <v>83.562</v>
+        <v>82.22199999999999</v>
       </c>
       <c r="D194" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E194" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4478,16 +4496,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C195">
-        <v>84.07599999999999</v>
+        <v>85.63500000000001</v>
       </c>
       <c r="D195" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E195" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4495,16 +4513,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C196">
-        <v>92.029</v>
+        <v>83.607</v>
       </c>
       <c r="D196" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E196" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4512,16 +4530,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C197">
-        <v>78.428</v>
+        <v>93.843</v>
       </c>
       <c r="D197" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E197" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4529,16 +4547,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C198">
-        <v>90</v>
+        <v>80.822</v>
       </c>
       <c r="D198" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E198" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4546,16 +4564,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C199">
-        <v>93.19</v>
+        <v>81.24299999999999</v>
       </c>
       <c r="D199" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E199" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4563,16 +4581,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C200">
-        <v>142.657</v>
+        <v>92.952</v>
       </c>
       <c r="D200" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E200" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4580,16 +4598,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C201">
-        <v>80.488</v>
+        <v>82.979</v>
       </c>
       <c r="D201" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E201" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4597,16 +4615,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C202">
-        <v>89.616</v>
+        <v>100</v>
       </c>
       <c r="D202" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E202" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4614,16 +4632,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C203">
-        <v>97.443</v>
+        <v>95.539</v>
       </c>
       <c r="D203" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E203" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4631,16 +4649,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C204">
-        <v>84.828</v>
+        <v>90</v>
       </c>
       <c r="D204" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E204" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4648,16 +4666,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C205">
-        <v>81.226</v>
+        <v>139.31</v>
       </c>
       <c r="D205" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E205" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4665,16 +4683,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C206">
-        <v>86.842</v>
+        <v>82.051</v>
       </c>
       <c r="D206" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E206" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4682,16 +4700,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C207">
-        <v>90.595</v>
+        <v>87.77</v>
       </c>
       <c r="D207" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E207" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4699,16 +4717,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C208">
-        <v>82.051</v>
+        <v>90.709</v>
       </c>
       <c r="D208" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E208" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4716,16 +4734,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C209">
-        <v>92.22199999999999</v>
+        <v>87.753</v>
       </c>
       <c r="D209" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E209" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4733,16 +4751,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C210">
-        <v>89.157</v>
+        <v>80.642</v>
       </c>
       <c r="D210" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E210" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4750,16 +4768,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C211">
-        <v>89.29300000000001</v>
+        <v>90.541</v>
       </c>
       <c r="D211" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E211" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4767,16 +4785,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C212">
-        <v>108.554</v>
+        <v>91.81999999999999</v>
       </c>
       <c r="D212" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E212" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4784,16 +4802,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C213">
-        <v>117.017</v>
+        <v>86.667</v>
       </c>
       <c r="D213" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E213" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4801,16 +4819,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C214">
-        <v>86.111</v>
+        <v>94.18600000000001</v>
       </c>
       <c r="D214" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E214" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4818,16 +4836,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C215">
-        <v>89.286</v>
+        <v>89.024</v>
       </c>
       <c r="D215" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E215" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4835,16 +4853,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C216">
-        <v>80.899</v>
+        <v>90.717</v>
       </c>
       <c r="D216" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E216" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4852,16 +4870,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C217">
-        <v>88.199</v>
+        <v>99.066</v>
       </c>
       <c r="D217" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E217" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4869,16 +4887,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C218">
-        <v>116.181</v>
+        <v>119.754</v>
       </c>
       <c r="D218" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E218" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4886,16 +4904,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C219">
-        <v>109.877</v>
+        <v>83.333</v>
       </c>
       <c r="D219" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E219" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4903,16 +4921,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C220">
-        <v>84.46599999999999</v>
+        <v>87.952</v>
       </c>
       <c r="D220" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E220" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4920,16 +4938,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C221">
-        <v>76.364</v>
+        <v>83.529</v>
       </c>
       <c r="D221" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E221" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4937,16 +4955,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C222">
-        <v>83.43899999999999</v>
+        <v>88.199</v>
       </c>
       <c r="D222" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E222" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4954,16 +4972,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C223">
-        <v>76.471</v>
+        <v>120.137</v>
       </c>
       <c r="D223" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E223" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4971,16 +4989,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C224">
-        <v>87.834</v>
+        <v>107.643</v>
       </c>
       <c r="D224" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E224" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4988,16 +5006,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C225">
-        <v>84.745</v>
+        <v>85.926</v>
       </c>
       <c r="D225" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E225" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5005,16 +5023,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C226">
-        <v>90.411</v>
+        <v>84.236</v>
       </c>
       <c r="D226" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E226" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5022,16 +5040,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C227">
-        <v>86.41200000000001</v>
+        <v>79.245</v>
       </c>
       <c r="D227" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E227" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5039,16 +5057,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C228">
-        <v>101</v>
+        <v>76.821</v>
       </c>
       <c r="D228" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E228" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5056,16 +5074,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C229">
-        <v>82.92700000000001</v>
+        <v>90.625</v>
       </c>
       <c r="D229" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E229" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5073,16 +5091,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C230">
-        <v>117.308</v>
+        <v>83.036</v>
       </c>
       <c r="D230" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E230" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5090,16 +5108,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C231">
-        <v>80.738</v>
+        <v>82.38500000000001</v>
       </c>
       <c r="D231" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E231" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5107,16 +5125,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C232">
-        <v>71.622</v>
+        <v>103.03</v>
       </c>
       <c r="D232" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E232" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5124,16 +5142,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C233">
-        <v>84.751</v>
+        <v>84.206</v>
       </c>
       <c r="D233" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E233" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5141,16 +5159,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>263</v>
+        <v>269</v>
       </c>
       <c r="C234">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="D234" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E234" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5158,16 +5176,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="C235">
-        <v>100</v>
+        <v>88.158</v>
       </c>
       <c r="D235" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E235" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5175,16 +5193,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C236">
-        <v>80</v>
+        <v>95.238</v>
       </c>
       <c r="D236" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E236" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5192,16 +5210,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C237">
-        <v>81.818</v>
+        <v>81.79900000000001</v>
       </c>
       <c r="D237" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E237" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5209,16 +5227,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C238">
-        <v>88.571</v>
+        <v>69</v>
       </c>
       <c r="D238" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E238" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5226,16 +5244,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C239">
-        <v>86.842</v>
+        <v>84.803</v>
       </c>
       <c r="D239" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E239" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5243,16 +5261,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C240">
-        <v>93.548</v>
+        <v>100</v>
       </c>
       <c r="D240" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E240" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5260,16 +5278,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C241">
-        <v>81.718</v>
+        <v>100</v>
       </c>
       <c r="D241" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E241" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5277,16 +5295,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C242">
-        <v>87.07899999999999</v>
+        <v>80</v>
       </c>
       <c r="D242" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E242" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5294,16 +5312,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>262</v>
+        <v>269</v>
       </c>
       <c r="C243">
-        <v>90.511</v>
+        <v>100</v>
       </c>
       <c r="D243" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E243" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5311,16 +5329,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C244">
-        <v>83.675</v>
+        <v>90.291</v>
       </c>
       <c r="D244" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E244" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5328,16 +5346,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C245">
-        <v>83.56</v>
+        <v>97.22199999999999</v>
       </c>
       <c r="D245" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E245" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5345,16 +5363,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C246">
-        <v>87.238</v>
+        <v>93.548</v>
       </c>
       <c r="D246" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E246" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5362,16 +5380,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C247">
-        <v>80.702</v>
+        <v>84.527</v>
       </c>
       <c r="D247" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E247" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5379,16 +5397,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C248">
-        <v>75.676</v>
+        <v>86.533</v>
       </c>
       <c r="D248" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E248" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5396,16 +5414,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C249">
-        <v>98.343</v>
+        <v>90.41200000000001</v>
       </c>
       <c r="D249" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E249" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5413,16 +5431,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C250">
-        <v>84.324</v>
+        <v>88.879</v>
       </c>
       <c r="D250" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E250" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5430,16 +5448,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C251">
-        <v>91.304</v>
+        <v>78.73699999999999</v>
       </c>
       <c r="D251" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E251" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5447,16 +5465,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C252">
-        <v>81.169</v>
+        <v>87.684</v>
       </c>
       <c r="D252" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E252" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5464,16 +5482,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C253">
-        <v>96.27</v>
+        <v>81.48099999999999</v>
       </c>
       <c r="D253" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E253" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5481,16 +5499,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C254">
-        <v>87.218</v>
+        <v>80</v>
       </c>
       <c r="D254" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E254" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5498,16 +5516,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C255">
-        <v>88.42100000000001</v>
+        <v>98.343</v>
       </c>
       <c r="D255" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E255" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5515,16 +5533,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C256">
-        <v>84.62</v>
+        <v>87.571</v>
       </c>
       <c r="D256" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E256" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5532,16 +5550,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>262</v>
+        <v>268</v>
       </c>
       <c r="C257">
-        <v>81.39100000000001</v>
+        <v>92.53700000000001</v>
       </c>
       <c r="D257" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
       <c r="E257" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5549,16 +5567,118 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
+        <v>268</v>
+      </c>
+      <c r="C258">
+        <v>84.56399999999999</v>
+      </c>
+      <c r="D258" t="s">
+        <v>270</v>
+      </c>
+      <c r="E258" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5">
+      <c r="A259" t="s">
         <v>262</v>
       </c>
-      <c r="C258">
-        <v>82.727</v>
-      </c>
-      <c r="D258" t="s">
+      <c r="B259" t="s">
+        <v>268</v>
+      </c>
+      <c r="C259">
+        <v>95.113</v>
+      </c>
+      <c r="D259" t="s">
+        <v>270</v>
+      </c>
+      <c r="E259" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5">
+      <c r="A260" t="s">
+        <v>263</v>
+      </c>
+      <c r="B260" t="s">
+        <v>268</v>
+      </c>
+      <c r="C260">
+        <v>87.78700000000001</v>
+      </c>
+      <c r="D260" t="s">
+        <v>270</v>
+      </c>
+      <c r="E260" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5">
+      <c r="A261" t="s">
         <v>264</v>
       </c>
-      <c r="E258" t="s">
+      <c r="B261" t="s">
+        <v>268</v>
+      </c>
+      <c r="C261">
+        <v>98.925</v>
+      </c>
+      <c r="D261" t="s">
+        <v>270</v>
+      </c>
+      <c r="E261" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
         <v>265</v>
+      </c>
+      <c r="B262" t="s">
+        <v>268</v>
+      </c>
+      <c r="C262">
+        <v>84.32599999999999</v>
+      </c>
+      <c r="D262" t="s">
+        <v>270</v>
+      </c>
+      <c r="E262" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5">
+      <c r="A263" t="s">
+        <v>266</v>
+      </c>
+      <c r="B263" t="s">
+        <v>268</v>
+      </c>
+      <c r="C263">
+        <v>78.53</v>
+      </c>
+      <c r="D263" t="s">
+        <v>270</v>
+      </c>
+      <c r="E263" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5">
+      <c r="A264" t="s">
+        <v>267</v>
+      </c>
+      <c r="B264" t="s">
+        <v>268</v>
+      </c>
+      <c r="C264">
+        <v>64.179</v>
+      </c>
+      <c r="D264" t="s">
+        <v>270</v>
+      </c>
+      <c r="E264" t="s">
+        <v>271</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="269">
   <si>
     <t>symbol</t>
   </si>
@@ -229,9 +229,6 @@
     <t>CTKUSDT</t>
   </si>
   <si>
-    <t>CTSIUSDT</t>
-  </si>
-  <si>
     <t>CVCUSDT</t>
   </si>
   <si>
@@ -547,9 +544,6 @@
     <t>OCEANUSDT</t>
   </si>
   <si>
-    <t>OGNUSDT</t>
-  </si>
-  <si>
     <t>OGUSDT</t>
   </si>
   <si>
@@ -700,9 +694,6 @@
     <t>SUIUSDT</t>
   </si>
   <si>
-    <t>SUPERUSDT</t>
-  </si>
-  <si>
     <t>SUSHIUSDT</t>
   </si>
   <si>
@@ -820,10 +811,10 @@
     <t>ZRXUSDT</t>
   </si>
   <si>
+    <t>Up</t>
+  </si>
+  <si>
     <t>Down</t>
-  </si>
-  <si>
-    <t>Up</t>
   </si>
   <si>
     <t>10 days</t>
@@ -1187,7 +1178,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E264"/>
+  <dimension ref="A1:E261"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1215,16 +1206,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C2">
-        <v>83.333</v>
+        <v>101.695</v>
       </c>
       <c r="D2" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E2" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1232,16 +1223,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C3">
-        <v>87.93600000000001</v>
+        <v>102.104</v>
       </c>
       <c r="D3" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E3" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1249,16 +1240,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C4">
-        <v>94.444</v>
+        <v>105.263</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E4" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1266,16 +1257,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C5">
-        <v>91.901</v>
+        <v>107.663</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E5" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1283,16 +1274,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C6">
-        <v>84</v>
+        <v>98.529</v>
       </c>
       <c r="D6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1300,16 +1291,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C7">
-        <v>96.29600000000001</v>
+        <v>103.846</v>
       </c>
       <c r="D7" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E7" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1317,16 +1308,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C8">
-        <v>84.211</v>
+        <v>125</v>
       </c>
       <c r="D8" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1334,16 +1325,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C9">
         <v>99.083</v>
       </c>
       <c r="D9" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E9" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1351,16 +1342,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C10">
-        <v>81.89</v>
+        <v>102.542</v>
       </c>
       <c r="D10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E10" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1368,16 +1359,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C11">
-        <v>76.923</v>
+        <v>108.219</v>
       </c>
       <c r="D11" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1385,16 +1376,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C12">
-        <v>86.477</v>
+        <v>98.779</v>
       </c>
       <c r="D12" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1402,16 +1393,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C13">
-        <v>80.645</v>
+        <v>100</v>
       </c>
       <c r="D13" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E13" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1419,16 +1410,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C14">
-        <v>84.018</v>
+        <v>98.52200000000001</v>
       </c>
       <c r="D14" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E14" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1436,16 +1427,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C15">
-        <v>85.185</v>
+        <v>104</v>
       </c>
       <c r="D15" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1453,16 +1444,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C16">
-        <v>88.44799999999999</v>
+        <v>101.619</v>
       </c>
       <c r="D16" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E16" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1470,16 +1461,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C17">
         <v>116.509</v>
       </c>
       <c r="D17" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E17" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1487,16 +1478,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C18">
-        <v>82.328</v>
+        <v>100</v>
       </c>
       <c r="D18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1504,16 +1495,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C19">
-        <v>93.651</v>
+        <v>119.585</v>
       </c>
       <c r="D19" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E19" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1521,16 +1512,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C20">
-        <v>111.469</v>
+        <v>127.37</v>
       </c>
       <c r="D20" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E20" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1538,16 +1529,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C21">
-        <v>79.703</v>
+        <v>99.425</v>
       </c>
       <c r="D21" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E21" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1555,16 +1546,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C22">
-        <v>82.60899999999999</v>
+        <v>100</v>
       </c>
       <c r="D22" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E22" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1572,16 +1563,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C23">
-        <v>82.114</v>
+        <v>107.767</v>
       </c>
       <c r="D23" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E23" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1589,16 +1580,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C24">
-        <v>100.388</v>
+        <v>111.938</v>
       </c>
       <c r="D24" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E24" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1606,16 +1597,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C25">
-        <v>91.69199999999999</v>
+        <v>105.822</v>
       </c>
       <c r="D25" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E25" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1623,16 +1614,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C26">
-        <v>94.444</v>
+        <v>105.882</v>
       </c>
       <c r="D26" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E26" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1640,16 +1631,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C27">
-        <v>89.474</v>
+        <v>105.556</v>
       </c>
       <c r="D27" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E27" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1657,16 +1648,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C28">
-        <v>91.22799999999999</v>
+        <v>108.17</v>
       </c>
       <c r="D28" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E28" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1674,16 +1665,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C29">
-        <v>84.06399999999999</v>
+        <v>99.593</v>
       </c>
       <c r="D29" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E29" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1691,16 +1682,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C30">
-        <v>82.223</v>
+        <v>104.204</v>
       </c>
       <c r="D30" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E30" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1708,16 +1699,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C31">
-        <v>79.41200000000001</v>
+        <v>103.448</v>
       </c>
       <c r="D31" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E31" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1725,16 +1716,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C32">
-        <v>89.691</v>
+        <v>109.524</v>
       </c>
       <c r="D32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E32" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1742,16 +1733,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C33">
-        <v>100.871</v>
+        <v>99.333</v>
       </c>
       <c r="D33" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E33" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1759,16 +1750,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C34">
-        <v>84.029</v>
+        <v>103.509</v>
       </c>
       <c r="D34" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E34" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1776,16 +1767,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C35">
-        <v>103.787</v>
+        <v>161.793</v>
       </c>
       <c r="D35" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E35" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1793,16 +1784,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C36">
-        <v>82.35299999999999</v>
+        <v>109.524</v>
       </c>
       <c r="D36" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E36" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1810,16 +1801,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C37">
-        <v>82.95699999999999</v>
+        <v>101.346</v>
       </c>
       <c r="D37" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E37" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1827,16 +1818,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C38">
-        <v>78.491</v>
+        <v>99.554</v>
       </c>
       <c r="D38" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E38" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1844,16 +1835,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C39">
-        <v>95.965</v>
+        <v>107.67</v>
       </c>
       <c r="D39" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E39" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1861,16 +1852,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C40">
-        <v>83.333</v>
+        <v>112.903</v>
       </c>
       <c r="D40" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E40" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1878,16 +1869,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C41">
-        <v>103.655</v>
+        <v>121.162</v>
       </c>
       <c r="D41" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E41" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1895,16 +1886,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C42">
-        <v>77.77800000000001</v>
+        <v>101.064</v>
       </c>
       <c r="D42" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E42" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1912,16 +1903,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C43">
-        <v>74.286</v>
+        <v>96.61</v>
       </c>
       <c r="D43" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E43" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1929,16 +1920,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C44">
-        <v>89.929</v>
+        <v>108.361</v>
       </c>
       <c r="D44" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E44" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1946,16 +1937,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C45">
-        <v>83.58199999999999</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E45" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1963,16 +1954,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C46">
         <v>121.295</v>
       </c>
       <c r="D46" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E46" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1980,16 +1971,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C47">
-        <v>91.926</v>
+        <v>103.971</v>
       </c>
       <c r="D47" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E47" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1997,16 +1988,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C48">
-        <v>81.818</v>
+        <v>103.448</v>
       </c>
       <c r="D48" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E48" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2014,16 +2005,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C49">
-        <v>78.333</v>
+        <v>101.724</v>
       </c>
       <c r="D49" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E49" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2031,16 +2022,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C50">
-        <v>87.473</v>
+        <v>101.577</v>
       </c>
       <c r="D50" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E50" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2048,16 +2039,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C51">
-        <v>82.35299999999999</v>
+        <v>107.143</v>
       </c>
       <c r="D51" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E51" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2065,16 +2056,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C52">
         <v>120.552</v>
       </c>
       <c r="D52" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E52" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2082,16 +2073,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C53">
-        <v>90.288</v>
+        <v>103.153</v>
       </c>
       <c r="D53" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E53" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2099,16 +2090,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C54">
-        <v>80.19799999999999</v>
+        <v>100</v>
       </c>
       <c r="D54" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E54" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2116,16 +2107,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C55">
         <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E55" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2133,16 +2124,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C56">
-        <v>88.095</v>
+        <v>105.128</v>
       </c>
       <c r="D56" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E56" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2150,16 +2141,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C57">
-        <v>85.714</v>
+        <v>107.346</v>
       </c>
       <c r="D57" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E57" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2167,16 +2158,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C58">
-        <v>75.524</v>
+        <v>105.645</v>
       </c>
       <c r="D58" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E58" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2184,16 +2175,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C59">
-        <v>96.774</v>
+        <v>100</v>
       </c>
       <c r="D59" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E59" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2201,16 +2192,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C60">
-        <v>102.381</v>
+        <v>128.947</v>
       </c>
       <c r="D60" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E60" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2218,16 +2209,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C61">
-        <v>81.25</v>
+        <v>107.143</v>
       </c>
       <c r="D61" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E61" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2235,16 +2226,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C62">
-        <v>90.268</v>
+        <v>106.383</v>
       </c>
       <c r="D62" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E62" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2252,16 +2243,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C63">
-        <v>79.31</v>
+        <v>106.122</v>
       </c>
       <c r="D63" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E63" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2269,16 +2260,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C64">
-        <v>79.762</v>
+        <v>99.509</v>
       </c>
       <c r="D64" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E64" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2286,16 +2277,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C65">
-        <v>122.978</v>
+        <v>138.513</v>
       </c>
       <c r="D65" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E65" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2303,16 +2294,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C66">
-        <v>80.723</v>
+        <v>104.348</v>
       </c>
       <c r="D66" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E66" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2320,16 +2311,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C67">
-        <v>102.041</v>
+        <v>93.878</v>
       </c>
       <c r="D67" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E67" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2337,16 +2328,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C68">
-        <v>78.947</v>
+        <v>214.286</v>
       </c>
       <c r="D68" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E68" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2354,16 +2345,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C69">
-        <v>82.35299999999999</v>
+        <v>110.714</v>
       </c>
       <c r="D69" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E69" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2371,16 +2362,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C70">
-        <v>92.063</v>
+        <v>97.494</v>
       </c>
       <c r="D70" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E70" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2388,16 +2379,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C71">
-        <v>80.57899999999999</v>
+        <v>130.201</v>
       </c>
       <c r="D71" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E71" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2405,16 +2396,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C72">
-        <v>106.016</v>
+        <v>108.333</v>
       </c>
       <c r="D72" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E72" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2422,16 +2413,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C73">
-        <v>81.48099999999999</v>
+        <v>103.877</v>
       </c>
       <c r="D73" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E73" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2439,16 +2430,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C74">
-        <v>87.53700000000001</v>
+        <v>105.435</v>
       </c>
       <c r="D74" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E74" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2456,16 +2447,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C75">
-        <v>86.32899999999999</v>
+        <v>103.047</v>
       </c>
       <c r="D75" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E75" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2473,16 +2464,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C76">
-        <v>93.92400000000001</v>
+        <v>133.234</v>
       </c>
       <c r="D76" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E76" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2490,16 +2481,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C77">
-        <v>133.105</v>
+        <v>107.463</v>
       </c>
       <c r="D77" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E77" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2507,16 +2498,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C78">
-        <v>97.101</v>
+        <v>107.692</v>
       </c>
       <c r="D78" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E78" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2524,16 +2515,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C79">
-        <v>83.333</v>
+        <v>98.512</v>
       </c>
       <c r="D79" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E79" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2541,16 +2532,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C80">
-        <v>78.28700000000001</v>
+        <v>25.641</v>
       </c>
       <c r="D80" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E80" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2558,16 +2549,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C81">
-        <v>25</v>
+        <v>101.676</v>
       </c>
       <c r="D81" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E81" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2575,16 +2566,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C82">
-        <v>83.96899999999999</v>
+        <v>115.686</v>
       </c>
       <c r="D82" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E82" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2592,16 +2583,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C83">
-        <v>98.182</v>
+        <v>98.625</v>
       </c>
       <c r="D83" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E83" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2609,16 +2600,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C84">
-        <v>79.93899999999999</v>
+        <v>108.197</v>
       </c>
       <c r="D84" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E84" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2626,16 +2617,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C85">
-        <v>92.64700000000001</v>
+        <v>98.148</v>
       </c>
       <c r="D85" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E85" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2643,16 +2634,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C86">
-        <v>81.967</v>
+        <v>102.626</v>
       </c>
       <c r="D86" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E86" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2660,16 +2651,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C87">
-        <v>85.807</v>
+        <v>106.863</v>
       </c>
       <c r="D87" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E87" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2677,16 +2668,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C88">
-        <v>87.71899999999999</v>
+        <v>114.876</v>
       </c>
       <c r="D88" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E88" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2694,16 +2685,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C89">
-        <v>115.667</v>
+        <v>102.441</v>
       </c>
       <c r="D89" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E89" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2711,16 +2702,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C90">
-        <v>85.205</v>
+        <v>83.333</v>
       </c>
       <c r="D90" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E90" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2728,16 +2719,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C91">
-        <v>83.333</v>
+        <v>130.459</v>
       </c>
       <c r="D91" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E91" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2745,16 +2736,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C92">
-        <v>130.459</v>
+        <v>100.064</v>
       </c>
       <c r="D92" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E92" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2762,16 +2753,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C93">
-        <v>86.426</v>
+        <v>99.083</v>
       </c>
       <c r="D93" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E93" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2779,16 +2770,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C94">
-        <v>99.083</v>
+        <v>101.716</v>
       </c>
       <c r="D94" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E94" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2796,16 +2787,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C95">
-        <v>88.179</v>
+        <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E95" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2813,16 +2804,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C96">
-        <v>100</v>
+        <v>84.848</v>
       </c>
       <c r="D96" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E96" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2830,16 +2821,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C97">
-        <v>92.453</v>
+        <v>104.466</v>
       </c>
       <c r="D97" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E97" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2847,16 +2838,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C98">
-        <v>83.429</v>
+        <v>102.97</v>
       </c>
       <c r="D98" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E98" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2864,16 +2855,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C99">
-        <v>95.197</v>
+        <v>119.118</v>
       </c>
       <c r="D99" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E99" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2881,16 +2872,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C100">
-        <v>92.208</v>
+        <v>105.147</v>
       </c>
       <c r="D100" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E100" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2898,16 +2889,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C101">
-        <v>83.66</v>
+        <v>84.756</v>
       </c>
       <c r="D101" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E101" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2915,16 +2906,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C102">
-        <v>97.82599999999999</v>
+        <v>131.295</v>
       </c>
       <c r="D102" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E102" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2932,16 +2923,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C103">
-        <v>130.796</v>
+        <v>46.429</v>
       </c>
       <c r="D103" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E103" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2949,16 +2940,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C104">
-        <v>76.97</v>
+        <v>134.118</v>
       </c>
       <c r="D104" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E104" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2966,16 +2957,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C105">
-        <v>133.735</v>
+        <v>105.714</v>
       </c>
       <c r="D105" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E105" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2983,16 +2974,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C106">
-        <v>78.431</v>
+        <v>97.38800000000001</v>
       </c>
       <c r="D106" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E106" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -3000,16 +2991,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C107">
-        <v>80.50700000000001</v>
+        <v>109.252</v>
       </c>
       <c r="D107" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E107" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3017,16 +3008,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C108">
-        <v>116.93</v>
+        <v>104.748</v>
       </c>
       <c r="D108" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E108" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3034,16 +3025,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C109">
-        <v>82.813</v>
+        <v>95.161</v>
       </c>
       <c r="D109" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E109" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3051,16 +3042,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C110">
-        <v>95.161</v>
+        <v>117.544</v>
       </c>
       <c r="D110" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E110" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3068,16 +3059,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C111">
-        <v>93.333</v>
+        <v>93.22</v>
       </c>
       <c r="D111" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E111" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3085,16 +3076,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C112">
-        <v>78.125</v>
+        <v>100</v>
       </c>
       <c r="D112" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E112" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3102,16 +3093,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C113">
-        <v>78.68899999999999</v>
+        <v>109.677</v>
       </c>
       <c r="D113" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E113" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3119,16 +3110,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C114">
-        <v>82.857</v>
+        <v>95.254</v>
       </c>
       <c r="D114" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E114" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3136,16 +3127,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C115">
-        <v>79.51900000000001</v>
+        <v>102.763</v>
       </c>
       <c r="D115" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E115" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3153,16 +3144,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C116">
-        <v>84.669</v>
+        <v>101.705</v>
       </c>
       <c r="D116" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E116" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3170,16 +3161,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C117">
-        <v>83.16200000000001</v>
+        <v>104.04</v>
       </c>
       <c r="D117" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E117" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3187,16 +3178,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C118">
-        <v>82.80500000000001</v>
+        <v>111.538</v>
       </c>
       <c r="D118" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E118" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3204,16 +3195,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C119">
-        <v>89.655</v>
+        <v>106.977</v>
       </c>
       <c r="D119" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E119" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3221,16 +3212,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C120">
-        <v>86</v>
+        <v>146.237</v>
       </c>
       <c r="D120" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E120" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3238,16 +3229,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C121">
-        <v>96.52200000000001</v>
+        <v>104.478</v>
       </c>
       <c r="D121" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E121" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3255,16 +3246,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C122">
-        <v>81.78</v>
+        <v>110</v>
       </c>
       <c r="D122" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E122" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3272,16 +3263,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C123">
-        <v>81.25</v>
+        <v>117.91</v>
       </c>
       <c r="D123" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E123" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3289,16 +3280,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C124">
-        <v>91.667</v>
+        <v>152.703</v>
       </c>
       <c r="D124" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E124" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3306,16 +3297,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C125">
-        <v>96.05200000000001</v>
+        <v>116.129</v>
       </c>
       <c r="D125" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E125" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3323,16 +3314,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C126">
-        <v>81.081</v>
+        <v>69.364</v>
       </c>
       <c r="D126" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E126" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3340,16 +3331,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C127">
-        <v>68.75</v>
+        <v>103.675</v>
       </c>
       <c r="D127" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E127" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3357,16 +3348,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C128">
-        <v>91.849</v>
+        <v>106.757</v>
       </c>
       <c r="D128" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E128" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3374,16 +3365,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C129">
-        <v>85.542</v>
+        <v>94.259</v>
       </c>
       <c r="D129" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E129" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3391,16 +3382,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C130">
-        <v>74.593</v>
+        <v>112.121</v>
       </c>
       <c r="D130" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E130" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3408,16 +3399,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C131">
-        <v>79.48699999999999</v>
+        <v>105.376</v>
       </c>
       <c r="D131" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E131" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3425,16 +3416,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C132">
-        <v>111.842</v>
+        <v>89.916</v>
       </c>
       <c r="D132" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E132" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3442,16 +3433,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C133">
-        <v>94.96599999999999</v>
+        <v>105.797</v>
       </c>
       <c r="D133" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E133" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3459,16 +3450,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C134">
-        <v>91.447</v>
+        <v>109.783</v>
       </c>
       <c r="D134" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E134" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3476,16 +3467,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C135">
-        <v>86.916</v>
+        <v>94.767</v>
       </c>
       <c r="D135" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E135" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3493,16 +3484,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C136">
-        <v>78.333</v>
+        <v>103.704</v>
       </c>
       <c r="D136" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3510,16 +3501,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C137">
-        <v>83.333</v>
+        <v>117.647</v>
       </c>
       <c r="D137" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E137" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3527,16 +3518,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C138">
-        <v>97.36799999999999</v>
+        <v>103.371</v>
       </c>
       <c r="D138" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E138" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3544,16 +3535,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C139">
-        <v>72.321</v>
+        <v>121.285</v>
       </c>
       <c r="D139" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E139" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3561,16 +3552,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C140">
-        <v>92.209</v>
+        <v>100.918</v>
       </c>
       <c r="D140" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E140" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3578,16 +3569,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C141">
-        <v>78.264</v>
+        <v>114.839</v>
       </c>
       <c r="D141" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E141" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3595,16 +3586,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C142">
-        <v>98.806</v>
+        <v>121.324</v>
       </c>
       <c r="D142" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E142" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3612,16 +3603,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C143">
-        <v>87.461</v>
+        <v>107.659</v>
       </c>
       <c r="D143" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E143" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3629,16 +3620,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C144">
-        <v>87.931</v>
+        <v>109.333</v>
       </c>
       <c r="D144" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E144" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3646,16 +3637,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C145">
-        <v>81.03400000000001</v>
+        <v>107.895</v>
       </c>
       <c r="D145" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E145" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3663,16 +3654,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C146">
-        <v>88.095</v>
+        <v>96.685</v>
       </c>
       <c r="D146" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E146" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3680,16 +3671,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C147">
-        <v>70.699</v>
+        <v>99.351</v>
       </c>
       <c r="D147" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E147" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3697,16 +3688,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C148">
-        <v>80.791</v>
+        <v>95.455</v>
       </c>
       <c r="D148" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E148" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3714,16 +3705,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C149">
-        <v>70.37</v>
+        <v>110.215</v>
       </c>
       <c r="D149" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E149" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3731,16 +3722,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C150">
-        <v>85.024</v>
+        <v>106.145</v>
       </c>
       <c r="D150" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E150" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3748,16 +3739,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C151">
-        <v>90.753</v>
+        <v>138.462</v>
       </c>
       <c r="D151" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E151" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3765,16 +3756,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C152">
-        <v>106.667</v>
+        <v>105.172</v>
       </c>
       <c r="D152" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E152" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3782,16 +3773,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C153">
-        <v>81.48099999999999</v>
+        <v>106.154</v>
       </c>
       <c r="D153" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E153" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3799,16 +3790,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C154">
-        <v>86.486</v>
+        <v>111.111</v>
       </c>
       <c r="D154" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E154" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3816,16 +3807,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C155">
-        <v>91.935</v>
+        <v>98.16500000000001</v>
       </c>
       <c r="D155" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E155" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3833,16 +3824,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C156">
-        <v>80.328</v>
+        <v>106.667</v>
       </c>
       <c r="D156" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E156" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3850,16 +3841,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C157">
-        <v>84.848</v>
+        <v>106.25</v>
       </c>
       <c r="D157" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E157" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3867,16 +3858,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C158">
-        <v>76.786</v>
+        <v>98.485</v>
       </c>
       <c r="D158" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E158" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3884,16 +3875,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C159">
-        <v>84.02800000000001</v>
+        <v>100.671</v>
       </c>
       <c r="D159" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E159" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3901,16 +3892,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C160">
-        <v>106.83</v>
+        <v>116.019</v>
       </c>
       <c r="D160" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E160" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3918,16 +3909,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C161">
-        <v>105.172</v>
+        <v>21.053</v>
       </c>
       <c r="D161" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E161" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3935,16 +3926,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C162">
-        <v>23.256</v>
+        <v>102.668</v>
       </c>
       <c r="D162" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E162" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3952,16 +3943,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C163">
-        <v>82.355</v>
+        <v>106.573</v>
       </c>
       <c r="D163" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E163" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3969,16 +3960,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C164">
-        <v>85.532</v>
+        <v>64.34099999999999</v>
       </c>
       <c r="D164" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E164" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3986,16 +3977,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C165">
-        <v>64.34099999999999</v>
+        <v>94.29600000000001</v>
       </c>
       <c r="D165" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E165" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -4003,16 +3994,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C166">
-        <v>74.492</v>
+        <v>105.11</v>
       </c>
       <c r="D166" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E166" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4020,16 +4011,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C167">
-        <v>84.81999999999999</v>
+        <v>98.592</v>
       </c>
       <c r="D167" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E167" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4037,16 +4028,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C168">
-        <v>89.79600000000001</v>
+        <v>100.528</v>
       </c>
       <c r="D168" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E168" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4054,16 +4045,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C169">
-        <v>79.96299999999999</v>
+        <v>102.326</v>
       </c>
       <c r="D169" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E169" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4071,16 +4062,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C170">
-        <v>82.27</v>
+        <v>254.286</v>
       </c>
       <c r="D170" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E170" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4088,16 +4079,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C171">
-        <v>151.282</v>
+        <v>105.263</v>
       </c>
       <c r="D171" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E171" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4105,16 +4096,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C172">
-        <v>95.833</v>
+        <v>102.542</v>
       </c>
       <c r="D172" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E172" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4122,16 +4113,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C173">
-        <v>90.756</v>
+        <v>104.586</v>
       </c>
       <c r="D173" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E173" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4139,16 +4130,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C174">
-        <v>83.333</v>
+        <v>99.11499999999999</v>
       </c>
       <c r="D174" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E174" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4156,16 +4147,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C175">
-        <v>84.384</v>
+        <v>110.256</v>
       </c>
       <c r="D175" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E175" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4173,16 +4164,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C176">
-        <v>77.863</v>
+        <v>108.824</v>
       </c>
       <c r="D176" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E176" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4190,16 +4181,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C177">
-        <v>82.60899999999999</v>
+        <v>109.777</v>
       </c>
       <c r="D177" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E177" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4207,16 +4198,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C178">
-        <v>92.30800000000001</v>
+        <v>102.805</v>
       </c>
       <c r="D178" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E178" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4224,16 +4215,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C179">
-        <v>80.714</v>
+        <v>88.04300000000001</v>
       </c>
       <c r="D179" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E179" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4241,16 +4232,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C180">
-        <v>80.76000000000001</v>
+        <v>97.18300000000001</v>
       </c>
       <c r="D180" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E180" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4258,16 +4249,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C181">
-        <v>98.684</v>
+        <v>101.791</v>
       </c>
       <c r="D181" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E181" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4275,16 +4266,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C182">
-        <v>81.761</v>
+        <v>141.219</v>
       </c>
       <c r="D182" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E182" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4292,16 +4283,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C183">
-        <v>100.466</v>
+        <v>102.581</v>
       </c>
       <c r="D183" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E183" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4309,16 +4300,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C184">
-        <v>122.648</v>
+        <v>110</v>
       </c>
       <c r="D184" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E184" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4326,16 +4317,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C185">
-        <v>85.79900000000001</v>
+        <v>95.333</v>
       </c>
       <c r="D185" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E185" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4343,16 +4334,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C186">
-        <v>147.619</v>
+        <v>109.524</v>
       </c>
       <c r="D186" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E186" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4360,16 +4351,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C187">
-        <v>82.54000000000001</v>
+        <v>153.333</v>
       </c>
       <c r="D187" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E187" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4377,16 +4368,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C188">
-        <v>93.333</v>
+        <v>31.579</v>
       </c>
       <c r="D188" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E188" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4394,16 +4385,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C189">
-        <v>153.333</v>
+        <v>112.871</v>
       </c>
       <c r="D189" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E189" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4411,16 +4402,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C190">
-        <v>31.818</v>
+        <v>269.565</v>
       </c>
       <c r="D190" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E190" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4428,16 +4419,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C191">
-        <v>99.038</v>
+        <v>103.729</v>
       </c>
       <c r="D191" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E191" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4445,16 +4436,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C192">
-        <v>162.963</v>
+        <v>105</v>
       </c>
       <c r="D192" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E192" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4462,16 +4453,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C193">
-        <v>94.60299999999999</v>
+        <v>106.771</v>
       </c>
       <c r="D193" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E193" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4479,16 +4470,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C194">
-        <v>82.22199999999999</v>
+        <v>96.226</v>
       </c>
       <c r="D194" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E194" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4496,16 +4487,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C195">
-        <v>85.63500000000001</v>
+        <v>103.448</v>
       </c>
       <c r="D195" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E195" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4513,16 +4504,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C196">
-        <v>83.607</v>
+        <v>106.25</v>
       </c>
       <c r="D196" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E196" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4530,16 +4521,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C197">
-        <v>93.843</v>
+        <v>102.133</v>
       </c>
       <c r="D197" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E197" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4547,16 +4538,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C198">
-        <v>80.822</v>
+        <v>115.547</v>
       </c>
       <c r="D198" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E198" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4564,16 +4555,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C199">
-        <v>81.24299999999999</v>
+        <v>105.206</v>
       </c>
       <c r="D199" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E199" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4581,16 +4572,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C200">
-        <v>92.952</v>
+        <v>111.111</v>
       </c>
       <c r="D200" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E200" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4598,16 +4589,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C201">
-        <v>82.979</v>
+        <v>129.832</v>
       </c>
       <c r="D201" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E201" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4615,16 +4606,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C202">
-        <v>100</v>
+        <v>105.556</v>
       </c>
       <c r="D202" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E202" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4632,16 +4623,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C203">
-        <v>95.539</v>
+        <v>82.593</v>
       </c>
       <c r="D203" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E203" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4649,16 +4640,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C204">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="D204" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E204" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4666,16 +4657,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C205">
-        <v>139.31</v>
+        <v>93.285</v>
       </c>
       <c r="D205" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E205" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4683,16 +4674,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C206">
-        <v>82.051</v>
+        <v>87.443</v>
       </c>
       <c r="D206" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E206" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4700,16 +4691,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C207">
-        <v>87.77</v>
+        <v>113.054</v>
       </c>
       <c r="D207" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E207" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4717,16 +4708,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C208">
-        <v>90.709</v>
+        <v>103.902</v>
       </c>
       <c r="D208" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E208" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4734,16 +4725,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C209">
-        <v>87.753</v>
+        <v>109.231</v>
       </c>
       <c r="D209" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E209" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4751,16 +4742,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C210">
-        <v>80.642</v>
+        <v>101.611</v>
       </c>
       <c r="D210" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E210" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4768,16 +4759,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C211">
-        <v>90.541</v>
+        <v>104.615</v>
       </c>
       <c r="D211" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E211" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4785,16 +4776,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C212">
-        <v>91.81999999999999</v>
+        <v>94.444</v>
       </c>
       <c r="D212" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E212" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4802,16 +4793,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C213">
-        <v>86.667</v>
+        <v>109.722</v>
       </c>
       <c r="D213" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E213" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4819,16 +4810,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C214">
-        <v>94.18600000000001</v>
+        <v>122.195</v>
       </c>
       <c r="D214" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E214" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4836,16 +4827,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C215">
-        <v>89.024</v>
+        <v>96.185</v>
       </c>
       <c r="D215" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E215" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4853,16 +4844,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C216">
-        <v>90.717</v>
+        <v>134.212</v>
       </c>
       <c r="D216" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E216" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4870,16 +4861,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C217">
-        <v>99.066</v>
+        <v>109.677</v>
       </c>
       <c r="D217" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E217" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4887,16 +4878,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="C218">
-        <v>119.754</v>
+        <v>97.468</v>
       </c>
       <c r="D218" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E218" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4904,16 +4895,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C219">
-        <v>83.333</v>
+        <v>109.459</v>
       </c>
       <c r="D219" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E219" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4921,16 +4912,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C220">
-        <v>87.952</v>
+        <v>88.199</v>
       </c>
       <c r="D220" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E220" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4938,16 +4929,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C221">
-        <v>83.529</v>
+        <v>129.242</v>
       </c>
       <c r="D221" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E221" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4955,16 +4946,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C222">
-        <v>88.199</v>
+        <v>109.259</v>
       </c>
       <c r="D222" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E222" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4972,16 +4963,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C223">
-        <v>120.137</v>
+        <v>100</v>
       </c>
       <c r="D223" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E223" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4989,16 +4980,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C224">
-        <v>107.643</v>
+        <v>113.333</v>
       </c>
       <c r="D224" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E224" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5006,16 +4997,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C225">
-        <v>85.926</v>
+        <v>112.214</v>
       </c>
       <c r="D225" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E225" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5023,16 +5014,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C226">
-        <v>84.236</v>
+        <v>103.571</v>
       </c>
       <c r="D226" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E226" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5040,16 +5031,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C227">
-        <v>79.245</v>
+        <v>100</v>
       </c>
       <c r="D227" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E227" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5057,16 +5048,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C228">
-        <v>76.821</v>
+        <v>102.044</v>
       </c>
       <c r="D228" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E228" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5074,16 +5065,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C229">
-        <v>90.625</v>
+        <v>112.903</v>
       </c>
       <c r="D229" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E229" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5091,16 +5082,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C230">
-        <v>83.036</v>
+        <v>104.036</v>
       </c>
       <c r="D230" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E230" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5108,16 +5099,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C231">
-        <v>82.38500000000001</v>
+        <v>102</v>
       </c>
       <c r="D231" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E231" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5125,16 +5116,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C232">
-        <v>103.03</v>
+        <v>103.571</v>
       </c>
       <c r="D232" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E232" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5142,16 +5133,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C233">
-        <v>84.206</v>
+        <v>97.059</v>
       </c>
       <c r="D233" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E233" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5159,16 +5150,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C234">
-        <v>101</v>
+        <v>103.171</v>
       </c>
       <c r="D234" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E234" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5176,16 +5167,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C235">
-        <v>88.158</v>
+        <v>97.276</v>
       </c>
       <c r="D235" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E235" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5193,16 +5184,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C236">
-        <v>95.238</v>
+        <v>102.979</v>
       </c>
       <c r="D236" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E236" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5210,16 +5201,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C237">
-        <v>81.79900000000001</v>
+        <v>100</v>
       </c>
       <c r="D237" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E237" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5227,16 +5218,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C238">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="D238" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E238" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5244,16 +5235,16 @@
         <v>242</v>
       </c>
       <c r="B239" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C239">
-        <v>84.803</v>
+        <v>92.30800000000001</v>
       </c>
       <c r="D239" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E239" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5261,16 +5252,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C240">
-        <v>100</v>
+        <v>122.222</v>
       </c>
       <c r="D240" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E240" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5278,16 +5269,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C241">
-        <v>100</v>
+        <v>108.696</v>
       </c>
       <c r="D241" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E241" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5295,16 +5286,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C242">
-        <v>80</v>
+        <v>111.765</v>
       </c>
       <c r="D242" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E242" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5312,16 +5303,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C243">
-        <v>100</v>
+        <v>117.857</v>
       </c>
       <c r="D243" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E243" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5329,16 +5320,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C244">
-        <v>90.291</v>
+        <v>103.836</v>
       </c>
       <c r="D244" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E244" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5346,16 +5337,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C245">
-        <v>97.22199999999999</v>
+        <v>100.368</v>
       </c>
       <c r="D245" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E245" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5363,16 +5354,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C246">
-        <v>93.548</v>
+        <v>103.547</v>
       </c>
       <c r="D246" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E246" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5380,16 +5371,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C247">
-        <v>84.527</v>
+        <v>100</v>
       </c>
       <c r="D247" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E247" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5397,16 +5388,16 @@
         <v>251</v>
       </c>
       <c r="B248" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C248">
-        <v>86.533</v>
+        <v>96.754</v>
       </c>
       <c r="D248" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E248" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5414,16 +5405,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C249">
-        <v>90.41200000000001</v>
+        <v>103.251</v>
       </c>
       <c r="D249" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E249" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5431,16 +5422,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C250">
-        <v>88.879</v>
+        <v>100</v>
       </c>
       <c r="D250" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E250" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5448,16 +5439,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C251">
-        <v>78.73699999999999</v>
+        <v>110.345</v>
       </c>
       <c r="D251" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E251" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5465,16 +5456,16 @@
         <v>255</v>
       </c>
       <c r="B252" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C252">
-        <v>87.684</v>
+        <v>98.343</v>
       </c>
       <c r="D252" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E252" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5482,16 +5473,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C253">
-        <v>81.48099999999999</v>
+        <v>104.734</v>
       </c>
       <c r="D253" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E253" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5499,16 +5490,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C254">
-        <v>80</v>
+        <v>103.226</v>
       </c>
       <c r="D254" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E254" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5516,16 +5507,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C255">
-        <v>98.343</v>
+        <v>102.239</v>
       </c>
       <c r="D255" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E255" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5533,16 +5524,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C256">
-        <v>87.571</v>
+        <v>109.06</v>
       </c>
       <c r="D256" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E256" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5550,16 +5541,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C257">
-        <v>92.53700000000001</v>
+        <v>100.54</v>
       </c>
       <c r="D257" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E257" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5567,16 +5558,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C258">
-        <v>84.56399999999999</v>
+        <v>140.698</v>
       </c>
       <c r="D258" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E258" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5584,16 +5575,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="C259">
-        <v>95.113</v>
+        <v>106.699</v>
       </c>
       <c r="D259" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E259" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5601,16 +5592,16 @@
         <v>263</v>
       </c>
       <c r="B260" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C260">
-        <v>87.78700000000001</v>
+        <v>95.547</v>
       </c>
       <c r="D260" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E260" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5618,67 +5609,16 @@
         <v>264</v>
       </c>
       <c r="B261" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="C261">
-        <v>98.925</v>
+        <v>80.15300000000001</v>
       </c>
       <c r="D261" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="E261" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5">
-      <c r="A262" t="s">
-        <v>265</v>
-      </c>
-      <c r="B262" t="s">
-        <v>268</v>
-      </c>
-      <c r="C262">
-        <v>84.32599999999999</v>
-      </c>
-      <c r="D262" t="s">
-        <v>270</v>
-      </c>
-      <c r="E262" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="263" spans="1:5">
-      <c r="A263" t="s">
-        <v>266</v>
-      </c>
-      <c r="B263" t="s">
-        <v>268</v>
-      </c>
-      <c r="C263">
-        <v>78.53</v>
-      </c>
-      <c r="D263" t="s">
-        <v>270</v>
-      </c>
-      <c r="E263" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="264" spans="1:5">
-      <c r="A264" t="s">
-        <v>267</v>
-      </c>
-      <c r="B264" t="s">
-        <v>268</v>
-      </c>
-      <c r="C264">
-        <v>64.179</v>
-      </c>
-      <c r="D264" t="s">
-        <v>270</v>
-      </c>
-      <c r="E264" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1045" uniqueCount="269">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="270">
   <si>
     <t>symbol</t>
   </si>
@@ -542,6 +542,9 @@
   </si>
   <si>
     <t>OCEANUSDT</t>
+  </si>
+  <si>
+    <t>OGNUSDT</t>
   </si>
   <si>
     <t>OGUSDT</t>
@@ -1178,7 +1181,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E261"/>
+  <dimension ref="A1:E262"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1206,16 +1209,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C2">
-        <v>101.695</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1223,16 +1226,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C3">
-        <v>102.104</v>
+        <v>114.94</v>
       </c>
       <c r="D3" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E3" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1240,16 +1243,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C4">
-        <v>105.263</v>
+        <v>105.882</v>
       </c>
       <c r="D4" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E4" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1257,16 +1260,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C5">
-        <v>107.663</v>
+        <v>121.397</v>
       </c>
       <c r="D5" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1277,13 +1280,13 @@
         <v>266</v>
       </c>
       <c r="C6">
-        <v>98.529</v>
+        <v>110.169</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1291,16 +1294,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C7">
-        <v>103.846</v>
+        <v>126.087</v>
       </c>
       <c r="D7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1308,16 +1311,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C8">
-        <v>125</v>
+        <v>128.571</v>
       </c>
       <c r="D8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1325,16 +1328,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C9">
         <v>99.083</v>
       </c>
       <c r="D9" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E9" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1342,16 +1345,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C10">
-        <v>102.542</v>
+        <v>136.735</v>
       </c>
       <c r="D10" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E10" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1359,16 +1362,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C11">
-        <v>108.219</v>
+        <v>124.06</v>
       </c>
       <c r="D11" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E11" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1379,13 +1382,13 @@
         <v>266</v>
       </c>
       <c r="C12">
-        <v>98.779</v>
+        <v>115.881</v>
       </c>
       <c r="D12" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E12" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1393,16 +1396,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C13">
-        <v>100</v>
+        <v>117.391</v>
       </c>
       <c r="D13" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E13" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1413,13 +1416,13 @@
         <v>266</v>
       </c>
       <c r="C14">
-        <v>98.52200000000001</v>
+        <v>116.265</v>
       </c>
       <c r="D14" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E14" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1427,16 +1430,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C15">
-        <v>104</v>
+        <v>128.571</v>
       </c>
       <c r="D15" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E15" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1444,16 +1447,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C16">
-        <v>101.619</v>
+        <v>120.465</v>
       </c>
       <c r="D16" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E16" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1461,16 +1464,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C17">
         <v>116.509</v>
       </c>
       <c r="D17" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E17" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1478,16 +1481,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C18">
-        <v>100</v>
+        <v>113.966</v>
       </c>
       <c r="D18" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E18" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1495,16 +1498,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C19">
-        <v>119.585</v>
+        <v>124.43</v>
       </c>
       <c r="D19" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E19" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1512,16 +1515,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C20">
-        <v>127.37</v>
+        <v>115.997</v>
       </c>
       <c r="D20" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E20" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1532,13 +1535,13 @@
         <v>266</v>
       </c>
       <c r="C21">
-        <v>99.425</v>
+        <v>103.704</v>
       </c>
       <c r="D21" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E21" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1546,16 +1549,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C22">
-        <v>100</v>
+        <v>115.966</v>
       </c>
       <c r="D22" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E22" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1563,16 +1566,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C23">
-        <v>107.767</v>
+        <v>121.348</v>
       </c>
       <c r="D23" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E23" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1580,16 +1583,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C24">
-        <v>111.938</v>
+        <v>138.857</v>
       </c>
       <c r="D24" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E24" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1597,16 +1600,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C25">
-        <v>105.822</v>
+        <v>116.854</v>
       </c>
       <c r="D25" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E25" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1614,16 +1617,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C26">
-        <v>105.882</v>
+        <v>120</v>
       </c>
       <c r="D26" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E26" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1631,16 +1634,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C27">
-        <v>105.556</v>
+        <v>120</v>
       </c>
       <c r="D27" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E27" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1648,16 +1651,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C28">
-        <v>108.17</v>
+        <v>124.265</v>
       </c>
       <c r="D28" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E28" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1668,13 +1671,13 @@
         <v>266</v>
       </c>
       <c r="C29">
-        <v>99.593</v>
+        <v>114.233</v>
       </c>
       <c r="D29" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E29" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1682,16 +1685,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C30">
-        <v>104.204</v>
+        <v>125.76</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E30" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1699,16 +1702,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C31">
-        <v>103.448</v>
+        <v>120</v>
       </c>
       <c r="D31" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E31" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1716,16 +1719,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C32">
-        <v>109.524</v>
+        <v>125</v>
       </c>
       <c r="D32" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E32" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1736,13 +1739,13 @@
         <v>266</v>
       </c>
       <c r="C33">
-        <v>99.333</v>
+        <v>101.193</v>
       </c>
       <c r="D33" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E33" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1750,16 +1753,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C34">
-        <v>103.509</v>
+        <v>120.15</v>
       </c>
       <c r="D34" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E34" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1767,16 +1770,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C35">
-        <v>161.793</v>
+        <v>168.807</v>
       </c>
       <c r="D35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E35" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1784,16 +1787,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C36">
-        <v>109.524</v>
+        <v>128.571</v>
       </c>
       <c r="D36" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E36" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1801,16 +1804,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C37">
-        <v>101.346</v>
+        <v>116.143</v>
       </c>
       <c r="D37" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E37" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1821,13 +1824,13 @@
         <v>266</v>
       </c>
       <c r="C38">
-        <v>99.554</v>
+        <v>117.46</v>
       </c>
       <c r="D38" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E38" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1835,16 +1838,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C39">
-        <v>107.67</v>
+        <v>123.311</v>
       </c>
       <c r="D39" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E39" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1852,16 +1855,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C40">
-        <v>112.903</v>
+        <v>125.926</v>
       </c>
       <c r="D40" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E40" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1869,16 +1872,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C41">
-        <v>121.162</v>
+        <v>158.417</v>
       </c>
       <c r="D41" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E41" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1886,16 +1889,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C42">
-        <v>101.064</v>
+        <v>126.316</v>
       </c>
       <c r="D42" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E42" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1906,13 +1909,13 @@
         <v>266</v>
       </c>
       <c r="C43">
-        <v>96.61</v>
+        <v>118.75</v>
       </c>
       <c r="D43" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E43" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1920,16 +1923,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C44">
-        <v>108.361</v>
+        <v>126.02</v>
       </c>
       <c r="D44" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E44" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1937,16 +1940,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>109.091</v>
       </c>
       <c r="D45" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E45" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1954,16 +1957,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C46">
         <v>121.295</v>
       </c>
       <c r="D46" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E46" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1971,16 +1974,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C47">
-        <v>103.971</v>
+        <v>115.521</v>
       </c>
       <c r="D47" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E47" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1988,16 +1991,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C48">
-        <v>103.448</v>
+        <v>117.333</v>
       </c>
       <c r="D48" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E48" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2005,16 +2008,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C49">
-        <v>101.724</v>
+        <v>123.404</v>
       </c>
       <c r="D49" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E49" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2022,16 +2025,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C50">
-        <v>101.577</v>
+        <v>153.25</v>
       </c>
       <c r="D50" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E50" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2039,16 +2042,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C51">
-        <v>107.143</v>
+        <v>116.667</v>
       </c>
       <c r="D51" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E51" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2056,16 +2059,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C52">
         <v>120.552</v>
       </c>
       <c r="D52" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E52" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2073,16 +2076,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C53">
-        <v>103.153</v>
+        <v>114.216</v>
       </c>
       <c r="D53" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E53" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2090,16 +2093,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C54">
-        <v>100</v>
+        <v>110.127</v>
       </c>
       <c r="D54" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E54" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2107,16 +2110,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C55">
         <v>100</v>
       </c>
       <c r="D55" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E55" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2124,16 +2127,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C56">
-        <v>105.128</v>
+        <v>121.212</v>
       </c>
       <c r="D56" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E56" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2141,16 +2144,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C57">
-        <v>107.346</v>
+        <v>127.473</v>
       </c>
       <c r="D57" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E57" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2158,16 +2161,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C58">
-        <v>105.645</v>
+        <v>121.698</v>
       </c>
       <c r="D58" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E58" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2175,16 +2178,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C59">
-        <v>100</v>
+        <v>123.077</v>
       </c>
       <c r="D59" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E59" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2192,16 +2195,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C60">
-        <v>128.947</v>
+        <v>145.455</v>
       </c>
       <c r="D60" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E60" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2209,16 +2212,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C61">
-        <v>107.143</v>
+        <v>116.667</v>
       </c>
       <c r="D61" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E61" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2226,16 +2229,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C62">
-        <v>106.383</v>
+        <v>122.492</v>
       </c>
       <c r="D62" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E62" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2243,16 +2246,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C63">
-        <v>106.122</v>
+        <v>125.926</v>
       </c>
       <c r="D63" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E63" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2263,13 +2266,13 @@
         <v>266</v>
       </c>
       <c r="C64">
-        <v>99.509</v>
+        <v>118.167</v>
       </c>
       <c r="D64" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E64" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2277,16 +2280,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C65">
-        <v>138.513</v>
+        <v>128.985</v>
       </c>
       <c r="D65" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E65" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2294,16 +2297,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C66">
-        <v>104.348</v>
+        <v>116.667</v>
       </c>
       <c r="D66" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E66" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2314,13 +2317,13 @@
         <v>266</v>
       </c>
       <c r="C67">
-        <v>93.878</v>
+        <v>117.284</v>
       </c>
       <c r="D67" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2328,16 +2331,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C68">
-        <v>214.286</v>
+        <v>183.333</v>
       </c>
       <c r="D68" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E68" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2345,16 +2348,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C69">
-        <v>110.714</v>
+        <v>126</v>
       </c>
       <c r="D69" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E69" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2365,13 +2368,13 @@
         <v>266</v>
       </c>
       <c r="C70">
-        <v>97.494</v>
+        <v>114.835</v>
       </c>
       <c r="D70" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E70" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2379,16 +2382,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C71">
-        <v>130.201</v>
+        <v>108.977</v>
       </c>
       <c r="D71" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E71" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2396,16 +2399,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C72">
-        <v>108.333</v>
+        <v>130</v>
       </c>
       <c r="D72" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E72" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2413,16 +2416,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C73">
-        <v>103.877</v>
+        <v>117.874</v>
       </c>
       <c r="D73" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E73" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2430,16 +2433,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C74">
-        <v>105.435</v>
+        <v>122.798</v>
       </c>
       <c r="D74" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E74" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2447,16 +2450,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C75">
-        <v>103.047</v>
+        <v>111.455</v>
       </c>
       <c r="D75" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E75" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2464,16 +2467,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C76">
-        <v>133.234</v>
+        <v>133.267</v>
       </c>
       <c r="D76" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E76" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2481,16 +2484,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C77">
-        <v>107.463</v>
+        <v>123.214</v>
       </c>
       <c r="D77" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E77" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2498,16 +2501,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C78">
-        <v>107.692</v>
+        <v>118.182</v>
       </c>
       <c r="D78" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E78" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2518,13 +2521,13 @@
         <v>266</v>
       </c>
       <c r="C79">
-        <v>98.512</v>
+        <v>108.894</v>
       </c>
       <c r="D79" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E79" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2532,16 +2535,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C80">
-        <v>25.641</v>
+        <v>24.242</v>
       </c>
       <c r="D80" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E80" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2549,16 +2552,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C81">
-        <v>101.676</v>
+        <v>110.611</v>
       </c>
       <c r="D81" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E81" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2566,16 +2569,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C82">
-        <v>115.686</v>
+        <v>100</v>
       </c>
       <c r="D82" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E82" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2586,13 +2589,13 @@
         <v>266</v>
       </c>
       <c r="C83">
-        <v>98.625</v>
+        <v>110.941</v>
       </c>
       <c r="D83" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E83" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2600,16 +2603,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C84">
-        <v>108.197</v>
+        <v>120</v>
       </c>
       <c r="D84" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E84" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2620,13 +2623,13 @@
         <v>266</v>
       </c>
       <c r="C85">
-        <v>98.148</v>
+        <v>108.696</v>
       </c>
       <c r="D85" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E85" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2634,16 +2637,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C86">
-        <v>102.626</v>
+        <v>114.605</v>
       </c>
       <c r="D86" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E86" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2651,16 +2654,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C87">
-        <v>106.863</v>
+        <v>116.484</v>
       </c>
       <c r="D87" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E87" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2668,16 +2671,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C88">
-        <v>114.876</v>
+        <v>81.515</v>
       </c>
       <c r="D88" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E88" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2685,16 +2688,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C89">
-        <v>102.441</v>
+        <v>116.486</v>
       </c>
       <c r="D89" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E89" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2702,16 +2705,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C90">
         <v>83.333</v>
       </c>
       <c r="D90" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E90" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2719,16 +2722,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C91">
         <v>130.459</v>
       </c>
       <c r="D91" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E91" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2736,16 +2739,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C92">
-        <v>100.064</v>
+        <v>113.443</v>
       </c>
       <c r="D92" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E92" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2753,16 +2756,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C93">
         <v>99.083</v>
       </c>
       <c r="D93" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E93" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2770,16 +2773,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C94">
-        <v>101.716</v>
+        <v>117.16</v>
       </c>
       <c r="D94" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E94" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2787,16 +2790,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C95">
         <v>100</v>
       </c>
       <c r="D95" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E95" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2807,13 +2810,13 @@
         <v>266</v>
       </c>
       <c r="C96">
-        <v>84.848</v>
+        <v>110.417</v>
       </c>
       <c r="D96" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E96" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2821,16 +2824,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C97">
-        <v>104.466</v>
+        <v>114.25</v>
       </c>
       <c r="D97" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E97" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2838,16 +2841,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C98">
-        <v>102.97</v>
+        <v>115.934</v>
       </c>
       <c r="D98" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E98" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2855,16 +2858,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C99">
-        <v>119.118</v>
+        <v>137.288</v>
       </c>
       <c r="D99" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E99" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2872,16 +2875,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C100">
-        <v>105.147</v>
+        <v>115.833</v>
       </c>
       <c r="D100" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E100" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2889,16 +2892,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C101">
-        <v>84.756</v>
+        <v>97.727</v>
       </c>
       <c r="D101" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E101" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2906,16 +2909,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C102">
-        <v>131.295</v>
+        <v>104.844</v>
       </c>
       <c r="D102" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E102" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2923,16 +2926,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C103">
-        <v>46.429</v>
+        <v>91.367</v>
       </c>
       <c r="D103" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E103" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2940,16 +2943,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C104">
-        <v>134.118</v>
+        <v>99.029</v>
       </c>
       <c r="D104" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E104" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2957,16 +2960,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C105">
-        <v>105.714</v>
+        <v>121.469</v>
       </c>
       <c r="D105" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E105" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2977,13 +2980,13 @@
         <v>266</v>
       </c>
       <c r="C106">
-        <v>97.38800000000001</v>
+        <v>112.979</v>
       </c>
       <c r="D106" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E106" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2991,16 +2994,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C107">
-        <v>109.252</v>
+        <v>112.876</v>
       </c>
       <c r="D107" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E107" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3008,16 +3011,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C108">
-        <v>104.748</v>
+        <v>122.592</v>
       </c>
       <c r="D108" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E108" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3025,16 +3028,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C109">
         <v>95.161</v>
       </c>
       <c r="D109" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E109" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3042,16 +3045,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C110">
-        <v>117.544</v>
+        <v>165.347</v>
       </c>
       <c r="D110" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E110" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3062,13 +3065,13 @@
         <v>266</v>
       </c>
       <c r="C111">
-        <v>93.22</v>
+        <v>106.25</v>
       </c>
       <c r="D111" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E111" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3076,16 +3079,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C112">
-        <v>100</v>
+        <v>138.636</v>
       </c>
       <c r="D112" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E112" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3093,16 +3096,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C113">
-        <v>109.677</v>
+        <v>161.538</v>
       </c>
       <c r="D113" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E113" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3113,13 +3116,13 @@
         <v>266</v>
       </c>
       <c r="C114">
-        <v>95.254</v>
+        <v>106.862</v>
       </c>
       <c r="D114" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E114" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3127,16 +3130,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C115">
-        <v>102.763</v>
+        <v>121.234</v>
       </c>
       <c r="D115" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E115" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3144,16 +3147,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C116">
-        <v>101.705</v>
+        <v>109.914</v>
       </c>
       <c r="D116" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E116" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3161,16 +3164,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C117">
-        <v>104.04</v>
+        <v>127.647</v>
       </c>
       <c r="D117" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E117" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3178,16 +3181,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C118">
-        <v>111.538</v>
+        <v>131.818</v>
       </c>
       <c r="D118" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E118" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3195,16 +3198,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C119">
-        <v>106.977</v>
+        <v>115</v>
       </c>
       <c r="D119" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E119" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3212,16 +3215,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C120">
-        <v>146.237</v>
+        <v>145.238</v>
       </c>
       <c r="D120" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E120" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3229,16 +3232,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C121">
-        <v>104.478</v>
+        <v>125.731</v>
       </c>
       <c r="D121" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E121" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3246,16 +3249,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C122">
-        <v>110</v>
+        <v>122.857</v>
       </c>
       <c r="D122" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E122" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3263,16 +3266,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C123">
-        <v>117.91</v>
+        <v>122.656</v>
       </c>
       <c r="D123" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E123" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3280,16 +3283,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C124">
-        <v>152.703</v>
+        <v>161.813</v>
       </c>
       <c r="D124" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E124" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3297,16 +3300,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C125">
-        <v>116.129</v>
+        <v>129.63</v>
       </c>
       <c r="D125" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E125" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3314,16 +3317,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C126">
-        <v>69.364</v>
+        <v>75.155</v>
       </c>
       <c r="D126" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E126" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3331,16 +3334,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C127">
-        <v>103.675</v>
+        <v>123.371</v>
       </c>
       <c r="D127" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E127" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3348,16 +3351,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C128">
-        <v>106.757</v>
+        <v>113.953</v>
       </c>
       <c r="D128" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E128" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3368,13 +3371,13 @@
         <v>266</v>
       </c>
       <c r="C129">
-        <v>94.259</v>
+        <v>105.181</v>
       </c>
       <c r="D129" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E129" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3382,16 +3385,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C130">
-        <v>112.121</v>
+        <v>125</v>
       </c>
       <c r="D130" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E130" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3399,16 +3402,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C131">
-        <v>105.376</v>
+        <v>96.774</v>
       </c>
       <c r="D131" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E131" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3416,16 +3419,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C132">
-        <v>89.916</v>
+        <v>92.236</v>
       </c>
       <c r="D132" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E132" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3433,16 +3436,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C133">
-        <v>105.797</v>
+        <v>115.936</v>
       </c>
       <c r="D133" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E133" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3450,16 +3453,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C134">
-        <v>109.783</v>
+        <v>117.857</v>
       </c>
       <c r="D134" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E134" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3470,13 +3473,13 @@
         <v>266</v>
       </c>
       <c r="C135">
-        <v>94.767</v>
+        <v>106.383</v>
       </c>
       <c r="D135" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E135" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3484,16 +3487,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C136">
-        <v>103.704</v>
+        <v>117.391</v>
       </c>
       <c r="D136" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E136" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3501,16 +3504,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C137">
-        <v>117.647</v>
+        <v>140.625</v>
       </c>
       <c r="D137" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E137" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3518,16 +3521,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C138">
-        <v>103.371</v>
+        <v>121.622</v>
       </c>
       <c r="D138" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E138" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3535,16 +3538,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C139">
-        <v>121.285</v>
+        <v>127.06</v>
       </c>
       <c r="D139" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E139" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3552,16 +3555,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C140">
-        <v>100.918</v>
+        <v>117.959</v>
       </c>
       <c r="D140" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E140" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3569,16 +3572,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C141">
-        <v>114.839</v>
+        <v>115.825</v>
       </c>
       <c r="D141" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E141" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3586,16 +3589,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C142">
-        <v>121.324</v>
+        <v>127.706</v>
       </c>
       <c r="D142" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E142" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3603,16 +3606,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C143">
-        <v>107.659</v>
+        <v>116.488</v>
       </c>
       <c r="D143" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E143" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3620,16 +3623,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C144">
-        <v>109.333</v>
+        <v>133.858</v>
       </c>
       <c r="D144" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E144" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3637,16 +3640,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C145">
-        <v>107.895</v>
+        <v>127.273</v>
       </c>
       <c r="D145" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E145" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3657,13 +3660,13 @@
         <v>266</v>
       </c>
       <c r="C146">
-        <v>96.685</v>
+        <v>110.825</v>
       </c>
       <c r="D146" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E146" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3674,13 +3677,13 @@
         <v>266</v>
       </c>
       <c r="C147">
-        <v>99.351</v>
+        <v>106.977</v>
       </c>
       <c r="D147" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E147" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3691,13 +3694,13 @@
         <v>266</v>
       </c>
       <c r="C148">
-        <v>95.455</v>
+        <v>114.286</v>
       </c>
       <c r="D148" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E148" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3705,16 +3708,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C149">
-        <v>110.215</v>
+        <v>122.699</v>
       </c>
       <c r="D149" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E149" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3722,16 +3725,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C150">
-        <v>106.145</v>
+        <v>121.542</v>
       </c>
       <c r="D150" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E150" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3739,16 +3742,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C151">
-        <v>138.462</v>
+        <v>135.802</v>
       </c>
       <c r="D151" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E151" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3756,16 +3759,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C152">
-        <v>105.172</v>
+        <v>115.306</v>
       </c>
       <c r="D152" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E152" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3773,16 +3776,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C153">
-        <v>106.154</v>
+        <v>117.544</v>
       </c>
       <c r="D153" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E153" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3790,16 +3793,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C154">
-        <v>111.111</v>
+        <v>127.99</v>
       </c>
       <c r="D154" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E154" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3810,13 +3813,13 @@
         <v>266</v>
       </c>
       <c r="C155">
-        <v>98.16500000000001</v>
+        <v>108.602</v>
       </c>
       <c r="D155" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E155" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3824,16 +3827,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C156">
-        <v>106.667</v>
+        <v>132.653</v>
       </c>
       <c r="D156" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E156" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3841,16 +3844,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C157">
-        <v>106.25</v>
+        <v>117.949</v>
       </c>
       <c r="D157" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E157" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3861,13 +3864,13 @@
         <v>266</v>
       </c>
       <c r="C158">
-        <v>98.485</v>
+        <v>110.526</v>
       </c>
       <c r="D158" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E158" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3875,16 +3878,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C159">
-        <v>100.671</v>
+        <v>121.606</v>
       </c>
       <c r="D159" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E159" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3892,16 +3895,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C160">
-        <v>116.019</v>
+        <v>133.794</v>
       </c>
       <c r="D160" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E160" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3909,16 +3912,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C161">
-        <v>21.053</v>
+        <v>23.333</v>
       </c>
       <c r="D161" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E161" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3926,16 +3929,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C162">
-        <v>102.668</v>
+        <v>113.465</v>
       </c>
       <c r="D162" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E162" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3943,16 +3946,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C163">
-        <v>106.573</v>
+        <v>123.757</v>
       </c>
       <c r="D163" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E163" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3960,16 +3963,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C164">
         <v>64.34099999999999</v>
       </c>
       <c r="D164" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E164" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3980,13 +3983,13 @@
         <v>266</v>
       </c>
       <c r="C165">
-        <v>94.29600000000001</v>
+        <v>115.118</v>
       </c>
       <c r="D165" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E165" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3994,16 +3997,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C166">
-        <v>105.11</v>
+        <v>118.951</v>
       </c>
       <c r="D166" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E166" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4014,13 +4017,13 @@
         <v>266</v>
       </c>
       <c r="C167">
-        <v>98.592</v>
+        <v>112.5</v>
       </c>
       <c r="D167" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E167" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4028,16 +4031,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C168">
-        <v>100.528</v>
+        <v>118.941</v>
       </c>
       <c r="D168" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E168" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4045,16 +4048,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C169">
-        <v>102.326</v>
+        <v>112.963</v>
       </c>
       <c r="D169" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E169" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4062,16 +4065,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C170">
-        <v>254.286</v>
+        <v>183.333</v>
       </c>
       <c r="D170" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E170" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4079,16 +4082,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C171">
-        <v>105.263</v>
+        <v>123.529</v>
       </c>
       <c r="D171" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E171" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4096,16 +4099,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C172">
-        <v>102.542</v>
+        <v>142</v>
       </c>
       <c r="D172" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E172" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4113,16 +4116,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C173">
-        <v>104.586</v>
+        <v>110.526</v>
       </c>
       <c r="D173" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E173" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4133,13 +4136,13 @@
         <v>266</v>
       </c>
       <c r="C174">
-        <v>99.11499999999999</v>
+        <v>119.028</v>
       </c>
       <c r="D174" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E174" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4147,16 +4150,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C175">
-        <v>110.256</v>
+        <v>113.542</v>
       </c>
       <c r="D175" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E175" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4164,16 +4167,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C176">
-        <v>108.824</v>
+        <v>133.333</v>
       </c>
       <c r="D176" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E176" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4181,16 +4184,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C177">
-        <v>109.777</v>
+        <v>124.138</v>
       </c>
       <c r="D177" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E177" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4198,16 +4201,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C178">
-        <v>102.805</v>
+        <v>106.686</v>
       </c>
       <c r="D178" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E178" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4218,13 +4221,13 @@
         <v>266</v>
       </c>
       <c r="C179">
-        <v>88.04300000000001</v>
+        <v>107.333</v>
       </c>
       <c r="D179" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E179" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4235,13 +4238,13 @@
         <v>266</v>
       </c>
       <c r="C180">
-        <v>97.18300000000001</v>
+        <v>100.893</v>
       </c>
       <c r="D180" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E180" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4249,16 +4252,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C181">
-        <v>101.791</v>
+        <v>108.8</v>
       </c>
       <c r="D181" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E181" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4266,16 +4269,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C182">
-        <v>141.219</v>
+        <v>102.533</v>
       </c>
       <c r="D182" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E182" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4283,16 +4286,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C183">
-        <v>102.581</v>
+        <v>173.444</v>
       </c>
       <c r="D183" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E183" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4300,16 +4303,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C184">
-        <v>110</v>
+        <v>113.281</v>
       </c>
       <c r="D184" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E184" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4320,13 +4323,13 @@
         <v>266</v>
       </c>
       <c r="C185">
-        <v>95.333</v>
+        <v>107.407</v>
       </c>
       <c r="D185" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E185" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4334,16 +4337,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C186">
-        <v>109.524</v>
+        <v>117.672</v>
       </c>
       <c r="D186" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E186" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4351,16 +4354,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C187">
-        <v>153.333</v>
+        <v>121.053</v>
       </c>
       <c r="D187" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E187" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4371,13 +4374,13 @@
         <v>266</v>
       </c>
       <c r="C188">
-        <v>31.579</v>
+        <v>153.333</v>
       </c>
       <c r="D188" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E188" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4385,16 +4388,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C189">
-        <v>112.871</v>
+        <v>33.333</v>
       </c>
       <c r="D189" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E189" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4402,16 +4405,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C190">
-        <v>269.565</v>
+        <v>133.333</v>
       </c>
       <c r="D190" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E190" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4419,16 +4422,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C191">
-        <v>103.729</v>
+        <v>290</v>
       </c>
       <c r="D191" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E191" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4436,16 +4439,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C192">
-        <v>105</v>
+        <v>113.208</v>
       </c>
       <c r="D192" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E192" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4453,16 +4456,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C193">
-        <v>106.771</v>
+        <v>124.242</v>
       </c>
       <c r="D193" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E193" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4473,13 +4476,13 @@
         <v>266</v>
       </c>
       <c r="C194">
-        <v>96.226</v>
+        <v>133.714</v>
       </c>
       <c r="D194" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E194" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4487,16 +4490,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C195">
-        <v>103.448</v>
+        <v>106</v>
       </c>
       <c r="D195" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E195" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4504,16 +4507,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C196">
-        <v>106.25</v>
+        <v>112.121</v>
       </c>
       <c r="D196" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E196" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4521,16 +4524,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C197">
-        <v>102.133</v>
+        <v>115.789</v>
       </c>
       <c r="D197" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E197" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4538,16 +4541,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C198">
-        <v>115.547</v>
+        <v>108.696</v>
       </c>
       <c r="D198" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E198" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4555,16 +4558,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C199">
-        <v>105.206</v>
+        <v>123.2</v>
       </c>
       <c r="D199" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E199" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4572,16 +4575,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C200">
-        <v>111.111</v>
+        <v>119.38</v>
       </c>
       <c r="D200" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E200" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4589,16 +4592,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C201">
-        <v>129.832</v>
+        <v>112.5</v>
       </c>
       <c r="D201" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E201" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4606,16 +4609,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C202">
-        <v>105.556</v>
+        <v>124.206</v>
       </c>
       <c r="D202" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E202" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4626,13 +4629,13 @@
         <v>266</v>
       </c>
       <c r="C203">
-        <v>82.593</v>
+        <v>126.667</v>
       </c>
       <c r="D203" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E203" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4640,16 +4643,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C204">
-        <v>100</v>
+        <v>93.42700000000001</v>
       </c>
       <c r="D204" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E204" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4660,13 +4663,13 @@
         <v>266</v>
       </c>
       <c r="C205">
-        <v>93.285</v>
+        <v>110</v>
       </c>
       <c r="D205" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E205" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4677,13 +4680,13 @@
         <v>266</v>
       </c>
       <c r="C206">
-        <v>87.443</v>
+        <v>108.807</v>
       </c>
       <c r="D206" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E206" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4691,16 +4694,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C207">
-        <v>113.054</v>
+        <v>107.303</v>
       </c>
       <c r="D207" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E207" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4708,16 +4711,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C208">
-        <v>103.902</v>
+        <v>120.485</v>
       </c>
       <c r="D208" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E208" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4725,16 +4728,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C209">
-        <v>109.231</v>
+        <v>128.108</v>
       </c>
       <c r="D209" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E209" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4742,16 +4745,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C210">
-        <v>101.611</v>
+        <v>121.053</v>
       </c>
       <c r="D210" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E210" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4759,16 +4762,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C211">
-        <v>104.615</v>
+        <v>110.823</v>
       </c>
       <c r="D211" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E211" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4779,13 +4782,13 @@
         <v>266</v>
       </c>
       <c r="C212">
-        <v>94.444</v>
+        <v>129.091</v>
       </c>
       <c r="D212" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E212" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4793,16 +4796,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C213">
-        <v>109.722</v>
+        <v>104.878</v>
       </c>
       <c r="D213" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E213" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4810,16 +4813,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C214">
-        <v>122.195</v>
+        <v>120</v>
       </c>
       <c r="D214" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E214" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4830,13 +4833,13 @@
         <v>266</v>
       </c>
       <c r="C215">
-        <v>96.185</v>
+        <v>135.493</v>
       </c>
       <c r="D215" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E215" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4844,16 +4847,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C216">
-        <v>134.212</v>
+        <v>109.404</v>
       </c>
       <c r="D216" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E216" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4861,16 +4864,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C217">
-        <v>109.677</v>
+        <v>122.066</v>
       </c>
       <c r="D217" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E217" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4881,13 +4884,13 @@
         <v>266</v>
       </c>
       <c r="C218">
-        <v>97.468</v>
+        <v>130.769</v>
       </c>
       <c r="D218" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E218" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4895,16 +4898,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C219">
-        <v>109.459</v>
+        <v>110.294</v>
       </c>
       <c r="D219" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E219" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4915,13 +4918,13 @@
         <v>266</v>
       </c>
       <c r="C220">
-        <v>88.199</v>
+        <v>130.159</v>
       </c>
       <c r="D220" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E220" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4929,16 +4932,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C221">
-        <v>129.242</v>
+        <v>10.559</v>
       </c>
       <c r="D221" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E221" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4946,16 +4949,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C222">
-        <v>109.259</v>
+        <v>124.907</v>
       </c>
       <c r="D222" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E222" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4963,16 +4966,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C223">
-        <v>100</v>
+        <v>121.212</v>
       </c>
       <c r="D223" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E223" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4980,16 +4983,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C224">
-        <v>113.333</v>
+        <v>116.234</v>
       </c>
       <c r="D224" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E224" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -4997,16 +5000,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C225">
-        <v>112.214</v>
+        <v>128.947</v>
       </c>
       <c r="D225" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E225" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5014,16 +5017,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C226">
-        <v>103.571</v>
+        <v>119.091</v>
       </c>
       <c r="D226" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E226" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5031,16 +5034,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C227">
-        <v>100</v>
+        <v>127.273</v>
       </c>
       <c r="D227" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E227" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5048,16 +5051,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C228">
-        <v>102.044</v>
+        <v>115.625</v>
       </c>
       <c r="D228" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E228" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5065,16 +5068,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C229">
-        <v>112.903</v>
+        <v>100.509</v>
       </c>
       <c r="D229" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E229" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5082,16 +5085,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C230">
-        <v>104.036</v>
+        <v>108.333</v>
       </c>
       <c r="D230" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E230" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5099,16 +5102,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C231">
-        <v>102</v>
+        <v>112.476</v>
       </c>
       <c r="D231" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E231" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5116,16 +5119,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C232">
-        <v>103.571</v>
+        <v>100</v>
       </c>
       <c r="D232" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E232" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5136,13 +5139,13 @@
         <v>266</v>
       </c>
       <c r="C233">
-        <v>97.059</v>
+        <v>114.634</v>
       </c>
       <c r="D233" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E233" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5150,16 +5153,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C234">
-        <v>103.171</v>
+        <v>114.035</v>
       </c>
       <c r="D234" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E234" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5170,13 +5173,13 @@
         <v>266</v>
       </c>
       <c r="C235">
-        <v>97.276</v>
+        <v>119.83</v>
       </c>
       <c r="D235" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E235" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="236" spans="1:5">
@@ -5184,16 +5187,16 @@
         <v>239</v>
       </c>
       <c r="B236" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C236">
-        <v>102.979</v>
+        <v>127.74</v>
       </c>
       <c r="D236" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E236" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="237" spans="1:5">
@@ -5201,16 +5204,16 @@
         <v>240</v>
       </c>
       <c r="B237" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C237">
-        <v>100</v>
+        <v>116.965</v>
       </c>
       <c r="D237" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E237" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="238" spans="1:5">
@@ -5218,16 +5221,16 @@
         <v>241</v>
       </c>
       <c r="B238" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C238">
         <v>100</v>
       </c>
       <c r="D238" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E238" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="239" spans="1:5">
@@ -5238,13 +5241,13 @@
         <v>266</v>
       </c>
       <c r="C239">
-        <v>92.30800000000001</v>
+        <v>100</v>
       </c>
       <c r="D239" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E239" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="240" spans="1:5">
@@ -5252,16 +5255,16 @@
         <v>243</v>
       </c>
       <c r="B240" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C240">
-        <v>122.222</v>
+        <v>109.091</v>
       </c>
       <c r="D240" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E240" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="241" spans="1:5">
@@ -5269,16 +5272,16 @@
         <v>244</v>
       </c>
       <c r="B241" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C241">
-        <v>108.696</v>
+        <v>133.333</v>
       </c>
       <c r="D241" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E241" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="242" spans="1:5">
@@ -5286,16 +5289,16 @@
         <v>245</v>
       </c>
       <c r="B242" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C242">
-        <v>111.765</v>
+        <v>120.988</v>
       </c>
       <c r="D242" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E242" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="243" spans="1:5">
@@ -5303,16 +5306,16 @@
         <v>246</v>
       </c>
       <c r="B243" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C243">
-        <v>117.857</v>
+        <v>127.586</v>
       </c>
       <c r="D243" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E243" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="244" spans="1:5">
@@ -5320,16 +5323,16 @@
         <v>247</v>
       </c>
       <c r="B244" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C244">
-        <v>103.836</v>
+        <v>151.852</v>
       </c>
       <c r="D244" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E244" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="245" spans="1:5">
@@ -5337,16 +5340,16 @@
         <v>248</v>
       </c>
       <c r="B245" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C245">
-        <v>100.368</v>
+        <v>120.872</v>
       </c>
       <c r="D245" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E245" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -5354,16 +5357,16 @@
         <v>249</v>
       </c>
       <c r="B246" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C246">
-        <v>103.547</v>
+        <v>113.551</v>
       </c>
       <c r="D246" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E246" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -5371,16 +5374,16 @@
         <v>250</v>
       </c>
       <c r="B247" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C247">
-        <v>100</v>
+        <v>114.362</v>
       </c>
       <c r="D247" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E247" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="248" spans="1:5">
@@ -5391,13 +5394,13 @@
         <v>266</v>
       </c>
       <c r="C248">
-        <v>96.754</v>
+        <v>117.099</v>
       </c>
       <c r="D248" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E248" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="249" spans="1:5">
@@ -5405,16 +5408,16 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C249">
-        <v>103.251</v>
+        <v>112.933</v>
       </c>
       <c r="D249" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E249" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="250" spans="1:5">
@@ -5422,16 +5425,16 @@
         <v>253</v>
       </c>
       <c r="B250" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C250">
-        <v>100</v>
+        <v>113.525</v>
       </c>
       <c r="D250" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E250" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="251" spans="1:5">
@@ -5439,16 +5442,16 @@
         <v>254</v>
       </c>
       <c r="B251" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C251">
-        <v>110.345</v>
+        <v>112.195</v>
       </c>
       <c r="D251" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E251" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="252" spans="1:5">
@@ -5459,13 +5462,13 @@
         <v>266</v>
       </c>
       <c r="C252">
-        <v>98.343</v>
+        <v>128</v>
       </c>
       <c r="D252" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E252" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="253" spans="1:5">
@@ -5473,16 +5476,16 @@
         <v>256</v>
       </c>
       <c r="B253" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C253">
-        <v>104.734</v>
+        <v>98.343</v>
       </c>
       <c r="D253" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E253" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="254" spans="1:5">
@@ -5490,16 +5493,16 @@
         <v>257</v>
       </c>
       <c r="B254" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C254">
-        <v>103.226</v>
+        <v>114.483</v>
       </c>
       <c r="D254" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E254" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="255" spans="1:5">
@@ -5507,16 +5510,16 @@
         <v>258</v>
       </c>
       <c r="B255" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C255">
-        <v>102.239</v>
+        <v>106.897</v>
       </c>
       <c r="D255" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E255" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="256" spans="1:5">
@@ -5524,16 +5527,16 @@
         <v>259</v>
       </c>
       <c r="B256" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C256">
-        <v>109.06</v>
+        <v>121.93</v>
       </c>
       <c r="D256" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E256" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="257" spans="1:5">
@@ -5541,16 +5544,16 @@
         <v>260</v>
       </c>
       <c r="B257" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C257">
-        <v>100.54</v>
+        <v>125.426</v>
       </c>
       <c r="D257" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E257" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="258" spans="1:5">
@@ -5558,16 +5561,16 @@
         <v>261</v>
       </c>
       <c r="B258" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C258">
-        <v>140.698</v>
+        <v>109.211</v>
       </c>
       <c r="D258" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E258" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="259" spans="1:5">
@@ -5575,16 +5578,16 @@
         <v>262</v>
       </c>
       <c r="B259" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C259">
-        <v>106.699</v>
+        <v>176.389</v>
       </c>
       <c r="D259" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E259" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="260" spans="1:5">
@@ -5595,13 +5598,13 @@
         <v>266</v>
       </c>
       <c r="C260">
-        <v>95.547</v>
+        <v>125.01</v>
       </c>
       <c r="D260" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="E260" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
     </row>
     <row r="261" spans="1:5">
@@ -5612,13 +5615,30 @@
         <v>266</v>
       </c>
       <c r="C261">
-        <v>80.15300000000001</v>
+        <v>112.227</v>
       </c>
       <c r="D261" t="s">
+        <v>268</v>
+      </c>
+      <c r="E261" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5">
+      <c r="A262" t="s">
+        <v>265</v>
+      </c>
+      <c r="B262" t="s">
         <v>267</v>
       </c>
-      <c r="E261" t="s">
-        <v>268</v>
+      <c r="C262">
+        <v>95.614</v>
+      </c>
+      <c r="D262" t="s">
+        <v>268</v>
+      </c>
+      <c r="E262" t="s">
+        <v>269</v>
       </c>
     </row>
   </sheetData>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -229,6 +229,9 @@
     <t>CTKUSDT</t>
   </si>
   <si>
+    <t>CTSIUSDT</t>
+  </si>
+  <si>
     <t>CVCUSDT</t>
   </si>
   <si>
@@ -542,9 +545,6 @@
   </si>
   <si>
     <t>OCEANUSDT</t>
-  </si>
-  <si>
-    <t>OGNUSDT</t>
   </si>
   <si>
     <t>OGUSDT</t>
@@ -1212,7 +1212,7 @@
         <v>266</v>
       </c>
       <c r="C2">
-        <v>120</v>
+        <v>109.091</v>
       </c>
       <c r="D2" t="s">
         <v>268</v>
@@ -1229,7 +1229,7 @@
         <v>266</v>
       </c>
       <c r="C3">
-        <v>114.94</v>
+        <v>106.461</v>
       </c>
       <c r="D3" t="s">
         <v>268</v>
@@ -1246,7 +1246,7 @@
         <v>266</v>
       </c>
       <c r="C4">
-        <v>105.882</v>
+        <v>100</v>
       </c>
       <c r="D4" t="s">
         <v>268</v>
@@ -1263,7 +1263,7 @@
         <v>266</v>
       </c>
       <c r="C5">
-        <v>121.397</v>
+        <v>113.878</v>
       </c>
       <c r="D5" t="s">
         <v>268</v>
@@ -1280,7 +1280,7 @@
         <v>266</v>
       </c>
       <c r="C6">
-        <v>110.169</v>
+        <v>103.125</v>
       </c>
       <c r="D6" t="s">
         <v>268</v>
@@ -1297,7 +1297,7 @@
         <v>266</v>
       </c>
       <c r="C7">
-        <v>126.087</v>
+        <v>116.667</v>
       </c>
       <c r="D7" t="s">
         <v>268</v>
@@ -1314,7 +1314,7 @@
         <v>266</v>
       </c>
       <c r="C8">
-        <v>128.571</v>
+        <v>112.5</v>
       </c>
       <c r="D8" t="s">
         <v>268</v>
@@ -1348,7 +1348,7 @@
         <v>266</v>
       </c>
       <c r="C10">
-        <v>136.735</v>
+        <v>120.721</v>
       </c>
       <c r="D10" t="s">
         <v>268</v>
@@ -1365,7 +1365,7 @@
         <v>266</v>
       </c>
       <c r="C11">
-        <v>124.06</v>
+        <v>113.014</v>
       </c>
       <c r="D11" t="s">
         <v>268</v>
@@ -1382,7 +1382,7 @@
         <v>266</v>
       </c>
       <c r="C12">
-        <v>115.881</v>
+        <v>107.922</v>
       </c>
       <c r="D12" t="s">
         <v>268</v>
@@ -1399,7 +1399,7 @@
         <v>266</v>
       </c>
       <c r="C13">
-        <v>117.391</v>
+        <v>112</v>
       </c>
       <c r="D13" t="s">
         <v>268</v>
@@ -1416,7 +1416,7 @@
         <v>266</v>
       </c>
       <c r="C14">
-        <v>116.265</v>
+        <v>105.405</v>
       </c>
       <c r="D14" t="s">
         <v>268</v>
@@ -1433,7 +1433,7 @@
         <v>266</v>
       </c>
       <c r="C15">
-        <v>128.571</v>
+        <v>113.043</v>
       </c>
       <c r="D15" t="s">
         <v>268</v>
@@ -1450,7 +1450,7 @@
         <v>266</v>
       </c>
       <c r="C16">
-        <v>120.465</v>
+        <v>111.688</v>
       </c>
       <c r="D16" t="s">
         <v>268</v>
@@ -1484,7 +1484,7 @@
         <v>266</v>
       </c>
       <c r="C18">
-        <v>113.966</v>
+        <v>105.208</v>
       </c>
       <c r="D18" t="s">
         <v>268</v>
@@ -1498,10 +1498,10 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C19">
-        <v>124.43</v>
+        <v>99.23099999999999</v>
       </c>
       <c r="D19" t="s">
         <v>268</v>
@@ -1518,7 +1518,7 @@
         <v>266</v>
       </c>
       <c r="C20">
-        <v>115.997</v>
+        <v>109.75</v>
       </c>
       <c r="D20" t="s">
         <v>268</v>
@@ -1532,10 +1532,10 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C21">
-        <v>103.704</v>
+        <v>94.286</v>
       </c>
       <c r="D21" t="s">
         <v>268</v>
@@ -1549,10 +1549,10 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C22">
-        <v>115.966</v>
+        <v>99.248</v>
       </c>
       <c r="D22" t="s">
         <v>268</v>
@@ -1569,7 +1569,7 @@
         <v>266</v>
       </c>
       <c r="C23">
-        <v>121.348</v>
+        <v>109.278</v>
       </c>
       <c r="D23" t="s">
         <v>268</v>
@@ -1586,7 +1586,7 @@
         <v>266</v>
       </c>
       <c r="C24">
-        <v>138.857</v>
+        <v>117.169</v>
       </c>
       <c r="D24" t="s">
         <v>268</v>
@@ -1603,7 +1603,7 @@
         <v>266</v>
       </c>
       <c r="C25">
-        <v>116.854</v>
+        <v>109.507</v>
       </c>
       <c r="D25" t="s">
         <v>268</v>
@@ -1620,7 +1620,7 @@
         <v>266</v>
       </c>
       <c r="C26">
-        <v>120</v>
+        <v>105.882</v>
       </c>
       <c r="D26" t="s">
         <v>268</v>
@@ -1637,7 +1637,7 @@
         <v>266</v>
       </c>
       <c r="C27">
-        <v>120</v>
+        <v>105.882</v>
       </c>
       <c r="D27" t="s">
         <v>268</v>
@@ -1654,7 +1654,7 @@
         <v>266</v>
       </c>
       <c r="C28">
-        <v>124.265</v>
+        <v>117.241</v>
       </c>
       <c r="D28" t="s">
         <v>268</v>
@@ -1671,7 +1671,7 @@
         <v>266</v>
       </c>
       <c r="C29">
-        <v>114.233</v>
+        <v>105.187</v>
       </c>
       <c r="D29" t="s">
         <v>268</v>
@@ -1688,7 +1688,7 @@
         <v>266</v>
       </c>
       <c r="C30">
-        <v>125.76</v>
+        <v>121.558</v>
       </c>
       <c r="D30" t="s">
         <v>268</v>
@@ -1705,7 +1705,7 @@
         <v>266</v>
       </c>
       <c r="C31">
-        <v>120</v>
+        <v>114.815</v>
       </c>
       <c r="D31" t="s">
         <v>268</v>
@@ -1722,7 +1722,7 @@
         <v>266</v>
       </c>
       <c r="C32">
-        <v>125</v>
+        <v>110.976</v>
       </c>
       <c r="D32" t="s">
         <v>268</v>
@@ -1736,10 +1736,10 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C33">
-        <v>101.193</v>
+        <v>93.971</v>
       </c>
       <c r="D33" t="s">
         <v>268</v>
@@ -1756,7 +1756,7 @@
         <v>266</v>
       </c>
       <c r="C34">
-        <v>120.15</v>
+        <v>109.646</v>
       </c>
       <c r="D34" t="s">
         <v>268</v>
@@ -1773,7 +1773,7 @@
         <v>266</v>
       </c>
       <c r="C35">
-        <v>168.807</v>
+        <v>144.807</v>
       </c>
       <c r="D35" t="s">
         <v>268</v>
@@ -1790,7 +1790,7 @@
         <v>266</v>
       </c>
       <c r="C36">
-        <v>128.571</v>
+        <v>117.949</v>
       </c>
       <c r="D36" t="s">
         <v>268</v>
@@ -1807,7 +1807,7 @@
         <v>266</v>
       </c>
       <c r="C37">
-        <v>116.143</v>
+        <v>103.838</v>
       </c>
       <c r="D37" t="s">
         <v>268</v>
@@ -1824,7 +1824,7 @@
         <v>266</v>
       </c>
       <c r="C38">
-        <v>117.46</v>
+        <v>108.654</v>
       </c>
       <c r="D38" t="s">
         <v>268</v>
@@ -1841,7 +1841,7 @@
         <v>266</v>
       </c>
       <c r="C39">
-        <v>123.311</v>
+        <v>112.934</v>
       </c>
       <c r="D39" t="s">
         <v>268</v>
@@ -1858,7 +1858,7 @@
         <v>266</v>
       </c>
       <c r="C40">
-        <v>125.926</v>
+        <v>110</v>
       </c>
       <c r="D40" t="s">
         <v>268</v>
@@ -1875,7 +1875,7 @@
         <v>266</v>
       </c>
       <c r="C41">
-        <v>158.417</v>
+        <v>153.78</v>
       </c>
       <c r="D41" t="s">
         <v>268</v>
@@ -1892,7 +1892,7 @@
         <v>266</v>
       </c>
       <c r="C42">
-        <v>126.316</v>
+        <v>116.667</v>
       </c>
       <c r="D42" t="s">
         <v>268</v>
@@ -1909,7 +1909,7 @@
         <v>266</v>
       </c>
       <c r="C43">
-        <v>118.75</v>
+        <v>122.642</v>
       </c>
       <c r="D43" t="s">
         <v>268</v>
@@ -1926,7 +1926,7 @@
         <v>266</v>
       </c>
       <c r="C44">
-        <v>126.02</v>
+        <v>114.779</v>
       </c>
       <c r="D44" t="s">
         <v>268</v>
@@ -1943,7 +1943,7 @@
         <v>266</v>
       </c>
       <c r="C45">
-        <v>109.091</v>
+        <v>100</v>
       </c>
       <c r="D45" t="s">
         <v>268</v>
@@ -1977,7 +1977,7 @@
         <v>266</v>
       </c>
       <c r="C47">
-        <v>115.521</v>
+        <v>110.848</v>
       </c>
       <c r="D47" t="s">
         <v>268</v>
@@ -1994,7 +1994,7 @@
         <v>266</v>
       </c>
       <c r="C48">
-        <v>117.333</v>
+        <v>107.229</v>
       </c>
       <c r="D48" t="s">
         <v>268</v>
@@ -2028,7 +2028,7 @@
         <v>266</v>
       </c>
       <c r="C50">
-        <v>153.25</v>
+        <v>115.108</v>
       </c>
       <c r="D50" t="s">
         <v>268</v>
@@ -2045,7 +2045,7 @@
         <v>266</v>
       </c>
       <c r="C51">
-        <v>116.667</v>
+        <v>107.692</v>
       </c>
       <c r="D51" t="s">
         <v>268</v>
@@ -2079,7 +2079,7 @@
         <v>266</v>
       </c>
       <c r="C53">
-        <v>114.216</v>
+        <v>103.223</v>
       </c>
       <c r="D53" t="s">
         <v>268</v>
@@ -2096,7 +2096,7 @@
         <v>266</v>
       </c>
       <c r="C54">
-        <v>110.127</v>
+        <v>102.353</v>
       </c>
       <c r="D54" t="s">
         <v>268</v>
@@ -2130,7 +2130,7 @@
         <v>266</v>
       </c>
       <c r="C56">
-        <v>121.212</v>
+        <v>111.111</v>
       </c>
       <c r="D56" t="s">
         <v>268</v>
@@ -2147,7 +2147,7 @@
         <v>266</v>
       </c>
       <c r="C57">
-        <v>127.473</v>
+        <v>119.095</v>
       </c>
       <c r="D57" t="s">
         <v>268</v>
@@ -2164,7 +2164,7 @@
         <v>266</v>
       </c>
       <c r="C58">
-        <v>121.698</v>
+        <v>106.78</v>
       </c>
       <c r="D58" t="s">
         <v>268</v>
@@ -2181,7 +2181,7 @@
         <v>266</v>
       </c>
       <c r="C59">
-        <v>123.077</v>
+        <v>110.345</v>
       </c>
       <c r="D59" t="s">
         <v>268</v>
@@ -2198,7 +2198,7 @@
         <v>266</v>
       </c>
       <c r="C60">
-        <v>145.455</v>
+        <v>123.684</v>
       </c>
       <c r="D60" t="s">
         <v>268</v>
@@ -2215,7 +2215,7 @@
         <v>266</v>
       </c>
       <c r="C61">
-        <v>116.667</v>
+        <v>115.385</v>
       </c>
       <c r="D61" t="s">
         <v>268</v>
@@ -2232,7 +2232,7 @@
         <v>266</v>
       </c>
       <c r="C62">
-        <v>122.492</v>
+        <v>115.211</v>
       </c>
       <c r="D62" t="s">
         <v>268</v>
@@ -2249,7 +2249,7 @@
         <v>266</v>
       </c>
       <c r="C63">
-        <v>125.926</v>
+        <v>122.222</v>
       </c>
       <c r="D63" t="s">
         <v>268</v>
@@ -2266,7 +2266,7 @@
         <v>266</v>
       </c>
       <c r="C64">
-        <v>118.167</v>
+        <v>108.352</v>
       </c>
       <c r="D64" t="s">
         <v>268</v>
@@ -2283,7 +2283,7 @@
         <v>266</v>
       </c>
       <c r="C65">
-        <v>128.985</v>
+        <v>125.141</v>
       </c>
       <c r="D65" t="s">
         <v>268</v>
@@ -2300,7 +2300,7 @@
         <v>266</v>
       </c>
       <c r="C66">
-        <v>116.667</v>
+        <v>105.97</v>
       </c>
       <c r="D66" t="s">
         <v>268</v>
@@ -2317,7 +2317,7 @@
         <v>266</v>
       </c>
       <c r="C67">
-        <v>117.284</v>
+        <v>110.989</v>
       </c>
       <c r="D67" t="s">
         <v>268</v>
@@ -2334,7 +2334,7 @@
         <v>266</v>
       </c>
       <c r="C68">
-        <v>183.333</v>
+        <v>110</v>
       </c>
       <c r="D68" t="s">
         <v>268</v>
@@ -2351,7 +2351,7 @@
         <v>266</v>
       </c>
       <c r="C69">
-        <v>126</v>
+        <v>150</v>
       </c>
       <c r="D69" t="s">
         <v>268</v>
@@ -2368,7 +2368,7 @@
         <v>266</v>
       </c>
       <c r="C70">
-        <v>114.835</v>
+        <v>114.815</v>
       </c>
       <c r="D70" t="s">
         <v>268</v>
@@ -2385,7 +2385,7 @@
         <v>266</v>
       </c>
       <c r="C71">
-        <v>108.977</v>
+        <v>107.848</v>
       </c>
       <c r="D71" t="s">
         <v>268</v>
@@ -2402,7 +2402,7 @@
         <v>266</v>
       </c>
       <c r="C72">
-        <v>130</v>
+        <v>105.331</v>
       </c>
       <c r="D72" t="s">
         <v>268</v>
@@ -2419,7 +2419,7 @@
         <v>266</v>
       </c>
       <c r="C73">
-        <v>117.874</v>
+        <v>118.182</v>
       </c>
       <c r="D73" t="s">
         <v>268</v>
@@ -2436,7 +2436,7 @@
         <v>266</v>
       </c>
       <c r="C74">
-        <v>122.798</v>
+        <v>112.217</v>
       </c>
       <c r="D74" t="s">
         <v>268</v>
@@ -2453,7 +2453,7 @@
         <v>266</v>
       </c>
       <c r="C75">
-        <v>111.455</v>
+        <v>115.36</v>
       </c>
       <c r="D75" t="s">
         <v>268</v>
@@ -2470,7 +2470,7 @@
         <v>266</v>
       </c>
       <c r="C76">
-        <v>133.267</v>
+        <v>101.127</v>
       </c>
       <c r="D76" t="s">
         <v>268</v>
@@ -2487,7 +2487,7 @@
         <v>266</v>
       </c>
       <c r="C77">
-        <v>123.214</v>
+        <v>147.886</v>
       </c>
       <c r="D77" t="s">
         <v>268</v>
@@ -2504,7 +2504,7 @@
         <v>266</v>
       </c>
       <c r="C78">
-        <v>118.182</v>
+        <v>113.115</v>
       </c>
       <c r="D78" t="s">
         <v>268</v>
@@ -2521,7 +2521,7 @@
         <v>266</v>
       </c>
       <c r="C79">
-        <v>108.894</v>
+        <v>108.333</v>
       </c>
       <c r="D79" t="s">
         <v>268</v>
@@ -2535,10 +2535,10 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C80">
-        <v>24.242</v>
+        <v>100.633</v>
       </c>
       <c r="D80" t="s">
         <v>268</v>
@@ -2552,10 +2552,10 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C81">
-        <v>110.611</v>
+        <v>46.667</v>
       </c>
       <c r="D81" t="s">
         <v>268</v>
@@ -2572,7 +2572,7 @@
         <v>266</v>
       </c>
       <c r="C82">
-        <v>100</v>
+        <v>103.858</v>
       </c>
       <c r="D82" t="s">
         <v>268</v>
@@ -2586,10 +2586,10 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C83">
-        <v>110.941</v>
+        <v>93.80500000000001</v>
       </c>
       <c r="D83" t="s">
         <v>268</v>
@@ -2603,10 +2603,10 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C84">
-        <v>120</v>
+        <v>99.066</v>
       </c>
       <c r="D84" t="s">
         <v>268</v>
@@ -2623,7 +2623,7 @@
         <v>266</v>
       </c>
       <c r="C85">
-        <v>108.696</v>
+        <v>108.197</v>
       </c>
       <c r="D85" t="s">
         <v>268</v>
@@ -2637,10 +2637,10 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C86">
-        <v>114.605</v>
+        <v>98.039</v>
       </c>
       <c r="D86" t="s">
         <v>268</v>
@@ -2657,7 +2657,7 @@
         <v>266</v>
       </c>
       <c r="C87">
-        <v>116.484</v>
+        <v>104.938</v>
       </c>
       <c r="D87" t="s">
         <v>268</v>
@@ -2671,10 +2671,10 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C88">
-        <v>81.515</v>
+        <v>112</v>
       </c>
       <c r="D88" t="s">
         <v>268</v>
@@ -2688,10 +2688,10 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C89">
-        <v>116.486</v>
+        <v>82.59699999999999</v>
       </c>
       <c r="D89" t="s">
         <v>268</v>
@@ -2705,10 +2705,10 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C90">
-        <v>83.333</v>
+        <v>112.063</v>
       </c>
       <c r="D90" t="s">
         <v>268</v>
@@ -2722,10 +2722,10 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C91">
-        <v>130.459</v>
+        <v>83.333</v>
       </c>
       <c r="D91" t="s">
         <v>268</v>
@@ -2742,7 +2742,7 @@
         <v>266</v>
       </c>
       <c r="C92">
-        <v>113.443</v>
+        <v>130.459</v>
       </c>
       <c r="D92" t="s">
         <v>268</v>
@@ -2756,10 +2756,10 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C93">
-        <v>99.083</v>
+        <v>100.788</v>
       </c>
       <c r="D93" t="s">
         <v>268</v>
@@ -2773,10 +2773,10 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C94">
-        <v>117.16</v>
+        <v>99.083</v>
       </c>
       <c r="D94" t="s">
         <v>268</v>
@@ -2793,7 +2793,7 @@
         <v>266</v>
       </c>
       <c r="C95">
-        <v>100</v>
+        <v>108.841</v>
       </c>
       <c r="D95" t="s">
         <v>268</v>
@@ -2810,7 +2810,7 @@
         <v>266</v>
       </c>
       <c r="C96">
-        <v>110.417</v>
+        <v>100</v>
       </c>
       <c r="D96" t="s">
         <v>268</v>
@@ -2827,7 +2827,7 @@
         <v>266</v>
       </c>
       <c r="C97">
-        <v>114.25</v>
+        <v>101.887</v>
       </c>
       <c r="D97" t="s">
         <v>268</v>
@@ -2844,7 +2844,7 @@
         <v>266</v>
       </c>
       <c r="C98">
-        <v>115.934</v>
+        <v>111.458</v>
       </c>
       <c r="D98" t="s">
         <v>268</v>
@@ -2861,7 +2861,7 @@
         <v>266</v>
       </c>
       <c r="C99">
-        <v>137.288</v>
+        <v>116.94</v>
       </c>
       <c r="D99" t="s">
         <v>268</v>
@@ -2878,7 +2878,7 @@
         <v>266</v>
       </c>
       <c r="C100">
-        <v>115.833</v>
+        <v>151.562</v>
       </c>
       <c r="D100" t="s">
         <v>268</v>
@@ -2892,10 +2892,10 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C101">
-        <v>97.727</v>
+        <v>102.256</v>
       </c>
       <c r="D101" t="s">
         <v>268</v>
@@ -2909,10 +2909,10 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C102">
-        <v>104.844</v>
+        <v>90.97199999999999</v>
       </c>
       <c r="D102" t="s">
         <v>268</v>
@@ -2926,10 +2926,10 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C103">
-        <v>91.367</v>
+        <v>103.509</v>
       </c>
       <c r="D103" t="s">
         <v>268</v>
@@ -2946,7 +2946,7 @@
         <v>267</v>
       </c>
       <c r="C104">
-        <v>99.029</v>
+        <v>94.11799999999999</v>
       </c>
       <c r="D104" t="s">
         <v>268</v>
@@ -2960,10 +2960,10 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C105">
-        <v>121.469</v>
+        <v>88.393</v>
       </c>
       <c r="D105" t="s">
         <v>268</v>
@@ -2980,7 +2980,7 @@
         <v>266</v>
       </c>
       <c r="C106">
-        <v>112.979</v>
+        <v>102.116</v>
       </c>
       <c r="D106" t="s">
         <v>268</v>
@@ -2997,7 +2997,7 @@
         <v>266</v>
       </c>
       <c r="C107">
-        <v>112.876</v>
+        <v>104.218</v>
       </c>
       <c r="D107" t="s">
         <v>268</v>
@@ -3014,7 +3014,7 @@
         <v>266</v>
       </c>
       <c r="C108">
-        <v>122.592</v>
+        <v>104.348</v>
       </c>
       <c r="D108" t="s">
         <v>268</v>
@@ -3028,10 +3028,10 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C109">
-        <v>95.161</v>
+        <v>110.652</v>
       </c>
       <c r="D109" t="s">
         <v>268</v>
@@ -3045,10 +3045,10 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C110">
-        <v>165.347</v>
+        <v>95.161</v>
       </c>
       <c r="D110" t="s">
         <v>268</v>
@@ -3065,7 +3065,7 @@
         <v>266</v>
       </c>
       <c r="C111">
-        <v>106.25</v>
+        <v>136.937</v>
       </c>
       <c r="D111" t="s">
         <v>268</v>
@@ -3079,10 +3079,10 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C112">
-        <v>138.636</v>
+        <v>94.34</v>
       </c>
       <c r="D112" t="s">
         <v>268</v>
@@ -3099,7 +3099,7 @@
         <v>266</v>
       </c>
       <c r="C113">
-        <v>161.538</v>
+        <v>128.571</v>
       </c>
       <c r="D113" t="s">
         <v>268</v>
@@ -3116,7 +3116,7 @@
         <v>266</v>
       </c>
       <c r="C114">
-        <v>106.862</v>
+        <v>131.034</v>
       </c>
       <c r="D114" t="s">
         <v>268</v>
@@ -3130,10 +3130,10 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C115">
-        <v>121.234</v>
+        <v>94.402</v>
       </c>
       <c r="D115" t="s">
         <v>268</v>
@@ -3150,7 +3150,7 @@
         <v>266</v>
       </c>
       <c r="C116">
-        <v>109.914</v>
+        <v>105.59</v>
       </c>
       <c r="D116" t="s">
         <v>268</v>
@@ -3167,7 +3167,7 @@
         <v>266</v>
       </c>
       <c r="C117">
-        <v>127.647</v>
+        <v>100.198</v>
       </c>
       <c r="D117" t="s">
         <v>268</v>
@@ -3184,7 +3184,7 @@
         <v>266</v>
       </c>
       <c r="C118">
-        <v>131.818</v>
+        <v>119.149</v>
       </c>
       <c r="D118" t="s">
         <v>268</v>
@@ -3201,7 +3201,7 @@
         <v>266</v>
       </c>
       <c r="C119">
-        <v>115</v>
+        <v>116.667</v>
       </c>
       <c r="D119" t="s">
         <v>268</v>
@@ -3218,7 +3218,7 @@
         <v>266</v>
       </c>
       <c r="C120">
-        <v>145.238</v>
+        <v>104.545</v>
       </c>
       <c r="D120" t="s">
         <v>268</v>
@@ -3235,7 +3235,7 @@
         <v>266</v>
       </c>
       <c r="C121">
-        <v>125.731</v>
+        <v>125.806</v>
       </c>
       <c r="D121" t="s">
         <v>268</v>
@@ -3252,7 +3252,7 @@
         <v>266</v>
       </c>
       <c r="C122">
-        <v>122.857</v>
+        <v>119.048</v>
       </c>
       <c r="D122" t="s">
         <v>268</v>
@@ -3269,7 +3269,7 @@
         <v>266</v>
       </c>
       <c r="C123">
-        <v>122.656</v>
+        <v>113.158</v>
       </c>
       <c r="D123" t="s">
         <v>268</v>
@@ -3286,7 +3286,7 @@
         <v>266</v>
       </c>
       <c r="C124">
-        <v>161.813</v>
+        <v>119.259</v>
       </c>
       <c r="D124" t="s">
         <v>268</v>
@@ -3303,7 +3303,7 @@
         <v>266</v>
       </c>
       <c r="C125">
-        <v>129.63</v>
+        <v>147.567</v>
       </c>
       <c r="D125" t="s">
         <v>268</v>
@@ -3317,10 +3317,10 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C126">
-        <v>75.155</v>
+        <v>120</v>
       </c>
       <c r="D126" t="s">
         <v>268</v>
@@ -3334,10 +3334,10 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C127">
-        <v>123.371</v>
+        <v>66.667</v>
       </c>
       <c r="D127" t="s">
         <v>268</v>
@@ -3354,7 +3354,7 @@
         <v>266</v>
       </c>
       <c r="C128">
-        <v>113.953</v>
+        <v>104.551</v>
       </c>
       <c r="D128" t="s">
         <v>268</v>
@@ -3371,7 +3371,7 @@
         <v>266</v>
       </c>
       <c r="C129">
-        <v>105.181</v>
+        <v>104.467</v>
       </c>
       <c r="D129" t="s">
         <v>268</v>
@@ -3385,10 +3385,10 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C130">
-        <v>125</v>
+        <v>95.04300000000001</v>
       </c>
       <c r="D130" t="s">
         <v>268</v>
@@ -3402,10 +3402,10 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C131">
-        <v>96.774</v>
+        <v>109.375</v>
       </c>
       <c r="D131" t="s">
         <v>268</v>
@@ -3422,7 +3422,7 @@
         <v>267</v>
       </c>
       <c r="C132">
-        <v>92.236</v>
+        <v>91.57899999999999</v>
       </c>
       <c r="D132" t="s">
         <v>268</v>
@@ -3436,10 +3436,10 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C133">
-        <v>115.936</v>
+        <v>92.355</v>
       </c>
       <c r="D133" t="s">
         <v>268</v>
@@ -3456,7 +3456,7 @@
         <v>266</v>
       </c>
       <c r="C134">
-        <v>117.857</v>
+        <v>110.189</v>
       </c>
       <c r="D134" t="s">
         <v>268</v>
@@ -3473,7 +3473,7 @@
         <v>266</v>
       </c>
       <c r="C135">
-        <v>106.383</v>
+        <v>108.421</v>
       </c>
       <c r="D135" t="s">
         <v>268</v>
@@ -3487,10 +3487,10 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C136">
-        <v>117.391</v>
+        <v>93.506</v>
       </c>
       <c r="D136" t="s">
         <v>268</v>
@@ -3507,7 +3507,7 @@
         <v>266</v>
       </c>
       <c r="C137">
-        <v>140.625</v>
+        <v>103.846</v>
       </c>
       <c r="D137" t="s">
         <v>268</v>
@@ -3524,7 +3524,7 @@
         <v>266</v>
       </c>
       <c r="C138">
-        <v>121.622</v>
+        <v>126.471</v>
       </c>
       <c r="D138" t="s">
         <v>268</v>
@@ -3541,7 +3541,7 @@
         <v>266</v>
       </c>
       <c r="C139">
-        <v>127.06</v>
+        <v>111.111</v>
       </c>
       <c r="D139" t="s">
         <v>268</v>
@@ -3558,7 +3558,7 @@
         <v>266</v>
       </c>
       <c r="C140">
-        <v>117.959</v>
+        <v>123.743</v>
       </c>
       <c r="D140" t="s">
         <v>268</v>
@@ -3575,7 +3575,7 @@
         <v>266</v>
       </c>
       <c r="C141">
-        <v>115.825</v>
+        <v>107.566</v>
       </c>
       <c r="D141" t="s">
         <v>268</v>
@@ -3592,7 +3592,7 @@
         <v>266</v>
       </c>
       <c r="C142">
-        <v>127.706</v>
+        <v>109.119</v>
       </c>
       <c r="D142" t="s">
         <v>268</v>
@@ -3609,7 +3609,7 @@
         <v>266</v>
       </c>
       <c r="C143">
-        <v>116.488</v>
+        <v>110.728</v>
       </c>
       <c r="D143" t="s">
         <v>268</v>
@@ -3626,7 +3626,7 @@
         <v>266</v>
       </c>
       <c r="C144">
-        <v>133.858</v>
+        <v>102.933</v>
       </c>
       <c r="D144" t="s">
         <v>268</v>
@@ -3643,7 +3643,7 @@
         <v>266</v>
       </c>
       <c r="C145">
-        <v>127.273</v>
+        <v>120.423</v>
       </c>
       <c r="D145" t="s">
         <v>268</v>
@@ -3660,7 +3660,7 @@
         <v>266</v>
       </c>
       <c r="C146">
-        <v>110.825</v>
+        <v>113.514</v>
       </c>
       <c r="D146" t="s">
         <v>268</v>
@@ -3677,7 +3677,7 @@
         <v>266</v>
       </c>
       <c r="C147">
-        <v>106.977</v>
+        <v>100.316</v>
       </c>
       <c r="D147" t="s">
         <v>268</v>
@@ -3694,7 +3694,7 @@
         <v>266</v>
       </c>
       <c r="C148">
-        <v>114.286</v>
+        <v>111.888</v>
       </c>
       <c r="D148" t="s">
         <v>268</v>
@@ -3708,10 +3708,10 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C149">
-        <v>122.699</v>
+        <v>97.5</v>
       </c>
       <c r="D149" t="s">
         <v>268</v>
@@ -3728,7 +3728,7 @@
         <v>266</v>
       </c>
       <c r="C150">
-        <v>121.542</v>
+        <v>112.36</v>
       </c>
       <c r="D150" t="s">
         <v>268</v>
@@ -3745,7 +3745,7 @@
         <v>266</v>
       </c>
       <c r="C151">
-        <v>135.802</v>
+        <v>121.843</v>
       </c>
       <c r="D151" t="s">
         <v>268</v>
@@ -3762,7 +3762,7 @@
         <v>266</v>
       </c>
       <c r="C152">
-        <v>115.306</v>
+        <v>123.596</v>
       </c>
       <c r="D152" t="s">
         <v>268</v>
@@ -3779,7 +3779,7 @@
         <v>266</v>
       </c>
       <c r="C153">
-        <v>117.544</v>
+        <v>100.901</v>
       </c>
       <c r="D153" t="s">
         <v>268</v>
@@ -3796,7 +3796,7 @@
         <v>266</v>
       </c>
       <c r="C154">
-        <v>127.99</v>
+        <v>106.25</v>
       </c>
       <c r="D154" t="s">
         <v>268</v>
@@ -3813,7 +3813,7 @@
         <v>266</v>
       </c>
       <c r="C155">
-        <v>108.602</v>
+        <v>134.521</v>
       </c>
       <c r="D155" t="s">
         <v>268</v>
@@ -3827,10 +3827,10 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C156">
-        <v>132.653</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="D156" t="s">
         <v>268</v>
@@ -3847,7 +3847,7 @@
         <v>266</v>
       </c>
       <c r="C157">
-        <v>117.949</v>
+        <v>125</v>
       </c>
       <c r="D157" t="s">
         <v>268</v>
@@ -3864,7 +3864,7 @@
         <v>266</v>
       </c>
       <c r="C158">
-        <v>110.526</v>
+        <v>109.302</v>
       </c>
       <c r="D158" t="s">
         <v>268</v>
@@ -3881,7 +3881,7 @@
         <v>266</v>
       </c>
       <c r="C159">
-        <v>121.606</v>
+        <v>100</v>
       </c>
       <c r="D159" t="s">
         <v>268</v>
@@ -3898,7 +3898,7 @@
         <v>266</v>
       </c>
       <c r="C160">
-        <v>133.794</v>
+        <v>115.412</v>
       </c>
       <c r="D160" t="s">
         <v>268</v>
@@ -3912,10 +3912,10 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C161">
-        <v>23.333</v>
+        <v>124.105</v>
       </c>
       <c r="D161" t="s">
         <v>268</v>
@@ -3929,10 +3929,10 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C162">
-        <v>113.465</v>
+        <v>42.857</v>
       </c>
       <c r="D162" t="s">
         <v>268</v>
@@ -3949,7 +3949,7 @@
         <v>266</v>
       </c>
       <c r="C163">
-        <v>123.757</v>
+        <v>103.399</v>
       </c>
       <c r="D163" t="s">
         <v>268</v>
@@ -3963,10 +3963,10 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C164">
-        <v>64.34099999999999</v>
+        <v>109.406</v>
       </c>
       <c r="D164" t="s">
         <v>268</v>
@@ -3980,10 +3980,10 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C165">
-        <v>115.118</v>
+        <v>64.34099999999999</v>
       </c>
       <c r="D165" t="s">
         <v>268</v>
@@ -4000,7 +4000,7 @@
         <v>266</v>
       </c>
       <c r="C166">
-        <v>118.951</v>
+        <v>102.171</v>
       </c>
       <c r="D166" t="s">
         <v>268</v>
@@ -4017,7 +4017,7 @@
         <v>266</v>
       </c>
       <c r="C167">
-        <v>112.5</v>
+        <v>111.39</v>
       </c>
       <c r="D167" t="s">
         <v>268</v>
@@ -4031,10 +4031,10 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C168">
-        <v>118.941</v>
+        <v>99.259</v>
       </c>
       <c r="D168" t="s">
         <v>268</v>
@@ -4051,7 +4051,7 @@
         <v>266</v>
       </c>
       <c r="C169">
-        <v>112.963</v>
+        <v>102.564</v>
       </c>
       <c r="D169" t="s">
         <v>268</v>
@@ -4068,7 +4068,7 @@
         <v>266</v>
       </c>
       <c r="C170">
-        <v>183.333</v>
+        <v>103.39</v>
       </c>
       <c r="D170" t="s">
         <v>268</v>
@@ -4085,7 +4085,7 @@
         <v>266</v>
       </c>
       <c r="C171">
-        <v>123.529</v>
+        <v>177.083</v>
       </c>
       <c r="D171" t="s">
         <v>268</v>
@@ -4102,7 +4102,7 @@
         <v>266</v>
       </c>
       <c r="C172">
-        <v>142</v>
+        <v>117.647</v>
       </c>
       <c r="D172" t="s">
         <v>268</v>
@@ -4119,7 +4119,7 @@
         <v>266</v>
       </c>
       <c r="C173">
-        <v>110.526</v>
+        <v>120.69</v>
       </c>
       <c r="D173" t="s">
         <v>268</v>
@@ -4136,7 +4136,7 @@
         <v>266</v>
       </c>
       <c r="C174">
-        <v>119.028</v>
+        <v>110.821</v>
       </c>
       <c r="D174" t="s">
         <v>268</v>
@@ -4153,7 +4153,7 @@
         <v>266</v>
       </c>
       <c r="C175">
-        <v>113.542</v>
+        <v>105.714</v>
       </c>
       <c r="D175" t="s">
         <v>268</v>
@@ -4170,7 +4170,7 @@
         <v>266</v>
       </c>
       <c r="C176">
-        <v>133.333</v>
+        <v>119.444</v>
       </c>
       <c r="D176" t="s">
         <v>268</v>
@@ -4187,7 +4187,7 @@
         <v>266</v>
       </c>
       <c r="C177">
-        <v>124.138</v>
+        <v>115.625</v>
       </c>
       <c r="D177" t="s">
         <v>268</v>
@@ -4204,7 +4204,7 @@
         <v>266</v>
       </c>
       <c r="C178">
-        <v>106.686</v>
+        <v>103.38</v>
       </c>
       <c r="D178" t="s">
         <v>268</v>
@@ -4221,7 +4221,7 @@
         <v>266</v>
       </c>
       <c r="C179">
-        <v>107.333</v>
+        <v>100.955</v>
       </c>
       <c r="D179" t="s">
         <v>268</v>
@@ -4235,10 +4235,10 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C180">
-        <v>100.893</v>
+        <v>93.852</v>
       </c>
       <c r="D180" t="s">
         <v>268</v>
@@ -4255,7 +4255,7 @@
         <v>266</v>
       </c>
       <c r="C181">
-        <v>108.8</v>
+        <v>102.963</v>
       </c>
       <c r="D181" t="s">
         <v>268</v>
@@ -4272,7 +4272,7 @@
         <v>266</v>
       </c>
       <c r="C182">
-        <v>102.533</v>
+        <v>101.19</v>
       </c>
       <c r="D182" t="s">
         <v>268</v>
@@ -4289,7 +4289,7 @@
         <v>266</v>
       </c>
       <c r="C183">
-        <v>173.444</v>
+        <v>156.159</v>
       </c>
       <c r="D183" t="s">
         <v>268</v>
@@ -4306,7 +4306,7 @@
         <v>266</v>
       </c>
       <c r="C184">
-        <v>113.281</v>
+        <v>100.699</v>
       </c>
       <c r="D184" t="s">
         <v>268</v>
@@ -4320,10 +4320,10 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C185">
-        <v>107.407</v>
+        <v>77.143</v>
       </c>
       <c r="D185" t="s">
         <v>268</v>
@@ -4340,7 +4340,7 @@
         <v>266</v>
       </c>
       <c r="C186">
-        <v>117.672</v>
+        <v>102.299</v>
       </c>
       <c r="D186" t="s">
         <v>268</v>
@@ -4357,7 +4357,7 @@
         <v>266</v>
       </c>
       <c r="C187">
-        <v>121.053</v>
+        <v>117.949</v>
       </c>
       <c r="D187" t="s">
         <v>268</v>
@@ -4391,7 +4391,7 @@
         <v>267</v>
       </c>
       <c r="C189">
-        <v>33.333</v>
+        <v>55.556</v>
       </c>
       <c r="D189" t="s">
         <v>268</v>
@@ -4408,7 +4408,7 @@
         <v>266</v>
       </c>
       <c r="C190">
-        <v>133.333</v>
+        <v>119.802</v>
       </c>
       <c r="D190" t="s">
         <v>268</v>
@@ -4425,7 +4425,7 @@
         <v>266</v>
       </c>
       <c r="C191">
-        <v>290</v>
+        <v>155.882</v>
       </c>
       <c r="D191" t="s">
         <v>268</v>
@@ -4442,7 +4442,7 @@
         <v>266</v>
       </c>
       <c r="C192">
-        <v>113.208</v>
+        <v>106.643</v>
       </c>
       <c r="D192" t="s">
         <v>268</v>
@@ -4459,7 +4459,7 @@
         <v>266</v>
       </c>
       <c r="C193">
-        <v>124.242</v>
+        <v>107.895</v>
       </c>
       <c r="D193" t="s">
         <v>268</v>
@@ -4476,7 +4476,7 @@
         <v>266</v>
       </c>
       <c r="C194">
-        <v>133.714</v>
+        <v>115.082</v>
       </c>
       <c r="D194" t="s">
         <v>268</v>
@@ -4490,10 +4490,10 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C195">
-        <v>106</v>
+        <v>96.29600000000001</v>
       </c>
       <c r="D195" t="s">
         <v>268</v>
@@ -4510,7 +4510,7 @@
         <v>266</v>
       </c>
       <c r="C196">
-        <v>112.121</v>
+        <v>108.696</v>
       </c>
       <c r="D196" t="s">
         <v>268</v>
@@ -4527,7 +4527,7 @@
         <v>266</v>
       </c>
       <c r="C197">
-        <v>115.789</v>
+        <v>113.115</v>
       </c>
       <c r="D197" t="s">
         <v>268</v>
@@ -4541,10 +4541,10 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C198">
-        <v>108.696</v>
+        <v>95.84399999999999</v>
       </c>
       <c r="D198" t="s">
         <v>268</v>
@@ -4561,7 +4561,7 @@
         <v>266</v>
       </c>
       <c r="C199">
-        <v>123.2</v>
+        <v>111.717</v>
       </c>
       <c r="D199" t="s">
         <v>268</v>
@@ -4578,7 +4578,7 @@
         <v>266</v>
       </c>
       <c r="C200">
-        <v>119.38</v>
+        <v>115.493</v>
       </c>
       <c r="D200" t="s">
         <v>268</v>
@@ -4595,7 +4595,7 @@
         <v>266</v>
       </c>
       <c r="C201">
-        <v>112.5</v>
+        <v>100</v>
       </c>
       <c r="D201" t="s">
         <v>268</v>
@@ -4612,7 +4612,7 @@
         <v>266</v>
       </c>
       <c r="C202">
-        <v>124.206</v>
+        <v>134.263</v>
       </c>
       <c r="D202" t="s">
         <v>268</v>
@@ -4629,7 +4629,7 @@
         <v>266</v>
       </c>
       <c r="C203">
-        <v>126.667</v>
+        <v>105.882</v>
       </c>
       <c r="D203" t="s">
         <v>268</v>
@@ -4646,7 +4646,7 @@
         <v>267</v>
       </c>
       <c r="C204">
-        <v>93.42700000000001</v>
+        <v>82.128</v>
       </c>
       <c r="D204" t="s">
         <v>268</v>
@@ -4663,7 +4663,7 @@
         <v>266</v>
       </c>
       <c r="C205">
-        <v>110</v>
+        <v>103.03</v>
       </c>
       <c r="D205" t="s">
         <v>268</v>
@@ -4680,7 +4680,7 @@
         <v>266</v>
       </c>
       <c r="C206">
-        <v>108.807</v>
+        <v>102.842</v>
       </c>
       <c r="D206" t="s">
         <v>268</v>
@@ -4694,10 +4694,10 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C207">
-        <v>107.303</v>
+        <v>94.35899999999999</v>
       </c>
       <c r="D207" t="s">
         <v>268</v>
@@ -4714,7 +4714,7 @@
         <v>266</v>
       </c>
       <c r="C208">
-        <v>120.485</v>
+        <v>106.345</v>
       </c>
       <c r="D208" t="s">
         <v>268</v>
@@ -4728,10 +4728,10 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C209">
-        <v>128.108</v>
+        <v>96.908</v>
       </c>
       <c r="D209" t="s">
         <v>268</v>
@@ -4748,7 +4748,7 @@
         <v>266</v>
       </c>
       <c r="C210">
-        <v>121.053</v>
+        <v>109.231</v>
       </c>
       <c r="D210" t="s">
         <v>268</v>
@@ -4762,10 +4762,10 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C211">
-        <v>110.823</v>
+        <v>98.723</v>
       </c>
       <c r="D211" t="s">
         <v>268</v>
@@ -4782,7 +4782,7 @@
         <v>266</v>
       </c>
       <c r="C212">
-        <v>129.091</v>
+        <v>113.115</v>
       </c>
       <c r="D212" t="s">
         <v>268</v>
@@ -4796,10 +4796,10 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C213">
-        <v>104.878</v>
+        <v>96.55200000000001</v>
       </c>
       <c r="D213" t="s">
         <v>268</v>
@@ -4816,7 +4816,7 @@
         <v>266</v>
       </c>
       <c r="C214">
-        <v>120</v>
+        <v>109.722</v>
       </c>
       <c r="D214" t="s">
         <v>268</v>
@@ -4833,7 +4833,7 @@
         <v>266</v>
       </c>
       <c r="C215">
-        <v>135.493</v>
+        <v>121.696</v>
       </c>
       <c r="D215" t="s">
         <v>268</v>
@@ -4847,10 +4847,10 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C216">
-        <v>109.404</v>
+        <v>96.783</v>
       </c>
       <c r="D216" t="s">
         <v>268</v>
@@ -4867,7 +4867,7 @@
         <v>266</v>
       </c>
       <c r="C217">
-        <v>122.066</v>
+        <v>108.114</v>
       </c>
       <c r="D217" t="s">
         <v>268</v>
@@ -4884,7 +4884,7 @@
         <v>266</v>
       </c>
       <c r="C218">
-        <v>130.769</v>
+        <v>120.69</v>
       </c>
       <c r="D218" t="s">
         <v>268</v>
@@ -4901,7 +4901,7 @@
         <v>266</v>
       </c>
       <c r="C219">
-        <v>110.294</v>
+        <v>104.167</v>
       </c>
       <c r="D219" t="s">
         <v>268</v>
@@ -4918,7 +4918,7 @@
         <v>266</v>
       </c>
       <c r="C220">
-        <v>130.159</v>
+        <v>115.493</v>
       </c>
       <c r="D220" t="s">
         <v>268</v>
@@ -4935,7 +4935,7 @@
         <v>267</v>
       </c>
       <c r="C221">
-        <v>10.559</v>
+        <v>8.537000000000001</v>
       </c>
       <c r="D221" t="s">
         <v>268</v>
@@ -4952,7 +4952,7 @@
         <v>266</v>
       </c>
       <c r="C222">
-        <v>124.907</v>
+        <v>103.801</v>
       </c>
       <c r="D222" t="s">
         <v>268</v>
@@ -4969,7 +4969,7 @@
         <v>266</v>
       </c>
       <c r="C223">
-        <v>121.212</v>
+        <v>113.714</v>
       </c>
       <c r="D223" t="s">
         <v>268</v>
@@ -4986,7 +4986,7 @@
         <v>266</v>
       </c>
       <c r="C224">
-        <v>116.234</v>
+        <v>107.429</v>
       </c>
       <c r="D224" t="s">
         <v>268</v>
@@ -5003,7 +5003,7 @@
         <v>266</v>
       </c>
       <c r="C225">
-        <v>128.947</v>
+        <v>116.667</v>
       </c>
       <c r="D225" t="s">
         <v>268</v>
@@ -5017,10 +5017,10 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C226">
-        <v>119.091</v>
+        <v>97.77800000000001</v>
       </c>
       <c r="D226" t="s">
         <v>268</v>
@@ -5037,7 +5037,7 @@
         <v>266</v>
       </c>
       <c r="C227">
-        <v>127.273</v>
+        <v>112</v>
       </c>
       <c r="D227" t="s">
         <v>268</v>
@@ -5051,10 +5051,10 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C228">
-        <v>115.625</v>
+        <v>97.36799999999999</v>
       </c>
       <c r="D228" t="s">
         <v>268</v>
@@ -5071,7 +5071,7 @@
         <v>266</v>
       </c>
       <c r="C229">
-        <v>100.509</v>
+        <v>103.169</v>
       </c>
       <c r="D229" t="s">
         <v>268</v>
@@ -5088,7 +5088,7 @@
         <v>266</v>
       </c>
       <c r="C230">
-        <v>108.333</v>
+        <v>107.692</v>
       </c>
       <c r="D230" t="s">
         <v>268</v>
@@ -5105,7 +5105,7 @@
         <v>266</v>
       </c>
       <c r="C231">
-        <v>112.476</v>
+        <v>106.747</v>
       </c>
       <c r="D231" t="s">
         <v>268</v>
@@ -5119,10 +5119,10 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C232">
-        <v>100</v>
+        <v>99.01000000000001</v>
       </c>
       <c r="D232" t="s">
         <v>268</v>
@@ -5139,7 +5139,7 @@
         <v>266</v>
       </c>
       <c r="C233">
-        <v>114.634</v>
+        <v>103.676</v>
       </c>
       <c r="D233" t="s">
         <v>268</v>
@@ -5153,10 +5153,10 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C234">
-        <v>114.035</v>
+        <v>96.97</v>
       </c>
       <c r="D234" t="s">
         <v>268</v>
@@ -5173,7 +5173,7 @@
         <v>266</v>
       </c>
       <c r="C235">
-        <v>119.83</v>
+        <v>111.026</v>
       </c>
       <c r="D235" t="s">
         <v>268</v>
@@ -5190,7 +5190,7 @@
         <v>266</v>
       </c>
       <c r="C236">
-        <v>127.74</v>
+        <v>121.28</v>
       </c>
       <c r="D236" t="s">
         <v>268</v>
@@ -5207,7 +5207,7 @@
         <v>266</v>
       </c>
       <c r="C237">
-        <v>116.965</v>
+        <v>108.312</v>
       </c>
       <c r="D237" t="s">
         <v>268</v>
@@ -5275,7 +5275,7 @@
         <v>266</v>
       </c>
       <c r="C241">
-        <v>133.333</v>
+        <v>122.222</v>
       </c>
       <c r="D241" t="s">
         <v>268</v>
@@ -5292,7 +5292,7 @@
         <v>266</v>
       </c>
       <c r="C242">
-        <v>120.988</v>
+        <v>114.13</v>
       </c>
       <c r="D242" t="s">
         <v>268</v>
@@ -5309,7 +5309,7 @@
         <v>266</v>
       </c>
       <c r="C243">
-        <v>127.586</v>
+        <v>118.75</v>
       </c>
       <c r="D243" t="s">
         <v>268</v>
@@ -5326,7 +5326,7 @@
         <v>266</v>
       </c>
       <c r="C244">
-        <v>151.852</v>
+        <v>135.714</v>
       </c>
       <c r="D244" t="s">
         <v>268</v>
@@ -5343,7 +5343,7 @@
         <v>266</v>
       </c>
       <c r="C245">
-        <v>120.872</v>
+        <v>110.227</v>
       </c>
       <c r="D245" t="s">
         <v>268</v>
@@ -5360,7 +5360,7 @@
         <v>266</v>
       </c>
       <c r="C246">
-        <v>113.551</v>
+        <v>101.218</v>
       </c>
       <c r="D246" t="s">
         <v>268</v>
@@ -5377,7 +5377,7 @@
         <v>266</v>
       </c>
       <c r="C247">
-        <v>114.362</v>
+        <v>103.377</v>
       </c>
       <c r="D247" t="s">
         <v>268</v>
@@ -5394,7 +5394,7 @@
         <v>266</v>
       </c>
       <c r="C248">
-        <v>117.099</v>
+        <v>106.878</v>
       </c>
       <c r="D248" t="s">
         <v>268</v>
@@ -5408,10 +5408,10 @@
         <v>252</v>
       </c>
       <c r="B249" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C249">
-        <v>112.933</v>
+        <v>99.521</v>
       </c>
       <c r="D249" t="s">
         <v>268</v>
@@ -5428,7 +5428,7 @@
         <v>266</v>
       </c>
       <c r="C250">
-        <v>113.525</v>
+        <v>103.513</v>
       </c>
       <c r="D250" t="s">
         <v>268</v>
@@ -5445,7 +5445,7 @@
         <v>266</v>
       </c>
       <c r="C251">
-        <v>112.195</v>
+        <v>102.222</v>
       </c>
       <c r="D251" t="s">
         <v>268</v>
@@ -5462,7 +5462,7 @@
         <v>266</v>
       </c>
       <c r="C252">
-        <v>128</v>
+        <v>118.519</v>
       </c>
       <c r="D252" t="s">
         <v>268</v>
@@ -5496,7 +5496,7 @@
         <v>266</v>
       </c>
       <c r="C254">
-        <v>114.483</v>
+        <v>108.497</v>
       </c>
       <c r="D254" t="s">
         <v>268</v>
@@ -5513,7 +5513,7 @@
         <v>266</v>
       </c>
       <c r="C255">
-        <v>106.897</v>
+        <v>103.279</v>
       </c>
       <c r="D255" t="s">
         <v>268</v>
@@ -5530,7 +5530,7 @@
         <v>266</v>
       </c>
       <c r="C256">
-        <v>121.93</v>
+        <v>113.492</v>
       </c>
       <c r="D256" t="s">
         <v>268</v>
@@ -5547,7 +5547,7 @@
         <v>266</v>
       </c>
       <c r="C257">
-        <v>125.426</v>
+        <v>116.245</v>
       </c>
       <c r="D257" t="s">
         <v>268</v>
@@ -5564,7 +5564,7 @@
         <v>266</v>
       </c>
       <c r="C258">
-        <v>109.211</v>
+        <v>100.935</v>
       </c>
       <c r="D258" t="s">
         <v>268</v>
@@ -5581,7 +5581,7 @@
         <v>266</v>
       </c>
       <c r="C259">
-        <v>176.389</v>
+        <v>146.25</v>
       </c>
       <c r="D259" t="s">
         <v>268</v>
@@ -5598,7 +5598,7 @@
         <v>266</v>
       </c>
       <c r="C260">
-        <v>125.01</v>
+        <v>109.078</v>
       </c>
       <c r="D260" t="s">
         <v>268</v>
@@ -5615,7 +5615,7 @@
         <v>266</v>
       </c>
       <c r="C261">
-        <v>112.227</v>
+        <v>107.426</v>
       </c>
       <c r="D261" t="s">
         <v>268</v>
@@ -5632,7 +5632,7 @@
         <v>267</v>
       </c>
       <c r="C262">
-        <v>95.614</v>
+        <v>75.20699999999999</v>
       </c>
       <c r="D262" t="s">
         <v>268</v>

--- a/generated_reports/crypto_momentum.xlsx
+++ b/generated_reports/crypto_momentum.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1049" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1033" uniqueCount="266">
   <si>
     <t>symbol</t>
   </si>
@@ -37,9 +37,6 @@
     <t>AAVEUSDT</t>
   </si>
   <si>
-    <t>ACAUSDT</t>
-  </si>
-  <si>
     <t>ACMUSDT</t>
   </si>
   <si>
@@ -106,9 +103,6 @@
     <t>ASTUSDT</t>
   </si>
   <si>
-    <t>ATAUSDT</t>
-  </si>
-  <si>
     <t>ATMUSDT</t>
   </si>
   <si>
@@ -205,9 +199,6 @@
     <t>CHESSUSDT</t>
   </si>
   <si>
-    <t>CHRUSDT</t>
-  </si>
-  <si>
     <t>CHZUSDT</t>
   </si>
   <si>
@@ -229,9 +220,6 @@
     <t>CTKUSDT</t>
   </si>
   <si>
-    <t>CTSIUSDT</t>
-  </si>
-  <si>
     <t>CVCUSDT</t>
   </si>
   <si>
@@ -814,10 +802,10 @@
     <t>ZRXUSDT</t>
   </si>
   <si>
+    <t>Down</t>
+  </si>
+  <si>
     <t>Up</t>
-  </si>
-  <si>
-    <t>Down</t>
   </si>
   <si>
     <t>10 days</t>
@@ -1181,7 +1169,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E262"/>
+  <dimension ref="A1:E258"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1209,16 +1197,16 @@
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C2">
-        <v>109.091</v>
+        <v>93.22</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E2" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1226,16 +1214,16 @@
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C3">
-        <v>106.461</v>
+        <v>92.59999999999999</v>
       </c>
       <c r="D3" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E3" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -1243,16 +1231,16 @@
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C4">
-        <v>100</v>
+        <v>91.727</v>
       </c>
       <c r="D4" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E4" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -1260,16 +1248,16 @@
         <v>8</v>
       </c>
       <c r="B5" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C5">
-        <v>113.878</v>
+        <v>89.39400000000001</v>
       </c>
       <c r="D5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E5" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -1277,16 +1265,16 @@
         <v>9</v>
       </c>
       <c r="B6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C6">
-        <v>103.125</v>
+        <v>111.111</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -1294,16 +1282,16 @@
         <v>10</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C7">
-        <v>116.667</v>
+        <v>88.889</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E7" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -1311,16 +1299,16 @@
         <v>11</v>
       </c>
       <c r="B8" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C8">
-        <v>112.5</v>
+        <v>99.074</v>
       </c>
       <c r="D8" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E8" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -1328,16 +1316,16 @@
         <v>12</v>
       </c>
       <c r="B9" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C9">
-        <v>99.083</v>
+        <v>93.16200000000001</v>
       </c>
       <c r="D9" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E9" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -1345,16 +1333,16 @@
         <v>13</v>
       </c>
       <c r="B10" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C10">
-        <v>120.721</v>
+        <v>98.026</v>
       </c>
       <c r="D10" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E10" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="11" spans="1:5">
@@ -1362,16 +1350,16 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C11">
-        <v>113.014</v>
+        <v>84.431</v>
       </c>
       <c r="D11" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E11" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="12" spans="1:5">
@@ -1379,16 +1367,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C12">
-        <v>107.922</v>
+        <v>88.889</v>
       </c>
       <c r="D12" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E12" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -1396,16 +1384,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C13">
-        <v>112</v>
+        <v>89.744</v>
       </c>
       <c r="D13" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E13" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="14" spans="1:5">
@@ -1413,16 +1401,16 @@
         <v>17</v>
       </c>
       <c r="B14" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C14">
-        <v>105.405</v>
+        <v>92</v>
       </c>
       <c r="D14" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E14" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="15" spans="1:5">
@@ -1430,16 +1418,16 @@
         <v>18</v>
       </c>
       <c r="B15" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C15">
-        <v>113.043</v>
+        <v>98.387</v>
       </c>
       <c r="D15" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E15" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="16" spans="1:5">
@@ -1447,16 +1435,16 @@
         <v>19</v>
       </c>
       <c r="B16" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C16">
-        <v>111.688</v>
+        <v>116.509</v>
       </c>
       <c r="D16" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E16" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -1464,16 +1452,16 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C17">
-        <v>116.509</v>
+        <v>85.437</v>
       </c>
       <c r="D17" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E17" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -1481,16 +1469,16 @@
         <v>21</v>
       </c>
       <c r="B18" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C18">
-        <v>105.208</v>
+        <v>84.47799999999999</v>
       </c>
       <c r="D18" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E18" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -1498,16 +1486,16 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C19">
-        <v>99.23099999999999</v>
+        <v>84.651</v>
       </c>
       <c r="D19" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E19" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -1515,16 +1503,16 @@
         <v>23</v>
       </c>
       <c r="B20" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C20">
-        <v>109.75</v>
+        <v>86.047</v>
       </c>
       <c r="D20" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E20" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -1532,16 +1520,16 @@
         <v>24</v>
       </c>
       <c r="B21" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C21">
-        <v>94.286</v>
+        <v>84.229</v>
       </c>
       <c r="D21" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E21" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -1549,16 +1537,16 @@
         <v>25</v>
       </c>
       <c r="B22" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C22">
-        <v>99.248</v>
+        <v>87.03700000000001</v>
       </c>
       <c r="D22" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E22" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -1566,16 +1554,16 @@
         <v>26</v>
       </c>
       <c r="B23" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C23">
-        <v>109.278</v>
+        <v>80.931</v>
       </c>
       <c r="D23" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E23" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -1583,16 +1571,16 @@
         <v>27</v>
       </c>
       <c r="B24" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C24">
-        <v>117.169</v>
+        <v>97.727</v>
       </c>
       <c r="D24" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E24" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -1600,16 +1588,16 @@
         <v>28</v>
       </c>
       <c r="B25" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C25">
-        <v>109.507</v>
+        <v>88.889</v>
       </c>
       <c r="D25" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E25" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -1617,16 +1605,16 @@
         <v>29</v>
       </c>
       <c r="B26" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C26">
-        <v>105.882</v>
+        <v>97.205</v>
       </c>
       <c r="D26" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E26" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -1634,16 +1622,16 @@
         <v>30</v>
       </c>
       <c r="B27" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C27">
-        <v>105.882</v>
+        <v>91.215</v>
       </c>
       <c r="D27" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E27" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -1651,16 +1639,16 @@
         <v>31</v>
       </c>
       <c r="B28" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C28">
-        <v>117.241</v>
+        <v>96.694</v>
       </c>
       <c r="D28" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E28" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -1668,16 +1656,16 @@
         <v>32</v>
       </c>
       <c r="B29" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C29">
-        <v>105.187</v>
+        <v>93.10299999999999</v>
       </c>
       <c r="D29" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E29" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -1685,16 +1673,16 @@
         <v>33</v>
       </c>
       <c r="B30" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C30">
-        <v>121.558</v>
+        <v>89.88800000000001</v>
       </c>
       <c r="D30" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E30" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -1702,16 +1690,16 @@
         <v>34</v>
       </c>
       <c r="B31" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C31">
-        <v>114.815</v>
+        <v>82.548</v>
       </c>
       <c r="D31" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E31" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -1719,16 +1707,16 @@
         <v>35</v>
       </c>
       <c r="B32" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C32">
-        <v>110.976</v>
+        <v>89.66800000000001</v>
       </c>
       <c r="D32" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E32" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="33" spans="1:5">
@@ -1736,16 +1724,16 @@
         <v>36</v>
       </c>
       <c r="B33" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C33">
-        <v>93.971</v>
+        <v>78.197</v>
       </c>
       <c r="D33" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E33" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -1753,16 +1741,16 @@
         <v>37</v>
       </c>
       <c r="B34" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C34">
-        <v>109.646</v>
+        <v>86.667</v>
       </c>
       <c r="D34" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E34" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="35" spans="1:5">
@@ -1770,16 +1758,16 @@
         <v>38</v>
       </c>
       <c r="B35" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C35">
-        <v>144.807</v>
+        <v>90.90900000000001</v>
       </c>
       <c r="D35" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E35" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -1787,16 +1775,16 @@
         <v>39</v>
       </c>
       <c r="B36" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C36">
-        <v>117.949</v>
+        <v>92.694</v>
       </c>
       <c r="D36" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E36" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -1804,16 +1792,16 @@
         <v>40</v>
       </c>
       <c r="B37" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C37">
-        <v>103.838</v>
+        <v>94.693</v>
       </c>
       <c r="D37" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E37" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -1821,16 +1809,16 @@
         <v>41</v>
       </c>
       <c r="B38" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C38">
-        <v>108.654</v>
+        <v>85.294</v>
       </c>
       <c r="D38" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E38" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -1838,16 +1826,16 @@
         <v>42</v>
       </c>
       <c r="B39" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C39">
-        <v>112.934</v>
+        <v>124.415</v>
       </c>
       <c r="D39" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E39" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -1855,16 +1843,16 @@
         <v>43</v>
       </c>
       <c r="B40" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C40">
-        <v>110</v>
+        <v>124.176</v>
       </c>
       <c r="D40" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E40" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -1872,16 +1860,16 @@
         <v>44</v>
       </c>
       <c r="B41" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C41">
-        <v>153.78</v>
+        <v>133.929</v>
       </c>
       <c r="D41" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E41" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -1889,16 +1877,16 @@
         <v>45</v>
       </c>
       <c r="B42" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C42">
-        <v>116.667</v>
+        <v>97.215</v>
       </c>
       <c r="D42" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E42" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -1906,16 +1894,16 @@
         <v>46</v>
       </c>
       <c r="B43" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C43">
-        <v>122.642</v>
+        <v>88.52500000000001</v>
       </c>
       <c r="D43" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E43" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -1923,16 +1911,16 @@
         <v>47</v>
       </c>
       <c r="B44" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C44">
-        <v>114.779</v>
+        <v>121.295</v>
       </c>
       <c r="D44" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E44" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -1940,16 +1928,16 @@
         <v>48</v>
       </c>
       <c r="B45" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C45">
-        <v>100</v>
+        <v>95.366</v>
       </c>
       <c r="D45" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E45" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="46" spans="1:5">
@@ -1957,16 +1945,16 @@
         <v>49</v>
       </c>
       <c r="B46" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C46">
-        <v>121.295</v>
+        <v>93.10299999999999</v>
       </c>
       <c r="D46" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E46" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="47" spans="1:5">
@@ -1974,16 +1962,16 @@
         <v>50</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C47">
-        <v>110.848</v>
+        <v>123.529</v>
       </c>
       <c r="D47" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E47" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="48" spans="1:5">
@@ -1991,16 +1979,16 @@
         <v>51</v>
       </c>
       <c r="B48" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C48">
-        <v>107.229</v>
+        <v>103.182</v>
       </c>
       <c r="D48" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E48" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -2008,16 +1996,16 @@
         <v>52</v>
       </c>
       <c r="B49" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C49">
-        <v>123.404</v>
+        <v>80</v>
       </c>
       <c r="D49" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E49" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="50" spans="1:5">
@@ -2025,16 +2013,16 @@
         <v>53</v>
       </c>
       <c r="B50" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C50">
-        <v>115.108</v>
+        <v>120.552</v>
       </c>
       <c r="D50" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E50" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="51" spans="1:5">
@@ -2042,16 +2030,16 @@
         <v>54</v>
       </c>
       <c r="B51" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C51">
-        <v>107.692</v>
+        <v>94.682</v>
       </c>
       <c r="D51" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E51" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:5">
@@ -2059,16 +2047,16 @@
         <v>55</v>
       </c>
       <c r="B52" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C52">
-        <v>120.552</v>
+        <v>89.011</v>
       </c>
       <c r="D52" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E52" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="53" spans="1:5">
@@ -2076,16 +2064,16 @@
         <v>56</v>
       </c>
       <c r="B53" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C53">
-        <v>103.223</v>
+        <v>100</v>
       </c>
       <c r="D53" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E53" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="54" spans="1:5">
@@ -2093,16 +2081,16 @@
         <v>57</v>
       </c>
       <c r="B54" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C54">
-        <v>102.353</v>
+        <v>92.5</v>
       </c>
       <c r="D54" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E54" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="55" spans="1:5">
@@ -2110,16 +2098,16 @@
         <v>58</v>
       </c>
       <c r="B55" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C55">
-        <v>100</v>
+        <v>90.271</v>
       </c>
       <c r="D55" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E55" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="56" spans="1:5">
@@ -2127,16 +2115,16 @@
         <v>59</v>
       </c>
       <c r="B56" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C56">
-        <v>111.111</v>
+        <v>90.90900000000001</v>
       </c>
       <c r="D56" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E56" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="57" spans="1:5">
@@ -2144,16 +2132,16 @@
         <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C57">
-        <v>119.095</v>
+        <v>90.625</v>
       </c>
       <c r="D57" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E57" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="58" spans="1:5">
@@ -2161,16 +2149,16 @@
         <v>61</v>
       </c>
       <c r="B58" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C58">
-        <v>106.78</v>
+        <v>86.667</v>
       </c>
       <c r="D58" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E58" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="59" spans="1:5">
@@ -2178,16 +2166,16 @@
         <v>62</v>
       </c>
       <c r="B59" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C59">
-        <v>110.345</v>
+        <v>91.60299999999999</v>
       </c>
       <c r="D59" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E59" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="60" spans="1:5">
@@ -2195,16 +2183,16 @@
         <v>63</v>
       </c>
       <c r="B60" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C60">
-        <v>123.684</v>
+        <v>98.039</v>
       </c>
       <c r="D60" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E60" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="61" spans="1:5">
@@ -2212,16 +2200,16 @@
         <v>64</v>
       </c>
       <c r="B61" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C61">
-        <v>115.385</v>
+        <v>92.495</v>
       </c>
       <c r="D61" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E61" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="62" spans="1:5">
@@ -2229,16 +2217,16 @@
         <v>65</v>
       </c>
       <c r="B62" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C62">
-        <v>115.211</v>
+        <v>103.23</v>
       </c>
       <c r="D62" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E62" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="63" spans="1:5">
@@ -2246,16 +2234,16 @@
         <v>66</v>
       </c>
       <c r="B63" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C63">
-        <v>122.222</v>
+        <v>85.91500000000001</v>
       </c>
       <c r="D63" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E63" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="64" spans="1:5">
@@ -2263,16 +2251,16 @@
         <v>67</v>
       </c>
       <c r="B64" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C64">
-        <v>108.352</v>
+        <v>104.396</v>
       </c>
       <c r="D64" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E64" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="65" spans="1:5">
@@ -2280,16 +2268,16 @@
         <v>68</v>
       </c>
       <c r="B65" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C65">
-        <v>125.141</v>
+        <v>95.455</v>
       </c>
       <c r="D65" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E65" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="66" spans="1:5">
@@ -2297,16 +2285,16 @@
         <v>69</v>
       </c>
       <c r="B66" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C66">
-        <v>105.97</v>
+        <v>90</v>
       </c>
       <c r="D66" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E66" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="67" spans="1:5">
@@ -2314,16 +2302,16 @@
         <v>70</v>
       </c>
       <c r="B67" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C67">
-        <v>110.989</v>
+        <v>89.31100000000001</v>
       </c>
       <c r="D67" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E67" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="68" spans="1:5">
@@ -2331,16 +2319,16 @@
         <v>71</v>
       </c>
       <c r="B68" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C68">
-        <v>110</v>
+        <v>100.227</v>
       </c>
       <c r="D68" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E68" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="69" spans="1:5">
@@ -2348,16 +2336,16 @@
         <v>72</v>
       </c>
       <c r="B69" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C69">
-        <v>150</v>
+        <v>88</v>
       </c>
       <c r="D69" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E69" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="70" spans="1:5">
@@ -2365,16 +2353,16 @@
         <v>73</v>
       </c>
       <c r="B70" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C70">
-        <v>114.815</v>
+        <v>95.923</v>
       </c>
       <c r="D70" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E70" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="71" spans="1:5">
@@ -2382,16 +2370,16 @@
         <v>74</v>
       </c>
       <c r="B71" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C71">
-        <v>107.848</v>
+        <v>90.126</v>
       </c>
       <c r="D71" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E71" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="72" spans="1:5">
@@ -2399,16 +2387,16 @@
         <v>75</v>
       </c>
       <c r="B72" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C72">
-        <v>105.331</v>
+        <v>87.131</v>
       </c>
       <c r="D72" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E72" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="73" spans="1:5">
@@ -2416,16 +2404,16 @@
         <v>76</v>
       </c>
       <c r="B73" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C73">
-        <v>118.182</v>
+        <v>107.715</v>
       </c>
       <c r="D73" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E73" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="74" spans="1:5">
@@ -2433,16 +2421,16 @@
         <v>77</v>
       </c>
       <c r="B74" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C74">
-        <v>112.217</v>
+        <v>84.50700000000001</v>
       </c>
       <c r="D74" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E74" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="75" spans="1:5">
@@ -2450,16 +2438,16 @@
         <v>78</v>
       </c>
       <c r="B75" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C75">
-        <v>115.36</v>
+        <v>85.185</v>
       </c>
       <c r="D75" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E75" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="76" spans="1:5">
@@ -2467,16 +2455,16 @@
         <v>79</v>
       </c>
       <c r="B76" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C76">
-        <v>101.127</v>
+        <v>89.003</v>
       </c>
       <c r="D76" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E76" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="77" spans="1:5">
@@ -2484,16 +2472,16 @@
         <v>80</v>
       </c>
       <c r="B77" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C77">
-        <v>147.886</v>
+        <v>30</v>
       </c>
       <c r="D77" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E77" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="78" spans="1:5">
@@ -2501,16 +2489,16 @@
         <v>81</v>
       </c>
       <c r="B78" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C78">
-        <v>113.115</v>
+        <v>88.38500000000001</v>
       </c>
       <c r="D78" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E78" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="79" spans="1:5">
@@ -2518,16 +2506,16 @@
         <v>82</v>
       </c>
       <c r="B79" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C79">
-        <v>108.333</v>
+        <v>79.31</v>
       </c>
       <c r="D79" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E79" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="80" spans="1:5">
@@ -2535,16 +2523,16 @@
         <v>83</v>
       </c>
       <c r="B80" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C80">
-        <v>100.633</v>
+        <v>86.75700000000001</v>
       </c>
       <c r="D80" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E80" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="81" spans="1:5">
@@ -2552,16 +2540,16 @@
         <v>84</v>
       </c>
       <c r="B81" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C81">
-        <v>46.667</v>
+        <v>90.625</v>
       </c>
       <c r="D81" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E81" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="82" spans="1:5">
@@ -2569,16 +2557,16 @@
         <v>85</v>
       </c>
       <c r="B82" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C82">
-        <v>103.858</v>
+        <v>84.61499999999999</v>
       </c>
       <c r="D82" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E82" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="83" spans="1:5">
@@ -2586,16 +2574,16 @@
         <v>86</v>
       </c>
       <c r="B83" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C83">
-        <v>93.80500000000001</v>
+        <v>86.544</v>
       </c>
       <c r="D83" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E83" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="84" spans="1:5">
@@ -2603,16 +2591,16 @@
         <v>87</v>
       </c>
       <c r="B84" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C84">
-        <v>99.066</v>
+        <v>91.589</v>
       </c>
       <c r="D84" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E84" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="85" spans="1:5">
@@ -2620,16 +2608,16 @@
         <v>88</v>
       </c>
       <c r="B85" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C85">
-        <v>108.197</v>
+        <v>90.598</v>
       </c>
       <c r="D85" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E85" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="86" spans="1:5">
@@ -2637,16 +2625,16 @@
         <v>89</v>
       </c>
       <c r="B86" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C86">
-        <v>98.039</v>
+        <v>93.282</v>
       </c>
       <c r="D86" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E86" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="87" spans="1:5">
@@ -2654,16 +2642,16 @@
         <v>90</v>
       </c>
       <c r="B87" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C87">
-        <v>104.938</v>
+        <v>83.333</v>
       </c>
       <c r="D87" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E87" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="88" spans="1:5">
@@ -2671,16 +2659,16 @@
         <v>91</v>
       </c>
       <c r="B88" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C88">
-        <v>112</v>
+        <v>130.459</v>
       </c>
       <c r="D88" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E88" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="89" spans="1:5">
@@ -2688,16 +2676,16 @@
         <v>92</v>
       </c>
       <c r="B89" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C89">
-        <v>82.59699999999999</v>
+        <v>92.006</v>
       </c>
       <c r="D89" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E89" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="90" spans="1:5">
@@ -2705,16 +2693,16 @@
         <v>93</v>
       </c>
       <c r="B90" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C90">
-        <v>112.063</v>
+        <v>98.16500000000001</v>
       </c>
       <c r="D90" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E90" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="91" spans="1:5">
@@ -2722,16 +2710,16 @@
         <v>94</v>
       </c>
       <c r="B91" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C91">
-        <v>83.333</v>
+        <v>91.773</v>
       </c>
       <c r="D91" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E91" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="92" spans="1:5">
@@ -2739,16 +2727,16 @@
         <v>95</v>
       </c>
       <c r="B92" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C92">
-        <v>130.459</v>
+        <v>100</v>
       </c>
       <c r="D92" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E92" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="93" spans="1:5">
@@ -2756,16 +2744,16 @@
         <v>96</v>
       </c>
       <c r="B93" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C93">
-        <v>100.788</v>
+        <v>88.889</v>
       </c>
       <c r="D93" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E93" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="94" spans="1:5">
@@ -2773,16 +2761,16 @@
         <v>97</v>
       </c>
       <c r="B94" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C94">
-        <v>99.083</v>
+        <v>92.423</v>
       </c>
       <c r="D94" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E94" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="95" spans="1:5">
@@ -2790,16 +2778,16 @@
         <v>98</v>
       </c>
       <c r="B95" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C95">
-        <v>108.841</v>
+        <v>95.074</v>
       </c>
       <c r="D95" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E95" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="96" spans="1:5">
@@ -2807,16 +2795,16 @@
         <v>99</v>
       </c>
       <c r="B96" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C96">
         <v>100</v>
       </c>
       <c r="D96" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E96" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="97" spans="1:5">
@@ -2824,16 +2812,16 @@
         <v>100</v>
       </c>
       <c r="B97" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C97">
-        <v>101.887</v>
+        <v>86.95699999999999</v>
       </c>
       <c r="D97" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E97" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="98" spans="1:5">
@@ -2841,16 +2829,16 @@
         <v>101</v>
       </c>
       <c r="B98" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C98">
-        <v>111.458</v>
+        <v>80.57599999999999</v>
       </c>
       <c r="D98" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E98" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="99" spans="1:5">
@@ -2858,16 +2846,16 @@
         <v>102</v>
       </c>
       <c r="B99" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C99">
-        <v>116.94</v>
+        <v>81.79300000000001</v>
       </c>
       <c r="D99" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E99" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="100" spans="1:5">
@@ -2875,16 +2863,16 @@
         <v>103</v>
       </c>
       <c r="B100" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C100">
-        <v>151.562</v>
+        <v>95.312</v>
       </c>
       <c r="D100" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E100" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="101" spans="1:5">
@@ -2892,16 +2880,16 @@
         <v>104</v>
       </c>
       <c r="B101" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C101">
-        <v>102.256</v>
+        <v>78.761</v>
       </c>
       <c r="D101" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E101" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="102" spans="1:5">
@@ -2909,16 +2897,16 @@
         <v>105</v>
       </c>
       <c r="B102" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C102">
-        <v>90.97199999999999</v>
+        <v>81.193</v>
       </c>
       <c r="D102" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E102" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="103" spans="1:5">
@@ -2926,16 +2914,16 @@
         <v>106</v>
       </c>
       <c r="B103" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C103">
-        <v>103.509</v>
+        <v>88.173</v>
       </c>
       <c r="D103" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E103" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="104" spans="1:5">
@@ -2943,16 +2931,16 @@
         <v>107</v>
       </c>
       <c r="B104" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C104">
-        <v>94.11799999999999</v>
+        <v>78.82599999999999</v>
       </c>
       <c r="D104" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E104" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="105" spans="1:5">
@@ -2960,16 +2948,16 @@
         <v>108</v>
       </c>
       <c r="B105" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C105">
-        <v>88.393</v>
+        <v>90.379</v>
       </c>
       <c r="D105" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E105" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="106" spans="1:5">
@@ -2977,16 +2965,16 @@
         <v>109</v>
       </c>
       <c r="B106" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C106">
-        <v>102.116</v>
+        <v>95.161</v>
       </c>
       <c r="D106" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E106" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="107" spans="1:5">
@@ -2994,16 +2982,16 @@
         <v>110</v>
       </c>
       <c r="B107" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C107">
-        <v>104.218</v>
+        <v>184.286</v>
       </c>
       <c r="D107" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E107" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="108" spans="1:5">
@@ -3011,16 +2999,16 @@
         <v>111</v>
       </c>
       <c r="B108" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C108">
-        <v>104.348</v>
+        <v>81.48099999999999</v>
       </c>
       <c r="D108" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E108" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="109" spans="1:5">
@@ -3028,16 +3016,16 @@
         <v>112</v>
       </c>
       <c r="B109" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C109">
-        <v>110.652</v>
+        <v>101.923</v>
       </c>
       <c r="D109" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E109" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="110" spans="1:5">
@@ -3045,16 +3033,16 @@
         <v>113</v>
       </c>
       <c r="B110" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C110">
-        <v>95.161</v>
+        <v>93.93899999999999</v>
       </c>
       <c r="D110" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E110" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="111" spans="1:5">
@@ -3062,16 +3050,16 @@
         <v>114</v>
       </c>
       <c r="B111" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C111">
-        <v>136.937</v>
+        <v>85.017</v>
       </c>
       <c r="D111" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E111" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="112" spans="1:5">
@@ -3079,16 +3067,16 @@
         <v>115</v>
       </c>
       <c r="B112" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C112">
-        <v>94.34</v>
+        <v>90.61799999999999</v>
       </c>
       <c r="D112" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E112" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="113" spans="1:5">
@@ -3096,16 +3084,16 @@
         <v>116</v>
       </c>
       <c r="B113" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C113">
-        <v>128.571</v>
+        <v>85.714</v>
       </c>
       <c r="D113" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E113" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="114" spans="1:5">
@@ -3113,16 +3101,16 @@
         <v>117</v>
       </c>
       <c r="B114" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C114">
-        <v>131.034</v>
+        <v>89.604</v>
       </c>
       <c r="D114" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E114" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="115" spans="1:5">
@@ -3130,16 +3118,16 @@
         <v>118</v>
       </c>
       <c r="B115" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C115">
-        <v>94.402</v>
+        <v>89.286</v>
       </c>
       <c r="D115" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E115" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="116" spans="1:5">
@@ -3147,16 +3135,16 @@
         <v>119</v>
       </c>
       <c r="B116" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C116">
-        <v>105.59</v>
+        <v>93.333</v>
       </c>
       <c r="D116" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E116" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="117" spans="1:5">
@@ -3164,16 +3152,16 @@
         <v>120</v>
       </c>
       <c r="B117" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C117">
-        <v>100.198</v>
+        <v>76.119</v>
       </c>
       <c r="D117" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E117" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="118" spans="1:5">
@@ -3181,16 +3169,16 @@
         <v>121</v>
       </c>
       <c r="B118" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C118">
-        <v>119.149</v>
+        <v>118.049</v>
       </c>
       <c r="D118" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E118" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="119" spans="1:5">
@@ -3198,16 +3186,16 @@
         <v>122</v>
       </c>
       <c r="B119" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C119">
-        <v>116.667</v>
+        <v>92.68300000000001</v>
       </c>
       <c r="D119" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E119" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="120" spans="1:5">
@@ -3215,16 +3203,16 @@
         <v>123</v>
       </c>
       <c r="B120" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C120">
-        <v>104.545</v>
+        <v>82.71599999999999</v>
       </c>
       <c r="D120" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E120" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="121" spans="1:5">
@@ -3232,16 +3220,16 @@
         <v>124</v>
       </c>
       <c r="B121" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C121">
-        <v>125.806</v>
+        <v>104.473</v>
       </c>
       <c r="D121" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E121" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="122" spans="1:5">
@@ -3249,16 +3237,16 @@
         <v>125</v>
       </c>
       <c r="B122" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C122">
-        <v>119.048</v>
+        <v>93.93899999999999</v>
       </c>
       <c r="D122" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E122" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="123" spans="1:5">
@@ -3266,16 +3254,16 @@
         <v>126</v>
       </c>
       <c r="B123" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C123">
-        <v>113.158</v>
+        <v>78.63200000000001</v>
       </c>
       <c r="D123" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E123" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="124" spans="1:5">
@@ -3283,16 +3271,16 @@
         <v>127</v>
       </c>
       <c r="B124" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C124">
-        <v>119.259</v>
+        <v>88.17</v>
       </c>
       <c r="D124" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E124" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="125" spans="1:5">
@@ -3300,16 +3288,16 @@
         <v>128</v>
       </c>
       <c r="B125" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C125">
-        <v>147.567</v>
+        <v>88.673</v>
       </c>
       <c r="D125" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E125" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="126" spans="1:5">
@@ -3317,16 +3305,16 @@
         <v>129</v>
       </c>
       <c r="B126" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C126">
-        <v>120</v>
+        <v>89.989</v>
       </c>
       <c r="D126" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E126" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="127" spans="1:5">
@@ -3334,16 +3322,16 @@
         <v>130</v>
       </c>
       <c r="B127" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C127">
-        <v>66.667</v>
+        <v>88.235</v>
       </c>
       <c r="D127" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E127" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="128" spans="1:5">
@@ -3351,16 +3339,16 @@
         <v>131</v>
       </c>
       <c r="B128" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C128">
-        <v>104.551</v>
+        <v>76.53100000000001</v>
       </c>
       <c r="D128" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E128" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="129" spans="1:5">
@@ -3368,16 +3356,16 @@
         <v>132</v>
       </c>
       <c r="B129" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C129">
-        <v>104.467</v>
+        <v>132.588</v>
       </c>
       <c r="D129" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E129" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="130" spans="1:5">
@@ -3385,16 +3373,16 @@
         <v>133</v>
       </c>
       <c r="B130" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C130">
-        <v>95.04300000000001</v>
+        <v>92.38800000000001</v>
       </c>
       <c r="D130" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E130" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="131" spans="1:5">
@@ -3402,16 +3390,16 @@
         <v>134</v>
       </c>
       <c r="B131" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C131">
-        <v>109.375</v>
+        <v>95.876</v>
       </c>
       <c r="D131" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E131" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="132" spans="1:5">
@@ -3419,16 +3407,16 @@
         <v>135</v>
       </c>
       <c r="B132" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C132">
-        <v>91.57899999999999</v>
+        <v>85.161</v>
       </c>
       <c r="D132" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E132" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="133" spans="1:5">
@@ -3436,16 +3424,16 @@
         <v>136</v>
       </c>
       <c r="B133" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C133">
-        <v>92.355</v>
+        <v>85.714</v>
       </c>
       <c r="D133" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E133" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="134" spans="1:5">
@@ -3453,16 +3441,16 @@
         <v>137</v>
       </c>
       <c r="B134" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C134">
-        <v>110.189</v>
+        <v>128.947</v>
       </c>
       <c r="D134" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E134" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="135" spans="1:5">
@@ -3470,16 +3458,16 @@
         <v>138</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C135">
-        <v>108.421</v>
+        <v>84.27</v>
       </c>
       <c r="D135" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="136" spans="1:5">
@@ -3487,16 +3475,16 @@
         <v>139</v>
       </c>
       <c r="B136" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C136">
-        <v>93.506</v>
+        <v>84.72799999999999</v>
       </c>
       <c r="D136" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E136" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="137" spans="1:5">
@@ -3504,16 +3492,16 @@
         <v>140</v>
       </c>
       <c r="B137" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C137">
-        <v>103.846</v>
+        <v>88.355</v>
       </c>
       <c r="D137" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E137" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="138" spans="1:5">
@@ -3521,16 +3509,16 @@
         <v>141</v>
       </c>
       <c r="B138" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C138">
-        <v>126.471</v>
+        <v>98.60299999999999</v>
       </c>
       <c r="D138" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E138" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="139" spans="1:5">
@@ -3538,16 +3526,16 @@
         <v>142</v>
       </c>
       <c r="B139" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C139">
-        <v>111.111</v>
+        <v>80.363</v>
       </c>
       <c r="D139" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E139" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="140" spans="1:5">
@@ -3555,16 +3543,16 @@
         <v>143</v>
       </c>
       <c r="B140" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C140">
-        <v>123.743</v>
+        <v>93.137</v>
       </c>
       <c r="D140" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E140" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="141" spans="1:5">
@@ -3572,16 +3560,16 @@
         <v>144</v>
       </c>
       <c r="B141" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C141">
-        <v>107.566</v>
+        <v>91.77200000000001</v>
       </c>
       <c r="D141" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E141" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="142" spans="1:5">
@@ -3589,16 +3577,16 @@
         <v>145</v>
       </c>
       <c r="B142" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C142">
-        <v>109.119</v>
+        <v>97.5</v>
       </c>
       <c r="D142" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E142" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="143" spans="1:5">
@@ -3606,16 +3594,16 @@
         <v>146</v>
       </c>
       <c r="B143" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C143">
-        <v>110.728</v>
+        <v>83.178</v>
       </c>
       <c r="D143" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E143" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="144" spans="1:5">
@@ -3623,16 +3611,16 @@
         <v>147</v>
       </c>
       <c r="B144" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C144">
-        <v>102.933</v>
+        <v>115.232</v>
       </c>
       <c r="D144" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E144" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="145" spans="1:5">
@@ -3640,16 +3628,16 @@
         <v>148</v>
       </c>
       <c r="B145" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C145">
-        <v>120.423</v>
+        <v>83.333</v>
       </c>
       <c r="D145" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E145" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="146" spans="1:5">
@@ -3657,16 +3645,16 @@
         <v>149</v>
       </c>
       <c r="B146" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C146">
-        <v>113.514</v>
+        <v>88.72499999999999</v>
       </c>
       <c r="D146" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E146" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="147" spans="1:5">
@@ -3674,16 +3662,16 @@
         <v>150</v>
       </c>
       <c r="B147" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C147">
-        <v>100.316</v>
+        <v>111.261</v>
       </c>
       <c r="D147" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E147" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="148" spans="1:5">
@@ -3691,16 +3679,16 @@
         <v>151</v>
       </c>
       <c r="B148" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C148">
-        <v>111.888</v>
+        <v>76.19</v>
       </c>
       <c r="D148" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E148" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="149" spans="1:5">
@@ -3708,16 +3696,16 @@
         <v>152</v>
       </c>
       <c r="B149" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C149">
-        <v>97.5</v>
+        <v>80.833</v>
       </c>
       <c r="D149" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E149" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="150" spans="1:5">
@@ -3725,16 +3713,16 @@
         <v>153</v>
       </c>
       <c r="B150" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C150">
-        <v>112.36</v>
+        <v>88.06</v>
       </c>
       <c r="D150" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E150" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="151" spans="1:5">
@@ -3742,16 +3730,16 @@
         <v>154</v>
       </c>
       <c r="B151" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C151">
-        <v>121.843</v>
+        <v>101.626</v>
       </c>
       <c r="D151" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E151" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="152" spans="1:5">
@@ -3759,16 +3747,16 @@
         <v>155</v>
       </c>
       <c r="B152" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C152">
-        <v>123.596</v>
+        <v>86.667</v>
       </c>
       <c r="D152" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E152" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="153" spans="1:5">
@@ -3776,16 +3764,16 @@
         <v>156</v>
       </c>
       <c r="B153" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C153">
-        <v>100.901</v>
+        <v>108.065</v>
       </c>
       <c r="D153" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E153" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="154" spans="1:5">
@@ -3793,16 +3781,16 @@
         <v>157</v>
       </c>
       <c r="B154" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C154">
-        <v>106.25</v>
+        <v>89.79600000000001</v>
       </c>
       <c r="D154" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E154" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="155" spans="1:5">
@@ -3810,16 +3798,16 @@
         <v>158</v>
       </c>
       <c r="B155" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C155">
-        <v>134.521</v>
+        <v>84.252</v>
       </c>
       <c r="D155" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E155" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="156" spans="1:5">
@@ -3827,16 +3815,16 @@
         <v>159</v>
       </c>
       <c r="B156" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C156">
-        <v>99.01000000000001</v>
+        <v>112.549</v>
       </c>
       <c r="D156" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E156" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="157" spans="1:5">
@@ -3844,16 +3832,16 @@
         <v>160</v>
       </c>
       <c r="B157" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C157">
-        <v>125</v>
+        <v>93.41800000000001</v>
       </c>
       <c r="D157" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E157" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="158" spans="1:5">
@@ -3861,16 +3849,16 @@
         <v>161</v>
       </c>
       <c r="B158" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C158">
-        <v>109.302</v>
+        <v>66.667</v>
       </c>
       <c r="D158" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E158" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="159" spans="1:5">
@@ -3878,16 +3866,16 @@
         <v>162</v>
       </c>
       <c r="B159" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C159">
-        <v>100</v>
+        <v>86.148</v>
       </c>
       <c r="D159" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E159" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="160" spans="1:5">
@@ -3895,16 +3883,16 @@
         <v>163</v>
       </c>
       <c r="B160" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C160">
-        <v>115.412</v>
+        <v>90.045</v>
       </c>
       <c r="D160" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E160" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="161" spans="1:5">
@@ -3912,16 +3900,16 @@
         <v>164</v>
       </c>
       <c r="B161" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C161">
-        <v>124.105</v>
+        <v>64.34099999999999</v>
       </c>
       <c r="D161" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E161" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="162" spans="1:5">
@@ -3929,16 +3917,16 @@
         <v>165</v>
       </c>
       <c r="B162" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C162">
-        <v>42.857</v>
+        <v>90.604</v>
       </c>
       <c r="D162" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E162" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="163" spans="1:5">
@@ -3946,16 +3934,16 @@
         <v>166</v>
       </c>
       <c r="B163" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C163">
-        <v>103.399</v>
+        <v>92.998</v>
       </c>
       <c r="D163" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E163" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="164" spans="1:5">
@@ -3963,16 +3951,16 @@
         <v>167</v>
       </c>
       <c r="B164" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C164">
-        <v>109.406</v>
+        <v>93.47799999999999</v>
       </c>
       <c r="D164" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E164" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="165" spans="1:5">
@@ -3980,16 +3968,16 @@
         <v>168</v>
       </c>
       <c r="B165" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C165">
-        <v>64.34099999999999</v>
+        <v>88.218</v>
       </c>
       <c r="D165" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E165" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="166" spans="1:5">
@@ -3997,16 +3985,16 @@
         <v>169</v>
       </c>
       <c r="B166" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C166">
-        <v>102.171</v>
+        <v>82.17100000000001</v>
       </c>
       <c r="D166" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E166" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="167" spans="1:5">
@@ -4014,16 +4002,16 @@
         <v>170</v>
       </c>
       <c r="B167" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C167">
-        <v>111.39</v>
+        <v>87.77800000000001</v>
       </c>
       <c r="D167" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E167" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="168" spans="1:5">
@@ -4031,16 +4019,16 @@
         <v>171</v>
       </c>
       <c r="B168" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C168">
-        <v>99.259</v>
+        <v>120</v>
       </c>
       <c r="D168" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E168" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="169" spans="1:5">
@@ -4048,16 +4036,16 @@
         <v>172</v>
       </c>
       <c r="B169" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C169">
-        <v>102.564</v>
+        <v>96.639</v>
       </c>
       <c r="D169" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E169" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="170" spans="1:5">
@@ -4065,16 +4053,16 @@
         <v>173</v>
       </c>
       <c r="B170" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C170">
-        <v>103.39</v>
+        <v>94.539</v>
       </c>
       <c r="D170" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E170" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="171" spans="1:5">
@@ -4082,16 +4070,16 @@
         <v>174</v>
       </c>
       <c r="B171" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C171">
-        <v>177.083</v>
+        <v>89.09099999999999</v>
       </c>
       <c r="D171" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E171" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="172" spans="1:5">
@@ -4099,16 +4087,16 @@
         <v>175</v>
       </c>
       <c r="B172" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C172">
-        <v>117.647</v>
+        <v>92.68300000000001</v>
       </c>
       <c r="D172" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E172" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="173" spans="1:5">
@@ -4116,16 +4104,16 @@
         <v>176</v>
       </c>
       <c r="B173" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C173">
-        <v>120.69</v>
+        <v>86.486</v>
       </c>
       <c r="D173" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E173" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="174" spans="1:5">
@@ -4133,16 +4121,16 @@
         <v>177</v>
       </c>
       <c r="B174" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C174">
-        <v>110.821</v>
+        <v>82.383</v>
       </c>
       <c r="D174" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E174" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="175" spans="1:5">
@@ -4150,16 +4138,16 @@
         <v>178</v>
       </c>
       <c r="B175" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C175">
-        <v>105.714</v>
+        <v>87.958</v>
       </c>
       <c r="D175" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E175" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="176" spans="1:5">
@@ -4167,16 +4155,16 @@
         <v>179</v>
       </c>
       <c r="B176" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C176">
-        <v>119.444</v>
+        <v>97.95099999999999</v>
       </c>
       <c r="D176" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E176" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="177" spans="1:5">
@@ -4184,16 +4172,16 @@
         <v>180</v>
       </c>
       <c r="B177" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C177">
-        <v>115.625</v>
+        <v>93.38200000000001</v>
       </c>
       <c r="D177" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E177" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="178" spans="1:5">
@@ -4201,16 +4189,16 @@
         <v>181</v>
       </c>
       <c r="B178" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C178">
-        <v>103.38</v>
+        <v>104.238</v>
       </c>
       <c r="D178" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E178" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="179" spans="1:5">
@@ -4218,16 +4206,16 @@
         <v>182</v>
       </c>
       <c r="B179" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C179">
-        <v>100.955</v>
+        <v>125.75</v>
       </c>
       <c r="D179" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E179" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="180" spans="1:5">
@@ -4235,16 +4223,16 @@
         <v>183</v>
       </c>
       <c r="B180" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C180">
-        <v>93.852</v>
+        <v>83.01900000000001</v>
       </c>
       <c r="D180" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E180" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="181" spans="1:5">
@@ -4252,16 +4240,16 @@
         <v>184</v>
       </c>
       <c r="B181" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C181">
-        <v>102.963</v>
+        <v>75</v>
       </c>
       <c r="D181" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E181" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="182" spans="1:5">
@@ -4269,16 +4257,16 @@
         <v>185</v>
       </c>
       <c r="B182" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C182">
-        <v>101.19</v>
+        <v>84.532</v>
       </c>
       <c r="D182" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E182" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="183" spans="1:5">
@@ -4286,16 +4274,16 @@
         <v>186</v>
       </c>
       <c r="B183" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C183">
-        <v>156.159</v>
+        <v>100</v>
       </c>
       <c r="D183" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E183" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="184" spans="1:5">
@@ -4303,16 +4291,16 @@
         <v>187</v>
       </c>
       <c r="B184" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C184">
-        <v>100.699</v>
+        <v>153.333</v>
       </c>
       <c r="D184" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E184" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="185" spans="1:5">
@@ -4320,16 +4308,16 @@
         <v>188</v>
       </c>
       <c r="B185" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C185">
-        <v>77.143</v>
+        <v>57.143</v>
       </c>
       <c r="D185" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E185" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="186" spans="1:5">
@@ -4337,16 +4325,16 @@
         <v>189</v>
       </c>
       <c r="B186" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C186">
-        <v>102.299</v>
+        <v>98.182</v>
       </c>
       <c r="D186" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E186" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="187" spans="1:5">
@@ -4354,16 +4342,16 @@
         <v>190</v>
       </c>
       <c r="B187" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C187">
-        <v>117.949</v>
+        <v>98.333</v>
       </c>
       <c r="D187" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E187" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="188" spans="1:5">
@@ -4371,16 +4359,16 @@
         <v>191</v>
       </c>
       <c r="B188" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C188">
-        <v>153.333</v>
+        <v>96.053</v>
       </c>
       <c r="D188" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E188" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="189" spans="1:5">
@@ -4388,16 +4376,16 @@
         <v>192</v>
       </c>
       <c r="B189" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C189">
-        <v>55.556</v>
+        <v>87.80500000000001</v>
       </c>
       <c r="D189" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E189" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="190" spans="1:5">
@@ -4405,16 +4393,16 @@
         <v>193</v>
       </c>
       <c r="B190" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C190">
-        <v>119.802</v>
+        <v>96.50700000000001</v>
       </c>
       <c r="D190" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E190" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="191" spans="1:5">
@@ -4422,16 +4410,16 @@
         <v>194</v>
       </c>
       <c r="B191" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C191">
-        <v>155.882</v>
+        <v>98</v>
       </c>
       <c r="D191" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E191" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="192" spans="1:5">
@@ -4439,16 +4427,16 @@
         <v>195</v>
       </c>
       <c r="B192" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C192">
-        <v>106.643</v>
+        <v>93.246</v>
       </c>
       <c r="D192" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E192" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="193" spans="1:5">
@@ -4456,16 +4444,16 @@
         <v>196</v>
       </c>
       <c r="B193" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C193">
-        <v>107.895</v>
+        <v>93.93899999999999</v>
       </c>
       <c r="D193" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E193" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="194" spans="1:5">
@@ -4473,16 +4461,16 @@
         <v>197</v>
       </c>
       <c r="B194" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C194">
-        <v>115.082</v>
+        <v>83.643</v>
       </c>
       <c r="D194" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E194" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="195" spans="1:5">
@@ -4490,16 +4478,16 @@
         <v>198</v>
       </c>
       <c r="B195" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C195">
-        <v>96.29600000000001</v>
+        <v>87.161</v>
       </c>
       <c r="D195" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E195" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="196" spans="1:5">
@@ -4507,16 +4495,16 @@
         <v>199</v>
       </c>
       <c r="B196" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C196">
-        <v>108.696</v>
+        <v>92.952</v>
       </c>
       <c r="D196" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E196" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="197" spans="1:5">
@@ -4524,16 +4512,16 @@
         <v>200</v>
       </c>
       <c r="B197" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C197">
-        <v>113.115</v>
+        <v>88.889</v>
       </c>
       <c r="D197" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E197" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="198" spans="1:5">
@@ -4541,16 +4529,16 @@
         <v>201</v>
       </c>
       <c r="B198" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C198">
-        <v>95.84399999999999</v>
+        <v>97.77800000000001</v>
       </c>
       <c r="D198" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E198" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="199" spans="1:5">
@@ -4558,16 +4546,16 @@
         <v>202</v>
       </c>
       <c r="B199" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C199">
-        <v>111.717</v>
+        <v>94.73699999999999</v>
       </c>
       <c r="D199" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E199" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="200" spans="1:5">
@@ -4575,16 +4563,16 @@
         <v>203</v>
       </c>
       <c r="B200" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C200">
-        <v>115.493</v>
+        <v>104.425</v>
       </c>
       <c r="D200" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E200" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="201" spans="1:5">
@@ -4592,16 +4580,16 @@
         <v>204</v>
       </c>
       <c r="B201" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C201">
-        <v>100</v>
+        <v>94.286</v>
       </c>
       <c r="D201" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E201" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="202" spans="1:5">
@@ -4609,16 +4597,16 @@
         <v>205</v>
       </c>
       <c r="B202" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C202">
-        <v>134.263</v>
+        <v>86.26900000000001</v>
       </c>
       <c r="D202" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E202" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="203" spans="1:5">
@@ -4626,16 +4614,16 @@
         <v>206</v>
       </c>
       <c r="B203" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C203">
-        <v>105.882</v>
+        <v>87.953</v>
       </c>
       <c r="D203" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E203" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="204" spans="1:5">
@@ -4643,16 +4631,16 @@
         <v>207</v>
       </c>
       <c r="B204" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C204">
-        <v>82.128</v>
+        <v>86.01600000000001</v>
       </c>
       <c r="D204" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E204" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="205" spans="1:5">
@@ -4660,16 +4648,16 @@
         <v>208</v>
       </c>
       <c r="B205" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C205">
-        <v>103.03</v>
+        <v>83.223</v>
       </c>
       <c r="D205" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E205" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="206" spans="1:5">
@@ -4677,16 +4665,16 @@
         <v>209</v>
       </c>
       <c r="B206" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C206">
-        <v>102.842</v>
+        <v>88.40600000000001</v>
       </c>
       <c r="D206" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E206" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="207" spans="1:5">
@@ -4694,16 +4682,16 @@
         <v>210</v>
       </c>
       <c r="B207" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C207">
-        <v>94.35899999999999</v>
+        <v>92.383</v>
       </c>
       <c r="D207" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E207" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="208" spans="1:5">
@@ -4711,16 +4699,16 @@
         <v>211</v>
       </c>
       <c r="B208" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C208">
-        <v>106.345</v>
+        <v>88.06</v>
       </c>
       <c r="D208" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E208" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="209" spans="1:5">
@@ -4728,16 +4716,16 @@
         <v>212</v>
       </c>
       <c r="B209" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C209">
-        <v>96.908</v>
+        <v>85.714</v>
       </c>
       <c r="D209" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E209" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="210" spans="1:5">
@@ -4745,16 +4733,16 @@
         <v>213</v>
       </c>
       <c r="B210" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C210">
-        <v>109.231</v>
+        <v>93.506</v>
       </c>
       <c r="D210" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E210" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="211" spans="1:5">
@@ -4762,16 +4750,16 @@
         <v>214</v>
       </c>
       <c r="B211" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C211">
-        <v>98.723</v>
+        <v>80.822</v>
       </c>
       <c r="D211" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E211" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="212" spans="1:5">
@@ -4779,16 +4767,16 @@
         <v>215</v>
       </c>
       <c r="B212" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C212">
-        <v>113.115</v>
+        <v>100.344</v>
       </c>
       <c r="D212" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E212" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="213" spans="1:5">
@@ -4796,16 +4784,16 @@
         <v>216</v>
       </c>
       <c r="B213" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C213">
-        <v>96.55200000000001</v>
+        <v>75.786</v>
       </c>
       <c r="D213" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E213" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="214" spans="1:5">
@@ -4813,16 +4801,16 @@
         <v>217</v>
       </c>
       <c r="B214" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C214">
-        <v>109.722</v>
+        <v>88.235</v>
       </c>
       <c r="D214" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E214" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="215" spans="1:5">
@@ -4830,16 +4818,16 @@
         <v>218</v>
       </c>
       <c r="B215" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C215">
-        <v>121.696</v>
+        <v>96</v>
       </c>
       <c r="D215" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E215" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="216" spans="1:5">
@@ -4847,16 +4835,16 @@
         <v>219</v>
       </c>
       <c r="B216" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C216">
-        <v>96.783</v>
+        <v>89.474</v>
       </c>
       <c r="D216" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E216" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="217" spans="1:5">
@@ -4864,16 +4852,16 @@
         <v>220</v>
       </c>
       <c r="B217" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C217">
-        <v>108.114</v>
+        <v>7.432</v>
       </c>
       <c r="D217" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E217" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="218" spans="1:5">
@@ -4881,16 +4869,16 @@
         <v>221</v>
       </c>
       <c r="B218" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C218">
-        <v>120.69</v>
+        <v>91.43600000000001</v>
       </c>
       <c r="D218" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E218" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="219" spans="1:5">
@@ -4898,16 +4886,16 @@
         <v>222</v>
       </c>
       <c r="B219" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C219">
-        <v>104.167</v>
+        <v>101.765</v>
       </c>
       <c r="D219" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E219" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="220" spans="1:5">
@@ -4915,16 +4903,16 @@
         <v>223</v>
       </c>
       <c r="B220" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C220">
-        <v>115.493</v>
+        <v>92.09</v>
       </c>
       <c r="D220" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E220" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="221" spans="1:5">
@@ -4932,16 +4920,16 @@
         <v>224</v>
       </c>
       <c r="B221" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C221">
-        <v>8.537000000000001</v>
+        <v>91.489</v>
       </c>
       <c r="D221" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E221" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="222" spans="1:5">
@@ -4949,16 +4937,16 @@
         <v>225</v>
       </c>
       <c r="B222" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C222">
-        <v>103.801</v>
+        <v>102.206</v>
       </c>
       <c r="D222" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E222" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="223" spans="1:5">
@@ -4966,16 +4954,16 @@
         <v>226</v>
       </c>
       <c r="B223" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C223">
-        <v>113.714</v>
+        <v>96.55200000000001</v>
       </c>
       <c r="D223" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E223" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="224" spans="1:5">
@@ -4983,16 +4971,16 @@
         <v>227</v>
       </c>
       <c r="B224" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C224">
-        <v>107.429</v>
+        <v>84.142</v>
       </c>
       <c r="D224" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E224" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="225" spans="1:5">
@@ -5000,16 +4988,16 @@
         <v>228</v>
       </c>
       <c r="B225" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C225">
-        <v>116.667</v>
+        <v>87.571</v>
       </c>
       <c r="D225" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E225" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="226" spans="1:5">
@@ -5017,16 +5005,16 @@
         <v>229</v>
       </c>
       <c r="B226" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C226">
-        <v>97.77800000000001</v>
+        <v>84.286</v>
       </c>
       <c r="D226" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E226" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="227" spans="1:5">
@@ -5034,16 +5022,16 @@
         <v>230</v>
       </c>
       <c r="B227" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C227">
-        <v>112</v>
+        <v>91.76000000000001</v>
       </c>
       <c r="D227" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E227" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="228" spans="1:5">
@@ -5051,16 +5039,16 @@
         <v>231</v>
       </c>
       <c r="B228" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C228">
-        <v>97.36799999999999</v>
+        <v>98.039</v>
       </c>
       <c r="D228" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E228" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="229" spans="1:5">
@@ -5068,16 +5056,16 @@
         <v>232</v>
       </c>
       <c r="B229" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C229">
-        <v>103.169</v>
+        <v>90.14100000000001</v>
       </c>
       <c r="D229" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E229" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="230" spans="1:5">
@@ -5085,16 +5073,16 @@
         <v>233</v>
       </c>
       <c r="B230" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C230">
-        <v>107.692</v>
+        <v>87.69199999999999</v>
       </c>
       <c r="D230" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E230" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="231" spans="1:5">
@@ -5102,16 +5090,16 @@
         <v>234</v>
       </c>
       <c r="B231" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C231">
-        <v>106.747</v>
+        <v>94.39</v>
       </c>
       <c r="D231" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E231" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="232" spans="1:5">
@@ -5119,16 +5107,16 @@
         <v>235</v>
       </c>
       <c r="B232" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="C232">
-        <v>99.01000000000001</v>
+        <v>93.64400000000001</v>
       </c>
       <c r="D232" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E232" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="233" spans="1:5">
@@ -5136,16 +5124,16 @@
         <v>236</v>
       </c>
       <c r="B233" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="C233">
-        <v>103.676</v>
+        <v>89.22</v>
       </c>
       <c r="D233" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E233" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="234" spans="1:5">
@@ -5153,16 +5141,16 @@
         <v>237</v>
       </c>
       <c r="B234" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="C234">
-        <v>96.97</v>
+        <v>100</v>
       </c>
       <c r="D234" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="E234" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
     </row>
     <row r="235" spans="1:5">
@@ -5170,16 +5158,16 @@
         <v>238</v>
       </c>
       <c r="B235" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="C235">
-        <v>111.026</v>
+        <v>100</v>
       </c>
       <c r="D235" t="s">
-        <v>268</v>
+        <v>264<